--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="2"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Vay, trả</t>
   </si>
   <si>
-    <t>Hải Vui đặt cọc</t>
-  </si>
-  <si>
     <t>Chi ứng công tác</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>Vé máy bay anh lâm + chị thanh CT Huế</t>
   </si>
   <si>
-    <t>Chi phí công tác Huế</t>
-  </si>
-  <si>
     <t>Ăn trưa</t>
   </si>
   <si>
@@ -400,6 +394,87 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:102020.BL/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Chị Huệ</t>
+  </si>
+  <si>
+    <t>GC90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Huệ </t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>1CX45</t>
+  </si>
+  <si>
+    <t>1CX90</t>
+  </si>
+  <si>
+    <t>GCX90</t>
+  </si>
+  <si>
+    <t>Thanh Hà</t>
+  </si>
+  <si>
+    <t>A Lâm</t>
+  </si>
+  <si>
+    <t>Hàng mẫu</t>
+  </si>
+  <si>
+    <t>Anh Lâm</t>
+  </si>
+  <si>
+    <t>Anh Nam</t>
+  </si>
+  <si>
+    <t>Máy tính</t>
+  </si>
+  <si>
+    <t>TĐ90</t>
+  </si>
+  <si>
+    <t>Chị trường</t>
+  </si>
+  <si>
+    <t>Biển đỏ</t>
+  </si>
+  <si>
+    <t>Hà Linh</t>
+  </si>
+  <si>
+    <t>Thanh Hòa</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>SN45</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>Nhất Nhất</t>
+  </si>
+  <si>
+    <t>Thủy Vy</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Lương, thưởng</t>
+  </si>
+  <si>
+    <t>Tiếp khách, Công tác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - Chi phí công tác Huế</t>
   </si>
 </sst>
 </file>
@@ -677,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -811,32 +886,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -864,7 +913,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1081,21 +1130,9 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,10 +1142,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1163,7 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1180,9 +1217,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,9 +1239,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,9 +1289,6 @@
     </xf>
     <xf numFmtId="167" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1274,10 +1302,10 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1303,10 +1331,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,14 +1343,8 @@
     <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,9 +1357,6 @@
     <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1347,15 +1366,6 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1367,15 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1417,291 +1418,189 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1714,33 +1613,6 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,6 +1663,104 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2104,938 +2074,954 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="112" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="112" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="112" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="117" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="117" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="117" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="117" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="112"/>
-    <col min="10" max="10" width="14" style="112" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="112"/>
+    <col min="1" max="2" width="11.42578125" style="108" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="113" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="113" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="113" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="108"/>
+    <col min="10" max="10" width="14" style="108" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122" t="s">
+      <c r="A2" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="265" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-    </row>
-    <row r="4" spans="1:17" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="266" t="s">
+      <c r="A3" s="247" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+    </row>
+    <row r="4" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="311" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="271" t="s">
+      <c r="B4" s="311" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="266" t="s">
+      <c r="C4" s="311" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="268" t="s">
+      <c r="D4" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="270" t="s">
+      <c r="E4" s="313" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270" t="s">
+      <c r="F4" s="313"/>
+      <c r="G4" s="313" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="270"/>
-    </row>
-    <row r="5" spans="1:17" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="267"/>
-      <c r="B5" s="272"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="125" t="s">
+      <c r="H4" s="313"/>
+    </row>
+    <row r="5" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="311"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="314" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="G5" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="314" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="306">
         <v>44105</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110" t="s">
+      <c r="B6" s="306"/>
+      <c r="C6" s="307" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="308" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="309"/>
+      <c r="F6" s="310"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="310">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="104">
+        <v>44106</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="126">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
-        <v>44106</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="126">
+      <c r="E7" s="107"/>
+      <c r="F7" s="121">
         <f>455000*(1-41%)</f>
         <v>268450.00000000006</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="126"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="121"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="104">
         <v>44106</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="107"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="121">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="104">
+        <v>44110</v>
+      </c>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="126">
-        <v>455000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
-        <v>44110</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="107">
+        <v>1629900</v>
+      </c>
+      <c r="H9" s="121"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="327">
+        <v>44111</v>
+      </c>
+      <c r="B10" s="327"/>
+      <c r="C10" s="324" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="121"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="328"/>
+      <c r="B11" s="328"/>
+      <c r="C11" s="325"/>
+      <c r="D11" s="330" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="111">
-        <v>1629900</v>
-      </c>
-      <c r="H9" s="126"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
-        <v>44111</v>
-      </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="121">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="328"/>
+      <c r="B12" s="328"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="330" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="126"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110" t="s">
+      <c r="E12" s="107"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="121">
+        <v>902000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="328"/>
+      <c r="B13" s="328"/>
+      <c r="C13" s="325"/>
+      <c r="D13" s="330" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="126">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110" t="s">
+      <c r="E13" s="107"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="121">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="328"/>
+      <c r="B14" s="328"/>
+      <c r="C14" s="325"/>
+      <c r="D14" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="126">
-        <v>902000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="121">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="328"/>
+      <c r="B15" s="328"/>
+      <c r="C15" s="325"/>
+      <c r="D15" s="330" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="126">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="127" t="s">
+      <c r="E15" s="107"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="123">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="329"/>
+      <c r="B16" s="329"/>
+      <c r="C16" s="326"/>
+      <c r="D16" s="330" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="126">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110" t="s">
+      <c r="E16" s="107"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="123">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="104">
+        <v>44115</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="107"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="123">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="104">
+        <v>44116</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="107"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="107">
+        <v>2000000</v>
+      </c>
+      <c r="H18" s="123"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="104">
+        <v>44116</v>
+      </c>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="128">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110" t="s">
+      <c r="E19" s="107"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="107">
+        <v>3100000</v>
+      </c>
+      <c r="H19" s="123"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="104">
+        <v>44117</v>
+      </c>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="128">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
-        <v>44115</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="128">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
-        <v>44116</v>
-      </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="111">
-        <v>2000000</v>
-      </c>
-      <c r="H18" s="128"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
-        <v>44116</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="111">
-        <v>3100000</v>
-      </c>
-      <c r="H19" s="128"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
-        <v>44117</v>
-      </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="111">
+      <c r="E20" s="107"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="107">
         <v>1280000</v>
       </c>
-      <c r="H20" s="128"/>
+      <c r="H20" s="123"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="128"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="123"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="128"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="123"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="128"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="123"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="128"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="123"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="128"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="123"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="128"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="123"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="128"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="123"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="128"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="123"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="128"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="123"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="128"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="123"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="128"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="123"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="128"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="123"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="126"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="128"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="121"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="123"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="128"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="123"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="128"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="123"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="110"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="128"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="123"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="128"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="123"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="128"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="123"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="128"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="128"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="128"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="128"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="123"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="128"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="123"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="128"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="123"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="128"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="123"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="128"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="123"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="128"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="128"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="128"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="128"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="123"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="128"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="128"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="123"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="128"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="123"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="128"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="123"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="128"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="123"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="128"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="123"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="126"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="128"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="121"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="123"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="128"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="123"/>
     </row>
     <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="128"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="123"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="128"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="123"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="126"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="128"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="121"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="123"/>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="128"/>
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="123"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="111"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="128"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="123"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="128"/>
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="123"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="128"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="123"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="111"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="128"/>
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="123"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="128"/>
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="123"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="128"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="123"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="128"/>
+      <c r="A69" s="104"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="123"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="128"/>
+      <c r="A70" s="104"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="123"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="109"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="128"/>
+      <c r="A71" s="104"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="123"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="109"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="111"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="128"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="123"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="128"/>
-    </row>
-    <row r="74" spans="1:10" s="131" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="262" t="s">
+      <c r="A73" s="104"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="123"/>
+    </row>
+    <row r="74" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="263"/>
-      <c r="C74" s="263"/>
-      <c r="D74" s="264"/>
-      <c r="E74" s="130">
+      <c r="B74" s="245"/>
+      <c r="C74" s="245"/>
+      <c r="D74" s="246"/>
+      <c r="E74" s="125">
         <f>SUM(E7:E73)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="130">
+      <c r="F74" s="125">
         <f>SUM(F7:F73)</f>
         <v>268450.00000000006</v>
       </c>
-      <c r="G74" s="130">
+      <c r="G74" s="125">
         <f>SUM(G7:G73)</f>
         <v>8009900</v>
       </c>
-      <c r="H74" s="130">
+      <c r="H74" s="125">
         <f>SUM(H7:H73)</f>
         <v>3562000</v>
       </c>
-      <c r="J74" s="132"/>
-    </row>
-    <row r="75" spans="1:10" s="131" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="133"/>
-      <c r="B75" s="133"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="133"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="134"/>
-      <c r="J75" s="132"/>
-    </row>
-    <row r="76" spans="1:10" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="273" t="s">
+      <c r="J74" s="127"/>
+    </row>
+    <row r="75" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="128"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="129"/>
+      <c r="J75" s="127"/>
+    </row>
+    <row r="76" spans="1:10" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="273"/>
-      <c r="C76" s="273"/>
-      <c r="D76" s="133"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="134"/>
-      <c r="J76" s="132"/>
+      <c r="B76" s="243"/>
+      <c r="C76" s="243"/>
+      <c r="D76" s="128"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="129"/>
+      <c r="J76" s="127"/>
     </row>
     <row r="77" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="223" t="s">
+      <c r="C77" s="207" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="64"/>
-      <c r="F77" s="223" t="s">
+      <c r="F77" s="207" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="64"/>
@@ -3043,7 +3029,7 @@
     </row>
     <row r="78" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C78" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D78" s="5"/>
       <c r="F78" s="4" t="s">
@@ -3053,16 +3039,16 @@
       <c r="H78" s="5"/>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="147"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="141"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H74">
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A3:H3"/>
@@ -3072,6 +3058,9 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.36" bottom="0.41" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3083,1626 +3072,1836 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="153" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="218"/>
-    <col min="3" max="3" width="7.5703125" style="153" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" style="153"/>
-    <col min="6" max="6" width="8.5703125" style="188"/>
-    <col min="7" max="7" width="5.5703125" style="188" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="187" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="187" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="187" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="219"/>
-    <col min="12" max="12" width="16.42578125" style="187" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="187" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="187" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="187" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="188" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.5703125" style="188"/>
+    <col min="1" max="1" width="5.42578125" style="147" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="202"/>
+    <col min="3" max="3" width="7.5703125" style="147" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" style="147"/>
+    <col min="6" max="6" width="8.5703125" style="179"/>
+    <col min="7" max="7" width="5.5703125" style="179" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="178" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="178" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="178" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="203"/>
+    <col min="12" max="12" width="16.42578125" style="178" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="178" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="178" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="178" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="179" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="179"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
+    <row r="1" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="153"/>
-    </row>
-    <row r="2" spans="1:16" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-    </row>
-    <row r="3" spans="1:16" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="307" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="147"/>
+    </row>
+    <row r="2" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+    </row>
+    <row r="3" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="307"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="307"/>
-    </row>
-    <row r="4" spans="1:16" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="307" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="307"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="307"/>
-      <c r="L4" s="307"/>
-      <c r="M4" s="307"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-    </row>
-    <row r="5" spans="1:16" s="148" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="296" t="s">
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+    </row>
+    <row r="4" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="258" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+    </row>
+    <row r="5" spans="1:16" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="259" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="315" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="259" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="301" t="s">
+      <c r="D5" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302" t="s">
+      <c r="E5" s="259"/>
+      <c r="F5" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="293"/>
-      <c r="N5" s="293"/>
-      <c r="O5" s="293"/>
-      <c r="P5" s="274" t="s">
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="260" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="148" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="297"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="296" t="s">
+    <row r="6" spans="1:16" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="259"/>
+      <c r="B6" s="315"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="296" t="s">
+      <c r="E6" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="296" t="s">
+      <c r="F6" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="296" t="s">
+      <c r="G6" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="294" t="s">
+      <c r="H6" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="294" t="s">
+      <c r="I6" s="316" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="298" t="s">
+      <c r="J6" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="298"/>
-      <c r="L6" s="294" t="s">
+      <c r="K6" s="262"/>
+      <c r="L6" s="316" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="294" t="s">
+      <c r="M6" s="316" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="294" t="s">
+      <c r="N6" s="316" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="294" t="s">
+      <c r="O6" s="316" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="276"/>
-    </row>
-    <row r="7" spans="1:16" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="297"/>
-      <c r="B7" s="300"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="180" t="s">
+      <c r="P6" s="260"/>
+    </row>
+    <row r="7" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="259"/>
+      <c r="B7" s="315"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="317" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="156" t="s">
+      <c r="K7" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="295"/>
-      <c r="M7" s="295"/>
-      <c r="N7" s="295"/>
-      <c r="O7" s="295"/>
-      <c r="P7" s="276"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="316"/>
+      <c r="P7" s="260"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="182"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="184"/>
+      <c r="A8" s="255">
+        <v>808</v>
+      </c>
+      <c r="B8" s="252">
+        <v>44107</v>
+      </c>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="255" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="181">
+        <v>24</v>
+      </c>
+      <c r="H8" s="182">
+        <v>225000</v>
+      </c>
+      <c r="I8" s="182">
+        <f>G8*H8</f>
+        <v>5400000</v>
+      </c>
+      <c r="J8" s="182">
+        <v>200000</v>
+      </c>
+      <c r="K8" s="183">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="182">
+        <f>I8*(1-K8)</f>
+        <v>3186000.0000000005</v>
+      </c>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="181"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="182"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="184"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="182"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="184"/>
+      <c r="A9" s="256"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="194" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="194">
+        <v>24</v>
+      </c>
+      <c r="H9" s="195">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="195">
+        <f t="shared" ref="I9:I18" si="0">G9*H9</f>
+        <v>10920000</v>
+      </c>
+      <c r="J9" s="195"/>
+      <c r="K9" s="196">
+        <v>0.41</v>
+      </c>
+      <c r="L9" s="195">
+        <f t="shared" ref="L9:L18" si="1">I9*(1-K9)</f>
+        <v>6442800.0000000009</v>
+      </c>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="194"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="257"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="185" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="185">
+        <v>12</v>
+      </c>
+      <c r="H10" s="186">
+        <v>485000</v>
+      </c>
+      <c r="I10" s="186">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187">
+        <v>0.41</v>
+      </c>
+      <c r="L10" s="186">
+        <f t="shared" si="1"/>
+        <v>3433800.0000000005</v>
+      </c>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="185"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="182"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="189"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="184"/>
+      <c r="A11" s="236">
+        <v>813</v>
+      </c>
+      <c r="B11" s="174">
+        <v>44106</v>
+      </c>
+      <c r="C11" s="236" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="236" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="236" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="175">
+        <v>1</v>
+      </c>
+      <c r="H11" s="176">
+        <v>455000</v>
+      </c>
+      <c r="I11" s="182">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="J11" s="176"/>
+      <c r="K11" s="177">
+        <v>0.41</v>
+      </c>
+      <c r="L11" s="182">
+        <f t="shared" si="1"/>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="175"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="274"/>
-      <c r="B12" s="304"/>
-      <c r="C12" s="274"/>
-      <c r="D12" s="274"/>
-      <c r="E12" s="274"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="185"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="194"/>
+      <c r="A12" s="236">
+        <v>814</v>
+      </c>
+      <c r="B12" s="174">
+        <v>44111</v>
+      </c>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="236" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="175">
+        <v>36</v>
+      </c>
+      <c r="H12" s="176">
+        <v>485000</v>
+      </c>
+      <c r="I12" s="182">
+        <f t="shared" si="0"/>
+        <v>17460000</v>
+      </c>
+      <c r="J12" s="323"/>
+      <c r="K12" s="177">
+        <v>0.41</v>
+      </c>
+      <c r="L12" s="182">
+        <f t="shared" si="1"/>
+        <v>10301400.000000002</v>
+      </c>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="180"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="275"/>
-      <c r="B13" s="306"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="182"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="185"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="184"/>
+      <c r="A13" s="255">
+        <v>816</v>
+      </c>
+      <c r="B13" s="252">
+        <v>44112</v>
+      </c>
+      <c r="C13" s="255"/>
+      <c r="D13" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="255"/>
+      <c r="F13" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="181">
+        <v>4</v>
+      </c>
+      <c r="H13" s="182">
+        <v>225000</v>
+      </c>
+      <c r="I13" s="182">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="182">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="184"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="257"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="185" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="185">
+        <v>12</v>
+      </c>
+      <c r="H14" s="186">
+        <v>455000</v>
+      </c>
+      <c r="I14" s="186">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="186">
+        <f t="shared" si="1"/>
+        <v>2730000</v>
+      </c>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="185"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="182"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="199"/>
+      <c r="A15" s="236">
+        <v>819</v>
+      </c>
+      <c r="B15" s="174">
+        <v>44116</v>
+      </c>
+      <c r="C15" s="236" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="236" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="236"/>
+      <c r="F15" s="175" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="175">
+        <v>2</v>
+      </c>
+      <c r="H15" s="176">
+        <v>550000</v>
+      </c>
+      <c r="I15" s="182">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="J15" s="176"/>
+      <c r="K15" s="177">
+        <v>1</v>
+      </c>
+      <c r="L15" s="182">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="189"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="182"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="184"/>
+      <c r="A16" s="236">
+        <v>821</v>
+      </c>
+      <c r="B16" s="174">
+        <v>44113</v>
+      </c>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="236"/>
+      <c r="F16" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="175">
+        <v>48</v>
+      </c>
+      <c r="H16" s="176">
+        <v>455000</v>
+      </c>
+      <c r="I16" s="182">
+        <f t="shared" si="0"/>
+        <v>21840000</v>
+      </c>
+      <c r="J16" s="176"/>
+      <c r="K16" s="177">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="182">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="175"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="182"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="184"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="182"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="184"/>
+      <c r="A17" s="255">
+        <v>822</v>
+      </c>
+      <c r="B17" s="252">
+        <v>44113</v>
+      </c>
+      <c r="C17" s="255"/>
+      <c r="D17" s="255" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="255"/>
+      <c r="F17" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="181">
+        <v>12</v>
+      </c>
+      <c r="H17" s="182">
+        <v>225000</v>
+      </c>
+      <c r="I17" s="182">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+      <c r="J17" s="182"/>
+      <c r="K17" s="183">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="182">
+        <f t="shared" si="1"/>
+        <v>1350000</v>
+      </c>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="181"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="257"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="185" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="185">
+        <v>12</v>
+      </c>
+      <c r="H18" s="186">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="186">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="186">
+        <f t="shared" si="1"/>
+        <v>2730000</v>
+      </c>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="185"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="182"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="184"/>
+      <c r="A19" s="318"/>
+      <c r="B19" s="319"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="320"/>
+      <c r="G19" s="320"/>
+      <c r="H19" s="321"/>
+      <c r="I19" s="321"/>
+      <c r="J19" s="321"/>
+      <c r="K19" s="322"/>
+      <c r="L19" s="321"/>
+      <c r="M19" s="321"/>
+      <c r="N19" s="321"/>
+      <c r="O19" s="321"/>
+      <c r="P19" s="320"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="182"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="185"/>
-      <c r="K20" s="186"/>
-      <c r="L20" s="185"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
-      <c r="P20" s="184"/>
+      <c r="A20" s="238"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="195"/>
+      <c r="M20" s="195"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="194"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="277"/>
-      <c r="B21" s="278"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="200"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="190"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="277"/>
-      <c r="B22" s="279"/>
-      <c r="C22" s="282"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="282"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204"/>
-      <c r="P22" s="203"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="190"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="277"/>
-      <c r="B23" s="279"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="285"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="203"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="190"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="277"/>
-      <c r="B24" s="279"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="204"/>
-      <c r="O24" s="204"/>
-      <c r="P24" s="203"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="301"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="190"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="277"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="282"/>
-      <c r="D25" s="285"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="204"/>
-      <c r="P25" s="203"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="190"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="277"/>
-      <c r="B26" s="279"/>
-      <c r="C26" s="282"/>
-      <c r="D26" s="285"/>
-      <c r="E26" s="282"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="204"/>
-      <c r="P26" s="203"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="190"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="277"/>
-      <c r="B27" s="280"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="286"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="207"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="207"/>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="206"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="301"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="190"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="209"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="184"/>
+      <c r="A28" s="305"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="194"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="277"/>
-      <c r="B29" s="304"/>
-      <c r="C29" s="274"/>
-      <c r="D29" s="274"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="193"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="190"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="301"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="194"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="277"/>
-      <c r="B30" s="305"/>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="276"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="211"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="210"/>
+      <c r="A30" s="190"/>
+      <c r="B30" s="301"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="195"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="195"/>
+      <c r="P30" s="194"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="277"/>
-      <c r="B31" s="305"/>
-      <c r="C31" s="276"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="276"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="210"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="301"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="195"/>
+      <c r="P31" s="194"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="277"/>
-      <c r="B32" s="306"/>
-      <c r="C32" s="275"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="196"/>
-      <c r="M32" s="196"/>
-      <c r="N32" s="196"/>
-      <c r="O32" s="196"/>
-      <c r="P32" s="195"/>
+      <c r="A32" s="190"/>
+      <c r="B32" s="301"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="195"/>
+      <c r="P32" s="194"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="182"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="185"/>
-      <c r="M33" s="185"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="185"/>
-      <c r="P33" s="184"/>
+      <c r="A33" s="238"/>
+      <c r="B33" s="237"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="195"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="195"/>
+      <c r="O33" s="195"/>
+      <c r="P33" s="194"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="182"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="185"/>
-      <c r="M34" s="185"/>
-      <c r="N34" s="185"/>
-      <c r="O34" s="185"/>
-      <c r="P34" s="184"/>
+      <c r="A34" s="238"/>
+      <c r="B34" s="237"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="238"/>
+      <c r="E34" s="238"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="194"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="182"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="185"/>
-      <c r="K35" s="186"/>
-      <c r="L35" s="185"/>
-      <c r="M35" s="185"/>
-      <c r="O35" s="185"/>
-      <c r="P35" s="184"/>
+      <c r="A35" s="238"/>
+      <c r="B35" s="237"/>
+      <c r="C35" s="238"/>
+      <c r="D35" s="238"/>
+      <c r="E35" s="238"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
+      <c r="P35" s="194"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="182"/>
-      <c r="B36" s="183"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="186"/>
-      <c r="L36" s="185"/>
-      <c r="M36" s="185"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="185"/>
-      <c r="P36" s="184"/>
+      <c r="A36" s="238"/>
+      <c r="B36" s="237"/>
+      <c r="C36" s="238"/>
+      <c r="D36" s="238"/>
+      <c r="E36" s="238"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="195"/>
+      <c r="P36" s="194"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="274"/>
-      <c r="B37" s="278"/>
-      <c r="C37" s="281"/>
-      <c r="D37" s="281"/>
-      <c r="E37" s="281"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="191"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="191"/>
-      <c r="P37" s="190"/>
+      <c r="A37" s="190"/>
+      <c r="B37" s="301"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="195"/>
+      <c r="M37" s="195"/>
+      <c r="N37" s="195"/>
+      <c r="O37" s="195"/>
+      <c r="P37" s="194"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="276"/>
-      <c r="B38" s="279"/>
-      <c r="C38" s="282"/>
-      <c r="D38" s="282"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="211"/>
-      <c r="K38" s="212"/>
-      <c r="L38" s="211"/>
-      <c r="M38" s="211"/>
-      <c r="N38" s="211"/>
-      <c r="O38" s="211"/>
-      <c r="P38" s="210"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="301"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="195"/>
+      <c r="M38" s="195"/>
+      <c r="N38" s="195"/>
+      <c r="O38" s="195"/>
+      <c r="P38" s="194"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="276"/>
-      <c r="B39" s="279"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="211"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="211"/>
-      <c r="M39" s="211"/>
-      <c r="N39" s="211"/>
-      <c r="O39" s="211"/>
-      <c r="P39" s="210"/>
+      <c r="A39" s="190"/>
+      <c r="B39" s="301"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="195"/>
+      <c r="P39" s="194"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="275"/>
-      <c r="B40" s="280"/>
-      <c r="C40" s="283"/>
-      <c r="D40" s="283"/>
-      <c r="E40" s="283"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="197"/>
-      <c r="L40" s="196"/>
-      <c r="M40" s="196"/>
-      <c r="N40" s="196"/>
-      <c r="O40" s="196"/>
-      <c r="P40" s="195"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="301"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="196"/>
+      <c r="L40" s="195"/>
+      <c r="M40" s="195"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="195"/>
+      <c r="P40" s="194"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="277"/>
-      <c r="B41" s="304"/>
-      <c r="C41" s="274"/>
-      <c r="D41" s="274"/>
-      <c r="E41" s="274"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="193"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="287"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="195"/>
+      <c r="P41" s="263"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="277"/>
-      <c r="B42" s="305"/>
-      <c r="C42" s="276"/>
-      <c r="D42" s="276"/>
-      <c r="E42" s="276"/>
-      <c r="F42" s="210"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="212"/>
-      <c r="L42" s="211"/>
-      <c r="M42" s="211"/>
-      <c r="N42" s="211"/>
-      <c r="O42" s="211"/>
-      <c r="P42" s="289"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="301"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="195"/>
+      <c r="N42" s="195"/>
+      <c r="O42" s="195"/>
+      <c r="P42" s="263"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="277"/>
-      <c r="B43" s="305"/>
-      <c r="C43" s="276"/>
-      <c r="D43" s="276"/>
-      <c r="E43" s="276"/>
-      <c r="F43" s="210"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="211"/>
-      <c r="I43" s="211"/>
-      <c r="J43" s="211"/>
-      <c r="K43" s="212"/>
-      <c r="L43" s="211"/>
-      <c r="M43" s="211"/>
-      <c r="N43" s="211"/>
-      <c r="O43" s="211"/>
-      <c r="P43" s="289"/>
+      <c r="A43" s="190"/>
+      <c r="B43" s="301"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="195"/>
+      <c r="P43" s="263"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="277"/>
-      <c r="B44" s="306"/>
-      <c r="C44" s="275"/>
-      <c r="D44" s="275"/>
-      <c r="E44" s="275"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="197"/>
-      <c r="L44" s="196"/>
-      <c r="M44" s="196"/>
-      <c r="N44" s="196"/>
-      <c r="O44" s="196"/>
-      <c r="P44" s="288"/>
+      <c r="A44" s="190"/>
+      <c r="B44" s="301"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
+      <c r="K44" s="196"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="195"/>
+      <c r="O44" s="195"/>
+      <c r="P44" s="263"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="274"/>
-      <c r="B45" s="278"/>
-      <c r="C45" s="281"/>
-      <c r="D45" s="281"/>
-      <c r="E45" s="281"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="193"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
-      <c r="N45" s="191"/>
-      <c r="O45" s="191"/>
-      <c r="P45" s="287"/>
+      <c r="A45" s="190"/>
+      <c r="B45" s="301"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="195"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="195"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="195"/>
+      <c r="M45" s="195"/>
+      <c r="N45" s="195"/>
+      <c r="O45" s="195"/>
+      <c r="P45" s="263"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="275"/>
-      <c r="B46" s="280"/>
-      <c r="C46" s="283"/>
-      <c r="D46" s="283"/>
-      <c r="E46" s="283"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="196"/>
-      <c r="J46" s="196"/>
-      <c r="K46" s="197"/>
-      <c r="L46" s="196"/>
-      <c r="M46" s="196"/>
-      <c r="N46" s="196"/>
-      <c r="O46" s="196"/>
-      <c r="P46" s="288"/>
+      <c r="A46" s="190"/>
+      <c r="B46" s="301"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="196"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="195"/>
+      <c r="O46" s="195"/>
+      <c r="P46" s="263"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="182"/>
-      <c r="B47" s="183"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="186"/>
-      <c r="L47" s="185"/>
-      <c r="M47" s="185"/>
-      <c r="N47" s="185"/>
-      <c r="O47" s="185"/>
-      <c r="P47" s="199"/>
+      <c r="A47" s="238"/>
+      <c r="B47" s="237"/>
+      <c r="C47" s="238"/>
+      <c r="D47" s="238"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="195"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="195"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="195"/>
+      <c r="M47" s="195"/>
+      <c r="N47" s="195"/>
+      <c r="O47" s="195"/>
+      <c r="P47" s="304"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="182"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="184"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="185"/>
-      <c r="K48" s="186"/>
-      <c r="L48" s="185"/>
-      <c r="M48" s="185"/>
-      <c r="N48" s="185"/>
-      <c r="O48" s="185"/>
-      <c r="P48" s="184"/>
+      <c r="A48" s="238"/>
+      <c r="B48" s="237"/>
+      <c r="C48" s="238"/>
+      <c r="D48" s="238"/>
+      <c r="E48" s="238"/>
+      <c r="F48" s="194"/>
+      <c r="G48" s="194"/>
+      <c r="H48" s="195"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="195"/>
+      <c r="K48" s="196"/>
+      <c r="L48" s="195"/>
+      <c r="M48" s="195"/>
+      <c r="N48" s="195"/>
+      <c r="O48" s="195"/>
+      <c r="P48" s="194"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="274"/>
-      <c r="B49" s="304"/>
-      <c r="C49" s="274"/>
-      <c r="D49" s="274"/>
-      <c r="E49" s="274"/>
-      <c r="F49" s="190"/>
-      <c r="G49" s="190"/>
-      <c r="H49" s="191"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="191"/>
-      <c r="K49" s="193"/>
-      <c r="L49" s="191"/>
-      <c r="M49" s="191"/>
-      <c r="N49" s="191"/>
-      <c r="O49" s="191"/>
-      <c r="P49" s="290"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="301"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="195"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="195"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="195"/>
+      <c r="M49" s="195"/>
+      <c r="N49" s="195"/>
+      <c r="O49" s="195"/>
+      <c r="P49" s="263"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="276"/>
-      <c r="B50" s="305"/>
-      <c r="C50" s="276"/>
-      <c r="D50" s="276"/>
-      <c r="E50" s="276"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="210"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="211"/>
-      <c r="J50" s="211"/>
-      <c r="K50" s="212"/>
-      <c r="L50" s="211"/>
-      <c r="M50" s="211"/>
-      <c r="N50" s="211"/>
-      <c r="O50" s="211"/>
-      <c r="P50" s="291"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="301"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="195"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="195"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="195"/>
+      <c r="M50" s="195"/>
+      <c r="N50" s="195"/>
+      <c r="O50" s="195"/>
+      <c r="P50" s="263"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="275"/>
-      <c r="B51" s="306"/>
-      <c r="C51" s="275"/>
-      <c r="D51" s="275"/>
-      <c r="E51" s="275"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="197"/>
-      <c r="L51" s="196"/>
-      <c r="M51" s="196"/>
-      <c r="N51" s="196"/>
-      <c r="O51" s="196"/>
-      <c r="P51" s="292"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="301"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="195"/>
+      <c r="N51" s="195"/>
+      <c r="O51" s="195"/>
+      <c r="P51" s="263"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="182"/>
-      <c r="B52" s="183"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="182"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="184"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="186"/>
-      <c r="L52" s="185"/>
-      <c r="M52" s="185"/>
-      <c r="N52" s="185"/>
-      <c r="O52" s="185"/>
-      <c r="P52" s="199"/>
+      <c r="A52" s="238"/>
+      <c r="B52" s="237"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="238"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="195"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="195"/>
+      <c r="M52" s="195"/>
+      <c r="N52" s="195"/>
+      <c r="O52" s="195"/>
+      <c r="P52" s="304"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="182"/>
-      <c r="B53" s="183"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="184"/>
-      <c r="H53" s="185"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="185"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="185"/>
-      <c r="M53" s="185"/>
-      <c r="N53" s="185"/>
-      <c r="O53" s="185"/>
-      <c r="P53" s="184"/>
+      <c r="A53" s="238"/>
+      <c r="B53" s="237"/>
+      <c r="C53" s="238"/>
+      <c r="D53" s="238"/>
+      <c r="E53" s="238"/>
+      <c r="F53" s="194"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="195"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="195"/>
+      <c r="K53" s="196"/>
+      <c r="L53" s="195"/>
+      <c r="M53" s="195"/>
+      <c r="N53" s="195"/>
+      <c r="O53" s="195"/>
+      <c r="P53" s="194"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="182"/>
-      <c r="B54" s="183"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="182"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="185"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="185"/>
-      <c r="K54" s="186"/>
-      <c r="L54" s="185"/>
-      <c r="M54" s="185"/>
-      <c r="N54" s="185"/>
-      <c r="O54" s="185"/>
-      <c r="P54" s="184"/>
+      <c r="A54" s="238"/>
+      <c r="B54" s="237"/>
+      <c r="C54" s="238"/>
+      <c r="D54" s="238"/>
+      <c r="E54" s="238"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="195"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="195"/>
+      <c r="M54" s="195"/>
+      <c r="N54" s="195"/>
+      <c r="O54" s="195"/>
+      <c r="P54" s="194"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="182"/>
-      <c r="B55" s="183"/>
-      <c r="C55" s="182"/>
-      <c r="D55" s="182"/>
-      <c r="E55" s="182"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="184"/>
-      <c r="H55" s="185"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="185"/>
-      <c r="K55" s="186"/>
-      <c r="L55" s="185"/>
-      <c r="M55" s="185"/>
-      <c r="N55" s="185"/>
-      <c r="O55" s="185"/>
-      <c r="P55" s="184"/>
+      <c r="A55" s="238"/>
+      <c r="B55" s="237"/>
+      <c r="C55" s="238"/>
+      <c r="D55" s="238"/>
+      <c r="E55" s="238"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="195"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="195"/>
+      <c r="K55" s="196"/>
+      <c r="L55" s="195"/>
+      <c r="M55" s="195"/>
+      <c r="N55" s="195"/>
+      <c r="O55" s="195"/>
+      <c r="P55" s="194"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="182"/>
-      <c r="B56" s="183"/>
-      <c r="C56" s="182"/>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="184"/>
-      <c r="G56" s="184"/>
-      <c r="H56" s="185"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="185"/>
-      <c r="K56" s="186"/>
-      <c r="L56" s="185"/>
-      <c r="M56" s="185"/>
-      <c r="N56" s="185"/>
-      <c r="O56" s="185"/>
-      <c r="P56" s="184"/>
+      <c r="A56" s="238"/>
+      <c r="B56" s="237"/>
+      <c r="C56" s="238"/>
+      <c r="D56" s="238"/>
+      <c r="E56" s="238"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
+      <c r="K56" s="196"/>
+      <c r="L56" s="195"/>
+      <c r="M56" s="195"/>
+      <c r="N56" s="195"/>
+      <c r="O56" s="195"/>
+      <c r="P56" s="194"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="182"/>
-      <c r="B57" s="183"/>
-      <c r="C57" s="182"/>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="184"/>
-      <c r="G57" s="184"/>
-      <c r="H57" s="185"/>
-      <c r="I57" s="185"/>
-      <c r="J57" s="185"/>
-      <c r="K57" s="186"/>
-      <c r="L57" s="185"/>
-      <c r="M57" s="185"/>
-      <c r="N57" s="185"/>
-      <c r="O57" s="185"/>
-      <c r="P57" s="184"/>
+      <c r="A57" s="238"/>
+      <c r="B57" s="237"/>
+      <c r="C57" s="238"/>
+      <c r="D57" s="238"/>
+      <c r="E57" s="238"/>
+      <c r="F57" s="194"/>
+      <c r="G57" s="194"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
+      <c r="K57" s="196"/>
+      <c r="L57" s="195"/>
+      <c r="M57" s="195"/>
+      <c r="N57" s="195"/>
+      <c r="O57" s="195"/>
+      <c r="P57" s="194"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="182"/>
-      <c r="B58" s="183"/>
-      <c r="C58" s="182"/>
-      <c r="D58" s="182"/>
-      <c r="E58" s="182"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="185"/>
-      <c r="I58" s="185"/>
-      <c r="J58" s="185"/>
-      <c r="K58" s="186"/>
-      <c r="L58" s="185"/>
-      <c r="M58" s="185"/>
-      <c r="N58" s="185"/>
-      <c r="O58" s="185"/>
-      <c r="P58" s="184"/>
+      <c r="A58" s="238"/>
+      <c r="B58" s="237"/>
+      <c r="C58" s="238"/>
+      <c r="D58" s="238"/>
+      <c r="E58" s="238"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
+      <c r="K58" s="196"/>
+      <c r="L58" s="195"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="195"/>
+      <c r="O58" s="195"/>
+      <c r="P58" s="194"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="274"/>
-      <c r="B59" s="304"/>
-      <c r="C59" s="274"/>
-      <c r="D59" s="274"/>
-      <c r="E59" s="274"/>
-      <c r="F59" s="190"/>
-      <c r="G59" s="190"/>
-      <c r="H59" s="191"/>
-      <c r="I59" s="191"/>
-      <c r="J59" s="191"/>
-      <c r="K59" s="193"/>
-      <c r="L59" s="191"/>
-      <c r="M59" s="191"/>
-      <c r="N59" s="191"/>
-      <c r="O59" s="191"/>
-      <c r="P59" s="190"/>
+      <c r="A59" s="190"/>
+      <c r="B59" s="301"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="190"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="194"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
+      <c r="K59" s="196"/>
+      <c r="L59" s="195"/>
+      <c r="M59" s="195"/>
+      <c r="N59" s="195"/>
+      <c r="O59" s="195"/>
+      <c r="P59" s="194"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="275"/>
-      <c r="B60" s="306"/>
-      <c r="C60" s="275"/>
-      <c r="D60" s="275"/>
-      <c r="E60" s="275"/>
-      <c r="F60" s="195"/>
-      <c r="G60" s="195"/>
-      <c r="H60" s="196"/>
-      <c r="I60" s="196"/>
-      <c r="J60" s="196"/>
-      <c r="K60" s="197"/>
-      <c r="L60" s="196"/>
-      <c r="M60" s="196"/>
-      <c r="N60" s="196"/>
-      <c r="O60" s="196"/>
-      <c r="P60" s="195"/>
+      <c r="A60" s="190"/>
+      <c r="B60" s="301"/>
+      <c r="C60" s="190"/>
+      <c r="D60" s="190"/>
+      <c r="E60" s="190"/>
+      <c r="F60" s="194"/>
+      <c r="G60" s="194"/>
+      <c r="H60" s="195"/>
+      <c r="I60" s="195"/>
+      <c r="J60" s="195"/>
+      <c r="K60" s="196"/>
+      <c r="L60" s="195"/>
+      <c r="M60" s="195"/>
+      <c r="N60" s="195"/>
+      <c r="O60" s="195"/>
+      <c r="P60" s="194"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="274"/>
-      <c r="B61" s="304"/>
-      <c r="C61" s="274"/>
-      <c r="D61" s="274"/>
-      <c r="E61" s="274"/>
-      <c r="F61" s="190"/>
-      <c r="G61" s="190"/>
-      <c r="H61" s="191"/>
-      <c r="I61" s="191"/>
-      <c r="J61" s="191"/>
-      <c r="K61" s="193"/>
-      <c r="L61" s="191"/>
-      <c r="M61" s="191"/>
-      <c r="N61" s="191"/>
-      <c r="O61" s="191"/>
-      <c r="P61" s="190"/>
+      <c r="A61" s="190"/>
+      <c r="B61" s="301"/>
+      <c r="C61" s="190"/>
+      <c r="D61" s="190"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="194"/>
+      <c r="G61" s="194"/>
+      <c r="H61" s="195"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
+      <c r="K61" s="196"/>
+      <c r="L61" s="195"/>
+      <c r="M61" s="195"/>
+      <c r="N61" s="195"/>
+      <c r="O61" s="195"/>
+      <c r="P61" s="194"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="276"/>
-      <c r="B62" s="305"/>
-      <c r="C62" s="276"/>
-      <c r="D62" s="276"/>
-      <c r="E62" s="276"/>
-      <c r="F62" s="210"/>
-      <c r="G62" s="210"/>
-      <c r="H62" s="211"/>
-      <c r="I62" s="211"/>
-      <c r="J62" s="211"/>
-      <c r="K62" s="212"/>
-      <c r="L62" s="211"/>
-      <c r="M62" s="211"/>
-      <c r="N62" s="211"/>
-      <c r="O62" s="211"/>
-      <c r="P62" s="210"/>
+      <c r="A62" s="190"/>
+      <c r="B62" s="301"/>
+      <c r="C62" s="190"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="194"/>
+      <c r="G62" s="194"/>
+      <c r="H62" s="195"/>
+      <c r="I62" s="195"/>
+      <c r="J62" s="195"/>
+      <c r="K62" s="196"/>
+      <c r="L62" s="195"/>
+      <c r="M62" s="195"/>
+      <c r="N62" s="195"/>
+      <c r="O62" s="195"/>
+      <c r="P62" s="194"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="276"/>
-      <c r="B63" s="305"/>
-      <c r="C63" s="276"/>
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
-      <c r="F63" s="210"/>
-      <c r="G63" s="210"/>
-      <c r="H63" s="211"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="212"/>
-      <c r="L63" s="211"/>
-      <c r="M63" s="211"/>
-      <c r="N63" s="211"/>
-      <c r="O63" s="211"/>
-      <c r="P63" s="210"/>
+      <c r="A63" s="190"/>
+      <c r="B63" s="301"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="190"/>
+      <c r="F63" s="194"/>
+      <c r="G63" s="194"/>
+      <c r="H63" s="195"/>
+      <c r="I63" s="195"/>
+      <c r="J63" s="195"/>
+      <c r="K63" s="196"/>
+      <c r="L63" s="195"/>
+      <c r="M63" s="195"/>
+      <c r="N63" s="195"/>
+      <c r="O63" s="195"/>
+      <c r="P63" s="194"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="276"/>
-      <c r="B64" s="305"/>
-      <c r="C64" s="276"/>
-      <c r="D64" s="276"/>
-      <c r="E64" s="276"/>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="211"/>
-      <c r="I64" s="211"/>
-      <c r="J64" s="211"/>
-      <c r="K64" s="212"/>
-      <c r="L64" s="211"/>
-      <c r="M64" s="211"/>
-      <c r="N64" s="211"/>
-      <c r="O64" s="211"/>
-      <c r="P64" s="210"/>
+      <c r="A64" s="190"/>
+      <c r="B64" s="301"/>
+      <c r="C64" s="190"/>
+      <c r="D64" s="190"/>
+      <c r="E64" s="190"/>
+      <c r="F64" s="194"/>
+      <c r="G64" s="194"/>
+      <c r="H64" s="195"/>
+      <c r="I64" s="195"/>
+      <c r="J64" s="195"/>
+      <c r="K64" s="196"/>
+      <c r="L64" s="195"/>
+      <c r="M64" s="195"/>
+      <c r="N64" s="195"/>
+      <c r="O64" s="195"/>
+      <c r="P64" s="194"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="276"/>
-      <c r="B65" s="305"/>
-      <c r="C65" s="276"/>
-      <c r="D65" s="276"/>
-      <c r="E65" s="276"/>
-      <c r="F65" s="210"/>
-      <c r="G65" s="210"/>
-      <c r="H65" s="211"/>
-      <c r="I65" s="211"/>
-      <c r="J65" s="211"/>
-      <c r="K65" s="212"/>
-      <c r="L65" s="211"/>
-      <c r="M65" s="211"/>
-      <c r="N65" s="211"/>
-      <c r="O65" s="211"/>
-      <c r="P65" s="210"/>
+      <c r="A65" s="190"/>
+      <c r="B65" s="301"/>
+      <c r="C65" s="190"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="190"/>
+      <c r="F65" s="194"/>
+      <c r="G65" s="194"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="195"/>
+      <c r="J65" s="195"/>
+      <c r="K65" s="196"/>
+      <c r="L65" s="195"/>
+      <c r="M65" s="195"/>
+      <c r="N65" s="195"/>
+      <c r="O65" s="195"/>
+      <c r="P65" s="194"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="276"/>
-      <c r="B66" s="305"/>
-      <c r="C66" s="276"/>
-      <c r="D66" s="276"/>
-      <c r="E66" s="276"/>
-      <c r="F66" s="210"/>
-      <c r="G66" s="210"/>
-      <c r="H66" s="211"/>
-      <c r="I66" s="211"/>
-      <c r="J66" s="211"/>
-      <c r="K66" s="212"/>
-      <c r="L66" s="211"/>
-      <c r="M66" s="211"/>
-      <c r="N66" s="211"/>
-      <c r="O66" s="211"/>
-      <c r="P66" s="210"/>
+      <c r="A66" s="190"/>
+      <c r="B66" s="301"/>
+      <c r="C66" s="190"/>
+      <c r="D66" s="190"/>
+      <c r="E66" s="190"/>
+      <c r="F66" s="194"/>
+      <c r="G66" s="194"/>
+      <c r="H66" s="195"/>
+      <c r="I66" s="195"/>
+      <c r="J66" s="195"/>
+      <c r="K66" s="196"/>
+      <c r="L66" s="195"/>
+      <c r="M66" s="195"/>
+      <c r="N66" s="195"/>
+      <c r="O66" s="195"/>
+      <c r="P66" s="194"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="276"/>
-      <c r="B67" s="305"/>
-      <c r="C67" s="276"/>
-      <c r="D67" s="276"/>
-      <c r="E67" s="276"/>
-      <c r="F67" s="210"/>
-      <c r="G67" s="210"/>
-      <c r="H67" s="211"/>
-      <c r="I67" s="211"/>
-      <c r="J67" s="211"/>
-      <c r="K67" s="212"/>
-      <c r="L67" s="211"/>
-      <c r="M67" s="211"/>
-      <c r="N67" s="211"/>
-      <c r="O67" s="211"/>
-      <c r="P67" s="210"/>
+      <c r="A67" s="190"/>
+      <c r="B67" s="301"/>
+      <c r="C67" s="190"/>
+      <c r="D67" s="190"/>
+      <c r="E67" s="190"/>
+      <c r="F67" s="194"/>
+      <c r="G67" s="194"/>
+      <c r="H67" s="195"/>
+      <c r="I67" s="195"/>
+      <c r="J67" s="195"/>
+      <c r="K67" s="196"/>
+      <c r="L67" s="195"/>
+      <c r="M67" s="195"/>
+      <c r="N67" s="195"/>
+      <c r="O67" s="195"/>
+      <c r="P67" s="194"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="276"/>
-      <c r="B68" s="305"/>
-      <c r="C68" s="276"/>
-      <c r="D68" s="276"/>
-      <c r="E68" s="276"/>
-      <c r="F68" s="210"/>
-      <c r="G68" s="210"/>
-      <c r="H68" s="211"/>
-      <c r="I68" s="211"/>
-      <c r="J68" s="211"/>
-      <c r="K68" s="212"/>
-      <c r="L68" s="211"/>
-      <c r="M68" s="211"/>
-      <c r="N68" s="211"/>
-      <c r="O68" s="211"/>
-      <c r="P68" s="210"/>
+      <c r="A68" s="190"/>
+      <c r="B68" s="301"/>
+      <c r="C68" s="190"/>
+      <c r="D68" s="190"/>
+      <c r="E68" s="190"/>
+      <c r="F68" s="194"/>
+      <c r="G68" s="194"/>
+      <c r="H68" s="195"/>
+      <c r="I68" s="195"/>
+      <c r="J68" s="195"/>
+      <c r="K68" s="196"/>
+      <c r="L68" s="195"/>
+      <c r="M68" s="195"/>
+      <c r="N68" s="195"/>
+      <c r="O68" s="195"/>
+      <c r="P68" s="194"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="275"/>
-      <c r="B69" s="306"/>
-      <c r="C69" s="275"/>
-      <c r="D69" s="275"/>
-      <c r="E69" s="275"/>
-      <c r="F69" s="195"/>
-      <c r="G69" s="195"/>
-      <c r="H69" s="196"/>
-      <c r="I69" s="196"/>
-      <c r="J69" s="196"/>
-      <c r="K69" s="197"/>
-      <c r="L69" s="196"/>
-      <c r="M69" s="196"/>
-      <c r="N69" s="196"/>
-      <c r="O69" s="196"/>
-      <c r="P69" s="195"/>
+      <c r="A69" s="190"/>
+      <c r="B69" s="301"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="190"/>
+      <c r="E69" s="190"/>
+      <c r="F69" s="194"/>
+      <c r="G69" s="194"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="195"/>
+      <c r="K69" s="196"/>
+      <c r="L69" s="195"/>
+      <c r="M69" s="195"/>
+      <c r="N69" s="195"/>
+      <c r="O69" s="195"/>
+      <c r="P69" s="194"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="182"/>
-      <c r="B70" s="183"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="184"/>
-      <c r="G70" s="184"/>
-      <c r="H70" s="185"/>
-      <c r="I70" s="185"/>
-      <c r="J70" s="185"/>
-      <c r="K70" s="186"/>
-      <c r="L70" s="185"/>
-      <c r="M70" s="185"/>
-      <c r="N70" s="185"/>
-      <c r="O70" s="185"/>
-      <c r="P70" s="184"/>
+      <c r="A70" s="238"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="238"/>
+      <c r="D70" s="238"/>
+      <c r="E70" s="238"/>
+      <c r="F70" s="194"/>
+      <c r="G70" s="194"/>
+      <c r="H70" s="195"/>
+      <c r="I70" s="195"/>
+      <c r="J70" s="195"/>
+      <c r="K70" s="196"/>
+      <c r="L70" s="195"/>
+      <c r="M70" s="195"/>
+      <c r="N70" s="195"/>
+      <c r="O70" s="195"/>
+      <c r="P70" s="194"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="281"/>
-      <c r="B71" s="278"/>
-      <c r="C71" s="281"/>
-      <c r="D71" s="281"/>
-      <c r="E71" s="281"/>
-      <c r="F71" s="190"/>
-      <c r="G71" s="190"/>
-      <c r="H71" s="191"/>
-      <c r="I71" s="191"/>
-      <c r="J71" s="191"/>
-      <c r="K71" s="193"/>
-      <c r="L71" s="185"/>
-      <c r="M71" s="191"/>
-      <c r="N71" s="191"/>
-      <c r="O71" s="191"/>
-      <c r="P71" s="190"/>
+      <c r="A71" s="190"/>
+      <c r="B71" s="301"/>
+      <c r="C71" s="190"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="190"/>
+      <c r="F71" s="194"/>
+      <c r="G71" s="194"/>
+      <c r="H71" s="195"/>
+      <c r="I71" s="195"/>
+      <c r="J71" s="195"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="195"/>
+      <c r="M71" s="195"/>
+      <c r="N71" s="195"/>
+      <c r="O71" s="195"/>
+      <c r="P71" s="194"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="282"/>
-      <c r="B72" s="279"/>
-      <c r="C72" s="282"/>
-      <c r="D72" s="282"/>
-      <c r="E72" s="282"/>
-      <c r="F72" s="210"/>
-      <c r="G72" s="210"/>
-      <c r="H72" s="211"/>
-      <c r="I72" s="211"/>
-      <c r="J72" s="211"/>
-      <c r="K72" s="212"/>
-      <c r="L72" s="185"/>
-      <c r="M72" s="211"/>
-      <c r="N72" s="211"/>
-      <c r="O72" s="211"/>
-      <c r="P72" s="210"/>
+      <c r="A72" s="190"/>
+      <c r="B72" s="301"/>
+      <c r="C72" s="190"/>
+      <c r="D72" s="190"/>
+      <c r="E72" s="190"/>
+      <c r="F72" s="194"/>
+      <c r="G72" s="194"/>
+      <c r="H72" s="195"/>
+      <c r="I72" s="195"/>
+      <c r="J72" s="195"/>
+      <c r="K72" s="196"/>
+      <c r="L72" s="195"/>
+      <c r="M72" s="195"/>
+      <c r="N72" s="195"/>
+      <c r="O72" s="195"/>
+      <c r="P72" s="194"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="283"/>
-      <c r="B73" s="280"/>
-      <c r="C73" s="283"/>
-      <c r="D73" s="283"/>
-      <c r="E73" s="283"/>
-      <c r="F73" s="195"/>
-      <c r="G73" s="195"/>
-      <c r="H73" s="196"/>
-      <c r="I73" s="196"/>
-      <c r="J73" s="196"/>
-      <c r="K73" s="197"/>
-      <c r="L73" s="185"/>
-      <c r="M73" s="196"/>
-      <c r="N73" s="196"/>
-      <c r="O73" s="196"/>
-      <c r="P73" s="195"/>
+      <c r="A73" s="190"/>
+      <c r="B73" s="301"/>
+      <c r="C73" s="190"/>
+      <c r="D73" s="190"/>
+      <c r="E73" s="190"/>
+      <c r="F73" s="194"/>
+      <c r="G73" s="194"/>
+      <c r="H73" s="195"/>
+      <c r="I73" s="195"/>
+      <c r="J73" s="195"/>
+      <c r="K73" s="196"/>
+      <c r="L73" s="195"/>
+      <c r="M73" s="195"/>
+      <c r="N73" s="195"/>
+      <c r="O73" s="195"/>
+      <c r="P73" s="194"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="182"/>
-      <c r="B74" s="183"/>
-      <c r="C74" s="182"/>
-      <c r="D74" s="182"/>
-      <c r="E74" s="182"/>
-      <c r="F74" s="184"/>
-      <c r="G74" s="184"/>
-      <c r="H74" s="185"/>
-      <c r="I74" s="185"/>
-      <c r="J74" s="185"/>
-      <c r="K74" s="186"/>
-      <c r="L74" s="185"/>
-      <c r="M74" s="185"/>
-      <c r="N74" s="185"/>
-      <c r="O74" s="185"/>
-      <c r="P74" s="199"/>
+      <c r="A74" s="238"/>
+      <c r="B74" s="237"/>
+      <c r="C74" s="238"/>
+      <c r="D74" s="238"/>
+      <c r="E74" s="238"/>
+      <c r="F74" s="194"/>
+      <c r="G74" s="194"/>
+      <c r="H74" s="195"/>
+      <c r="I74" s="195"/>
+      <c r="J74" s="195"/>
+      <c r="K74" s="196"/>
+      <c r="L74" s="195"/>
+      <c r="M74" s="195"/>
+      <c r="N74" s="195"/>
+      <c r="O74" s="195"/>
+      <c r="P74" s="304"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="182"/>
-      <c r="B75" s="183"/>
-      <c r="C75" s="182"/>
-      <c r="D75" s="182"/>
-      <c r="E75" s="182"/>
-      <c r="F75" s="184"/>
-      <c r="G75" s="184"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="185"/>
-      <c r="K75" s="186"/>
-      <c r="L75" s="185"/>
-      <c r="M75" s="185"/>
-      <c r="N75" s="185"/>
-      <c r="O75" s="185"/>
-      <c r="P75" s="184"/>
+      <c r="A75" s="238"/>
+      <c r="B75" s="237"/>
+      <c r="C75" s="238"/>
+      <c r="D75" s="238"/>
+      <c r="E75" s="238"/>
+      <c r="F75" s="194"/>
+      <c r="G75" s="194"/>
+      <c r="H75" s="195"/>
+      <c r="I75" s="195"/>
+      <c r="J75" s="195"/>
+      <c r="K75" s="196"/>
+      <c r="L75" s="195"/>
+      <c r="M75" s="195"/>
+      <c r="N75" s="195"/>
+      <c r="O75" s="195"/>
+      <c r="P75" s="194"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="274"/>
-      <c r="B76" s="304"/>
-      <c r="C76" s="274"/>
-      <c r="D76" s="274"/>
-      <c r="E76" s="274"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="190"/>
-      <c r="H76" s="191"/>
-      <c r="I76" s="191"/>
-      <c r="J76" s="191"/>
-      <c r="K76" s="193"/>
-      <c r="L76" s="191"/>
-      <c r="M76" s="191"/>
-      <c r="N76" s="191"/>
-      <c r="O76" s="191"/>
-      <c r="P76" s="190"/>
+      <c r="A76" s="190"/>
+      <c r="B76" s="301"/>
+      <c r="C76" s="190"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="190"/>
+      <c r="F76" s="194"/>
+      <c r="G76" s="194"/>
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
+      <c r="J76" s="195"/>
+      <c r="K76" s="196"/>
+      <c r="L76" s="195"/>
+      <c r="M76" s="195"/>
+      <c r="N76" s="195"/>
+      <c r="O76" s="195"/>
+      <c r="P76" s="194"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="275"/>
-      <c r="B77" s="306"/>
-      <c r="C77" s="275"/>
-      <c r="D77" s="275"/>
-      <c r="E77" s="275"/>
-      <c r="F77" s="195"/>
-      <c r="G77" s="195"/>
-      <c r="H77" s="196"/>
-      <c r="I77" s="196"/>
-      <c r="J77" s="196"/>
-      <c r="K77" s="197"/>
-      <c r="L77" s="196"/>
-      <c r="M77" s="196"/>
-      <c r="N77" s="196"/>
-      <c r="O77" s="196"/>
-      <c r="P77" s="195"/>
-    </row>
-    <row r="78" spans="1:17" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="309" t="s">
+      <c r="A77" s="193"/>
+      <c r="B77" s="302"/>
+      <c r="C77" s="193"/>
+      <c r="D77" s="193"/>
+      <c r="E77" s="193"/>
+      <c r="F77" s="185"/>
+      <c r="G77" s="185"/>
+      <c r="H77" s="186"/>
+      <c r="I77" s="186"/>
+      <c r="J77" s="186"/>
+      <c r="K77" s="187"/>
+      <c r="L77" s="186"/>
+      <c r="M77" s="186"/>
+      <c r="N77" s="186"/>
+      <c r="O77" s="186"/>
+      <c r="P77" s="185"/>
+    </row>
+    <row r="78" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="309"/>
-      <c r="C78" s="309"/>
-      <c r="D78" s="309"/>
-      <c r="E78" s="309"/>
-      <c r="F78" s="309"/>
-      <c r="G78" s="157">
+      <c r="B78" s="250"/>
+      <c r="C78" s="250"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="250"/>
+      <c r="F78" s="250"/>
+      <c r="G78" s="150">
         <f>SUM(G8:G77)</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="158"/>
-      <c r="I78" s="159">
+        <v>187</v>
+      </c>
+      <c r="H78" s="151"/>
+      <c r="I78" s="152">
         <f>SUM(I8:I77)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="181"/>
-      <c r="K78" s="159"/>
-      <c r="L78" s="160">
+        <v>77515000</v>
+      </c>
+      <c r="J78" s="173"/>
+      <c r="K78" s="152"/>
+      <c r="L78" s="153">
         <f>SUM(L8:L77)</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="158"/>
-      <c r="N78" s="158"/>
-      <c r="O78" s="158"/>
-      <c r="P78" s="158"/>
-      <c r="Q78" s="310"/>
-    </row>
-    <row r="79" spans="1:17" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="308" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="308"/>
-      <c r="C79" s="308"/>
-      <c r="D79" s="308"/>
-      <c r="E79" s="308"/>
-      <c r="F79" s="308"/>
-      <c r="G79" s="157">
+        <v>41812450</v>
+      </c>
+      <c r="M78" s="151"/>
+      <c r="N78" s="151"/>
+      <c r="O78" s="151"/>
+      <c r="P78" s="151"/>
+      <c r="Q78" s="248"/>
+    </row>
+    <row r="79" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="249" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="249"/>
+      <c r="C79" s="249"/>
+      <c r="D79" s="249"/>
+      <c r="E79" s="249"/>
+      <c r="F79" s="249"/>
+      <c r="G79" s="150">
         <f>G78</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="162"/>
-      <c r="I79" s="159"/>
-      <c r="J79" s="162"/>
-      <c r="K79" s="159"/>
-      <c r="L79" s="160">
+        <v>187</v>
+      </c>
+      <c r="H79" s="155"/>
+      <c r="I79" s="152"/>
+      <c r="J79" s="155"/>
+      <c r="K79" s="152"/>
+      <c r="L79" s="153">
         <f>L78</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="162"/>
-      <c r="N79" s="162"/>
-      <c r="O79" s="162"/>
-      <c r="P79" s="162"/>
-      <c r="Q79" s="310"/>
-    </row>
-    <row r="80" spans="1:17" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="308" t="s">
+        <v>41812450</v>
+      </c>
+      <c r="M79" s="155"/>
+      <c r="N79" s="155"/>
+      <c r="O79" s="155"/>
+      <c r="P79" s="155"/>
+      <c r="Q79" s="248"/>
+    </row>
+    <row r="80" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="308"/>
-      <c r="C80" s="308"/>
-      <c r="D80" s="308"/>
-      <c r="E80" s="308"/>
-      <c r="F80" s="308"/>
-      <c r="G80" s="163" t="s">
+      <c r="B80" s="249"/>
+      <c r="C80" s="249"/>
+      <c r="D80" s="249"/>
+      <c r="E80" s="249"/>
+      <c r="F80" s="249"/>
+      <c r="G80" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="H80" s="163"/>
-      <c r="I80" s="163"/>
-      <c r="J80" s="163"/>
-      <c r="K80" s="163"/>
-      <c r="L80" s="160">
+      <c r="H80" s="156"/>
+      <c r="I80" s="156"/>
+      <c r="J80" s="156"/>
+      <c r="K80" s="156"/>
+      <c r="L80" s="153">
         <f>SUM(M8:M77)</f>
         <v>0</v>
       </c>
-      <c r="M80" s="162"/>
-      <c r="N80" s="162"/>
-      <c r="O80" s="162"/>
-      <c r="P80" s="164"/>
-    </row>
-    <row r="81" spans="1:16" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="308" t="s">
+      <c r="M80" s="155"/>
+      <c r="N80" s="155"/>
+      <c r="O80" s="155"/>
+      <c r="P80" s="157"/>
+    </row>
+    <row r="81" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="308"/>
-      <c r="C81" s="308"/>
-      <c r="D81" s="308"/>
-      <c r="E81" s="308"/>
-      <c r="F81" s="308"/>
-      <c r="G81" s="162"/>
-      <c r="H81" s="162"/>
-      <c r="I81" s="158"/>
-      <c r="J81" s="162"/>
-      <c r="K81" s="159"/>
-      <c r="L81" s="160">
+      <c r="B81" s="249"/>
+      <c r="C81" s="249"/>
+      <c r="D81" s="249"/>
+      <c r="E81" s="249"/>
+      <c r="F81" s="249"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="151"/>
+      <c r="J81" s="155"/>
+      <c r="K81" s="152"/>
+      <c r="L81" s="153">
         <f>SUM(N8:N77)</f>
         <v>0</v>
       </c>
-      <c r="M81" s="162"/>
-      <c r="N81" s="162"/>
-      <c r="O81" s="162"/>
-      <c r="P81" s="164"/>
-    </row>
-    <row r="82" spans="1:16" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="308" t="s">
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="O81" s="155"/>
+      <c r="P81" s="157"/>
+    </row>
+    <row r="82" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="249" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="308"/>
-      <c r="C82" s="308"/>
-      <c r="D82" s="308"/>
-      <c r="E82" s="308"/>
-      <c r="F82" s="308"/>
-      <c r="G82" s="162"/>
-      <c r="H82" s="162"/>
-      <c r="I82" s="158"/>
-      <c r="J82" s="162"/>
-      <c r="K82" s="159"/>
-      <c r="L82" s="160">
+      <c r="B82" s="249"/>
+      <c r="C82" s="249"/>
+      <c r="D82" s="249"/>
+      <c r="E82" s="249"/>
+      <c r="F82" s="249"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="151"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="152"/>
+      <c r="L82" s="153">
         <f>SUM(O8:O77)</f>
         <v>0</v>
       </c>
-      <c r="M82" s="162"/>
-      <c r="N82" s="162"/>
-      <c r="O82" s="162"/>
-      <c r="P82" s="164"/>
-    </row>
-    <row r="85" spans="1:16" s="213" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="214"/>
-      <c r="E85" s="215" t="s">
+      <c r="M82" s="155"/>
+      <c r="N82" s="155"/>
+      <c r="O82" s="155"/>
+      <c r="P82" s="157"/>
+    </row>
+    <row r="85" spans="1:16" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="198"/>
+      <c r="E85" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="214"/>
-      <c r="G85" s="214"/>
-      <c r="H85" s="214"/>
-      <c r="I85" s="214"/>
-      <c r="L85" s="215" t="s">
+      <c r="F85" s="198"/>
+      <c r="G85" s="198"/>
+      <c r="H85" s="198"/>
+      <c r="I85" s="198"/>
+      <c r="L85" s="199" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="213" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="216"/>
-      <c r="E86" s="217" t="s">
+    <row r="86" spans="1:16" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="200"/>
+      <c r="E86" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="216"/>
-      <c r="G86" s="216"/>
-      <c r="H86" s="216"/>
-      <c r="I86" s="216"/>
-      <c r="L86" s="217" t="s">
+      <c r="F86" s="200"/>
+      <c r="G86" s="200"/>
+      <c r="H86" s="200"/>
+      <c r="I86" s="200"/>
+      <c r="L86" s="201" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="188"/>
-      <c r="B89" s="188"/>
-      <c r="C89" s="215"/>
-      <c r="D89" s="188"/>
-      <c r="E89" s="215"/>
-      <c r="F89" s="187"/>
-      <c r="G89" s="187"/>
-      <c r="H89" s="188"/>
-      <c r="I89" s="188"/>
-      <c r="J89" s="188"/>
-      <c r="K89" s="188"/>
-      <c r="L89" s="188"/>
-      <c r="M89" s="188"/>
-      <c r="N89" s="188"/>
-      <c r="O89" s="188"/>
+      <c r="A89" s="179"/>
+      <c r="B89" s="179"/>
+      <c r="C89" s="199"/>
+      <c r="D89" s="179"/>
+      <c r="E89" s="199"/>
+      <c r="F89" s="178"/>
+      <c r="G89" s="178"/>
+      <c r="H89" s="179"/>
+      <c r="I89" s="179"/>
+      <c r="J89" s="179"/>
+      <c r="K89" s="179"/>
+      <c r="L89" s="179"/>
+      <c r="M89" s="179"/>
+      <c r="N89" s="179"/>
+      <c r="O89" s="179"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:P82">
@@ -4716,49 +4915,25 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="85">
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="E61:E69"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
+  <mergeCells count="45">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="O6:O7"/>
@@ -4772,36 +4947,20 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4812,8 +4971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4841,7 +5000,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -4862,24 +5021,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="311" t="s">
+      <c r="A4" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="311"/>
-      <c r="C4" s="311"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="312" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="312"/>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
+      <c r="A5" s="265" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="265"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -4920,29 +5079,29 @@
       </c>
       <c r="C8" s="60">
         <f>'DOANH THU'!G79</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D8" s="70">
         <f>'DOANH THU'!I78</f>
-        <v>0</v>
+        <v>77515000</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:7" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="257">
+      <c r="A9" s="231">
         <v>2</v>
       </c>
-      <c r="B9" s="258" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="259"/>
-      <c r="D9" s="260">
+      <c r="B9" s="232" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="233"/>
+      <c r="D9" s="234">
         <f>'DOANH THU'!L78</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="261"/>
+        <v>41812450</v>
+      </c>
+      <c r="E9" s="235"/>
       <c r="F9" s="61"/>
       <c r="G9" s="61"/>
     </row>
@@ -4958,9 +5117,9 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="313">
+      <c r="E10" s="266">
         <f>D10+D11+D12</f>
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
@@ -4977,54 +5136,50 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="314"/>
+      <c r="E11" s="267"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
     <row r="12" spans="1:7" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="137">
+      <c r="A12" s="131">
         <v>5</v>
       </c>
-      <c r="B12" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="167">
-        <v>10000000</v>
-      </c>
-      <c r="E12" s="315"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="268"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="137">
+      <c r="A13" s="131">
         <v>6</v>
       </c>
-      <c r="B13" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="145">
-        <f>'Hàng khách trả'!I24</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="138"/>
+      <c r="B13" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="140"/>
+      <c r="D13" s="139">
+        <f>'Hàng khách trả'!I30</f>
+        <v>74595000</v>
+      </c>
+      <c r="E13" s="132"/>
       <c r="F13" s="61"/>
       <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:7" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="137">
+      <c r="A14" s="131">
         <v>7</v>
       </c>
-      <c r="B14" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="145">
-        <f>'Hàng khách trả'!K24</f>
+      <c r="B14" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="140"/>
+      <c r="D14" s="139">
+        <f>'Hàng khách trả'!K30</f>
         <v>0</v>
       </c>
-      <c r="E14" s="138"/>
+      <c r="E14" s="132"/>
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
     </row>
@@ -5038,13 +5193,13 @@
       <c r="C15" s="77"/>
       <c r="D15" s="78">
         <f>D9-D10-D11-D12-D14</f>
-        <v>-10000000</v>
+        <v>41812450</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="61"/>
-      <c r="G15" s="168"/>
+      <c r="G15" s="161"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
@@ -5088,39 +5243,30 @@
       <c r="B19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="31" t="e">
-        <f>'THU CHI'!#REF!+'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C19" s="31"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="226"/>
+      <c r="E19" s="210"/>
     </row>
     <row r="20" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="224">
+      <c r="A20" s="208">
         <v>2</v>
       </c>
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="166"/>
-      <c r="D20" s="22" t="e">
-        <f>'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="227"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="211"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="224">
+      <c r="A21" s="208">
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="22" t="e">
-        <f>'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D21" s="22"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5131,24 +5277,18 @@
         <v>10</v>
       </c>
       <c r="C22" s="21"/>
-      <c r="D22" s="22" t="e">
-        <f>'THU CHI'!#REF!+'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D22" s="22"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="224">
+      <c r="A23" s="208">
         <v>5</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="22" t="e">
-        <f>'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D23" s="22"/>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5159,24 +5299,18 @@
         <v>54</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="22" t="e">
-        <f>'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D24" s="22"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="224">
+      <c r="A25" s="208">
         <v>7</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="22" t="e">
-        <f>'THU CHI'!#REF!+'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D25" s="22"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5187,24 +5321,18 @@
         <v>12</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="22" t="e">
-        <f>'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D26" s="22"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="225">
+      <c r="A27" s="209">
         <v>9</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="24" t="e">
-        <f>'THU CHI'!#REF!+'THU CHI'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D27" s="24"/>
       <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5212,13 +5340,13 @@
       <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="34" t="e">
+      <c r="C28" s="34">
         <f>SUM(C19:C27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="D28" s="26">
         <f>SUM(D19:D27)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E28" s="32"/>
     </row>
@@ -5228,9 +5356,9 @@
         <v>25</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="26" t="e">
+      <c r="D29" s="26">
         <f>C28-D28</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E29" s="32"/>
     </row>
@@ -5255,9 +5383,9 @@
       <c r="E33" s="5"/>
     </row>
     <row r="36" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="147"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5272,10 +5400,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5289,11 +5417,11 @@
     <col min="7" max="7" width="6.28515625" style="81" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="81" customWidth="1"/>
     <col min="9" max="9" width="14" style="81" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="105" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="135" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="233" customWidth="1"/>
-    <col min="13" max="13" width="4" style="233" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="233" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="101" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="130" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="215" customWidth="1"/>
+    <col min="13" max="13" width="4" style="215" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="215" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
@@ -5304,498 +5432,754 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="322" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
+      <c r="A4" s="272" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="325" t="s">
+      <c r="B5" s="275" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="324" t="s">
+      <c r="D5" s="274" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="324"/>
-      <c r="F5" s="326" t="s">
+      <c r="E5" s="274"/>
+      <c r="F5" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="327"/>
-      <c r="K5" s="328" t="s">
+      <c r="G5" s="276"/>
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="318" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="318"/>
-      <c r="N5" s="318"/>
+      <c r="L5" s="270" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="270"/>
+      <c r="N5" s="270"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="324"/>
-      <c r="B6" s="325"/>
-      <c r="C6" s="324"/>
-      <c r="D6" s="244" t="s">
+      <c r="A6" s="274"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="245" t="s">
+      <c r="E6" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="245" t="s">
+      <c r="F6" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="245" t="s">
+      <c r="G6" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="246" t="s">
+      <c r="H6" s="226" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="231" t="s">
+      <c r="I6" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="247" t="s">
+      <c r="J6" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="328"/>
-      <c r="L6" s="234" t="s">
+      <c r="K6" s="278"/>
+      <c r="L6" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="234" t="s">
+      <c r="M6" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="234" t="s">
+      <c r="N6" s="216" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="316"/>
-      <c r="B7" s="329"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="106"/>
+      <c r="A7" s="82">
+        <v>806</v>
+      </c>
+      <c r="B7" s="296">
+        <v>44107</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="82">
+        <v>11</v>
+      </c>
+      <c r="H7" s="83">
+        <v>455000</v>
+      </c>
+      <c r="I7" s="83">
+        <f>H7*G7</f>
+        <v>5005000</v>
+      </c>
+      <c r="J7" s="102">
+        <v>0.41</v>
+      </c>
       <c r="K7" s="83"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="235"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="317"/>
-      <c r="B8" s="330"/>
-      <c r="C8" s="317"/>
-      <c r="D8" s="317"/>
-      <c r="E8" s="317"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="251"/>
-      <c r="M8" s="251"/>
-      <c r="N8" s="252"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="331"/>
-      <c r="B9" s="333"/>
-      <c r="C9" s="331"/>
-      <c r="D9" s="331"/>
-      <c r="E9" s="331"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="235"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="332"/>
-      <c r="B10" s="334"/>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="236"/>
-      <c r="N10" s="237"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="332"/>
-      <c r="B11" s="334"/>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="236"/>
-      <c r="M11" s="236"/>
-      <c r="N11" s="237"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="332"/>
-      <c r="B12" s="334"/>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="236"/>
-      <c r="N12" s="237"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="332"/>
-      <c r="B13" s="334"/>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="237"/>
+      <c r="N7" s="217"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="228">
+        <v>811</v>
+      </c>
+      <c r="B8" s="299">
+        <v>44107</v>
+      </c>
+      <c r="C8" s="228" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="228" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="228">
+        <v>1</v>
+      </c>
+      <c r="H8" s="229">
+        <v>225000</v>
+      </c>
+      <c r="I8" s="83">
+        <f t="shared" ref="I8:I18" si="0">H8*G8</f>
+        <v>225000</v>
+      </c>
+      <c r="J8" s="230">
+        <v>1</v>
+      </c>
+      <c r="K8" s="229"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="222"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="228"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="228">
+        <v>2</v>
+      </c>
+      <c r="H9" s="229">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="83">
+        <f t="shared" si="0"/>
+        <v>910000</v>
+      </c>
+      <c r="J9" s="230">
+        <v>1</v>
+      </c>
+      <c r="K9" s="229"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="222"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="228">
+        <v>817</v>
+      </c>
+      <c r="B10" s="299">
+        <v>44107</v>
+      </c>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="228">
+        <v>21</v>
+      </c>
+      <c r="H10" s="229">
+        <v>225000</v>
+      </c>
+      <c r="I10" s="83">
+        <f t="shared" si="0"/>
+        <v>4725000</v>
+      </c>
+      <c r="J10" s="230">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="229"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="222"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="228"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="228">
+        <v>8</v>
+      </c>
+      <c r="H11" s="229">
+        <v>455000</v>
+      </c>
+      <c r="I11" s="83">
+        <f t="shared" si="0"/>
+        <v>3640000</v>
+      </c>
+      <c r="J11" s="230">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="229"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="222"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="228"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="228">
+        <v>12</v>
+      </c>
+      <c r="H12" s="229">
+        <v>485000</v>
+      </c>
+      <c r="I12" s="83">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="J12" s="230">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="229"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="222"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="228">
+        <v>818</v>
+      </c>
+      <c r="B13" s="299">
+        <v>44107</v>
+      </c>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="228">
+        <v>2</v>
+      </c>
+      <c r="H13" s="229">
+        <v>225000</v>
+      </c>
+      <c r="I13" s="83">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="J13" s="230">
+        <v>0.35</v>
+      </c>
+      <c r="K13" s="229"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="222"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="320"/>
-      <c r="B14" s="335"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="239"/>
+      <c r="A14" s="84">
+        <v>810</v>
+      </c>
+      <c r="B14" s="297">
+        <v>44109</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="84">
+        <v>36</v>
+      </c>
+      <c r="H14" s="85">
+        <v>485000</v>
+      </c>
+      <c r="I14" s="83">
+        <f t="shared" si="0"/>
+        <v>17460000</v>
+      </c>
+      <c r="J14" s="204">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="219"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="331"/>
-      <c r="B15" s="333"/>
-      <c r="C15" s="331"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="331"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="235"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="332"/>
-      <c r="B16" s="334"/>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="236"/>
-      <c r="M16" s="236"/>
-      <c r="N16" s="237"/>
+      <c r="A15" s="84">
+        <v>815</v>
+      </c>
+      <c r="B15" s="297">
+        <v>44112</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="84">
+        <v>4</v>
+      </c>
+      <c r="H15" s="85">
+        <v>225000</v>
+      </c>
+      <c r="I15" s="83">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="J15" s="204">
+        <v>0.38</v>
+      </c>
+      <c r="K15" s="85"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="219"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
+      <c r="B16" s="297"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="84">
+        <v>12</v>
+      </c>
+      <c r="H16" s="85">
+        <v>455000</v>
+      </c>
+      <c r="I16" s="83">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="J16" s="204">
+        <v>0.38</v>
+      </c>
+      <c r="K16" s="85"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="219"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="332"/>
-      <c r="B17" s="334"/>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="221"/>
-      <c r="L17" s="236"/>
-      <c r="M17" s="236"/>
-      <c r="N17" s="237"/>
+      <c r="A17" s="84">
+        <v>820</v>
+      </c>
+      <c r="B17" s="297">
+        <v>44113</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="84">
+        <v>12</v>
+      </c>
+      <c r="H17" s="85">
+        <v>225000</v>
+      </c>
+      <c r="I17" s="83">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+      <c r="J17" s="204">
+        <v>0.38</v>
+      </c>
+      <c r="K17" s="85"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="219"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="332"/>
-      <c r="B18" s="334"/>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="236"/>
-      <c r="M18" s="236"/>
-      <c r="N18" s="237"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="297"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="84">
+        <v>60</v>
+      </c>
+      <c r="H18" s="85">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="83">
+        <f t="shared" si="0"/>
+        <v>27300000</v>
+      </c>
+      <c r="J18" s="204">
+        <v>0.38</v>
+      </c>
+      <c r="K18" s="85"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="219"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="332"/>
-      <c r="B19" s="334"/>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="297"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="84"/>
       <c r="H19" s="85"/>
       <c r="I19" s="85"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="221"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="237"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="219"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="320"/>
-      <c r="B20" s="335"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="222"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="239"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="297"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="219"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="319"/>
-      <c r="B21" s="337"/>
-      <c r="C21" s="319"/>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="241"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="320"/>
-      <c r="B22" s="335"/>
-      <c r="C22" s="320"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="320"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="238"/>
-      <c r="M22" s="238"/>
-      <c r="N22" s="239"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="297"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="219"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="84"/>
+      <c r="B22" s="297"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="219"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="228"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="240"/>
-      <c r="M23" s="240"/>
-      <c r="N23" s="241"/>
-    </row>
-    <row r="24" spans="1:14" s="143" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="336" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="219"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="84"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="219"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="84"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="219"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="84"/>
+      <c r="B26" s="297"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="219"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="84"/>
+      <c r="B27" s="297"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="219"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="205"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="219"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="240"/>
+      <c r="B29" s="298"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="300"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="206"/>
+      <c r="L29" s="220"/>
+      <c r="M29" s="220"/>
+      <c r="N29" s="221"/>
+    </row>
+    <row r="30" spans="1:14" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="336"/>
-      <c r="C24" s="336"/>
-      <c r="D24" s="336"/>
-      <c r="E24" s="336"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139">
-        <f>SUM(G7:G23)</f>
+      <c r="B30" s="269"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="269"/>
+      <c r="E30" s="269"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133">
+        <f>SUM(G7:G29)</f>
+        <v>181</v>
+      </c>
+      <c r="H30" s="134">
+        <f>SUM(H7:H29)</f>
+        <v>4370000</v>
+      </c>
+      <c r="I30" s="134">
+        <f>SUM(I7:I29)</f>
+        <v>74595000</v>
+      </c>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136">
+        <f>SUM(K7:K29)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="140">
-        <f>SUM(H7:H23)</f>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="224">
+        <f>SUM(N7:N29)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="140">
-        <f>SUM(I7:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142">
-        <f>SUM(K7:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="242"/>
-      <c r="M24" s="242"/>
-      <c r="N24" s="243">
-        <f>SUM(N7:N23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-    </row>
-    <row r="27" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="64"/>
-      <c r="E27" s="104" t="s">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+    </row>
+    <row r="33" spans="3:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="64"/>
+      <c r="E33" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="232" t="s">
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="214" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="E28" s="4" t="s">
+    <row r="34" spans="3:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="E34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" spans="1:14" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="117"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="3:14" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="113"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="215"/>
+      <c r="N37" s="215"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C7:C8"/>
+  <mergeCells count="10">
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:A6"/>
@@ -5804,11 +6188,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5820,7 +6200,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6660,212 +7040,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="286" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="346" t="s">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="287" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="347" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="348" t="s">
+      <c r="A2" s="288" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="349" t="s">
+      <c r="A4" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="349"/>
-      <c r="C4" s="349"/>
-      <c r="D4" s="349"/>
-      <c r="E4" s="349"/>
-      <c r="F4" s="349"/>
-      <c r="G4" s="349"/>
-      <c r="H4" s="349"/>
-      <c r="I4" s="349"/>
-      <c r="J4" s="349"/>
-      <c r="K4" s="349"/>
-      <c r="L4" s="349"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="350" t="s">
+      <c r="A5" s="291" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
+      <c r="K5" s="291"/>
+      <c r="L5" s="291"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="292" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="292"/>
+      <c r="L6" s="292"/>
+    </row>
+    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="166" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="167" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="165" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="165" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="350"/>
-      <c r="C5" s="350"/>
-      <c r="D5" s="350"/>
-      <c r="E5" s="350"/>
-      <c r="F5" s="350"/>
-      <c r="G5" s="350"/>
-      <c r="H5" s="350"/>
-      <c r="I5" s="350"/>
-      <c r="J5" s="350"/>
-      <c r="K5" s="350"/>
-      <c r="L5" s="350"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="351" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="351"/>
-      <c r="L6" s="351"/>
-    </row>
-    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="173" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="173" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="172" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="172" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="172" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="172" t="s">
+      <c r="J7" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="175" t="s">
+      <c r="K7" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="172" t="s">
+      <c r="L7" s="165" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174">
+      <c r="A8" s="165"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="167">
         <v>26</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="174" t="s">
+      <c r="G8" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="174" t="s">
+      <c r="H8" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="174" t="s">
+      <c r="I8" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="175" t="s">
+      <c r="J8" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="172"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="165"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="342" t="s">
+      <c r="A9" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="343"/>
-      <c r="C9" s="343"/>
-      <c r="D9" s="344"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="178">
+      <c r="B9" s="284"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="171">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
       </c>
-      <c r="G9" s="178">
+      <c r="G9" s="171">
         <f>SUM(G10:G12)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="178">
+      <c r="H9" s="171">
         <f>SUM(H10:H12)</f>
-        <v>500000</v>
-      </c>
-      <c r="I9" s="178">
+        <v>2455000</v>
+      </c>
+      <c r="I9" s="171">
         <f>SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="178">
+      <c r="J9" s="171">
         <f>SUM(J10:J12)</f>
-        <v>26500000</v>
-      </c>
-      <c r="K9" s="173"/>
-      <c r="L9" s="172"/>
+        <v>24545000</v>
+      </c>
+      <c r="K9" s="166"/>
+      <c r="L9" s="165"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="176">
+      <c r="A10" s="169">
         <v>1</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="93">
         <v>15000000</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="99">
         <v>26</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="93">
         <f>D10/26*E10</f>
         <v>14999999.999999998</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96">
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92">
         <f>F10-G10-H10+I10</f>
         <v>14999999.999999998</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="176"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="169"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
@@ -6875,12 +7255,12 @@
         <v>74</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="47">
         <v>6000000</v>
       </c>
-      <c r="E11" s="103">
+      <c r="E11" s="99">
         <v>26</v>
       </c>
       <c r="F11" s="47">
@@ -6910,7 +7290,7 @@
       <c r="D12" s="52">
         <v>6000000</v>
       </c>
-      <c r="E12" s="103">
+      <c r="E12" s="99">
         <v>26</v>
       </c>
       <c r="F12" s="52">
@@ -6919,46 +7299,47 @@
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53">
-        <v>500000</v>
+        <f>455000+2000000</f>
+        <v>2455000</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="53">
         <f>F12-G12-H12+I12</f>
-        <v>5500000</v>
+        <v>3545000</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="339" t="s">
+      <c r="A13" s="280" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="340"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="341"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="178">
+      <c r="B13" s="281"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="282"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="171">
         <f>SUM(F14:F14)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="178">
+      <c r="G13" s="171">
         <f>SUM(G14:G14)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="178">
+      <c r="H13" s="171">
         <f>SUM(H14:H14)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="178">
+      <c r="I13" s="171">
         <f>SUM(I14:I14)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="178">
+      <c r="J13" s="171">
         <f>SUM(J14:J14)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="179"/>
-      <c r="L13" s="173"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="166"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
@@ -6968,12 +7349,12 @@
         <v>77</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="56">
         <v>5000000</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="97">
         <v>0</v>
       </c>
       <c r="F14" s="56">
@@ -6991,86 +7372,86 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="353"/>
-      <c r="C15" s="354"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="99">
+      <c r="B15" s="294"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="95">
         <f>F13+F9</f>
         <v>27000000</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="95">
         <f>G13+G9</f>
         <v>0</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="95">
         <f>H13+H9</f>
-        <v>500000</v>
-      </c>
-      <c r="I15" s="99">
+        <v>2455000</v>
+      </c>
+      <c r="I15" s="95">
         <f>I13+I9</f>
         <v>0</v>
       </c>
-      <c r="J15" s="99">
+      <c r="J15" s="95">
         <f>J13+J9</f>
-        <v>26500000</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
+        <v>24545000</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="321"/>
-      <c r="C17" s="321"/>
-      <c r="D17" s="321"/>
-      <c r="E17" s="95"/>
-      <c r="H17" s="321"/>
-      <c r="I17" s="321"/>
-      <c r="J17" s="321"/>
-      <c r="K17" s="321"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="91"/>
+      <c r="H17" s="271"/>
+      <c r="I17" s="271"/>
+      <c r="J17" s="271"/>
+      <c r="K17" s="271"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="F18" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="162"/>
+      <c r="H18" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="F18" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="169"/>
-      <c r="H18" s="321" t="s">
+      <c r="I18" s="271"/>
+      <c r="J18" s="271"/>
+      <c r="K18" s="271"/>
+    </row>
+    <row r="19" spans="2:11" s="163" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B19" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="321"/>
-      <c r="J18" s="321"/>
-      <c r="K18" s="321"/>
-    </row>
-    <row r="19" spans="2:11" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B19" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="F19" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="171"/>
-      <c r="H19" s="338" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="338"/>
-      <c r="J19" s="338"/>
-      <c r="K19" s="338"/>
-    </row>
-    <row r="22" spans="2:11" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="147"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="F19" s="164" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="164"/>
+      <c r="H19" s="279" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="279"/>
+    </row>
+    <row r="22" spans="2:11" s="108" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$5:$P$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -475,6 +475,27 @@
   </si>
   <si>
     <t xml:space="preserve">          - Chi phí công tác Huế</t>
+  </si>
+  <si>
+    <t>chị Bởi thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Cước vận chuyển sài gòn 2 chuyến</t>
+  </si>
+  <si>
+    <t>Tiếp khách đội Quảng cáo</t>
+  </si>
+  <si>
+    <t>Anh Nam thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chị quân thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chị Thơm NV hành chính thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Hằng kế toán ứng Lương</t>
   </si>
 </sst>
 </file>
@@ -482,12 +503,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -906,14 +927,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -952,7 +973,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -966,14 +987,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -985,15 +1006,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1025,10 +1046,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1040,10 +1061,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,16 +1073,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,7 +1097,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1086,12 +1107,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,7 +1121,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1115,19 +1136,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,28 +1163,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1178,14 +1199,14 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1193,11 +1214,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1205,10 +1226,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1217,26 +1238,26 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1246,13 +1267,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1261,24 +1282,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1287,13 +1308,13 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1305,11 +1326,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,39 +1358,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1390,17 +1411,17 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1433,34 +1454,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,7 +1490,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,12 +1503,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,184 +1526,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1694,67 +1556,34 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1762,6 +1591,199 @@
     <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2072,11 +2094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2112,8 @@
     <col min="8" max="8" width="17.5703125" style="113" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="108"/>
     <col min="10" max="10" width="14" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="108"/>
+    <col min="11" max="11" width="9.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2138,16 +2161,16 @@
       <c r="Q2" s="119"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="272" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
@@ -2159,60 +2182,60 @@
       <c r="Q3" s="120"/>
     </row>
     <row r="4" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="311" t="s">
+      <c r="A4" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="311" t="s">
+      <c r="B4" s="273" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="312" t="s">
+      <c r="D4" s="274" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="313" t="s">
+      <c r="E4" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="G4" s="313" t="s">
+      <c r="F4" s="275"/>
+      <c r="G4" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="313"/>
+      <c r="H4" s="275"/>
     </row>
     <row r="5" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="311"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="314" t="s">
+      <c r="A5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="258" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="314" t="s">
+      <c r="F5" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="314" t="s">
+      <c r="G5" s="258" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="314" t="s">
+      <c r="H5" s="258" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="306">
+      <c r="A6" s="253">
         <v>44105</v>
       </c>
-      <c r="B6" s="306"/>
-      <c r="C6" s="307" t="s">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="308" t="s">
+      <c r="D6" s="255" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="309"/>
-      <c r="F6" s="310"/>
-      <c r="G6" s="309"/>
-      <c r="H6" s="310">
+      <c r="E6" s="256"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="257">
         <v>400000</v>
       </c>
     </row>
@@ -2244,7 +2267,7 @@
         <v>148</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E8" s="107"/>
       <c r="F8" s="121"/>
@@ -2270,13 +2293,17 @@
         <v>1629900</v>
       </c>
       <c r="H9" s="121"/>
+      <c r="J9" s="332">
+        <f>H8+G18+G22+H28</f>
+        <v>6655000</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="327">
+      <c r="A10" s="279">
         <v>44111</v>
       </c>
-      <c r="B10" s="327"/>
-      <c r="C10" s="324" t="s">
+      <c r="B10" s="279"/>
+      <c r="C10" s="276" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="106" t="s">
@@ -2288,10 +2315,10 @@
       <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="328"/>
-      <c r="B11" s="328"/>
-      <c r="C11" s="325"/>
-      <c r="D11" s="330" t="s">
+      <c r="A11" s="280"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="266" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="107"/>
@@ -2302,10 +2329,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="328"/>
-      <c r="B12" s="328"/>
-      <c r="C12" s="325"/>
-      <c r="D12" s="330" t="s">
+      <c r="A12" s="280"/>
+      <c r="B12" s="280"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="266" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="107"/>
@@ -2316,10 +2343,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="328"/>
-      <c r="B13" s="328"/>
-      <c r="C13" s="325"/>
-      <c r="D13" s="330" t="s">
+      <c r="A13" s="280"/>
+      <c r="B13" s="280"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="266" t="s">
         <v>105</v>
       </c>
       <c r="E13" s="107"/>
@@ -2330,10 +2357,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="328"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="331" t="s">
+      <c r="A14" s="280"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="267" t="s">
         <v>106</v>
       </c>
       <c r="E14" s="107"/>
@@ -2344,10 +2371,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="328"/>
-      <c r="B15" s="328"/>
-      <c r="C15" s="325"/>
-      <c r="D15" s="330" t="s">
+      <c r="A15" s="280"/>
+      <c r="B15" s="280"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="266" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="107"/>
@@ -2358,10 +2385,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="329"/>
-      <c r="B16" s="329"/>
-      <c r="C16" s="326"/>
-      <c r="D16" s="330" t="s">
+      <c r="A16" s="281"/>
+      <c r="B16" s="281"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="266" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="107"/>
@@ -2371,7 +2398,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="104">
         <v>44115</v>
       </c>
@@ -2389,7 +2416,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="104">
         <v>44116</v>
       </c>
@@ -2407,7 +2434,7 @@
       </c>
       <c r="H18" s="123"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="104">
         <v>44116</v>
       </c>
@@ -2424,8 +2451,12 @@
         <v>3100000</v>
       </c>
       <c r="H19" s="123"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="332">
+        <f>N21-J9</f>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="104">
         <v>44117</v>
       </c>
@@ -2443,86 +2474,140 @@
       </c>
       <c r="H20" s="123"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="104">
+        <v>44118</v>
+      </c>
       <c r="B21" s="104"/>
       <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="D21" s="106" t="s">
+        <v>153</v>
+      </c>
       <c r="E21" s="107"/>
       <c r="F21" s="121"/>
-      <c r="G21" s="107"/>
+      <c r="G21" s="107">
+        <v>1811000</v>
+      </c>
       <c r="H21" s="123"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
+      <c r="N21" s="108">
+        <f>6713000</f>
+        <v>6713000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="104">
+        <v>44120</v>
+      </c>
       <c r="B22" s="104"/>
       <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
+      <c r="D22" s="106" t="s">
+        <v>101</v>
+      </c>
       <c r="E22" s="107"/>
       <c r="F22" s="121"/>
-      <c r="G22" s="107"/>
+      <c r="G22" s="107">
+        <v>2000000</v>
+      </c>
       <c r="H22" s="123"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="104">
+        <v>44126</v>
+      </c>
       <c r="B23" s="104"/>
       <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="F23" s="107"/>
+      <c r="D23" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="107">
+        <v>59124000</v>
+      </c>
+      <c r="F23" s="121"/>
       <c r="G23" s="107"/>
       <c r="H23" s="123"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="104">
+        <v>44127</v>
+      </c>
       <c r="B24" s="104"/>
       <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="107"/>
+      <c r="D24" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107">
+        <v>4320000</v>
+      </c>
       <c r="H24" s="123"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="104">
+        <v>44127</v>
+      </c>
       <c r="B25" s="104"/>
       <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="121"/>
+      <c r="D25" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="107">
+        <f>(465000*2+455000)*(1-41%)</f>
+        <v>817150.00000000012</v>
+      </c>
       <c r="G25" s="107"/>
       <c r="H25" s="123"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="104">
+        <v>44128</v>
+      </c>
       <c r="B26" s="104"/>
       <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
+      <c r="D26" s="106" t="s">
+        <v>154</v>
+      </c>
       <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
+      <c r="F26" s="121">
+        <f>(455000*2)*(1-41%)</f>
+        <v>536900.00000000012</v>
+      </c>
       <c r="G26" s="107"/>
       <c r="H26" s="123"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="104">
+        <v>44128</v>
+      </c>
       <c r="B27" s="104"/>
       <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
+      <c r="D27" s="106" t="s">
+        <v>156</v>
+      </c>
       <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
+      <c r="F27" s="107">
+        <v>400000</v>
+      </c>
       <c r="G27" s="107"/>
       <c r="H27" s="123"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
+    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="104">
+        <v>44128</v>
+      </c>
       <c r="B28" s="104"/>
       <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
+      <c r="D28" s="106" t="s">
+        <v>101</v>
+      </c>
       <c r="E28" s="107"/>
-      <c r="F28" s="121"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="107"/>
-      <c r="H28" s="123"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="123">
+        <f>900000+900000+400000</f>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="104"/>
       <c r="B29" s="104"/>
       <c r="C29" s="105"/>
@@ -2532,7 +2617,7 @@
       <c r="G29" s="107"/>
       <c r="H29" s="123"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="104"/>
       <c r="B30" s="104"/>
       <c r="C30" s="105"/>
@@ -2542,22 +2627,22 @@
       <c r="G30" s="107"/>
       <c r="H30" s="123"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="104"/>
       <c r="B31" s="104"/>
       <c r="C31" s="105"/>
       <c r="D31" s="106"/>
-      <c r="F31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="107"/>
       <c r="H31" s="123"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="104"/>
       <c r="B32" s="104"/>
       <c r="C32" s="105"/>
       <c r="D32" s="106"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="121"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="107"/>
       <c r="H32" s="123"/>
     </row>
@@ -2566,7 +2651,8 @@
       <c r="B33" s="104"/>
       <c r="C33" s="105"/>
       <c r="D33" s="106"/>
-      <c r="E33" s="121"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="121"/>
       <c r="G33" s="107"/>
       <c r="H33" s="123"/>
     </row>
@@ -2575,8 +2661,7 @@
       <c r="B34" s="104"/>
       <c r="C34" s="105"/>
       <c r="D34" s="106"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="121"/>
+      <c r="E34" s="121"/>
       <c r="G34" s="107"/>
       <c r="H34" s="123"/>
     </row>
@@ -2595,7 +2680,8 @@
       <c r="B36" s="104"/>
       <c r="C36" s="105"/>
       <c r="D36" s="106"/>
-      <c r="F36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="121"/>
       <c r="G36" s="107"/>
       <c r="H36" s="123"/>
     </row>
@@ -2604,8 +2690,7 @@
       <c r="B37" s="104"/>
       <c r="C37" s="105"/>
       <c r="D37" s="106"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="121"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="107"/>
       <c r="H37" s="123"/>
     </row>
@@ -2675,7 +2760,7 @@
       <c r="C44" s="105"/>
       <c r="D44" s="106"/>
       <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
+      <c r="F44" s="121"/>
       <c r="G44" s="107"/>
       <c r="H44" s="123"/>
     </row>
@@ -2705,7 +2790,7 @@
       <c r="C47" s="105"/>
       <c r="D47" s="106"/>
       <c r="E47" s="107"/>
-      <c r="F47" s="121"/>
+      <c r="F47" s="107"/>
       <c r="G47" s="107"/>
       <c r="H47" s="123"/>
     </row>
@@ -2735,7 +2820,7 @@
       <c r="C50" s="105"/>
       <c r="D50" s="106"/>
       <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
+      <c r="F50" s="121"/>
       <c r="G50" s="107"/>
       <c r="H50" s="123"/>
     </row>
@@ -2755,7 +2840,7 @@
       <c r="C52" s="105"/>
       <c r="D52" s="106"/>
       <c r="E52" s="107"/>
-      <c r="F52" s="121"/>
+      <c r="F52" s="107"/>
       <c r="G52" s="107"/>
       <c r="H52" s="123"/>
     </row>
@@ -2804,7 +2889,8 @@
       <c r="B57" s="104"/>
       <c r="C57" s="105"/>
       <c r="D57" s="106"/>
-      <c r="E57" s="121"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="121"/>
       <c r="G57" s="107"/>
       <c r="H57" s="123"/>
     </row>
@@ -2813,22 +2899,21 @@
       <c r="B58" s="104"/>
       <c r="C58" s="105"/>
       <c r="D58" s="106"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="121"/>
+      <c r="E58" s="121"/>
       <c r="G58" s="107"/>
       <c r="H58" s="123"/>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="104"/>
       <c r="B59" s="104"/>
       <c r="C59" s="105"/>
-      <c r="D59" s="124"/>
+      <c r="D59" s="106"/>
       <c r="E59" s="107"/>
       <c r="F59" s="121"/>
       <c r="G59" s="107"/>
       <c r="H59" s="123"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="104"/>
       <c r="B60" s="104"/>
       <c r="C60" s="105"/>
@@ -2843,21 +2928,21 @@
       <c r="B61" s="104"/>
       <c r="C61" s="105"/>
       <c r="D61" s="124"/>
-      <c r="E61" s="121"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="121"/>
       <c r="G61" s="107"/>
       <c r="H61" s="123"/>
     </row>
-    <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="104"/>
       <c r="B62" s="104"/>
       <c r="C62" s="105"/>
       <c r="D62" s="124"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="121"/>
+      <c r="E62" s="121"/>
       <c r="G62" s="107"/>
       <c r="H62" s="123"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
       <c r="C63" s="105"/>
@@ -2871,7 +2956,7 @@
       <c r="A64" s="104"/>
       <c r="B64" s="104"/>
       <c r="C64" s="105"/>
-      <c r="D64" s="106"/>
+      <c r="D64" s="124"/>
       <c r="E64" s="107"/>
       <c r="F64" s="121"/>
       <c r="G64" s="107"/>
@@ -2967,48 +3052,45 @@
       <c r="G73" s="107"/>
       <c r="H73" s="123"/>
     </row>
-    <row r="74" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="244" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="104"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="123"/>
+    </row>
+    <row r="75" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="245"/>
-      <c r="C74" s="245"/>
-      <c r="D74" s="246"/>
-      <c r="E74" s="125">
-        <f>SUM(E7:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="125">
-        <f>SUM(F7:F73)</f>
-        <v>268450.00000000006</v>
-      </c>
-      <c r="G74" s="125">
-        <f>SUM(G7:G73)</f>
-        <v>8009900</v>
-      </c>
-      <c r="H74" s="125">
-        <f>SUM(H7:H73)</f>
-        <v>3562000</v>
-      </c>
-      <c r="J74" s="127"/>
-    </row>
-    <row r="75" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="128"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
+      <c r="B75" s="270"/>
+      <c r="C75" s="270"/>
+      <c r="D75" s="271"/>
+      <c r="E75" s="125">
+        <f>SUM(E7:E74)</f>
+        <v>59124000</v>
+      </c>
+      <c r="F75" s="125">
+        <f>SUM(F7:F74)</f>
+        <v>2022500.0000000005</v>
+      </c>
+      <c r="G75" s="125">
+        <f>SUM(G7:G74)</f>
+        <v>16140900</v>
+      </c>
+      <c r="H75" s="125">
+        <f>SUM(H7:H74)</f>
+        <v>5762000</v>
+      </c>
       <c r="J75" s="127"/>
     </row>
-    <row r="76" spans="1:10" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="243" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="243"/>
-      <c r="C76" s="243"/>
+    <row r="76" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="128"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
       <c r="D76" s="128"/>
       <c r="E76" s="129"/>
       <c r="F76" s="129"/>
@@ -3016,41 +3098,54 @@
       <c r="H76" s="129"/>
       <c r="J76" s="127"/>
     </row>
-    <row r="77" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="207" t="s">
+    <row r="77" spans="1:10" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="268" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="268"/>
+      <c r="C77" s="268"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
+      <c r="G77" s="129"/>
+      <c r="H77" s="129"/>
+      <c r="J77" s="127"/>
+    </row>
+    <row r="78" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="64"/>
-      <c r="F77" s="207" t="s">
+      <c r="D78" s="64"/>
+      <c r="F78" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-    </row>
-    <row r="78" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+    </row>
+    <row r="79" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="F78" s="4" t="s">
+      <c r="D79" s="5"/>
+      <c r="F79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="141"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="141"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H74">
+  <autoFilter ref="A4:H75">
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
@@ -3097,13 +3192,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
       <c r="H1" s="143"/>
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
@@ -3133,149 +3228,149 @@
       <c r="P2" s="147"/>
     </row>
     <row r="3" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="296" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
     </row>
     <row r="4" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
     </row>
     <row r="5" spans="1:16" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="259" t="s">
+      <c r="A5" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="315" t="s">
+      <c r="B5" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="292" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="259"/>
-      <c r="F5" s="260" t="s">
+      <c r="E5" s="292"/>
+      <c r="F5" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
-      <c r="L5" s="260"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="260" t="s">
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="290" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="259"/>
-      <c r="B6" s="315"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="294"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="292" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="259" t="s">
+      <c r="F6" s="292" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="259" t="s">
+      <c r="G6" s="292" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="316" t="s">
+      <c r="H6" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="316" t="s">
+      <c r="I6" s="291" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="262" t="s">
+      <c r="J6" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="262"/>
-      <c r="L6" s="316" t="s">
+      <c r="K6" s="293"/>
+      <c r="L6" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="316" t="s">
+      <c r="M6" s="291" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="316" t="s">
+      <c r="N6" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="316" t="s">
+      <c r="O6" s="291" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="260"/>
+      <c r="P6" s="290"/>
     </row>
     <row r="7" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="259"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="317" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="294"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="259" t="s">
         <v>86</v>
       </c>
       <c r="K7" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="316"/>
-      <c r="P7" s="260"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
+      <c r="N7" s="291"/>
+      <c r="O7" s="291"/>
+      <c r="P7" s="290"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="255">
+      <c r="A8" s="282">
         <v>808</v>
       </c>
-      <c r="B8" s="252">
+      <c r="B8" s="284">
         <v>44107</v>
       </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255" t="s">
+      <c r="C8" s="282"/>
+      <c r="D8" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="282" t="s">
         <v>127</v>
       </c>
       <c r="F8" s="181" t="s">
@@ -3307,11 +3402,11 @@
       <c r="P8" s="181"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="256"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
+      <c r="A9" s="286"/>
+      <c r="B9" s="287"/>
+      <c r="C9" s="286"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="286"/>
       <c r="F9" s="194" t="s">
         <v>129</v>
       </c>
@@ -3339,11 +3434,11 @@
       <c r="P9" s="194"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="257"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
+      <c r="A10" s="283"/>
+      <c r="B10" s="285"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="283"/>
       <c r="F10" s="185" t="s">
         <v>130</v>
       </c>
@@ -3439,7 +3534,7 @@
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-      <c r="J12" s="323"/>
+      <c r="J12" s="265"/>
       <c r="K12" s="177">
         <v>0.41</v>
       </c>
@@ -3453,17 +3548,17 @@
       <c r="P12" s="180"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="255">
+      <c r="A13" s="282">
         <v>816</v>
       </c>
-      <c r="B13" s="252">
+      <c r="B13" s="284">
         <v>44112</v>
       </c>
-      <c r="C13" s="255"/>
-      <c r="D13" s="255" t="s">
+      <c r="C13" s="282"/>
+      <c r="D13" s="282" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="255"/>
+      <c r="E13" s="282"/>
       <c r="F13" s="181" t="s">
         <v>128</v>
       </c>
@@ -3491,11 +3586,11 @@
       <c r="P13" s="184"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="257"/>
-      <c r="B14" s="254"/>
-      <c r="C14" s="257"/>
-      <c r="D14" s="257"/>
-      <c r="E14" s="257"/>
+      <c r="A14" s="283"/>
+      <c r="B14" s="285"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
       <c r="F14" s="185" t="s">
         <v>129</v>
       </c>
@@ -3601,17 +3696,17 @@
       <c r="P16" s="175"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="255">
+      <c r="A17" s="282">
         <v>822</v>
       </c>
-      <c r="B17" s="252">
+      <c r="B17" s="284">
         <v>44113</v>
       </c>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255" t="s">
+      <c r="C17" s="282"/>
+      <c r="D17" s="282" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="255"/>
+      <c r="E17" s="282"/>
       <c r="F17" s="181" t="s">
         <v>128</v>
       </c>
@@ -3639,11 +3734,11 @@
       <c r="P17" s="181"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="257"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
+      <c r="A18" s="283"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="283"/>
+      <c r="E18" s="283"/>
       <c r="F18" s="185" t="s">
         <v>129</v>
       </c>
@@ -3671,22 +3766,22 @@
       <c r="P18" s="185"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="318"/>
-      <c r="B19" s="319"/>
-      <c r="C19" s="318"/>
-      <c r="D19" s="318"/>
-      <c r="E19" s="318"/>
-      <c r="F19" s="320"/>
-      <c r="G19" s="320"/>
-      <c r="H19" s="321"/>
-      <c r="I19" s="321"/>
-      <c r="J19" s="321"/>
-      <c r="K19" s="322"/>
-      <c r="L19" s="321"/>
-      <c r="M19" s="321"/>
-      <c r="N19" s="321"/>
-      <c r="O19" s="321"/>
-      <c r="P19" s="320"/>
+      <c r="A19" s="260"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="263"/>
+      <c r="I19" s="263"/>
+      <c r="J19" s="263"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="262"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="238"/>
@@ -3708,9 +3803,9 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="190"/>
-      <c r="B21" s="301"/>
+      <c r="B21" s="248"/>
       <c r="C21" s="190"/>
-      <c r="D21" s="303"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="190"/>
       <c r="F21" s="190"/>
       <c r="G21" s="190"/>
@@ -3726,9 +3821,9 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="190"/>
-      <c r="B22" s="301"/>
+      <c r="B22" s="248"/>
       <c r="C22" s="190"/>
-      <c r="D22" s="303"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="190"/>
       <c r="F22" s="190"/>
       <c r="G22" s="190"/>
@@ -3744,9 +3839,9 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="190"/>
-      <c r="B23" s="301"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="190"/>
-      <c r="D23" s="303"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="190"/>
       <c r="F23" s="190"/>
       <c r="G23" s="190"/>
@@ -3762,9 +3857,9 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="190"/>
-      <c r="B24" s="301"/>
+      <c r="B24" s="248"/>
       <c r="C24" s="190"/>
-      <c r="D24" s="303"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="190"/>
       <c r="F24" s="190"/>
       <c r="G24" s="190"/>
@@ -3780,9 +3875,9 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="190"/>
-      <c r="B25" s="301"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="190"/>
-      <c r="D25" s="303"/>
+      <c r="D25" s="250"/>
       <c r="E25" s="190"/>
       <c r="F25" s="190"/>
       <c r="G25" s="190"/>
@@ -3798,9 +3893,9 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="190"/>
-      <c r="B26" s="301"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="190"/>
-      <c r="D26" s="303"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="190"/>
       <c r="F26" s="190"/>
       <c r="G26" s="190"/>
@@ -3816,9 +3911,9 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="190"/>
-      <c r="B27" s="301"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="190"/>
-      <c r="D27" s="303"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="190"/>
       <c r="F27" s="190"/>
       <c r="G27" s="190"/>
@@ -3833,7 +3928,7 @@
       <c r="P27" s="190"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="305"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="237"/>
       <c r="C28" s="238"/>
       <c r="D28" s="238"/>
@@ -3852,7 +3947,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="190"/>
-      <c r="B29" s="301"/>
+      <c r="B29" s="248"/>
       <c r="C29" s="190"/>
       <c r="D29" s="190"/>
       <c r="E29" s="190"/>
@@ -3870,7 +3965,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="190"/>
-      <c r="B30" s="301"/>
+      <c r="B30" s="248"/>
       <c r="C30" s="190"/>
       <c r="D30" s="190"/>
       <c r="E30" s="190"/>
@@ -3888,7 +3983,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="190"/>
-      <c r="B31" s="301"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="190"/>
       <c r="D31" s="190"/>
       <c r="E31" s="190"/>
@@ -3906,7 +4001,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="190"/>
-      <c r="B32" s="301"/>
+      <c r="B32" s="248"/>
       <c r="C32" s="190"/>
       <c r="D32" s="190"/>
       <c r="E32" s="190"/>
@@ -3996,7 +4091,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="190"/>
-      <c r="B37" s="301"/>
+      <c r="B37" s="248"/>
       <c r="C37" s="190"/>
       <c r="D37" s="190"/>
       <c r="E37" s="190"/>
@@ -4014,7 +4109,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="190"/>
-      <c r="B38" s="301"/>
+      <c r="B38" s="248"/>
       <c r="C38" s="190"/>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -4032,7 +4127,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="190"/>
-      <c r="B39" s="301"/>
+      <c r="B39" s="248"/>
       <c r="C39" s="190"/>
       <c r="D39" s="190"/>
       <c r="E39" s="190"/>
@@ -4050,7 +4145,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="190"/>
-      <c r="B40" s="301"/>
+      <c r="B40" s="248"/>
       <c r="C40" s="190"/>
       <c r="D40" s="190"/>
       <c r="E40" s="190"/>
@@ -4068,7 +4163,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="190"/>
-      <c r="B41" s="301"/>
+      <c r="B41" s="248"/>
       <c r="C41" s="190"/>
       <c r="D41" s="190"/>
       <c r="E41" s="190"/>
@@ -4082,11 +4177,11 @@
       <c r="M41" s="195"/>
       <c r="N41" s="195"/>
       <c r="O41" s="195"/>
-      <c r="P41" s="263"/>
+      <c r="P41" s="288"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="190"/>
-      <c r="B42" s="301"/>
+      <c r="B42" s="248"/>
       <c r="C42" s="190"/>
       <c r="D42" s="190"/>
       <c r="E42" s="190"/>
@@ -4100,11 +4195,11 @@
       <c r="M42" s="195"/>
       <c r="N42" s="195"/>
       <c r="O42" s="195"/>
-      <c r="P42" s="263"/>
+      <c r="P42" s="288"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="190"/>
-      <c r="B43" s="301"/>
+      <c r="B43" s="248"/>
       <c r="C43" s="190"/>
       <c r="D43" s="190"/>
       <c r="E43" s="190"/>
@@ -4118,11 +4213,11 @@
       <c r="M43" s="195"/>
       <c r="N43" s="195"/>
       <c r="O43" s="195"/>
-      <c r="P43" s="263"/>
+      <c r="P43" s="288"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="190"/>
-      <c r="B44" s="301"/>
+      <c r="B44" s="248"/>
       <c r="C44" s="190"/>
       <c r="D44" s="190"/>
       <c r="E44" s="190"/>
@@ -4136,11 +4231,11 @@
       <c r="M44" s="195"/>
       <c r="N44" s="195"/>
       <c r="O44" s="195"/>
-      <c r="P44" s="263"/>
+      <c r="P44" s="288"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="190"/>
-      <c r="B45" s="301"/>
+      <c r="B45" s="248"/>
       <c r="C45" s="190"/>
       <c r="D45" s="190"/>
       <c r="E45" s="190"/>
@@ -4154,11 +4249,11 @@
       <c r="M45" s="195"/>
       <c r="N45" s="195"/>
       <c r="O45" s="195"/>
-      <c r="P45" s="263"/>
+      <c r="P45" s="288"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="190"/>
-      <c r="B46" s="301"/>
+      <c r="B46" s="248"/>
       <c r="C46" s="190"/>
       <c r="D46" s="190"/>
       <c r="E46" s="190"/>
@@ -4172,7 +4267,7 @@
       <c r="M46" s="195"/>
       <c r="N46" s="195"/>
       <c r="O46" s="195"/>
-      <c r="P46" s="263"/>
+      <c r="P46" s="288"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="238"/>
@@ -4190,7 +4285,7 @@
       <c r="M47" s="195"/>
       <c r="N47" s="195"/>
       <c r="O47" s="195"/>
-      <c r="P47" s="304"/>
+      <c r="P47" s="251"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="238"/>
@@ -4212,7 +4307,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="190"/>
-      <c r="B49" s="301"/>
+      <c r="B49" s="248"/>
       <c r="C49" s="190"/>
       <c r="D49" s="190"/>
       <c r="E49" s="190"/>
@@ -4226,11 +4321,11 @@
       <c r="M49" s="195"/>
       <c r="N49" s="195"/>
       <c r="O49" s="195"/>
-      <c r="P49" s="263"/>
+      <c r="P49" s="288"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="190"/>
-      <c r="B50" s="301"/>
+      <c r="B50" s="248"/>
       <c r="C50" s="190"/>
       <c r="D50" s="190"/>
       <c r="E50" s="190"/>
@@ -4244,11 +4339,11 @@
       <c r="M50" s="195"/>
       <c r="N50" s="195"/>
       <c r="O50" s="195"/>
-      <c r="P50" s="263"/>
+      <c r="P50" s="288"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="190"/>
-      <c r="B51" s="301"/>
+      <c r="B51" s="248"/>
       <c r="C51" s="190"/>
       <c r="D51" s="190"/>
       <c r="E51" s="190"/>
@@ -4262,7 +4357,7 @@
       <c r="M51" s="195"/>
       <c r="N51" s="195"/>
       <c r="O51" s="195"/>
-      <c r="P51" s="263"/>
+      <c r="P51" s="288"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="238"/>
@@ -4280,7 +4375,7 @@
       <c r="M52" s="195"/>
       <c r="N52" s="195"/>
       <c r="O52" s="195"/>
-      <c r="P52" s="304"/>
+      <c r="P52" s="251"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="238"/>
@@ -4392,7 +4487,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="190"/>
-      <c r="B59" s="301"/>
+      <c r="B59" s="248"/>
       <c r="C59" s="190"/>
       <c r="D59" s="190"/>
       <c r="E59" s="190"/>
@@ -4410,7 +4505,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="190"/>
-      <c r="B60" s="301"/>
+      <c r="B60" s="248"/>
       <c r="C60" s="190"/>
       <c r="D60" s="190"/>
       <c r="E60" s="190"/>
@@ -4428,7 +4523,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="190"/>
-      <c r="B61" s="301"/>
+      <c r="B61" s="248"/>
       <c r="C61" s="190"/>
       <c r="D61" s="190"/>
       <c r="E61" s="190"/>
@@ -4446,7 +4541,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="190"/>
-      <c r="B62" s="301"/>
+      <c r="B62" s="248"/>
       <c r="C62" s="190"/>
       <c r="D62" s="190"/>
       <c r="E62" s="190"/>
@@ -4464,7 +4559,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="190"/>
-      <c r="B63" s="301"/>
+      <c r="B63" s="248"/>
       <c r="C63" s="190"/>
       <c r="D63" s="190"/>
       <c r="E63" s="190"/>
@@ -4482,7 +4577,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="190"/>
-      <c r="B64" s="301"/>
+      <c r="B64" s="248"/>
       <c r="C64" s="190"/>
       <c r="D64" s="190"/>
       <c r="E64" s="190"/>
@@ -4500,7 +4595,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="190"/>
-      <c r="B65" s="301"/>
+      <c r="B65" s="248"/>
       <c r="C65" s="190"/>
       <c r="D65" s="190"/>
       <c r="E65" s="190"/>
@@ -4518,7 +4613,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="190"/>
-      <c r="B66" s="301"/>
+      <c r="B66" s="248"/>
       <c r="C66" s="190"/>
       <c r="D66" s="190"/>
       <c r="E66" s="190"/>
@@ -4536,7 +4631,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="190"/>
-      <c r="B67" s="301"/>
+      <c r="B67" s="248"/>
       <c r="C67" s="190"/>
       <c r="D67" s="190"/>
       <c r="E67" s="190"/>
@@ -4554,7 +4649,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="190"/>
-      <c r="B68" s="301"/>
+      <c r="B68" s="248"/>
       <c r="C68" s="190"/>
       <c r="D68" s="190"/>
       <c r="E68" s="190"/>
@@ -4572,7 +4667,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="190"/>
-      <c r="B69" s="301"/>
+      <c r="B69" s="248"/>
       <c r="C69" s="190"/>
       <c r="D69" s="190"/>
       <c r="E69" s="190"/>
@@ -4608,7 +4703,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="190"/>
-      <c r="B71" s="301"/>
+      <c r="B71" s="248"/>
       <c r="C71" s="190"/>
       <c r="D71" s="190"/>
       <c r="E71" s="190"/>
@@ -4626,7 +4721,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="190"/>
-      <c r="B72" s="301"/>
+      <c r="B72" s="248"/>
       <c r="C72" s="190"/>
       <c r="D72" s="190"/>
       <c r="E72" s="190"/>
@@ -4644,7 +4739,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="190"/>
-      <c r="B73" s="301"/>
+      <c r="B73" s="248"/>
       <c r="C73" s="190"/>
       <c r="D73" s="190"/>
       <c r="E73" s="190"/>
@@ -4676,7 +4771,7 @@
       <c r="M74" s="195"/>
       <c r="N74" s="195"/>
       <c r="O74" s="195"/>
-      <c r="P74" s="304"/>
+      <c r="P74" s="251"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="238"/>
@@ -4698,7 +4793,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="190"/>
-      <c r="B76" s="301"/>
+      <c r="B76" s="248"/>
       <c r="C76" s="190"/>
       <c r="D76" s="190"/>
       <c r="E76" s="190"/>
@@ -4716,7 +4811,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="193"/>
-      <c r="B77" s="302"/>
+      <c r="B77" s="249"/>
       <c r="C77" s="193"/>
       <c r="D77" s="193"/>
       <c r="E77" s="193"/>
@@ -4733,14 +4828,14 @@
       <c r="P77" s="185"/>
     </row>
     <row r="78" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="250" t="s">
+      <c r="A78" s="298" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="250"/>
-      <c r="C78" s="250"/>
-      <c r="D78" s="250"/>
-      <c r="E78" s="250"/>
-      <c r="F78" s="250"/>
+      <c r="B78" s="298"/>
+      <c r="C78" s="298"/>
+      <c r="D78" s="298"/>
+      <c r="E78" s="298"/>
+      <c r="F78" s="298"/>
       <c r="G78" s="150">
         <f>SUM(G8:G77)</f>
         <v>187</v>
@@ -4760,17 +4855,17 @@
       <c r="N78" s="151"/>
       <c r="O78" s="151"/>
       <c r="P78" s="151"/>
-      <c r="Q78" s="248"/>
+      <c r="Q78" s="299"/>
     </row>
     <row r="79" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="249" t="s">
+      <c r="A79" s="297" t="s">
         <v>116</v>
       </c>
-      <c r="B79" s="249"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="249"/>
-      <c r="E79" s="249"/>
-      <c r="F79" s="249"/>
+      <c r="B79" s="297"/>
+      <c r="C79" s="297"/>
+      <c r="D79" s="297"/>
+      <c r="E79" s="297"/>
+      <c r="F79" s="297"/>
       <c r="G79" s="150">
         <f>G78</f>
         <v>187</v>
@@ -4787,17 +4882,17 @@
       <c r="N79" s="155"/>
       <c r="O79" s="155"/>
       <c r="P79" s="155"/>
-      <c r="Q79" s="248"/>
+      <c r="Q79" s="299"/>
     </row>
     <row r="80" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="249" t="s">
+      <c r="A80" s="297" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="249"/>
-      <c r="C80" s="249"/>
-      <c r="D80" s="249"/>
-      <c r="E80" s="249"/>
-      <c r="F80" s="249"/>
+      <c r="B80" s="297"/>
+      <c r="C80" s="297"/>
+      <c r="D80" s="297"/>
+      <c r="E80" s="297"/>
+      <c r="F80" s="297"/>
       <c r="G80" s="156" t="s">
         <v>45</v>
       </c>
@@ -4815,14 +4910,14 @@
       <c r="P80" s="157"/>
     </row>
     <row r="81" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="249" t="s">
+      <c r="A81" s="297" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="249"/>
-      <c r="C81" s="249"/>
-      <c r="D81" s="249"/>
-      <c r="E81" s="249"/>
-      <c r="F81" s="249"/>
+      <c r="B81" s="297"/>
+      <c r="C81" s="297"/>
+      <c r="D81" s="297"/>
+      <c r="E81" s="297"/>
+      <c r="F81" s="297"/>
       <c r="G81" s="155"/>
       <c r="H81" s="155"/>
       <c r="I81" s="151"/>
@@ -4838,14 +4933,14 @@
       <c r="P81" s="157"/>
     </row>
     <row r="82" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="249" t="s">
+      <c r="A82" s="297" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="249"/>
-      <c r="C82" s="249"/>
-      <c r="D82" s="249"/>
-      <c r="E82" s="249"/>
-      <c r="F82" s="249"/>
+      <c r="B82" s="297"/>
+      <c r="C82" s="297"/>
+      <c r="D82" s="297"/>
+      <c r="E82" s="297"/>
+      <c r="F82" s="297"/>
       <c r="G82" s="155"/>
       <c r="H82" s="155"/>
       <c r="I82" s="151"/>
@@ -4916,24 +5011,20 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="45">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="O6:O7"/>
@@ -4947,20 +5038,24 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5021,24 +5116,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="300" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="265" t="s">
+      <c r="A5" s="301" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -5117,7 +5212,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="266">
+      <c r="E10" s="302">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -5136,7 +5231,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="267"/>
+      <c r="E11" s="303"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -5147,7 +5242,7 @@
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
       <c r="D12" s="160"/>
-      <c r="E12" s="268"/>
+      <c r="E12" s="304"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -5436,75 +5531,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="306"/>
       <c r="L3" s="212"/>
       <c r="M3" s="212"/>
       <c r="N3" s="212"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="307" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="272"/>
+      <c r="B4" s="307"/>
+      <c r="C4" s="307"/>
+      <c r="D4" s="307"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="307"/>
       <c r="L4" s="213"/>
       <c r="M4" s="213"/>
       <c r="N4" s="213"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="274" t="s">
+      <c r="A5" s="309" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="275" t="s">
+      <c r="B5" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="276" t="s">
+      <c r="E5" s="309"/>
+      <c r="F5" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="276"/>
-      <c r="H5" s="276"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="278" t="s">
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="270" t="s">
+      <c r="L5" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="274"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="274"/>
+      <c r="A6" s="309"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="309"/>
       <c r="D6" s="225" t="s">
         <v>40</v>
       </c>
@@ -5526,7 +5621,7 @@
       <c r="J6" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="278"/>
+      <c r="K6" s="313"/>
       <c r="L6" s="216" t="s">
         <v>52</v>
       </c>
@@ -5541,7 +5636,7 @@
       <c r="A7" s="82">
         <v>806</v>
       </c>
-      <c r="B7" s="296">
+      <c r="B7" s="243">
         <v>44107</v>
       </c>
       <c r="C7" s="82"/>
@@ -5574,7 +5669,7 @@
       <c r="A8" s="228">
         <v>811</v>
       </c>
-      <c r="B8" s="299">
+      <c r="B8" s="246">
         <v>44107</v>
       </c>
       <c r="C8" s="228" t="s">
@@ -5607,7 +5702,7 @@
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="228"/>
-      <c r="B9" s="299"/>
+      <c r="B9" s="246"/>
       <c r="C9" s="228"/>
       <c r="D9" s="228"/>
       <c r="E9" s="228"/>
@@ -5636,7 +5731,7 @@
       <c r="A10" s="228">
         <v>817</v>
       </c>
-      <c r="B10" s="299">
+      <c r="B10" s="246">
         <v>44107</v>
       </c>
       <c r="C10" s="228"/>
@@ -5667,7 +5762,7 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="228"/>
-      <c r="B11" s="299"/>
+      <c r="B11" s="246"/>
       <c r="C11" s="228"/>
       <c r="D11" s="228"/>
       <c r="E11" s="228"/>
@@ -5694,7 +5789,7 @@
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="228"/>
-      <c r="B12" s="299"/>
+      <c r="B12" s="246"/>
       <c r="C12" s="228"/>
       <c r="D12" s="228"/>
       <c r="E12" s="228"/>
@@ -5723,7 +5818,7 @@
       <c r="A13" s="228">
         <v>818</v>
       </c>
-      <c r="B13" s="299">
+      <c r="B13" s="246">
         <v>44107</v>
       </c>
       <c r="C13" s="228"/>
@@ -5756,7 +5851,7 @@
       <c r="A14" s="84">
         <v>810</v>
       </c>
-      <c r="B14" s="297">
+      <c r="B14" s="244">
         <v>44109</v>
       </c>
       <c r="C14" s="84"/>
@@ -5789,7 +5884,7 @@
       <c r="A15" s="84">
         <v>815</v>
       </c>
-      <c r="B15" s="297">
+      <c r="B15" s="244">
         <v>44112</v>
       </c>
       <c r="C15" s="84"/>
@@ -5820,7 +5915,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
-      <c r="B16" s="297"/>
+      <c r="B16" s="244"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -5849,7 +5944,7 @@
       <c r="A17" s="84">
         <v>820</v>
       </c>
-      <c r="B17" s="297">
+      <c r="B17" s="244">
         <v>44113</v>
       </c>
       <c r="C17" s="84"/>
@@ -5880,7 +5975,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
-      <c r="B18" s="297"/>
+      <c r="B18" s="244"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
@@ -5907,7 +6002,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
-      <c r="B19" s="297"/>
+      <c r="B19" s="244"/>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
@@ -5923,7 +6018,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
-      <c r="B20" s="297"/>
+      <c r="B20" s="244"/>
       <c r="C20" s="84"/>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -5939,7 +6034,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="84"/>
-      <c r="B21" s="297"/>
+      <c r="B21" s="244"/>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -5955,7 +6050,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
-      <c r="B22" s="297"/>
+      <c r="B22" s="244"/>
       <c r="C22" s="84"/>
       <c r="D22" s="84"/>
       <c r="E22" s="84"/>
@@ -5971,7 +6066,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
-      <c r="B23" s="297"/>
+      <c r="B23" s="244"/>
       <c r="C23" s="84"/>
       <c r="D23" s="84"/>
       <c r="E23" s="84"/>
@@ -5987,7 +6082,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
-      <c r="B24" s="297"/>
+      <c r="B24" s="244"/>
       <c r="C24" s="84"/>
       <c r="D24" s="84"/>
       <c r="E24" s="84"/>
@@ -6003,7 +6098,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="84"/>
-      <c r="B25" s="297"/>
+      <c r="B25" s="244"/>
       <c r="C25" s="84"/>
       <c r="D25" s="84"/>
       <c r="E25" s="84"/>
@@ -6019,7 +6114,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
-      <c r="B26" s="297"/>
+      <c r="B26" s="244"/>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
       <c r="E26" s="84"/>
@@ -6035,7 +6130,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
-      <c r="B27" s="297"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="84"/>
       <c r="D27" s="84"/>
       <c r="E27" s="84"/>
@@ -6051,7 +6146,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="84"/>
-      <c r="B28" s="297"/>
+      <c r="B28" s="244"/>
       <c r="C28" s="84"/>
       <c r="D28" s="84"/>
       <c r="E28" s="84"/>
@@ -6067,9 +6162,9 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="240"/>
-      <c r="B29" s="298"/>
+      <c r="B29" s="245"/>
       <c r="C29" s="86"/>
-      <c r="D29" s="300"/>
+      <c r="D29" s="247"/>
       <c r="E29" s="86"/>
       <c r="F29" s="86"/>
       <c r="G29" s="86"/>
@@ -6082,13 +6177,13 @@
       <c r="N29" s="221"/>
     </row>
     <row r="30" spans="1:14" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="269" t="s">
+      <c r="A30" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="269"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="269"/>
-      <c r="E30" s="269"/>
+      <c r="B30" s="314"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="314"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="133"/>
       <c r="G30" s="133">
         <f>SUM(G7:G29)</f>
@@ -6179,6 +6274,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
@@ -6188,7 +6284,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6199,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7040,38 +7135,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="322" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
       <c r="E1" s="89"/>
-      <c r="F1" s="287" t="s">
+      <c r="F1" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="324" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
       <c r="E2" s="89"/>
-      <c r="F2" s="289" t="s">
+      <c r="F2" s="325" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
+      <c r="G2" s="325"/>
+      <c r="H2" s="325"/>
+      <c r="I2" s="325"/>
+      <c r="J2" s="325"/>
+      <c r="K2" s="325"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -7084,43 +7179,43 @@
       <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="326" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+      <c r="L4" s="326"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="291" t="s">
+      <c r="A5" s="327" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="291"/>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="327"/>
+      <c r="I5" s="327"/>
+      <c r="J5" s="327"/>
+      <c r="K5" s="327"/>
+      <c r="L5" s="327"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="292" t="s">
+      <c r="J6" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="292"/>
-      <c r="L6" s="292"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="328"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="165" t="s">
@@ -7187,16 +7282,16 @@
       <c r="L8" s="165"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="283" t="s">
+      <c r="A9" s="319" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="284"/>
-      <c r="C9" s="284"/>
-      <c r="D9" s="285"/>
+      <c r="B9" s="320"/>
+      <c r="C9" s="320"/>
+      <c r="D9" s="321"/>
       <c r="E9" s="167"/>
       <c r="F9" s="171">
         <f>SUM(F10:F12)</f>
-        <v>27000000</v>
+        <v>27461538.461538464</v>
       </c>
       <c r="G9" s="171">
         <f>SUM(G10:G12)</f>
@@ -7204,7 +7299,7 @@
       </c>
       <c r="H9" s="171">
         <f>SUM(H10:H12)</f>
-        <v>2455000</v>
+        <v>6655000</v>
       </c>
       <c r="I9" s="171">
         <f>SUM(I10:I12)</f>
@@ -7212,7 +7307,7 @@
       </c>
       <c r="J9" s="171">
         <f>SUM(J10:J12)</f>
-        <v>24545000</v>
+        <v>20806538.461538464</v>
       </c>
       <c r="K9" s="166"/>
       <c r="L9" s="165"/>
@@ -7291,32 +7386,32 @@
         <v>6000000</v>
       </c>
       <c r="E12" s="99">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="52">
         <f>D12/26*E12</f>
-        <v>6000000</v>
+        <v>6461538.461538462</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53">
-        <f>455000+2000000</f>
-        <v>2455000</v>
+        <f>455000+2000000+2000000+2200000</f>
+        <v>6655000</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="53">
         <f>F12-G12-H12+I12</f>
-        <v>3545000</v>
+        <v>-193461.53846153803</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="280" t="s">
+      <c r="A13" s="316" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="281"/>
-      <c r="C13" s="281"/>
-      <c r="D13" s="282"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="318"/>
       <c r="E13" s="98"/>
       <c r="F13" s="171">
         <f>SUM(F14:F14)</f>
@@ -7372,16 +7467,16 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="329" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="294"/>
-      <c r="C15" s="295"/>
+      <c r="B15" s="330"/>
+      <c r="C15" s="331"/>
       <c r="D15" s="95"/>
       <c r="E15" s="96"/>
       <c r="F15" s="95">
         <f>F13+F9</f>
-        <v>27000000</v>
+        <v>27461538.461538464</v>
       </c>
       <c r="G15" s="95">
         <f>G13+G9</f>
@@ -7389,7 +7484,7 @@
       </c>
       <c r="H15" s="95">
         <f>H13+H9</f>
-        <v>2455000</v>
+        <v>6655000</v>
       </c>
       <c r="I15" s="95">
         <f>I13+I9</f>
@@ -7397,20 +7492,20 @@
       </c>
       <c r="J15" s="95">
         <f>J13+J9</f>
-        <v>24545000</v>
+        <v>20806538.461538464</v>
       </c>
       <c r="K15" s="94"/>
       <c r="L15" s="94"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
+      <c r="B17" s="306"/>
+      <c r="C17" s="306"/>
+      <c r="D17" s="306"/>
       <c r="E17" s="91"/>
-      <c r="H17" s="271"/>
-      <c r="I17" s="271"/>
-      <c r="J17" s="271"/>
-      <c r="K17" s="271"/>
+      <c r="H17" s="306"/>
+      <c r="I17" s="306"/>
+      <c r="J17" s="306"/>
+      <c r="K17" s="306"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="162" t="s">
@@ -7422,12 +7517,12 @@
         <v>87</v>
       </c>
       <c r="G18" s="162"/>
-      <c r="H18" s="271" t="s">
+      <c r="H18" s="306" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="271"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="271"/>
+      <c r="I18" s="306"/>
+      <c r="J18" s="306"/>
+      <c r="K18" s="306"/>
     </row>
     <row r="19" spans="2:11" s="163" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="164" t="s">
@@ -7439,12 +7534,12 @@
         <v>94</v>
       </c>
       <c r="G19" s="164"/>
-      <c r="H19" s="279" t="s">
+      <c r="H19" s="315" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
-      <c r="K19" s="279"/>
+      <c r="I19" s="315"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="315"/>
     </row>
     <row r="22" spans="2:11" s="108" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="100"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -11,18 +11,19 @@
     <sheet name="DOANH THU" sheetId="9" r:id="rId2"/>
     <sheet name="BÁO CÁO" sheetId="3" r:id="rId3"/>
     <sheet name="Hàng khách trả" sheetId="8" r:id="rId4"/>
-    <sheet name="Bảng lương" sheetId="5" r:id="rId5"/>
+    <sheet name="Bảng chấm công" sheetId="10" r:id="rId5"/>
+    <sheet name="Bảng lương" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$5:$P$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="185">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -255,9 +256,6 @@
     <t>B. Bộ phận bán hàng</t>
   </si>
   <si>
-    <t>Lò Thị Minh Tâm</t>
-  </si>
-  <si>
     <t>Số HĐ</t>
   </si>
   <si>
@@ -381,9 +379,6 @@
     <t xml:space="preserve"> Số:102020/HKT. MST: 0108806878</t>
   </si>
   <si>
-    <t>Kho vận</t>
-  </si>
-  <si>
     <t>Tháng 10 /2020</t>
   </si>
   <si>
@@ -475,21 +470,130 @@
   </si>
   <si>
     <t xml:space="preserve">          - Chi phí công tác Huế</t>
+  </si>
+  <si>
+    <t>thu tiền hàng anh nam máy tính</t>
+  </si>
+  <si>
+    <t>Chị Quân thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>Chị thơm thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>hằng kế toán thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>tiền bán hàng cửa hàng</t>
+  </si>
+  <si>
+    <t>hoa hồng cho thơm</t>
+  </si>
+  <si>
+    <t>hằng ứng lương</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Đi làm cả ngày</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>VPĐD: ( 024) 22.16.76.76  Tòa Golden An Khánh , HN</t>
+  </si>
+  <si>
+    <t>Đi làm nửa ngày</t>
+  </si>
+  <si>
+    <t>x/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotline: 0987.62.82.62 - Website: suanano.vn   </t>
+  </si>
+  <si>
+    <t>Nghỉ</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TK: 21710004668889 BIDV Chi nhánh Từ Liêm</t>
+  </si>
+  <si>
+    <t>Đi công tác</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Chức vụ/Bộ phận</t>
+  </si>
+  <si>
+    <t>Ngày trong tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng cộng ngày công </t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Tổng số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kế toán </t>
+  </si>
+  <si>
+    <t>Vũ Thị Thơm</t>
+  </si>
+  <si>
+    <t>Hành chính</t>
+  </si>
+  <si>
+    <t>BẢNG CHẤM CÔNG THÁNG 10 NĂM 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +829,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +908,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -903,6 +1066,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -913,7 +1111,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1505,165 +1703,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1705,23 +1744,8 @@
     <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1738,29 +1762,402 @@
     <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2072,11 +2469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2487,11 @@
     <col min="8" max="8" width="17.5703125" style="113" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="108"/>
     <col min="10" max="10" width="14" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="108"/>
+    <col min="11" max="11" width="15.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="108"/>
+    <col min="14" max="14" width="13.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2117,7 +2518,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
@@ -2138,16 +2539,16 @@
       <c r="Q2" s="119"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
+      <c r="A3" s="272" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
@@ -2159,60 +2560,60 @@
       <c r="Q3" s="120"/>
     </row>
     <row r="4" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="311" t="s">
+      <c r="A4" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="311" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="311" t="s">
+      <c r="B4" s="273" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="312" t="s">
+      <c r="D4" s="274" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="313" t="s">
+      <c r="E4" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="G4" s="313" t="s">
+      <c r="F4" s="275"/>
+      <c r="G4" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="313"/>
+      <c r="H4" s="275"/>
     </row>
     <row r="5" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="311"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="314" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="314" t="s">
+      <c r="A5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="258" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="314" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="314" t="s">
+      <c r="G5" s="258" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="258" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="306">
+      <c r="A6" s="253">
         <v>44105</v>
       </c>
-      <c r="B6" s="306"/>
-      <c r="C6" s="307" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="308" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="309"/>
-      <c r="F6" s="310"/>
-      <c r="G6" s="309"/>
-      <c r="H6" s="310">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="255" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="256"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="257">
         <v>400000</v>
       </c>
     </row>
@@ -2225,7 +2626,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="107"/>
       <c r="F7" s="121">
@@ -2241,10 +2642,10 @@
       </c>
       <c r="B8" s="104"/>
       <c r="C8" s="105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="107"/>
       <c r="F8" s="121"/>
@@ -2259,10 +2660,10 @@
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="107"/>
       <c r="F9" s="121"/>
@@ -2272,15 +2673,15 @@
       <c r="H9" s="121"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="327">
+      <c r="A10" s="279">
         <v>44111</v>
       </c>
-      <c r="B10" s="327"/>
-      <c r="C10" s="324" t="s">
-        <v>149</v>
+      <c r="B10" s="279"/>
+      <c r="C10" s="276" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="107"/>
       <c r="F10" s="121"/>
@@ -2288,11 +2689,11 @@
       <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="328"/>
-      <c r="B11" s="328"/>
-      <c r="C11" s="325"/>
-      <c r="D11" s="330" t="s">
-        <v>103</v>
+      <c r="A11" s="280"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="266" t="s">
+        <v>102</v>
       </c>
       <c r="E11" s="107"/>
       <c r="F11" s="121"/>
@@ -2302,11 +2703,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="328"/>
-      <c r="B12" s="328"/>
-      <c r="C12" s="325"/>
-      <c r="D12" s="330" t="s">
-        <v>104</v>
+      <c r="A12" s="280"/>
+      <c r="B12" s="280"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="266" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="107"/>
       <c r="F12" s="121"/>
@@ -2316,11 +2717,11 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="328"/>
-      <c r="B13" s="328"/>
-      <c r="C13" s="325"/>
-      <c r="D13" s="330" t="s">
-        <v>105</v>
+      <c r="A13" s="280"/>
+      <c r="B13" s="280"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="266" t="s">
+        <v>104</v>
       </c>
       <c r="E13" s="107"/>
       <c r="F13" s="121"/>
@@ -2330,11 +2731,11 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="328"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="331" t="s">
-        <v>106</v>
+      <c r="A14" s="280"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="267" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="107"/>
       <c r="F14" s="121"/>
@@ -2344,11 +2745,11 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="328"/>
-      <c r="B15" s="328"/>
-      <c r="C15" s="325"/>
-      <c r="D15" s="330" t="s">
-        <v>107</v>
+      <c r="A15" s="280"/>
+      <c r="B15" s="280"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="266" t="s">
+        <v>106</v>
       </c>
       <c r="E15" s="107"/>
       <c r="F15" s="121"/>
@@ -2358,11 +2759,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="329"/>
-      <c r="B16" s="329"/>
-      <c r="C16" s="326"/>
-      <c r="D16" s="330" t="s">
-        <v>108</v>
+      <c r="A16" s="281"/>
+      <c r="B16" s="281"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="266" t="s">
+        <v>107</v>
       </c>
       <c r="E16" s="107"/>
       <c r="F16" s="121"/>
@@ -2370,17 +2771,24 @@
       <c r="H16" s="123">
         <v>100000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="113">
+        <v>11457538.461538462</v>
+      </c>
+      <c r="L16" s="113">
+        <f>'Bảng lương'!J12</f>
+        <v>6576923.076923077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="104">
         <v>44115</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="107"/>
       <c r="F17" s="121"/>
@@ -2388,17 +2796,22 @@
       <c r="H17" s="123">
         <v>700000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="398">
+        <f>K16+L16</f>
+        <v>18034461.53846154</v>
+      </c>
+      <c r="L17" s="397"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="104">
         <v>44116</v>
       </c>
       <c r="B18" s="104"/>
       <c r="C18" s="105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="107"/>
       <c r="F18" s="121"/>
@@ -2406,17 +2819,21 @@
         <v>2000000</v>
       </c>
       <c r="H18" s="123"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N18" s="332">
+        <f>K17-K19+3000000</f>
+        <v>13525561.53846154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="104">
         <v>44116</v>
       </c>
       <c r="B19" s="104"/>
       <c r="C19" s="105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="107"/>
       <c r="F19" s="121"/>
@@ -2424,17 +2841,21 @@
         <v>3100000</v>
       </c>
       <c r="H19" s="123"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="332">
+        <f>H8+G18+G21+H25+H27+H30</f>
+        <v>7508900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="104">
         <v>44117</v>
       </c>
       <c r="B20" s="104"/>
       <c r="C20" s="105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="107"/>
       <c r="F20" s="121"/>
@@ -2443,121 +2864,171 @@
       </c>
       <c r="H20" s="123"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="104">
+        <v>44120</v>
+      </c>
       <c r="B21" s="104"/>
       <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
+      <c r="D21" s="106" t="s">
+        <v>100</v>
+      </c>
       <c r="E21" s="107"/>
       <c r="F21" s="121"/>
-      <c r="G21" s="107"/>
+      <c r="G21" s="107">
+        <v>2000000</v>
+      </c>
       <c r="H21" s="123"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="332">
+        <f>K16-K19</f>
+        <v>3948638.461538462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="104"/>
       <c r="B22" s="104"/>
       <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
+      <c r="D22" s="106" t="s">
+        <v>149</v>
+      </c>
       <c r="E22" s="107"/>
-      <c r="F22" s="121"/>
+      <c r="F22" s="121">
+        <v>900000</v>
+      </c>
       <c r="G22" s="107"/>
       <c r="H22" s="123"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="104"/>
       <c r="B23" s="104"/>
       <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="F23" s="107"/>
+      <c r="D23" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="107"/>
+      <c r="F23" s="121">
+        <v>900000</v>
+      </c>
       <c r="G23" s="107"/>
       <c r="H23" s="123"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="104"/>
       <c r="B24" s="104"/>
       <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="121"/>
+      <c r="D24" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="107">
+        <v>400000</v>
+      </c>
       <c r="G24" s="107"/>
       <c r="H24" s="123"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="104"/>
       <c r="B25" s="104"/>
       <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
+      <c r="D25" s="106" t="s">
+        <v>100</v>
+      </c>
       <c r="E25" s="107"/>
       <c r="F25" s="121"/>
       <c r="G25" s="107"/>
-      <c r="H25" s="123"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="123">
+        <f>2200000</f>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="104"/>
       <c r="B26" s="104"/>
       <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
+      <c r="D26" s="106" t="s">
+        <v>152</v>
+      </c>
       <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
+      <c r="F26" s="121">
+        <f>(255000+455000)*0.59</f>
+        <v>418900</v>
+      </c>
       <c r="G26" s="107"/>
       <c r="H26" s="123"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="104"/>
       <c r="B27" s="104"/>
       <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
+      <c r="D27" s="106" t="s">
+        <v>100</v>
+      </c>
       <c r="E27" s="107"/>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
-      <c r="H27" s="123"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="123">
+        <f>F26</f>
+        <v>418900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="104"/>
       <c r="B28" s="104"/>
       <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
+      <c r="D28" s="106" t="s">
+        <v>153</v>
+      </c>
       <c r="E28" s="107"/>
-      <c r="F28" s="121"/>
+      <c r="F28" s="107">
+        <v>485000</v>
+      </c>
       <c r="G28" s="107"/>
       <c r="H28" s="123"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="104"/>
       <c r="B29" s="104"/>
       <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="D29" s="106" t="s">
+        <v>154</v>
+      </c>
       <c r="E29" s="107"/>
       <c r="F29" s="121"/>
       <c r="G29" s="107"/>
-      <c r="H29" s="123"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="123">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="104"/>
       <c r="B30" s="104"/>
       <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="D30" s="106" t="s">
+        <v>155</v>
+      </c>
       <c r="E30" s="107"/>
       <c r="F30" s="121"/>
       <c r="G30" s="107"/>
-      <c r="H30" s="123"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="123">
+        <f>F28-H29</f>
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="104"/>
       <c r="B31" s="104"/>
       <c r="C31" s="105"/>
       <c r="D31" s="106"/>
-      <c r="F31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="107"/>
       <c r="H31" s="123"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="104"/>
       <c r="B32" s="104"/>
       <c r="C32" s="105"/>
       <c r="D32" s="106"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="121"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="107"/>
       <c r="H32" s="123"/>
     </row>
@@ -2566,7 +3037,8 @@
       <c r="B33" s="104"/>
       <c r="C33" s="105"/>
       <c r="D33" s="106"/>
-      <c r="E33" s="121"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="121"/>
       <c r="G33" s="107"/>
       <c r="H33" s="123"/>
     </row>
@@ -2575,8 +3047,7 @@
       <c r="B34" s="104"/>
       <c r="C34" s="105"/>
       <c r="D34" s="106"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="121"/>
+      <c r="E34" s="121"/>
       <c r="G34" s="107"/>
       <c r="H34" s="123"/>
     </row>
@@ -2595,7 +3066,8 @@
       <c r="B36" s="104"/>
       <c r="C36" s="105"/>
       <c r="D36" s="106"/>
-      <c r="F36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="121"/>
       <c r="G36" s="107"/>
       <c r="H36" s="123"/>
     </row>
@@ -2604,8 +3076,7 @@
       <c r="B37" s="104"/>
       <c r="C37" s="105"/>
       <c r="D37" s="106"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="121"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="107"/>
       <c r="H37" s="123"/>
     </row>
@@ -2675,7 +3146,7 @@
       <c r="C44" s="105"/>
       <c r="D44" s="106"/>
       <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
+      <c r="F44" s="121"/>
       <c r="G44" s="107"/>
       <c r="H44" s="123"/>
     </row>
@@ -2705,7 +3176,7 @@
       <c r="C47" s="105"/>
       <c r="D47" s="106"/>
       <c r="E47" s="107"/>
-      <c r="F47" s="121"/>
+      <c r="F47" s="107"/>
       <c r="G47" s="107"/>
       <c r="H47" s="123"/>
     </row>
@@ -2735,7 +3206,7 @@
       <c r="C50" s="105"/>
       <c r="D50" s="106"/>
       <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
+      <c r="F50" s="121"/>
       <c r="G50" s="107"/>
       <c r="H50" s="123"/>
     </row>
@@ -2755,7 +3226,7 @@
       <c r="C52" s="105"/>
       <c r="D52" s="106"/>
       <c r="E52" s="107"/>
-      <c r="F52" s="121"/>
+      <c r="F52" s="107"/>
       <c r="G52" s="107"/>
       <c r="H52" s="123"/>
     </row>
@@ -2804,7 +3275,8 @@
       <c r="B57" s="104"/>
       <c r="C57" s="105"/>
       <c r="D57" s="106"/>
-      <c r="E57" s="121"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="121"/>
       <c r="G57" s="107"/>
       <c r="H57" s="123"/>
     </row>
@@ -2813,22 +3285,21 @@
       <c r="B58" s="104"/>
       <c r="C58" s="105"/>
       <c r="D58" s="106"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="121"/>
+      <c r="E58" s="121"/>
       <c r="G58" s="107"/>
       <c r="H58" s="123"/>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="104"/>
       <c r="B59" s="104"/>
       <c r="C59" s="105"/>
-      <c r="D59" s="124"/>
+      <c r="D59" s="106"/>
       <c r="E59" s="107"/>
       <c r="F59" s="121"/>
       <c r="G59" s="107"/>
       <c r="H59" s="123"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="104"/>
       <c r="B60" s="104"/>
       <c r="C60" s="105"/>
@@ -2843,21 +3314,21 @@
       <c r="B61" s="104"/>
       <c r="C61" s="105"/>
       <c r="D61" s="124"/>
-      <c r="E61" s="121"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="121"/>
       <c r="G61" s="107"/>
       <c r="H61" s="123"/>
     </row>
-    <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="104"/>
       <c r="B62" s="104"/>
       <c r="C62" s="105"/>
       <c r="D62" s="124"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="121"/>
+      <c r="E62" s="121"/>
       <c r="G62" s="107"/>
       <c r="H62" s="123"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
       <c r="C63" s="105"/>
@@ -2871,7 +3342,7 @@
       <c r="A64" s="104"/>
       <c r="B64" s="104"/>
       <c r="C64" s="105"/>
-      <c r="D64" s="106"/>
+      <c r="D64" s="124"/>
       <c r="E64" s="107"/>
       <c r="F64" s="121"/>
       <c r="G64" s="107"/>
@@ -2967,48 +3438,45 @@
       <c r="G73" s="107"/>
       <c r="H73" s="123"/>
     </row>
-    <row r="74" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="244" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="104"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="123"/>
+    </row>
+    <row r="75" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="245"/>
-      <c r="C74" s="245"/>
-      <c r="D74" s="246"/>
-      <c r="E74" s="125">
-        <f>SUM(E7:E73)</f>
+      <c r="B75" s="270"/>
+      <c r="C75" s="270"/>
+      <c r="D75" s="271"/>
+      <c r="E75" s="125">
+        <f>SUM(E7:E74)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="125">
-        <f>SUM(F7:F73)</f>
-        <v>268450.00000000006</v>
-      </c>
-      <c r="G74" s="125">
-        <f>SUM(G7:G73)</f>
-        <v>8009900</v>
-      </c>
-      <c r="H74" s="125">
-        <f>SUM(H7:H73)</f>
-        <v>3562000</v>
-      </c>
-      <c r="J74" s="127"/>
-    </row>
-    <row r="75" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="128"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
+      <c r="F75" s="125">
+        <f>SUM(F7:F74)</f>
+        <v>3372350</v>
+      </c>
+      <c r="G75" s="125">
+        <f>SUM(G7:G74)</f>
+        <v>10009900</v>
+      </c>
+      <c r="H75" s="125">
+        <f>SUM(H7:H74)</f>
+        <v>6665900</v>
+      </c>
       <c r="J75" s="127"/>
     </row>
-    <row r="76" spans="1:10" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="243" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="243"/>
-      <c r="C76" s="243"/>
+    <row r="76" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="128"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
       <c r="D76" s="128"/>
       <c r="E76" s="129"/>
       <c r="F76" s="129"/>
@@ -3016,41 +3484,55 @@
       <c r="H76" s="129"/>
       <c r="J76" s="127"/>
     </row>
-    <row r="77" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="207" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="64"/>
-      <c r="F77" s="207" t="s">
+    <row r="77" spans="1:10" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="268" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="268"/>
+      <c r="C77" s="268"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
+      <c r="G77" s="129"/>
+      <c r="H77" s="129"/>
+      <c r="J77" s="127"/>
+    </row>
+    <row r="78" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="64"/>
+      <c r="F78" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-    </row>
-    <row r="78" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+    </row>
+    <row r="79" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="F79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="141"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="141"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H74">
+  <autoFilter ref="A4:H75">
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="12">
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A74:D74"/>
+  <mergeCells count="13">
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
@@ -3097,13 +3579,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
       <c r="H1" s="143"/>
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
@@ -3116,7 +3598,7 @@
     </row>
     <row r="2" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -3133,153 +3615,153 @@
       <c r="P2" s="147"/>
     </row>
     <row r="3" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="296" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
     </row>
     <row r="4" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="258" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
+      <c r="A4" s="296" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
     </row>
     <row r="5" spans="1:16" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="259" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="315" t="s">
+      <c r="A5" s="292" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="292" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="259"/>
-      <c r="F5" s="260" t="s">
+      <c r="E5" s="292"/>
+      <c r="F5" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
-      <c r="L5" s="260"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="260" t="s">
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="290" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="259"/>
-      <c r="B6" s="315"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="294"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="292" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="259" t="s">
+      <c r="F6" s="292" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="259" t="s">
+      <c r="G6" s="292" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="316" t="s">
+      <c r="H6" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="316" t="s">
+      <c r="I6" s="291" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="262" t="s">
+      <c r="J6" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="262"/>
-      <c r="L6" s="316" t="s">
+      <c r="K6" s="293"/>
+      <c r="L6" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="316" t="s">
+      <c r="M6" s="291" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="316" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="316" t="s">
+      <c r="N6" s="291" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="291" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="290"/>
+    </row>
+    <row r="7" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="292"/>
+      <c r="B7" s="294"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="259" t="s">
         <v>85</v>
-      </c>
-      <c r="P6" s="260"/>
-    </row>
-    <row r="7" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="259"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="317" t="s">
-        <v>86</v>
       </c>
       <c r="K7" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="316"/>
-      <c r="P7" s="260"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
+      <c r="N7" s="291"/>
+      <c r="O7" s="291"/>
+      <c r="P7" s="290"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="255">
+      <c r="A8" s="282">
         <v>808</v>
       </c>
-      <c r="B8" s="252">
+      <c r="B8" s="284">
         <v>44107</v>
       </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255" t="s">
+      <c r="C8" s="282"/>
+      <c r="D8" s="282" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="282" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="181" t="s">
         <v>126</v>
-      </c>
-      <c r="E8" s="255" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="181" t="s">
-        <v>128</v>
       </c>
       <c r="G8" s="181">
         <v>24</v>
@@ -3307,13 +3789,13 @@
       <c r="P8" s="181"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="256"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
+      <c r="A9" s="286"/>
+      <c r="B9" s="287"/>
+      <c r="C9" s="286"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="286"/>
       <c r="F9" s="194" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" s="194">
         <v>24</v>
@@ -3339,13 +3821,13 @@
       <c r="P9" s="194"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="257"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
+      <c r="A10" s="283"/>
+      <c r="B10" s="285"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="283"/>
       <c r="F10" s="185" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="185">
         <v>12</v>
@@ -3378,16 +3860,16 @@
         <v>44106</v>
       </c>
       <c r="C11" s="236" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="236" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="236" t="s">
+      <c r="F11" s="175" t="s">
         <v>135</v>
-      </c>
-      <c r="E11" s="236" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="175" t="s">
-        <v>137</v>
       </c>
       <c r="G11" s="175">
         <v>1</v>
@@ -3421,13 +3903,13 @@
       </c>
       <c r="C12" s="236"/>
       <c r="D12" s="236" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="236" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F12" s="175" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="175">
         <v>36</v>
@@ -3439,7 +3921,7 @@
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-      <c r="J12" s="323"/>
+      <c r="J12" s="265"/>
       <c r="K12" s="177">
         <v>0.41</v>
       </c>
@@ -3453,19 +3935,19 @@
       <c r="P12" s="180"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="255">
+      <c r="A13" s="282">
         <v>816</v>
       </c>
-      <c r="B13" s="252">
+      <c r="B13" s="284">
         <v>44112</v>
       </c>
-      <c r="C13" s="255"/>
-      <c r="D13" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="255"/>
+      <c r="C13" s="282"/>
+      <c r="D13" s="282" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="282"/>
       <c r="F13" s="181" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G13" s="181">
         <v>4</v>
@@ -3491,13 +3973,13 @@
       <c r="P13" s="184"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="257"/>
-      <c r="B14" s="254"/>
-      <c r="C14" s="257"/>
-      <c r="D14" s="257"/>
-      <c r="E14" s="257"/>
+      <c r="A14" s="283"/>
+      <c r="B14" s="285"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
       <c r="F14" s="185" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="185">
         <v>12</v>
@@ -3530,14 +4012,14 @@
         <v>44116</v>
       </c>
       <c r="C15" s="236" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="236" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" s="236"/>
       <c r="F15" s="175" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="175">
         <v>2</v>
@@ -3571,11 +4053,11 @@
       </c>
       <c r="C16" s="236"/>
       <c r="D16" s="236" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="236"/>
       <c r="F16" s="175" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="175">
         <v>48</v>
@@ -3601,19 +4083,19 @@
       <c r="P16" s="175"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="255">
+      <c r="A17" s="282">
         <v>822</v>
       </c>
-      <c r="B17" s="252">
+      <c r="B17" s="284">
         <v>44113</v>
       </c>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="255"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="282" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="282"/>
       <c r="F17" s="181" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G17" s="181">
         <v>12</v>
@@ -3639,13 +4121,13 @@
       <c r="P17" s="181"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="257"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
+      <c r="A18" s="283"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="283"/>
+      <c r="E18" s="283"/>
       <c r="F18" s="185" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="185">
         <v>12</v>
@@ -3671,22 +4153,22 @@
       <c r="P18" s="185"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="318"/>
-      <c r="B19" s="319"/>
-      <c r="C19" s="318"/>
-      <c r="D19" s="318"/>
-      <c r="E19" s="318"/>
-      <c r="F19" s="320"/>
-      <c r="G19" s="320"/>
-      <c r="H19" s="321"/>
-      <c r="I19" s="321"/>
-      <c r="J19" s="321"/>
-      <c r="K19" s="322"/>
-      <c r="L19" s="321"/>
-      <c r="M19" s="321"/>
-      <c r="N19" s="321"/>
-      <c r="O19" s="321"/>
-      <c r="P19" s="320"/>
+      <c r="A19" s="260"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="263"/>
+      <c r="I19" s="263"/>
+      <c r="J19" s="263"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="262"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="238"/>
@@ -3708,9 +4190,9 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="190"/>
-      <c r="B21" s="301"/>
+      <c r="B21" s="248"/>
       <c r="C21" s="190"/>
-      <c r="D21" s="303"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="190"/>
       <c r="F21" s="190"/>
       <c r="G21" s="190"/>
@@ -3726,9 +4208,9 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="190"/>
-      <c r="B22" s="301"/>
+      <c r="B22" s="248"/>
       <c r="C22" s="190"/>
-      <c r="D22" s="303"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="190"/>
       <c r="F22" s="190"/>
       <c r="G22" s="190"/>
@@ -3744,9 +4226,9 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="190"/>
-      <c r="B23" s="301"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="190"/>
-      <c r="D23" s="303"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="190"/>
       <c r="F23" s="190"/>
       <c r="G23" s="190"/>
@@ -3762,9 +4244,9 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="190"/>
-      <c r="B24" s="301"/>
+      <c r="B24" s="248"/>
       <c r="C24" s="190"/>
-      <c r="D24" s="303"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="190"/>
       <c r="F24" s="190"/>
       <c r="G24" s="190"/>
@@ -3780,9 +4262,9 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="190"/>
-      <c r="B25" s="301"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="190"/>
-      <c r="D25" s="303"/>
+      <c r="D25" s="250"/>
       <c r="E25" s="190"/>
       <c r="F25" s="190"/>
       <c r="G25" s="190"/>
@@ -3798,9 +4280,9 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="190"/>
-      <c r="B26" s="301"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="190"/>
-      <c r="D26" s="303"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="190"/>
       <c r="F26" s="190"/>
       <c r="G26" s="190"/>
@@ -3816,9 +4298,9 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="190"/>
-      <c r="B27" s="301"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="190"/>
-      <c r="D27" s="303"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="190"/>
       <c r="F27" s="190"/>
       <c r="G27" s="190"/>
@@ -3833,7 +4315,7 @@
       <c r="P27" s="190"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="305"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="237"/>
       <c r="C28" s="238"/>
       <c r="D28" s="238"/>
@@ -3852,7 +4334,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="190"/>
-      <c r="B29" s="301"/>
+      <c r="B29" s="248"/>
       <c r="C29" s="190"/>
       <c r="D29" s="190"/>
       <c r="E29" s="190"/>
@@ -3870,7 +4352,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="190"/>
-      <c r="B30" s="301"/>
+      <c r="B30" s="248"/>
       <c r="C30" s="190"/>
       <c r="D30" s="190"/>
       <c r="E30" s="190"/>
@@ -3888,7 +4370,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="190"/>
-      <c r="B31" s="301"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="190"/>
       <c r="D31" s="190"/>
       <c r="E31" s="190"/>
@@ -3906,7 +4388,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="190"/>
-      <c r="B32" s="301"/>
+      <c r="B32" s="248"/>
       <c r="C32" s="190"/>
       <c r="D32" s="190"/>
       <c r="E32" s="190"/>
@@ -3996,7 +4478,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="190"/>
-      <c r="B37" s="301"/>
+      <c r="B37" s="248"/>
       <c r="C37" s="190"/>
       <c r="D37" s="190"/>
       <c r="E37" s="190"/>
@@ -4014,7 +4496,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="190"/>
-      <c r="B38" s="301"/>
+      <c r="B38" s="248"/>
       <c r="C38" s="190"/>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -4032,7 +4514,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="190"/>
-      <c r="B39" s="301"/>
+      <c r="B39" s="248"/>
       <c r="C39" s="190"/>
       <c r="D39" s="190"/>
       <c r="E39" s="190"/>
@@ -4050,7 +4532,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="190"/>
-      <c r="B40" s="301"/>
+      <c r="B40" s="248"/>
       <c r="C40" s="190"/>
       <c r="D40" s="190"/>
       <c r="E40" s="190"/>
@@ -4068,7 +4550,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="190"/>
-      <c r="B41" s="301"/>
+      <c r="B41" s="248"/>
       <c r="C41" s="190"/>
       <c r="D41" s="190"/>
       <c r="E41" s="190"/>
@@ -4082,11 +4564,11 @@
       <c r="M41" s="195"/>
       <c r="N41" s="195"/>
       <c r="O41" s="195"/>
-      <c r="P41" s="263"/>
+      <c r="P41" s="288"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="190"/>
-      <c r="B42" s="301"/>
+      <c r="B42" s="248"/>
       <c r="C42" s="190"/>
       <c r="D42" s="190"/>
       <c r="E42" s="190"/>
@@ -4100,11 +4582,11 @@
       <c r="M42" s="195"/>
       <c r="N42" s="195"/>
       <c r="O42" s="195"/>
-      <c r="P42" s="263"/>
+      <c r="P42" s="288"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="190"/>
-      <c r="B43" s="301"/>
+      <c r="B43" s="248"/>
       <c r="C43" s="190"/>
       <c r="D43" s="190"/>
       <c r="E43" s="190"/>
@@ -4118,11 +4600,11 @@
       <c r="M43" s="195"/>
       <c r="N43" s="195"/>
       <c r="O43" s="195"/>
-      <c r="P43" s="263"/>
+      <c r="P43" s="288"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="190"/>
-      <c r="B44" s="301"/>
+      <c r="B44" s="248"/>
       <c r="C44" s="190"/>
       <c r="D44" s="190"/>
       <c r="E44" s="190"/>
@@ -4136,11 +4618,11 @@
       <c r="M44" s="195"/>
       <c r="N44" s="195"/>
       <c r="O44" s="195"/>
-      <c r="P44" s="263"/>
+      <c r="P44" s="288"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="190"/>
-      <c r="B45" s="301"/>
+      <c r="B45" s="248"/>
       <c r="C45" s="190"/>
       <c r="D45" s="190"/>
       <c r="E45" s="190"/>
@@ -4154,11 +4636,11 @@
       <c r="M45" s="195"/>
       <c r="N45" s="195"/>
       <c r="O45" s="195"/>
-      <c r="P45" s="263"/>
+      <c r="P45" s="288"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="190"/>
-      <c r="B46" s="301"/>
+      <c r="B46" s="248"/>
       <c r="C46" s="190"/>
       <c r="D46" s="190"/>
       <c r="E46" s="190"/>
@@ -4172,7 +4654,7 @@
       <c r="M46" s="195"/>
       <c r="N46" s="195"/>
       <c r="O46" s="195"/>
-      <c r="P46" s="263"/>
+      <c r="P46" s="288"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="238"/>
@@ -4190,7 +4672,7 @@
       <c r="M47" s="195"/>
       <c r="N47" s="195"/>
       <c r="O47" s="195"/>
-      <c r="P47" s="304"/>
+      <c r="P47" s="251"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="238"/>
@@ -4212,7 +4694,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="190"/>
-      <c r="B49" s="301"/>
+      <c r="B49" s="248"/>
       <c r="C49" s="190"/>
       <c r="D49" s="190"/>
       <c r="E49" s="190"/>
@@ -4226,11 +4708,11 @@
       <c r="M49" s="195"/>
       <c r="N49" s="195"/>
       <c r="O49" s="195"/>
-      <c r="P49" s="263"/>
+      <c r="P49" s="288"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="190"/>
-      <c r="B50" s="301"/>
+      <c r="B50" s="248"/>
       <c r="C50" s="190"/>
       <c r="D50" s="190"/>
       <c r="E50" s="190"/>
@@ -4244,11 +4726,11 @@
       <c r="M50" s="195"/>
       <c r="N50" s="195"/>
       <c r="O50" s="195"/>
-      <c r="P50" s="263"/>
+      <c r="P50" s="288"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="190"/>
-      <c r="B51" s="301"/>
+      <c r="B51" s="248"/>
       <c r="C51" s="190"/>
       <c r="D51" s="190"/>
       <c r="E51" s="190"/>
@@ -4262,7 +4744,7 @@
       <c r="M51" s="195"/>
       <c r="N51" s="195"/>
       <c r="O51" s="195"/>
-      <c r="P51" s="263"/>
+      <c r="P51" s="288"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="238"/>
@@ -4280,7 +4762,7 @@
       <c r="M52" s="195"/>
       <c r="N52" s="195"/>
       <c r="O52" s="195"/>
-      <c r="P52" s="304"/>
+      <c r="P52" s="251"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="238"/>
@@ -4392,7 +4874,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="190"/>
-      <c r="B59" s="301"/>
+      <c r="B59" s="248"/>
       <c r="C59" s="190"/>
       <c r="D59" s="190"/>
       <c r="E59" s="190"/>
@@ -4410,7 +4892,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="190"/>
-      <c r="B60" s="301"/>
+      <c r="B60" s="248"/>
       <c r="C60" s="190"/>
       <c r="D60" s="190"/>
       <c r="E60" s="190"/>
@@ -4428,7 +4910,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="190"/>
-      <c r="B61" s="301"/>
+      <c r="B61" s="248"/>
       <c r="C61" s="190"/>
       <c r="D61" s="190"/>
       <c r="E61" s="190"/>
@@ -4446,7 +4928,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="190"/>
-      <c r="B62" s="301"/>
+      <c r="B62" s="248"/>
       <c r="C62" s="190"/>
       <c r="D62" s="190"/>
       <c r="E62" s="190"/>
@@ -4464,7 +4946,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="190"/>
-      <c r="B63" s="301"/>
+      <c r="B63" s="248"/>
       <c r="C63" s="190"/>
       <c r="D63" s="190"/>
       <c r="E63" s="190"/>
@@ -4482,7 +4964,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="190"/>
-      <c r="B64" s="301"/>
+      <c r="B64" s="248"/>
       <c r="C64" s="190"/>
       <c r="D64" s="190"/>
       <c r="E64" s="190"/>
@@ -4500,7 +4982,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="190"/>
-      <c r="B65" s="301"/>
+      <c r="B65" s="248"/>
       <c r="C65" s="190"/>
       <c r="D65" s="190"/>
       <c r="E65" s="190"/>
@@ -4518,7 +5000,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="190"/>
-      <c r="B66" s="301"/>
+      <c r="B66" s="248"/>
       <c r="C66" s="190"/>
       <c r="D66" s="190"/>
       <c r="E66" s="190"/>
@@ -4536,7 +5018,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="190"/>
-      <c r="B67" s="301"/>
+      <c r="B67" s="248"/>
       <c r="C67" s="190"/>
       <c r="D67" s="190"/>
       <c r="E67" s="190"/>
@@ -4554,7 +5036,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="190"/>
-      <c r="B68" s="301"/>
+      <c r="B68" s="248"/>
       <c r="C68" s="190"/>
       <c r="D68" s="190"/>
       <c r="E68" s="190"/>
@@ -4572,7 +5054,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="190"/>
-      <c r="B69" s="301"/>
+      <c r="B69" s="248"/>
       <c r="C69" s="190"/>
       <c r="D69" s="190"/>
       <c r="E69" s="190"/>
@@ -4608,7 +5090,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="190"/>
-      <c r="B71" s="301"/>
+      <c r="B71" s="248"/>
       <c r="C71" s="190"/>
       <c r="D71" s="190"/>
       <c r="E71" s="190"/>
@@ -4626,7 +5108,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="190"/>
-      <c r="B72" s="301"/>
+      <c r="B72" s="248"/>
       <c r="C72" s="190"/>
       <c r="D72" s="190"/>
       <c r="E72" s="190"/>
@@ -4644,7 +5126,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="190"/>
-      <c r="B73" s="301"/>
+      <c r="B73" s="248"/>
       <c r="C73" s="190"/>
       <c r="D73" s="190"/>
       <c r="E73" s="190"/>
@@ -4676,7 +5158,7 @@
       <c r="M74" s="195"/>
       <c r="N74" s="195"/>
       <c r="O74" s="195"/>
-      <c r="P74" s="304"/>
+      <c r="P74" s="251"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="238"/>
@@ -4698,7 +5180,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="190"/>
-      <c r="B76" s="301"/>
+      <c r="B76" s="248"/>
       <c r="C76" s="190"/>
       <c r="D76" s="190"/>
       <c r="E76" s="190"/>
@@ -4716,7 +5198,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="193"/>
-      <c r="B77" s="302"/>
+      <c r="B77" s="249"/>
       <c r="C77" s="193"/>
       <c r="D77" s="193"/>
       <c r="E77" s="193"/>
@@ -4733,14 +5215,14 @@
       <c r="P77" s="185"/>
     </row>
     <row r="78" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="250" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="250"/>
-      <c r="C78" s="250"/>
-      <c r="D78" s="250"/>
-      <c r="E78" s="250"/>
-      <c r="F78" s="250"/>
+      <c r="A78" s="298" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="298"/>
+      <c r="C78" s="298"/>
+      <c r="D78" s="298"/>
+      <c r="E78" s="298"/>
+      <c r="F78" s="298"/>
       <c r="G78" s="150">
         <f>SUM(G8:G77)</f>
         <v>187</v>
@@ -4760,17 +5242,17 @@
       <c r="N78" s="151"/>
       <c r="O78" s="151"/>
       <c r="P78" s="151"/>
-      <c r="Q78" s="248"/>
+      <c r="Q78" s="299"/>
     </row>
     <row r="79" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="249" t="s">
-        <v>116</v>
-      </c>
-      <c r="B79" s="249"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="249"/>
-      <c r="E79" s="249"/>
-      <c r="F79" s="249"/>
+      <c r="A79" s="297" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="297"/>
+      <c r="C79" s="297"/>
+      <c r="D79" s="297"/>
+      <c r="E79" s="297"/>
+      <c r="F79" s="297"/>
       <c r="G79" s="150">
         <f>G78</f>
         <v>187</v>
@@ -4787,17 +5269,17 @@
       <c r="N79" s="155"/>
       <c r="O79" s="155"/>
       <c r="P79" s="155"/>
-      <c r="Q79" s="248"/>
+      <c r="Q79" s="299"/>
     </row>
     <row r="80" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="249" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="249"/>
-      <c r="C80" s="249"/>
-      <c r="D80" s="249"/>
-      <c r="E80" s="249"/>
-      <c r="F80" s="249"/>
+      <c r="A80" s="297" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="297"/>
+      <c r="C80" s="297"/>
+      <c r="D80" s="297"/>
+      <c r="E80" s="297"/>
+      <c r="F80" s="297"/>
       <c r="G80" s="156" t="s">
         <v>45</v>
       </c>
@@ -4815,14 +5297,14 @@
       <c r="P80" s="157"/>
     </row>
     <row r="81" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="249" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="249"/>
-      <c r="C81" s="249"/>
-      <c r="D81" s="249"/>
-      <c r="E81" s="249"/>
-      <c r="F81" s="249"/>
+      <c r="A81" s="297" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="297"/>
+      <c r="C81" s="297"/>
+      <c r="D81" s="297"/>
+      <c r="E81" s="297"/>
+      <c r="F81" s="297"/>
       <c r="G81" s="155"/>
       <c r="H81" s="155"/>
       <c r="I81" s="151"/>
@@ -4838,14 +5320,14 @@
       <c r="P81" s="157"/>
     </row>
     <row r="82" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="249" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="249"/>
-      <c r="C82" s="249"/>
-      <c r="D82" s="249"/>
-      <c r="E82" s="249"/>
-      <c r="F82" s="249"/>
+      <c r="A82" s="297" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="297"/>
+      <c r="C82" s="297"/>
+      <c r="D82" s="297"/>
+      <c r="E82" s="297"/>
+      <c r="F82" s="297"/>
       <c r="G82" s="155"/>
       <c r="H82" s="155"/>
       <c r="I82" s="151"/>
@@ -4863,7 +5345,7 @@
     <row r="85" spans="1:16" s="197" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C85" s="198"/>
       <c r="E85" s="199" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F85" s="198"/>
       <c r="G85" s="198"/>
@@ -4916,24 +5398,20 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="45">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="O6:O7"/>
@@ -4947,20 +5425,24 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5000,7 +5482,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -5021,24 +5503,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="300" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="265" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
+      <c r="A5" s="301" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -5094,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="232" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="233"/>
       <c r="D9" s="234">
@@ -5117,7 +5599,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="266">
+      <c r="E10" s="302">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -5136,7 +5618,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="267"/>
+      <c r="E11" s="303"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -5147,7 +5629,7 @@
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
       <c r="D12" s="160"/>
-      <c r="E12" s="268"/>
+      <c r="E12" s="304"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -5156,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="140"/>
       <c r="D13" s="139">
@@ -5172,7 +5654,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="140"/>
       <c r="D14" s="139">
@@ -5196,7 +5678,7 @@
         <v>41812450</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="161"/>
@@ -5252,7 +5734,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="158" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="159"/>
       <c r="D20" s="22"/>
@@ -5285,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
@@ -5364,7 +5846,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
@@ -5432,79 +5914,79 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="306"/>
       <c r="L3" s="212"/>
       <c r="M3" s="212"/>
       <c r="N3" s="212"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="272" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="272"/>
+      <c r="A4" s="307" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="307"/>
+      <c r="C4" s="307"/>
+      <c r="D4" s="307"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="307"/>
       <c r="L4" s="213"/>
       <c r="M4" s="213"/>
       <c r="N4" s="213"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="274" t="s">
+      <c r="A5" s="309" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="275" t="s">
+      <c r="B5" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="276" t="s">
+      <c r="E5" s="309"/>
+      <c r="F5" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="276"/>
-      <c r="H5" s="276"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="278" t="s">
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="270" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
+      <c r="L5" s="305" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="274"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="274"/>
+      <c r="A6" s="309"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="309"/>
       <c r="D6" s="225" t="s">
         <v>40</v>
       </c>
@@ -5526,31 +6008,31 @@
       <c r="J6" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="278"/>
+      <c r="K6" s="313"/>
       <c r="L6" s="216" t="s">
         <v>52</v>
       </c>
       <c r="M6" s="216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" s="216" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82">
         <v>806</v>
       </c>
-      <c r="B7" s="296">
+      <c r="B7" s="243">
         <v>44107</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" s="82">
         <v>11</v>
@@ -5574,18 +6056,18 @@
       <c r="A8" s="228">
         <v>811</v>
       </c>
-      <c r="B8" s="299">
+      <c r="B8" s="246">
         <v>44107</v>
       </c>
       <c r="C8" s="228" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="228" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="228"/>
       <c r="F8" s="228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="228">
         <v>1</v>
@@ -5607,12 +6089,12 @@
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="228"/>
-      <c r="B9" s="299"/>
+      <c r="B9" s="246"/>
       <c r="C9" s="228"/>
       <c r="D9" s="228"/>
       <c r="E9" s="228"/>
       <c r="F9" s="228" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" s="228">
         <v>2</v>
@@ -5636,16 +6118,16 @@
       <c r="A10" s="228">
         <v>817</v>
       </c>
-      <c r="B10" s="299">
+      <c r="B10" s="246">
         <v>44107</v>
       </c>
       <c r="C10" s="228"/>
       <c r="D10" s="228" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="228"/>
       <c r="F10" s="228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="228">
         <v>21</v>
@@ -5667,12 +6149,12 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="228"/>
-      <c r="B11" s="299"/>
+      <c r="B11" s="246"/>
       <c r="C11" s="228"/>
       <c r="D11" s="228"/>
       <c r="E11" s="228"/>
       <c r="F11" s="228" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="228">
         <v>8</v>
@@ -5694,12 +6176,12 @@
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="228"/>
-      <c r="B12" s="299"/>
+      <c r="B12" s="246"/>
       <c r="C12" s="228"/>
       <c r="D12" s="228"/>
       <c r="E12" s="228"/>
       <c r="F12" s="228" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="228">
         <v>12</v>
@@ -5723,16 +6205,16 @@
       <c r="A13" s="228">
         <v>818</v>
       </c>
-      <c r="B13" s="299">
+      <c r="B13" s="246">
         <v>44107</v>
       </c>
       <c r="C13" s="228"/>
       <c r="D13" s="228" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="228"/>
       <c r="F13" s="228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G13" s="228">
         <v>2</v>
@@ -5756,16 +6238,16 @@
       <c r="A14" s="84">
         <v>810</v>
       </c>
-      <c r="B14" s="297">
+      <c r="B14" s="244">
         <v>44109</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="84"/>
       <c r="F14" s="84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="84">
         <v>36</v>
@@ -5789,16 +6271,16 @@
       <c r="A15" s="84">
         <v>815</v>
       </c>
-      <c r="B15" s="297">
+      <c r="B15" s="244">
         <v>44112</v>
       </c>
       <c r="C15" s="84"/>
       <c r="D15" s="84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="84"/>
       <c r="F15" s="84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G15" s="84">
         <v>4</v>
@@ -5820,12 +6302,12 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
-      <c r="B16" s="297"/>
+      <c r="B16" s="244"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="84">
         <v>12</v>
@@ -5849,16 +6331,16 @@
       <c r="A17" s="84">
         <v>820</v>
       </c>
-      <c r="B17" s="297">
+      <c r="B17" s="244">
         <v>44113</v>
       </c>
       <c r="C17" s="84"/>
       <c r="D17" s="84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="84"/>
       <c r="F17" s="84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G17" s="84">
         <v>12</v>
@@ -5880,12 +6362,12 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
-      <c r="B18" s="297"/>
+      <c r="B18" s="244"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="84">
         <v>60</v>
@@ -5907,7 +6389,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
-      <c r="B19" s="297"/>
+      <c r="B19" s="244"/>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
@@ -5923,7 +6405,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
-      <c r="B20" s="297"/>
+      <c r="B20" s="244"/>
       <c r="C20" s="84"/>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -5939,7 +6421,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="84"/>
-      <c r="B21" s="297"/>
+      <c r="B21" s="244"/>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -5955,7 +6437,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
-      <c r="B22" s="297"/>
+      <c r="B22" s="244"/>
       <c r="C22" s="84"/>
       <c r="D22" s="84"/>
       <c r="E22" s="84"/>
@@ -5971,7 +6453,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
-      <c r="B23" s="297"/>
+      <c r="B23" s="244"/>
       <c r="C23" s="84"/>
       <c r="D23" s="84"/>
       <c r="E23" s="84"/>
@@ -5987,7 +6469,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
-      <c r="B24" s="297"/>
+      <c r="B24" s="244"/>
       <c r="C24" s="84"/>
       <c r="D24" s="84"/>
       <c r="E24" s="84"/>
@@ -6003,7 +6485,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="84"/>
-      <c r="B25" s="297"/>
+      <c r="B25" s="244"/>
       <c r="C25" s="84"/>
       <c r="D25" s="84"/>
       <c r="E25" s="84"/>
@@ -6019,7 +6501,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
-      <c r="B26" s="297"/>
+      <c r="B26" s="244"/>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
       <c r="E26" s="84"/>
@@ -6035,7 +6517,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
-      <c r="B27" s="297"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="84"/>
       <c r="D27" s="84"/>
       <c r="E27" s="84"/>
@@ -6051,7 +6533,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="84"/>
-      <c r="B28" s="297"/>
+      <c r="B28" s="244"/>
       <c r="C28" s="84"/>
       <c r="D28" s="84"/>
       <c r="E28" s="84"/>
@@ -6067,9 +6549,9 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="240"/>
-      <c r="B29" s="298"/>
+      <c r="B29" s="245"/>
       <c r="C29" s="86"/>
-      <c r="D29" s="300"/>
+      <c r="D29" s="247"/>
       <c r="E29" s="86"/>
       <c r="F29" s="86"/>
       <c r="G29" s="86"/>
@@ -6082,13 +6564,13 @@
       <c r="N29" s="221"/>
     </row>
     <row r="30" spans="1:14" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="269" t="s">
+      <c r="A30" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="269"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="269"/>
-      <c r="E30" s="269"/>
+      <c r="B30" s="314"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="314"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="133"/>
       <c r="G30" s="133">
         <f>SUM(G7:G29)</f>
@@ -6125,7 +6607,7 @@
     <row r="33" spans="3:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="64"/>
       <c r="E33" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="64"/>
       <c r="G33" s="64"/>
@@ -6179,6 +6661,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
@@ -6188,7 +6671,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6197,10 +6679,1609 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="335" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="335" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="339" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="339" customWidth="1"/>
+    <col min="5" max="34" width="2.5703125" style="335" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" style="335" customWidth="1"/>
+    <col min="36" max="38" width="2.5703125" style="335" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="335" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" style="339" customWidth="1"/>
+    <col min="41" max="260" width="9" style="335"/>
+    <col min="261" max="261" width="3.28515625" style="335" customWidth="1"/>
+    <col min="262" max="262" width="20" style="335" customWidth="1"/>
+    <col min="263" max="263" width="24.5703125" style="335" customWidth="1"/>
+    <col min="264" max="293" width="4.42578125" style="335" customWidth="1"/>
+    <col min="294" max="294" width="2.5703125" style="335" customWidth="1"/>
+    <col min="295" max="295" width="6.140625" style="335" customWidth="1"/>
+    <col min="296" max="296" width="19.42578125" style="335" customWidth="1"/>
+    <col min="297" max="516" width="9" style="335"/>
+    <col min="517" max="517" width="3.28515625" style="335" customWidth="1"/>
+    <col min="518" max="518" width="20" style="335" customWidth="1"/>
+    <col min="519" max="519" width="24.5703125" style="335" customWidth="1"/>
+    <col min="520" max="549" width="4.42578125" style="335" customWidth="1"/>
+    <col min="550" max="550" width="2.5703125" style="335" customWidth="1"/>
+    <col min="551" max="551" width="6.140625" style="335" customWidth="1"/>
+    <col min="552" max="552" width="19.42578125" style="335" customWidth="1"/>
+    <col min="553" max="772" width="9" style="335"/>
+    <col min="773" max="773" width="3.28515625" style="335" customWidth="1"/>
+    <col min="774" max="774" width="20" style="335" customWidth="1"/>
+    <col min="775" max="775" width="24.5703125" style="335" customWidth="1"/>
+    <col min="776" max="805" width="4.42578125" style="335" customWidth="1"/>
+    <col min="806" max="806" width="2.5703125" style="335" customWidth="1"/>
+    <col min="807" max="807" width="6.140625" style="335" customWidth="1"/>
+    <col min="808" max="808" width="19.42578125" style="335" customWidth="1"/>
+    <col min="809" max="1028" width="9" style="335"/>
+    <col min="1029" max="1029" width="3.28515625" style="335" customWidth="1"/>
+    <col min="1030" max="1030" width="20" style="335" customWidth="1"/>
+    <col min="1031" max="1031" width="24.5703125" style="335" customWidth="1"/>
+    <col min="1032" max="1061" width="4.42578125" style="335" customWidth="1"/>
+    <col min="1062" max="1062" width="2.5703125" style="335" customWidth="1"/>
+    <col min="1063" max="1063" width="6.140625" style="335" customWidth="1"/>
+    <col min="1064" max="1064" width="19.42578125" style="335" customWidth="1"/>
+    <col min="1065" max="1284" width="9" style="335"/>
+    <col min="1285" max="1285" width="3.28515625" style="335" customWidth="1"/>
+    <col min="1286" max="1286" width="20" style="335" customWidth="1"/>
+    <col min="1287" max="1287" width="24.5703125" style="335" customWidth="1"/>
+    <col min="1288" max="1317" width="4.42578125" style="335" customWidth="1"/>
+    <col min="1318" max="1318" width="2.5703125" style="335" customWidth="1"/>
+    <col min="1319" max="1319" width="6.140625" style="335" customWidth="1"/>
+    <col min="1320" max="1320" width="19.42578125" style="335" customWidth="1"/>
+    <col min="1321" max="1540" width="9" style="335"/>
+    <col min="1541" max="1541" width="3.28515625" style="335" customWidth="1"/>
+    <col min="1542" max="1542" width="20" style="335" customWidth="1"/>
+    <col min="1543" max="1543" width="24.5703125" style="335" customWidth="1"/>
+    <col min="1544" max="1573" width="4.42578125" style="335" customWidth="1"/>
+    <col min="1574" max="1574" width="2.5703125" style="335" customWidth="1"/>
+    <col min="1575" max="1575" width="6.140625" style="335" customWidth="1"/>
+    <col min="1576" max="1576" width="19.42578125" style="335" customWidth="1"/>
+    <col min="1577" max="1796" width="9" style="335"/>
+    <col min="1797" max="1797" width="3.28515625" style="335" customWidth="1"/>
+    <col min="1798" max="1798" width="20" style="335" customWidth="1"/>
+    <col min="1799" max="1799" width="24.5703125" style="335" customWidth="1"/>
+    <col min="1800" max="1829" width="4.42578125" style="335" customWidth="1"/>
+    <col min="1830" max="1830" width="2.5703125" style="335" customWidth="1"/>
+    <col min="1831" max="1831" width="6.140625" style="335" customWidth="1"/>
+    <col min="1832" max="1832" width="19.42578125" style="335" customWidth="1"/>
+    <col min="1833" max="2052" width="9" style="335"/>
+    <col min="2053" max="2053" width="3.28515625" style="335" customWidth="1"/>
+    <col min="2054" max="2054" width="20" style="335" customWidth="1"/>
+    <col min="2055" max="2055" width="24.5703125" style="335" customWidth="1"/>
+    <col min="2056" max="2085" width="4.42578125" style="335" customWidth="1"/>
+    <col min="2086" max="2086" width="2.5703125" style="335" customWidth="1"/>
+    <col min="2087" max="2087" width="6.140625" style="335" customWidth="1"/>
+    <col min="2088" max="2088" width="19.42578125" style="335" customWidth="1"/>
+    <col min="2089" max="2308" width="9" style="335"/>
+    <col min="2309" max="2309" width="3.28515625" style="335" customWidth="1"/>
+    <col min="2310" max="2310" width="20" style="335" customWidth="1"/>
+    <col min="2311" max="2311" width="24.5703125" style="335" customWidth="1"/>
+    <col min="2312" max="2341" width="4.42578125" style="335" customWidth="1"/>
+    <col min="2342" max="2342" width="2.5703125" style="335" customWidth="1"/>
+    <col min="2343" max="2343" width="6.140625" style="335" customWidth="1"/>
+    <col min="2344" max="2344" width="19.42578125" style="335" customWidth="1"/>
+    <col min="2345" max="2564" width="9" style="335"/>
+    <col min="2565" max="2565" width="3.28515625" style="335" customWidth="1"/>
+    <col min="2566" max="2566" width="20" style="335" customWidth="1"/>
+    <col min="2567" max="2567" width="24.5703125" style="335" customWidth="1"/>
+    <col min="2568" max="2597" width="4.42578125" style="335" customWidth="1"/>
+    <col min="2598" max="2598" width="2.5703125" style="335" customWidth="1"/>
+    <col min="2599" max="2599" width="6.140625" style="335" customWidth="1"/>
+    <col min="2600" max="2600" width="19.42578125" style="335" customWidth="1"/>
+    <col min="2601" max="2820" width="9" style="335"/>
+    <col min="2821" max="2821" width="3.28515625" style="335" customWidth="1"/>
+    <col min="2822" max="2822" width="20" style="335" customWidth="1"/>
+    <col min="2823" max="2823" width="24.5703125" style="335" customWidth="1"/>
+    <col min="2824" max="2853" width="4.42578125" style="335" customWidth="1"/>
+    <col min="2854" max="2854" width="2.5703125" style="335" customWidth="1"/>
+    <col min="2855" max="2855" width="6.140625" style="335" customWidth="1"/>
+    <col min="2856" max="2856" width="19.42578125" style="335" customWidth="1"/>
+    <col min="2857" max="3076" width="9" style="335"/>
+    <col min="3077" max="3077" width="3.28515625" style="335" customWidth="1"/>
+    <col min="3078" max="3078" width="20" style="335" customWidth="1"/>
+    <col min="3079" max="3079" width="24.5703125" style="335" customWidth="1"/>
+    <col min="3080" max="3109" width="4.42578125" style="335" customWidth="1"/>
+    <col min="3110" max="3110" width="2.5703125" style="335" customWidth="1"/>
+    <col min="3111" max="3111" width="6.140625" style="335" customWidth="1"/>
+    <col min="3112" max="3112" width="19.42578125" style="335" customWidth="1"/>
+    <col min="3113" max="3332" width="9" style="335"/>
+    <col min="3333" max="3333" width="3.28515625" style="335" customWidth="1"/>
+    <col min="3334" max="3334" width="20" style="335" customWidth="1"/>
+    <col min="3335" max="3335" width="24.5703125" style="335" customWidth="1"/>
+    <col min="3336" max="3365" width="4.42578125" style="335" customWidth="1"/>
+    <col min="3366" max="3366" width="2.5703125" style="335" customWidth="1"/>
+    <col min="3367" max="3367" width="6.140625" style="335" customWidth="1"/>
+    <col min="3368" max="3368" width="19.42578125" style="335" customWidth="1"/>
+    <col min="3369" max="3588" width="9" style="335"/>
+    <col min="3589" max="3589" width="3.28515625" style="335" customWidth="1"/>
+    <col min="3590" max="3590" width="20" style="335" customWidth="1"/>
+    <col min="3591" max="3591" width="24.5703125" style="335" customWidth="1"/>
+    <col min="3592" max="3621" width="4.42578125" style="335" customWidth="1"/>
+    <col min="3622" max="3622" width="2.5703125" style="335" customWidth="1"/>
+    <col min="3623" max="3623" width="6.140625" style="335" customWidth="1"/>
+    <col min="3624" max="3624" width="19.42578125" style="335" customWidth="1"/>
+    <col min="3625" max="3844" width="9" style="335"/>
+    <col min="3845" max="3845" width="3.28515625" style="335" customWidth="1"/>
+    <col min="3846" max="3846" width="20" style="335" customWidth="1"/>
+    <col min="3847" max="3847" width="24.5703125" style="335" customWidth="1"/>
+    <col min="3848" max="3877" width="4.42578125" style="335" customWidth="1"/>
+    <col min="3878" max="3878" width="2.5703125" style="335" customWidth="1"/>
+    <col min="3879" max="3879" width="6.140625" style="335" customWidth="1"/>
+    <col min="3880" max="3880" width="19.42578125" style="335" customWidth="1"/>
+    <col min="3881" max="4100" width="9" style="335"/>
+    <col min="4101" max="4101" width="3.28515625" style="335" customWidth="1"/>
+    <col min="4102" max="4102" width="20" style="335" customWidth="1"/>
+    <col min="4103" max="4103" width="24.5703125" style="335" customWidth="1"/>
+    <col min="4104" max="4133" width="4.42578125" style="335" customWidth="1"/>
+    <col min="4134" max="4134" width="2.5703125" style="335" customWidth="1"/>
+    <col min="4135" max="4135" width="6.140625" style="335" customWidth="1"/>
+    <col min="4136" max="4136" width="19.42578125" style="335" customWidth="1"/>
+    <col min="4137" max="4356" width="9" style="335"/>
+    <col min="4357" max="4357" width="3.28515625" style="335" customWidth="1"/>
+    <col min="4358" max="4358" width="20" style="335" customWidth="1"/>
+    <col min="4359" max="4359" width="24.5703125" style="335" customWidth="1"/>
+    <col min="4360" max="4389" width="4.42578125" style="335" customWidth="1"/>
+    <col min="4390" max="4390" width="2.5703125" style="335" customWidth="1"/>
+    <col min="4391" max="4391" width="6.140625" style="335" customWidth="1"/>
+    <col min="4392" max="4392" width="19.42578125" style="335" customWidth="1"/>
+    <col min="4393" max="4612" width="9" style="335"/>
+    <col min="4613" max="4613" width="3.28515625" style="335" customWidth="1"/>
+    <col min="4614" max="4614" width="20" style="335" customWidth="1"/>
+    <col min="4615" max="4615" width="24.5703125" style="335" customWidth="1"/>
+    <col min="4616" max="4645" width="4.42578125" style="335" customWidth="1"/>
+    <col min="4646" max="4646" width="2.5703125" style="335" customWidth="1"/>
+    <col min="4647" max="4647" width="6.140625" style="335" customWidth="1"/>
+    <col min="4648" max="4648" width="19.42578125" style="335" customWidth="1"/>
+    <col min="4649" max="4868" width="9" style="335"/>
+    <col min="4869" max="4869" width="3.28515625" style="335" customWidth="1"/>
+    <col min="4870" max="4870" width="20" style="335" customWidth="1"/>
+    <col min="4871" max="4871" width="24.5703125" style="335" customWidth="1"/>
+    <col min="4872" max="4901" width="4.42578125" style="335" customWidth="1"/>
+    <col min="4902" max="4902" width="2.5703125" style="335" customWidth="1"/>
+    <col min="4903" max="4903" width="6.140625" style="335" customWidth="1"/>
+    <col min="4904" max="4904" width="19.42578125" style="335" customWidth="1"/>
+    <col min="4905" max="5124" width="9" style="335"/>
+    <col min="5125" max="5125" width="3.28515625" style="335" customWidth="1"/>
+    <col min="5126" max="5126" width="20" style="335" customWidth="1"/>
+    <col min="5127" max="5127" width="24.5703125" style="335" customWidth="1"/>
+    <col min="5128" max="5157" width="4.42578125" style="335" customWidth="1"/>
+    <col min="5158" max="5158" width="2.5703125" style="335" customWidth="1"/>
+    <col min="5159" max="5159" width="6.140625" style="335" customWidth="1"/>
+    <col min="5160" max="5160" width="19.42578125" style="335" customWidth="1"/>
+    <col min="5161" max="5380" width="9" style="335"/>
+    <col min="5381" max="5381" width="3.28515625" style="335" customWidth="1"/>
+    <col min="5382" max="5382" width="20" style="335" customWidth="1"/>
+    <col min="5383" max="5383" width="24.5703125" style="335" customWidth="1"/>
+    <col min="5384" max="5413" width="4.42578125" style="335" customWidth="1"/>
+    <col min="5414" max="5414" width="2.5703125" style="335" customWidth="1"/>
+    <col min="5415" max="5415" width="6.140625" style="335" customWidth="1"/>
+    <col min="5416" max="5416" width="19.42578125" style="335" customWidth="1"/>
+    <col min="5417" max="5636" width="9" style="335"/>
+    <col min="5637" max="5637" width="3.28515625" style="335" customWidth="1"/>
+    <col min="5638" max="5638" width="20" style="335" customWidth="1"/>
+    <col min="5639" max="5639" width="24.5703125" style="335" customWidth="1"/>
+    <col min="5640" max="5669" width="4.42578125" style="335" customWidth="1"/>
+    <col min="5670" max="5670" width="2.5703125" style="335" customWidth="1"/>
+    <col min="5671" max="5671" width="6.140625" style="335" customWidth="1"/>
+    <col min="5672" max="5672" width="19.42578125" style="335" customWidth="1"/>
+    <col min="5673" max="5892" width="9" style="335"/>
+    <col min="5893" max="5893" width="3.28515625" style="335" customWidth="1"/>
+    <col min="5894" max="5894" width="20" style="335" customWidth="1"/>
+    <col min="5895" max="5895" width="24.5703125" style="335" customWidth="1"/>
+    <col min="5896" max="5925" width="4.42578125" style="335" customWidth="1"/>
+    <col min="5926" max="5926" width="2.5703125" style="335" customWidth="1"/>
+    <col min="5927" max="5927" width="6.140625" style="335" customWidth="1"/>
+    <col min="5928" max="5928" width="19.42578125" style="335" customWidth="1"/>
+    <col min="5929" max="6148" width="9" style="335"/>
+    <col min="6149" max="6149" width="3.28515625" style="335" customWidth="1"/>
+    <col min="6150" max="6150" width="20" style="335" customWidth="1"/>
+    <col min="6151" max="6151" width="24.5703125" style="335" customWidth="1"/>
+    <col min="6152" max="6181" width="4.42578125" style="335" customWidth="1"/>
+    <col min="6182" max="6182" width="2.5703125" style="335" customWidth="1"/>
+    <col min="6183" max="6183" width="6.140625" style="335" customWidth="1"/>
+    <col min="6184" max="6184" width="19.42578125" style="335" customWidth="1"/>
+    <col min="6185" max="6404" width="9" style="335"/>
+    <col min="6405" max="6405" width="3.28515625" style="335" customWidth="1"/>
+    <col min="6406" max="6406" width="20" style="335" customWidth="1"/>
+    <col min="6407" max="6407" width="24.5703125" style="335" customWidth="1"/>
+    <col min="6408" max="6437" width="4.42578125" style="335" customWidth="1"/>
+    <col min="6438" max="6438" width="2.5703125" style="335" customWidth="1"/>
+    <col min="6439" max="6439" width="6.140625" style="335" customWidth="1"/>
+    <col min="6440" max="6440" width="19.42578125" style="335" customWidth="1"/>
+    <col min="6441" max="6660" width="9" style="335"/>
+    <col min="6661" max="6661" width="3.28515625" style="335" customWidth="1"/>
+    <col min="6662" max="6662" width="20" style="335" customWidth="1"/>
+    <col min="6663" max="6663" width="24.5703125" style="335" customWidth="1"/>
+    <col min="6664" max="6693" width="4.42578125" style="335" customWidth="1"/>
+    <col min="6694" max="6694" width="2.5703125" style="335" customWidth="1"/>
+    <col min="6695" max="6695" width="6.140625" style="335" customWidth="1"/>
+    <col min="6696" max="6696" width="19.42578125" style="335" customWidth="1"/>
+    <col min="6697" max="6916" width="9" style="335"/>
+    <col min="6917" max="6917" width="3.28515625" style="335" customWidth="1"/>
+    <col min="6918" max="6918" width="20" style="335" customWidth="1"/>
+    <col min="6919" max="6919" width="24.5703125" style="335" customWidth="1"/>
+    <col min="6920" max="6949" width="4.42578125" style="335" customWidth="1"/>
+    <col min="6950" max="6950" width="2.5703125" style="335" customWidth="1"/>
+    <col min="6951" max="6951" width="6.140625" style="335" customWidth="1"/>
+    <col min="6952" max="6952" width="19.42578125" style="335" customWidth="1"/>
+    <col min="6953" max="7172" width="9" style="335"/>
+    <col min="7173" max="7173" width="3.28515625" style="335" customWidth="1"/>
+    <col min="7174" max="7174" width="20" style="335" customWidth="1"/>
+    <col min="7175" max="7175" width="24.5703125" style="335" customWidth="1"/>
+    <col min="7176" max="7205" width="4.42578125" style="335" customWidth="1"/>
+    <col min="7206" max="7206" width="2.5703125" style="335" customWidth="1"/>
+    <col min="7207" max="7207" width="6.140625" style="335" customWidth="1"/>
+    <col min="7208" max="7208" width="19.42578125" style="335" customWidth="1"/>
+    <col min="7209" max="7428" width="9" style="335"/>
+    <col min="7429" max="7429" width="3.28515625" style="335" customWidth="1"/>
+    <col min="7430" max="7430" width="20" style="335" customWidth="1"/>
+    <col min="7431" max="7431" width="24.5703125" style="335" customWidth="1"/>
+    <col min="7432" max="7461" width="4.42578125" style="335" customWidth="1"/>
+    <col min="7462" max="7462" width="2.5703125" style="335" customWidth="1"/>
+    <col min="7463" max="7463" width="6.140625" style="335" customWidth="1"/>
+    <col min="7464" max="7464" width="19.42578125" style="335" customWidth="1"/>
+    <col min="7465" max="7684" width="9" style="335"/>
+    <col min="7685" max="7685" width="3.28515625" style="335" customWidth="1"/>
+    <col min="7686" max="7686" width="20" style="335" customWidth="1"/>
+    <col min="7687" max="7687" width="24.5703125" style="335" customWidth="1"/>
+    <col min="7688" max="7717" width="4.42578125" style="335" customWidth="1"/>
+    <col min="7718" max="7718" width="2.5703125" style="335" customWidth="1"/>
+    <col min="7719" max="7719" width="6.140625" style="335" customWidth="1"/>
+    <col min="7720" max="7720" width="19.42578125" style="335" customWidth="1"/>
+    <col min="7721" max="7940" width="9" style="335"/>
+    <col min="7941" max="7941" width="3.28515625" style="335" customWidth="1"/>
+    <col min="7942" max="7942" width="20" style="335" customWidth="1"/>
+    <col min="7943" max="7943" width="24.5703125" style="335" customWidth="1"/>
+    <col min="7944" max="7973" width="4.42578125" style="335" customWidth="1"/>
+    <col min="7974" max="7974" width="2.5703125" style="335" customWidth="1"/>
+    <col min="7975" max="7975" width="6.140625" style="335" customWidth="1"/>
+    <col min="7976" max="7976" width="19.42578125" style="335" customWidth="1"/>
+    <col min="7977" max="8196" width="9" style="335"/>
+    <col min="8197" max="8197" width="3.28515625" style="335" customWidth="1"/>
+    <col min="8198" max="8198" width="20" style="335" customWidth="1"/>
+    <col min="8199" max="8199" width="24.5703125" style="335" customWidth="1"/>
+    <col min="8200" max="8229" width="4.42578125" style="335" customWidth="1"/>
+    <col min="8230" max="8230" width="2.5703125" style="335" customWidth="1"/>
+    <col min="8231" max="8231" width="6.140625" style="335" customWidth="1"/>
+    <col min="8232" max="8232" width="19.42578125" style="335" customWidth="1"/>
+    <col min="8233" max="8452" width="9" style="335"/>
+    <col min="8453" max="8453" width="3.28515625" style="335" customWidth="1"/>
+    <col min="8454" max="8454" width="20" style="335" customWidth="1"/>
+    <col min="8455" max="8455" width="24.5703125" style="335" customWidth="1"/>
+    <col min="8456" max="8485" width="4.42578125" style="335" customWidth="1"/>
+    <col min="8486" max="8486" width="2.5703125" style="335" customWidth="1"/>
+    <col min="8487" max="8487" width="6.140625" style="335" customWidth="1"/>
+    <col min="8488" max="8488" width="19.42578125" style="335" customWidth="1"/>
+    <col min="8489" max="8708" width="9" style="335"/>
+    <col min="8709" max="8709" width="3.28515625" style="335" customWidth="1"/>
+    <col min="8710" max="8710" width="20" style="335" customWidth="1"/>
+    <col min="8711" max="8711" width="24.5703125" style="335" customWidth="1"/>
+    <col min="8712" max="8741" width="4.42578125" style="335" customWidth="1"/>
+    <col min="8742" max="8742" width="2.5703125" style="335" customWidth="1"/>
+    <col min="8743" max="8743" width="6.140625" style="335" customWidth="1"/>
+    <col min="8744" max="8744" width="19.42578125" style="335" customWidth="1"/>
+    <col min="8745" max="8964" width="9" style="335"/>
+    <col min="8965" max="8965" width="3.28515625" style="335" customWidth="1"/>
+    <col min="8966" max="8966" width="20" style="335" customWidth="1"/>
+    <col min="8967" max="8967" width="24.5703125" style="335" customWidth="1"/>
+    <col min="8968" max="8997" width="4.42578125" style="335" customWidth="1"/>
+    <col min="8998" max="8998" width="2.5703125" style="335" customWidth="1"/>
+    <col min="8999" max="8999" width="6.140625" style="335" customWidth="1"/>
+    <col min="9000" max="9000" width="19.42578125" style="335" customWidth="1"/>
+    <col min="9001" max="9220" width="9" style="335"/>
+    <col min="9221" max="9221" width="3.28515625" style="335" customWidth="1"/>
+    <col min="9222" max="9222" width="20" style="335" customWidth="1"/>
+    <col min="9223" max="9223" width="24.5703125" style="335" customWidth="1"/>
+    <col min="9224" max="9253" width="4.42578125" style="335" customWidth="1"/>
+    <col min="9254" max="9254" width="2.5703125" style="335" customWidth="1"/>
+    <col min="9255" max="9255" width="6.140625" style="335" customWidth="1"/>
+    <col min="9256" max="9256" width="19.42578125" style="335" customWidth="1"/>
+    <col min="9257" max="9476" width="9" style="335"/>
+    <col min="9477" max="9477" width="3.28515625" style="335" customWidth="1"/>
+    <col min="9478" max="9478" width="20" style="335" customWidth="1"/>
+    <col min="9479" max="9479" width="24.5703125" style="335" customWidth="1"/>
+    <col min="9480" max="9509" width="4.42578125" style="335" customWidth="1"/>
+    <col min="9510" max="9510" width="2.5703125" style="335" customWidth="1"/>
+    <col min="9511" max="9511" width="6.140625" style="335" customWidth="1"/>
+    <col min="9512" max="9512" width="19.42578125" style="335" customWidth="1"/>
+    <col min="9513" max="9732" width="9" style="335"/>
+    <col min="9733" max="9733" width="3.28515625" style="335" customWidth="1"/>
+    <col min="9734" max="9734" width="20" style="335" customWidth="1"/>
+    <col min="9735" max="9735" width="24.5703125" style="335" customWidth="1"/>
+    <col min="9736" max="9765" width="4.42578125" style="335" customWidth="1"/>
+    <col min="9766" max="9766" width="2.5703125" style="335" customWidth="1"/>
+    <col min="9767" max="9767" width="6.140625" style="335" customWidth="1"/>
+    <col min="9768" max="9768" width="19.42578125" style="335" customWidth="1"/>
+    <col min="9769" max="9988" width="9" style="335"/>
+    <col min="9989" max="9989" width="3.28515625" style="335" customWidth="1"/>
+    <col min="9990" max="9990" width="20" style="335" customWidth="1"/>
+    <col min="9991" max="9991" width="24.5703125" style="335" customWidth="1"/>
+    <col min="9992" max="10021" width="4.42578125" style="335" customWidth="1"/>
+    <col min="10022" max="10022" width="2.5703125" style="335" customWidth="1"/>
+    <col min="10023" max="10023" width="6.140625" style="335" customWidth="1"/>
+    <col min="10024" max="10024" width="19.42578125" style="335" customWidth="1"/>
+    <col min="10025" max="10244" width="9" style="335"/>
+    <col min="10245" max="10245" width="3.28515625" style="335" customWidth="1"/>
+    <col min="10246" max="10246" width="20" style="335" customWidth="1"/>
+    <col min="10247" max="10247" width="24.5703125" style="335" customWidth="1"/>
+    <col min="10248" max="10277" width="4.42578125" style="335" customWidth="1"/>
+    <col min="10278" max="10278" width="2.5703125" style="335" customWidth="1"/>
+    <col min="10279" max="10279" width="6.140625" style="335" customWidth="1"/>
+    <col min="10280" max="10280" width="19.42578125" style="335" customWidth="1"/>
+    <col min="10281" max="10500" width="9" style="335"/>
+    <col min="10501" max="10501" width="3.28515625" style="335" customWidth="1"/>
+    <col min="10502" max="10502" width="20" style="335" customWidth="1"/>
+    <col min="10503" max="10503" width="24.5703125" style="335" customWidth="1"/>
+    <col min="10504" max="10533" width="4.42578125" style="335" customWidth="1"/>
+    <col min="10534" max="10534" width="2.5703125" style="335" customWidth="1"/>
+    <col min="10535" max="10535" width="6.140625" style="335" customWidth="1"/>
+    <col min="10536" max="10536" width="19.42578125" style="335" customWidth="1"/>
+    <col min="10537" max="10756" width="9" style="335"/>
+    <col min="10757" max="10757" width="3.28515625" style="335" customWidth="1"/>
+    <col min="10758" max="10758" width="20" style="335" customWidth="1"/>
+    <col min="10759" max="10759" width="24.5703125" style="335" customWidth="1"/>
+    <col min="10760" max="10789" width="4.42578125" style="335" customWidth="1"/>
+    <col min="10790" max="10790" width="2.5703125" style="335" customWidth="1"/>
+    <col min="10791" max="10791" width="6.140625" style="335" customWidth="1"/>
+    <col min="10792" max="10792" width="19.42578125" style="335" customWidth="1"/>
+    <col min="10793" max="11012" width="9" style="335"/>
+    <col min="11013" max="11013" width="3.28515625" style="335" customWidth="1"/>
+    <col min="11014" max="11014" width="20" style="335" customWidth="1"/>
+    <col min="11015" max="11015" width="24.5703125" style="335" customWidth="1"/>
+    <col min="11016" max="11045" width="4.42578125" style="335" customWidth="1"/>
+    <col min="11046" max="11046" width="2.5703125" style="335" customWidth="1"/>
+    <col min="11047" max="11047" width="6.140625" style="335" customWidth="1"/>
+    <col min="11048" max="11048" width="19.42578125" style="335" customWidth="1"/>
+    <col min="11049" max="11268" width="9" style="335"/>
+    <col min="11269" max="11269" width="3.28515625" style="335" customWidth="1"/>
+    <col min="11270" max="11270" width="20" style="335" customWidth="1"/>
+    <col min="11271" max="11271" width="24.5703125" style="335" customWidth="1"/>
+    <col min="11272" max="11301" width="4.42578125" style="335" customWidth="1"/>
+    <col min="11302" max="11302" width="2.5703125" style="335" customWidth="1"/>
+    <col min="11303" max="11303" width="6.140625" style="335" customWidth="1"/>
+    <col min="11304" max="11304" width="19.42578125" style="335" customWidth="1"/>
+    <col min="11305" max="11524" width="9" style="335"/>
+    <col min="11525" max="11525" width="3.28515625" style="335" customWidth="1"/>
+    <col min="11526" max="11526" width="20" style="335" customWidth="1"/>
+    <col min="11527" max="11527" width="24.5703125" style="335" customWidth="1"/>
+    <col min="11528" max="11557" width="4.42578125" style="335" customWidth="1"/>
+    <col min="11558" max="11558" width="2.5703125" style="335" customWidth="1"/>
+    <col min="11559" max="11559" width="6.140625" style="335" customWidth="1"/>
+    <col min="11560" max="11560" width="19.42578125" style="335" customWidth="1"/>
+    <col min="11561" max="11780" width="9" style="335"/>
+    <col min="11781" max="11781" width="3.28515625" style="335" customWidth="1"/>
+    <col min="11782" max="11782" width="20" style="335" customWidth="1"/>
+    <col min="11783" max="11783" width="24.5703125" style="335" customWidth="1"/>
+    <col min="11784" max="11813" width="4.42578125" style="335" customWidth="1"/>
+    <col min="11814" max="11814" width="2.5703125" style="335" customWidth="1"/>
+    <col min="11815" max="11815" width="6.140625" style="335" customWidth="1"/>
+    <col min="11816" max="11816" width="19.42578125" style="335" customWidth="1"/>
+    <col min="11817" max="12036" width="9" style="335"/>
+    <col min="12037" max="12037" width="3.28515625" style="335" customWidth="1"/>
+    <col min="12038" max="12038" width="20" style="335" customWidth="1"/>
+    <col min="12039" max="12039" width="24.5703125" style="335" customWidth="1"/>
+    <col min="12040" max="12069" width="4.42578125" style="335" customWidth="1"/>
+    <col min="12070" max="12070" width="2.5703125" style="335" customWidth="1"/>
+    <col min="12071" max="12071" width="6.140625" style="335" customWidth="1"/>
+    <col min="12072" max="12072" width="19.42578125" style="335" customWidth="1"/>
+    <col min="12073" max="12292" width="9" style="335"/>
+    <col min="12293" max="12293" width="3.28515625" style="335" customWidth="1"/>
+    <col min="12294" max="12294" width="20" style="335" customWidth="1"/>
+    <col min="12295" max="12295" width="24.5703125" style="335" customWidth="1"/>
+    <col min="12296" max="12325" width="4.42578125" style="335" customWidth="1"/>
+    <col min="12326" max="12326" width="2.5703125" style="335" customWidth="1"/>
+    <col min="12327" max="12327" width="6.140625" style="335" customWidth="1"/>
+    <col min="12328" max="12328" width="19.42578125" style="335" customWidth="1"/>
+    <col min="12329" max="12548" width="9" style="335"/>
+    <col min="12549" max="12549" width="3.28515625" style="335" customWidth="1"/>
+    <col min="12550" max="12550" width="20" style="335" customWidth="1"/>
+    <col min="12551" max="12551" width="24.5703125" style="335" customWidth="1"/>
+    <col min="12552" max="12581" width="4.42578125" style="335" customWidth="1"/>
+    <col min="12582" max="12582" width="2.5703125" style="335" customWidth="1"/>
+    <col min="12583" max="12583" width="6.140625" style="335" customWidth="1"/>
+    <col min="12584" max="12584" width="19.42578125" style="335" customWidth="1"/>
+    <col min="12585" max="12804" width="9" style="335"/>
+    <col min="12805" max="12805" width="3.28515625" style="335" customWidth="1"/>
+    <col min="12806" max="12806" width="20" style="335" customWidth="1"/>
+    <col min="12807" max="12807" width="24.5703125" style="335" customWidth="1"/>
+    <col min="12808" max="12837" width="4.42578125" style="335" customWidth="1"/>
+    <col min="12838" max="12838" width="2.5703125" style="335" customWidth="1"/>
+    <col min="12839" max="12839" width="6.140625" style="335" customWidth="1"/>
+    <col min="12840" max="12840" width="19.42578125" style="335" customWidth="1"/>
+    <col min="12841" max="13060" width="9" style="335"/>
+    <col min="13061" max="13061" width="3.28515625" style="335" customWidth="1"/>
+    <col min="13062" max="13062" width="20" style="335" customWidth="1"/>
+    <col min="13063" max="13063" width="24.5703125" style="335" customWidth="1"/>
+    <col min="13064" max="13093" width="4.42578125" style="335" customWidth="1"/>
+    <col min="13094" max="13094" width="2.5703125" style="335" customWidth="1"/>
+    <col min="13095" max="13095" width="6.140625" style="335" customWidth="1"/>
+    <col min="13096" max="13096" width="19.42578125" style="335" customWidth="1"/>
+    <col min="13097" max="13316" width="9" style="335"/>
+    <col min="13317" max="13317" width="3.28515625" style="335" customWidth="1"/>
+    <col min="13318" max="13318" width="20" style="335" customWidth="1"/>
+    <col min="13319" max="13319" width="24.5703125" style="335" customWidth="1"/>
+    <col min="13320" max="13349" width="4.42578125" style="335" customWidth="1"/>
+    <col min="13350" max="13350" width="2.5703125" style="335" customWidth="1"/>
+    <col min="13351" max="13351" width="6.140625" style="335" customWidth="1"/>
+    <col min="13352" max="13352" width="19.42578125" style="335" customWidth="1"/>
+    <col min="13353" max="13572" width="9" style="335"/>
+    <col min="13573" max="13573" width="3.28515625" style="335" customWidth="1"/>
+    <col min="13574" max="13574" width="20" style="335" customWidth="1"/>
+    <col min="13575" max="13575" width="24.5703125" style="335" customWidth="1"/>
+    <col min="13576" max="13605" width="4.42578125" style="335" customWidth="1"/>
+    <col min="13606" max="13606" width="2.5703125" style="335" customWidth="1"/>
+    <col min="13607" max="13607" width="6.140625" style="335" customWidth="1"/>
+    <col min="13608" max="13608" width="19.42578125" style="335" customWidth="1"/>
+    <col min="13609" max="13828" width="9" style="335"/>
+    <col min="13829" max="13829" width="3.28515625" style="335" customWidth="1"/>
+    <col min="13830" max="13830" width="20" style="335" customWidth="1"/>
+    <col min="13831" max="13831" width="24.5703125" style="335" customWidth="1"/>
+    <col min="13832" max="13861" width="4.42578125" style="335" customWidth="1"/>
+    <col min="13862" max="13862" width="2.5703125" style="335" customWidth="1"/>
+    <col min="13863" max="13863" width="6.140625" style="335" customWidth="1"/>
+    <col min="13864" max="13864" width="19.42578125" style="335" customWidth="1"/>
+    <col min="13865" max="14084" width="9" style="335"/>
+    <col min="14085" max="14085" width="3.28515625" style="335" customWidth="1"/>
+    <col min="14086" max="14086" width="20" style="335" customWidth="1"/>
+    <col min="14087" max="14087" width="24.5703125" style="335" customWidth="1"/>
+    <col min="14088" max="14117" width="4.42578125" style="335" customWidth="1"/>
+    <col min="14118" max="14118" width="2.5703125" style="335" customWidth="1"/>
+    <col min="14119" max="14119" width="6.140625" style="335" customWidth="1"/>
+    <col min="14120" max="14120" width="19.42578125" style="335" customWidth="1"/>
+    <col min="14121" max="14340" width="9" style="335"/>
+    <col min="14341" max="14341" width="3.28515625" style="335" customWidth="1"/>
+    <col min="14342" max="14342" width="20" style="335" customWidth="1"/>
+    <col min="14343" max="14343" width="24.5703125" style="335" customWidth="1"/>
+    <col min="14344" max="14373" width="4.42578125" style="335" customWidth="1"/>
+    <col min="14374" max="14374" width="2.5703125" style="335" customWidth="1"/>
+    <col min="14375" max="14375" width="6.140625" style="335" customWidth="1"/>
+    <col min="14376" max="14376" width="19.42578125" style="335" customWidth="1"/>
+    <col min="14377" max="14596" width="9" style="335"/>
+    <col min="14597" max="14597" width="3.28515625" style="335" customWidth="1"/>
+    <col min="14598" max="14598" width="20" style="335" customWidth="1"/>
+    <col min="14599" max="14599" width="24.5703125" style="335" customWidth="1"/>
+    <col min="14600" max="14629" width="4.42578125" style="335" customWidth="1"/>
+    <col min="14630" max="14630" width="2.5703125" style="335" customWidth="1"/>
+    <col min="14631" max="14631" width="6.140625" style="335" customWidth="1"/>
+    <col min="14632" max="14632" width="19.42578125" style="335" customWidth="1"/>
+    <col min="14633" max="14852" width="9" style="335"/>
+    <col min="14853" max="14853" width="3.28515625" style="335" customWidth="1"/>
+    <col min="14854" max="14854" width="20" style="335" customWidth="1"/>
+    <col min="14855" max="14855" width="24.5703125" style="335" customWidth="1"/>
+    <col min="14856" max="14885" width="4.42578125" style="335" customWidth="1"/>
+    <col min="14886" max="14886" width="2.5703125" style="335" customWidth="1"/>
+    <col min="14887" max="14887" width="6.140625" style="335" customWidth="1"/>
+    <col min="14888" max="14888" width="19.42578125" style="335" customWidth="1"/>
+    <col min="14889" max="15108" width="9" style="335"/>
+    <col min="15109" max="15109" width="3.28515625" style="335" customWidth="1"/>
+    <col min="15110" max="15110" width="20" style="335" customWidth="1"/>
+    <col min="15111" max="15111" width="24.5703125" style="335" customWidth="1"/>
+    <col min="15112" max="15141" width="4.42578125" style="335" customWidth="1"/>
+    <col min="15142" max="15142" width="2.5703125" style="335" customWidth="1"/>
+    <col min="15143" max="15143" width="6.140625" style="335" customWidth="1"/>
+    <col min="15144" max="15144" width="19.42578125" style="335" customWidth="1"/>
+    <col min="15145" max="15364" width="9" style="335"/>
+    <col min="15365" max="15365" width="3.28515625" style="335" customWidth="1"/>
+    <col min="15366" max="15366" width="20" style="335" customWidth="1"/>
+    <col min="15367" max="15367" width="24.5703125" style="335" customWidth="1"/>
+    <col min="15368" max="15397" width="4.42578125" style="335" customWidth="1"/>
+    <col min="15398" max="15398" width="2.5703125" style="335" customWidth="1"/>
+    <col min="15399" max="15399" width="6.140625" style="335" customWidth="1"/>
+    <col min="15400" max="15400" width="19.42578125" style="335" customWidth="1"/>
+    <col min="15401" max="15620" width="9" style="335"/>
+    <col min="15621" max="15621" width="3.28515625" style="335" customWidth="1"/>
+    <col min="15622" max="15622" width="20" style="335" customWidth="1"/>
+    <col min="15623" max="15623" width="24.5703125" style="335" customWidth="1"/>
+    <col min="15624" max="15653" width="4.42578125" style="335" customWidth="1"/>
+    <col min="15654" max="15654" width="2.5703125" style="335" customWidth="1"/>
+    <col min="15655" max="15655" width="6.140625" style="335" customWidth="1"/>
+    <col min="15656" max="15656" width="19.42578125" style="335" customWidth="1"/>
+    <col min="15657" max="15876" width="9" style="335"/>
+    <col min="15877" max="15877" width="3.28515625" style="335" customWidth="1"/>
+    <col min="15878" max="15878" width="20" style="335" customWidth="1"/>
+    <col min="15879" max="15879" width="24.5703125" style="335" customWidth="1"/>
+    <col min="15880" max="15909" width="4.42578125" style="335" customWidth="1"/>
+    <col min="15910" max="15910" width="2.5703125" style="335" customWidth="1"/>
+    <col min="15911" max="15911" width="6.140625" style="335" customWidth="1"/>
+    <col min="15912" max="15912" width="19.42578125" style="335" customWidth="1"/>
+    <col min="15913" max="16132" width="9" style="335"/>
+    <col min="16133" max="16133" width="3.28515625" style="335" customWidth="1"/>
+    <col min="16134" max="16134" width="20" style="335" customWidth="1"/>
+    <col min="16135" max="16135" width="24.5703125" style="335" customWidth="1"/>
+    <col min="16136" max="16165" width="4.42578125" style="335" customWidth="1"/>
+    <col min="16166" max="16166" width="2.5703125" style="335" customWidth="1"/>
+    <col min="16167" max="16167" width="6.140625" style="335" customWidth="1"/>
+    <col min="16168" max="16168" width="19.42578125" style="335" customWidth="1"/>
+    <col min="16169" max="16384" width="9" style="335"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="333"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="Z1" s="336" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="337"/>
+      <c r="AB1" s="337"/>
+      <c r="AC1" s="337"/>
+      <c r="AD1" s="337"/>
+      <c r="AE1" s="337"/>
+      <c r="AF1" s="337"/>
+      <c r="AG1" s="338"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="340" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="340"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="Z2" s="342" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" s="343"/>
+      <c r="AB2" s="343"/>
+      <c r="AC2" s="343"/>
+      <c r="AD2" s="343"/>
+      <c r="AE2" s="344"/>
+      <c r="AF2" s="345" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG2" s="346"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="340" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="Z3" s="342" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA3" s="343"/>
+      <c r="AB3" s="343"/>
+      <c r="AC3" s="343"/>
+      <c r="AD3" s="343"/>
+      <c r="AE3" s="344"/>
+      <c r="AF3" s="345" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG3" s="346"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="340" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="T4" s="335" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="342" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA4" s="343"/>
+      <c r="AB4" s="343"/>
+      <c r="AC4" s="343"/>
+      <c r="AD4" s="343"/>
+      <c r="AE4" s="344"/>
+      <c r="AF4" s="345" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG4" s="346"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="340" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="Z5" s="342" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="343"/>
+      <c r="AB5" s="343"/>
+      <c r="AC5" s="343"/>
+      <c r="AD5" s="343"/>
+      <c r="AE5" s="344"/>
+      <c r="AF5" s="345" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG5" s="346"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="347"/>
+      <c r="B6" s="347"/>
+      <c r="C6" s="348"/>
+      <c r="D6" s="348"/>
+      <c r="E6" s="347"/>
+    </row>
+    <row r="7" spans="1:40" s="351" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="349" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="349"/>
+      <c r="C7" s="349"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="349"/>
+      <c r="J7" s="349"/>
+      <c r="K7" s="349"/>
+      <c r="L7" s="349"/>
+      <c r="M7" s="349"/>
+      <c r="N7" s="349"/>
+      <c r="O7" s="349"/>
+      <c r="P7" s="349"/>
+      <c r="Q7" s="349"/>
+      <c r="R7" s="349"/>
+      <c r="S7" s="349"/>
+      <c r="T7" s="349"/>
+      <c r="U7" s="349"/>
+      <c r="V7" s="349"/>
+      <c r="W7" s="349"/>
+      <c r="X7" s="349"/>
+      <c r="Y7" s="349"/>
+      <c r="Z7" s="349"/>
+      <c r="AA7" s="349"/>
+      <c r="AB7" s="349"/>
+      <c r="AC7" s="349"/>
+      <c r="AD7" s="349"/>
+      <c r="AE7" s="349"/>
+      <c r="AF7" s="349"/>
+      <c r="AG7" s="349"/>
+      <c r="AH7" s="349"/>
+      <c r="AI7" s="349"/>
+      <c r="AJ7" s="349"/>
+      <c r="AK7" s="349"/>
+      <c r="AL7" s="349"/>
+      <c r="AM7" s="349"/>
+      <c r="AN7" s="350"/>
+    </row>
+    <row r="9" spans="1:40" s="361" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="352" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="352" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="352" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="353" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="354"/>
+      <c r="F9" s="354"/>
+      <c r="G9" s="354"/>
+      <c r="H9" s="354"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="354"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="354"/>
+      <c r="O9" s="354"/>
+      <c r="P9" s="354"/>
+      <c r="Q9" s="354"/>
+      <c r="R9" s="354"/>
+      <c r="S9" s="354"/>
+      <c r="T9" s="354"/>
+      <c r="U9" s="354"/>
+      <c r="V9" s="354"/>
+      <c r="W9" s="354"/>
+      <c r="X9" s="354"/>
+      <c r="Y9" s="354"/>
+      <c r="Z9" s="354"/>
+      <c r="AA9" s="354"/>
+      <c r="AB9" s="354"/>
+      <c r="AC9" s="354"/>
+      <c r="AD9" s="354"/>
+      <c r="AE9" s="354"/>
+      <c r="AF9" s="354"/>
+      <c r="AG9" s="354"/>
+      <c r="AH9" s="355"/>
+      <c r="AI9" s="356" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ9" s="357"/>
+      <c r="AK9" s="358"/>
+      <c r="AL9" s="358"/>
+      <c r="AM9" s="359"/>
+      <c r="AN9" s="360"/>
+    </row>
+    <row r="10" spans="1:40" s="361" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="362"/>
+      <c r="B10" s="362"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="363">
+        <v>1</v>
+      </c>
+      <c r="E10" s="363">
+        <v>2</v>
+      </c>
+      <c r="F10" s="363">
+        <v>3</v>
+      </c>
+      <c r="G10" s="363">
+        <v>4</v>
+      </c>
+      <c r="H10" s="363">
+        <v>5</v>
+      </c>
+      <c r="I10" s="363">
+        <v>6</v>
+      </c>
+      <c r="J10" s="363">
+        <v>7</v>
+      </c>
+      <c r="K10" s="363">
+        <v>8</v>
+      </c>
+      <c r="L10" s="363">
+        <v>9</v>
+      </c>
+      <c r="M10" s="363">
+        <v>10</v>
+      </c>
+      <c r="N10" s="363">
+        <v>11</v>
+      </c>
+      <c r="O10" s="363">
+        <v>12</v>
+      </c>
+      <c r="P10" s="363">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="363">
+        <v>14</v>
+      </c>
+      <c r="R10" s="363">
+        <v>15</v>
+      </c>
+      <c r="S10" s="363">
+        <v>16</v>
+      </c>
+      <c r="T10" s="363">
+        <v>17</v>
+      </c>
+      <c r="U10" s="363">
+        <v>18</v>
+      </c>
+      <c r="V10" s="363">
+        <v>19</v>
+      </c>
+      <c r="W10" s="363">
+        <v>20</v>
+      </c>
+      <c r="X10" s="363">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="363">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="363">
+        <v>23</v>
+      </c>
+      <c r="AA10" s="363">
+        <v>24</v>
+      </c>
+      <c r="AB10" s="363">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="363">
+        <v>26</v>
+      </c>
+      <c r="AD10" s="363">
+        <v>27</v>
+      </c>
+      <c r="AE10" s="363">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="363">
+        <v>29</v>
+      </c>
+      <c r="AG10" s="363">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="363">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="356"/>
+      <c r="AJ10" s="364"/>
+      <c r="AK10" s="359"/>
+      <c r="AL10" s="359"/>
+      <c r="AM10" s="359"/>
+      <c r="AN10" s="360"/>
+    </row>
+    <row r="11" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="365"/>
+      <c r="B11" s="365"/>
+      <c r="C11" s="365"/>
+      <c r="D11" s="363" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="363" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="366" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="367" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="366" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="366" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="363" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="366" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="363" t="s">
+        <v>175</v>
+      </c>
+      <c r="M11" s="366" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" s="367" t="s">
+        <v>177</v>
+      </c>
+      <c r="O11" s="366" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="366" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="363" t="s">
+        <v>173</v>
+      </c>
+      <c r="R11" s="366" t="s">
+        <v>174</v>
+      </c>
+      <c r="S11" s="363" t="s">
+        <v>175</v>
+      </c>
+      <c r="T11" s="366" t="s">
+        <v>176</v>
+      </c>
+      <c r="U11" s="367" t="s">
+        <v>177</v>
+      </c>
+      <c r="V11" s="366" t="s">
+        <v>178</v>
+      </c>
+      <c r="W11" s="363" t="s">
+        <v>179</v>
+      </c>
+      <c r="X11" s="366" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y11" s="366" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z11" s="366" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA11" s="366" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB11" s="367" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC11" s="366" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD11" s="363" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE11" s="366" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF11" s="366" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG11" s="366" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH11" s="366" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI11" s="356"/>
+      <c r="AJ11" s="368"/>
+      <c r="AN11" s="370"/>
+    </row>
+    <row r="12" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="371">
+        <v>1</v>
+      </c>
+      <c r="B12" s="371" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="366" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="372" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="366" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="372" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="R12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="S12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="T12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="U12" s="372"/>
+      <c r="V12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="W12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="X12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB12" s="372"/>
+      <c r="AC12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH12" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI12" s="373">
+        <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
+        <v>28</v>
+      </c>
+      <c r="AJ12" s="368"/>
+      <c r="AN12" s="370"/>
+    </row>
+    <row r="13" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="371">
+        <v>2</v>
+      </c>
+      <c r="B13" s="374" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="375" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="366" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="372" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="366" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" s="372" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" s="372" t="s">
+        <v>161</v>
+      </c>
+      <c r="V13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="X13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB13" s="372"/>
+      <c r="AC13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH13" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI13" s="373">
+        <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
+        <v>28.5</v>
+      </c>
+      <c r="AJ13" s="368"/>
+      <c r="AN13" s="370"/>
+    </row>
+    <row r="14" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="371">
+        <v>3</v>
+      </c>
+      <c r="B14" s="371" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="375" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="366" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="372"/>
+      <c r="H14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" s="366" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="372"/>
+      <c r="O14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="R14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="S14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="T14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="U14" s="372"/>
+      <c r="V14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB14" s="372"/>
+      <c r="AC14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH14" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI14" s="373">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AJ14" s="368"/>
+      <c r="AN14" s="370"/>
+    </row>
+    <row r="15" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="371">
+        <v>4</v>
+      </c>
+      <c r="B15" s="371" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="375" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="396"/>
+      <c r="E15" s="366"/>
+      <c r="F15" s="366"/>
+      <c r="G15" s="372"/>
+      <c r="H15" s="366"/>
+      <c r="I15" s="366"/>
+      <c r="J15" s="366"/>
+      <c r="K15" s="366"/>
+      <c r="L15" s="366"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="372"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="366"/>
+      <c r="R15" s="366"/>
+      <c r="S15" s="366"/>
+      <c r="T15" s="366"/>
+      <c r="U15" s="372"/>
+      <c r="V15" s="366"/>
+      <c r="W15" s="366"/>
+      <c r="X15" s="366"/>
+      <c r="Y15" s="366"/>
+      <c r="Z15" s="366"/>
+      <c r="AA15" s="366"/>
+      <c r="AB15" s="372"/>
+      <c r="AC15" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD15" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE15" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF15" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG15" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH15" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI15" s="373">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="368"/>
+      <c r="AN15" s="370"/>
+    </row>
+    <row r="16" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="376" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="377"/>
+      <c r="C16" s="378"/>
+      <c r="D16" s="378"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="379"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="379"/>
+      <c r="I16" s="379"/>
+      <c r="J16" s="379"/>
+      <c r="K16" s="379"/>
+      <c r="L16" s="379"/>
+      <c r="M16" s="379"/>
+      <c r="N16" s="379"/>
+      <c r="O16" s="379"/>
+      <c r="P16" s="379"/>
+      <c r="Q16" s="379"/>
+      <c r="R16" s="379"/>
+      <c r="S16" s="379"/>
+      <c r="T16" s="379"/>
+      <c r="U16" s="379"/>
+      <c r="V16" s="379"/>
+      <c r="W16" s="379"/>
+      <c r="X16" s="379"/>
+      <c r="Y16" s="379"/>
+      <c r="Z16" s="379"/>
+      <c r="AA16" s="379"/>
+      <c r="AB16" s="379"/>
+      <c r="AC16" s="379"/>
+      <c r="AD16" s="379"/>
+      <c r="AE16" s="379"/>
+      <c r="AF16" s="379"/>
+      <c r="AG16" s="379"/>
+      <c r="AH16" s="379"/>
+      <c r="AI16" s="380">
+        <f>SUM(AI12:AI14)</f>
+        <v>82.5</v>
+      </c>
+      <c r="AJ16" s="381"/>
+      <c r="AK16" s="382"/>
+      <c r="AL16" s="382"/>
+      <c r="AN16" s="370"/>
+    </row>
+    <row r="18" spans="1:40" s="390" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="383" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="383"/>
+      <c r="C18" s="383"/>
+      <c r="D18" s="383"/>
+      <c r="E18" s="383"/>
+      <c r="F18" s="383"/>
+      <c r="G18" s="383"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="385"/>
+      <c r="J18" s="385"/>
+      <c r="K18" s="385"/>
+      <c r="L18" s="385"/>
+      <c r="M18" s="385"/>
+      <c r="N18" s="386"/>
+      <c r="O18" s="385" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="385"/>
+      <c r="Q18" s="385"/>
+      <c r="R18" s="385"/>
+      <c r="S18" s="385"/>
+      <c r="T18" s="385"/>
+      <c r="U18" s="385"/>
+      <c r="V18" s="385"/>
+      <c r="W18" s="385"/>
+      <c r="X18" s="385"/>
+      <c r="Y18" s="385"/>
+      <c r="Z18" s="387"/>
+      <c r="AA18" s="387"/>
+      <c r="AB18" s="388"/>
+      <c r="AC18" s="385"/>
+      <c r="AD18" s="385"/>
+      <c r="AE18" s="385"/>
+      <c r="AF18" s="385"/>
+      <c r="AG18" s="385"/>
+      <c r="AH18" s="385"/>
+      <c r="AI18" s="385"/>
+      <c r="AJ18" s="385"/>
+      <c r="AK18" s="385"/>
+      <c r="AL18" s="385"/>
+      <c r="AM18" s="385"/>
+      <c r="AN18" s="389"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="391"/>
+      <c r="B25" s="392"/>
+      <c r="C25" s="391"/>
+      <c r="D25" s="391"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="391"/>
+      <c r="B26" s="392"/>
+      <c r="C26" s="391"/>
+      <c r="D26" s="391"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="347"/>
+      <c r="B27" s="348"/>
+      <c r="C27" s="347"/>
+      <c r="D27" s="347"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="347"/>
+      <c r="B28" s="348"/>
+      <c r="C28" s="347"/>
+      <c r="D28" s="347"/>
+    </row>
+    <row r="32" spans="1:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN32" s="394"/>
+    </row>
+    <row r="33" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN33" s="394"/>
+    </row>
+    <row r="34" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="395"/>
+      <c r="H34" s="395"/>
+      <c r="I34" s="395"/>
+      <c r="J34" s="395"/>
+      <c r="K34" s="395"/>
+      <c r="L34" s="395"/>
+      <c r="M34" s="395"/>
+      <c r="N34" s="395"/>
+      <c r="O34" s="395"/>
+      <c r="P34" s="395"/>
+      <c r="Q34" s="395"/>
+      <c r="R34" s="395"/>
+      <c r="S34" s="395"/>
+      <c r="T34" s="395"/>
+      <c r="U34" s="395"/>
+      <c r="V34" s="395"/>
+      <c r="W34" s="395"/>
+      <c r="X34" s="395"/>
+      <c r="AN34" s="394"/>
+    </row>
+    <row r="35" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="395"/>
+      <c r="H35" s="395"/>
+      <c r="I35" s="395"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="395"/>
+      <c r="L35" s="395"/>
+      <c r="M35" s="395"/>
+      <c r="N35" s="395"/>
+      <c r="O35" s="395"/>
+      <c r="P35" s="395"/>
+      <c r="Q35" s="395"/>
+      <c r="R35" s="395"/>
+      <c r="S35" s="395"/>
+      <c r="T35" s="395"/>
+      <c r="U35" s="395"/>
+      <c r="V35" s="395"/>
+      <c r="W35" s="395"/>
+      <c r="X35" s="395"/>
+      <c r="AN35" s="394"/>
+    </row>
+    <row r="36" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="395"/>
+      <c r="H36" s="395"/>
+      <c r="I36" s="395"/>
+      <c r="J36" s="395"/>
+      <c r="K36" s="395"/>
+      <c r="L36" s="395"/>
+      <c r="M36" s="395"/>
+      <c r="N36" s="395"/>
+      <c r="O36" s="395"/>
+      <c r="P36" s="395"/>
+      <c r="Q36" s="395"/>
+      <c r="R36" s="395"/>
+      <c r="S36" s="395"/>
+      <c r="T36" s="395"/>
+      <c r="U36" s="395"/>
+      <c r="V36" s="395"/>
+      <c r="W36" s="395"/>
+      <c r="X36" s="395"/>
+      <c r="AN36" s="394"/>
+    </row>
+    <row r="37" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="395"/>
+      <c r="H37" s="395"/>
+      <c r="I37" s="395"/>
+      <c r="J37" s="395"/>
+      <c r="K37" s="395"/>
+      <c r="L37" s="395"/>
+      <c r="M37" s="395"/>
+      <c r="N37" s="395"/>
+      <c r="O37" s="395"/>
+      <c r="P37" s="395"/>
+      <c r="Q37" s="395"/>
+      <c r="R37" s="395"/>
+      <c r="S37" s="395"/>
+      <c r="T37" s="395"/>
+      <c r="U37" s="395"/>
+      <c r="V37" s="395"/>
+      <c r="W37" s="395"/>
+      <c r="X37" s="395"/>
+      <c r="AN37" s="394"/>
+    </row>
+    <row r="38" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="395"/>
+      <c r="H38" s="395"/>
+      <c r="I38" s="395"/>
+      <c r="J38" s="395"/>
+      <c r="K38" s="395"/>
+      <c r="L38" s="395"/>
+      <c r="M38" s="395"/>
+      <c r="N38" s="395"/>
+      <c r="O38" s="395"/>
+      <c r="P38" s="395"/>
+      <c r="Q38" s="395"/>
+      <c r="R38" s="395"/>
+      <c r="S38" s="395"/>
+      <c r="T38" s="395"/>
+      <c r="U38" s="395"/>
+      <c r="V38" s="395"/>
+      <c r="W38" s="395"/>
+      <c r="X38" s="395"/>
+      <c r="AN38" s="394"/>
+    </row>
+    <row r="39" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C39" s="335"/>
+      <c r="D39" s="335"/>
+      <c r="G39" s="395"/>
+      <c r="H39" s="395"/>
+      <c r="I39" s="395"/>
+      <c r="J39" s="395"/>
+      <c r="K39" s="395"/>
+      <c r="L39" s="395"/>
+      <c r="M39" s="395"/>
+      <c r="N39" s="395"/>
+      <c r="O39" s="395"/>
+      <c r="P39" s="395"/>
+      <c r="Q39" s="395"/>
+      <c r="R39" s="395"/>
+      <c r="S39" s="395"/>
+      <c r="T39" s="395"/>
+      <c r="U39" s="395"/>
+      <c r="V39" s="395"/>
+      <c r="W39" s="395"/>
+      <c r="X39" s="395"/>
+      <c r="AN39" s="335"/>
+    </row>
+    <row r="40" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C40" s="335"/>
+      <c r="D40" s="335"/>
+      <c r="AN40" s="335"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="O18:Y18"/>
+    <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="G34:X39"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="A7:AM7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:AH9"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7040,38 +9121,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="322" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
       <c r="E1" s="89"/>
-      <c r="F1" s="287" t="s">
+      <c r="F1" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="288" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
+      <c r="A2" s="324" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
       <c r="E2" s="89"/>
-      <c r="F2" s="289" t="s">
+      <c r="F2" s="325" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
+      <c r="G2" s="325"/>
+      <c r="H2" s="325"/>
+      <c r="I2" s="325"/>
+      <c r="J2" s="325"/>
+      <c r="K2" s="325"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -7084,43 +9165,43 @@
       <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="326" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+      <c r="L4" s="326"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="291" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="291"/>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
+      <c r="A5" s="327" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="327"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="327"/>
+      <c r="I5" s="327"/>
+      <c r="J5" s="327"/>
+      <c r="K5" s="327"/>
+      <c r="L5" s="327"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="292" t="s">
+      <c r="J6" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="292"/>
-      <c r="L6" s="292"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="328"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="165" t="s">
@@ -7145,10 +9226,10 @@
         <v>64</v>
       </c>
       <c r="H7" s="165" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I7" s="165" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J7" s="165" t="s">
         <v>65</v>
@@ -7187,16 +9268,16 @@
       <c r="L8" s="165"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="283" t="s">
+      <c r="A9" s="319" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="284"/>
-      <c r="C9" s="284"/>
-      <c r="D9" s="285"/>
+      <c r="B9" s="320"/>
+      <c r="C9" s="320"/>
+      <c r="D9" s="321"/>
       <c r="E9" s="167"/>
       <c r="F9" s="171">
         <f>SUM(F10:F12)</f>
-        <v>27000000</v>
+        <v>28730769.230769228</v>
       </c>
       <c r="G9" s="171">
         <f>SUM(G10:G12)</f>
@@ -7204,7 +9285,7 @@
       </c>
       <c r="H9" s="171">
         <f>SUM(H10:H12)</f>
-        <v>2455000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="171">
         <f>SUM(I10:I12)</f>
@@ -7212,7 +9293,7 @@
       </c>
       <c r="J9" s="171">
         <f>SUM(J10:J12)</f>
-        <v>24545000</v>
+        <v>28730769.230769228</v>
       </c>
       <c r="K9" s="166"/>
       <c r="L9" s="165"/>
@@ -7231,18 +9312,19 @@
         <v>15000000</v>
       </c>
       <c r="E10" s="99">
-        <v>26</v>
+        <f>'Bảng chấm công'!AI12</f>
+        <v>28</v>
       </c>
       <c r="F10" s="93">
         <f>D10/26*E10</f>
-        <v>14999999.999999998</v>
+        <v>16153846.153846152</v>
       </c>
       <c r="G10" s="92"/>
       <c r="H10" s="92"/>
       <c r="I10" s="92"/>
       <c r="J10" s="92">
         <f>F10-G10-H10+I10</f>
-        <v>14999999.999999998</v>
+        <v>16153846.153846152</v>
       </c>
       <c r="K10" s="92"/>
       <c r="L10" s="169"/>
@@ -7255,12 +9337,13 @@
         <v>74</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="47">
         <v>6000000</v>
       </c>
       <c r="E11" s="99">
+        <f>'Bảng chấm công'!AI14</f>
         <v>26</v>
       </c>
       <c r="F11" s="47">
@@ -7291,36 +9374,34 @@
         <v>6000000</v>
       </c>
       <c r="E12" s="99">
-        <v>26</v>
+        <f>'Bảng chấm công'!AI13</f>
+        <v>28.5</v>
       </c>
       <c r="F12" s="52">
         <f>D12/26*E12</f>
-        <v>6000000</v>
+        <v>6576923.076923077</v>
       </c>
       <c r="G12" s="53"/>
-      <c r="H12" s="53">
-        <f>455000+2000000</f>
-        <v>2455000</v>
-      </c>
+      <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53">
         <f>F12-G12-H12+I12</f>
-        <v>3545000</v>
+        <v>6576923.076923077</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="280" t="s">
+      <c r="A13" s="316" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="281"/>
-      <c r="C13" s="281"/>
-      <c r="D13" s="282"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="318"/>
       <c r="E13" s="98"/>
       <c r="F13" s="171">
         <f>SUM(F14:F14)</f>
-        <v>0</v>
+        <v>807692.30769230775</v>
       </c>
       <c r="G13" s="171">
         <f>SUM(G14:G14)</f>
@@ -7336,7 +9417,7 @@
       </c>
       <c r="J13" s="171">
         <f>SUM(J14:J14)</f>
-        <v>0</v>
+        <v>807692.30769230775</v>
       </c>
       <c r="K13" s="172"/>
       <c r="L13" s="166"/>
@@ -7346,42 +9427,43 @@
         <v>2</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="D14" s="56">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="E14" s="97">
-        <v>0</v>
+        <f>'Bảng chấm công'!AI15</f>
+        <v>6</v>
       </c>
       <c r="F14" s="56">
         <f>D14/26*E14</f>
-        <v>0</v>
+        <v>807692.30769230775</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57">
         <f>F14-G14-H14+I14</f>
-        <v>0</v>
+        <v>807692.30769230775</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="329" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="294"/>
-      <c r="C15" s="295"/>
+      <c r="B15" s="330"/>
+      <c r="C15" s="331"/>
       <c r="D15" s="95"/>
       <c r="E15" s="96"/>
       <c r="F15" s="95">
         <f>F13+F9</f>
-        <v>27000000</v>
+        <v>29538461.538461536</v>
       </c>
       <c r="G15" s="95">
         <f>G13+G9</f>
@@ -7389,7 +9471,7 @@
       </c>
       <c r="H15" s="95">
         <f>H13+H9</f>
-        <v>2455000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="95">
         <f>I13+I9</f>
@@ -7397,54 +9479,54 @@
       </c>
       <c r="J15" s="95">
         <f>J13+J9</f>
-        <v>24545000</v>
+        <v>29538461.538461536</v>
       </c>
       <c r="K15" s="94"/>
       <c r="L15" s="94"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
+      <c r="B17" s="306"/>
+      <c r="C17" s="306"/>
+      <c r="D17" s="306"/>
       <c r="E17" s="91"/>
-      <c r="H17" s="271"/>
-      <c r="I17" s="271"/>
-      <c r="J17" s="271"/>
-      <c r="K17" s="271"/>
+      <c r="H17" s="306"/>
+      <c r="I17" s="306"/>
+      <c r="J17" s="306"/>
+      <c r="K17" s="306"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="162" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
       <c r="F18" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="162"/>
-      <c r="H18" s="271" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="271"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="271"/>
+      <c r="H18" s="306" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="306"/>
+      <c r="J18" s="306"/>
+      <c r="K18" s="306"/>
     </row>
     <row r="19" spans="2:11" s="163" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="164"/>
       <c r="D19" s="164"/>
       <c r="F19" s="164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="164"/>
-      <c r="H19" s="279" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279"/>
-      <c r="K19" s="279"/>
+      <c r="H19" s="315" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="315"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="315"/>
     </row>
     <row r="22" spans="2:11" s="108" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="100"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -591,7 +591,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="44" x14ac:knownFonts="1">
     <font>
@@ -1768,198 +1768,6 @@
     <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1970,15 +1778,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1988,39 +1787,306 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2033,131 +2099,65 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2539,16 +2539,16 @@
       <c r="Q2" s="119"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="318" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
@@ -2560,32 +2560,32 @@
       <c r="Q3" s="120"/>
     </row>
     <row r="4" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="319" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="273" t="s">
+      <c r="B4" s="319" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="273" t="s">
+      <c r="C4" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="274" t="s">
+      <c r="D4" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275" t="s">
+      <c r="F4" s="321"/>
+      <c r="G4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="275"/>
+      <c r="H4" s="321"/>
     </row>
     <row r="5" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="274"/>
+      <c r="A5" s="319"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="320"/>
       <c r="E5" s="258" t="s">
         <v>82</v>
       </c>
@@ -2673,11 +2673,11 @@
       <c r="H9" s="121"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="279">
+      <c r="A10" s="325">
         <v>44111</v>
       </c>
-      <c r="B10" s="279"/>
-      <c r="C10" s="276" t="s">
+      <c r="B10" s="325"/>
+      <c r="C10" s="322" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="106" t="s">
@@ -2689,9 +2689,9 @@
       <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="280"/>
-      <c r="B11" s="280"/>
-      <c r="C11" s="277"/>
+      <c r="A11" s="326"/>
+      <c r="B11" s="326"/>
+      <c r="C11" s="323"/>
       <c r="D11" s="266" t="s">
         <v>102</v>
       </c>
@@ -2703,9 +2703,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="280"/>
-      <c r="B12" s="280"/>
-      <c r="C12" s="277"/>
+      <c r="A12" s="326"/>
+      <c r="B12" s="326"/>
+      <c r="C12" s="323"/>
       <c r="D12" s="266" t="s">
         <v>103</v>
       </c>
@@ -2717,9 +2717,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="280"/>
-      <c r="B13" s="280"/>
-      <c r="C13" s="277"/>
+      <c r="A13" s="326"/>
+      <c r="B13" s="326"/>
+      <c r="C13" s="323"/>
       <c r="D13" s="266" t="s">
         <v>104</v>
       </c>
@@ -2731,9 +2731,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="280"/>
-      <c r="B14" s="280"/>
-      <c r="C14" s="277"/>
+      <c r="A14" s="326"/>
+      <c r="B14" s="326"/>
+      <c r="C14" s="323"/>
       <c r="D14" s="267" t="s">
         <v>105</v>
       </c>
@@ -2745,9 +2745,9 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="280"/>
-      <c r="B15" s="280"/>
-      <c r="C15" s="277"/>
+      <c r="A15" s="326"/>
+      <c r="B15" s="326"/>
+      <c r="C15" s="323"/>
       <c r="D15" s="266" t="s">
         <v>106</v>
       </c>
@@ -2759,9 +2759,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="281"/>
-      <c r="B16" s="281"/>
-      <c r="C16" s="278"/>
+      <c r="A16" s="327"/>
+      <c r="B16" s="327"/>
+      <c r="C16" s="324"/>
       <c r="D16" s="266" t="s">
         <v>107</v>
       </c>
@@ -2796,11 +2796,11 @@
       <c r="H17" s="123">
         <v>700000</v>
       </c>
-      <c r="K17" s="398">
+      <c r="K17" s="312">
         <f>K16+L16</f>
         <v>18034461.53846154</v>
       </c>
-      <c r="L17" s="397"/>
+      <c r="L17" s="313"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="104">
@@ -2819,7 +2819,7 @@
         <v>2000000</v>
       </c>
       <c r="H18" s="123"/>
-      <c r="N18" s="332">
+      <c r="N18" s="268">
         <f>K17-K19+3000000</f>
         <v>13525561.53846154</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>3100000</v>
       </c>
       <c r="H19" s="123"/>
-      <c r="K19" s="332">
+      <c r="K19" s="268">
         <f>H8+G18+G21+H25+H27+H30</f>
         <v>7508900</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>2000000</v>
       </c>
       <c r="H21" s="123"/>
-      <c r="J21" s="332">
+      <c r="J21" s="268">
         <f>K16-K19</f>
         <v>3948638.461538462</v>
       </c>
@@ -3449,12 +3449,12 @@
       <c r="H74" s="123"/>
     </row>
     <row r="75" spans="1:10" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="269" t="s">
+      <c r="A75" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="270"/>
-      <c r="C75" s="270"/>
-      <c r="D75" s="271"/>
+      <c r="B75" s="316"/>
+      <c r="C75" s="316"/>
+      <c r="D75" s="317"/>
       <c r="E75" s="125">
         <f>SUM(E7:E74)</f>
         <v>0</v>
@@ -3485,11 +3485,11 @@
       <c r="J76" s="127"/>
     </row>
     <row r="77" spans="1:10" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="268" t="s">
+      <c r="A77" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="268"/>
-      <c r="C77" s="268"/>
+      <c r="B77" s="314"/>
+      <c r="C77" s="314"/>
       <c r="D77" s="128"/>
       <c r="E77" s="129"/>
       <c r="F77" s="129"/>
@@ -3579,13 +3579,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="330" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
       <c r="H1" s="143"/>
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
@@ -3615,149 +3615,149 @@
       <c r="P2" s="147"/>
     </row>
     <row r="3" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="331" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="331"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
+      <c r="N3" s="331"/>
+      <c r="O3" s="331"/>
+      <c r="P3" s="331"/>
     </row>
     <row r="4" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="331" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
+      <c r="B4" s="331"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="331"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="331"/>
+      <c r="M4" s="331"/>
+      <c r="N4" s="331"/>
+      <c r="O4" s="331"/>
+      <c r="P4" s="331"/>
     </row>
     <row r="5" spans="1:16" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="292" t="s">
+      <c r="A5" s="333" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="294" t="s">
+      <c r="B5" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="292" t="s">
+      <c r="C5" s="333" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="292"/>
-      <c r="F5" s="290" t="s">
+      <c r="E5" s="333"/>
+      <c r="F5" s="335" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="290"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="289"/>
-      <c r="N5" s="289"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="290" t="s">
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="336"/>
+      <c r="N5" s="336"/>
+      <c r="O5" s="336"/>
+      <c r="P5" s="335" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="292"/>
-      <c r="B6" s="294"/>
-      <c r="C6" s="292"/>
-      <c r="D6" s="292" t="s">
+      <c r="A6" s="333"/>
+      <c r="B6" s="334"/>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="292" t="s">
+      <c r="F6" s="333" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="292" t="s">
+      <c r="G6" s="333" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="291" t="s">
+      <c r="H6" s="337" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="291" t="s">
+      <c r="I6" s="337" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="293" t="s">
+      <c r="J6" s="338" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="293"/>
-      <c r="L6" s="291" t="s">
+      <c r="K6" s="338"/>
+      <c r="L6" s="337" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="291" t="s">
+      <c r="M6" s="337" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="291" t="s">
+      <c r="N6" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="291" t="s">
+      <c r="O6" s="337" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="290"/>
+      <c r="P6" s="335"/>
     </row>
     <row r="7" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="292"/>
-      <c r="B7" s="294"/>
-      <c r="C7" s="292"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
+      <c r="A7" s="333"/>
+      <c r="B7" s="334"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
       <c r="J7" s="259" t="s">
         <v>85</v>
       </c>
       <c r="K7" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="291"/>
-      <c r="M7" s="291"/>
-      <c r="N7" s="291"/>
-      <c r="O7" s="291"/>
-      <c r="P7" s="290"/>
+      <c r="L7" s="337"/>
+      <c r="M7" s="337"/>
+      <c r="N7" s="337"/>
+      <c r="O7" s="337"/>
+      <c r="P7" s="335"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="282">
+      <c r="A8" s="340">
         <v>808</v>
       </c>
-      <c r="B8" s="284">
+      <c r="B8" s="343">
         <v>44107</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282" t="s">
+      <c r="C8" s="340"/>
+      <c r="D8" s="340" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="282" t="s">
+      <c r="E8" s="340" t="s">
         <v>125</v>
       </c>
       <c r="F8" s="181" t="s">
@@ -3789,11 +3789,11 @@
       <c r="P8" s="181"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="286"/>
-      <c r="B9" s="287"/>
-      <c r="C9" s="286"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
+      <c r="A9" s="342"/>
+      <c r="B9" s="344"/>
+      <c r="C9" s="342"/>
+      <c r="D9" s="342"/>
+      <c r="E9" s="342"/>
       <c r="F9" s="194" t="s">
         <v>127</v>
       </c>
@@ -3821,11 +3821,11 @@
       <c r="P9" s="194"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="283"/>
-      <c r="B10" s="285"/>
-      <c r="C10" s="283"/>
-      <c r="D10" s="283"/>
-      <c r="E10" s="283"/>
+      <c r="A10" s="341"/>
+      <c r="B10" s="345"/>
+      <c r="C10" s="341"/>
+      <c r="D10" s="341"/>
+      <c r="E10" s="341"/>
       <c r="F10" s="185" t="s">
         <v>128</v>
       </c>
@@ -3935,17 +3935,17 @@
       <c r="P12" s="180"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="282">
+      <c r="A13" s="340">
         <v>816</v>
       </c>
-      <c r="B13" s="284">
+      <c r="B13" s="343">
         <v>44112</v>
       </c>
-      <c r="C13" s="282"/>
-      <c r="D13" s="282" t="s">
+      <c r="C13" s="340"/>
+      <c r="D13" s="340" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="282"/>
+      <c r="E13" s="340"/>
       <c r="F13" s="181" t="s">
         <v>126</v>
       </c>
@@ -3973,11 +3973,11 @@
       <c r="P13" s="184"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="283"/>
-      <c r="B14" s="285"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="283"/>
-      <c r="E14" s="283"/>
+      <c r="A14" s="341"/>
+      <c r="B14" s="345"/>
+      <c r="C14" s="341"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="341"/>
       <c r="F14" s="185" t="s">
         <v>127</v>
       </c>
@@ -4083,17 +4083,17 @@
       <c r="P16" s="175"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="282">
+      <c r="A17" s="340">
         <v>822</v>
       </c>
-      <c r="B17" s="284">
+      <c r="B17" s="343">
         <v>44113</v>
       </c>
-      <c r="C17" s="282"/>
-      <c r="D17" s="282" t="s">
+      <c r="C17" s="340"/>
+      <c r="D17" s="340" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="282"/>
+      <c r="E17" s="340"/>
       <c r="F17" s="181" t="s">
         <v>126</v>
       </c>
@@ -4121,11 +4121,11 @@
       <c r="P17" s="181"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="283"/>
-      <c r="B18" s="285"/>
-      <c r="C18" s="283"/>
-      <c r="D18" s="283"/>
-      <c r="E18" s="283"/>
+      <c r="A18" s="341"/>
+      <c r="B18" s="345"/>
+      <c r="C18" s="341"/>
+      <c r="D18" s="341"/>
+      <c r="E18" s="341"/>
       <c r="F18" s="185" t="s">
         <v>127</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="M41" s="195"/>
       <c r="N41" s="195"/>
       <c r="O41" s="195"/>
-      <c r="P41" s="288"/>
+      <c r="P41" s="339"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="190"/>
@@ -4582,7 +4582,7 @@
       <c r="M42" s="195"/>
       <c r="N42" s="195"/>
       <c r="O42" s="195"/>
-      <c r="P42" s="288"/>
+      <c r="P42" s="339"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="190"/>
@@ -4600,7 +4600,7 @@
       <c r="M43" s="195"/>
       <c r="N43" s="195"/>
       <c r="O43" s="195"/>
-      <c r="P43" s="288"/>
+      <c r="P43" s="339"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="190"/>
@@ -4618,7 +4618,7 @@
       <c r="M44" s="195"/>
       <c r="N44" s="195"/>
       <c r="O44" s="195"/>
-      <c r="P44" s="288"/>
+      <c r="P44" s="339"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="190"/>
@@ -4636,7 +4636,7 @@
       <c r="M45" s="195"/>
       <c r="N45" s="195"/>
       <c r="O45" s="195"/>
-      <c r="P45" s="288"/>
+      <c r="P45" s="339"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="190"/>
@@ -4654,7 +4654,7 @@
       <c r="M46" s="195"/>
       <c r="N46" s="195"/>
       <c r="O46" s="195"/>
-      <c r="P46" s="288"/>
+      <c r="P46" s="339"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="238"/>
@@ -4708,7 +4708,7 @@
       <c r="M49" s="195"/>
       <c r="N49" s="195"/>
       <c r="O49" s="195"/>
-      <c r="P49" s="288"/>
+      <c r="P49" s="339"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="190"/>
@@ -4726,7 +4726,7 @@
       <c r="M50" s="195"/>
       <c r="N50" s="195"/>
       <c r="O50" s="195"/>
-      <c r="P50" s="288"/>
+      <c r="P50" s="339"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="190"/>
@@ -4744,7 +4744,7 @@
       <c r="M51" s="195"/>
       <c r="N51" s="195"/>
       <c r="O51" s="195"/>
-      <c r="P51" s="288"/>
+      <c r="P51" s="339"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="238"/>
@@ -5215,14 +5215,14 @@
       <c r="P77" s="185"/>
     </row>
     <row r="78" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="298" t="s">
+      <c r="A78" s="332" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="298"/>
-      <c r="C78" s="298"/>
-      <c r="D78" s="298"/>
-      <c r="E78" s="298"/>
-      <c r="F78" s="298"/>
+      <c r="B78" s="332"/>
+      <c r="C78" s="332"/>
+      <c r="D78" s="332"/>
+      <c r="E78" s="332"/>
+      <c r="F78" s="332"/>
       <c r="G78" s="150">
         <f>SUM(G8:G77)</f>
         <v>187</v>
@@ -5242,17 +5242,17 @@
       <c r="N78" s="151"/>
       <c r="O78" s="151"/>
       <c r="P78" s="151"/>
-      <c r="Q78" s="299"/>
+      <c r="Q78" s="328"/>
     </row>
     <row r="79" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="297" t="s">
+      <c r="A79" s="329" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="297"/>
-      <c r="C79" s="297"/>
-      <c r="D79" s="297"/>
-      <c r="E79" s="297"/>
-      <c r="F79" s="297"/>
+      <c r="B79" s="329"/>
+      <c r="C79" s="329"/>
+      <c r="D79" s="329"/>
+      <c r="E79" s="329"/>
+      <c r="F79" s="329"/>
       <c r="G79" s="150">
         <f>G78</f>
         <v>187</v>
@@ -5269,17 +5269,17 @@
       <c r="N79" s="155"/>
       <c r="O79" s="155"/>
       <c r="P79" s="155"/>
-      <c r="Q79" s="299"/>
+      <c r="Q79" s="328"/>
     </row>
     <row r="80" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="297" t="s">
+      <c r="A80" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="297"/>
-      <c r="C80" s="297"/>
-      <c r="D80" s="297"/>
-      <c r="E80" s="297"/>
-      <c r="F80" s="297"/>
+      <c r="B80" s="329"/>
+      <c r="C80" s="329"/>
+      <c r="D80" s="329"/>
+      <c r="E80" s="329"/>
+      <c r="F80" s="329"/>
       <c r="G80" s="156" t="s">
         <v>45</v>
       </c>
@@ -5297,14 +5297,14 @@
       <c r="P80" s="157"/>
     </row>
     <row r="81" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="297" t="s">
+      <c r="A81" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="297"/>
-      <c r="C81" s="297"/>
-      <c r="D81" s="297"/>
-      <c r="E81" s="297"/>
-      <c r="F81" s="297"/>
+      <c r="B81" s="329"/>
+      <c r="C81" s="329"/>
+      <c r="D81" s="329"/>
+      <c r="E81" s="329"/>
+      <c r="F81" s="329"/>
       <c r="G81" s="155"/>
       <c r="H81" s="155"/>
       <c r="I81" s="151"/>
@@ -5320,14 +5320,14 @@
       <c r="P81" s="157"/>
     </row>
     <row r="82" spans="1:16" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="297" t="s">
+      <c r="A82" s="329" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="297"/>
-      <c r="C82" s="297"/>
-      <c r="D82" s="297"/>
-      <c r="E82" s="297"/>
-      <c r="F82" s="297"/>
+      <c r="B82" s="329"/>
+      <c r="C82" s="329"/>
+      <c r="D82" s="329"/>
+      <c r="E82" s="329"/>
+      <c r="F82" s="329"/>
       <c r="G82" s="155"/>
       <c r="H82" s="155"/>
       <c r="I82" s="151"/>
@@ -5398,12 +5398,19 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="45">
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -5412,9 +5419,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="E6:E7"/>
@@ -5422,27 +5426,23 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="P45:P46"/>
     <mergeCell ref="P41:P44"/>
     <mergeCell ref="P49:P51"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5503,24 +5503,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="300" t="s">
+      <c r="A4" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="300"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="347" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -5599,7 +5599,7 @@
         <f>'DOANH THU'!L80</f>
         <v>0</v>
       </c>
-      <c r="E10" s="302">
+      <c r="E10" s="348">
         <f>D10+D11+D12</f>
         <v>0</v>
       </c>
@@ -5618,7 +5618,7 @@
         <f>'DOANH THU'!L81</f>
         <v>0</v>
       </c>
-      <c r="E11" s="303"/>
+      <c r="E11" s="349"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -5629,7 +5629,7 @@
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
       <c r="D12" s="160"/>
-      <c r="E12" s="304"/>
+      <c r="E12" s="350"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -5918,75 +5918,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="353" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="306"/>
-      <c r="I3" s="306"/>
-      <c r="J3" s="306"/>
-      <c r="K3" s="306"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
       <c r="L3" s="212"/>
       <c r="M3" s="212"/>
       <c r="N3" s="212"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="354" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="307"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="307"/>
+      <c r="B4" s="354"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="354"/>
+      <c r="F4" s="354"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="355"/>
+      <c r="K4" s="354"/>
       <c r="L4" s="213"/>
       <c r="M4" s="213"/>
       <c r="N4" s="213"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="309" t="s">
+      <c r="A5" s="356" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="357" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="309" t="s">
+      <c r="C5" s="356" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="309" t="s">
+      <c r="D5" s="356" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="309"/>
-      <c r="F5" s="311" t="s">
+      <c r="E5" s="356"/>
+      <c r="F5" s="358" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="311"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="311"/>
-      <c r="J5" s="312"/>
-      <c r="K5" s="313" t="s">
+      <c r="G5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="360" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="305" t="s">
+      <c r="L5" s="352" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="305"/>
-      <c r="N5" s="305"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="352"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="309"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="309"/>
+      <c r="A6" s="356"/>
+      <c r="B6" s="357"/>
+      <c r="C6" s="356"/>
       <c r="D6" s="225" t="s">
         <v>40</v>
       </c>
@@ -6008,7 +6008,7 @@
       <c r="J6" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="313"/>
+      <c r="K6" s="360"/>
       <c r="L6" s="216" t="s">
         <v>52</v>
       </c>
@@ -6564,13 +6564,13 @@
       <c r="N29" s="221"/>
     </row>
     <row r="30" spans="1:14" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="314" t="s">
+      <c r="A30" s="351" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="314"/>
-      <c r="C30" s="314"/>
-      <c r="D30" s="314"/>
-      <c r="E30" s="314"/>
+      <c r="B30" s="351"/>
+      <c r="C30" s="351"/>
+      <c r="D30" s="351"/>
+      <c r="E30" s="351"/>
       <c r="F30" s="133"/>
       <c r="G30" s="133">
         <f>SUM(G7:G29)</f>
@@ -6687,1574 +6687,1576 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="335" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="335" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="339" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="339" customWidth="1"/>
-    <col min="5" max="34" width="2.5703125" style="335" customWidth="1"/>
-    <col min="35" max="35" width="7.42578125" style="335" customWidth="1"/>
-    <col min="36" max="38" width="2.5703125" style="335" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" style="335" customWidth="1"/>
-    <col min="40" max="40" width="19.42578125" style="339" customWidth="1"/>
-    <col min="41" max="260" width="9" style="335"/>
-    <col min="261" max="261" width="3.28515625" style="335" customWidth="1"/>
-    <col min="262" max="262" width="20" style="335" customWidth="1"/>
-    <col min="263" max="263" width="24.5703125" style="335" customWidth="1"/>
-    <col min="264" max="293" width="4.42578125" style="335" customWidth="1"/>
-    <col min="294" max="294" width="2.5703125" style="335" customWidth="1"/>
-    <col min="295" max="295" width="6.140625" style="335" customWidth="1"/>
-    <col min="296" max="296" width="19.42578125" style="335" customWidth="1"/>
-    <col min="297" max="516" width="9" style="335"/>
-    <col min="517" max="517" width="3.28515625" style="335" customWidth="1"/>
-    <col min="518" max="518" width="20" style="335" customWidth="1"/>
-    <col min="519" max="519" width="24.5703125" style="335" customWidth="1"/>
-    <col min="520" max="549" width="4.42578125" style="335" customWidth="1"/>
-    <col min="550" max="550" width="2.5703125" style="335" customWidth="1"/>
-    <col min="551" max="551" width="6.140625" style="335" customWidth="1"/>
-    <col min="552" max="552" width="19.42578125" style="335" customWidth="1"/>
-    <col min="553" max="772" width="9" style="335"/>
-    <col min="773" max="773" width="3.28515625" style="335" customWidth="1"/>
-    <col min="774" max="774" width="20" style="335" customWidth="1"/>
-    <col min="775" max="775" width="24.5703125" style="335" customWidth="1"/>
-    <col min="776" max="805" width="4.42578125" style="335" customWidth="1"/>
-    <col min="806" max="806" width="2.5703125" style="335" customWidth="1"/>
-    <col min="807" max="807" width="6.140625" style="335" customWidth="1"/>
-    <col min="808" max="808" width="19.42578125" style="335" customWidth="1"/>
-    <col min="809" max="1028" width="9" style="335"/>
-    <col min="1029" max="1029" width="3.28515625" style="335" customWidth="1"/>
-    <col min="1030" max="1030" width="20" style="335" customWidth="1"/>
-    <col min="1031" max="1031" width="24.5703125" style="335" customWidth="1"/>
-    <col min="1032" max="1061" width="4.42578125" style="335" customWidth="1"/>
-    <col min="1062" max="1062" width="2.5703125" style="335" customWidth="1"/>
-    <col min="1063" max="1063" width="6.140625" style="335" customWidth="1"/>
-    <col min="1064" max="1064" width="19.42578125" style="335" customWidth="1"/>
-    <col min="1065" max="1284" width="9" style="335"/>
-    <col min="1285" max="1285" width="3.28515625" style="335" customWidth="1"/>
-    <col min="1286" max="1286" width="20" style="335" customWidth="1"/>
-    <col min="1287" max="1287" width="24.5703125" style="335" customWidth="1"/>
-    <col min="1288" max="1317" width="4.42578125" style="335" customWidth="1"/>
-    <col min="1318" max="1318" width="2.5703125" style="335" customWidth="1"/>
-    <col min="1319" max="1319" width="6.140625" style="335" customWidth="1"/>
-    <col min="1320" max="1320" width="19.42578125" style="335" customWidth="1"/>
-    <col min="1321" max="1540" width="9" style="335"/>
-    <col min="1541" max="1541" width="3.28515625" style="335" customWidth="1"/>
-    <col min="1542" max="1542" width="20" style="335" customWidth="1"/>
-    <col min="1543" max="1543" width="24.5703125" style="335" customWidth="1"/>
-    <col min="1544" max="1573" width="4.42578125" style="335" customWidth="1"/>
-    <col min="1574" max="1574" width="2.5703125" style="335" customWidth="1"/>
-    <col min="1575" max="1575" width="6.140625" style="335" customWidth="1"/>
-    <col min="1576" max="1576" width="19.42578125" style="335" customWidth="1"/>
-    <col min="1577" max="1796" width="9" style="335"/>
-    <col min="1797" max="1797" width="3.28515625" style="335" customWidth="1"/>
-    <col min="1798" max="1798" width="20" style="335" customWidth="1"/>
-    <col min="1799" max="1799" width="24.5703125" style="335" customWidth="1"/>
-    <col min="1800" max="1829" width="4.42578125" style="335" customWidth="1"/>
-    <col min="1830" max="1830" width="2.5703125" style="335" customWidth="1"/>
-    <col min="1831" max="1831" width="6.140625" style="335" customWidth="1"/>
-    <col min="1832" max="1832" width="19.42578125" style="335" customWidth="1"/>
-    <col min="1833" max="2052" width="9" style="335"/>
-    <col min="2053" max="2053" width="3.28515625" style="335" customWidth="1"/>
-    <col min="2054" max="2054" width="20" style="335" customWidth="1"/>
-    <col min="2055" max="2055" width="24.5703125" style="335" customWidth="1"/>
-    <col min="2056" max="2085" width="4.42578125" style="335" customWidth="1"/>
-    <col min="2086" max="2086" width="2.5703125" style="335" customWidth="1"/>
-    <col min="2087" max="2087" width="6.140625" style="335" customWidth="1"/>
-    <col min="2088" max="2088" width="19.42578125" style="335" customWidth="1"/>
-    <col min="2089" max="2308" width="9" style="335"/>
-    <col min="2309" max="2309" width="3.28515625" style="335" customWidth="1"/>
-    <col min="2310" max="2310" width="20" style="335" customWidth="1"/>
-    <col min="2311" max="2311" width="24.5703125" style="335" customWidth="1"/>
-    <col min="2312" max="2341" width="4.42578125" style="335" customWidth="1"/>
-    <col min="2342" max="2342" width="2.5703125" style="335" customWidth="1"/>
-    <col min="2343" max="2343" width="6.140625" style="335" customWidth="1"/>
-    <col min="2344" max="2344" width="19.42578125" style="335" customWidth="1"/>
-    <col min="2345" max="2564" width="9" style="335"/>
-    <col min="2565" max="2565" width="3.28515625" style="335" customWidth="1"/>
-    <col min="2566" max="2566" width="20" style="335" customWidth="1"/>
-    <col min="2567" max="2567" width="24.5703125" style="335" customWidth="1"/>
-    <col min="2568" max="2597" width="4.42578125" style="335" customWidth="1"/>
-    <col min="2598" max="2598" width="2.5703125" style="335" customWidth="1"/>
-    <col min="2599" max="2599" width="6.140625" style="335" customWidth="1"/>
-    <col min="2600" max="2600" width="19.42578125" style="335" customWidth="1"/>
-    <col min="2601" max="2820" width="9" style="335"/>
-    <col min="2821" max="2821" width="3.28515625" style="335" customWidth="1"/>
-    <col min="2822" max="2822" width="20" style="335" customWidth="1"/>
-    <col min="2823" max="2823" width="24.5703125" style="335" customWidth="1"/>
-    <col min="2824" max="2853" width="4.42578125" style="335" customWidth="1"/>
-    <col min="2854" max="2854" width="2.5703125" style="335" customWidth="1"/>
-    <col min="2855" max="2855" width="6.140625" style="335" customWidth="1"/>
-    <col min="2856" max="2856" width="19.42578125" style="335" customWidth="1"/>
-    <col min="2857" max="3076" width="9" style="335"/>
-    <col min="3077" max="3077" width="3.28515625" style="335" customWidth="1"/>
-    <col min="3078" max="3078" width="20" style="335" customWidth="1"/>
-    <col min="3079" max="3079" width="24.5703125" style="335" customWidth="1"/>
-    <col min="3080" max="3109" width="4.42578125" style="335" customWidth="1"/>
-    <col min="3110" max="3110" width="2.5703125" style="335" customWidth="1"/>
-    <col min="3111" max="3111" width="6.140625" style="335" customWidth="1"/>
-    <col min="3112" max="3112" width="19.42578125" style="335" customWidth="1"/>
-    <col min="3113" max="3332" width="9" style="335"/>
-    <col min="3333" max="3333" width="3.28515625" style="335" customWidth="1"/>
-    <col min="3334" max="3334" width="20" style="335" customWidth="1"/>
-    <col min="3335" max="3335" width="24.5703125" style="335" customWidth="1"/>
-    <col min="3336" max="3365" width="4.42578125" style="335" customWidth="1"/>
-    <col min="3366" max="3366" width="2.5703125" style="335" customWidth="1"/>
-    <col min="3367" max="3367" width="6.140625" style="335" customWidth="1"/>
-    <col min="3368" max="3368" width="19.42578125" style="335" customWidth="1"/>
-    <col min="3369" max="3588" width="9" style="335"/>
-    <col min="3589" max="3589" width="3.28515625" style="335" customWidth="1"/>
-    <col min="3590" max="3590" width="20" style="335" customWidth="1"/>
-    <col min="3591" max="3591" width="24.5703125" style="335" customWidth="1"/>
-    <col min="3592" max="3621" width="4.42578125" style="335" customWidth="1"/>
-    <col min="3622" max="3622" width="2.5703125" style="335" customWidth="1"/>
-    <col min="3623" max="3623" width="6.140625" style="335" customWidth="1"/>
-    <col min="3624" max="3624" width="19.42578125" style="335" customWidth="1"/>
-    <col min="3625" max="3844" width="9" style="335"/>
-    <col min="3845" max="3845" width="3.28515625" style="335" customWidth="1"/>
-    <col min="3846" max="3846" width="20" style="335" customWidth="1"/>
-    <col min="3847" max="3847" width="24.5703125" style="335" customWidth="1"/>
-    <col min="3848" max="3877" width="4.42578125" style="335" customWidth="1"/>
-    <col min="3878" max="3878" width="2.5703125" style="335" customWidth="1"/>
-    <col min="3879" max="3879" width="6.140625" style="335" customWidth="1"/>
-    <col min="3880" max="3880" width="19.42578125" style="335" customWidth="1"/>
-    <col min="3881" max="4100" width="9" style="335"/>
-    <col min="4101" max="4101" width="3.28515625" style="335" customWidth="1"/>
-    <col min="4102" max="4102" width="20" style="335" customWidth="1"/>
-    <col min="4103" max="4103" width="24.5703125" style="335" customWidth="1"/>
-    <col min="4104" max="4133" width="4.42578125" style="335" customWidth="1"/>
-    <col min="4134" max="4134" width="2.5703125" style="335" customWidth="1"/>
-    <col min="4135" max="4135" width="6.140625" style="335" customWidth="1"/>
-    <col min="4136" max="4136" width="19.42578125" style="335" customWidth="1"/>
-    <col min="4137" max="4356" width="9" style="335"/>
-    <col min="4357" max="4357" width="3.28515625" style="335" customWidth="1"/>
-    <col min="4358" max="4358" width="20" style="335" customWidth="1"/>
-    <col min="4359" max="4359" width="24.5703125" style="335" customWidth="1"/>
-    <col min="4360" max="4389" width="4.42578125" style="335" customWidth="1"/>
-    <col min="4390" max="4390" width="2.5703125" style="335" customWidth="1"/>
-    <col min="4391" max="4391" width="6.140625" style="335" customWidth="1"/>
-    <col min="4392" max="4392" width="19.42578125" style="335" customWidth="1"/>
-    <col min="4393" max="4612" width="9" style="335"/>
-    <col min="4613" max="4613" width="3.28515625" style="335" customWidth="1"/>
-    <col min="4614" max="4614" width="20" style="335" customWidth="1"/>
-    <col min="4615" max="4615" width="24.5703125" style="335" customWidth="1"/>
-    <col min="4616" max="4645" width="4.42578125" style="335" customWidth="1"/>
-    <col min="4646" max="4646" width="2.5703125" style="335" customWidth="1"/>
-    <col min="4647" max="4647" width="6.140625" style="335" customWidth="1"/>
-    <col min="4648" max="4648" width="19.42578125" style="335" customWidth="1"/>
-    <col min="4649" max="4868" width="9" style="335"/>
-    <col min="4869" max="4869" width="3.28515625" style="335" customWidth="1"/>
-    <col min="4870" max="4870" width="20" style="335" customWidth="1"/>
-    <col min="4871" max="4871" width="24.5703125" style="335" customWidth="1"/>
-    <col min="4872" max="4901" width="4.42578125" style="335" customWidth="1"/>
-    <col min="4902" max="4902" width="2.5703125" style="335" customWidth="1"/>
-    <col min="4903" max="4903" width="6.140625" style="335" customWidth="1"/>
-    <col min="4904" max="4904" width="19.42578125" style="335" customWidth="1"/>
-    <col min="4905" max="5124" width="9" style="335"/>
-    <col min="5125" max="5125" width="3.28515625" style="335" customWidth="1"/>
-    <col min="5126" max="5126" width="20" style="335" customWidth="1"/>
-    <col min="5127" max="5127" width="24.5703125" style="335" customWidth="1"/>
-    <col min="5128" max="5157" width="4.42578125" style="335" customWidth="1"/>
-    <col min="5158" max="5158" width="2.5703125" style="335" customWidth="1"/>
-    <col min="5159" max="5159" width="6.140625" style="335" customWidth="1"/>
-    <col min="5160" max="5160" width="19.42578125" style="335" customWidth="1"/>
-    <col min="5161" max="5380" width="9" style="335"/>
-    <col min="5381" max="5381" width="3.28515625" style="335" customWidth="1"/>
-    <col min="5382" max="5382" width="20" style="335" customWidth="1"/>
-    <col min="5383" max="5383" width="24.5703125" style="335" customWidth="1"/>
-    <col min="5384" max="5413" width="4.42578125" style="335" customWidth="1"/>
-    <col min="5414" max="5414" width="2.5703125" style="335" customWidth="1"/>
-    <col min="5415" max="5415" width="6.140625" style="335" customWidth="1"/>
-    <col min="5416" max="5416" width="19.42578125" style="335" customWidth="1"/>
-    <col min="5417" max="5636" width="9" style="335"/>
-    <col min="5637" max="5637" width="3.28515625" style="335" customWidth="1"/>
-    <col min="5638" max="5638" width="20" style="335" customWidth="1"/>
-    <col min="5639" max="5639" width="24.5703125" style="335" customWidth="1"/>
-    <col min="5640" max="5669" width="4.42578125" style="335" customWidth="1"/>
-    <col min="5670" max="5670" width="2.5703125" style="335" customWidth="1"/>
-    <col min="5671" max="5671" width="6.140625" style="335" customWidth="1"/>
-    <col min="5672" max="5672" width="19.42578125" style="335" customWidth="1"/>
-    <col min="5673" max="5892" width="9" style="335"/>
-    <col min="5893" max="5893" width="3.28515625" style="335" customWidth="1"/>
-    <col min="5894" max="5894" width="20" style="335" customWidth="1"/>
-    <col min="5895" max="5895" width="24.5703125" style="335" customWidth="1"/>
-    <col min="5896" max="5925" width="4.42578125" style="335" customWidth="1"/>
-    <col min="5926" max="5926" width="2.5703125" style="335" customWidth="1"/>
-    <col min="5927" max="5927" width="6.140625" style="335" customWidth="1"/>
-    <col min="5928" max="5928" width="19.42578125" style="335" customWidth="1"/>
-    <col min="5929" max="6148" width="9" style="335"/>
-    <col min="6149" max="6149" width="3.28515625" style="335" customWidth="1"/>
-    <col min="6150" max="6150" width="20" style="335" customWidth="1"/>
-    <col min="6151" max="6151" width="24.5703125" style="335" customWidth="1"/>
-    <col min="6152" max="6181" width="4.42578125" style="335" customWidth="1"/>
-    <col min="6182" max="6182" width="2.5703125" style="335" customWidth="1"/>
-    <col min="6183" max="6183" width="6.140625" style="335" customWidth="1"/>
-    <col min="6184" max="6184" width="19.42578125" style="335" customWidth="1"/>
-    <col min="6185" max="6404" width="9" style="335"/>
-    <col min="6405" max="6405" width="3.28515625" style="335" customWidth="1"/>
-    <col min="6406" max="6406" width="20" style="335" customWidth="1"/>
-    <col min="6407" max="6407" width="24.5703125" style="335" customWidth="1"/>
-    <col min="6408" max="6437" width="4.42578125" style="335" customWidth="1"/>
-    <col min="6438" max="6438" width="2.5703125" style="335" customWidth="1"/>
-    <col min="6439" max="6439" width="6.140625" style="335" customWidth="1"/>
-    <col min="6440" max="6440" width="19.42578125" style="335" customWidth="1"/>
-    <col min="6441" max="6660" width="9" style="335"/>
-    <col min="6661" max="6661" width="3.28515625" style="335" customWidth="1"/>
-    <col min="6662" max="6662" width="20" style="335" customWidth="1"/>
-    <col min="6663" max="6663" width="24.5703125" style="335" customWidth="1"/>
-    <col min="6664" max="6693" width="4.42578125" style="335" customWidth="1"/>
-    <col min="6694" max="6694" width="2.5703125" style="335" customWidth="1"/>
-    <col min="6695" max="6695" width="6.140625" style="335" customWidth="1"/>
-    <col min="6696" max="6696" width="19.42578125" style="335" customWidth="1"/>
-    <col min="6697" max="6916" width="9" style="335"/>
-    <col min="6917" max="6917" width="3.28515625" style="335" customWidth="1"/>
-    <col min="6918" max="6918" width="20" style="335" customWidth="1"/>
-    <col min="6919" max="6919" width="24.5703125" style="335" customWidth="1"/>
-    <col min="6920" max="6949" width="4.42578125" style="335" customWidth="1"/>
-    <col min="6950" max="6950" width="2.5703125" style="335" customWidth="1"/>
-    <col min="6951" max="6951" width="6.140625" style="335" customWidth="1"/>
-    <col min="6952" max="6952" width="19.42578125" style="335" customWidth="1"/>
-    <col min="6953" max="7172" width="9" style="335"/>
-    <col min="7173" max="7173" width="3.28515625" style="335" customWidth="1"/>
-    <col min="7174" max="7174" width="20" style="335" customWidth="1"/>
-    <col min="7175" max="7175" width="24.5703125" style="335" customWidth="1"/>
-    <col min="7176" max="7205" width="4.42578125" style="335" customWidth="1"/>
-    <col min="7206" max="7206" width="2.5703125" style="335" customWidth="1"/>
-    <col min="7207" max="7207" width="6.140625" style="335" customWidth="1"/>
-    <col min="7208" max="7208" width="19.42578125" style="335" customWidth="1"/>
-    <col min="7209" max="7428" width="9" style="335"/>
-    <col min="7429" max="7429" width="3.28515625" style="335" customWidth="1"/>
-    <col min="7430" max="7430" width="20" style="335" customWidth="1"/>
-    <col min="7431" max="7431" width="24.5703125" style="335" customWidth="1"/>
-    <col min="7432" max="7461" width="4.42578125" style="335" customWidth="1"/>
-    <col min="7462" max="7462" width="2.5703125" style="335" customWidth="1"/>
-    <col min="7463" max="7463" width="6.140625" style="335" customWidth="1"/>
-    <col min="7464" max="7464" width="19.42578125" style="335" customWidth="1"/>
-    <col min="7465" max="7684" width="9" style="335"/>
-    <col min="7685" max="7685" width="3.28515625" style="335" customWidth="1"/>
-    <col min="7686" max="7686" width="20" style="335" customWidth="1"/>
-    <col min="7687" max="7687" width="24.5703125" style="335" customWidth="1"/>
-    <col min="7688" max="7717" width="4.42578125" style="335" customWidth="1"/>
-    <col min="7718" max="7718" width="2.5703125" style="335" customWidth="1"/>
-    <col min="7719" max="7719" width="6.140625" style="335" customWidth="1"/>
-    <col min="7720" max="7720" width="19.42578125" style="335" customWidth="1"/>
-    <col min="7721" max="7940" width="9" style="335"/>
-    <col min="7941" max="7941" width="3.28515625" style="335" customWidth="1"/>
-    <col min="7942" max="7942" width="20" style="335" customWidth="1"/>
-    <col min="7943" max="7943" width="24.5703125" style="335" customWidth="1"/>
-    <col min="7944" max="7973" width="4.42578125" style="335" customWidth="1"/>
-    <col min="7974" max="7974" width="2.5703125" style="335" customWidth="1"/>
-    <col min="7975" max="7975" width="6.140625" style="335" customWidth="1"/>
-    <col min="7976" max="7976" width="19.42578125" style="335" customWidth="1"/>
-    <col min="7977" max="8196" width="9" style="335"/>
-    <col min="8197" max="8197" width="3.28515625" style="335" customWidth="1"/>
-    <col min="8198" max="8198" width="20" style="335" customWidth="1"/>
-    <col min="8199" max="8199" width="24.5703125" style="335" customWidth="1"/>
-    <col min="8200" max="8229" width="4.42578125" style="335" customWidth="1"/>
-    <col min="8230" max="8230" width="2.5703125" style="335" customWidth="1"/>
-    <col min="8231" max="8231" width="6.140625" style="335" customWidth="1"/>
-    <col min="8232" max="8232" width="19.42578125" style="335" customWidth="1"/>
-    <col min="8233" max="8452" width="9" style="335"/>
-    <col min="8453" max="8453" width="3.28515625" style="335" customWidth="1"/>
-    <col min="8454" max="8454" width="20" style="335" customWidth="1"/>
-    <col min="8455" max="8455" width="24.5703125" style="335" customWidth="1"/>
-    <col min="8456" max="8485" width="4.42578125" style="335" customWidth="1"/>
-    <col min="8486" max="8486" width="2.5703125" style="335" customWidth="1"/>
-    <col min="8487" max="8487" width="6.140625" style="335" customWidth="1"/>
-    <col min="8488" max="8488" width="19.42578125" style="335" customWidth="1"/>
-    <col min="8489" max="8708" width="9" style="335"/>
-    <col min="8709" max="8709" width="3.28515625" style="335" customWidth="1"/>
-    <col min="8710" max="8710" width="20" style="335" customWidth="1"/>
-    <col min="8711" max="8711" width="24.5703125" style="335" customWidth="1"/>
-    <col min="8712" max="8741" width="4.42578125" style="335" customWidth="1"/>
-    <col min="8742" max="8742" width="2.5703125" style="335" customWidth="1"/>
-    <col min="8743" max="8743" width="6.140625" style="335" customWidth="1"/>
-    <col min="8744" max="8744" width="19.42578125" style="335" customWidth="1"/>
-    <col min="8745" max="8964" width="9" style="335"/>
-    <col min="8965" max="8965" width="3.28515625" style="335" customWidth="1"/>
-    <col min="8966" max="8966" width="20" style="335" customWidth="1"/>
-    <col min="8967" max="8967" width="24.5703125" style="335" customWidth="1"/>
-    <col min="8968" max="8997" width="4.42578125" style="335" customWidth="1"/>
-    <col min="8998" max="8998" width="2.5703125" style="335" customWidth="1"/>
-    <col min="8999" max="8999" width="6.140625" style="335" customWidth="1"/>
-    <col min="9000" max="9000" width="19.42578125" style="335" customWidth="1"/>
-    <col min="9001" max="9220" width="9" style="335"/>
-    <col min="9221" max="9221" width="3.28515625" style="335" customWidth="1"/>
-    <col min="9222" max="9222" width="20" style="335" customWidth="1"/>
-    <col min="9223" max="9223" width="24.5703125" style="335" customWidth="1"/>
-    <col min="9224" max="9253" width="4.42578125" style="335" customWidth="1"/>
-    <col min="9254" max="9254" width="2.5703125" style="335" customWidth="1"/>
-    <col min="9255" max="9255" width="6.140625" style="335" customWidth="1"/>
-    <col min="9256" max="9256" width="19.42578125" style="335" customWidth="1"/>
-    <col min="9257" max="9476" width="9" style="335"/>
-    <col min="9477" max="9477" width="3.28515625" style="335" customWidth="1"/>
-    <col min="9478" max="9478" width="20" style="335" customWidth="1"/>
-    <col min="9479" max="9479" width="24.5703125" style="335" customWidth="1"/>
-    <col min="9480" max="9509" width="4.42578125" style="335" customWidth="1"/>
-    <col min="9510" max="9510" width="2.5703125" style="335" customWidth="1"/>
-    <col min="9511" max="9511" width="6.140625" style="335" customWidth="1"/>
-    <col min="9512" max="9512" width="19.42578125" style="335" customWidth="1"/>
-    <col min="9513" max="9732" width="9" style="335"/>
-    <col min="9733" max="9733" width="3.28515625" style="335" customWidth="1"/>
-    <col min="9734" max="9734" width="20" style="335" customWidth="1"/>
-    <col min="9735" max="9735" width="24.5703125" style="335" customWidth="1"/>
-    <col min="9736" max="9765" width="4.42578125" style="335" customWidth="1"/>
-    <col min="9766" max="9766" width="2.5703125" style="335" customWidth="1"/>
-    <col min="9767" max="9767" width="6.140625" style="335" customWidth="1"/>
-    <col min="9768" max="9768" width="19.42578125" style="335" customWidth="1"/>
-    <col min="9769" max="9988" width="9" style="335"/>
-    <col min="9989" max="9989" width="3.28515625" style="335" customWidth="1"/>
-    <col min="9990" max="9990" width="20" style="335" customWidth="1"/>
-    <col min="9991" max="9991" width="24.5703125" style="335" customWidth="1"/>
-    <col min="9992" max="10021" width="4.42578125" style="335" customWidth="1"/>
-    <col min="10022" max="10022" width="2.5703125" style="335" customWidth="1"/>
-    <col min="10023" max="10023" width="6.140625" style="335" customWidth="1"/>
-    <col min="10024" max="10024" width="19.42578125" style="335" customWidth="1"/>
-    <col min="10025" max="10244" width="9" style="335"/>
-    <col min="10245" max="10245" width="3.28515625" style="335" customWidth="1"/>
-    <col min="10246" max="10246" width="20" style="335" customWidth="1"/>
-    <col min="10247" max="10247" width="24.5703125" style="335" customWidth="1"/>
-    <col min="10248" max="10277" width="4.42578125" style="335" customWidth="1"/>
-    <col min="10278" max="10278" width="2.5703125" style="335" customWidth="1"/>
-    <col min="10279" max="10279" width="6.140625" style="335" customWidth="1"/>
-    <col min="10280" max="10280" width="19.42578125" style="335" customWidth="1"/>
-    <col min="10281" max="10500" width="9" style="335"/>
-    <col min="10501" max="10501" width="3.28515625" style="335" customWidth="1"/>
-    <col min="10502" max="10502" width="20" style="335" customWidth="1"/>
-    <col min="10503" max="10503" width="24.5703125" style="335" customWidth="1"/>
-    <col min="10504" max="10533" width="4.42578125" style="335" customWidth="1"/>
-    <col min="10534" max="10534" width="2.5703125" style="335" customWidth="1"/>
-    <col min="10535" max="10535" width="6.140625" style="335" customWidth="1"/>
-    <col min="10536" max="10536" width="19.42578125" style="335" customWidth="1"/>
-    <col min="10537" max="10756" width="9" style="335"/>
-    <col min="10757" max="10757" width="3.28515625" style="335" customWidth="1"/>
-    <col min="10758" max="10758" width="20" style="335" customWidth="1"/>
-    <col min="10759" max="10759" width="24.5703125" style="335" customWidth="1"/>
-    <col min="10760" max="10789" width="4.42578125" style="335" customWidth="1"/>
-    <col min="10790" max="10790" width="2.5703125" style="335" customWidth="1"/>
-    <col min="10791" max="10791" width="6.140625" style="335" customWidth="1"/>
-    <col min="10792" max="10792" width="19.42578125" style="335" customWidth="1"/>
-    <col min="10793" max="11012" width="9" style="335"/>
-    <col min="11013" max="11013" width="3.28515625" style="335" customWidth="1"/>
-    <col min="11014" max="11014" width="20" style="335" customWidth="1"/>
-    <col min="11015" max="11015" width="24.5703125" style="335" customWidth="1"/>
-    <col min="11016" max="11045" width="4.42578125" style="335" customWidth="1"/>
-    <col min="11046" max="11046" width="2.5703125" style="335" customWidth="1"/>
-    <col min="11047" max="11047" width="6.140625" style="335" customWidth="1"/>
-    <col min="11048" max="11048" width="19.42578125" style="335" customWidth="1"/>
-    <col min="11049" max="11268" width="9" style="335"/>
-    <col min="11269" max="11269" width="3.28515625" style="335" customWidth="1"/>
-    <col min="11270" max="11270" width="20" style="335" customWidth="1"/>
-    <col min="11271" max="11271" width="24.5703125" style="335" customWidth="1"/>
-    <col min="11272" max="11301" width="4.42578125" style="335" customWidth="1"/>
-    <col min="11302" max="11302" width="2.5703125" style="335" customWidth="1"/>
-    <col min="11303" max="11303" width="6.140625" style="335" customWidth="1"/>
-    <col min="11304" max="11304" width="19.42578125" style="335" customWidth="1"/>
-    <col min="11305" max="11524" width="9" style="335"/>
-    <col min="11525" max="11525" width="3.28515625" style="335" customWidth="1"/>
-    <col min="11526" max="11526" width="20" style="335" customWidth="1"/>
-    <col min="11527" max="11527" width="24.5703125" style="335" customWidth="1"/>
-    <col min="11528" max="11557" width="4.42578125" style="335" customWidth="1"/>
-    <col min="11558" max="11558" width="2.5703125" style="335" customWidth="1"/>
-    <col min="11559" max="11559" width="6.140625" style="335" customWidth="1"/>
-    <col min="11560" max="11560" width="19.42578125" style="335" customWidth="1"/>
-    <col min="11561" max="11780" width="9" style="335"/>
-    <col min="11781" max="11781" width="3.28515625" style="335" customWidth="1"/>
-    <col min="11782" max="11782" width="20" style="335" customWidth="1"/>
-    <col min="11783" max="11783" width="24.5703125" style="335" customWidth="1"/>
-    <col min="11784" max="11813" width="4.42578125" style="335" customWidth="1"/>
-    <col min="11814" max="11814" width="2.5703125" style="335" customWidth="1"/>
-    <col min="11815" max="11815" width="6.140625" style="335" customWidth="1"/>
-    <col min="11816" max="11816" width="19.42578125" style="335" customWidth="1"/>
-    <col min="11817" max="12036" width="9" style="335"/>
-    <col min="12037" max="12037" width="3.28515625" style="335" customWidth="1"/>
-    <col min="12038" max="12038" width="20" style="335" customWidth="1"/>
-    <col min="12039" max="12039" width="24.5703125" style="335" customWidth="1"/>
-    <col min="12040" max="12069" width="4.42578125" style="335" customWidth="1"/>
-    <col min="12070" max="12070" width="2.5703125" style="335" customWidth="1"/>
-    <col min="12071" max="12071" width="6.140625" style="335" customWidth="1"/>
-    <col min="12072" max="12072" width="19.42578125" style="335" customWidth="1"/>
-    <col min="12073" max="12292" width="9" style="335"/>
-    <col min="12293" max="12293" width="3.28515625" style="335" customWidth="1"/>
-    <col min="12294" max="12294" width="20" style="335" customWidth="1"/>
-    <col min="12295" max="12295" width="24.5703125" style="335" customWidth="1"/>
-    <col min="12296" max="12325" width="4.42578125" style="335" customWidth="1"/>
-    <col min="12326" max="12326" width="2.5703125" style="335" customWidth="1"/>
-    <col min="12327" max="12327" width="6.140625" style="335" customWidth="1"/>
-    <col min="12328" max="12328" width="19.42578125" style="335" customWidth="1"/>
-    <col min="12329" max="12548" width="9" style="335"/>
-    <col min="12549" max="12549" width="3.28515625" style="335" customWidth="1"/>
-    <col min="12550" max="12550" width="20" style="335" customWidth="1"/>
-    <col min="12551" max="12551" width="24.5703125" style="335" customWidth="1"/>
-    <col min="12552" max="12581" width="4.42578125" style="335" customWidth="1"/>
-    <col min="12582" max="12582" width="2.5703125" style="335" customWidth="1"/>
-    <col min="12583" max="12583" width="6.140625" style="335" customWidth="1"/>
-    <col min="12584" max="12584" width="19.42578125" style="335" customWidth="1"/>
-    <col min="12585" max="12804" width="9" style="335"/>
-    <col min="12805" max="12805" width="3.28515625" style="335" customWidth="1"/>
-    <col min="12806" max="12806" width="20" style="335" customWidth="1"/>
-    <col min="12807" max="12807" width="24.5703125" style="335" customWidth="1"/>
-    <col min="12808" max="12837" width="4.42578125" style="335" customWidth="1"/>
-    <col min="12838" max="12838" width="2.5703125" style="335" customWidth="1"/>
-    <col min="12839" max="12839" width="6.140625" style="335" customWidth="1"/>
-    <col min="12840" max="12840" width="19.42578125" style="335" customWidth="1"/>
-    <col min="12841" max="13060" width="9" style="335"/>
-    <col min="13061" max="13061" width="3.28515625" style="335" customWidth="1"/>
-    <col min="13062" max="13062" width="20" style="335" customWidth="1"/>
-    <col min="13063" max="13063" width="24.5703125" style="335" customWidth="1"/>
-    <col min="13064" max="13093" width="4.42578125" style="335" customWidth="1"/>
-    <col min="13094" max="13094" width="2.5703125" style="335" customWidth="1"/>
-    <col min="13095" max="13095" width="6.140625" style="335" customWidth="1"/>
-    <col min="13096" max="13096" width="19.42578125" style="335" customWidth="1"/>
-    <col min="13097" max="13316" width="9" style="335"/>
-    <col min="13317" max="13317" width="3.28515625" style="335" customWidth="1"/>
-    <col min="13318" max="13318" width="20" style="335" customWidth="1"/>
-    <col min="13319" max="13319" width="24.5703125" style="335" customWidth="1"/>
-    <col min="13320" max="13349" width="4.42578125" style="335" customWidth="1"/>
-    <col min="13350" max="13350" width="2.5703125" style="335" customWidth="1"/>
-    <col min="13351" max="13351" width="6.140625" style="335" customWidth="1"/>
-    <col min="13352" max="13352" width="19.42578125" style="335" customWidth="1"/>
-    <col min="13353" max="13572" width="9" style="335"/>
-    <col min="13573" max="13573" width="3.28515625" style="335" customWidth="1"/>
-    <col min="13574" max="13574" width="20" style="335" customWidth="1"/>
-    <col min="13575" max="13575" width="24.5703125" style="335" customWidth="1"/>
-    <col min="13576" max="13605" width="4.42578125" style="335" customWidth="1"/>
-    <col min="13606" max="13606" width="2.5703125" style="335" customWidth="1"/>
-    <col min="13607" max="13607" width="6.140625" style="335" customWidth="1"/>
-    <col min="13608" max="13608" width="19.42578125" style="335" customWidth="1"/>
-    <col min="13609" max="13828" width="9" style="335"/>
-    <col min="13829" max="13829" width="3.28515625" style="335" customWidth="1"/>
-    <col min="13830" max="13830" width="20" style="335" customWidth="1"/>
-    <col min="13831" max="13831" width="24.5703125" style="335" customWidth="1"/>
-    <col min="13832" max="13861" width="4.42578125" style="335" customWidth="1"/>
-    <col min="13862" max="13862" width="2.5703125" style="335" customWidth="1"/>
-    <col min="13863" max="13863" width="6.140625" style="335" customWidth="1"/>
-    <col min="13864" max="13864" width="19.42578125" style="335" customWidth="1"/>
-    <col min="13865" max="14084" width="9" style="335"/>
-    <col min="14085" max="14085" width="3.28515625" style="335" customWidth="1"/>
-    <col min="14086" max="14086" width="20" style="335" customWidth="1"/>
-    <col min="14087" max="14087" width="24.5703125" style="335" customWidth="1"/>
-    <col min="14088" max="14117" width="4.42578125" style="335" customWidth="1"/>
-    <col min="14118" max="14118" width="2.5703125" style="335" customWidth="1"/>
-    <col min="14119" max="14119" width="6.140625" style="335" customWidth="1"/>
-    <col min="14120" max="14120" width="19.42578125" style="335" customWidth="1"/>
-    <col min="14121" max="14340" width="9" style="335"/>
-    <col min="14341" max="14341" width="3.28515625" style="335" customWidth="1"/>
-    <col min="14342" max="14342" width="20" style="335" customWidth="1"/>
-    <col min="14343" max="14343" width="24.5703125" style="335" customWidth="1"/>
-    <col min="14344" max="14373" width="4.42578125" style="335" customWidth="1"/>
-    <col min="14374" max="14374" width="2.5703125" style="335" customWidth="1"/>
-    <col min="14375" max="14375" width="6.140625" style="335" customWidth="1"/>
-    <col min="14376" max="14376" width="19.42578125" style="335" customWidth="1"/>
-    <col min="14377" max="14596" width="9" style="335"/>
-    <col min="14597" max="14597" width="3.28515625" style="335" customWidth="1"/>
-    <col min="14598" max="14598" width="20" style="335" customWidth="1"/>
-    <col min="14599" max="14599" width="24.5703125" style="335" customWidth="1"/>
-    <col min="14600" max="14629" width="4.42578125" style="335" customWidth="1"/>
-    <col min="14630" max="14630" width="2.5703125" style="335" customWidth="1"/>
-    <col min="14631" max="14631" width="6.140625" style="335" customWidth="1"/>
-    <col min="14632" max="14632" width="19.42578125" style="335" customWidth="1"/>
-    <col min="14633" max="14852" width="9" style="335"/>
-    <col min="14853" max="14853" width="3.28515625" style="335" customWidth="1"/>
-    <col min="14854" max="14854" width="20" style="335" customWidth="1"/>
-    <col min="14855" max="14855" width="24.5703125" style="335" customWidth="1"/>
-    <col min="14856" max="14885" width="4.42578125" style="335" customWidth="1"/>
-    <col min="14886" max="14886" width="2.5703125" style="335" customWidth="1"/>
-    <col min="14887" max="14887" width="6.140625" style="335" customWidth="1"/>
-    <col min="14888" max="14888" width="19.42578125" style="335" customWidth="1"/>
-    <col min="14889" max="15108" width="9" style="335"/>
-    <col min="15109" max="15109" width="3.28515625" style="335" customWidth="1"/>
-    <col min="15110" max="15110" width="20" style="335" customWidth="1"/>
-    <col min="15111" max="15111" width="24.5703125" style="335" customWidth="1"/>
-    <col min="15112" max="15141" width="4.42578125" style="335" customWidth="1"/>
-    <col min="15142" max="15142" width="2.5703125" style="335" customWidth="1"/>
-    <col min="15143" max="15143" width="6.140625" style="335" customWidth="1"/>
-    <col min="15144" max="15144" width="19.42578125" style="335" customWidth="1"/>
-    <col min="15145" max="15364" width="9" style="335"/>
-    <col min="15365" max="15365" width="3.28515625" style="335" customWidth="1"/>
-    <col min="15366" max="15366" width="20" style="335" customWidth="1"/>
-    <col min="15367" max="15367" width="24.5703125" style="335" customWidth="1"/>
-    <col min="15368" max="15397" width="4.42578125" style="335" customWidth="1"/>
-    <col min="15398" max="15398" width="2.5703125" style="335" customWidth="1"/>
-    <col min="15399" max="15399" width="6.140625" style="335" customWidth="1"/>
-    <col min="15400" max="15400" width="19.42578125" style="335" customWidth="1"/>
-    <col min="15401" max="15620" width="9" style="335"/>
-    <col min="15621" max="15621" width="3.28515625" style="335" customWidth="1"/>
-    <col min="15622" max="15622" width="20" style="335" customWidth="1"/>
-    <col min="15623" max="15623" width="24.5703125" style="335" customWidth="1"/>
-    <col min="15624" max="15653" width="4.42578125" style="335" customWidth="1"/>
-    <col min="15654" max="15654" width="2.5703125" style="335" customWidth="1"/>
-    <col min="15655" max="15655" width="6.140625" style="335" customWidth="1"/>
-    <col min="15656" max="15656" width="19.42578125" style="335" customWidth="1"/>
-    <col min="15657" max="15876" width="9" style="335"/>
-    <col min="15877" max="15877" width="3.28515625" style="335" customWidth="1"/>
-    <col min="15878" max="15878" width="20" style="335" customWidth="1"/>
-    <col min="15879" max="15879" width="24.5703125" style="335" customWidth="1"/>
-    <col min="15880" max="15909" width="4.42578125" style="335" customWidth="1"/>
-    <col min="15910" max="15910" width="2.5703125" style="335" customWidth="1"/>
-    <col min="15911" max="15911" width="6.140625" style="335" customWidth="1"/>
-    <col min="15912" max="15912" width="19.42578125" style="335" customWidth="1"/>
-    <col min="15913" max="16132" width="9" style="335"/>
-    <col min="16133" max="16133" width="3.28515625" style="335" customWidth="1"/>
-    <col min="16134" max="16134" width="20" style="335" customWidth="1"/>
-    <col min="16135" max="16135" width="24.5703125" style="335" customWidth="1"/>
-    <col min="16136" max="16165" width="4.42578125" style="335" customWidth="1"/>
-    <col min="16166" max="16166" width="2.5703125" style="335" customWidth="1"/>
-    <col min="16167" max="16167" width="6.140625" style="335" customWidth="1"/>
-    <col min="16168" max="16168" width="19.42578125" style="335" customWidth="1"/>
-    <col min="16169" max="16384" width="9" style="335"/>
+    <col min="1" max="1" width="2.5703125" style="271" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="271" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="272" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="272" customWidth="1"/>
+    <col min="5" max="34" width="2.5703125" style="271" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" style="271" customWidth="1"/>
+    <col min="36" max="38" width="2.5703125" style="271" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="271" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" style="272" customWidth="1"/>
+    <col min="41" max="260" width="9" style="271"/>
+    <col min="261" max="261" width="3.28515625" style="271" customWidth="1"/>
+    <col min="262" max="262" width="20" style="271" customWidth="1"/>
+    <col min="263" max="263" width="24.5703125" style="271" customWidth="1"/>
+    <col min="264" max="293" width="4.42578125" style="271" customWidth="1"/>
+    <col min="294" max="294" width="2.5703125" style="271" customWidth="1"/>
+    <col min="295" max="295" width="6.140625" style="271" customWidth="1"/>
+    <col min="296" max="296" width="19.42578125" style="271" customWidth="1"/>
+    <col min="297" max="516" width="9" style="271"/>
+    <col min="517" max="517" width="3.28515625" style="271" customWidth="1"/>
+    <col min="518" max="518" width="20" style="271" customWidth="1"/>
+    <col min="519" max="519" width="24.5703125" style="271" customWidth="1"/>
+    <col min="520" max="549" width="4.42578125" style="271" customWidth="1"/>
+    <col min="550" max="550" width="2.5703125" style="271" customWidth="1"/>
+    <col min="551" max="551" width="6.140625" style="271" customWidth="1"/>
+    <col min="552" max="552" width="19.42578125" style="271" customWidth="1"/>
+    <col min="553" max="772" width="9" style="271"/>
+    <col min="773" max="773" width="3.28515625" style="271" customWidth="1"/>
+    <col min="774" max="774" width="20" style="271" customWidth="1"/>
+    <col min="775" max="775" width="24.5703125" style="271" customWidth="1"/>
+    <col min="776" max="805" width="4.42578125" style="271" customWidth="1"/>
+    <col min="806" max="806" width="2.5703125" style="271" customWidth="1"/>
+    <col min="807" max="807" width="6.140625" style="271" customWidth="1"/>
+    <col min="808" max="808" width="19.42578125" style="271" customWidth="1"/>
+    <col min="809" max="1028" width="9" style="271"/>
+    <col min="1029" max="1029" width="3.28515625" style="271" customWidth="1"/>
+    <col min="1030" max="1030" width="20" style="271" customWidth="1"/>
+    <col min="1031" max="1031" width="24.5703125" style="271" customWidth="1"/>
+    <col min="1032" max="1061" width="4.42578125" style="271" customWidth="1"/>
+    <col min="1062" max="1062" width="2.5703125" style="271" customWidth="1"/>
+    <col min="1063" max="1063" width="6.140625" style="271" customWidth="1"/>
+    <col min="1064" max="1064" width="19.42578125" style="271" customWidth="1"/>
+    <col min="1065" max="1284" width="9" style="271"/>
+    <col min="1285" max="1285" width="3.28515625" style="271" customWidth="1"/>
+    <col min="1286" max="1286" width="20" style="271" customWidth="1"/>
+    <col min="1287" max="1287" width="24.5703125" style="271" customWidth="1"/>
+    <col min="1288" max="1317" width="4.42578125" style="271" customWidth="1"/>
+    <col min="1318" max="1318" width="2.5703125" style="271" customWidth="1"/>
+    <col min="1319" max="1319" width="6.140625" style="271" customWidth="1"/>
+    <col min="1320" max="1320" width="19.42578125" style="271" customWidth="1"/>
+    <col min="1321" max="1540" width="9" style="271"/>
+    <col min="1541" max="1541" width="3.28515625" style="271" customWidth="1"/>
+    <col min="1542" max="1542" width="20" style="271" customWidth="1"/>
+    <col min="1543" max="1543" width="24.5703125" style="271" customWidth="1"/>
+    <col min="1544" max="1573" width="4.42578125" style="271" customWidth="1"/>
+    <col min="1574" max="1574" width="2.5703125" style="271" customWidth="1"/>
+    <col min="1575" max="1575" width="6.140625" style="271" customWidth="1"/>
+    <col min="1576" max="1576" width="19.42578125" style="271" customWidth="1"/>
+    <col min="1577" max="1796" width="9" style="271"/>
+    <col min="1797" max="1797" width="3.28515625" style="271" customWidth="1"/>
+    <col min="1798" max="1798" width="20" style="271" customWidth="1"/>
+    <col min="1799" max="1799" width="24.5703125" style="271" customWidth="1"/>
+    <col min="1800" max="1829" width="4.42578125" style="271" customWidth="1"/>
+    <col min="1830" max="1830" width="2.5703125" style="271" customWidth="1"/>
+    <col min="1831" max="1831" width="6.140625" style="271" customWidth="1"/>
+    <col min="1832" max="1832" width="19.42578125" style="271" customWidth="1"/>
+    <col min="1833" max="2052" width="9" style="271"/>
+    <col min="2053" max="2053" width="3.28515625" style="271" customWidth="1"/>
+    <col min="2054" max="2054" width="20" style="271" customWidth="1"/>
+    <col min="2055" max="2055" width="24.5703125" style="271" customWidth="1"/>
+    <col min="2056" max="2085" width="4.42578125" style="271" customWidth="1"/>
+    <col min="2086" max="2086" width="2.5703125" style="271" customWidth="1"/>
+    <col min="2087" max="2087" width="6.140625" style="271" customWidth="1"/>
+    <col min="2088" max="2088" width="19.42578125" style="271" customWidth="1"/>
+    <col min="2089" max="2308" width="9" style="271"/>
+    <col min="2309" max="2309" width="3.28515625" style="271" customWidth="1"/>
+    <col min="2310" max="2310" width="20" style="271" customWidth="1"/>
+    <col min="2311" max="2311" width="24.5703125" style="271" customWidth="1"/>
+    <col min="2312" max="2341" width="4.42578125" style="271" customWidth="1"/>
+    <col min="2342" max="2342" width="2.5703125" style="271" customWidth="1"/>
+    <col min="2343" max="2343" width="6.140625" style="271" customWidth="1"/>
+    <col min="2344" max="2344" width="19.42578125" style="271" customWidth="1"/>
+    <col min="2345" max="2564" width="9" style="271"/>
+    <col min="2565" max="2565" width="3.28515625" style="271" customWidth="1"/>
+    <col min="2566" max="2566" width="20" style="271" customWidth="1"/>
+    <col min="2567" max="2567" width="24.5703125" style="271" customWidth="1"/>
+    <col min="2568" max="2597" width="4.42578125" style="271" customWidth="1"/>
+    <col min="2598" max="2598" width="2.5703125" style="271" customWidth="1"/>
+    <col min="2599" max="2599" width="6.140625" style="271" customWidth="1"/>
+    <col min="2600" max="2600" width="19.42578125" style="271" customWidth="1"/>
+    <col min="2601" max="2820" width="9" style="271"/>
+    <col min="2821" max="2821" width="3.28515625" style="271" customWidth="1"/>
+    <col min="2822" max="2822" width="20" style="271" customWidth="1"/>
+    <col min="2823" max="2823" width="24.5703125" style="271" customWidth="1"/>
+    <col min="2824" max="2853" width="4.42578125" style="271" customWidth="1"/>
+    <col min="2854" max="2854" width="2.5703125" style="271" customWidth="1"/>
+    <col min="2855" max="2855" width="6.140625" style="271" customWidth="1"/>
+    <col min="2856" max="2856" width="19.42578125" style="271" customWidth="1"/>
+    <col min="2857" max="3076" width="9" style="271"/>
+    <col min="3077" max="3077" width="3.28515625" style="271" customWidth="1"/>
+    <col min="3078" max="3078" width="20" style="271" customWidth="1"/>
+    <col min="3079" max="3079" width="24.5703125" style="271" customWidth="1"/>
+    <col min="3080" max="3109" width="4.42578125" style="271" customWidth="1"/>
+    <col min="3110" max="3110" width="2.5703125" style="271" customWidth="1"/>
+    <col min="3111" max="3111" width="6.140625" style="271" customWidth="1"/>
+    <col min="3112" max="3112" width="19.42578125" style="271" customWidth="1"/>
+    <col min="3113" max="3332" width="9" style="271"/>
+    <col min="3333" max="3333" width="3.28515625" style="271" customWidth="1"/>
+    <col min="3334" max="3334" width="20" style="271" customWidth="1"/>
+    <col min="3335" max="3335" width="24.5703125" style="271" customWidth="1"/>
+    <col min="3336" max="3365" width="4.42578125" style="271" customWidth="1"/>
+    <col min="3366" max="3366" width="2.5703125" style="271" customWidth="1"/>
+    <col min="3367" max="3367" width="6.140625" style="271" customWidth="1"/>
+    <col min="3368" max="3368" width="19.42578125" style="271" customWidth="1"/>
+    <col min="3369" max="3588" width="9" style="271"/>
+    <col min="3589" max="3589" width="3.28515625" style="271" customWidth="1"/>
+    <col min="3590" max="3590" width="20" style="271" customWidth="1"/>
+    <col min="3591" max="3591" width="24.5703125" style="271" customWidth="1"/>
+    <col min="3592" max="3621" width="4.42578125" style="271" customWidth="1"/>
+    <col min="3622" max="3622" width="2.5703125" style="271" customWidth="1"/>
+    <col min="3623" max="3623" width="6.140625" style="271" customWidth="1"/>
+    <col min="3624" max="3624" width="19.42578125" style="271" customWidth="1"/>
+    <col min="3625" max="3844" width="9" style="271"/>
+    <col min="3845" max="3845" width="3.28515625" style="271" customWidth="1"/>
+    <col min="3846" max="3846" width="20" style="271" customWidth="1"/>
+    <col min="3847" max="3847" width="24.5703125" style="271" customWidth="1"/>
+    <col min="3848" max="3877" width="4.42578125" style="271" customWidth="1"/>
+    <col min="3878" max="3878" width="2.5703125" style="271" customWidth="1"/>
+    <col min="3879" max="3879" width="6.140625" style="271" customWidth="1"/>
+    <col min="3880" max="3880" width="19.42578125" style="271" customWidth="1"/>
+    <col min="3881" max="4100" width="9" style="271"/>
+    <col min="4101" max="4101" width="3.28515625" style="271" customWidth="1"/>
+    <col min="4102" max="4102" width="20" style="271" customWidth="1"/>
+    <col min="4103" max="4103" width="24.5703125" style="271" customWidth="1"/>
+    <col min="4104" max="4133" width="4.42578125" style="271" customWidth="1"/>
+    <col min="4134" max="4134" width="2.5703125" style="271" customWidth="1"/>
+    <col min="4135" max="4135" width="6.140625" style="271" customWidth="1"/>
+    <col min="4136" max="4136" width="19.42578125" style="271" customWidth="1"/>
+    <col min="4137" max="4356" width="9" style="271"/>
+    <col min="4357" max="4357" width="3.28515625" style="271" customWidth="1"/>
+    <col min="4358" max="4358" width="20" style="271" customWidth="1"/>
+    <col min="4359" max="4359" width="24.5703125" style="271" customWidth="1"/>
+    <col min="4360" max="4389" width="4.42578125" style="271" customWidth="1"/>
+    <col min="4390" max="4390" width="2.5703125" style="271" customWidth="1"/>
+    <col min="4391" max="4391" width="6.140625" style="271" customWidth="1"/>
+    <col min="4392" max="4392" width="19.42578125" style="271" customWidth="1"/>
+    <col min="4393" max="4612" width="9" style="271"/>
+    <col min="4613" max="4613" width="3.28515625" style="271" customWidth="1"/>
+    <col min="4614" max="4614" width="20" style="271" customWidth="1"/>
+    <col min="4615" max="4615" width="24.5703125" style="271" customWidth="1"/>
+    <col min="4616" max="4645" width="4.42578125" style="271" customWidth="1"/>
+    <col min="4646" max="4646" width="2.5703125" style="271" customWidth="1"/>
+    <col min="4647" max="4647" width="6.140625" style="271" customWidth="1"/>
+    <col min="4648" max="4648" width="19.42578125" style="271" customWidth="1"/>
+    <col min="4649" max="4868" width="9" style="271"/>
+    <col min="4869" max="4869" width="3.28515625" style="271" customWidth="1"/>
+    <col min="4870" max="4870" width="20" style="271" customWidth="1"/>
+    <col min="4871" max="4871" width="24.5703125" style="271" customWidth="1"/>
+    <col min="4872" max="4901" width="4.42578125" style="271" customWidth="1"/>
+    <col min="4902" max="4902" width="2.5703125" style="271" customWidth="1"/>
+    <col min="4903" max="4903" width="6.140625" style="271" customWidth="1"/>
+    <col min="4904" max="4904" width="19.42578125" style="271" customWidth="1"/>
+    <col min="4905" max="5124" width="9" style="271"/>
+    <col min="5125" max="5125" width="3.28515625" style="271" customWidth="1"/>
+    <col min="5126" max="5126" width="20" style="271" customWidth="1"/>
+    <col min="5127" max="5127" width="24.5703125" style="271" customWidth="1"/>
+    <col min="5128" max="5157" width="4.42578125" style="271" customWidth="1"/>
+    <col min="5158" max="5158" width="2.5703125" style="271" customWidth="1"/>
+    <col min="5159" max="5159" width="6.140625" style="271" customWidth="1"/>
+    <col min="5160" max="5160" width="19.42578125" style="271" customWidth="1"/>
+    <col min="5161" max="5380" width="9" style="271"/>
+    <col min="5381" max="5381" width="3.28515625" style="271" customWidth="1"/>
+    <col min="5382" max="5382" width="20" style="271" customWidth="1"/>
+    <col min="5383" max="5383" width="24.5703125" style="271" customWidth="1"/>
+    <col min="5384" max="5413" width="4.42578125" style="271" customWidth="1"/>
+    <col min="5414" max="5414" width="2.5703125" style="271" customWidth="1"/>
+    <col min="5415" max="5415" width="6.140625" style="271" customWidth="1"/>
+    <col min="5416" max="5416" width="19.42578125" style="271" customWidth="1"/>
+    <col min="5417" max="5636" width="9" style="271"/>
+    <col min="5637" max="5637" width="3.28515625" style="271" customWidth="1"/>
+    <col min="5638" max="5638" width="20" style="271" customWidth="1"/>
+    <col min="5639" max="5639" width="24.5703125" style="271" customWidth="1"/>
+    <col min="5640" max="5669" width="4.42578125" style="271" customWidth="1"/>
+    <col min="5670" max="5670" width="2.5703125" style="271" customWidth="1"/>
+    <col min="5671" max="5671" width="6.140625" style="271" customWidth="1"/>
+    <col min="5672" max="5672" width="19.42578125" style="271" customWidth="1"/>
+    <col min="5673" max="5892" width="9" style="271"/>
+    <col min="5893" max="5893" width="3.28515625" style="271" customWidth="1"/>
+    <col min="5894" max="5894" width="20" style="271" customWidth="1"/>
+    <col min="5895" max="5895" width="24.5703125" style="271" customWidth="1"/>
+    <col min="5896" max="5925" width="4.42578125" style="271" customWidth="1"/>
+    <col min="5926" max="5926" width="2.5703125" style="271" customWidth="1"/>
+    <col min="5927" max="5927" width="6.140625" style="271" customWidth="1"/>
+    <col min="5928" max="5928" width="19.42578125" style="271" customWidth="1"/>
+    <col min="5929" max="6148" width="9" style="271"/>
+    <col min="6149" max="6149" width="3.28515625" style="271" customWidth="1"/>
+    <col min="6150" max="6150" width="20" style="271" customWidth="1"/>
+    <col min="6151" max="6151" width="24.5703125" style="271" customWidth="1"/>
+    <col min="6152" max="6181" width="4.42578125" style="271" customWidth="1"/>
+    <col min="6182" max="6182" width="2.5703125" style="271" customWidth="1"/>
+    <col min="6183" max="6183" width="6.140625" style="271" customWidth="1"/>
+    <col min="6184" max="6184" width="19.42578125" style="271" customWidth="1"/>
+    <col min="6185" max="6404" width="9" style="271"/>
+    <col min="6405" max="6405" width="3.28515625" style="271" customWidth="1"/>
+    <col min="6406" max="6406" width="20" style="271" customWidth="1"/>
+    <col min="6407" max="6407" width="24.5703125" style="271" customWidth="1"/>
+    <col min="6408" max="6437" width="4.42578125" style="271" customWidth="1"/>
+    <col min="6438" max="6438" width="2.5703125" style="271" customWidth="1"/>
+    <col min="6439" max="6439" width="6.140625" style="271" customWidth="1"/>
+    <col min="6440" max="6440" width="19.42578125" style="271" customWidth="1"/>
+    <col min="6441" max="6660" width="9" style="271"/>
+    <col min="6661" max="6661" width="3.28515625" style="271" customWidth="1"/>
+    <col min="6662" max="6662" width="20" style="271" customWidth="1"/>
+    <col min="6663" max="6663" width="24.5703125" style="271" customWidth="1"/>
+    <col min="6664" max="6693" width="4.42578125" style="271" customWidth="1"/>
+    <col min="6694" max="6694" width="2.5703125" style="271" customWidth="1"/>
+    <col min="6695" max="6695" width="6.140625" style="271" customWidth="1"/>
+    <col min="6696" max="6696" width="19.42578125" style="271" customWidth="1"/>
+    <col min="6697" max="6916" width="9" style="271"/>
+    <col min="6917" max="6917" width="3.28515625" style="271" customWidth="1"/>
+    <col min="6918" max="6918" width="20" style="271" customWidth="1"/>
+    <col min="6919" max="6919" width="24.5703125" style="271" customWidth="1"/>
+    <col min="6920" max="6949" width="4.42578125" style="271" customWidth="1"/>
+    <col min="6950" max="6950" width="2.5703125" style="271" customWidth="1"/>
+    <col min="6951" max="6951" width="6.140625" style="271" customWidth="1"/>
+    <col min="6952" max="6952" width="19.42578125" style="271" customWidth="1"/>
+    <col min="6953" max="7172" width="9" style="271"/>
+    <col min="7173" max="7173" width="3.28515625" style="271" customWidth="1"/>
+    <col min="7174" max="7174" width="20" style="271" customWidth="1"/>
+    <col min="7175" max="7175" width="24.5703125" style="271" customWidth="1"/>
+    <col min="7176" max="7205" width="4.42578125" style="271" customWidth="1"/>
+    <col min="7206" max="7206" width="2.5703125" style="271" customWidth="1"/>
+    <col min="7207" max="7207" width="6.140625" style="271" customWidth="1"/>
+    <col min="7208" max="7208" width="19.42578125" style="271" customWidth="1"/>
+    <col min="7209" max="7428" width="9" style="271"/>
+    <col min="7429" max="7429" width="3.28515625" style="271" customWidth="1"/>
+    <col min="7430" max="7430" width="20" style="271" customWidth="1"/>
+    <col min="7431" max="7431" width="24.5703125" style="271" customWidth="1"/>
+    <col min="7432" max="7461" width="4.42578125" style="271" customWidth="1"/>
+    <col min="7462" max="7462" width="2.5703125" style="271" customWidth="1"/>
+    <col min="7463" max="7463" width="6.140625" style="271" customWidth="1"/>
+    <col min="7464" max="7464" width="19.42578125" style="271" customWidth="1"/>
+    <col min="7465" max="7684" width="9" style="271"/>
+    <col min="7685" max="7685" width="3.28515625" style="271" customWidth="1"/>
+    <col min="7686" max="7686" width="20" style="271" customWidth="1"/>
+    <col min="7687" max="7687" width="24.5703125" style="271" customWidth="1"/>
+    <col min="7688" max="7717" width="4.42578125" style="271" customWidth="1"/>
+    <col min="7718" max="7718" width="2.5703125" style="271" customWidth="1"/>
+    <col min="7719" max="7719" width="6.140625" style="271" customWidth="1"/>
+    <col min="7720" max="7720" width="19.42578125" style="271" customWidth="1"/>
+    <col min="7721" max="7940" width="9" style="271"/>
+    <col min="7941" max="7941" width="3.28515625" style="271" customWidth="1"/>
+    <col min="7942" max="7942" width="20" style="271" customWidth="1"/>
+    <col min="7943" max="7943" width="24.5703125" style="271" customWidth="1"/>
+    <col min="7944" max="7973" width="4.42578125" style="271" customWidth="1"/>
+    <col min="7974" max="7974" width="2.5703125" style="271" customWidth="1"/>
+    <col min="7975" max="7975" width="6.140625" style="271" customWidth="1"/>
+    <col min="7976" max="7976" width="19.42578125" style="271" customWidth="1"/>
+    <col min="7977" max="8196" width="9" style="271"/>
+    <col min="8197" max="8197" width="3.28515625" style="271" customWidth="1"/>
+    <col min="8198" max="8198" width="20" style="271" customWidth="1"/>
+    <col min="8199" max="8199" width="24.5703125" style="271" customWidth="1"/>
+    <col min="8200" max="8229" width="4.42578125" style="271" customWidth="1"/>
+    <col min="8230" max="8230" width="2.5703125" style="271" customWidth="1"/>
+    <col min="8231" max="8231" width="6.140625" style="271" customWidth="1"/>
+    <col min="8232" max="8232" width="19.42578125" style="271" customWidth="1"/>
+    <col min="8233" max="8452" width="9" style="271"/>
+    <col min="8453" max="8453" width="3.28515625" style="271" customWidth="1"/>
+    <col min="8454" max="8454" width="20" style="271" customWidth="1"/>
+    <col min="8455" max="8455" width="24.5703125" style="271" customWidth="1"/>
+    <col min="8456" max="8485" width="4.42578125" style="271" customWidth="1"/>
+    <col min="8486" max="8486" width="2.5703125" style="271" customWidth="1"/>
+    <col min="8487" max="8487" width="6.140625" style="271" customWidth="1"/>
+    <col min="8488" max="8488" width="19.42578125" style="271" customWidth="1"/>
+    <col min="8489" max="8708" width="9" style="271"/>
+    <col min="8709" max="8709" width="3.28515625" style="271" customWidth="1"/>
+    <col min="8710" max="8710" width="20" style="271" customWidth="1"/>
+    <col min="8711" max="8711" width="24.5703125" style="271" customWidth="1"/>
+    <col min="8712" max="8741" width="4.42578125" style="271" customWidth="1"/>
+    <col min="8742" max="8742" width="2.5703125" style="271" customWidth="1"/>
+    <col min="8743" max="8743" width="6.140625" style="271" customWidth="1"/>
+    <col min="8744" max="8744" width="19.42578125" style="271" customWidth="1"/>
+    <col min="8745" max="8964" width="9" style="271"/>
+    <col min="8965" max="8965" width="3.28515625" style="271" customWidth="1"/>
+    <col min="8966" max="8966" width="20" style="271" customWidth="1"/>
+    <col min="8967" max="8967" width="24.5703125" style="271" customWidth="1"/>
+    <col min="8968" max="8997" width="4.42578125" style="271" customWidth="1"/>
+    <col min="8998" max="8998" width="2.5703125" style="271" customWidth="1"/>
+    <col min="8999" max="8999" width="6.140625" style="271" customWidth="1"/>
+    <col min="9000" max="9000" width="19.42578125" style="271" customWidth="1"/>
+    <col min="9001" max="9220" width="9" style="271"/>
+    <col min="9221" max="9221" width="3.28515625" style="271" customWidth="1"/>
+    <col min="9222" max="9222" width="20" style="271" customWidth="1"/>
+    <col min="9223" max="9223" width="24.5703125" style="271" customWidth="1"/>
+    <col min="9224" max="9253" width="4.42578125" style="271" customWidth="1"/>
+    <col min="9254" max="9254" width="2.5703125" style="271" customWidth="1"/>
+    <col min="9255" max="9255" width="6.140625" style="271" customWidth="1"/>
+    <col min="9256" max="9256" width="19.42578125" style="271" customWidth="1"/>
+    <col min="9257" max="9476" width="9" style="271"/>
+    <col min="9477" max="9477" width="3.28515625" style="271" customWidth="1"/>
+    <col min="9478" max="9478" width="20" style="271" customWidth="1"/>
+    <col min="9479" max="9479" width="24.5703125" style="271" customWidth="1"/>
+    <col min="9480" max="9509" width="4.42578125" style="271" customWidth="1"/>
+    <col min="9510" max="9510" width="2.5703125" style="271" customWidth="1"/>
+    <col min="9511" max="9511" width="6.140625" style="271" customWidth="1"/>
+    <col min="9512" max="9512" width="19.42578125" style="271" customWidth="1"/>
+    <col min="9513" max="9732" width="9" style="271"/>
+    <col min="9733" max="9733" width="3.28515625" style="271" customWidth="1"/>
+    <col min="9734" max="9734" width="20" style="271" customWidth="1"/>
+    <col min="9735" max="9735" width="24.5703125" style="271" customWidth="1"/>
+    <col min="9736" max="9765" width="4.42578125" style="271" customWidth="1"/>
+    <col min="9766" max="9766" width="2.5703125" style="271" customWidth="1"/>
+    <col min="9767" max="9767" width="6.140625" style="271" customWidth="1"/>
+    <col min="9768" max="9768" width="19.42578125" style="271" customWidth="1"/>
+    <col min="9769" max="9988" width="9" style="271"/>
+    <col min="9989" max="9989" width="3.28515625" style="271" customWidth="1"/>
+    <col min="9990" max="9990" width="20" style="271" customWidth="1"/>
+    <col min="9991" max="9991" width="24.5703125" style="271" customWidth="1"/>
+    <col min="9992" max="10021" width="4.42578125" style="271" customWidth="1"/>
+    <col min="10022" max="10022" width="2.5703125" style="271" customWidth="1"/>
+    <col min="10023" max="10023" width="6.140625" style="271" customWidth="1"/>
+    <col min="10024" max="10024" width="19.42578125" style="271" customWidth="1"/>
+    <col min="10025" max="10244" width="9" style="271"/>
+    <col min="10245" max="10245" width="3.28515625" style="271" customWidth="1"/>
+    <col min="10246" max="10246" width="20" style="271" customWidth="1"/>
+    <col min="10247" max="10247" width="24.5703125" style="271" customWidth="1"/>
+    <col min="10248" max="10277" width="4.42578125" style="271" customWidth="1"/>
+    <col min="10278" max="10278" width="2.5703125" style="271" customWidth="1"/>
+    <col min="10279" max="10279" width="6.140625" style="271" customWidth="1"/>
+    <col min="10280" max="10280" width="19.42578125" style="271" customWidth="1"/>
+    <col min="10281" max="10500" width="9" style="271"/>
+    <col min="10501" max="10501" width="3.28515625" style="271" customWidth="1"/>
+    <col min="10502" max="10502" width="20" style="271" customWidth="1"/>
+    <col min="10503" max="10503" width="24.5703125" style="271" customWidth="1"/>
+    <col min="10504" max="10533" width="4.42578125" style="271" customWidth="1"/>
+    <col min="10534" max="10534" width="2.5703125" style="271" customWidth="1"/>
+    <col min="10535" max="10535" width="6.140625" style="271" customWidth="1"/>
+    <col min="10536" max="10536" width="19.42578125" style="271" customWidth="1"/>
+    <col min="10537" max="10756" width="9" style="271"/>
+    <col min="10757" max="10757" width="3.28515625" style="271" customWidth="1"/>
+    <col min="10758" max="10758" width="20" style="271" customWidth="1"/>
+    <col min="10759" max="10759" width="24.5703125" style="271" customWidth="1"/>
+    <col min="10760" max="10789" width="4.42578125" style="271" customWidth="1"/>
+    <col min="10790" max="10790" width="2.5703125" style="271" customWidth="1"/>
+    <col min="10791" max="10791" width="6.140625" style="271" customWidth="1"/>
+    <col min="10792" max="10792" width="19.42578125" style="271" customWidth="1"/>
+    <col min="10793" max="11012" width="9" style="271"/>
+    <col min="11013" max="11013" width="3.28515625" style="271" customWidth="1"/>
+    <col min="11014" max="11014" width="20" style="271" customWidth="1"/>
+    <col min="11015" max="11015" width="24.5703125" style="271" customWidth="1"/>
+    <col min="11016" max="11045" width="4.42578125" style="271" customWidth="1"/>
+    <col min="11046" max="11046" width="2.5703125" style="271" customWidth="1"/>
+    <col min="11047" max="11047" width="6.140625" style="271" customWidth="1"/>
+    <col min="11048" max="11048" width="19.42578125" style="271" customWidth="1"/>
+    <col min="11049" max="11268" width="9" style="271"/>
+    <col min="11269" max="11269" width="3.28515625" style="271" customWidth="1"/>
+    <col min="11270" max="11270" width="20" style="271" customWidth="1"/>
+    <col min="11271" max="11271" width="24.5703125" style="271" customWidth="1"/>
+    <col min="11272" max="11301" width="4.42578125" style="271" customWidth="1"/>
+    <col min="11302" max="11302" width="2.5703125" style="271" customWidth="1"/>
+    <col min="11303" max="11303" width="6.140625" style="271" customWidth="1"/>
+    <col min="11304" max="11304" width="19.42578125" style="271" customWidth="1"/>
+    <col min="11305" max="11524" width="9" style="271"/>
+    <col min="11525" max="11525" width="3.28515625" style="271" customWidth="1"/>
+    <col min="11526" max="11526" width="20" style="271" customWidth="1"/>
+    <col min="11527" max="11527" width="24.5703125" style="271" customWidth="1"/>
+    <col min="11528" max="11557" width="4.42578125" style="271" customWidth="1"/>
+    <col min="11558" max="11558" width="2.5703125" style="271" customWidth="1"/>
+    <col min="11559" max="11559" width="6.140625" style="271" customWidth="1"/>
+    <col min="11560" max="11560" width="19.42578125" style="271" customWidth="1"/>
+    <col min="11561" max="11780" width="9" style="271"/>
+    <col min="11781" max="11781" width="3.28515625" style="271" customWidth="1"/>
+    <col min="11782" max="11782" width="20" style="271" customWidth="1"/>
+    <col min="11783" max="11783" width="24.5703125" style="271" customWidth="1"/>
+    <col min="11784" max="11813" width="4.42578125" style="271" customWidth="1"/>
+    <col min="11814" max="11814" width="2.5703125" style="271" customWidth="1"/>
+    <col min="11815" max="11815" width="6.140625" style="271" customWidth="1"/>
+    <col min="11816" max="11816" width="19.42578125" style="271" customWidth="1"/>
+    <col min="11817" max="12036" width="9" style="271"/>
+    <col min="12037" max="12037" width="3.28515625" style="271" customWidth="1"/>
+    <col min="12038" max="12038" width="20" style="271" customWidth="1"/>
+    <col min="12039" max="12039" width="24.5703125" style="271" customWidth="1"/>
+    <col min="12040" max="12069" width="4.42578125" style="271" customWidth="1"/>
+    <col min="12070" max="12070" width="2.5703125" style="271" customWidth="1"/>
+    <col min="12071" max="12071" width="6.140625" style="271" customWidth="1"/>
+    <col min="12072" max="12072" width="19.42578125" style="271" customWidth="1"/>
+    <col min="12073" max="12292" width="9" style="271"/>
+    <col min="12293" max="12293" width="3.28515625" style="271" customWidth="1"/>
+    <col min="12294" max="12294" width="20" style="271" customWidth="1"/>
+    <col min="12295" max="12295" width="24.5703125" style="271" customWidth="1"/>
+    <col min="12296" max="12325" width="4.42578125" style="271" customWidth="1"/>
+    <col min="12326" max="12326" width="2.5703125" style="271" customWidth="1"/>
+    <col min="12327" max="12327" width="6.140625" style="271" customWidth="1"/>
+    <col min="12328" max="12328" width="19.42578125" style="271" customWidth="1"/>
+    <col min="12329" max="12548" width="9" style="271"/>
+    <col min="12549" max="12549" width="3.28515625" style="271" customWidth="1"/>
+    <col min="12550" max="12550" width="20" style="271" customWidth="1"/>
+    <col min="12551" max="12551" width="24.5703125" style="271" customWidth="1"/>
+    <col min="12552" max="12581" width="4.42578125" style="271" customWidth="1"/>
+    <col min="12582" max="12582" width="2.5703125" style="271" customWidth="1"/>
+    <col min="12583" max="12583" width="6.140625" style="271" customWidth="1"/>
+    <col min="12584" max="12584" width="19.42578125" style="271" customWidth="1"/>
+    <col min="12585" max="12804" width="9" style="271"/>
+    <col min="12805" max="12805" width="3.28515625" style="271" customWidth="1"/>
+    <col min="12806" max="12806" width="20" style="271" customWidth="1"/>
+    <col min="12807" max="12807" width="24.5703125" style="271" customWidth="1"/>
+    <col min="12808" max="12837" width="4.42578125" style="271" customWidth="1"/>
+    <col min="12838" max="12838" width="2.5703125" style="271" customWidth="1"/>
+    <col min="12839" max="12839" width="6.140625" style="271" customWidth="1"/>
+    <col min="12840" max="12840" width="19.42578125" style="271" customWidth="1"/>
+    <col min="12841" max="13060" width="9" style="271"/>
+    <col min="13061" max="13061" width="3.28515625" style="271" customWidth="1"/>
+    <col min="13062" max="13062" width="20" style="271" customWidth="1"/>
+    <col min="13063" max="13063" width="24.5703125" style="271" customWidth="1"/>
+    <col min="13064" max="13093" width="4.42578125" style="271" customWidth="1"/>
+    <col min="13094" max="13094" width="2.5703125" style="271" customWidth="1"/>
+    <col min="13095" max="13095" width="6.140625" style="271" customWidth="1"/>
+    <col min="13096" max="13096" width="19.42578125" style="271" customWidth="1"/>
+    <col min="13097" max="13316" width="9" style="271"/>
+    <col min="13317" max="13317" width="3.28515625" style="271" customWidth="1"/>
+    <col min="13318" max="13318" width="20" style="271" customWidth="1"/>
+    <col min="13319" max="13319" width="24.5703125" style="271" customWidth="1"/>
+    <col min="13320" max="13349" width="4.42578125" style="271" customWidth="1"/>
+    <col min="13350" max="13350" width="2.5703125" style="271" customWidth="1"/>
+    <col min="13351" max="13351" width="6.140625" style="271" customWidth="1"/>
+    <col min="13352" max="13352" width="19.42578125" style="271" customWidth="1"/>
+    <col min="13353" max="13572" width="9" style="271"/>
+    <col min="13573" max="13573" width="3.28515625" style="271" customWidth="1"/>
+    <col min="13574" max="13574" width="20" style="271" customWidth="1"/>
+    <col min="13575" max="13575" width="24.5703125" style="271" customWidth="1"/>
+    <col min="13576" max="13605" width="4.42578125" style="271" customWidth="1"/>
+    <col min="13606" max="13606" width="2.5703125" style="271" customWidth="1"/>
+    <col min="13607" max="13607" width="6.140625" style="271" customWidth="1"/>
+    <col min="13608" max="13608" width="19.42578125" style="271" customWidth="1"/>
+    <col min="13609" max="13828" width="9" style="271"/>
+    <col min="13829" max="13829" width="3.28515625" style="271" customWidth="1"/>
+    <col min="13830" max="13830" width="20" style="271" customWidth="1"/>
+    <col min="13831" max="13831" width="24.5703125" style="271" customWidth="1"/>
+    <col min="13832" max="13861" width="4.42578125" style="271" customWidth="1"/>
+    <col min="13862" max="13862" width="2.5703125" style="271" customWidth="1"/>
+    <col min="13863" max="13863" width="6.140625" style="271" customWidth="1"/>
+    <col min="13864" max="13864" width="19.42578125" style="271" customWidth="1"/>
+    <col min="13865" max="14084" width="9" style="271"/>
+    <col min="14085" max="14085" width="3.28515625" style="271" customWidth="1"/>
+    <col min="14086" max="14086" width="20" style="271" customWidth="1"/>
+    <col min="14087" max="14087" width="24.5703125" style="271" customWidth="1"/>
+    <col min="14088" max="14117" width="4.42578125" style="271" customWidth="1"/>
+    <col min="14118" max="14118" width="2.5703125" style="271" customWidth="1"/>
+    <col min="14119" max="14119" width="6.140625" style="271" customWidth="1"/>
+    <col min="14120" max="14120" width="19.42578125" style="271" customWidth="1"/>
+    <col min="14121" max="14340" width="9" style="271"/>
+    <col min="14341" max="14341" width="3.28515625" style="271" customWidth="1"/>
+    <col min="14342" max="14342" width="20" style="271" customWidth="1"/>
+    <col min="14343" max="14343" width="24.5703125" style="271" customWidth="1"/>
+    <col min="14344" max="14373" width="4.42578125" style="271" customWidth="1"/>
+    <col min="14374" max="14374" width="2.5703125" style="271" customWidth="1"/>
+    <col min="14375" max="14375" width="6.140625" style="271" customWidth="1"/>
+    <col min="14376" max="14376" width="19.42578125" style="271" customWidth="1"/>
+    <col min="14377" max="14596" width="9" style="271"/>
+    <col min="14597" max="14597" width="3.28515625" style="271" customWidth="1"/>
+    <col min="14598" max="14598" width="20" style="271" customWidth="1"/>
+    <col min="14599" max="14599" width="24.5703125" style="271" customWidth="1"/>
+    <col min="14600" max="14629" width="4.42578125" style="271" customWidth="1"/>
+    <col min="14630" max="14630" width="2.5703125" style="271" customWidth="1"/>
+    <col min="14631" max="14631" width="6.140625" style="271" customWidth="1"/>
+    <col min="14632" max="14632" width="19.42578125" style="271" customWidth="1"/>
+    <col min="14633" max="14852" width="9" style="271"/>
+    <col min="14853" max="14853" width="3.28515625" style="271" customWidth="1"/>
+    <col min="14854" max="14854" width="20" style="271" customWidth="1"/>
+    <col min="14855" max="14855" width="24.5703125" style="271" customWidth="1"/>
+    <col min="14856" max="14885" width="4.42578125" style="271" customWidth="1"/>
+    <col min="14886" max="14886" width="2.5703125" style="271" customWidth="1"/>
+    <col min="14887" max="14887" width="6.140625" style="271" customWidth="1"/>
+    <col min="14888" max="14888" width="19.42578125" style="271" customWidth="1"/>
+    <col min="14889" max="15108" width="9" style="271"/>
+    <col min="15109" max="15109" width="3.28515625" style="271" customWidth="1"/>
+    <col min="15110" max="15110" width="20" style="271" customWidth="1"/>
+    <col min="15111" max="15111" width="24.5703125" style="271" customWidth="1"/>
+    <col min="15112" max="15141" width="4.42578125" style="271" customWidth="1"/>
+    <col min="15142" max="15142" width="2.5703125" style="271" customWidth="1"/>
+    <col min="15143" max="15143" width="6.140625" style="271" customWidth="1"/>
+    <col min="15144" max="15144" width="19.42578125" style="271" customWidth="1"/>
+    <col min="15145" max="15364" width="9" style="271"/>
+    <col min="15365" max="15365" width="3.28515625" style="271" customWidth="1"/>
+    <col min="15366" max="15366" width="20" style="271" customWidth="1"/>
+    <col min="15367" max="15367" width="24.5703125" style="271" customWidth="1"/>
+    <col min="15368" max="15397" width="4.42578125" style="271" customWidth="1"/>
+    <col min="15398" max="15398" width="2.5703125" style="271" customWidth="1"/>
+    <col min="15399" max="15399" width="6.140625" style="271" customWidth="1"/>
+    <col min="15400" max="15400" width="19.42578125" style="271" customWidth="1"/>
+    <col min="15401" max="15620" width="9" style="271"/>
+    <col min="15621" max="15621" width="3.28515625" style="271" customWidth="1"/>
+    <col min="15622" max="15622" width="20" style="271" customWidth="1"/>
+    <col min="15623" max="15623" width="24.5703125" style="271" customWidth="1"/>
+    <col min="15624" max="15653" width="4.42578125" style="271" customWidth="1"/>
+    <col min="15654" max="15654" width="2.5703125" style="271" customWidth="1"/>
+    <col min="15655" max="15655" width="6.140625" style="271" customWidth="1"/>
+    <col min="15656" max="15656" width="19.42578125" style="271" customWidth="1"/>
+    <col min="15657" max="15876" width="9" style="271"/>
+    <col min="15877" max="15877" width="3.28515625" style="271" customWidth="1"/>
+    <col min="15878" max="15878" width="20" style="271" customWidth="1"/>
+    <col min="15879" max="15879" width="24.5703125" style="271" customWidth="1"/>
+    <col min="15880" max="15909" width="4.42578125" style="271" customWidth="1"/>
+    <col min="15910" max="15910" width="2.5703125" style="271" customWidth="1"/>
+    <col min="15911" max="15911" width="6.140625" style="271" customWidth="1"/>
+    <col min="15912" max="15912" width="19.42578125" style="271" customWidth="1"/>
+    <col min="15913" max="16132" width="9" style="271"/>
+    <col min="16133" max="16133" width="3.28515625" style="271" customWidth="1"/>
+    <col min="16134" max="16134" width="20" style="271" customWidth="1"/>
+    <col min="16135" max="16135" width="24.5703125" style="271" customWidth="1"/>
+    <col min="16136" max="16165" width="4.42578125" style="271" customWidth="1"/>
+    <col min="16166" max="16166" width="2.5703125" style="271" customWidth="1"/>
+    <col min="16167" max="16167" width="6.140625" style="271" customWidth="1"/>
+    <col min="16168" max="16168" width="19.42578125" style="271" customWidth="1"/>
+    <col min="16169" max="16384" width="9" style="271"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="Z1" s="336" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="Z1" s="379" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="337"/>
-      <c r="AB1" s="337"/>
-      <c r="AC1" s="337"/>
-      <c r="AD1" s="337"/>
-      <c r="AE1" s="337"/>
-      <c r="AF1" s="337"/>
-      <c r="AG1" s="338"/>
+      <c r="AA1" s="380"/>
+      <c r="AB1" s="380"/>
+      <c r="AC1" s="380"/>
+      <c r="AD1" s="380"/>
+      <c r="AE1" s="380"/>
+      <c r="AF1" s="380"/>
+      <c r="AG1" s="381"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="340" t="s">
+      <c r="A2" s="273" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="340"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="Z2" s="342" t="s">
+      <c r="B2" s="273"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="Z2" s="366" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" s="343"/>
-      <c r="AB2" s="343"/>
-      <c r="AC2" s="343"/>
-      <c r="AD2" s="343"/>
-      <c r="AE2" s="344"/>
-      <c r="AF2" s="345" t="s">
+      <c r="AA2" s="367"/>
+      <c r="AB2" s="367"/>
+      <c r="AC2" s="367"/>
+      <c r="AD2" s="367"/>
+      <c r="AE2" s="368"/>
+      <c r="AF2" s="369" t="s">
         <v>158</v>
       </c>
-      <c r="AG2" s="346"/>
+      <c r="AG2" s="370"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="273" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
-      <c r="Z3" s="342" t="s">
+      <c r="Z3" s="366" t="s">
         <v>160</v>
       </c>
-      <c r="AA3" s="343"/>
-      <c r="AB3" s="343"/>
-      <c r="AC3" s="343"/>
-      <c r="AD3" s="343"/>
-      <c r="AE3" s="344"/>
-      <c r="AF3" s="345" t="s">
+      <c r="AA3" s="367"/>
+      <c r="AB3" s="367"/>
+      <c r="AC3" s="367"/>
+      <c r="AD3" s="367"/>
+      <c r="AE3" s="368"/>
+      <c r="AF3" s="369" t="s">
         <v>161</v>
       </c>
-      <c r="AG3" s="346"/>
+      <c r="AG3" s="370"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="273" t="s">
         <v>162</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
-      <c r="T4" s="335" t="s">
+      <c r="T4" s="271" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="342" t="s">
+      <c r="Z4" s="366" t="s">
         <v>163</v>
       </c>
-      <c r="AA4" s="343"/>
-      <c r="AB4" s="343"/>
-      <c r="AC4" s="343"/>
-      <c r="AD4" s="343"/>
-      <c r="AE4" s="344"/>
-      <c r="AF4" s="345" t="s">
+      <c r="AA4" s="367"/>
+      <c r="AB4" s="367"/>
+      <c r="AC4" s="367"/>
+      <c r="AD4" s="367"/>
+      <c r="AE4" s="368"/>
+      <c r="AF4" s="369" t="s">
         <v>164</v>
       </c>
-      <c r="AG4" s="346"/>
+      <c r="AG4" s="370"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="340" t="s">
+      <c r="A5" s="273" t="s">
         <v>165</v>
       </c>
       <c r="B5" s="88"/>
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
-      <c r="Z5" s="342" t="s">
+      <c r="Z5" s="366" t="s">
         <v>166</v>
       </c>
-      <c r="AA5" s="343"/>
-      <c r="AB5" s="343"/>
-      <c r="AC5" s="343"/>
-      <c r="AD5" s="343"/>
-      <c r="AE5" s="344"/>
-      <c r="AF5" s="345" t="s">
+      <c r="AA5" s="367"/>
+      <c r="AB5" s="367"/>
+      <c r="AC5" s="367"/>
+      <c r="AD5" s="367"/>
+      <c r="AE5" s="368"/>
+      <c r="AF5" s="369" t="s">
         <v>167</v>
       </c>
-      <c r="AG5" s="346"/>
+      <c r="AG5" s="370"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="347"/>
-      <c r="B6" s="347"/>
-      <c r="C6" s="348"/>
-      <c r="D6" s="348"/>
-      <c r="E6" s="347"/>
-    </row>
-    <row r="7" spans="1:40" s="351" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="349" t="s">
+      <c r="A6" s="275"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="275"/>
+    </row>
+    <row r="7" spans="1:40" s="278" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="371" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="349"/>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
-      <c r="E7" s="349"/>
-      <c r="F7" s="349"/>
-      <c r="G7" s="349"/>
-      <c r="H7" s="349"/>
-      <c r="I7" s="349"/>
-      <c r="J7" s="349"/>
-      <c r="K7" s="349"/>
-      <c r="L7" s="349"/>
-      <c r="M7" s="349"/>
-      <c r="N7" s="349"/>
-      <c r="O7" s="349"/>
-      <c r="P7" s="349"/>
-      <c r="Q7" s="349"/>
-      <c r="R7" s="349"/>
-      <c r="S7" s="349"/>
-      <c r="T7" s="349"/>
-      <c r="U7" s="349"/>
-      <c r="V7" s="349"/>
-      <c r="W7" s="349"/>
-      <c r="X7" s="349"/>
-      <c r="Y7" s="349"/>
-      <c r="Z7" s="349"/>
-      <c r="AA7" s="349"/>
-      <c r="AB7" s="349"/>
-      <c r="AC7" s="349"/>
-      <c r="AD7" s="349"/>
-      <c r="AE7" s="349"/>
-      <c r="AF7" s="349"/>
-      <c r="AG7" s="349"/>
-      <c r="AH7" s="349"/>
-      <c r="AI7" s="349"/>
-      <c r="AJ7" s="349"/>
-      <c r="AK7" s="349"/>
-      <c r="AL7" s="349"/>
-      <c r="AM7" s="349"/>
-      <c r="AN7" s="350"/>
-    </row>
-    <row r="9" spans="1:40" s="361" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="352" t="s">
+      <c r="B7" s="371"/>
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
+      <c r="F7" s="371"/>
+      <c r="G7" s="371"/>
+      <c r="H7" s="371"/>
+      <c r="I7" s="371"/>
+      <c r="J7" s="371"/>
+      <c r="K7" s="371"/>
+      <c r="L7" s="371"/>
+      <c r="M7" s="371"/>
+      <c r="N7" s="371"/>
+      <c r="O7" s="371"/>
+      <c r="P7" s="371"/>
+      <c r="Q7" s="371"/>
+      <c r="R7" s="371"/>
+      <c r="S7" s="371"/>
+      <c r="T7" s="371"/>
+      <c r="U7" s="371"/>
+      <c r="V7" s="371"/>
+      <c r="W7" s="371"/>
+      <c r="X7" s="371"/>
+      <c r="Y7" s="371"/>
+      <c r="Z7" s="371"/>
+      <c r="AA7" s="371"/>
+      <c r="AB7" s="371"/>
+      <c r="AC7" s="371"/>
+      <c r="AD7" s="371"/>
+      <c r="AE7" s="371"/>
+      <c r="AF7" s="371"/>
+      <c r="AG7" s="371"/>
+      <c r="AH7" s="371"/>
+      <c r="AI7" s="371"/>
+      <c r="AJ7" s="371"/>
+      <c r="AK7" s="371"/>
+      <c r="AL7" s="371"/>
+      <c r="AM7" s="371"/>
+      <c r="AN7" s="277"/>
+    </row>
+    <row r="9" spans="1:40" s="283" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="352" t="s">
+      <c r="B9" s="372" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="352" t="s">
+      <c r="C9" s="372" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="353" t="s">
+      <c r="D9" s="375" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="354"/>
-      <c r="F9" s="354"/>
-      <c r="G9" s="354"/>
-      <c r="H9" s="354"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="354"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="354"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="354"/>
-      <c r="O9" s="354"/>
-      <c r="P9" s="354"/>
-      <c r="Q9" s="354"/>
-      <c r="R9" s="354"/>
-      <c r="S9" s="354"/>
-      <c r="T9" s="354"/>
-      <c r="U9" s="354"/>
-      <c r="V9" s="354"/>
-      <c r="W9" s="354"/>
-      <c r="X9" s="354"/>
-      <c r="Y9" s="354"/>
-      <c r="Z9" s="354"/>
-      <c r="AA9" s="354"/>
-      <c r="AB9" s="354"/>
-      <c r="AC9" s="354"/>
-      <c r="AD9" s="354"/>
-      <c r="AE9" s="354"/>
-      <c r="AF9" s="354"/>
-      <c r="AG9" s="354"/>
-      <c r="AH9" s="355"/>
-      <c r="AI9" s="356" t="s">
+      <c r="E9" s="376"/>
+      <c r="F9" s="376"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="376"/>
+      <c r="I9" s="376"/>
+      <c r="J9" s="376"/>
+      <c r="K9" s="376"/>
+      <c r="L9" s="376"/>
+      <c r="M9" s="376"/>
+      <c r="N9" s="376"/>
+      <c r="O9" s="376"/>
+      <c r="P9" s="376"/>
+      <c r="Q9" s="376"/>
+      <c r="R9" s="376"/>
+      <c r="S9" s="376"/>
+      <c r="T9" s="376"/>
+      <c r="U9" s="376"/>
+      <c r="V9" s="376"/>
+      <c r="W9" s="376"/>
+      <c r="X9" s="376"/>
+      <c r="Y9" s="376"/>
+      <c r="Z9" s="376"/>
+      <c r="AA9" s="376"/>
+      <c r="AB9" s="376"/>
+      <c r="AC9" s="376"/>
+      <c r="AD9" s="376"/>
+      <c r="AE9" s="376"/>
+      <c r="AF9" s="376"/>
+      <c r="AG9" s="376"/>
+      <c r="AH9" s="377"/>
+      <c r="AI9" s="378" t="s">
         <v>172</v>
       </c>
-      <c r="AJ9" s="357"/>
-      <c r="AK9" s="358"/>
-      <c r="AL9" s="358"/>
-      <c r="AM9" s="359"/>
-      <c r="AN9" s="360"/>
-    </row>
-    <row r="10" spans="1:40" s="361" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="362"/>
-      <c r="B10" s="362"/>
-      <c r="C10" s="362"/>
-      <c r="D10" s="363">
+      <c r="AJ9" s="279"/>
+      <c r="AK9" s="280"/>
+      <c r="AL9" s="280"/>
+      <c r="AM9" s="281"/>
+      <c r="AN9" s="282"/>
+    </row>
+    <row r="10" spans="1:40" s="283" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="373"/>
+      <c r="B10" s="373"/>
+      <c r="C10" s="373"/>
+      <c r="D10" s="284">
         <v>1</v>
       </c>
-      <c r="E10" s="363">
+      <c r="E10" s="284">
         <v>2</v>
       </c>
-      <c r="F10" s="363">
+      <c r="F10" s="284">
         <v>3</v>
       </c>
-      <c r="G10" s="363">
+      <c r="G10" s="284">
         <v>4</v>
       </c>
-      <c r="H10" s="363">
+      <c r="H10" s="284">
         <v>5</v>
       </c>
-      <c r="I10" s="363">
+      <c r="I10" s="284">
         <v>6</v>
       </c>
-      <c r="J10" s="363">
+      <c r="J10" s="284">
         <v>7</v>
       </c>
-      <c r="K10" s="363">
+      <c r="K10" s="284">
         <v>8</v>
       </c>
-      <c r="L10" s="363">
+      <c r="L10" s="284">
         <v>9</v>
       </c>
-      <c r="M10" s="363">
+      <c r="M10" s="284">
         <v>10</v>
       </c>
-      <c r="N10" s="363">
+      <c r="N10" s="284">
         <v>11</v>
       </c>
-      <c r="O10" s="363">
+      <c r="O10" s="284">
         <v>12</v>
       </c>
-      <c r="P10" s="363">
+      <c r="P10" s="284">
         <v>13</v>
       </c>
-      <c r="Q10" s="363">
+      <c r="Q10" s="284">
         <v>14</v>
       </c>
-      <c r="R10" s="363">
+      <c r="R10" s="284">
         <v>15</v>
       </c>
-      <c r="S10" s="363">
+      <c r="S10" s="284">
         <v>16</v>
       </c>
-      <c r="T10" s="363">
+      <c r="T10" s="284">
         <v>17</v>
       </c>
-      <c r="U10" s="363">
+      <c r="U10" s="284">
         <v>18</v>
       </c>
-      <c r="V10" s="363">
+      <c r="V10" s="284">
         <v>19</v>
       </c>
-      <c r="W10" s="363">
+      <c r="W10" s="284">
         <v>20</v>
       </c>
-      <c r="X10" s="363">
+      <c r="X10" s="284">
         <v>21</v>
       </c>
-      <c r="Y10" s="363">
+      <c r="Y10" s="284">
         <v>22</v>
       </c>
-      <c r="Z10" s="363">
+      <c r="Z10" s="284">
         <v>23</v>
       </c>
-      <c r="AA10" s="363">
+      <c r="AA10" s="284">
         <v>24</v>
       </c>
-      <c r="AB10" s="363">
+      <c r="AB10" s="284">
         <v>25</v>
       </c>
-      <c r="AC10" s="363">
+      <c r="AC10" s="284">
         <v>26</v>
       </c>
-      <c r="AD10" s="363">
+      <c r="AD10" s="284">
         <v>27</v>
       </c>
-      <c r="AE10" s="363">
+      <c r="AE10" s="284">
         <v>28</v>
       </c>
-      <c r="AF10" s="363">
+      <c r="AF10" s="284">
         <v>29</v>
       </c>
-      <c r="AG10" s="363">
+      <c r="AG10" s="284">
         <v>30</v>
       </c>
-      <c r="AH10" s="363">
+      <c r="AH10" s="284">
         <v>31</v>
       </c>
-      <c r="AI10" s="356"/>
-      <c r="AJ10" s="364"/>
-      <c r="AK10" s="359"/>
-      <c r="AL10" s="359"/>
-      <c r="AM10" s="359"/>
-      <c r="AN10" s="360"/>
-    </row>
-    <row r="11" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="365"/>
-      <c r="B11" s="365"/>
-      <c r="C11" s="365"/>
-      <c r="D11" s="363" t="s">
+      <c r="AI10" s="378"/>
+      <c r="AJ10" s="285"/>
+      <c r="AK10" s="281"/>
+      <c r="AL10" s="281"/>
+      <c r="AM10" s="281"/>
+      <c r="AN10" s="282"/>
+    </row>
+    <row r="11" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="374"/>
+      <c r="B11" s="374"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="284" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="363" t="s">
+      <c r="E11" s="284" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="366" t="s">
+      <c r="F11" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="367" t="s">
+      <c r="G11" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="366" t="s">
+      <c r="H11" s="286" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="366" t="s">
+      <c r="I11" s="286" t="s">
         <v>179</v>
       </c>
-      <c r="J11" s="363" t="s">
+      <c r="J11" s="284" t="s">
         <v>173</v>
       </c>
-      <c r="K11" s="366" t="s">
+      <c r="K11" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="L11" s="363" t="s">
+      <c r="L11" s="284" t="s">
         <v>175</v>
       </c>
-      <c r="M11" s="366" t="s">
+      <c r="M11" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="N11" s="367" t="s">
+      <c r="N11" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="O11" s="366" t="s">
+      <c r="O11" s="286" t="s">
         <v>178</v>
       </c>
-      <c r="P11" s="366" t="s">
+      <c r="P11" s="286" t="s">
         <v>179</v>
       </c>
-      <c r="Q11" s="363" t="s">
+      <c r="Q11" s="284" t="s">
         <v>173</v>
       </c>
-      <c r="R11" s="366" t="s">
+      <c r="R11" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="S11" s="363" t="s">
+      <c r="S11" s="284" t="s">
         <v>175</v>
       </c>
-      <c r="T11" s="366" t="s">
+      <c r="T11" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="U11" s="367" t="s">
+      <c r="U11" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="V11" s="366" t="s">
+      <c r="V11" s="286" t="s">
         <v>178</v>
       </c>
-      <c r="W11" s="363" t="s">
+      <c r="W11" s="284" t="s">
         <v>179</v>
       </c>
-      <c r="X11" s="366" t="s">
+      <c r="X11" s="286" t="s">
         <v>173</v>
       </c>
-      <c r="Y11" s="366" t="s">
+      <c r="Y11" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="Z11" s="366" t="s">
+      <c r="Z11" s="286" t="s">
         <v>175</v>
       </c>
-      <c r="AA11" s="366" t="s">
+      <c r="AA11" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="AB11" s="367" t="s">
+      <c r="AB11" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="AC11" s="366" t="s">
+      <c r="AC11" s="286" t="s">
         <v>178</v>
       </c>
-      <c r="AD11" s="363" t="s">
+      <c r="AD11" s="284" t="s">
         <v>179</v>
       </c>
-      <c r="AE11" s="366" t="s">
+      <c r="AE11" s="286" t="s">
         <v>173</v>
       </c>
-      <c r="AF11" s="366" t="s">
+      <c r="AF11" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="AG11" s="366" t="s">
+      <c r="AG11" s="286" t="s">
         <v>175</v>
       </c>
-      <c r="AH11" s="366" t="s">
+      <c r="AH11" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="AI11" s="356"/>
-      <c r="AJ11" s="368"/>
-      <c r="AN11" s="370"/>
-    </row>
-    <row r="12" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="371">
+      <c r="AI11" s="378"/>
+      <c r="AJ11" s="288"/>
+      <c r="AN11" s="290"/>
+    </row>
+    <row r="12" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="291">
         <v>1</v>
       </c>
-      <c r="B12" s="371" t="s">
+      <c r="B12" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="371" t="s">
+      <c r="C12" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="366" t="s">
+      <c r="D12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="366" t="s">
+      <c r="E12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="366" t="s">
+      <c r="F12" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="372" t="s">
+      <c r="G12" s="292" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="366" t="s">
+      <c r="H12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="366" t="s">
+      <c r="I12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="366" t="s">
+      <c r="J12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="366" t="s">
+      <c r="K12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="L12" s="366" t="s">
+      <c r="L12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="366" t="s">
+      <c r="M12" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="N12" s="372" t="s">
+      <c r="N12" s="292" t="s">
         <v>158</v>
       </c>
-      <c r="O12" s="366" t="s">
+      <c r="O12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="P12" s="366" t="s">
+      <c r="P12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Q12" s="366" t="s">
+      <c r="Q12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="R12" s="366" t="s">
+      <c r="R12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="S12" s="366" t="s">
+      <c r="S12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="T12" s="366" t="s">
+      <c r="T12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="U12" s="372"/>
-      <c r="V12" s="366" t="s">
+      <c r="U12" s="292"/>
+      <c r="V12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="W12" s="366" t="s">
+      <c r="W12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="X12" s="366" t="s">
+      <c r="X12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Y12" s="366" t="s">
+      <c r="Y12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Z12" s="366" t="s">
+      <c r="Z12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AA12" s="366" t="s">
+      <c r="AA12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AB12" s="372"/>
-      <c r="AC12" s="366" t="s">
+      <c r="AB12" s="292"/>
+      <c r="AC12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AD12" s="366" t="s">
+      <c r="AD12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AE12" s="366" t="s">
+      <c r="AE12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AF12" s="366" t="s">
+      <c r="AF12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AG12" s="366" t="s">
+      <c r="AG12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AH12" s="366" t="s">
+      <c r="AH12" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AI12" s="373">
+      <c r="AI12" s="293">
         <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
         <v>28</v>
       </c>
-      <c r="AJ12" s="368"/>
-      <c r="AN12" s="370"/>
-    </row>
-    <row r="13" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="371">
+      <c r="AJ12" s="288"/>
+      <c r="AN12" s="290"/>
+    </row>
+    <row r="13" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="291">
         <v>2</v>
       </c>
-      <c r="B13" s="374" t="s">
+      <c r="B13" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="375" t="s">
+      <c r="C13" s="295" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="366" t="s">
+      <c r="D13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="366" t="s">
+      <c r="E13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="366" t="s">
+      <c r="F13" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="372" t="s">
+      <c r="G13" s="292" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="366" t="s">
+      <c r="H13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="366" t="s">
+      <c r="I13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="366" t="s">
+      <c r="J13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="366" t="s">
+      <c r="K13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="L13" s="366" t="s">
+      <c r="L13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="M13" s="366" t="s">
+      <c r="M13" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="N13" s="372" t="s">
+      <c r="N13" s="292" t="s">
         <v>158</v>
       </c>
-      <c r="O13" s="366" t="s">
+      <c r="O13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="366" t="s">
+      <c r="P13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Q13" s="366" t="s">
+      <c r="Q13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="R13" s="366" t="s">
+      <c r="R13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="S13" s="366" t="s">
+      <c r="S13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="T13" s="366" t="s">
+      <c r="T13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="U13" s="372" t="s">
+      <c r="U13" s="292" t="s">
         <v>161</v>
       </c>
-      <c r="V13" s="366" t="s">
+      <c r="V13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="W13" s="366" t="s">
+      <c r="W13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="X13" s="366" t="s">
+      <c r="X13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Y13" s="366" t="s">
+      <c r="Y13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Z13" s="366" t="s">
+      <c r="Z13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AA13" s="366" t="s">
+      <c r="AA13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AB13" s="372"/>
-      <c r="AC13" s="366" t="s">
+      <c r="AB13" s="292"/>
+      <c r="AC13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AD13" s="366" t="s">
+      <c r="AD13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AE13" s="366" t="s">
+      <c r="AE13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AF13" s="366" t="s">
+      <c r="AF13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AG13" s="366" t="s">
+      <c r="AG13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AH13" s="366" t="s">
+      <c r="AH13" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AI13" s="373">
+      <c r="AI13" s="293">
         <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
         <v>28.5</v>
       </c>
-      <c r="AJ13" s="368"/>
-      <c r="AN13" s="370"/>
-    </row>
-    <row r="14" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="371">
+      <c r="AJ13" s="288"/>
+      <c r="AN13" s="290"/>
+    </row>
+    <row r="14" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="291">
         <v>3</v>
       </c>
-      <c r="B14" s="371" t="s">
+      <c r="B14" s="291" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="375" t="s">
+      <c r="C14" s="295" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="366" t="s">
+      <c r="D14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="366" t="s">
+      <c r="E14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="366" t="s">
+      <c r="F14" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="372"/>
-      <c r="H14" s="366" t="s">
+      <c r="G14" s="292"/>
+      <c r="H14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="366" t="s">
+      <c r="I14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="366" t="s">
+      <c r="J14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="K14" s="366" t="s">
+      <c r="K14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="L14" s="366" t="s">
+      <c r="L14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="M14" s="366" t="s">
+      <c r="M14" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="372"/>
-      <c r="O14" s="366" t="s">
+      <c r="N14" s="292"/>
+      <c r="O14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="P14" s="366" t="s">
+      <c r="P14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Q14" s="366" t="s">
+      <c r="Q14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="R14" s="366" t="s">
+      <c r="R14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="S14" s="366" t="s">
+      <c r="S14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="T14" s="366" t="s">
+      <c r="T14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="U14" s="372"/>
-      <c r="V14" s="366" t="s">
+      <c r="U14" s="292"/>
+      <c r="V14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="W14" s="366" t="s">
+      <c r="W14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="X14" s="366" t="s">
+      <c r="X14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Y14" s="366" t="s">
+      <c r="Y14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="Z14" s="366" t="s">
+      <c r="Z14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AA14" s="366" t="s">
+      <c r="AA14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AB14" s="372"/>
-      <c r="AC14" s="366" t="s">
+      <c r="AB14" s="292"/>
+      <c r="AC14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AD14" s="366" t="s">
+      <c r="AD14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AE14" s="366" t="s">
+      <c r="AE14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AF14" s="366" t="s">
+      <c r="AF14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AG14" s="366" t="s">
+      <c r="AG14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AH14" s="366" t="s">
+      <c r="AH14" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AI14" s="373">
+      <c r="AI14" s="293">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AJ14" s="368"/>
-      <c r="AN14" s="370"/>
-    </row>
-    <row r="15" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="371">
+      <c r="AJ14" s="288"/>
+      <c r="AN14" s="290"/>
+    </row>
+    <row r="15" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="291">
         <v>4</v>
       </c>
-      <c r="B15" s="371" t="s">
+      <c r="B15" s="291" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="375" t="s">
+      <c r="C15" s="295" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="396"/>
-      <c r="E15" s="366"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="372"/>
-      <c r="H15" s="366"/>
-      <c r="I15" s="366"/>
-      <c r="J15" s="366"/>
-      <c r="K15" s="366"/>
-      <c r="L15" s="366"/>
-      <c r="M15" s="366"/>
-      <c r="N15" s="372"/>
-      <c r="O15" s="366"/>
-      <c r="P15" s="366"/>
-      <c r="Q15" s="366"/>
-      <c r="R15" s="366"/>
-      <c r="S15" s="366"/>
-      <c r="T15" s="366"/>
-      <c r="U15" s="372"/>
-      <c r="V15" s="366"/>
-      <c r="W15" s="366"/>
-      <c r="X15" s="366"/>
-      <c r="Y15" s="366"/>
-      <c r="Z15" s="366"/>
-      <c r="AA15" s="366"/>
-      <c r="AB15" s="372"/>
-      <c r="AC15" s="366" t="s">
+      <c r="D15" s="311"/>
+      <c r="E15" s="286"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="292"/>
+      <c r="H15" s="286"/>
+      <c r="I15" s="286"/>
+      <c r="J15" s="286"/>
+      <c r="K15" s="286"/>
+      <c r="L15" s="286"/>
+      <c r="M15" s="286"/>
+      <c r="N15" s="292"/>
+      <c r="O15" s="286"/>
+      <c r="P15" s="286"/>
+      <c r="Q15" s="286"/>
+      <c r="R15" s="286"/>
+      <c r="S15" s="286"/>
+      <c r="T15" s="286"/>
+      <c r="U15" s="292"/>
+      <c r="V15" s="286"/>
+      <c r="W15" s="286"/>
+      <c r="X15" s="286"/>
+      <c r="Y15" s="286"/>
+      <c r="Z15" s="286"/>
+      <c r="AA15" s="286"/>
+      <c r="AB15" s="292"/>
+      <c r="AC15" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AD15" s="366" t="s">
+      <c r="AD15" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AE15" s="366" t="s">
+      <c r="AE15" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AF15" s="366" t="s">
+      <c r="AF15" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AG15" s="366" t="s">
+      <c r="AG15" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AH15" s="366" t="s">
+      <c r="AH15" s="286" t="s">
         <v>158</v>
       </c>
-      <c r="AI15" s="373">
+      <c r="AI15" s="293">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AJ15" s="368"/>
-      <c r="AN15" s="370"/>
-    </row>
-    <row r="16" spans="1:40" s="369" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="376" t="s">
+      <c r="AJ15" s="288"/>
+      <c r="AN15" s="290"/>
+    </row>
+    <row r="16" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="361" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="377"/>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="379"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="379"/>
-      <c r="J16" s="379"/>
-      <c r="K16" s="379"/>
-      <c r="L16" s="379"/>
-      <c r="M16" s="379"/>
-      <c r="N16" s="379"/>
-      <c r="O16" s="379"/>
-      <c r="P16" s="379"/>
-      <c r="Q16" s="379"/>
-      <c r="R16" s="379"/>
-      <c r="S16" s="379"/>
-      <c r="T16" s="379"/>
-      <c r="U16" s="379"/>
-      <c r="V16" s="379"/>
-      <c r="W16" s="379"/>
-      <c r="X16" s="379"/>
-      <c r="Y16" s="379"/>
-      <c r="Z16" s="379"/>
-      <c r="AA16" s="379"/>
-      <c r="AB16" s="379"/>
-      <c r="AC16" s="379"/>
-      <c r="AD16" s="379"/>
-      <c r="AE16" s="379"/>
-      <c r="AF16" s="379"/>
-      <c r="AG16" s="379"/>
-      <c r="AH16" s="379"/>
-      <c r="AI16" s="380">
+      <c r="B16" s="362"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="297"/>
+      <c r="F16" s="297"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="297"/>
+      <c r="I16" s="297"/>
+      <c r="J16" s="297"/>
+      <c r="K16" s="297"/>
+      <c r="L16" s="297"/>
+      <c r="M16" s="297"/>
+      <c r="N16" s="297"/>
+      <c r="O16" s="297"/>
+      <c r="P16" s="297"/>
+      <c r="Q16" s="297"/>
+      <c r="R16" s="297"/>
+      <c r="S16" s="297"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="297"/>
+      <c r="V16" s="297"/>
+      <c r="W16" s="297"/>
+      <c r="X16" s="297"/>
+      <c r="Y16" s="297"/>
+      <c r="Z16" s="297"/>
+      <c r="AA16" s="297"/>
+      <c r="AB16" s="297"/>
+      <c r="AC16" s="297"/>
+      <c r="AD16" s="297"/>
+      <c r="AE16" s="297"/>
+      <c r="AF16" s="297"/>
+      <c r="AG16" s="297"/>
+      <c r="AH16" s="297"/>
+      <c r="AI16" s="298">
         <f>SUM(AI12:AI14)</f>
         <v>82.5</v>
       </c>
-      <c r="AJ16" s="381"/>
-      <c r="AK16" s="382"/>
-      <c r="AL16" s="382"/>
-      <c r="AN16" s="370"/>
-    </row>
-    <row r="18" spans="1:40" s="390" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="383" t="s">
+      <c r="AJ16" s="299"/>
+      <c r="AK16" s="300"/>
+      <c r="AL16" s="300"/>
+      <c r="AN16" s="290"/>
+    </row>
+    <row r="18" spans="1:40" s="306" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="363" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="383"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="383"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="385"/>
-      <c r="J18" s="385"/>
-      <c r="K18" s="385"/>
-      <c r="L18" s="385"/>
-      <c r="M18" s="385"/>
-      <c r="N18" s="386"/>
-      <c r="O18" s="385" t="s">
+      <c r="B18" s="363"/>
+      <c r="C18" s="363"/>
+      <c r="D18" s="363"/>
+      <c r="E18" s="363"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="363"/>
+      <c r="H18" s="301"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="364"/>
+      <c r="L18" s="364"/>
+      <c r="M18" s="364"/>
+      <c r="N18" s="302"/>
+      <c r="O18" s="364" t="s">
         <v>181</v>
       </c>
-      <c r="P18" s="385"/>
-      <c r="Q18" s="385"/>
-      <c r="R18" s="385"/>
-      <c r="S18" s="385"/>
-      <c r="T18" s="385"/>
-      <c r="U18" s="385"/>
-      <c r="V18" s="385"/>
-      <c r="W18" s="385"/>
-      <c r="X18" s="385"/>
-      <c r="Y18" s="385"/>
-      <c r="Z18" s="387"/>
-      <c r="AA18" s="387"/>
-      <c r="AB18" s="388"/>
-      <c r="AC18" s="385"/>
-      <c r="AD18" s="385"/>
-      <c r="AE18" s="385"/>
-      <c r="AF18" s="385"/>
-      <c r="AG18" s="385"/>
-      <c r="AH18" s="385"/>
-      <c r="AI18" s="385"/>
-      <c r="AJ18" s="385"/>
-      <c r="AK18" s="385"/>
-      <c r="AL18" s="385"/>
-      <c r="AM18" s="385"/>
-      <c r="AN18" s="389"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="364"/>
+      <c r="U18" s="364"/>
+      <c r="V18" s="364"/>
+      <c r="W18" s="364"/>
+      <c r="X18" s="364"/>
+      <c r="Y18" s="364"/>
+      <c r="Z18" s="303"/>
+      <c r="AA18" s="303"/>
+      <c r="AB18" s="304"/>
+      <c r="AC18" s="364"/>
+      <c r="AD18" s="364"/>
+      <c r="AE18" s="364"/>
+      <c r="AF18" s="364"/>
+      <c r="AG18" s="364"/>
+      <c r="AH18" s="364"/>
+      <c r="AI18" s="364"/>
+      <c r="AJ18" s="364"/>
+      <c r="AK18" s="364"/>
+      <c r="AL18" s="364"/>
+      <c r="AM18" s="364"/>
+      <c r="AN18" s="305"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="391"/>
-      <c r="B25" s="392"/>
-      <c r="C25" s="391"/>
-      <c r="D25" s="391"/>
+      <c r="A25" s="307"/>
+      <c r="B25" s="308"/>
+      <c r="C25" s="307"/>
+      <c r="D25" s="307"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="391"/>
-      <c r="B26" s="392"/>
-      <c r="C26" s="391"/>
-      <c r="D26" s="391"/>
+      <c r="A26" s="307"/>
+      <c r="B26" s="308"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="347"/>
-      <c r="B27" s="348"/>
-      <c r="C27" s="347"/>
-      <c r="D27" s="347"/>
+      <c r="A27" s="275"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="275"/>
+      <c r="D27" s="275"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="347"/>
-      <c r="B28" s="348"/>
-      <c r="C28" s="347"/>
-      <c r="D28" s="347"/>
-    </row>
-    <row r="32" spans="1:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AN32" s="394"/>
-    </row>
-    <row r="33" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AN33" s="394"/>
-    </row>
-    <row r="34" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="395"/>
-      <c r="H34" s="395"/>
-      <c r="I34" s="395"/>
-      <c r="J34" s="395"/>
-      <c r="K34" s="395"/>
-      <c r="L34" s="395"/>
-      <c r="M34" s="395"/>
-      <c r="N34" s="395"/>
-      <c r="O34" s="395"/>
-      <c r="P34" s="395"/>
-      <c r="Q34" s="395"/>
-      <c r="R34" s="395"/>
-      <c r="S34" s="395"/>
-      <c r="T34" s="395"/>
-      <c r="U34" s="395"/>
-      <c r="V34" s="395"/>
-      <c r="W34" s="395"/>
-      <c r="X34" s="395"/>
-      <c r="AN34" s="394"/>
-    </row>
-    <row r="35" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="395"/>
-      <c r="H35" s="395"/>
-      <c r="I35" s="395"/>
-      <c r="J35" s="395"/>
-      <c r="K35" s="395"/>
-      <c r="L35" s="395"/>
-      <c r="M35" s="395"/>
-      <c r="N35" s="395"/>
-      <c r="O35" s="395"/>
-      <c r="P35" s="395"/>
-      <c r="Q35" s="395"/>
-      <c r="R35" s="395"/>
-      <c r="S35" s="395"/>
-      <c r="T35" s="395"/>
-      <c r="U35" s="395"/>
-      <c r="V35" s="395"/>
-      <c r="W35" s="395"/>
-      <c r="X35" s="395"/>
-      <c r="AN35" s="394"/>
-    </row>
-    <row r="36" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="395"/>
-      <c r="H36" s="395"/>
-      <c r="I36" s="395"/>
-      <c r="J36" s="395"/>
-      <c r="K36" s="395"/>
-      <c r="L36" s="395"/>
-      <c r="M36" s="395"/>
-      <c r="N36" s="395"/>
-      <c r="O36" s="395"/>
-      <c r="P36" s="395"/>
-      <c r="Q36" s="395"/>
-      <c r="R36" s="395"/>
-      <c r="S36" s="395"/>
-      <c r="T36" s="395"/>
-      <c r="U36" s="395"/>
-      <c r="V36" s="395"/>
-      <c r="W36" s="395"/>
-      <c r="X36" s="395"/>
-      <c r="AN36" s="394"/>
-    </row>
-    <row r="37" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-      <c r="K37" s="395"/>
-      <c r="L37" s="395"/>
-      <c r="M37" s="395"/>
-      <c r="N37" s="395"/>
-      <c r="O37" s="395"/>
-      <c r="P37" s="395"/>
-      <c r="Q37" s="395"/>
-      <c r="R37" s="395"/>
-      <c r="S37" s="395"/>
-      <c r="T37" s="395"/>
-      <c r="U37" s="395"/>
-      <c r="V37" s="395"/>
-      <c r="W37" s="395"/>
-      <c r="X37" s="395"/>
-      <c r="AN37" s="394"/>
-    </row>
-    <row r="38" spans="3:40" s="393" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="395"/>
-      <c r="H38" s="395"/>
-      <c r="I38" s="395"/>
-      <c r="J38" s="395"/>
-      <c r="K38" s="395"/>
-      <c r="L38" s="395"/>
-      <c r="M38" s="395"/>
-      <c r="N38" s="395"/>
-      <c r="O38" s="395"/>
-      <c r="P38" s="395"/>
-      <c r="Q38" s="395"/>
-      <c r="R38" s="395"/>
-      <c r="S38" s="395"/>
-      <c r="T38" s="395"/>
-      <c r="U38" s="395"/>
-      <c r="V38" s="395"/>
-      <c r="W38" s="395"/>
-      <c r="X38" s="395"/>
-      <c r="AN38" s="394"/>
+      <c r="A28" s="275"/>
+      <c r="B28" s="276"/>
+      <c r="C28" s="275"/>
+      <c r="D28" s="275"/>
+    </row>
+    <row r="32" spans="1:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN32" s="310"/>
+    </row>
+    <row r="33" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN33" s="310"/>
+    </row>
+    <row r="34" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="365"/>
+      <c r="H34" s="365"/>
+      <c r="I34" s="365"/>
+      <c r="J34" s="365"/>
+      <c r="K34" s="365"/>
+      <c r="L34" s="365"/>
+      <c r="M34" s="365"/>
+      <c r="N34" s="365"/>
+      <c r="O34" s="365"/>
+      <c r="P34" s="365"/>
+      <c r="Q34" s="365"/>
+      <c r="R34" s="365"/>
+      <c r="S34" s="365"/>
+      <c r="T34" s="365"/>
+      <c r="U34" s="365"/>
+      <c r="V34" s="365"/>
+      <c r="W34" s="365"/>
+      <c r="X34" s="365"/>
+      <c r="AN34" s="310"/>
+    </row>
+    <row r="35" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="365"/>
+      <c r="H35" s="365"/>
+      <c r="I35" s="365"/>
+      <c r="J35" s="365"/>
+      <c r="K35" s="365"/>
+      <c r="L35" s="365"/>
+      <c r="M35" s="365"/>
+      <c r="N35" s="365"/>
+      <c r="O35" s="365"/>
+      <c r="P35" s="365"/>
+      <c r="Q35" s="365"/>
+      <c r="R35" s="365"/>
+      <c r="S35" s="365"/>
+      <c r="T35" s="365"/>
+      <c r="U35" s="365"/>
+      <c r="V35" s="365"/>
+      <c r="W35" s="365"/>
+      <c r="X35" s="365"/>
+      <c r="AN35" s="310"/>
+    </row>
+    <row r="36" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="365"/>
+      <c r="H36" s="365"/>
+      <c r="I36" s="365"/>
+      <c r="J36" s="365"/>
+      <c r="K36" s="365"/>
+      <c r="L36" s="365"/>
+      <c r="M36" s="365"/>
+      <c r="N36" s="365"/>
+      <c r="O36" s="365"/>
+      <c r="P36" s="365"/>
+      <c r="Q36" s="365"/>
+      <c r="R36" s="365"/>
+      <c r="S36" s="365"/>
+      <c r="T36" s="365"/>
+      <c r="U36" s="365"/>
+      <c r="V36" s="365"/>
+      <c r="W36" s="365"/>
+      <c r="X36" s="365"/>
+      <c r="AN36" s="310"/>
+    </row>
+    <row r="37" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="365"/>
+      <c r="H37" s="365"/>
+      <c r="I37" s="365"/>
+      <c r="J37" s="365"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="365"/>
+      <c r="M37" s="365"/>
+      <c r="N37" s="365"/>
+      <c r="O37" s="365"/>
+      <c r="P37" s="365"/>
+      <c r="Q37" s="365"/>
+      <c r="R37" s="365"/>
+      <c r="S37" s="365"/>
+      <c r="T37" s="365"/>
+      <c r="U37" s="365"/>
+      <c r="V37" s="365"/>
+      <c r="W37" s="365"/>
+      <c r="X37" s="365"/>
+      <c r="AN37" s="310"/>
+    </row>
+    <row r="38" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="365"/>
+      <c r="H38" s="365"/>
+      <c r="I38" s="365"/>
+      <c r="J38" s="365"/>
+      <c r="K38" s="365"/>
+      <c r="L38" s="365"/>
+      <c r="M38" s="365"/>
+      <c r="N38" s="365"/>
+      <c r="O38" s="365"/>
+      <c r="P38" s="365"/>
+      <c r="Q38" s="365"/>
+      <c r="R38" s="365"/>
+      <c r="S38" s="365"/>
+      <c r="T38" s="365"/>
+      <c r="U38" s="365"/>
+      <c r="V38" s="365"/>
+      <c r="W38" s="365"/>
+      <c r="X38" s="365"/>
+      <c r="AN38" s="310"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C39" s="335"/>
-      <c r="D39" s="335"/>
-      <c r="G39" s="395"/>
-      <c r="H39" s="395"/>
-      <c r="I39" s="395"/>
-      <c r="J39" s="395"/>
-      <c r="K39" s="395"/>
-      <c r="L39" s="395"/>
-      <c r="M39" s="395"/>
-      <c r="N39" s="395"/>
-      <c r="O39" s="395"/>
-      <c r="P39" s="395"/>
-      <c r="Q39" s="395"/>
-      <c r="R39" s="395"/>
-      <c r="S39" s="395"/>
-      <c r="T39" s="395"/>
-      <c r="U39" s="395"/>
-      <c r="V39" s="395"/>
-      <c r="W39" s="395"/>
-      <c r="X39" s="395"/>
-      <c r="AN39" s="335"/>
+      <c r="C39" s="271"/>
+      <c r="D39" s="271"/>
+      <c r="G39" s="365"/>
+      <c r="H39" s="365"/>
+      <c r="I39" s="365"/>
+      <c r="J39" s="365"/>
+      <c r="K39" s="365"/>
+      <c r="L39" s="365"/>
+      <c r="M39" s="365"/>
+      <c r="N39" s="365"/>
+      <c r="O39" s="365"/>
+      <c r="P39" s="365"/>
+      <c r="Q39" s="365"/>
+      <c r="R39" s="365"/>
+      <c r="S39" s="365"/>
+      <c r="T39" s="365"/>
+      <c r="U39" s="365"/>
+      <c r="V39" s="365"/>
+      <c r="W39" s="365"/>
+      <c r="X39" s="365"/>
+      <c r="AN39" s="271"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C40" s="335"/>
-      <c r="D40" s="335"/>
-      <c r="AN40" s="335"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
+      <c r="AN40" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="O18:Y18"/>
-    <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -8264,13 +8266,11 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:AH9"/>
     <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="O18:Y18"/>
+    <mergeCell ref="AC18:AM18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9121,38 +9121,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
       <c r="E1" s="89"/>
-      <c r="F1" s="323" t="s">
+      <c r="F1" s="390" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="391" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
+      <c r="B2" s="391"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
       <c r="E2" s="89"/>
-      <c r="F2" s="325" t="s">
+      <c r="F2" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9165,43 +9165,43 @@
       <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="393" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
+      <c r="B4" s="393"/>
+      <c r="C4" s="393"/>
+      <c r="D4" s="393"/>
+      <c r="E4" s="393"/>
+      <c r="F4" s="393"/>
+      <c r="G4" s="393"/>
+      <c r="H4" s="393"/>
+      <c r="I4" s="393"/>
+      <c r="J4" s="393"/>
+      <c r="K4" s="393"/>
+      <c r="L4" s="393"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="327" t="s">
+      <c r="A5" s="394" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="327"/>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="327"/>
-      <c r="H5" s="327"/>
-      <c r="I5" s="327"/>
-      <c r="J5" s="327"/>
-      <c r="K5" s="327"/>
-      <c r="L5" s="327"/>
+      <c r="B5" s="394"/>
+      <c r="C5" s="394"/>
+      <c r="D5" s="394"/>
+      <c r="E5" s="394"/>
+      <c r="F5" s="394"/>
+      <c r="G5" s="394"/>
+      <c r="H5" s="394"/>
+      <c r="I5" s="394"/>
+      <c r="J5" s="394"/>
+      <c r="K5" s="394"/>
+      <c r="L5" s="394"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="328" t="s">
+      <c r="J6" s="395" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="328"/>
-      <c r="L6" s="328"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="395"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="165" t="s">
@@ -9268,12 +9268,12 @@
       <c r="L8" s="165"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="319" t="s">
+      <c r="A9" s="386" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="320"/>
-      <c r="C9" s="320"/>
-      <c r="D9" s="321"/>
+      <c r="B9" s="387"/>
+      <c r="C9" s="387"/>
+      <c r="D9" s="388"/>
       <c r="E9" s="167"/>
       <c r="F9" s="171">
         <f>SUM(F10:F12)</f>
@@ -9392,12 +9392,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="316" t="s">
+      <c r="A13" s="383" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="317"/>
-      <c r="C13" s="317"/>
-      <c r="D13" s="318"/>
+      <c r="B13" s="384"/>
+      <c r="C13" s="384"/>
+      <c r="D13" s="385"/>
       <c r="E13" s="98"/>
       <c r="F13" s="171">
         <f>SUM(F14:F14)</f>
@@ -9454,11 +9454,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="329" t="s">
+      <c r="A15" s="396" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="330"/>
-      <c r="C15" s="331"/>
+      <c r="B15" s="397"/>
+      <c r="C15" s="398"/>
       <c r="D15" s="95"/>
       <c r="E15" s="96"/>
       <c r="F15" s="95">
@@ -9485,14 +9485,14 @@
       <c r="L15" s="94"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="306"/>
-      <c r="C17" s="306"/>
-      <c r="D17" s="306"/>
+      <c r="B17" s="353"/>
+      <c r="C17" s="353"/>
+      <c r="D17" s="353"/>
       <c r="E17" s="91"/>
-      <c r="H17" s="306"/>
-      <c r="I17" s="306"/>
-      <c r="J17" s="306"/>
-      <c r="K17" s="306"/>
+      <c r="H17" s="353"/>
+      <c r="I17" s="353"/>
+      <c r="J17" s="353"/>
+      <c r="K17" s="353"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="162" t="s">
@@ -9504,12 +9504,12 @@
         <v>86</v>
       </c>
       <c r="G18" s="162"/>
-      <c r="H18" s="306" t="s">
+      <c r="H18" s="353" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="306"/>
-      <c r="J18" s="306"/>
-      <c r="K18" s="306"/>
+      <c r="I18" s="353"/>
+      <c r="J18" s="353"/>
+      <c r="K18" s="353"/>
     </row>
     <row r="19" spans="2:11" s="163" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="164" t="s">
@@ -9521,12 +9521,12 @@
         <v>93</v>
       </c>
       <c r="G19" s="164"/>
-      <c r="H19" s="315" t="s">
+      <c r="H19" s="382" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="315"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="315"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="382"/>
+      <c r="K19" s="382"/>
     </row>
     <row r="22" spans="2:11" s="108" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="100"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
     <sheet name="DOANH THU" sheetId="9" r:id="rId2"/>
     <sheet name="BÁO CÁO" sheetId="3" r:id="rId3"/>
     <sheet name="Hàng khách trả" sheetId="8" r:id="rId4"/>
-    <sheet name="Bảng chấm công" sheetId="10" r:id="rId5"/>
-    <sheet name="Bảng lương" sheetId="5" r:id="rId6"/>
+    <sheet name="tiền hàng hằng" sheetId="11" r:id="rId5"/>
+    <sheet name="Bảng chấm công" sheetId="10" r:id="rId6"/>
+    <sheet name="Bảng lương" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$5:$P$82</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="210">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -578,6 +579,81 @@
   </si>
   <si>
     <t>BẢNG CHẤM CÔNG THÁNG 10 NĂM 2020</t>
+  </si>
+  <si>
+    <t>Anh hùng sửa nhà</t>
+  </si>
+  <si>
+    <t>Anh trang quảng cáo</t>
+  </si>
+  <si>
+    <t>TIỀN CÔNG TY THANH TOÁN CHO EM HẰNG</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Chi phí ăn uống</t>
+  </si>
+  <si>
+    <t>Lương tháng 9</t>
+  </si>
+  <si>
+    <t>Chi phí tháng 9</t>
+  </si>
+  <si>
+    <t>Tháng 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi phí tháng 10 Hằng chi </t>
+  </si>
+  <si>
+    <t>Chi phí hương hoa</t>
+  </si>
+  <si>
+    <t>Chi phí điện nước, dịch vụ phòng</t>
+  </si>
+  <si>
+    <t>Chi phí khác (Băng dính, đồ dùng VP mới, gửi xe ở tòa 18T1)</t>
+  </si>
+  <si>
+    <t>Lương tháng 10</t>
+  </si>
+  <si>
+    <t>Tình trạng thanh toán</t>
+  </si>
+  <si>
+    <t>Như vậy công ty cần thanh toán cho em Hằng số tiền là</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:H-NNM102020/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Tiền hàng anh Nam máy tính</t>
+  </si>
+  <si>
+    <t>Tiền hàng anh nam MT + chị quân</t>
+  </si>
+  <si>
+    <t>Tiền hàng Hằng</t>
+  </si>
+  <si>
+    <t>Tiền hàng chị Thơm (đã trừ hoa hồng cho chị thơm 50k)</t>
+  </si>
+  <si>
+    <t>Ứng qua CK</t>
+  </si>
+  <si>
+    <t>Nợ anh Sơn Hà</t>
+  </si>
+  <si>
+    <t>Nợ trường</t>
+  </si>
+  <si>
+    <t>Lãi nợ trường</t>
+  </si>
+  <si>
+    <t>Hằng đang đi vay</t>
   </si>
 </sst>
 </file>
@@ -593,7 +669,7 @@
     <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,6 +958,56 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -915,7 +1041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1101,6 +1227,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1111,7 +1288,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1958,6 +2135,24 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1967,28 +2162,10 @@
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,6 +2222,48 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2057,48 +2276,6 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2158,6 +2335,139 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2471,9 +2781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,13 +3081,8 @@
       <c r="H16" s="123">
         <v>100000</v>
       </c>
-      <c r="K16" s="113">
-        <v>11457538.461538462</v>
-      </c>
-      <c r="L16" s="113">
-        <f>'Bảng lương'!J12</f>
-        <v>6576923.076923077</v>
-      </c>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="104">
@@ -2796,10 +3101,7 @@
       <c r="H17" s="123">
         <v>700000</v>
       </c>
-      <c r="K17" s="312">
-        <f>K16+L16</f>
-        <v>18034461.53846154</v>
-      </c>
+      <c r="K17" s="312"/>
       <c r="L17" s="313"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2819,10 +3121,7 @@
         <v>2000000</v>
       </c>
       <c r="H18" s="123"/>
-      <c r="N18" s="268">
-        <f>K17-K19+3000000</f>
-        <v>13525561.53846154</v>
-      </c>
+      <c r="N18" s="268"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="104">
@@ -2841,10 +3140,7 @@
         <v>3100000</v>
       </c>
       <c r="H19" s="123"/>
-      <c r="K19" s="268">
-        <f>H8+G18+G21+H25+H27+H30</f>
-        <v>7508900</v>
-      </c>
+      <c r="K19" s="268"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="104">
@@ -2879,10 +3175,7 @@
         <v>2000000</v>
       </c>
       <c r="H21" s="123"/>
-      <c r="J21" s="268">
-        <f>K16-K19</f>
-        <v>3948638.461538462</v>
-      </c>
+      <c r="J21" s="268"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="104"/>
@@ -2897,6 +3190,7 @@
       </c>
       <c r="G22" s="107"/>
       <c r="H22" s="123"/>
+      <c r="K22" s="268"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="104"/>
@@ -2939,6 +3233,7 @@
         <f>2200000</f>
         <v>2200000</v>
       </c>
+      <c r="K25" s="113"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="104"/>
@@ -2983,6 +3278,7 @@
       </c>
       <c r="G28" s="107"/>
       <c r="H28" s="123"/>
+      <c r="K28" s="268"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="104"/>
@@ -3014,22 +3310,34 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
+      <c r="A31" s="104">
+        <v>44132</v>
+      </c>
       <c r="B31" s="104"/>
       <c r="C31" s="105"/>
-      <c r="D31" s="106"/>
+      <c r="D31" s="106" t="s">
+        <v>185</v>
+      </c>
       <c r="E31" s="107"/>
       <c r="F31" s="121"/>
-      <c r="G31" s="107"/>
+      <c r="G31" s="107">
+        <v>10000000</v>
+      </c>
       <c r="H31" s="123"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
+      <c r="A32" s="104">
+        <v>44133</v>
+      </c>
       <c r="B32" s="104"/>
       <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
+      <c r="D32" s="106" t="s">
+        <v>186</v>
+      </c>
       <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
+      <c r="G32" s="107">
+        <v>10000000</v>
+      </c>
       <c r="H32" s="123"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3465,7 +3773,7 @@
       </c>
       <c r="G75" s="125">
         <f>SUM(G7:G74)</f>
-        <v>10009900</v>
+        <v>30009900</v>
       </c>
       <c r="H75" s="125">
         <f>SUM(H7:H74)</f>
@@ -3655,109 +3963,109 @@
       <c r="P4" s="331"/>
     </row>
     <row r="5" spans="1:16" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="333" t="s">
+      <c r="A5" s="339" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="334" t="s">
+      <c r="B5" s="340" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="333" t="s">
+      <c r="C5" s="339" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="333" t="s">
+      <c r="D5" s="339" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="333"/>
-      <c r="F5" s="335" t="s">
+      <c r="E5" s="339"/>
+      <c r="F5" s="333" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
-      <c r="I5" s="335"/>
-      <c r="J5" s="335"/>
-      <c r="K5" s="335"/>
-      <c r="L5" s="335"/>
-      <c r="M5" s="336"/>
-      <c r="N5" s="336"/>
-      <c r="O5" s="336"/>
-      <c r="P5" s="335" t="s">
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="332"/>
+      <c r="N5" s="332"/>
+      <c r="O5" s="332"/>
+      <c r="P5" s="333" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="333"/>
-      <c r="B6" s="334"/>
-      <c r="C6" s="333"/>
-      <c r="D6" s="333" t="s">
+      <c r="A6" s="339"/>
+      <c r="B6" s="340"/>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="333" t="s">
+      <c r="E6" s="339" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="333" t="s">
+      <c r="F6" s="339" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="333" t="s">
+      <c r="G6" s="339" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="337" t="s">
+      <c r="H6" s="334" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="337" t="s">
+      <c r="I6" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="338" t="s">
+      <c r="J6" s="341" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="338"/>
-      <c r="L6" s="337" t="s">
+      <c r="K6" s="341"/>
+      <c r="L6" s="334" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="337" t="s">
+      <c r="M6" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="337" t="s">
+      <c r="N6" s="334" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="337" t="s">
+      <c r="O6" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="335"/>
+      <c r="P6" s="333"/>
     </row>
     <row r="7" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="333"/>
-      <c r="B7" s="334"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="337"/>
-      <c r="I7" s="337"/>
+      <c r="A7" s="339"/>
+      <c r="B7" s="340"/>
+      <c r="C7" s="339"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="339"/>
+      <c r="G7" s="339"/>
+      <c r="H7" s="334"/>
+      <c r="I7" s="334"/>
       <c r="J7" s="259" t="s">
         <v>85</v>
       </c>
       <c r="K7" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="337"/>
-      <c r="M7" s="337"/>
-      <c r="N7" s="337"/>
-      <c r="O7" s="337"/>
-      <c r="P7" s="335"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="334"/>
+      <c r="N7" s="334"/>
+      <c r="O7" s="334"/>
+      <c r="P7" s="333"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="340">
+      <c r="A8" s="336">
         <v>808</v>
       </c>
       <c r="B8" s="343">
         <v>44107</v>
       </c>
-      <c r="C8" s="340"/>
-      <c r="D8" s="340" t="s">
+      <c r="C8" s="336"/>
+      <c r="D8" s="336" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="340" t="s">
+      <c r="E8" s="336" t="s">
         <v>125</v>
       </c>
       <c r="F8" s="181" t="s">
@@ -3821,11 +4129,11 @@
       <c r="P9" s="194"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="341"/>
+      <c r="A10" s="337"/>
       <c r="B10" s="345"/>
-      <c r="C10" s="341"/>
-      <c r="D10" s="341"/>
-      <c r="E10" s="341"/>
+      <c r="C10" s="337"/>
+      <c r="D10" s="337"/>
+      <c r="E10" s="337"/>
       <c r="F10" s="185" t="s">
         <v>128</v>
       </c>
@@ -3935,17 +4243,17 @@
       <c r="P12" s="180"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="340">
+      <c r="A13" s="336">
         <v>816</v>
       </c>
       <c r="B13" s="343">
         <v>44112</v>
       </c>
-      <c r="C13" s="340"/>
-      <c r="D13" s="340" t="s">
+      <c r="C13" s="336"/>
+      <c r="D13" s="336" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="340"/>
+      <c r="E13" s="336"/>
       <c r="F13" s="181" t="s">
         <v>126</v>
       </c>
@@ -3973,11 +4281,11 @@
       <c r="P13" s="184"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="341"/>
+      <c r="A14" s="337"/>
       <c r="B14" s="345"/>
-      <c r="C14" s="341"/>
-      <c r="D14" s="341"/>
-      <c r="E14" s="341"/>
+      <c r="C14" s="337"/>
+      <c r="D14" s="337"/>
+      <c r="E14" s="337"/>
       <c r="F14" s="185" t="s">
         <v>127</v>
       </c>
@@ -4083,17 +4391,17 @@
       <c r="P16" s="175"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="340">
+      <c r="A17" s="336">
         <v>822</v>
       </c>
       <c r="B17" s="343">
         <v>44113</v>
       </c>
-      <c r="C17" s="340"/>
-      <c r="D17" s="340" t="s">
+      <c r="C17" s="336"/>
+      <c r="D17" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="340"/>
+      <c r="E17" s="336"/>
       <c r="F17" s="181" t="s">
         <v>126</v>
       </c>
@@ -4121,11 +4429,11 @@
       <c r="P17" s="181"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="341"/>
+      <c r="A18" s="337"/>
       <c r="B18" s="345"/>
-      <c r="C18" s="341"/>
-      <c r="D18" s="341"/>
-      <c r="E18" s="341"/>
+      <c r="C18" s="337"/>
+      <c r="D18" s="337"/>
+      <c r="E18" s="337"/>
       <c r="F18" s="185" t="s">
         <v>127</v>
       </c>
@@ -4564,7 +4872,7 @@
       <c r="M41" s="195"/>
       <c r="N41" s="195"/>
       <c r="O41" s="195"/>
-      <c r="P41" s="339"/>
+      <c r="P41" s="335"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="190"/>
@@ -4582,7 +4890,7 @@
       <c r="M42" s="195"/>
       <c r="N42" s="195"/>
       <c r="O42" s="195"/>
-      <c r="P42" s="339"/>
+      <c r="P42" s="335"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="190"/>
@@ -4600,7 +4908,7 @@
       <c r="M43" s="195"/>
       <c r="N43" s="195"/>
       <c r="O43" s="195"/>
-      <c r="P43" s="339"/>
+      <c r="P43" s="335"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="190"/>
@@ -4618,7 +4926,7 @@
       <c r="M44" s="195"/>
       <c r="N44" s="195"/>
       <c r="O44" s="195"/>
-      <c r="P44" s="339"/>
+      <c r="P44" s="335"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="190"/>
@@ -4636,7 +4944,7 @@
       <c r="M45" s="195"/>
       <c r="N45" s="195"/>
       <c r="O45" s="195"/>
-      <c r="P45" s="339"/>
+      <c r="P45" s="335"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="190"/>
@@ -4654,7 +4962,7 @@
       <c r="M46" s="195"/>
       <c r="N46" s="195"/>
       <c r="O46" s="195"/>
-      <c r="P46" s="339"/>
+      <c r="P46" s="335"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="238"/>
@@ -4708,7 +5016,7 @@
       <c r="M49" s="195"/>
       <c r="N49" s="195"/>
       <c r="O49" s="195"/>
-      <c r="P49" s="339"/>
+      <c r="P49" s="335"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="190"/>
@@ -4726,7 +5034,7 @@
       <c r="M50" s="195"/>
       <c r="N50" s="195"/>
       <c r="O50" s="195"/>
-      <c r="P50" s="339"/>
+      <c r="P50" s="335"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="190"/>
@@ -4744,7 +5052,7 @@
       <c r="M51" s="195"/>
       <c r="N51" s="195"/>
       <c r="O51" s="195"/>
-      <c r="P51" s="339"/>
+      <c r="P51" s="335"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="238"/>
@@ -5215,14 +5523,14 @@
       <c r="P77" s="185"/>
     </row>
     <row r="78" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="332" t="s">
+      <c r="A78" s="338" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="332"/>
-      <c r="C78" s="332"/>
-      <c r="D78" s="332"/>
-      <c r="E78" s="332"/>
-      <c r="F78" s="332"/>
+      <c r="B78" s="338"/>
+      <c r="C78" s="338"/>
+      <c r="D78" s="338"/>
+      <c r="E78" s="338"/>
+      <c r="F78" s="338"/>
       <c r="G78" s="150">
         <f>SUM(G8:G77)</f>
         <v>187</v>
@@ -6679,10 +6987,446 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="61" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="61" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="61"/>
+    <col min="11" max="11" width="12.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="61"/>
+    <col min="14" max="14" width="14.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="400" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="401" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="401"/>
+      <c r="C4" s="401"/>
+      <c r="D4" s="401"/>
+      <c r="E4" s="401"/>
+      <c r="F4" s="401"/>
+      <c r="G4" s="401"/>
+      <c r="H4" s="401"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="402" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="402"/>
+      <c r="C6" s="402"/>
+      <c r="D6" s="402"/>
+      <c r="E6" s="402"/>
+      <c r="F6" s="402"/>
+      <c r="G6" s="352" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="352"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="427" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="428"/>
+      <c r="C7" s="425"/>
+      <c r="D7" s="426"/>
+      <c r="E7" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="440">
+        <v>4744538</v>
+      </c>
+      <c r="H7" s="441"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="429"/>
+      <c r="B8" s="430"/>
+      <c r="C8" s="425"/>
+      <c r="D8" s="426"/>
+      <c r="E8" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="440">
+        <v>6713000</v>
+      </c>
+      <c r="H8" s="441"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="403" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="405"/>
+      <c r="E9" s="406" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="407">
+        <v>260000</v>
+      </c>
+      <c r="G9" s="408">
+        <f>SUM(F9:F13)</f>
+        <v>3477000</v>
+      </c>
+      <c r="H9" s="409"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="410"/>
+      <c r="B10" s="411"/>
+      <c r="C10" s="411"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="406" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="407">
+        <v>877000</v>
+      </c>
+      <c r="G10" s="413"/>
+      <c r="H10" s="414"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="410"/>
+      <c r="B11" s="411"/>
+      <c r="C11" s="411"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="406" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="407">
+        <v>441000</v>
+      </c>
+      <c r="G11" s="413"/>
+      <c r="H11" s="414"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="410"/>
+      <c r="B12" s="411"/>
+      <c r="C12" s="411"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="406" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="407">
+        <v>892000</v>
+      </c>
+      <c r="G12" s="413"/>
+      <c r="H12" s="414"/>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="410"/>
+      <c r="B13" s="411"/>
+      <c r="C13" s="411"/>
+      <c r="D13" s="412"/>
+      <c r="E13" s="431" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="407">
+        <v>1007000</v>
+      </c>
+      <c r="G13" s="413"/>
+      <c r="H13" s="414"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="415" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="415"/>
+      <c r="C14" s="415"/>
+      <c r="D14" s="415"/>
+      <c r="E14" s="415"/>
+      <c r="F14" s="415"/>
+      <c r="G14" s="416">
+        <f>'Bảng lương'!J12</f>
+        <v>6576923.076923077</v>
+      </c>
+      <c r="H14" s="416"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="417" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="417"/>
+      <c r="C15" s="417"/>
+      <c r="D15" s="417"/>
+      <c r="E15" s="417"/>
+      <c r="F15" s="417"/>
+      <c r="G15" s="418">
+        <f>G7+G8+G9+G14</f>
+        <v>21511461.076923076</v>
+      </c>
+      <c r="H15" s="418"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="442" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="432"/>
+      <c r="C17" s="432"/>
+      <c r="D17" s="432"/>
+      <c r="E17" s="432"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="433">
+        <v>44106</v>
+      </c>
+      <c r="B18" s="433"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="434"/>
+      <c r="E18" s="434" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="435">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="433">
+        <v>44116</v>
+      </c>
+      <c r="B19" s="433"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="434"/>
+      <c r="E19" s="434" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="435">
+        <v>2000000</v>
+      </c>
+      <c r="K19" s="439"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="433">
+        <v>44120</v>
+      </c>
+      <c r="B20" s="433"/>
+      <c r="C20" s="434"/>
+      <c r="D20" s="434"/>
+      <c r="E20" s="434" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="435">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="433">
+        <v>44128</v>
+      </c>
+      <c r="B21" s="433"/>
+      <c r="C21" s="434"/>
+      <c r="D21" s="434"/>
+      <c r="E21" s="434" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="435">
+        <v>2200000</v>
+      </c>
+      <c r="K21" s="439"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="433">
+        <v>44129</v>
+      </c>
+      <c r="B22" s="433"/>
+      <c r="C22" s="434"/>
+      <c r="D22" s="434"/>
+      <c r="E22" s="434" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="435">
+        <v>418900</v>
+      </c>
+      <c r="K22" s="439"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="433">
+        <v>44131</v>
+      </c>
+      <c r="B23" s="433"/>
+      <c r="C23" s="434"/>
+      <c r="D23" s="434"/>
+      <c r="E23" s="453" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="435">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="443" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="451"/>
+      <c r="C24" s="451"/>
+      <c r="D24" s="451"/>
+      <c r="E24" s="444"/>
+      <c r="F24" s="445">
+        <f>SUM(F18:F23)</f>
+        <v>7508900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="436"/>
+      <c r="B25" s="436"/>
+      <c r="C25" s="437"/>
+      <c r="D25" s="437"/>
+      <c r="E25" s="438"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="447" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="448"/>
+      <c r="C26" s="449"/>
+      <c r="D26" s="449"/>
+      <c r="E26" s="450"/>
+      <c r="F26" s="446">
+        <f>G15-F24</f>
+        <v>14002561.076923076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="436"/>
+      <c r="B27" s="436"/>
+      <c r="C27" s="437"/>
+      <c r="D27" s="437"/>
+      <c r="E27" s="438"/>
+    </row>
+    <row r="29" spans="1:11" s="420" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="419" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="419" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="421"/>
+      <c r="G29" s="419" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="422"/>
+    </row>
+    <row r="30" spans="1:11" s="420" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="423" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="423" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="424"/>
+      <c r="G30" s="423" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="434" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="435">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="434" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="435">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="434" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="435">
+        <f>23*2000*5</f>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="434"/>
+      <c r="F35" s="452">
+        <f>SUM(F32:F34)</f>
+        <v>8230000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7230,18 +7974,18 @@
       <c r="C2" s="274"/>
       <c r="D2" s="274"/>
       <c r="E2" s="274"/>
-      <c r="Z2" s="366" t="s">
+      <c r="Z2" s="362" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" s="367"/>
-      <c r="AB2" s="367"/>
-      <c r="AC2" s="367"/>
-      <c r="AD2" s="367"/>
-      <c r="AE2" s="368"/>
-      <c r="AF2" s="369" t="s">
+      <c r="AA2" s="363"/>
+      <c r="AB2" s="363"/>
+      <c r="AC2" s="363"/>
+      <c r="AD2" s="363"/>
+      <c r="AE2" s="364"/>
+      <c r="AF2" s="365" t="s">
         <v>158</v>
       </c>
-      <c r="AG2" s="370"/>
+      <c r="AG2" s="366"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="273" t="s">
@@ -7251,18 +7995,18 @@
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
-      <c r="Z3" s="366" t="s">
+      <c r="Z3" s="362" t="s">
         <v>160</v>
       </c>
-      <c r="AA3" s="367"/>
-      <c r="AB3" s="367"/>
-      <c r="AC3" s="367"/>
-      <c r="AD3" s="367"/>
-      <c r="AE3" s="368"/>
-      <c r="AF3" s="369" t="s">
+      <c r="AA3" s="363"/>
+      <c r="AB3" s="363"/>
+      <c r="AC3" s="363"/>
+      <c r="AD3" s="363"/>
+      <c r="AE3" s="364"/>
+      <c r="AF3" s="365" t="s">
         <v>161</v>
       </c>
-      <c r="AG3" s="370"/>
+      <c r="AG3" s="366"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="273" t="s">
@@ -7275,18 +8019,18 @@
       <c r="T4" s="271" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="366" t="s">
+      <c r="Z4" s="362" t="s">
         <v>163</v>
       </c>
-      <c r="AA4" s="367"/>
-      <c r="AB4" s="367"/>
-      <c r="AC4" s="367"/>
-      <c r="AD4" s="367"/>
-      <c r="AE4" s="368"/>
-      <c r="AF4" s="369" t="s">
+      <c r="AA4" s="363"/>
+      <c r="AB4" s="363"/>
+      <c r="AC4" s="363"/>
+      <c r="AD4" s="363"/>
+      <c r="AE4" s="364"/>
+      <c r="AF4" s="365" t="s">
         <v>164</v>
       </c>
-      <c r="AG4" s="370"/>
+      <c r="AG4" s="366"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="273" t="s">
@@ -7296,18 +8040,18 @@
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
-      <c r="Z5" s="366" t="s">
+      <c r="Z5" s="362" t="s">
         <v>166</v>
       </c>
-      <c r="AA5" s="367"/>
-      <c r="AB5" s="367"/>
-      <c r="AC5" s="367"/>
-      <c r="AD5" s="367"/>
-      <c r="AE5" s="368"/>
-      <c r="AF5" s="369" t="s">
+      <c r="AA5" s="363"/>
+      <c r="AB5" s="363"/>
+      <c r="AC5" s="363"/>
+      <c r="AD5" s="363"/>
+      <c r="AE5" s="364"/>
+      <c r="AF5" s="365" t="s">
         <v>167</v>
       </c>
-      <c r="AG5" s="370"/>
+      <c r="AG5" s="366"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="275"/>
@@ -7317,93 +8061,93 @@
       <c r="E6" s="275"/>
     </row>
     <row r="7" spans="1:40" s="278" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="371" t="s">
+      <c r="A7" s="367" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="371"/>
-      <c r="J7" s="371"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="371"/>
-      <c r="N7" s="371"/>
-      <c r="O7" s="371"/>
-      <c r="P7" s="371"/>
-      <c r="Q7" s="371"/>
-      <c r="R7" s="371"/>
-      <c r="S7" s="371"/>
-      <c r="T7" s="371"/>
-      <c r="U7" s="371"/>
-      <c r="V7" s="371"/>
-      <c r="W7" s="371"/>
-      <c r="X7" s="371"/>
-      <c r="Y7" s="371"/>
-      <c r="Z7" s="371"/>
-      <c r="AA7" s="371"/>
-      <c r="AB7" s="371"/>
-      <c r="AC7" s="371"/>
-      <c r="AD7" s="371"/>
-      <c r="AE7" s="371"/>
-      <c r="AF7" s="371"/>
-      <c r="AG7" s="371"/>
-      <c r="AH7" s="371"/>
-      <c r="AI7" s="371"/>
-      <c r="AJ7" s="371"/>
-      <c r="AK7" s="371"/>
-      <c r="AL7" s="371"/>
-      <c r="AM7" s="371"/>
+      <c r="B7" s="367"/>
+      <c r="C7" s="367"/>
+      <c r="D7" s="367"/>
+      <c r="E7" s="367"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="367"/>
+      <c r="H7" s="367"/>
+      <c r="I7" s="367"/>
+      <c r="J7" s="367"/>
+      <c r="K7" s="367"/>
+      <c r="L7" s="367"/>
+      <c r="M7" s="367"/>
+      <c r="N7" s="367"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="367"/>
+      <c r="Q7" s="367"/>
+      <c r="R7" s="367"/>
+      <c r="S7" s="367"/>
+      <c r="T7" s="367"/>
+      <c r="U7" s="367"/>
+      <c r="V7" s="367"/>
+      <c r="W7" s="367"/>
+      <c r="X7" s="367"/>
+      <c r="Y7" s="367"/>
+      <c r="Z7" s="367"/>
+      <c r="AA7" s="367"/>
+      <c r="AB7" s="367"/>
+      <c r="AC7" s="367"/>
+      <c r="AD7" s="367"/>
+      <c r="AE7" s="367"/>
+      <c r="AF7" s="367"/>
+      <c r="AG7" s="367"/>
+      <c r="AH7" s="367"/>
+      <c r="AI7" s="367"/>
+      <c r="AJ7" s="367"/>
+      <c r="AK7" s="367"/>
+      <c r="AL7" s="367"/>
+      <c r="AM7" s="367"/>
       <c r="AN7" s="277"/>
     </row>
     <row r="9" spans="1:40" s="283" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="368" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="372" t="s">
+      <c r="B9" s="368" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="372" t="s">
+      <c r="C9" s="368" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="375" t="s">
+      <c r="D9" s="371" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="376"/>
-      <c r="F9" s="376"/>
-      <c r="G9" s="376"/>
-      <c r="H9" s="376"/>
-      <c r="I9" s="376"/>
-      <c r="J9" s="376"/>
-      <c r="K9" s="376"/>
-      <c r="L9" s="376"/>
-      <c r="M9" s="376"/>
-      <c r="N9" s="376"/>
-      <c r="O9" s="376"/>
-      <c r="P9" s="376"/>
-      <c r="Q9" s="376"/>
-      <c r="R9" s="376"/>
-      <c r="S9" s="376"/>
-      <c r="T9" s="376"/>
-      <c r="U9" s="376"/>
-      <c r="V9" s="376"/>
-      <c r="W9" s="376"/>
-      <c r="X9" s="376"/>
-      <c r="Y9" s="376"/>
-      <c r="Z9" s="376"/>
-      <c r="AA9" s="376"/>
-      <c r="AB9" s="376"/>
-      <c r="AC9" s="376"/>
-      <c r="AD9" s="376"/>
-      <c r="AE9" s="376"/>
-      <c r="AF9" s="376"/>
-      <c r="AG9" s="376"/>
-      <c r="AH9" s="377"/>
-      <c r="AI9" s="378" t="s">
+      <c r="E9" s="372"/>
+      <c r="F9" s="372"/>
+      <c r="G9" s="372"/>
+      <c r="H9" s="372"/>
+      <c r="I9" s="372"/>
+      <c r="J9" s="372"/>
+      <c r="K9" s="372"/>
+      <c r="L9" s="372"/>
+      <c r="M9" s="372"/>
+      <c r="N9" s="372"/>
+      <c r="O9" s="372"/>
+      <c r="P9" s="372"/>
+      <c r="Q9" s="372"/>
+      <c r="R9" s="372"/>
+      <c r="S9" s="372"/>
+      <c r="T9" s="372"/>
+      <c r="U9" s="372"/>
+      <c r="V9" s="372"/>
+      <c r="W9" s="372"/>
+      <c r="X9" s="372"/>
+      <c r="Y9" s="372"/>
+      <c r="Z9" s="372"/>
+      <c r="AA9" s="372"/>
+      <c r="AB9" s="372"/>
+      <c r="AC9" s="372"/>
+      <c r="AD9" s="372"/>
+      <c r="AE9" s="372"/>
+      <c r="AF9" s="372"/>
+      <c r="AG9" s="372"/>
+      <c r="AH9" s="373"/>
+      <c r="AI9" s="374" t="s">
         <v>172</v>
       </c>
       <c r="AJ9" s="279"/>
@@ -7413,9 +8157,9 @@
       <c r="AN9" s="282"/>
     </row>
     <row r="10" spans="1:40" s="283" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="373"/>
-      <c r="B10" s="373"/>
-      <c r="C10" s="373"/>
+      <c r="A10" s="369"/>
+      <c r="B10" s="369"/>
+      <c r="C10" s="369"/>
       <c r="D10" s="284">
         <v>1</v>
       </c>
@@ -7509,7 +8253,7 @@
       <c r="AH10" s="284">
         <v>31</v>
       </c>
-      <c r="AI10" s="378"/>
+      <c r="AI10" s="374"/>
       <c r="AJ10" s="285"/>
       <c r="AK10" s="281"/>
       <c r="AL10" s="281"/>
@@ -7517,9 +8261,9 @@
       <c r="AN10" s="282"/>
     </row>
     <row r="11" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="374"/>
-      <c r="B11" s="374"/>
-      <c r="C11" s="374"/>
+      <c r="A11" s="370"/>
+      <c r="B11" s="370"/>
+      <c r="C11" s="370"/>
       <c r="D11" s="284" t="s">
         <v>174</v>
       </c>
@@ -7613,7 +8357,7 @@
       <c r="AH11" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="AI11" s="378"/>
+      <c r="AI11" s="374"/>
       <c r="AJ11" s="288"/>
       <c r="AN11" s="290"/>
     </row>
@@ -7994,10 +8738,10 @@
       <c r="AN15" s="290"/>
     </row>
     <row r="16" spans="1:40" s="289" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="361" t="s">
+      <c r="A16" s="375" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="362"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="296"/>
       <c r="D16" s="296"/>
       <c r="E16" s="297"/>
@@ -8040,49 +8784,49 @@
       <c r="AN16" s="290"/>
     </row>
     <row r="18" spans="1:40" s="306" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="363" t="s">
+      <c r="A18" s="377" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="363"/>
-      <c r="C18" s="363"/>
-      <c r="D18" s="363"/>
-      <c r="E18" s="363"/>
-      <c r="F18" s="363"/>
-      <c r="G18" s="363"/>
+      <c r="B18" s="377"/>
+      <c r="C18" s="377"/>
+      <c r="D18" s="377"/>
+      <c r="E18" s="377"/>
+      <c r="F18" s="377"/>
+      <c r="G18" s="377"/>
       <c r="H18" s="301"/>
-      <c r="I18" s="364"/>
-      <c r="J18" s="364"/>
-      <c r="K18" s="364"/>
-      <c r="L18" s="364"/>
-      <c r="M18" s="364"/>
+      <c r="I18" s="378"/>
+      <c r="J18" s="378"/>
+      <c r="K18" s="378"/>
+      <c r="L18" s="378"/>
+      <c r="M18" s="378"/>
       <c r="N18" s="302"/>
-      <c r="O18" s="364" t="s">
+      <c r="O18" s="378" t="s">
         <v>181</v>
       </c>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="364"/>
-      <c r="X18" s="364"/>
-      <c r="Y18" s="364"/>
+      <c r="P18" s="378"/>
+      <c r="Q18" s="378"/>
+      <c r="R18" s="378"/>
+      <c r="S18" s="378"/>
+      <c r="T18" s="378"/>
+      <c r="U18" s="378"/>
+      <c r="V18" s="378"/>
+      <c r="W18" s="378"/>
+      <c r="X18" s="378"/>
+      <c r="Y18" s="378"/>
       <c r="Z18" s="303"/>
       <c r="AA18" s="303"/>
       <c r="AB18" s="304"/>
-      <c r="AC18" s="364"/>
-      <c r="AD18" s="364"/>
-      <c r="AE18" s="364"/>
-      <c r="AF18" s="364"/>
-      <c r="AG18" s="364"/>
-      <c r="AH18" s="364"/>
-      <c r="AI18" s="364"/>
-      <c r="AJ18" s="364"/>
-      <c r="AK18" s="364"/>
-      <c r="AL18" s="364"/>
-      <c r="AM18" s="364"/>
+      <c r="AC18" s="378"/>
+      <c r="AD18" s="378"/>
+      <c r="AE18" s="378"/>
+      <c r="AF18" s="378"/>
+      <c r="AG18" s="378"/>
+      <c r="AH18" s="378"/>
+      <c r="AI18" s="378"/>
+      <c r="AJ18" s="378"/>
+      <c r="AK18" s="378"/>
+      <c r="AL18" s="378"/>
+      <c r="AM18" s="378"/>
       <c r="AN18" s="305"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -8116,131 +8860,131 @@
       <c r="AN33" s="310"/>
     </row>
     <row r="34" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="365"/>
-      <c r="H34" s="365"/>
-      <c r="I34" s="365"/>
-      <c r="J34" s="365"/>
-      <c r="K34" s="365"/>
-      <c r="L34" s="365"/>
-      <c r="M34" s="365"/>
-      <c r="N34" s="365"/>
-      <c r="O34" s="365"/>
-      <c r="P34" s="365"/>
-      <c r="Q34" s="365"/>
-      <c r="R34" s="365"/>
-      <c r="S34" s="365"/>
-      <c r="T34" s="365"/>
-      <c r="U34" s="365"/>
-      <c r="V34" s="365"/>
-      <c r="W34" s="365"/>
-      <c r="X34" s="365"/>
+      <c r="G34" s="361"/>
+      <c r="H34" s="361"/>
+      <c r="I34" s="361"/>
+      <c r="J34" s="361"/>
+      <c r="K34" s="361"/>
+      <c r="L34" s="361"/>
+      <c r="M34" s="361"/>
+      <c r="N34" s="361"/>
+      <c r="O34" s="361"/>
+      <c r="P34" s="361"/>
+      <c r="Q34" s="361"/>
+      <c r="R34" s="361"/>
+      <c r="S34" s="361"/>
+      <c r="T34" s="361"/>
+      <c r="U34" s="361"/>
+      <c r="V34" s="361"/>
+      <c r="W34" s="361"/>
+      <c r="X34" s="361"/>
       <c r="AN34" s="310"/>
     </row>
     <row r="35" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="365"/>
-      <c r="H35" s="365"/>
-      <c r="I35" s="365"/>
-      <c r="J35" s="365"/>
-      <c r="K35" s="365"/>
-      <c r="L35" s="365"/>
-      <c r="M35" s="365"/>
-      <c r="N35" s="365"/>
-      <c r="O35" s="365"/>
-      <c r="P35" s="365"/>
-      <c r="Q35" s="365"/>
-      <c r="R35" s="365"/>
-      <c r="S35" s="365"/>
-      <c r="T35" s="365"/>
-      <c r="U35" s="365"/>
-      <c r="V35" s="365"/>
-      <c r="W35" s="365"/>
-      <c r="X35" s="365"/>
+      <c r="G35" s="361"/>
+      <c r="H35" s="361"/>
+      <c r="I35" s="361"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="361"/>
+      <c r="M35" s="361"/>
+      <c r="N35" s="361"/>
+      <c r="O35" s="361"/>
+      <c r="P35" s="361"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="361"/>
+      <c r="S35" s="361"/>
+      <c r="T35" s="361"/>
+      <c r="U35" s="361"/>
+      <c r="V35" s="361"/>
+      <c r="W35" s="361"/>
+      <c r="X35" s="361"/>
       <c r="AN35" s="310"/>
     </row>
     <row r="36" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="365"/>
-      <c r="H36" s="365"/>
-      <c r="I36" s="365"/>
-      <c r="J36" s="365"/>
-      <c r="K36" s="365"/>
-      <c r="L36" s="365"/>
-      <c r="M36" s="365"/>
-      <c r="N36" s="365"/>
-      <c r="O36" s="365"/>
-      <c r="P36" s="365"/>
-      <c r="Q36" s="365"/>
-      <c r="R36" s="365"/>
-      <c r="S36" s="365"/>
-      <c r="T36" s="365"/>
-      <c r="U36" s="365"/>
-      <c r="V36" s="365"/>
-      <c r="W36" s="365"/>
-      <c r="X36" s="365"/>
+      <c r="G36" s="361"/>
+      <c r="H36" s="361"/>
+      <c r="I36" s="361"/>
+      <c r="J36" s="361"/>
+      <c r="K36" s="361"/>
+      <c r="L36" s="361"/>
+      <c r="M36" s="361"/>
+      <c r="N36" s="361"/>
+      <c r="O36" s="361"/>
+      <c r="P36" s="361"/>
+      <c r="Q36" s="361"/>
+      <c r="R36" s="361"/>
+      <c r="S36" s="361"/>
+      <c r="T36" s="361"/>
+      <c r="U36" s="361"/>
+      <c r="V36" s="361"/>
+      <c r="W36" s="361"/>
+      <c r="X36" s="361"/>
       <c r="AN36" s="310"/>
     </row>
     <row r="37" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="365"/>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="365"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="365"/>
-      <c r="M37" s="365"/>
-      <c r="N37" s="365"/>
-      <c r="O37" s="365"/>
-      <c r="P37" s="365"/>
-      <c r="Q37" s="365"/>
-      <c r="R37" s="365"/>
-      <c r="S37" s="365"/>
-      <c r="T37" s="365"/>
-      <c r="U37" s="365"/>
-      <c r="V37" s="365"/>
-      <c r="W37" s="365"/>
-      <c r="X37" s="365"/>
+      <c r="G37" s="361"/>
+      <c r="H37" s="361"/>
+      <c r="I37" s="361"/>
+      <c r="J37" s="361"/>
+      <c r="K37" s="361"/>
+      <c r="L37" s="361"/>
+      <c r="M37" s="361"/>
+      <c r="N37" s="361"/>
+      <c r="O37" s="361"/>
+      <c r="P37" s="361"/>
+      <c r="Q37" s="361"/>
+      <c r="R37" s="361"/>
+      <c r="S37" s="361"/>
+      <c r="T37" s="361"/>
+      <c r="U37" s="361"/>
+      <c r="V37" s="361"/>
+      <c r="W37" s="361"/>
+      <c r="X37" s="361"/>
       <c r="AN37" s="310"/>
     </row>
     <row r="38" spans="3:40" s="309" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="365"/>
-      <c r="H38" s="365"/>
-      <c r="I38" s="365"/>
-      <c r="J38" s="365"/>
-      <c r="K38" s="365"/>
-      <c r="L38" s="365"/>
-      <c r="M38" s="365"/>
-      <c r="N38" s="365"/>
-      <c r="O38" s="365"/>
-      <c r="P38" s="365"/>
-      <c r="Q38" s="365"/>
-      <c r="R38" s="365"/>
-      <c r="S38" s="365"/>
-      <c r="T38" s="365"/>
-      <c r="U38" s="365"/>
-      <c r="V38" s="365"/>
-      <c r="W38" s="365"/>
-      <c r="X38" s="365"/>
+      <c r="G38" s="361"/>
+      <c r="H38" s="361"/>
+      <c r="I38" s="361"/>
+      <c r="J38" s="361"/>
+      <c r="K38" s="361"/>
+      <c r="L38" s="361"/>
+      <c r="M38" s="361"/>
+      <c r="N38" s="361"/>
+      <c r="O38" s="361"/>
+      <c r="P38" s="361"/>
+      <c r="Q38" s="361"/>
+      <c r="R38" s="361"/>
+      <c r="S38" s="361"/>
+      <c r="T38" s="361"/>
+      <c r="U38" s="361"/>
+      <c r="V38" s="361"/>
+      <c r="W38" s="361"/>
+      <c r="X38" s="361"/>
       <c r="AN38" s="310"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="271"/>
       <c r="D39" s="271"/>
-      <c r="G39" s="365"/>
-      <c r="H39" s="365"/>
-      <c r="I39" s="365"/>
-      <c r="J39" s="365"/>
-      <c r="K39" s="365"/>
-      <c r="L39" s="365"/>
-      <c r="M39" s="365"/>
-      <c r="N39" s="365"/>
-      <c r="O39" s="365"/>
-      <c r="P39" s="365"/>
-      <c r="Q39" s="365"/>
-      <c r="R39" s="365"/>
-      <c r="S39" s="365"/>
-      <c r="T39" s="365"/>
-      <c r="U39" s="365"/>
-      <c r="V39" s="365"/>
-      <c r="W39" s="365"/>
-      <c r="X39" s="365"/>
+      <c r="G39" s="361"/>
+      <c r="H39" s="361"/>
+      <c r="I39" s="361"/>
+      <c r="J39" s="361"/>
+      <c r="K39" s="361"/>
+      <c r="L39" s="361"/>
+      <c r="M39" s="361"/>
+      <c r="N39" s="361"/>
+      <c r="O39" s="361"/>
+      <c r="P39" s="361"/>
+      <c r="Q39" s="361"/>
+      <c r="R39" s="361"/>
+      <c r="S39" s="361"/>
+      <c r="T39" s="361"/>
+      <c r="U39" s="361"/>
+      <c r="V39" s="361"/>
+      <c r="W39" s="361"/>
+      <c r="X39" s="361"/>
       <c r="AN39" s="271"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -8276,12 +9020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="6"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="284">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>Hoa hồng</t>
+  </si>
+  <si>
+    <t>Thanh hà</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1510,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="524">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2492,6 +2495,27 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2510,16 +2534,16 @@
     <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2537,55 +2561,16 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2618,6 +2603,24 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2633,6 +2636,81 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2651,99 +2729,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2780,15 +2792,6 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2842,6 +2845,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3153,12 +3177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,7 +3289,7 @@
       </c>
       <c r="H4" s="393"/>
     </row>
-    <row r="5" spans="1:17" s="106" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="391"/>
       <c r="B5" s="391"/>
       <c r="C5" s="391"/>
@@ -3284,7 +3307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="336">
         <v>44105</v>
       </c>
@@ -3325,7 +3348,7 @@
       <c r="G7" s="95"/>
       <c r="H7" s="108"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
         <v>44106</v>
       </c>
@@ -3365,7 +3388,7 @@
       <c r="G9" s="95"/>
       <c r="H9" s="108"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="92">
         <v>44107</v>
       </c>
@@ -3385,7 +3408,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <v>44110</v>
       </c>
@@ -3403,7 +3426,7 @@
       </c>
       <c r="H11" s="108"/>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="397">
         <v>44111</v>
       </c>
@@ -3419,7 +3442,7 @@
       <c r="G12" s="95"/>
       <c r="H12" s="108"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="398"/>
       <c r="B13" s="398"/>
       <c r="C13" s="395"/>
@@ -3433,7 +3456,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="398"/>
       <c r="B14" s="398"/>
       <c r="C14" s="395"/>
@@ -3447,7 +3470,7 @@
         <v>902000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="398"/>
       <c r="B15" s="398"/>
       <c r="C15" s="395"/>
@@ -3461,7 +3484,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="398"/>
       <c r="B16" s="398"/>
       <c r="C16" s="395"/>
@@ -3475,7 +3498,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="398"/>
       <c r="B17" s="398"/>
       <c r="C17" s="395"/>
@@ -3489,7 +3512,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="399"/>
       <c r="B18" s="399"/>
       <c r="C18" s="396"/>
@@ -3549,7 +3572,7 @@
       <c r="K20" s="100"/>
       <c r="L20" s="100"/>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="336">
         <v>44113</v>
       </c>
@@ -3571,7 +3594,7 @@
       <c r="K21" s="100"/>
       <c r="L21" s="100"/>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>44115</v>
       </c>
@@ -3591,7 +3614,7 @@
       <c r="K22" s="384"/>
       <c r="L22" s="385"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="92">
         <v>44116</v>
       </c>
@@ -3612,7 +3635,7 @@
       <c r="H23" s="110"/>
       <c r="N23" s="212"/>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="92">
         <v>44116</v>
       </c>
@@ -3633,7 +3656,7 @@
       <c r="H24" s="110"/>
       <c r="K24" s="212"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="92">
         <v>44117</v>
       </c>
@@ -3653,7 +3676,7 @@
       </c>
       <c r="H25" s="110"/>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="92">
         <v>44119</v>
       </c>
@@ -3674,7 +3697,7 @@
       <c r="G26" s="95"/>
       <c r="H26" s="110"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <v>44120</v>
       </c>
@@ -3737,7 +3760,7 @@
       <c r="H29" s="110"/>
       <c r="J29" s="212"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="92">
         <v>44124</v>
       </c>
@@ -3758,7 +3781,7 @@
       </c>
       <c r="J30" s="212"/>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="92">
         <v>44124</v>
       </c>
@@ -3842,7 +3865,7 @@
       <c r="H34" s="110"/>
       <c r="J34" s="212"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="92">
         <v>44125</v>
       </c>
@@ -3967,7 +3990,7 @@
       <c r="H40" s="110"/>
       <c r="K40" s="355"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="92">
         <v>44128</v>
       </c>
@@ -3989,7 +4012,7 @@
       </c>
       <c r="K41" s="100"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="92">
         <v>44132</v>
       </c>
@@ -4009,7 +4032,7 @@
       </c>
       <c r="H42" s="110"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="92">
         <v>44133</v>
       </c>
@@ -4028,7 +4051,7 @@
       </c>
       <c r="H43" s="110"/>
     </row>
-    <row r="44" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="92">
         <v>44135</v>
       </c>
@@ -4090,7 +4113,7 @@
       <c r="H46" s="110"/>
       <c r="K46" s="212"/>
     </row>
-    <row r="47" spans="1:11" s="112" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="387" t="s">
         <v>9</v>
       </c>
@@ -4168,11 +4191,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:H47">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Hàng hóa"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -4201,8 +4219,8 @@
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4226,13 +4244,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="414" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
       <c r="J1" s="123"/>
@@ -4262,149 +4280,149 @@
       <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="418" t="s">
+      <c r="A3" s="415" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="418"/>
-      <c r="C3" s="418"/>
-      <c r="D3" s="418"/>
-      <c r="E3" s="418"/>
-      <c r="F3" s="418"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="418"/>
-      <c r="I3" s="418"/>
-      <c r="J3" s="418"/>
-      <c r="K3" s="418"/>
-      <c r="L3" s="418"/>
-      <c r="M3" s="418"/>
-      <c r="N3" s="418"/>
-      <c r="O3" s="418"/>
-      <c r="P3" s="418"/>
+      <c r="B3" s="415"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="415"/>
+      <c r="O3" s="415"/>
+      <c r="P3" s="415"/>
     </row>
     <row r="4" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="418" t="s">
+      <c r="A4" s="415" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="418"/>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="418"/>
-      <c r="F4" s="418"/>
-      <c r="G4" s="418"/>
-      <c r="H4" s="418"/>
-      <c r="I4" s="418"/>
-      <c r="J4" s="418"/>
-      <c r="K4" s="418"/>
-      <c r="L4" s="418"/>
-      <c r="M4" s="418"/>
-      <c r="N4" s="418"/>
-      <c r="O4" s="418"/>
-      <c r="P4" s="418"/>
+      <c r="B4" s="415"/>
+      <c r="C4" s="415"/>
+      <c r="D4" s="415"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="415"/>
+      <c r="K4" s="415"/>
+      <c r="L4" s="415"/>
+      <c r="M4" s="415"/>
+      <c r="N4" s="415"/>
+      <c r="O4" s="415"/>
+      <c r="P4" s="415"/>
     </row>
     <row r="5" spans="1:16" s="122" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="423" t="s">
+      <c r="A5" s="402" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="424" t="s">
+      <c r="B5" s="403" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="423" t="s">
+      <c r="C5" s="402" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="423" t="s">
+      <c r="D5" s="402" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="423"/>
-      <c r="F5" s="420" t="s">
+      <c r="E5" s="402"/>
+      <c r="F5" s="404" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="420"/>
-      <c r="H5" s="420"/>
-      <c r="I5" s="420"/>
-      <c r="J5" s="420"/>
-      <c r="K5" s="420"/>
-      <c r="L5" s="420"/>
-      <c r="M5" s="419"/>
-      <c r="N5" s="419"/>
-      <c r="O5" s="419"/>
-      <c r="P5" s="420" t="s">
+      <c r="G5" s="404"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="404"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="404"/>
+      <c r="M5" s="416"/>
+      <c r="N5" s="416"/>
+      <c r="O5" s="416"/>
+      <c r="P5" s="404" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423"/>
-      <c r="B6" s="424"/>
-      <c r="C6" s="423"/>
-      <c r="D6" s="423" t="s">
+      <c r="A6" s="402"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="402"/>
+      <c r="D6" s="402" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="423" t="s">
+      <c r="E6" s="402" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="423" t="s">
+      <c r="F6" s="402" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="423" t="s">
+      <c r="G6" s="402" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="421" t="s">
+      <c r="H6" s="405" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="421" t="s">
+      <c r="I6" s="405" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="425" t="s">
+      <c r="J6" s="406" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="425"/>
-      <c r="L6" s="421" t="s">
+      <c r="K6" s="406"/>
+      <c r="L6" s="405" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="421" t="s">
+      <c r="M6" s="405" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="421" t="s">
+      <c r="N6" s="405" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="421" t="s">
+      <c r="O6" s="405" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="420"/>
+      <c r="P6" s="404"/>
     </row>
     <row r="7" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="423"/>
-      <c r="B7" s="424"/>
-      <c r="C7" s="423"/>
-      <c r="D7" s="423"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="423"/>
-      <c r="G7" s="423"/>
-      <c r="H7" s="421"/>
-      <c r="I7" s="421"/>
+      <c r="A7" s="402"/>
+      <c r="B7" s="403"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
+      <c r="F7" s="402"/>
+      <c r="G7" s="402"/>
+      <c r="H7" s="405"/>
+      <c r="I7" s="405"/>
       <c r="J7" s="205" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="421"/>
-      <c r="M7" s="421"/>
-      <c r="N7" s="421"/>
-      <c r="O7" s="421"/>
-      <c r="P7" s="420"/>
+      <c r="L7" s="405"/>
+      <c r="M7" s="405"/>
+      <c r="N7" s="405"/>
+      <c r="O7" s="405"/>
+      <c r="P7" s="404"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="400">
+      <c r="A8" s="407">
         <v>808</v>
       </c>
-      <c r="B8" s="403">
+      <c r="B8" s="410">
         <v>44107</v>
       </c>
-      <c r="C8" s="400"/>
-      <c r="D8" s="400" t="s">
+      <c r="C8" s="407"/>
+      <c r="D8" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="400" t="s">
+      <c r="E8" s="407" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="161" t="s">
@@ -4439,11 +4457,11 @@
       <c r="P8" s="161"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="401"/>
-      <c r="B9" s="404"/>
-      <c r="C9" s="401"/>
-      <c r="D9" s="401"/>
-      <c r="E9" s="401"/>
+      <c r="A9" s="408"/>
+      <c r="B9" s="411"/>
+      <c r="C9" s="408"/>
+      <c r="D9" s="408"/>
+      <c r="E9" s="408"/>
       <c r="F9" s="174" t="s">
         <v>124</v>
       </c>
@@ -4474,11 +4492,11 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="402"/>
-      <c r="B10" s="405"/>
-      <c r="C10" s="402"/>
-      <c r="D10" s="402"/>
-      <c r="E10" s="402"/>
+      <c r="A10" s="409"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="409"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="165" t="s">
         <v>125</v>
       </c>
@@ -4597,17 +4615,17 @@
       <c r="P12" s="160"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="400">
+      <c r="A13" s="407">
         <v>816</v>
       </c>
-      <c r="B13" s="403">
+      <c r="B13" s="410">
         <v>44112</v>
       </c>
-      <c r="C13" s="400"/>
-      <c r="D13" s="400" t="s">
+      <c r="C13" s="407"/>
+      <c r="D13" s="407" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="400"/>
+      <c r="E13" s="407"/>
       <c r="F13" s="161" t="s">
         <v>123</v>
       </c>
@@ -4638,11 +4656,11 @@
       <c r="P13" s="164"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="402"/>
-      <c r="B14" s="405"/>
-      <c r="C14" s="402"/>
-      <c r="D14" s="402"/>
-      <c r="E14" s="402"/>
+      <c r="A14" s="409"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="409"/>
       <c r="F14" s="165" t="s">
         <v>124</v>
       </c>
@@ -4797,17 +4815,17 @@
       <c r="P17" s="341"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="400">
+      <c r="A18" s="407">
         <v>822</v>
       </c>
-      <c r="B18" s="403">
+      <c r="B18" s="410">
         <v>44113</v>
       </c>
-      <c r="C18" s="400"/>
-      <c r="D18" s="400" t="s">
+      <c r="C18" s="407"/>
+      <c r="D18" s="407" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="400"/>
+      <c r="E18" s="407"/>
       <c r="F18" s="161" t="s">
         <v>123</v>
       </c>
@@ -4838,11 +4856,11 @@
       <c r="P18" s="161"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="402"/>
-      <c r="B19" s="405"/>
-      <c r="C19" s="402"/>
-      <c r="D19" s="402"/>
-      <c r="E19" s="402"/>
+      <c r="A19" s="409"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="409"/>
+      <c r="E19" s="409"/>
       <c r="F19" s="165" t="s">
         <v>124</v>
       </c>
@@ -4873,17 +4891,17 @@
       <c r="P19" s="165"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="400">
+      <c r="A20" s="407">
         <v>1211</v>
       </c>
-      <c r="B20" s="406">
+      <c r="B20" s="422">
         <v>44113</v>
       </c>
-      <c r="C20" s="408" t="s">
+      <c r="C20" s="424" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="408"/>
-      <c r="E20" s="408"/>
+      <c r="D20" s="424"/>
+      <c r="E20" s="424"/>
       <c r="F20" s="161" t="s">
         <v>125</v>
       </c>
@@ -4914,11 +4932,11 @@
       <c r="P20" s="161"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="402"/>
-      <c r="B21" s="407"/>
-      <c r="C21" s="409"/>
-      <c r="D21" s="409"/>
-      <c r="E21" s="409"/>
+      <c r="A21" s="409"/>
+      <c r="B21" s="423"/>
+      <c r="C21" s="425"/>
+      <c r="D21" s="425"/>
+      <c r="E21" s="425"/>
       <c r="F21" s="165" t="s">
         <v>138</v>
       </c>
@@ -4996,19 +5014,19 @@
       <c r="P22" s="361"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="400">
+      <c r="A23" s="407">
         <v>825</v>
       </c>
-      <c r="B23" s="403">
+      <c r="B23" s="410">
         <v>44123</v>
       </c>
-      <c r="C23" s="400" t="s">
+      <c r="C23" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="400" t="s">
+      <c r="D23" s="407" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="400" t="s">
+      <c r="E23" s="407" t="s">
         <v>206</v>
       </c>
       <c r="F23" s="161" t="s">
@@ -5041,11 +5059,11 @@
       <c r="P23" s="161"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="401"/>
-      <c r="B24" s="404"/>
-      <c r="C24" s="401"/>
-      <c r="D24" s="401"/>
-      <c r="E24" s="401"/>
+      <c r="A24" s="408"/>
+      <c r="B24" s="411"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="408"/>
       <c r="F24" s="170" t="s">
         <v>196</v>
       </c>
@@ -5076,11 +5094,11 @@
       <c r="P24" s="170"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="402"/>
-      <c r="B25" s="405"/>
-      <c r="C25" s="402"/>
-      <c r="D25" s="402"/>
-      <c r="E25" s="402"/>
+      <c r="A25" s="409"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="409"/>
+      <c r="D25" s="409"/>
+      <c r="E25" s="409"/>
       <c r="F25" s="173" t="s">
         <v>194</v>
       </c>
@@ -5111,17 +5129,17 @@
       <c r="P25" s="173"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="400">
+      <c r="A26" s="407">
         <v>830</v>
       </c>
-      <c r="B26" s="403">
+      <c r="B26" s="410">
         <v>44124</v>
       </c>
-      <c r="C26" s="400"/>
-      <c r="D26" s="410" t="s">
+      <c r="C26" s="407"/>
+      <c r="D26" s="417" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="400" t="s">
+      <c r="E26" s="407" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="368" t="s">
@@ -5156,11 +5174,11 @@
       <c r="P26" s="368"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="401"/>
-      <c r="B27" s="404"/>
-      <c r="C27" s="401"/>
-      <c r="D27" s="411"/>
-      <c r="E27" s="401"/>
+      <c r="A27" s="408"/>
+      <c r="B27" s="411"/>
+      <c r="C27" s="408"/>
+      <c r="D27" s="418"/>
+      <c r="E27" s="408"/>
       <c r="F27" s="170" t="s">
         <v>195</v>
       </c>
@@ -5191,11 +5209,11 @@
       <c r="P27" s="170"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="401"/>
-      <c r="B28" s="404"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="411"/>
-      <c r="E28" s="401"/>
+      <c r="A28" s="408"/>
+      <c r="B28" s="411"/>
+      <c r="C28" s="408"/>
+      <c r="D28" s="418"/>
+      <c r="E28" s="408"/>
       <c r="F28" s="170" t="s">
         <v>125</v>
       </c>
@@ -5226,11 +5244,11 @@
       <c r="P28" s="170"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="402"/>
-      <c r="B29" s="405"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="412"/>
-      <c r="E29" s="402"/>
+      <c r="A29" s="409"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="409"/>
+      <c r="D29" s="419"/>
+      <c r="E29" s="409"/>
       <c r="F29" s="173" t="s">
         <v>194</v>
       </c>
@@ -5302,19 +5320,19 @@
       <c r="P30" s="371"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="413">
+      <c r="A31" s="420">
         <v>832</v>
       </c>
-      <c r="B31" s="403">
+      <c r="B31" s="410">
         <v>44125</v>
       </c>
-      <c r="C31" s="400" t="s">
+      <c r="C31" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="400" t="s">
+      <c r="D31" s="407" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="400" t="s">
+      <c r="E31" s="407" t="s">
         <v>210</v>
       </c>
       <c r="F31" s="161" t="s">
@@ -5347,11 +5365,11 @@
       <c r="P31" s="161"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="414"/>
-      <c r="B32" s="405"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="402"/>
-      <c r="E32" s="402"/>
+      <c r="A32" s="421"/>
+      <c r="B32" s="412"/>
+      <c r="C32" s="409"/>
+      <c r="D32" s="409"/>
+      <c r="E32" s="409"/>
       <c r="F32" s="165" t="s">
         <v>195</v>
       </c>
@@ -5382,17 +5400,17 @@
       <c r="P32" s="165"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="400">
+      <c r="A33" s="407">
         <v>834</v>
       </c>
-      <c r="B33" s="403">
+      <c r="B33" s="410">
         <v>44125</v>
       </c>
-      <c r="C33" s="400"/>
-      <c r="D33" s="400" t="s">
+      <c r="C33" s="407"/>
+      <c r="D33" s="407" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="400"/>
+      <c r="E33" s="407"/>
       <c r="F33" s="161" t="s">
         <v>123</v>
       </c>
@@ -5423,11 +5441,11 @@
       <c r="P33" s="161"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="402"/>
-      <c r="B34" s="405"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="402"/>
-      <c r="E34" s="402"/>
+      <c r="A34" s="409"/>
+      <c r="B34" s="412"/>
+      <c r="C34" s="409"/>
+      <c r="D34" s="409"/>
+      <c r="E34" s="409"/>
       <c r="F34" s="165" t="s">
         <v>124</v>
       </c>
@@ -5458,17 +5476,17 @@
       <c r="P34" s="165"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="400">
+      <c r="A35" s="407">
         <v>837</v>
       </c>
-      <c r="B35" s="403">
+      <c r="B35" s="410">
         <v>44125</v>
       </c>
-      <c r="C35" s="400"/>
-      <c r="D35" s="410" t="s">
+      <c r="C35" s="407"/>
+      <c r="D35" s="417" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="410" t="s">
+      <c r="E35" s="417" t="s">
         <v>212</v>
       </c>
       <c r="F35" s="161" t="s">
@@ -5501,11 +5519,11 @@
       <c r="P35" s="161"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="401"/>
-      <c r="B36" s="404"/>
-      <c r="C36" s="401"/>
-      <c r="D36" s="411"/>
-      <c r="E36" s="411"/>
+      <c r="A36" s="408"/>
+      <c r="B36" s="411"/>
+      <c r="C36" s="408"/>
+      <c r="D36" s="418"/>
+      <c r="E36" s="418"/>
       <c r="F36" s="174" t="s">
         <v>124</v>
       </c>
@@ -5536,11 +5554,11 @@
       <c r="P36" s="174"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="401"/>
-      <c r="B37" s="404"/>
-      <c r="C37" s="401"/>
-      <c r="D37" s="411"/>
-      <c r="E37" s="411"/>
+      <c r="A37" s="408"/>
+      <c r="B37" s="411"/>
+      <c r="C37" s="408"/>
+      <c r="D37" s="418"/>
+      <c r="E37" s="418"/>
       <c r="F37" s="174" t="s">
         <v>195</v>
       </c>
@@ -5571,11 +5589,11 @@
       <c r="P37" s="174"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="401"/>
-      <c r="B38" s="404"/>
-      <c r="C38" s="401"/>
-      <c r="D38" s="411"/>
-      <c r="E38" s="411"/>
+      <c r="A38" s="408"/>
+      <c r="B38" s="411"/>
+      <c r="C38" s="408"/>
+      <c r="D38" s="418"/>
+      <c r="E38" s="418"/>
       <c r="F38" s="174" t="s">
         <v>196</v>
       </c>
@@ -5606,11 +5624,11 @@
       <c r="P38" s="174"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="401"/>
-      <c r="B39" s="404"/>
-      <c r="C39" s="401"/>
-      <c r="D39" s="411"/>
-      <c r="E39" s="411"/>
+      <c r="A39" s="408"/>
+      <c r="B39" s="411"/>
+      <c r="C39" s="408"/>
+      <c r="D39" s="418"/>
+      <c r="E39" s="418"/>
       <c r="F39" s="174" t="s">
         <v>125</v>
       </c>
@@ -5641,11 +5659,11 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="401"/>
-      <c r="B40" s="404"/>
-      <c r="C40" s="401"/>
-      <c r="D40" s="411"/>
-      <c r="E40" s="411"/>
+      <c r="A40" s="408"/>
+      <c r="B40" s="411"/>
+      <c r="C40" s="408"/>
+      <c r="D40" s="418"/>
+      <c r="E40" s="418"/>
       <c r="F40" s="174" t="s">
         <v>138</v>
       </c>
@@ -5676,11 +5694,11 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="401"/>
-      <c r="B41" s="404"/>
-      <c r="C41" s="401"/>
-      <c r="D41" s="411"/>
-      <c r="E41" s="411"/>
+      <c r="A41" s="408"/>
+      <c r="B41" s="411"/>
+      <c r="C41" s="408"/>
+      <c r="D41" s="418"/>
+      <c r="E41" s="418"/>
       <c r="F41" s="174" t="s">
         <v>120</v>
       </c>
@@ -5711,11 +5729,11 @@
       <c r="P41" s="174"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="402"/>
-      <c r="B42" s="405"/>
-      <c r="C42" s="402"/>
-      <c r="D42" s="412"/>
-      <c r="E42" s="412"/>
+      <c r="A42" s="409"/>
+      <c r="B42" s="412"/>
+      <c r="C42" s="409"/>
+      <c r="D42" s="419"/>
+      <c r="E42" s="419"/>
       <c r="F42" s="165" t="s">
         <v>132</v>
       </c>
@@ -5831,19 +5849,19 @@
       <c r="P44" s="169"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="400">
+      <c r="A45" s="407">
         <v>835</v>
       </c>
-      <c r="B45" s="403">
+      <c r="B45" s="410">
         <v>44126</v>
       </c>
-      <c r="C45" s="400" t="s">
+      <c r="C45" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="400" t="s">
+      <c r="D45" s="407" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="400" t="s">
+      <c r="E45" s="407" t="s">
         <v>222</v>
       </c>
       <c r="F45" s="161" t="s">
@@ -5876,11 +5894,11 @@
       <c r="P45" s="378"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="402"/>
-      <c r="B46" s="405"/>
-      <c r="C46" s="402"/>
-      <c r="D46" s="402"/>
-      <c r="E46" s="402"/>
+      <c r="A46" s="409"/>
+      <c r="B46" s="412"/>
+      <c r="C46" s="409"/>
+      <c r="D46" s="409"/>
+      <c r="E46" s="409"/>
       <c r="F46" s="165" t="s">
         <v>120</v>
       </c>
@@ -5911,17 +5929,17 @@
       <c r="P46" s="379"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="400">
+      <c r="A47" s="407">
         <v>840</v>
       </c>
-      <c r="B47" s="403">
+      <c r="B47" s="410">
         <v>44128</v>
       </c>
-      <c r="C47" s="400" t="s">
+      <c r="C47" s="407" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="400"/>
-      <c r="E47" s="400"/>
+      <c r="D47" s="407"/>
+      <c r="E47" s="407"/>
       <c r="F47" s="161" t="s">
         <v>124</v>
       </c>
@@ -5952,11 +5970,11 @@
       <c r="P47" s="378"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="402"/>
-      <c r="B48" s="405"/>
-      <c r="C48" s="402"/>
-      <c r="D48" s="402"/>
-      <c r="E48" s="402"/>
+      <c r="A48" s="409"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="409"/>
+      <c r="D48" s="409"/>
+      <c r="E48" s="409"/>
       <c r="F48" s="165" t="s">
         <v>224</v>
       </c>
@@ -6075,19 +6093,19 @@
       <c r="P50" s="169"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="400">
+      <c r="A51" s="407">
         <v>847</v>
       </c>
-      <c r="B51" s="403">
+      <c r="B51" s="410">
         <v>44128</v>
       </c>
-      <c r="C51" s="400" t="s">
+      <c r="C51" s="407" t="s">
         <v>231</v>
       </c>
-      <c r="D51" s="400" t="s">
+      <c r="D51" s="407" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="410" t="s">
+      <c r="E51" s="417" t="s">
         <v>230</v>
       </c>
       <c r="F51" s="161" t="s">
@@ -6120,11 +6138,11 @@
       <c r="P51" s="161"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="401"/>
-      <c r="B52" s="404"/>
-      <c r="C52" s="401"/>
-      <c r="D52" s="401"/>
-      <c r="E52" s="411"/>
+      <c r="A52" s="408"/>
+      <c r="B52" s="411"/>
+      <c r="C52" s="408"/>
+      <c r="D52" s="408"/>
+      <c r="E52" s="418"/>
       <c r="F52" s="174" t="s">
         <v>195</v>
       </c>
@@ -6155,11 +6173,11 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="401"/>
-      <c r="B53" s="404"/>
-      <c r="C53" s="401"/>
-      <c r="D53" s="401"/>
-      <c r="E53" s="411"/>
+      <c r="A53" s="408"/>
+      <c r="B53" s="411"/>
+      <c r="C53" s="408"/>
+      <c r="D53" s="408"/>
+      <c r="E53" s="418"/>
       <c r="F53" s="174" t="s">
         <v>196</v>
       </c>
@@ -6190,11 +6208,11 @@
       <c r="P53" s="199"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="401"/>
-      <c r="B54" s="404"/>
-      <c r="C54" s="401"/>
-      <c r="D54" s="401"/>
-      <c r="E54" s="411"/>
+      <c r="A54" s="408"/>
+      <c r="B54" s="411"/>
+      <c r="C54" s="408"/>
+      <c r="D54" s="408"/>
+      <c r="E54" s="418"/>
       <c r="F54" s="174" t="s">
         <v>194</v>
       </c>
@@ -6225,11 +6243,11 @@
       <c r="P54" s="199"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="402"/>
-      <c r="B55" s="405"/>
-      <c r="C55" s="402"/>
-      <c r="D55" s="402"/>
-      <c r="E55" s="412"/>
+      <c r="A55" s="409"/>
+      <c r="B55" s="412"/>
+      <c r="C55" s="409"/>
+      <c r="D55" s="409"/>
+      <c r="E55" s="419"/>
       <c r="F55" s="165" t="s">
         <v>138</v>
       </c>
@@ -6260,19 +6278,19 @@
       <c r="P55" s="379"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="400">
+      <c r="A56" s="407">
         <v>843</v>
       </c>
-      <c r="B56" s="403">
+      <c r="B56" s="410">
         <v>44129</v>
       </c>
-      <c r="C56" s="400" t="s">
+      <c r="C56" s="407" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="400" t="s">
+      <c r="D56" s="407" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="400"/>
+      <c r="E56" s="407"/>
       <c r="F56" s="161" t="s">
         <v>123</v>
       </c>
@@ -6303,11 +6321,11 @@
       <c r="P56" s="161"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="402"/>
-      <c r="B57" s="405"/>
-      <c r="C57" s="402"/>
-      <c r="D57" s="402"/>
-      <c r="E57" s="402"/>
+      <c r="A57" s="409"/>
+      <c r="B57" s="412"/>
+      <c r="C57" s="409"/>
+      <c r="D57" s="409"/>
+      <c r="E57" s="409"/>
       <c r="F57" s="165" t="s">
         <v>124</v>
       </c>
@@ -6338,17 +6356,17 @@
       <c r="P57" s="165"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="400">
+      <c r="A58" s="407">
         <v>850</v>
       </c>
-      <c r="B58" s="403">
+      <c r="B58" s="410">
         <v>44130</v>
       </c>
-      <c r="C58" s="400"/>
-      <c r="D58" s="400" t="s">
+      <c r="C58" s="407"/>
+      <c r="D58" s="407" t="s">
         <v>211</v>
       </c>
-      <c r="E58" s="400" t="s">
+      <c r="E58" s="407" t="s">
         <v>212</v>
       </c>
       <c r="F58" s="161" t="s">
@@ -6381,11 +6399,11 @@
       <c r="P58" s="161"/>
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="401"/>
-      <c r="B59" s="404"/>
-      <c r="C59" s="401"/>
-      <c r="D59" s="401"/>
-      <c r="E59" s="401"/>
+      <c r="A59" s="408"/>
+      <c r="B59" s="411"/>
+      <c r="C59" s="408"/>
+      <c r="D59" s="408"/>
+      <c r="E59" s="408"/>
       <c r="F59" s="174" t="s">
         <v>124</v>
       </c>
@@ -6416,11 +6434,11 @@
       <c r="P59" s="174"/>
     </row>
     <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="401"/>
-      <c r="B60" s="404"/>
-      <c r="C60" s="401"/>
-      <c r="D60" s="401"/>
-      <c r="E60" s="401"/>
+      <c r="A60" s="408"/>
+      <c r="B60" s="411"/>
+      <c r="C60" s="408"/>
+      <c r="D60" s="408"/>
+      <c r="E60" s="408"/>
       <c r="F60" s="174" t="s">
         <v>195</v>
       </c>
@@ -6451,11 +6469,11 @@
       <c r="P60" s="174"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="401"/>
-      <c r="B61" s="404"/>
-      <c r="C61" s="401"/>
-      <c r="D61" s="401"/>
-      <c r="E61" s="401"/>
+      <c r="A61" s="408"/>
+      <c r="B61" s="411"/>
+      <c r="C61" s="408"/>
+      <c r="D61" s="408"/>
+      <c r="E61" s="408"/>
       <c r="F61" s="174" t="s">
         <v>125</v>
       </c>
@@ -6486,11 +6504,11 @@
       <c r="P61" s="174"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="401"/>
-      <c r="B62" s="404"/>
-      <c r="C62" s="401"/>
-      <c r="D62" s="401"/>
-      <c r="E62" s="401"/>
+      <c r="A62" s="408"/>
+      <c r="B62" s="411"/>
+      <c r="C62" s="408"/>
+      <c r="D62" s="408"/>
+      <c r="E62" s="408"/>
       <c r="F62" s="174" t="s">
         <v>138</v>
       </c>
@@ -6521,11 +6539,11 @@
       <c r="P62" s="174"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="401"/>
-      <c r="B63" s="404"/>
-      <c r="C63" s="401"/>
-      <c r="D63" s="401"/>
-      <c r="E63" s="401"/>
+      <c r="A63" s="408"/>
+      <c r="B63" s="411"/>
+      <c r="C63" s="408"/>
+      <c r="D63" s="408"/>
+      <c r="E63" s="408"/>
       <c r="F63" s="174" t="s">
         <v>120</v>
       </c>
@@ -6556,11 +6574,11 @@
       <c r="P63" s="174"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="402"/>
-      <c r="B64" s="405"/>
-      <c r="C64" s="402"/>
-      <c r="D64" s="402"/>
-      <c r="E64" s="402"/>
+      <c r="A64" s="409"/>
+      <c r="B64" s="412"/>
+      <c r="C64" s="409"/>
+      <c r="D64" s="409"/>
+      <c r="E64" s="409"/>
       <c r="F64" s="165" t="s">
         <v>132</v>
       </c>
@@ -6591,17 +6609,17 @@
       <c r="P64" s="165"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="400">
+      <c r="A65" s="407">
         <v>1204</v>
       </c>
-      <c r="B65" s="403">
+      <c r="B65" s="410">
         <v>44130</v>
       </c>
-      <c r="C65" s="400"/>
-      <c r="D65" s="400" t="s">
+      <c r="C65" s="407"/>
+      <c r="D65" s="407" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="400" t="s">
+      <c r="E65" s="407" t="s">
         <v>232</v>
       </c>
       <c r="F65" s="161" t="s">
@@ -6634,11 +6652,11 @@
       <c r="P65" s="161"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="401"/>
-      <c r="B66" s="404"/>
-      <c r="C66" s="401"/>
-      <c r="D66" s="401"/>
-      <c r="E66" s="401"/>
+      <c r="A66" s="408"/>
+      <c r="B66" s="411"/>
+      <c r="C66" s="408"/>
+      <c r="D66" s="408"/>
+      <c r="E66" s="408"/>
       <c r="F66" s="174" t="s">
         <v>125</v>
       </c>
@@ -6669,11 +6687,11 @@
       <c r="P66" s="174"/>
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="402"/>
-      <c r="B67" s="405"/>
-      <c r="C67" s="402"/>
-      <c r="D67" s="402"/>
-      <c r="E67" s="402"/>
+      <c r="A67" s="409"/>
+      <c r="B67" s="412"/>
+      <c r="C67" s="409"/>
+      <c r="D67" s="409"/>
+      <c r="E67" s="409"/>
       <c r="F67" s="165" t="s">
         <v>120</v>
       </c>
@@ -6872,17 +6890,17 @@
       <c r="P71" s="155"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="400">
+      <c r="A72" s="407">
         <v>1209</v>
       </c>
-      <c r="B72" s="403">
+      <c r="B72" s="410">
         <v>44135</v>
       </c>
-      <c r="C72" s="400"/>
-      <c r="D72" s="400" t="s">
+      <c r="C72" s="407"/>
+      <c r="D72" s="407" t="s">
         <v>211</v>
       </c>
-      <c r="E72" s="400" t="s">
+      <c r="E72" s="407" t="s">
         <v>236</v>
       </c>
       <c r="F72" s="161" t="s">
@@ -6915,11 +6933,11 @@
       <c r="P72" s="161"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="402"/>
-      <c r="B73" s="405"/>
-      <c r="C73" s="402"/>
-      <c r="D73" s="402"/>
-      <c r="E73" s="402"/>
+      <c r="A73" s="409"/>
+      <c r="B73" s="412"/>
+      <c r="C73" s="409"/>
+      <c r="D73" s="409"/>
+      <c r="E73" s="409"/>
       <c r="F73" s="165" t="s">
         <v>224</v>
       </c>
@@ -7112,14 +7130,14 @@
       <c r="P82" s="165"/>
     </row>
     <row r="83" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="422" t="s">
+      <c r="A83" s="401" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="422"/>
-      <c r="C83" s="422"/>
-      <c r="D83" s="422"/>
-      <c r="E83" s="422"/>
-      <c r="F83" s="422"/>
+      <c r="B83" s="401"/>
+      <c r="C83" s="401"/>
+      <c r="D83" s="401"/>
+      <c r="E83" s="401"/>
+      <c r="F83" s="401"/>
       <c r="G83" s="130">
         <f>SUM(G8:G82)</f>
         <v>1290</v>
@@ -7139,17 +7157,17 @@
       <c r="N83" s="131"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
-      <c r="Q83" s="415"/>
+      <c r="Q83" s="413"/>
     </row>
     <row r="84" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="416" t="s">
+      <c r="A84" s="400" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="416"/>
-      <c r="C84" s="416"/>
-      <c r="D84" s="416"/>
-      <c r="E84" s="416"/>
-      <c r="F84" s="416"/>
+      <c r="B84" s="400"/>
+      <c r="C84" s="400"/>
+      <c r="D84" s="400"/>
+      <c r="E84" s="400"/>
+      <c r="F84" s="400"/>
       <c r="G84" s="130">
         <f>G83</f>
         <v>1290</v>
@@ -7166,17 +7184,17 @@
       <c r="N84" s="135"/>
       <c r="O84" s="135"/>
       <c r="P84" s="135"/>
-      <c r="Q84" s="415"/>
+      <c r="Q84" s="413"/>
     </row>
     <row r="85" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="416" t="s">
+      <c r="A85" s="400" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="416"/>
-      <c r="C85" s="416"/>
-      <c r="D85" s="416"/>
-      <c r="E85" s="416"/>
-      <c r="F85" s="416"/>
+      <c r="B85" s="400"/>
+      <c r="C85" s="400"/>
+      <c r="D85" s="400"/>
+      <c r="E85" s="400"/>
+      <c r="F85" s="400"/>
       <c r="G85" s="136" t="s">
         <v>45</v>
       </c>
@@ -7194,14 +7212,14 @@
       <c r="P85" s="137"/>
     </row>
     <row r="86" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="416" t="s">
+      <c r="A86" s="400" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="416"/>
-      <c r="C86" s="416"/>
-      <c r="D86" s="416"/>
-      <c r="E86" s="416"/>
-      <c r="F86" s="416"/>
+      <c r="B86" s="400"/>
+      <c r="C86" s="400"/>
+      <c r="D86" s="400"/>
+      <c r="E86" s="400"/>
+      <c r="F86" s="400"/>
       <c r="G86" s="135"/>
       <c r="H86" s="135"/>
       <c r="I86" s="131"/>
@@ -7217,14 +7235,14 @@
       <c r="P86" s="137"/>
     </row>
     <row r="87" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="416" t="s">
+      <c r="A87" s="400" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="416"/>
-      <c r="C87" s="416"/>
-      <c r="D87" s="416"/>
-      <c r="E87" s="416"/>
-      <c r="F87" s="416"/>
+      <c r="B87" s="400"/>
+      <c r="C87" s="400"/>
+      <c r="D87" s="400"/>
+      <c r="E87" s="400"/>
+      <c r="F87" s="400"/>
       <c r="G87" s="135"/>
       <c r="H87" s="135"/>
       <c r="I87" s="131"/>
@@ -7295,6 +7313,89 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="107">
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A86:F86"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A83:F83"/>
@@ -7319,89 +7420,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7410,10 +7428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E37"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7446,75 +7464,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="428" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="434"/>
-      <c r="C3" s="434"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="434"/>
-      <c r="F3" s="434"/>
-      <c r="G3" s="434"/>
-      <c r="H3" s="434"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="434"/>
-      <c r="K3" s="434"/>
+      <c r="B3" s="428"/>
+      <c r="C3" s="428"/>
+      <c r="D3" s="428"/>
+      <c r="E3" s="428"/>
+      <c r="F3" s="428"/>
+      <c r="G3" s="428"/>
+      <c r="H3" s="428"/>
+      <c r="I3" s="428"/>
+      <c r="J3" s="428"/>
+      <c r="K3" s="428"/>
       <c r="L3" s="289"/>
       <c r="M3" s="289"/>
       <c r="N3" s="289"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="429" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="435"/>
-      <c r="C4" s="435"/>
-      <c r="D4" s="435"/>
-      <c r="E4" s="435"/>
-      <c r="F4" s="435"/>
-      <c r="G4" s="435"/>
-      <c r="H4" s="435"/>
-      <c r="I4" s="435"/>
-      <c r="J4" s="436"/>
-      <c r="K4" s="435"/>
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="430"/>
+      <c r="K4" s="429"/>
       <c r="L4" s="290"/>
       <c r="M4" s="290"/>
       <c r="N4" s="290"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="437" t="s">
+      <c r="A5" s="431" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="438" t="s">
+      <c r="B5" s="432" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="437" t="s">
+      <c r="C5" s="431" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="437" t="s">
+      <c r="D5" s="431" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="437"/>
-      <c r="F5" s="439" t="s">
+      <c r="E5" s="431"/>
+      <c r="F5" s="433" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="439"/>
-      <c r="H5" s="439"/>
-      <c r="I5" s="439"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="441" t="s">
+      <c r="G5" s="433"/>
+      <c r="H5" s="433"/>
+      <c r="I5" s="433"/>
+      <c r="J5" s="434"/>
+      <c r="K5" s="435" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="433" t="s">
+      <c r="L5" s="427" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="433"/>
-      <c r="N5" s="433"/>
+      <c r="M5" s="427"/>
+      <c r="N5" s="427"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="437"/>
-      <c r="B6" s="438"/>
-      <c r="C6" s="437"/>
+      <c r="A6" s="431"/>
+      <c r="B6" s="432"/>
+      <c r="C6" s="431"/>
       <c r="D6" s="291" t="s">
         <v>40</v>
       </c>
@@ -7536,7 +7554,7 @@
       <c r="J6" s="295" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="441"/>
+      <c r="K6" s="435"/>
       <c r="L6" s="296" t="s">
         <v>52</v>
       </c>
@@ -7587,19 +7605,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="426">
+      <c r="A8" s="436">
         <v>811</v>
       </c>
-      <c r="B8" s="429">
+      <c r="B8" s="438">
         <v>44107</v>
       </c>
-      <c r="C8" s="426" t="s">
+      <c r="C8" s="436" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="426" t="s">
+      <c r="D8" s="436" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="426"/>
+      <c r="E8" s="436"/>
       <c r="F8" s="297" t="s">
         <v>123</v>
       </c>
@@ -7610,29 +7628,29 @@
         <v>225000</v>
       </c>
       <c r="I8" s="298">
-        <f t="shared" ref="I8:I36" si="0">H8*G8</f>
+        <f t="shared" ref="I8:I37" si="0">H8*G8</f>
         <v>225000</v>
       </c>
       <c r="J8" s="299">
         <v>1</v>
       </c>
       <c r="K8" s="298">
-        <f t="shared" ref="K8:K36" si="1">I8*(1-J8)</f>
+        <f t="shared" ref="K8:K37" si="1">I8*(1-J8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="300"/>
       <c r="M8" s="300"/>
       <c r="N8" s="301">
-        <f t="shared" ref="N8:N36" si="2">K8</f>
+        <f t="shared" ref="N8:N37" si="2">K8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="428"/>
-      <c r="B9" s="431"/>
-      <c r="C9" s="428"/>
-      <c r="D9" s="428"/>
-      <c r="E9" s="428"/>
+      <c r="A9" s="437"/>
+      <c r="B9" s="439"/>
+      <c r="C9" s="437"/>
+      <c r="D9" s="437"/>
+      <c r="E9" s="437"/>
       <c r="F9" s="307" t="s">
         <v>124</v>
       </c>
@@ -7661,17 +7679,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="426">
+      <c r="A10" s="436">
         <v>817</v>
       </c>
-      <c r="B10" s="429">
+      <c r="B10" s="438">
         <v>44107</v>
       </c>
-      <c r="C10" s="426"/>
-      <c r="D10" s="426" t="s">
+      <c r="C10" s="436"/>
+      <c r="D10" s="436" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="426"/>
+      <c r="E10" s="436"/>
       <c r="F10" s="297" t="s">
         <v>123</v>
       </c>
@@ -7700,11 +7718,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="427"/>
-      <c r="B11" s="430"/>
-      <c r="C11" s="427"/>
-      <c r="D11" s="427"/>
-      <c r="E11" s="427"/>
+      <c r="A11" s="440"/>
+      <c r="B11" s="441"/>
+      <c r="C11" s="440"/>
+      <c r="D11" s="440"/>
+      <c r="E11" s="440"/>
       <c r="F11" s="302" t="s">
         <v>124</v>
       </c>
@@ -7733,11 +7751,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="428"/>
-      <c r="B12" s="431"/>
-      <c r="C12" s="428"/>
-      <c r="D12" s="428"/>
-      <c r="E12" s="428"/>
+      <c r="A12" s="437"/>
+      <c r="B12" s="439"/>
+      <c r="C12" s="437"/>
+      <c r="D12" s="437"/>
+      <c r="E12" s="437"/>
       <c r="F12" s="307" t="s">
         <v>125</v>
       </c>
@@ -7883,17 +7901,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="426">
+      <c r="A16" s="436">
         <v>815</v>
       </c>
-      <c r="B16" s="429">
+      <c r="B16" s="438">
         <v>44112</v>
       </c>
-      <c r="C16" s="426"/>
-      <c r="D16" s="426" t="s">
+      <c r="C16" s="436"/>
+      <c r="D16" s="436" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="426"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="297" t="s">
         <v>123</v>
       </c>
@@ -7922,11 +7940,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="428"/>
-      <c r="B17" s="431"/>
-      <c r="C17" s="428"/>
-      <c r="D17" s="428"/>
-      <c r="E17" s="428"/>
+      <c r="A17" s="437"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="437"/>
+      <c r="D17" s="437"/>
+      <c r="E17" s="437"/>
       <c r="F17" s="307" t="s">
         <v>124</v>
       </c>
@@ -7955,17 +7973,17 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="426">
+      <c r="A18" s="436">
         <v>820</v>
       </c>
-      <c r="B18" s="429">
+      <c r="B18" s="438">
         <v>44113</v>
       </c>
-      <c r="C18" s="426"/>
-      <c r="D18" s="426" t="s">
+      <c r="C18" s="436"/>
+      <c r="D18" s="436" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="426"/>
+      <c r="E18" s="436"/>
       <c r="F18" s="297" t="s">
         <v>123</v>
       </c>
@@ -7994,11 +8012,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="428"/>
-      <c r="B19" s="431"/>
-      <c r="C19" s="428"/>
-      <c r="D19" s="428"/>
-      <c r="E19" s="428"/>
+      <c r="A19" s="437"/>
+      <c r="B19" s="439"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="437"/>
       <c r="F19" s="307" t="s">
         <v>124</v>
       </c>
@@ -8187,19 +8205,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="426">
+      <c r="A24" s="436">
         <v>845</v>
       </c>
-      <c r="B24" s="429">
+      <c r="B24" s="438">
         <v>44127</v>
       </c>
-      <c r="C24" s="426" t="s">
+      <c r="C24" s="436" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="426" t="s">
+      <c r="D24" s="436" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="426"/>
+      <c r="E24" s="436"/>
       <c r="F24" s="297" t="s">
         <v>124</v>
       </c>
@@ -8228,11 +8246,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="427"/>
-      <c r="B25" s="430"/>
-      <c r="C25" s="427"/>
-      <c r="D25" s="427"/>
-      <c r="E25" s="427"/>
+      <c r="A25" s="440"/>
+      <c r="B25" s="441"/>
+      <c r="C25" s="440"/>
+      <c r="D25" s="440"/>
+      <c r="E25" s="440"/>
       <c r="F25" s="302" t="s">
         <v>195</v>
       </c>
@@ -8261,11 +8279,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="427"/>
-      <c r="B26" s="430"/>
-      <c r="C26" s="427"/>
-      <c r="D26" s="427"/>
-      <c r="E26" s="427"/>
+      <c r="A26" s="440"/>
+      <c r="B26" s="441"/>
+      <c r="C26" s="440"/>
+      <c r="D26" s="440"/>
+      <c r="E26" s="440"/>
       <c r="F26" s="302" t="s">
         <v>196</v>
       </c>
@@ -8294,11 +8312,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="427"/>
-      <c r="B27" s="430"/>
-      <c r="C27" s="427"/>
-      <c r="D27" s="427"/>
-      <c r="E27" s="427"/>
+      <c r="A27" s="440"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="440"/>
+      <c r="D27" s="440"/>
+      <c r="E27" s="440"/>
       <c r="F27" s="302" t="s">
         <v>125</v>
       </c>
@@ -8327,11 +8345,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="427"/>
-      <c r="B28" s="430"/>
-      <c r="C28" s="427"/>
-      <c r="D28" s="427"/>
-      <c r="E28" s="427"/>
+      <c r="A28" s="440"/>
+      <c r="B28" s="441"/>
+      <c r="C28" s="440"/>
+      <c r="D28" s="440"/>
+      <c r="E28" s="440"/>
       <c r="F28" s="302" t="s">
         <v>194</v>
       </c>
@@ -8360,11 +8378,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="427"/>
-      <c r="B29" s="430"/>
-      <c r="C29" s="427"/>
-      <c r="D29" s="427"/>
-      <c r="E29" s="427"/>
+      <c r="A29" s="440"/>
+      <c r="B29" s="441"/>
+      <c r="C29" s="440"/>
+      <c r="D29" s="440"/>
+      <c r="E29" s="440"/>
       <c r="F29" s="302" t="s">
         <v>120</v>
       </c>
@@ -8393,11 +8411,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="428"/>
-      <c r="B30" s="431"/>
-      <c r="C30" s="428"/>
-      <c r="D30" s="428"/>
-      <c r="E30" s="428"/>
+      <c r="A30" s="437"/>
+      <c r="B30" s="439"/>
+      <c r="C30" s="437"/>
+      <c r="D30" s="437"/>
+      <c r="E30" s="437"/>
       <c r="F30" s="307" t="s">
         <v>132</v>
       </c>
@@ -8426,305 +8444,340 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="426">
+      <c r="A31" s="517">
+        <v>1226</v>
+      </c>
+      <c r="B31" s="518">
+        <v>44128</v>
+      </c>
+      <c r="C31" s="517"/>
+      <c r="D31" s="517" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="517"/>
+      <c r="F31" s="519" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="519">
+        <v>2</v>
+      </c>
+      <c r="H31" s="520">
+        <v>485000</v>
+      </c>
+      <c r="I31" s="520">
+        <f t="shared" si="0"/>
+        <v>970000</v>
+      </c>
+      <c r="J31" s="521">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="520">
+        <f t="shared" si="1"/>
+        <v>485000</v>
+      </c>
+      <c r="L31" s="522"/>
+      <c r="M31" s="522"/>
+      <c r="N31" s="523">
+        <f t="shared" si="2"/>
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="436">
         <v>1203</v>
       </c>
-      <c r="B31" s="429">
+      <c r="B32" s="438">
         <v>44130</v>
       </c>
-      <c r="C31" s="426"/>
-      <c r="D31" s="426" t="s">
+      <c r="C32" s="436"/>
+      <c r="D32" s="436" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="426"/>
-      <c r="F31" s="297" t="s">
+      <c r="E32" s="436"/>
+      <c r="F32" s="297" t="s">
         <v>199</v>
       </c>
-      <c r="G31" s="297">
+      <c r="G32" s="297">
         <v>60</v>
       </c>
-      <c r="H31" s="298">
+      <c r="H32" s="298">
         <v>235000</v>
       </c>
-      <c r="I31" s="298">
+      <c r="I32" s="298">
         <f t="shared" si="0"/>
         <v>14100000</v>
       </c>
-      <c r="J31" s="299">
+      <c r="J32" s="299">
         <v>0.38</v>
       </c>
-      <c r="K31" s="298">
+      <c r="K32" s="298">
         <f t="shared" si="1"/>
         <v>8742000</v>
       </c>
-      <c r="L31" s="300"/>
-      <c r="M31" s="300"/>
-      <c r="N31" s="301">
+      <c r="L32" s="300"/>
+      <c r="M32" s="300"/>
+      <c r="N32" s="301">
         <f t="shared" si="2"/>
         <v>8742000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="427"/>
-      <c r="B32" s="430"/>
-      <c r="C32" s="427"/>
-      <c r="D32" s="427"/>
-      <c r="E32" s="427"/>
-      <c r="F32" s="302" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="440"/>
+      <c r="B33" s="441"/>
+      <c r="C33" s="440"/>
+      <c r="D33" s="440"/>
+      <c r="E33" s="440"/>
+      <c r="F33" s="302" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="302">
+      <c r="G33" s="302">
         <v>11</v>
       </c>
-      <c r="H32" s="303">
+      <c r="H33" s="303">
         <v>465000</v>
       </c>
-      <c r="I32" s="303">
+      <c r="I33" s="303">
         <f t="shared" si="0"/>
         <v>5115000</v>
       </c>
-      <c r="J32" s="304">
+      <c r="J33" s="304">
         <v>0.38</v>
       </c>
-      <c r="K32" s="303">
+      <c r="K33" s="303">
         <f t="shared" si="1"/>
         <v>3171300</v>
-      </c>
-      <c r="L32" s="305"/>
-      <c r="M32" s="305"/>
-      <c r="N32" s="306">
-        <f t="shared" si="2"/>
-        <v>3171300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="427"/>
-      <c r="B33" s="430"/>
-      <c r="C33" s="427"/>
-      <c r="D33" s="427"/>
-      <c r="E33" s="427"/>
-      <c r="F33" s="302" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="302">
-        <v>25</v>
-      </c>
-      <c r="H33" s="303">
-        <v>550000</v>
-      </c>
-      <c r="I33" s="303">
-        <f t="shared" si="0"/>
-        <v>13750000</v>
-      </c>
-      <c r="J33" s="304">
-        <v>0.38</v>
-      </c>
-      <c r="K33" s="303">
-        <f t="shared" si="1"/>
-        <v>8525000</v>
       </c>
       <c r="L33" s="305"/>
       <c r="M33" s="305"/>
       <c r="N33" s="306">
         <f t="shared" si="2"/>
+        <v>3171300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="440"/>
+      <c r="B34" s="441"/>
+      <c r="C34" s="440"/>
+      <c r="D34" s="440"/>
+      <c r="E34" s="440"/>
+      <c r="F34" s="302" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="302">
+        <v>25</v>
+      </c>
+      <c r="H34" s="303">
+        <v>550000</v>
+      </c>
+      <c r="I34" s="303">
+        <f t="shared" si="0"/>
+        <v>13750000</v>
+      </c>
+      <c r="J34" s="304">
+        <v>0.38</v>
+      </c>
+      <c r="K34" s="303">
+        <f t="shared" si="1"/>
         <v>8525000</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="428"/>
-      <c r="B34" s="431"/>
-      <c r="C34" s="428"/>
-      <c r="D34" s="428"/>
-      <c r="E34" s="428"/>
-      <c r="F34" s="307" t="s">
+      <c r="L34" s="305"/>
+      <c r="M34" s="305"/>
+      <c r="N34" s="306">
+        <f t="shared" si="2"/>
+        <v>8525000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="437"/>
+      <c r="B35" s="439"/>
+      <c r="C35" s="437"/>
+      <c r="D35" s="437"/>
+      <c r="E35" s="437"/>
+      <c r="F35" s="307" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="307">
+      <c r="G35" s="307">
         <v>23</v>
       </c>
-      <c r="H34" s="308">
+      <c r="H35" s="308">
         <v>455000</v>
       </c>
-      <c r="I34" s="308">
+      <c r="I35" s="308">
         <f t="shared" si="0"/>
         <v>10465000</v>
       </c>
-      <c r="J34" s="309">
+      <c r="J35" s="309">
         <v>0.38</v>
       </c>
-      <c r="K34" s="308">
+      <c r="K35" s="308">
         <f t="shared" si="1"/>
         <v>6488300</v>
       </c>
-      <c r="L34" s="310"/>
-      <c r="M34" s="310"/>
-      <c r="N34" s="311">
+      <c r="L35" s="310"/>
+      <c r="M35" s="310"/>
+      <c r="N35" s="311">
         <f t="shared" si="2"/>
         <v>6488300</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="337"/>
-      <c r="B35" s="338">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="337"/>
+      <c r="B36" s="338">
         <v>44130</v>
       </c>
-      <c r="C35" s="337" t="s">
+      <c r="C36" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="337" t="s">
+      <c r="D36" s="337" t="s">
         <v>229</v>
       </c>
-      <c r="E35" s="337"/>
-      <c r="F35" s="351" t="s">
+      <c r="E36" s="337"/>
+      <c r="F36" s="351" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="351">
+      <c r="G36" s="351">
         <v>36</v>
       </c>
-      <c r="H35" s="352">
+      <c r="H36" s="352">
         <v>550000</v>
       </c>
-      <c r="I35" s="352">
+      <c r="I36" s="352">
         <f t="shared" si="0"/>
         <v>19800000</v>
       </c>
-      <c r="J35" s="353">
+      <c r="J36" s="353">
         <v>0.5</v>
       </c>
-      <c r="K35" s="352">
+      <c r="K36" s="352">
         <f t="shared" si="1"/>
         <v>9900000</v>
       </c>
-      <c r="L35" s="354"/>
-      <c r="M35" s="354"/>
-      <c r="N35" s="383">
+      <c r="L36" s="354"/>
+      <c r="M36" s="354"/>
+      <c r="N36" s="383">
         <f t="shared" si="2"/>
         <v>9900000</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="337">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="337">
         <v>1210</v>
       </c>
-      <c r="B36" s="338">
+      <c r="B37" s="338">
         <v>44135</v>
       </c>
-      <c r="C36" s="337"/>
-      <c r="D36" s="337" t="s">
+      <c r="C37" s="337"/>
+      <c r="D37" s="337" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="337"/>
-      <c r="F36" s="351" t="s">
+      <c r="E37" s="337"/>
+      <c r="F37" s="351" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="351">
+      <c r="G37" s="351">
         <v>12</v>
       </c>
-      <c r="H36" s="352">
+      <c r="H37" s="352">
         <v>235000</v>
       </c>
-      <c r="I36" s="352">
+      <c r="I37" s="352">
         <f t="shared" si="0"/>
         <v>2820000</v>
       </c>
-      <c r="J36" s="353">
+      <c r="J37" s="353">
         <v>0.5</v>
       </c>
-      <c r="K36" s="331">
+      <c r="K37" s="331">
         <f t="shared" si="1"/>
         <v>1410000</v>
       </c>
-      <c r="L36" s="354"/>
-      <c r="M36" s="354"/>
-      <c r="N36" s="334">
+      <c r="L37" s="354"/>
+      <c r="M37" s="354"/>
+      <c r="N37" s="334">
         <f t="shared" si="2"/>
         <v>1410000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="318" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="432" t="s">
+    <row r="38" spans="1:14" s="318" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="426" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="432"/>
-      <c r="C37" s="432"/>
-      <c r="D37" s="432"/>
-      <c r="E37" s="432"/>
-      <c r="F37" s="312"/>
-      <c r="G37" s="312">
-        <f>SUM(G7:G36)</f>
-        <v>414</v>
-      </c>
-      <c r="H37" s="313"/>
-      <c r="I37" s="313">
-        <f>SUM(I7:I36)</f>
-        <v>171305000</v>
-      </c>
-      <c r="J37" s="314"/>
-      <c r="K37" s="315">
-        <f>SUM(K7:K34)</f>
-        <v>85595750</v>
-      </c>
-      <c r="L37" s="316"/>
-      <c r="M37" s="316"/>
-      <c r="N37" s="317">
-        <f>SUM(N7:N34)</f>
-        <v>85595750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="319"/>
-      <c r="H38" s="319"/>
+      <c r="B38" s="426"/>
+      <c r="C38" s="426"/>
+      <c r="D38" s="426"/>
+      <c r="E38" s="426"/>
+      <c r="F38" s="312"/>
+      <c r="G38" s="312">
+        <f>SUM(G7:G37)</f>
+        <v>416</v>
+      </c>
+      <c r="H38" s="313"/>
+      <c r="I38" s="313">
+        <f>SUM(I7:I37)</f>
+        <v>172275000</v>
+      </c>
+      <c r="J38" s="314"/>
+      <c r="K38" s="315">
+        <f>SUM(K7:K35)</f>
+        <v>86080750</v>
+      </c>
+      <c r="L38" s="316"/>
+      <c r="M38" s="316"/>
+      <c r="N38" s="317">
+        <f>SUM(N7:N35)</f>
+        <v>86080750</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G39" s="319"/>
       <c r="H39" s="319"/>
     </row>
-    <row r="40" spans="1:14" s="320" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="321"/>
-      <c r="E40" s="322" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="319"/>
+      <c r="H40" s="319"/>
+    </row>
+    <row r="41" spans="1:14" s="320" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="321"/>
+      <c r="E41" s="322" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="321"/>
-      <c r="G40" s="321"/>
-      <c r="H40" s="321"/>
-      <c r="K40" s="322"/>
-      <c r="L40" s="322" t="s">
+      <c r="F41" s="321"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="321"/>
+      <c r="K41" s="322"/>
+      <c r="L41" s="322" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="320" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="323"/>
-      <c r="E41" s="324" t="s">
+    <row r="42" spans="1:14" s="320" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="323"/>
+      <c r="E42" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="323"/>
-      <c r="G41" s="323"/>
-      <c r="H41" s="323"/>
-      <c r="K41" s="324"/>
-      <c r="L41" s="324" t="s">
+      <c r="F42" s="323"/>
+      <c r="G42" s="323"/>
+      <c r="H42" s="323"/>
+      <c r="K42" s="324"/>
+      <c r="L42" s="324" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G42" s="319"/>
-      <c r="H42" s="319"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G43" s="319"/>
       <c r="H43" s="319"/>
     </row>
-    <row r="44" spans="1:14" s="325" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="322"/>
-      <c r="E44" s="322"/>
-      <c r="F44" s="326"/>
-      <c r="K44" s="327"/>
-      <c r="L44" s="287"/>
-      <c r="M44" s="287"/>
-      <c r="N44" s="287"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="319"/>
-      <c r="H45" s="319"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G44" s="319"/>
+      <c r="H44" s="319"/>
+    </row>
+    <row r="45" spans="1:14" s="325" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="322"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="326"/>
+      <c r="K45" s="327"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="287"/>
+      <c r="N45" s="287"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G46" s="319"/>
@@ -8734,9 +8787,37 @@
       <c r="G47" s="319"/>
       <c r="H47" s="319"/>
     </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G48" s="319"/>
+      <c r="H48" s="319"/>
+    </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
@@ -8752,30 +8833,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8975,8 +9032,8 @@
       </c>
       <c r="C13" s="120"/>
       <c r="D13" s="119">
-        <f>'Hàng khách trả'!I37</f>
-        <v>171305000</v>
+        <f>'Hàng khách trả'!I38</f>
+        <v>172275000</v>
       </c>
       <c r="E13" s="117"/>
       <c r="F13" s="61"/>
@@ -8991,8 +9048,8 @@
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="119">
-        <f>'Hàng khách trả'!K37</f>
-        <v>85595750</v>
+        <f>'Hàng khách trả'!K38</f>
+        <v>86080750</v>
       </c>
       <c r="E14" s="117"/>
       <c r="F14" s="61"/>
@@ -9008,7 +9065,7 @@
       <c r="C15" s="77"/>
       <c r="D15" s="78">
         <f>D9-D10-D11-D12-D14</f>
-        <v>98905300</v>
+        <v>98420300</v>
       </c>
       <c r="E15" s="75" t="s">
         <v>96</v>
@@ -9239,13 +9296,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="474" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="449"/>
-      <c r="C1" s="449"/>
-      <c r="D1" s="449"/>
-      <c r="E1" s="449"/>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="474"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9265,172 +9322,172 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="450" t="s">
+      <c r="A4" s="475" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="450"/>
-      <c r="C4" s="450"/>
-      <c r="D4" s="450"/>
-      <c r="E4" s="450"/>
-      <c r="F4" s="450"/>
-      <c r="G4" s="450"/>
-      <c r="H4" s="450"/>
+      <c r="B4" s="475"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="475"/>
+      <c r="E4" s="475"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="475"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="451" t="s">
+      <c r="A6" s="476" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="451"/>
-      <c r="C6" s="451"/>
-      <c r="D6" s="451"/>
-      <c r="E6" s="451"/>
-      <c r="F6" s="451"/>
-      <c r="G6" s="452" t="s">
+      <c r="B6" s="476"/>
+      <c r="C6" s="476"/>
+      <c r="D6" s="476"/>
+      <c r="E6" s="476"/>
+      <c r="F6" s="476"/>
+      <c r="G6" s="477" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="452"/>
+      <c r="H6" s="477"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="465" t="s">
+      <c r="A7" s="468" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="466"/>
+      <c r="B7" s="469"/>
       <c r="C7" s="265"/>
       <c r="D7" s="266"/>
       <c r="E7" s="65" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="463">
+      <c r="G7" s="466">
         <v>4744538</v>
       </c>
-      <c r="H7" s="464"/>
-      <c r="I7" s="447" t="s">
+      <c r="H7" s="467"/>
+      <c r="I7" s="472" t="s">
         <v>244</v>
       </c>
-      <c r="J7" s="448"/>
+      <c r="J7" s="473"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="467"/>
-      <c r="B8" s="468"/>
+      <c r="A8" s="470"/>
+      <c r="B8" s="471"/>
       <c r="C8" s="265"/>
       <c r="D8" s="266"/>
       <c r="E8" s="65" t="s">
         <v>180</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="463">
+      <c r="G8" s="466">
         <v>6713000</v>
       </c>
-      <c r="H8" s="464"/>
-      <c r="I8" s="447"/>
-      <c r="J8" s="448"/>
+      <c r="H8" s="467"/>
+      <c r="I8" s="472"/>
+      <c r="J8" s="473"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="453" t="s">
+      <c r="A9" s="456" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="454"/>
-      <c r="C9" s="454"/>
-      <c r="D9" s="455"/>
+      <c r="B9" s="457"/>
+      <c r="C9" s="457"/>
+      <c r="D9" s="458"/>
       <c r="E9" s="257" t="s">
         <v>183</v>
       </c>
       <c r="F9" s="258">
         <v>382000</v>
       </c>
-      <c r="G9" s="459">
+      <c r="G9" s="462">
         <f>SUM(F9:F13)</f>
         <v>3625000</v>
       </c>
-      <c r="H9" s="460"/>
+      <c r="H9" s="463"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="456"/>
-      <c r="B10" s="457"/>
-      <c r="C10" s="457"/>
-      <c r="D10" s="458"/>
+      <c r="A10" s="459"/>
+      <c r="B10" s="460"/>
+      <c r="C10" s="460"/>
+      <c r="D10" s="461"/>
       <c r="E10" s="257" t="s">
         <v>184</v>
       </c>
       <c r="F10" s="258">
         <v>997000</v>
       </c>
-      <c r="G10" s="461"/>
-      <c r="H10" s="462"/>
+      <c r="G10" s="464"/>
+      <c r="H10" s="465"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="456"/>
-      <c r="B11" s="457"/>
-      <c r="C11" s="457"/>
-      <c r="D11" s="458"/>
+      <c r="A11" s="459"/>
+      <c r="B11" s="460"/>
+      <c r="C11" s="460"/>
+      <c r="D11" s="461"/>
       <c r="E11" s="257" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="258">
         <v>417000</v>
       </c>
-      <c r="G11" s="461"/>
-      <c r="H11" s="462"/>
+      <c r="G11" s="464"/>
+      <c r="H11" s="465"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="456"/>
-      <c r="B12" s="457"/>
-      <c r="C12" s="457"/>
-      <c r="D12" s="458"/>
+      <c r="A12" s="459"/>
+      <c r="B12" s="460"/>
+      <c r="C12" s="460"/>
+      <c r="D12" s="461"/>
       <c r="E12" s="257" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="258">
         <v>914000</v>
       </c>
-      <c r="G12" s="461"/>
-      <c r="H12" s="462"/>
+      <c r="G12" s="464"/>
+      <c r="H12" s="465"/>
     </row>
     <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="456"/>
-      <c r="B13" s="457"/>
-      <c r="C13" s="457"/>
-      <c r="D13" s="458"/>
+      <c r="A13" s="459"/>
+      <c r="B13" s="460"/>
+      <c r="C13" s="460"/>
+      <c r="D13" s="461"/>
       <c r="E13" s="267" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="258">
         <v>915000</v>
       </c>
-      <c r="G13" s="461"/>
-      <c r="H13" s="462"/>
+      <c r="G13" s="464"/>
+      <c r="H13" s="465"/>
       <c r="O13" s="274"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="472" t="s">
+      <c r="A14" s="450" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="472"/>
-      <c r="C14" s="472"/>
-      <c r="D14" s="472"/>
-      <c r="E14" s="472"/>
-      <c r="F14" s="472"/>
-      <c r="G14" s="473">
+      <c r="B14" s="450"/>
+      <c r="C14" s="450"/>
+      <c r="D14" s="450"/>
+      <c r="E14" s="450"/>
+      <c r="F14" s="450"/>
+      <c r="G14" s="451">
         <f>'Bảng lương'!F12</f>
         <v>6576923.076923077</v>
       </c>
-      <c r="H14" s="473"/>
+      <c r="H14" s="451"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="474" t="s">
+      <c r="A15" s="452" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="474"/>
-      <c r="C15" s="474"/>
-      <c r="D15" s="474"/>
-      <c r="E15" s="474"/>
-      <c r="F15" s="474"/>
-      <c r="G15" s="475">
+      <c r="B15" s="452"/>
+      <c r="C15" s="452"/>
+      <c r="D15" s="452"/>
+      <c r="E15" s="452"/>
+      <c r="F15" s="452"/>
+      <c r="G15" s="453">
         <f>G7+G8+G9+G14</f>
         <v>21659461.076923076</v>
       </c>
-      <c r="H15" s="475"/>
+      <c r="H15" s="453"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="275" t="s">
@@ -9443,10 +9500,10 @@
       <c r="K17" s="274"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="476">
+      <c r="A18" s="454">
         <v>44106</v>
       </c>
-      <c r="B18" s="476"/>
+      <c r="B18" s="454"/>
       <c r="C18" s="269"/>
       <c r="D18" s="269"/>
       <c r="E18" s="269" t="s">
@@ -9459,10 +9516,10 @@
       <c r="P18" s="274"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="476">
+      <c r="A19" s="454">
         <v>44116</v>
       </c>
-      <c r="B19" s="476"/>
+      <c r="B19" s="454"/>
       <c r="C19" s="269"/>
       <c r="D19" s="269"/>
       <c r="E19" s="269" t="s">
@@ -9474,10 +9531,10 @@
       <c r="K19" s="274"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="476">
+      <c r="A20" s="454">
         <v>44120</v>
       </c>
-      <c r="B20" s="476"/>
+      <c r="B20" s="454"/>
       <c r="C20" s="269"/>
       <c r="D20" s="269"/>
       <c r="E20" s="269" t="s">
@@ -9488,10 +9545,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="477">
+      <c r="A21" s="455">
         <v>44128</v>
       </c>
-      <c r="B21" s="477"/>
+      <c r="B21" s="455"/>
       <c r="C21" s="269"/>
       <c r="D21" s="269"/>
       <c r="E21" s="350" t="s">
@@ -9505,10 +9562,10 @@
       <c r="M21" s="274"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="476">
+      <c r="A22" s="454">
         <v>44131</v>
       </c>
-      <c r="B22" s="476"/>
+      <c r="B22" s="454"/>
       <c r="C22" s="269"/>
       <c r="D22" s="269"/>
       <c r="E22" s="282" t="s">
@@ -9520,13 +9577,13 @@
       <c r="M22" s="274"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="469" t="s">
+      <c r="A23" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="470"/>
-      <c r="C23" s="470"/>
-      <c r="D23" s="470"/>
-      <c r="E23" s="471"/>
+      <c r="B23" s="448"/>
+      <c r="C23" s="448"/>
+      <c r="D23" s="448"/>
+      <c r="E23" s="449"/>
       <c r="F23" s="276">
         <f>SUM(F18:F22)</f>
         <v>7558900</v>
@@ -9586,6 +9643,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -9596,16 +9663,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10146,16 +10203,16 @@
       <c r="C1" s="214"/>
       <c r="D1" s="214"/>
       <c r="E1" s="214"/>
-      <c r="Z1" s="496" t="s">
+      <c r="Z1" s="483" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="497"/>
-      <c r="AB1" s="497"/>
-      <c r="AC1" s="497"/>
-      <c r="AD1" s="497"/>
-      <c r="AE1" s="497"/>
-      <c r="AF1" s="497"/>
-      <c r="AG1" s="498"/>
+      <c r="AA1" s="484"/>
+      <c r="AB1" s="484"/>
+      <c r="AC1" s="484"/>
+      <c r="AD1" s="484"/>
+      <c r="AE1" s="484"/>
+      <c r="AF1" s="484"/>
+      <c r="AG1" s="485"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
@@ -10165,18 +10222,18 @@
       <c r="C2" s="218"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
-      <c r="Z2" s="479" t="s">
+      <c r="Z2" s="478" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" s="480"/>
-      <c r="AB2" s="480"/>
-      <c r="AC2" s="480"/>
-      <c r="AD2" s="480"/>
-      <c r="AE2" s="481"/>
-      <c r="AF2" s="482" t="s">
+      <c r="AA2" s="479"/>
+      <c r="AB2" s="479"/>
+      <c r="AC2" s="479"/>
+      <c r="AD2" s="479"/>
+      <c r="AE2" s="480"/>
+      <c r="AF2" s="481" t="s">
         <v>149</v>
       </c>
-      <c r="AG2" s="483"/>
+      <c r="AG2" s="482"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="217" t="s">
@@ -10186,18 +10243,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="479" t="s">
+      <c r="Z3" s="478" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="480"/>
-      <c r="AC3" s="480"/>
-      <c r="AD3" s="480"/>
-      <c r="AE3" s="481"/>
-      <c r="AF3" s="482" t="s">
+      <c r="AA3" s="479"/>
+      <c r="AB3" s="479"/>
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="480"/>
+      <c r="AF3" s="481" t="s">
         <v>152</v>
       </c>
-      <c r="AG3" s="483"/>
+      <c r="AG3" s="482"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="217" t="s">
@@ -10210,18 +10267,18 @@
       <c r="T4" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="479" t="s">
+      <c r="Z4" s="478" t="s">
         <v>154</v>
       </c>
-      <c r="AA4" s="480"/>
-      <c r="AB4" s="480"/>
-      <c r="AC4" s="480"/>
-      <c r="AD4" s="480"/>
-      <c r="AE4" s="481"/>
-      <c r="AF4" s="482" t="s">
+      <c r="AA4" s="479"/>
+      <c r="AB4" s="479"/>
+      <c r="AC4" s="479"/>
+      <c r="AD4" s="479"/>
+      <c r="AE4" s="480"/>
+      <c r="AF4" s="481" t="s">
         <v>155</v>
       </c>
-      <c r="AG4" s="483"/>
+      <c r="AG4" s="482"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="217" t="s">
@@ -10231,18 +10288,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="479" t="s">
+      <c r="Z5" s="478" t="s">
         <v>157</v>
       </c>
-      <c r="AA5" s="480"/>
-      <c r="AB5" s="480"/>
-      <c r="AC5" s="480"/>
-      <c r="AD5" s="480"/>
-      <c r="AE5" s="481"/>
-      <c r="AF5" s="482" t="s">
+      <c r="AA5" s="479"/>
+      <c r="AB5" s="479"/>
+      <c r="AC5" s="479"/>
+      <c r="AD5" s="479"/>
+      <c r="AE5" s="480"/>
+      <c r="AF5" s="481" t="s">
         <v>158</v>
       </c>
-      <c r="AG5" s="483"/>
+      <c r="AG5" s="482"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="219"/>
@@ -10252,93 +10309,93 @@
       <c r="E6" s="219"/>
     </row>
     <row r="7" spans="1:40" s="222" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="484" t="s">
+      <c r="A7" s="487" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="484"/>
-      <c r="C7" s="484"/>
-      <c r="D7" s="484"/>
-      <c r="E7" s="484"/>
-      <c r="F7" s="484"/>
-      <c r="G7" s="484"/>
-      <c r="H7" s="484"/>
-      <c r="I7" s="484"/>
-      <c r="J7" s="484"/>
-      <c r="K7" s="484"/>
-      <c r="L7" s="484"/>
-      <c r="M7" s="484"/>
-      <c r="N7" s="484"/>
-      <c r="O7" s="484"/>
-      <c r="P7" s="484"/>
-      <c r="Q7" s="484"/>
-      <c r="R7" s="484"/>
-      <c r="S7" s="484"/>
-      <c r="T7" s="484"/>
-      <c r="U7" s="484"/>
-      <c r="V7" s="484"/>
-      <c r="W7" s="484"/>
-      <c r="X7" s="484"/>
-      <c r="Y7" s="484"/>
-      <c r="Z7" s="484"/>
-      <c r="AA7" s="484"/>
-      <c r="AB7" s="484"/>
-      <c r="AC7" s="484"/>
-      <c r="AD7" s="484"/>
-      <c r="AE7" s="484"/>
-      <c r="AF7" s="484"/>
-      <c r="AG7" s="484"/>
-      <c r="AH7" s="484"/>
-      <c r="AI7" s="484"/>
-      <c r="AJ7" s="484"/>
-      <c r="AK7" s="484"/>
-      <c r="AL7" s="484"/>
-      <c r="AM7" s="484"/>
+      <c r="B7" s="487"/>
+      <c r="C7" s="487"/>
+      <c r="D7" s="487"/>
+      <c r="E7" s="487"/>
+      <c r="F7" s="487"/>
+      <c r="G7" s="487"/>
+      <c r="H7" s="487"/>
+      <c r="I7" s="487"/>
+      <c r="J7" s="487"/>
+      <c r="K7" s="487"/>
+      <c r="L7" s="487"/>
+      <c r="M7" s="487"/>
+      <c r="N7" s="487"/>
+      <c r="O7" s="487"/>
+      <c r="P7" s="487"/>
+      <c r="Q7" s="487"/>
+      <c r="R7" s="487"/>
+      <c r="S7" s="487"/>
+      <c r="T7" s="487"/>
+      <c r="U7" s="487"/>
+      <c r="V7" s="487"/>
+      <c r="W7" s="487"/>
+      <c r="X7" s="487"/>
+      <c r="Y7" s="487"/>
+      <c r="Z7" s="487"/>
+      <c r="AA7" s="487"/>
+      <c r="AB7" s="487"/>
+      <c r="AC7" s="487"/>
+      <c r="AD7" s="487"/>
+      <c r="AE7" s="487"/>
+      <c r="AF7" s="487"/>
+      <c r="AG7" s="487"/>
+      <c r="AH7" s="487"/>
+      <c r="AI7" s="487"/>
+      <c r="AJ7" s="487"/>
+      <c r="AK7" s="487"/>
+      <c r="AL7" s="487"/>
+      <c r="AM7" s="487"/>
       <c r="AN7" s="221"/>
     </row>
     <row r="9" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="485" t="s">
+      <c r="A9" s="488" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="485" t="s">
+      <c r="B9" s="488" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="485" t="s">
+      <c r="C9" s="488" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="488" t="s">
+      <c r="D9" s="491" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="489"/>
-      <c r="F9" s="489"/>
-      <c r="G9" s="489"/>
-      <c r="H9" s="489"/>
-      <c r="I9" s="489"/>
-      <c r="J9" s="489"/>
-      <c r="K9" s="489"/>
-      <c r="L9" s="489"/>
-      <c r="M9" s="489"/>
-      <c r="N9" s="489"/>
-      <c r="O9" s="489"/>
-      <c r="P9" s="489"/>
-      <c r="Q9" s="489"/>
-      <c r="R9" s="489"/>
-      <c r="S9" s="489"/>
-      <c r="T9" s="489"/>
-      <c r="U9" s="489"/>
-      <c r="V9" s="489"/>
-      <c r="W9" s="489"/>
-      <c r="X9" s="489"/>
-      <c r="Y9" s="489"/>
-      <c r="Z9" s="489"/>
-      <c r="AA9" s="489"/>
-      <c r="AB9" s="489"/>
-      <c r="AC9" s="489"/>
-      <c r="AD9" s="489"/>
-      <c r="AE9" s="489"/>
-      <c r="AF9" s="489"/>
-      <c r="AG9" s="489"/>
-      <c r="AH9" s="490"/>
-      <c r="AI9" s="491" t="s">
+      <c r="E9" s="492"/>
+      <c r="F9" s="492"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="492"/>
+      <c r="J9" s="492"/>
+      <c r="K9" s="492"/>
+      <c r="L9" s="492"/>
+      <c r="M9" s="492"/>
+      <c r="N9" s="492"/>
+      <c r="O9" s="492"/>
+      <c r="P9" s="492"/>
+      <c r="Q9" s="492"/>
+      <c r="R9" s="492"/>
+      <c r="S9" s="492"/>
+      <c r="T9" s="492"/>
+      <c r="U9" s="492"/>
+      <c r="V9" s="492"/>
+      <c r="W9" s="492"/>
+      <c r="X9" s="492"/>
+      <c r="Y9" s="492"/>
+      <c r="Z9" s="492"/>
+      <c r="AA9" s="492"/>
+      <c r="AB9" s="492"/>
+      <c r="AC9" s="492"/>
+      <c r="AD9" s="492"/>
+      <c r="AE9" s="492"/>
+      <c r="AF9" s="492"/>
+      <c r="AG9" s="492"/>
+      <c r="AH9" s="493"/>
+      <c r="AI9" s="494" t="s">
         <v>163</v>
       </c>
       <c r="AJ9" s="223"/>
@@ -10348,9 +10405,9 @@
       <c r="AN9" s="226"/>
     </row>
     <row r="10" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="486"/>
-      <c r="B10" s="486"/>
-      <c r="C10" s="486"/>
+      <c r="A10" s="489"/>
+      <c r="B10" s="489"/>
+      <c r="C10" s="489"/>
       <c r="D10" s="228">
         <v>1</v>
       </c>
@@ -10444,7 +10501,7 @@
       <c r="AH10" s="228">
         <v>31</v>
       </c>
-      <c r="AI10" s="491"/>
+      <c r="AI10" s="494"/>
       <c r="AJ10" s="229"/>
       <c r="AK10" s="225"/>
       <c r="AL10" s="225"/>
@@ -10452,9 +10509,9 @@
       <c r="AN10" s="226"/>
     </row>
     <row r="11" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="487"/>
-      <c r="B11" s="487"/>
-      <c r="C11" s="487"/>
+      <c r="A11" s="490"/>
+      <c r="B11" s="490"/>
+      <c r="C11" s="490"/>
       <c r="D11" s="228" t="s">
         <v>165</v>
       </c>
@@ -10548,7 +10605,7 @@
       <c r="AH11" s="230" t="s">
         <v>167</v>
       </c>
-      <c r="AI11" s="491"/>
+      <c r="AI11" s="494"/>
       <c r="AJ11" s="232"/>
       <c r="AN11" s="234"/>
     </row>
@@ -10933,10 +10990,10 @@
       <c r="AN15" s="234"/>
     </row>
     <row r="16" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="492" t="s">
+      <c r="A16" s="495" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="493"/>
+      <c r="B16" s="496"/>
       <c r="C16" s="240"/>
       <c r="D16" s="240"/>
       <c r="E16" s="241"/>
@@ -10979,49 +11036,49 @@
       <c r="AN16" s="234"/>
     </row>
     <row r="18" spans="1:40" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="494" t="s">
+      <c r="A18" s="497" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="494"/>
-      <c r="C18" s="494"/>
-      <c r="D18" s="494"/>
-      <c r="E18" s="494"/>
-      <c r="F18" s="494"/>
-      <c r="G18" s="494"/>
+      <c r="B18" s="497"/>
+      <c r="C18" s="497"/>
+      <c r="D18" s="497"/>
+      <c r="E18" s="497"/>
+      <c r="F18" s="497"/>
+      <c r="G18" s="497"/>
       <c r="H18" s="245"/>
-      <c r="I18" s="495"/>
-      <c r="J18" s="495"/>
-      <c r="K18" s="495"/>
-      <c r="L18" s="495"/>
-      <c r="M18" s="495"/>
+      <c r="I18" s="498"/>
+      <c r="J18" s="498"/>
+      <c r="K18" s="498"/>
+      <c r="L18" s="498"/>
+      <c r="M18" s="498"/>
       <c r="N18" s="246"/>
-      <c r="O18" s="495" t="s">
+      <c r="O18" s="498" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="495"/>
-      <c r="Q18" s="495"/>
-      <c r="R18" s="495"/>
-      <c r="S18" s="495"/>
-      <c r="T18" s="495"/>
-      <c r="U18" s="495"/>
-      <c r="V18" s="495"/>
-      <c r="W18" s="495"/>
-      <c r="X18" s="495"/>
-      <c r="Y18" s="495"/>
+      <c r="P18" s="498"/>
+      <c r="Q18" s="498"/>
+      <c r="R18" s="498"/>
+      <c r="S18" s="498"/>
+      <c r="T18" s="498"/>
+      <c r="U18" s="498"/>
+      <c r="V18" s="498"/>
+      <c r="W18" s="498"/>
+      <c r="X18" s="498"/>
+      <c r="Y18" s="498"/>
       <c r="Z18" s="247"/>
       <c r="AA18" s="247"/>
       <c r="AB18" s="248"/>
-      <c r="AC18" s="495"/>
-      <c r="AD18" s="495"/>
-      <c r="AE18" s="495"/>
-      <c r="AF18" s="495"/>
-      <c r="AG18" s="495"/>
-      <c r="AH18" s="495"/>
-      <c r="AI18" s="495"/>
-      <c r="AJ18" s="495"/>
-      <c r="AK18" s="495"/>
-      <c r="AL18" s="495"/>
-      <c r="AM18" s="495"/>
+      <c r="AC18" s="498"/>
+      <c r="AD18" s="498"/>
+      <c r="AE18" s="498"/>
+      <c r="AF18" s="498"/>
+      <c r="AG18" s="498"/>
+      <c r="AH18" s="498"/>
+      <c r="AI18" s="498"/>
+      <c r="AJ18" s="498"/>
+      <c r="AK18" s="498"/>
+      <c r="AL18" s="498"/>
+      <c r="AM18" s="498"/>
       <c r="AN18" s="249"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -11055,131 +11112,131 @@
       <c r="AN33" s="254"/>
     </row>
     <row r="34" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="478"/>
-      <c r="H34" s="478"/>
-      <c r="I34" s="478"/>
-      <c r="J34" s="478"/>
-      <c r="K34" s="478"/>
-      <c r="L34" s="478"/>
-      <c r="M34" s="478"/>
-      <c r="N34" s="478"/>
-      <c r="O34" s="478"/>
-      <c r="P34" s="478"/>
-      <c r="Q34" s="478"/>
-      <c r="R34" s="478"/>
-      <c r="S34" s="478"/>
-      <c r="T34" s="478"/>
-      <c r="U34" s="478"/>
-      <c r="V34" s="478"/>
-      <c r="W34" s="478"/>
-      <c r="X34" s="478"/>
+      <c r="G34" s="486"/>
+      <c r="H34" s="486"/>
+      <c r="I34" s="486"/>
+      <c r="J34" s="486"/>
+      <c r="K34" s="486"/>
+      <c r="L34" s="486"/>
+      <c r="M34" s="486"/>
+      <c r="N34" s="486"/>
+      <c r="O34" s="486"/>
+      <c r="P34" s="486"/>
+      <c r="Q34" s="486"/>
+      <c r="R34" s="486"/>
+      <c r="S34" s="486"/>
+      <c r="T34" s="486"/>
+      <c r="U34" s="486"/>
+      <c r="V34" s="486"/>
+      <c r="W34" s="486"/>
+      <c r="X34" s="486"/>
       <c r="AN34" s="254"/>
     </row>
     <row r="35" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="478"/>
-      <c r="H35" s="478"/>
-      <c r="I35" s="478"/>
-      <c r="J35" s="478"/>
-      <c r="K35" s="478"/>
-      <c r="L35" s="478"/>
-      <c r="M35" s="478"/>
-      <c r="N35" s="478"/>
-      <c r="O35" s="478"/>
-      <c r="P35" s="478"/>
-      <c r="Q35" s="478"/>
-      <c r="R35" s="478"/>
-      <c r="S35" s="478"/>
-      <c r="T35" s="478"/>
-      <c r="U35" s="478"/>
-      <c r="V35" s="478"/>
-      <c r="W35" s="478"/>
-      <c r="X35" s="478"/>
+      <c r="G35" s="486"/>
+      <c r="H35" s="486"/>
+      <c r="I35" s="486"/>
+      <c r="J35" s="486"/>
+      <c r="K35" s="486"/>
+      <c r="L35" s="486"/>
+      <c r="M35" s="486"/>
+      <c r="N35" s="486"/>
+      <c r="O35" s="486"/>
+      <c r="P35" s="486"/>
+      <c r="Q35" s="486"/>
+      <c r="R35" s="486"/>
+      <c r="S35" s="486"/>
+      <c r="T35" s="486"/>
+      <c r="U35" s="486"/>
+      <c r="V35" s="486"/>
+      <c r="W35" s="486"/>
+      <c r="X35" s="486"/>
       <c r="AN35" s="254"/>
     </row>
     <row r="36" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="478"/>
-      <c r="H36" s="478"/>
-      <c r="I36" s="478"/>
-      <c r="J36" s="478"/>
-      <c r="K36" s="478"/>
-      <c r="L36" s="478"/>
-      <c r="M36" s="478"/>
-      <c r="N36" s="478"/>
-      <c r="O36" s="478"/>
-      <c r="P36" s="478"/>
-      <c r="Q36" s="478"/>
-      <c r="R36" s="478"/>
-      <c r="S36" s="478"/>
-      <c r="T36" s="478"/>
-      <c r="U36" s="478"/>
-      <c r="V36" s="478"/>
-      <c r="W36" s="478"/>
-      <c r="X36" s="478"/>
+      <c r="G36" s="486"/>
+      <c r="H36" s="486"/>
+      <c r="I36" s="486"/>
+      <c r="J36" s="486"/>
+      <c r="K36" s="486"/>
+      <c r="L36" s="486"/>
+      <c r="M36" s="486"/>
+      <c r="N36" s="486"/>
+      <c r="O36" s="486"/>
+      <c r="P36" s="486"/>
+      <c r="Q36" s="486"/>
+      <c r="R36" s="486"/>
+      <c r="S36" s="486"/>
+      <c r="T36" s="486"/>
+      <c r="U36" s="486"/>
+      <c r="V36" s="486"/>
+      <c r="W36" s="486"/>
+      <c r="X36" s="486"/>
       <c r="AN36" s="254"/>
     </row>
     <row r="37" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="478"/>
-      <c r="H37" s="478"/>
-      <c r="I37" s="478"/>
-      <c r="J37" s="478"/>
-      <c r="K37" s="478"/>
-      <c r="L37" s="478"/>
-      <c r="M37" s="478"/>
-      <c r="N37" s="478"/>
-      <c r="O37" s="478"/>
-      <c r="P37" s="478"/>
-      <c r="Q37" s="478"/>
-      <c r="R37" s="478"/>
-      <c r="S37" s="478"/>
-      <c r="T37" s="478"/>
-      <c r="U37" s="478"/>
-      <c r="V37" s="478"/>
-      <c r="W37" s="478"/>
-      <c r="X37" s="478"/>
+      <c r="G37" s="486"/>
+      <c r="H37" s="486"/>
+      <c r="I37" s="486"/>
+      <c r="J37" s="486"/>
+      <c r="K37" s="486"/>
+      <c r="L37" s="486"/>
+      <c r="M37" s="486"/>
+      <c r="N37" s="486"/>
+      <c r="O37" s="486"/>
+      <c r="P37" s="486"/>
+      <c r="Q37" s="486"/>
+      <c r="R37" s="486"/>
+      <c r="S37" s="486"/>
+      <c r="T37" s="486"/>
+      <c r="U37" s="486"/>
+      <c r="V37" s="486"/>
+      <c r="W37" s="486"/>
+      <c r="X37" s="486"/>
       <c r="AN37" s="254"/>
     </row>
     <row r="38" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="478"/>
-      <c r="H38" s="478"/>
-      <c r="I38" s="478"/>
-      <c r="J38" s="478"/>
-      <c r="K38" s="478"/>
-      <c r="L38" s="478"/>
-      <c r="M38" s="478"/>
-      <c r="N38" s="478"/>
-      <c r="O38" s="478"/>
-      <c r="P38" s="478"/>
-      <c r="Q38" s="478"/>
-      <c r="R38" s="478"/>
-      <c r="S38" s="478"/>
-      <c r="T38" s="478"/>
-      <c r="U38" s="478"/>
-      <c r="V38" s="478"/>
-      <c r="W38" s="478"/>
-      <c r="X38" s="478"/>
+      <c r="G38" s="486"/>
+      <c r="H38" s="486"/>
+      <c r="I38" s="486"/>
+      <c r="J38" s="486"/>
+      <c r="K38" s="486"/>
+      <c r="L38" s="486"/>
+      <c r="M38" s="486"/>
+      <c r="N38" s="486"/>
+      <c r="O38" s="486"/>
+      <c r="P38" s="486"/>
+      <c r="Q38" s="486"/>
+      <c r="R38" s="486"/>
+      <c r="S38" s="486"/>
+      <c r="T38" s="486"/>
+      <c r="U38" s="486"/>
+      <c r="V38" s="486"/>
+      <c r="W38" s="486"/>
+      <c r="X38" s="486"/>
       <c r="AN38" s="254"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="215"/>
       <c r="D39" s="215"/>
-      <c r="G39" s="478"/>
-      <c r="H39" s="478"/>
-      <c r="I39" s="478"/>
-      <c r="J39" s="478"/>
-      <c r="K39" s="478"/>
-      <c r="L39" s="478"/>
-      <c r="M39" s="478"/>
-      <c r="N39" s="478"/>
-      <c r="O39" s="478"/>
-      <c r="P39" s="478"/>
-      <c r="Q39" s="478"/>
-      <c r="R39" s="478"/>
-      <c r="S39" s="478"/>
-      <c r="T39" s="478"/>
-      <c r="U39" s="478"/>
-      <c r="V39" s="478"/>
-      <c r="W39" s="478"/>
-      <c r="X39" s="478"/>
+      <c r="G39" s="486"/>
+      <c r="H39" s="486"/>
+      <c r="I39" s="486"/>
+      <c r="J39" s="486"/>
+      <c r="K39" s="486"/>
+      <c r="L39" s="486"/>
+      <c r="M39" s="486"/>
+      <c r="N39" s="486"/>
+      <c r="O39" s="486"/>
+      <c r="P39" s="486"/>
+      <c r="Q39" s="486"/>
+      <c r="R39" s="486"/>
+      <c r="S39" s="486"/>
+      <c r="T39" s="486"/>
+      <c r="U39" s="486"/>
+      <c r="V39" s="486"/>
+      <c r="W39" s="486"/>
+      <c r="X39" s="486"/>
       <c r="AN39" s="215"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -11189,13 +11246,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11210,6 +11260,13 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11219,7 +11276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$5:$P$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="289">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -794,9 +794,6 @@
     <t>PT00184</t>
   </si>
   <si>
-    <t>PT00185</t>
-  </si>
-  <si>
     <t>PT00186</t>
   </si>
   <si>
@@ -876,6 +873,24 @@
   </si>
   <si>
     <t>Thanh hà</t>
+  </si>
+  <si>
+    <t>DT showroom</t>
+  </si>
+  <si>
+    <t>PT00195</t>
+  </si>
+  <si>
+    <t>CF Mộc thanh toán (đơn 1206)</t>
+  </si>
+  <si>
+    <t>PT00196</t>
+  </si>
+  <si>
+    <t>Chị Thủy (A Lâm) thanh toán  (đơn 1207)</t>
+  </si>
+  <si>
+    <t>PT00194</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1525,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="524">
+  <cellXfs count="525">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2447,6 +2462,27 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2495,9 +2531,72 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2507,70 +2606,25 @@
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2603,24 +2657,6 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2636,6 +2672,72 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2663,99 +2765,24 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2792,6 +2819,15 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2846,27 +2882,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3177,11 +3193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,16 +3263,16 @@
       <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="397" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="390"/>
-      <c r="C3" s="390"/>
-      <c r="D3" s="390"/>
-      <c r="E3" s="390"/>
-      <c r="F3" s="390"/>
-      <c r="G3" s="390"/>
-      <c r="H3" s="390"/>
+      <c r="B3" s="397"/>
+      <c r="C3" s="397"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="397"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="397"/>
+      <c r="H3" s="397"/>
       <c r="I3" s="107"/>
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
@@ -3268,32 +3284,32 @@
       <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="391" t="s">
+      <c r="A4" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="391" t="s">
+      <c r="B4" s="398" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="391" t="s">
+      <c r="C4" s="398" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="392" t="s">
+      <c r="D4" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="393" t="s">
+      <c r="E4" s="400" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="393"/>
-      <c r="G4" s="393" t="s">
+      <c r="F4" s="400"/>
+      <c r="G4" s="400" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="393"/>
+      <c r="H4" s="400"/>
     </row>
     <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="391"/>
-      <c r="B5" s="391"/>
-      <c r="C5" s="391"/>
-      <c r="D5" s="392"/>
+      <c r="A5" s="398"/>
+      <c r="B5" s="398"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="399"/>
       <c r="E5" s="204" t="s">
         <v>81</v>
       </c>
@@ -3312,7 +3328,7 @@
         <v>44105</v>
       </c>
       <c r="B6" s="336" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="200" t="s">
         <v>142</v>
@@ -3353,7 +3369,7 @@
         <v>44106</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="93" t="s">
         <v>143</v>
@@ -3393,7 +3409,7 @@
         <v>44107</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="93" t="s">
         <v>201</v>
@@ -3427,11 +3443,11 @@
       <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="397">
+      <c r="A12" s="404">
         <v>44111</v>
       </c>
-      <c r="B12" s="397"/>
-      <c r="C12" s="394" t="s">
+      <c r="B12" s="404"/>
+      <c r="C12" s="401" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="94" t="s">
@@ -3443,9 +3459,9 @@
       <c r="H12" s="108"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="398"/>
-      <c r="B13" s="398"/>
-      <c r="C13" s="395"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="405"/>
+      <c r="C13" s="402"/>
       <c r="D13" s="210" t="s">
         <v>100</v>
       </c>
@@ -3457,9 +3473,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="398"/>
-      <c r="B14" s="398"/>
-      <c r="C14" s="395"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="402"/>
       <c r="D14" s="210" t="s">
         <v>101</v>
       </c>
@@ -3471,9 +3487,9 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="398"/>
-      <c r="B15" s="398"/>
-      <c r="C15" s="395"/>
+      <c r="A15" s="405"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="402"/>
       <c r="D15" s="210" t="s">
         <v>102</v>
       </c>
@@ -3485,9 +3501,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="398"/>
-      <c r="B16" s="398"/>
-      <c r="C16" s="395"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="402"/>
       <c r="D16" s="211" t="s">
         <v>103</v>
       </c>
@@ -3499,9 +3515,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="398"/>
-      <c r="B17" s="398"/>
-      <c r="C17" s="395"/>
+      <c r="A17" s="405"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="402"/>
       <c r="D17" s="210" t="s">
         <v>104</v>
       </c>
@@ -3513,9 +3529,9 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="399"/>
-      <c r="B18" s="399"/>
-      <c r="C18" s="396"/>
+      <c r="A18" s="406"/>
+      <c r="B18" s="406"/>
+      <c r="C18" s="403"/>
       <c r="D18" s="210" t="s">
         <v>105</v>
       </c>
@@ -3577,7 +3593,7 @@
         <v>44113</v>
       </c>
       <c r="B21" s="336" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="201" t="s">
         <v>142</v>
@@ -3611,15 +3627,15 @@
       <c r="H22" s="110">
         <v>700000</v>
       </c>
-      <c r="K22" s="384"/>
-      <c r="L22" s="385"/>
+      <c r="K22" s="391"/>
+      <c r="L22" s="392"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="92">
         <v>44116</v>
       </c>
       <c r="B23" s="356" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="93" t="s">
         <v>143</v>
@@ -3640,7 +3656,7 @@
         <v>44116</v>
       </c>
       <c r="B24" s="356" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" s="93" t="s">
         <v>142</v>
@@ -3661,7 +3677,7 @@
         <v>44117</v>
       </c>
       <c r="B25" s="356" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" s="93" t="s">
         <v>142</v>
@@ -3702,7 +3718,7 @@
         <v>44120</v>
       </c>
       <c r="B27" s="356" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>143</v>
@@ -3765,7 +3781,7 @@
         <v>44124</v>
       </c>
       <c r="B30" s="356" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="93" t="s">
         <v>201</v>
@@ -3786,7 +3802,7 @@
         <v>44124</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="93" t="s">
         <v>142</v>
@@ -3828,7 +3844,7 @@
         <v>44125</v>
       </c>
       <c r="B33" s="92" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C33" s="93" t="s">
         <v>56</v>
@@ -3837,7 +3853,7 @@
         <v>246</v>
       </c>
       <c r="E33" s="95">
-        <v>100000000</v>
+        <v>59124000</v>
       </c>
       <c r="F33" s="108"/>
       <c r="G33" s="95"/>
@@ -3849,7 +3865,7 @@
         <v>44125</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C34" s="93" t="s">
         <v>56</v>
@@ -3870,7 +3886,7 @@
         <v>44125</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="93" t="s">
         <v>201</v>
@@ -3891,13 +3907,13 @@
         <v>44125</v>
       </c>
       <c r="B36" s="92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E36" s="95"/>
       <c r="F36" s="108"/>
@@ -3913,7 +3929,7 @@
         <v>44126</v>
       </c>
       <c r="B37" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C37" s="93" t="s">
         <v>56</v>
@@ -3933,7 +3949,7 @@
         <v>44128</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="93" t="s">
         <v>56</v>
@@ -3954,7 +3970,7 @@
         <v>44128</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>56</v>
@@ -3973,7 +3989,7 @@
         <v>44128</v>
       </c>
       <c r="B40" s="92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" s="93" t="s">
         <v>56</v>
@@ -3995,7 +4011,7 @@
         <v>44128</v>
       </c>
       <c r="B41" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" s="93" t="s">
         <v>143</v>
@@ -4017,7 +4033,7 @@
         <v>44132</v>
       </c>
       <c r="B42" s="92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" s="93" t="s">
         <v>142</v>
@@ -4034,62 +4050,61 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="92">
+        <v>44132</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="524"/>
+      <c r="F43" s="108">
+        <v>649000</v>
+      </c>
+      <c r="G43" s="95"/>
+      <c r="H43" s="110"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="92">
+        <v>44132</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="524"/>
+      <c r="F44" s="108">
+        <v>805350</v>
+      </c>
+      <c r="G44" s="95"/>
+      <c r="H44" s="110"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="92">
         <v>44133</v>
       </c>
-      <c r="B43" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="C43" s="93" t="s">
+      <c r="B45" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="D43" s="94" t="s">
+      <c r="D45" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95">
+      <c r="F45" s="95"/>
+      <c r="G45" s="95">
         <v>10000000</v>
       </c>
-      <c r="H43" s="110"/>
-    </row>
-    <row r="44" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92">
-        <v>44135</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="95"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="110">
-        <f>F46</f>
-        <v>485000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92">
-        <v>44134</v>
-      </c>
-      <c r="B45" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="C45" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" s="95">
-        <v>30000000</v>
-      </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="95"/>
       <c r="H45" s="110"/>
     </row>
     <row r="46" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4097,107 +4112,148 @@
         <v>44135</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C46" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="95"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="110">
+        <f>F48</f>
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="92">
+        <v>44134</v>
+      </c>
+      <c r="B47" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D47" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="95">
+        <v>30000000</v>
+      </c>
+      <c r="F47" s="108"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="110"/>
+    </row>
+    <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="92">
+        <v>44135</v>
+      </c>
+      <c r="B48" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95">
+      <c r="E48" s="95"/>
+      <c r="F48" s="95">
         <v>485000</v>
       </c>
-      <c r="G46" s="95"/>
-      <c r="H46" s="110"/>
-      <c r="K46" s="212"/>
-    </row>
-    <row r="47" spans="1:11" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="387" t="s">
+      <c r="G48" s="95"/>
+      <c r="H48" s="110"/>
+      <c r="K48" s="212"/>
+    </row>
+    <row r="49" spans="1:10" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="394" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="388"/>
-      <c r="C47" s="388"/>
-      <c r="D47" s="389"/>
-      <c r="E47" s="111">
-        <f>SUM(E7:E46)</f>
-        <v>174279000</v>
-      </c>
-      <c r="F47" s="111">
-        <f t="shared" ref="F47:H47" si="0">SUM(F7:F46)</f>
-        <v>6575550</v>
-      </c>
-      <c r="G47" s="111">
+      <c r="B49" s="395"/>
+      <c r="C49" s="395"/>
+      <c r="D49" s="396"/>
+      <c r="E49" s="111">
+        <f>SUM(E7:E48)</f>
+        <v>133403000</v>
+      </c>
+      <c r="F49" s="111">
+        <f t="shared" ref="F49:H49" si="0">SUM(F7:F48)</f>
+        <v>8029900</v>
+      </c>
+      <c r="G49" s="111">
         <f t="shared" si="0"/>
         <v>30009900</v>
       </c>
-      <c r="H47" s="111">
+      <c r="H49" s="111">
         <f t="shared" si="0"/>
         <v>156300900</v>
       </c>
-      <c r="J47" s="113"/>
-    </row>
-    <row r="48" spans="1:11" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="J48" s="113"/>
-    </row>
-    <row r="49" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="386" t="s">
+      <c r="J49" s="113"/>
+    </row>
+    <row r="50" spans="1:10" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="J50" s="113"/>
+    </row>
+    <row r="51" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="393" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="386"/>
-      <c r="C49" s="386"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="J49" s="113"/>
-    </row>
-    <row r="50" spans="1:10" s="344" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="345" t="s">
+      <c r="B51" s="393"/>
+      <c r="C51" s="393"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="J51" s="113"/>
+    </row>
+    <row r="52" spans="1:10" s="344" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="345" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="346"/>
-      <c r="F50" s="345" t="s">
+      <c r="D52" s="346"/>
+      <c r="F52" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="346"/>
-      <c r="H50" s="346"/>
-    </row>
-    <row r="51" spans="1:10" s="344" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="347" t="s">
+      <c r="G52" s="346"/>
+      <c r="H52" s="346"/>
+    </row>
+    <row r="53" spans="1:10" s="344" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="347" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="348"/>
-      <c r="F51" s="347" t="s">
+      <c r="D53" s="348"/>
+      <c r="F53" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="348"/>
-      <c r="H51" s="348"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="345"/>
-      <c r="D54" s="345"/>
-      <c r="E54" s="349"/>
+      <c r="G53" s="348"/>
+      <c r="H53" s="348"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="345"/>
+      <c r="D56" s="345"/>
+      <c r="E56" s="349"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H47">
+  <autoFilter ref="A4:H49">
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="13">
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
@@ -4219,8 +4275,8 @@
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <pane ySplit="7" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4244,13 +4300,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="424" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
+      <c r="B1" s="424"/>
+      <c r="C1" s="424"/>
+      <c r="D1" s="424"/>
+      <c r="E1" s="424"/>
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
       <c r="J1" s="123"/>
@@ -4280,136 +4336,136 @@
       <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="415" t="s">
+      <c r="A3" s="425" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="415"/>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="415"/>
-      <c r="I3" s="415"/>
-      <c r="J3" s="415"/>
-      <c r="K3" s="415"/>
-      <c r="L3" s="415"/>
-      <c r="M3" s="415"/>
-      <c r="N3" s="415"/>
-      <c r="O3" s="415"/>
-      <c r="P3" s="415"/>
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
+      <c r="H3" s="425"/>
+      <c r="I3" s="425"/>
+      <c r="J3" s="425"/>
+      <c r="K3" s="425"/>
+      <c r="L3" s="425"/>
+      <c r="M3" s="425"/>
+      <c r="N3" s="425"/>
+      <c r="O3" s="425"/>
+      <c r="P3" s="425"/>
     </row>
     <row r="4" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="415" t="s">
+      <c r="A4" s="425" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="415"/>
-      <c r="C4" s="415"/>
-      <c r="D4" s="415"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="415"/>
-      <c r="H4" s="415"/>
-      <c r="I4" s="415"/>
-      <c r="J4" s="415"/>
-      <c r="K4" s="415"/>
-      <c r="L4" s="415"/>
-      <c r="M4" s="415"/>
-      <c r="N4" s="415"/>
-      <c r="O4" s="415"/>
-      <c r="P4" s="415"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="425"/>
+      <c r="J4" s="425"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="425"/>
+      <c r="M4" s="425"/>
+      <c r="N4" s="425"/>
+      <c r="O4" s="425"/>
+      <c r="P4" s="425"/>
     </row>
     <row r="5" spans="1:16" s="122" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="402" t="s">
+      <c r="A5" s="430" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="403" t="s">
+      <c r="B5" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="402" t="s">
+      <c r="C5" s="430" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="402" t="s">
+      <c r="D5" s="430" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="404" t="s">
+      <c r="E5" s="430"/>
+      <c r="F5" s="427" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="404"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="404"/>
-      <c r="J5" s="404"/>
-      <c r="K5" s="404"/>
-      <c r="L5" s="404"/>
-      <c r="M5" s="416"/>
-      <c r="N5" s="416"/>
-      <c r="O5" s="416"/>
-      <c r="P5" s="404" t="s">
+      <c r="G5" s="427"/>
+      <c r="H5" s="427"/>
+      <c r="I5" s="427"/>
+      <c r="J5" s="427"/>
+      <c r="K5" s="427"/>
+      <c r="L5" s="427"/>
+      <c r="M5" s="426"/>
+      <c r="N5" s="426"/>
+      <c r="O5" s="426"/>
+      <c r="P5" s="427" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="402"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="402"/>
-      <c r="D6" s="402" t="s">
+      <c r="A6" s="430"/>
+      <c r="B6" s="431"/>
+      <c r="C6" s="430"/>
+      <c r="D6" s="430" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="402" t="s">
+      <c r="E6" s="430" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="402" t="s">
+      <c r="F6" s="430" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="402" t="s">
+      <c r="G6" s="430" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="405" t="s">
+      <c r="H6" s="428" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="405" t="s">
+      <c r="I6" s="428" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="406" t="s">
+      <c r="J6" s="432" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="406"/>
-      <c r="L6" s="405" t="s">
+      <c r="K6" s="432"/>
+      <c r="L6" s="428" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="405" t="s">
+      <c r="M6" s="428" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="405" t="s">
+      <c r="N6" s="428" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="405" t="s">
+      <c r="O6" s="428" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="404"/>
+      <c r="P6" s="427"/>
     </row>
     <row r="7" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="402"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
-      <c r="F7" s="402"/>
-      <c r="G7" s="402"/>
-      <c r="H7" s="405"/>
-      <c r="I7" s="405"/>
+      <c r="A7" s="430"/>
+      <c r="B7" s="431"/>
+      <c r="C7" s="430"/>
+      <c r="D7" s="430"/>
+      <c r="E7" s="430"/>
+      <c r="F7" s="430"/>
+      <c r="G7" s="430"/>
+      <c r="H7" s="428"/>
+      <c r="I7" s="428"/>
       <c r="J7" s="205" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="405"/>
-      <c r="M7" s="405"/>
-      <c r="N7" s="405"/>
-      <c r="O7" s="405"/>
-      <c r="P7" s="404"/>
+      <c r="L7" s="428"/>
+      <c r="M7" s="428"/>
+      <c r="N7" s="428"/>
+      <c r="O7" s="428"/>
+      <c r="P7" s="427"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="407">
@@ -4472,7 +4528,7 @@
         <v>455000</v>
       </c>
       <c r="I9" s="175">
-        <f t="shared" ref="I9:I73" si="0">G9*H9</f>
+        <f t="shared" ref="I9:I74" si="0">G9*H9</f>
         <v>10920000</v>
       </c>
       <c r="J9" s="175"/>
@@ -4894,14 +4950,14 @@
       <c r="A20" s="407">
         <v>1211</v>
       </c>
-      <c r="B20" s="422">
+      <c r="B20" s="413">
         <v>44113</v>
       </c>
-      <c r="C20" s="424" t="s">
+      <c r="C20" s="415" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="424"/>
-      <c r="E20" s="424"/>
+      <c r="D20" s="415"/>
+      <c r="E20" s="415"/>
       <c r="F20" s="161" t="s">
         <v>125</v>
       </c>
@@ -4933,10 +4989,10 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="409"/>
-      <c r="B21" s="423"/>
-      <c r="C21" s="425"/>
-      <c r="D21" s="425"/>
-      <c r="E21" s="425"/>
+      <c r="B21" s="414"/>
+      <c r="C21" s="416"/>
+      <c r="D21" s="416"/>
+      <c r="E21" s="416"/>
       <c r="F21" s="165" t="s">
         <v>138</v>
       </c>
@@ -6081,7 +6137,7 @@
         <v>0.41</v>
       </c>
       <c r="L50" s="156">
-        <f t="shared" ref="L50:L73" si="5">I50*(1-K50)</f>
+        <f t="shared" ref="L50:L74" si="5">I50*(1-K50)</f>
         <v>536900.00000000012</v>
       </c>
       <c r="M50" s="156">
@@ -6968,19 +7024,42 @@
       <c r="P73" s="165"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="364"/>
-      <c r="B74" s="367"/>
+      <c r="A74" s="364">
+        <v>1213</v>
+      </c>
+      <c r="B74" s="367">
+        <v>44135</v>
+      </c>
       <c r="C74" s="364"/>
-      <c r="D74" s="364"/>
+      <c r="D74" s="364" t="s">
+        <v>283</v>
+      </c>
       <c r="E74" s="364"/>
-      <c r="F74" s="206"/>
-      <c r="G74" s="206"/>
-      <c r="H74" s="207"/>
-      <c r="I74" s="207"/>
+      <c r="F74" s="206" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="206">
+        <v>1</v>
+      </c>
+      <c r="H74" s="207">
+        <v>485000</v>
+      </c>
+      <c r="I74" s="207">
+        <f t="shared" si="0"/>
+        <v>485000</v>
+      </c>
       <c r="J74" s="207"/>
-      <c r="K74" s="208"/>
-      <c r="L74" s="207"/>
-      <c r="M74" s="207"/>
+      <c r="K74" s="208">
+        <v>0</v>
+      </c>
+      <c r="L74" s="207">
+        <f t="shared" si="5"/>
+        <v>485000</v>
+      </c>
+      <c r="M74" s="207">
+        <f>L74</f>
+        <v>485000</v>
+      </c>
       <c r="N74" s="207"/>
       <c r="O74" s="207"/>
       <c r="P74" s="206"/>
@@ -7130,47 +7209,47 @@
       <c r="P82" s="165"/>
     </row>
     <row r="83" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="401" t="s">
+      <c r="A83" s="429" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="401"/>
-      <c r="C83" s="401"/>
-      <c r="D83" s="401"/>
-      <c r="E83" s="401"/>
-      <c r="F83" s="401"/>
+      <c r="B83" s="429"/>
+      <c r="C83" s="429"/>
+      <c r="D83" s="429"/>
+      <c r="E83" s="429"/>
+      <c r="F83" s="429"/>
       <c r="G83" s="130">
         <f>SUM(G8:G82)</f>
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H83" s="131"/>
       <c r="I83" s="132">
         <f>SUM(I8:I82)</f>
-        <v>504855000</v>
+        <v>505340000</v>
       </c>
       <c r="J83" s="153"/>
       <c r="K83" s="132"/>
       <c r="L83" s="133">
         <f>SUM(L8:L82)</f>
-        <v>291974350</v>
+        <v>292459350</v>
       </c>
       <c r="M83" s="131"/>
       <c r="N83" s="131"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
-      <c r="Q83" s="413"/>
+      <c r="Q83" s="422"/>
     </row>
     <row r="84" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="400" t="s">
+      <c r="A84" s="423" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="400"/>
-      <c r="C84" s="400"/>
-      <c r="D84" s="400"/>
-      <c r="E84" s="400"/>
-      <c r="F84" s="400"/>
+      <c r="B84" s="423"/>
+      <c r="C84" s="423"/>
+      <c r="D84" s="423"/>
+      <c r="E84" s="423"/>
+      <c r="F84" s="423"/>
       <c r="G84" s="130">
         <f>G83</f>
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H84" s="135"/>
       <c r="I84" s="132"/>
@@ -7178,23 +7257,23 @@
       <c r="K84" s="132"/>
       <c r="L84" s="133">
         <f>L83</f>
-        <v>291974350</v>
+        <v>292459350</v>
       </c>
       <c r="M84" s="135"/>
       <c r="N84" s="135"/>
       <c r="O84" s="135"/>
       <c r="P84" s="135"/>
-      <c r="Q84" s="413"/>
+      <c r="Q84" s="422"/>
     </row>
     <row r="85" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="400" t="s">
+      <c r="A85" s="423" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="400"/>
-      <c r="C85" s="400"/>
-      <c r="D85" s="400"/>
-      <c r="E85" s="400"/>
-      <c r="F85" s="400"/>
+      <c r="B85" s="423"/>
+      <c r="C85" s="423"/>
+      <c r="D85" s="423"/>
+      <c r="E85" s="423"/>
+      <c r="F85" s="423"/>
       <c r="G85" s="136" t="s">
         <v>45</v>
       </c>
@@ -7204,7 +7283,7 @@
       <c r="K85" s="136"/>
       <c r="L85" s="133">
         <f>SUM(M8:M82)</f>
-        <v>7544900.0000000009</v>
+        <v>8029900.0000000009</v>
       </c>
       <c r="M85" s="135"/>
       <c r="N85" s="135"/>
@@ -7212,14 +7291,14 @@
       <c r="P85" s="137"/>
     </row>
     <row r="86" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="400" t="s">
+      <c r="A86" s="423" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="400"/>
-      <c r="C86" s="400"/>
-      <c r="D86" s="400"/>
-      <c r="E86" s="400"/>
-      <c r="F86" s="400"/>
+      <c r="B86" s="423"/>
+      <c r="C86" s="423"/>
+      <c r="D86" s="423"/>
+      <c r="E86" s="423"/>
+      <c r="F86" s="423"/>
       <c r="G86" s="135"/>
       <c r="H86" s="135"/>
       <c r="I86" s="131"/>
@@ -7235,14 +7314,14 @@
       <c r="P86" s="137"/>
     </row>
     <row r="87" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="400" t="s">
+      <c r="A87" s="423" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="400"/>
-      <c r="C87" s="400"/>
-      <c r="D87" s="400"/>
-      <c r="E87" s="400"/>
-      <c r="F87" s="400"/>
+      <c r="B87" s="423"/>
+      <c r="C87" s="423"/>
+      <c r="D87" s="423"/>
+      <c r="E87" s="423"/>
+      <c r="F87" s="423"/>
       <c r="G87" s="135"/>
       <c r="H87" s="135"/>
       <c r="I87" s="131"/>
@@ -7313,16 +7392,79 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="107">
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -7347,79 +7489,16 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7464,75 +7543,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="428"/>
-      <c r="J3" s="428"/>
-      <c r="K3" s="428"/>
+      <c r="B3" s="441"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="441"/>
+      <c r="E3" s="441"/>
+      <c r="F3" s="441"/>
+      <c r="G3" s="441"/>
+      <c r="H3" s="441"/>
+      <c r="I3" s="441"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="441"/>
       <c r="L3" s="289"/>
       <c r="M3" s="289"/>
       <c r="N3" s="289"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="442" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
-      <c r="J4" s="430"/>
-      <c r="K4" s="429"/>
+      <c r="B4" s="442"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
+      <c r="G4" s="442"/>
+      <c r="H4" s="442"/>
+      <c r="I4" s="442"/>
+      <c r="J4" s="443"/>
+      <c r="K4" s="442"/>
       <c r="L4" s="290"/>
       <c r="M4" s="290"/>
       <c r="N4" s="290"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="431" t="s">
+      <c r="A5" s="444" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="432" t="s">
+      <c r="B5" s="445" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="431" t="s">
+      <c r="C5" s="444" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="431" t="s">
+      <c r="D5" s="444" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="431"/>
-      <c r="F5" s="433" t="s">
+      <c r="E5" s="444"/>
+      <c r="F5" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="433"/>
-      <c r="H5" s="433"/>
-      <c r="I5" s="433"/>
-      <c r="J5" s="434"/>
-      <c r="K5" s="435" t="s">
+      <c r="G5" s="446"/>
+      <c r="H5" s="446"/>
+      <c r="I5" s="446"/>
+      <c r="J5" s="447"/>
+      <c r="K5" s="448" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="427" t="s">
+      <c r="L5" s="440" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="427"/>
-      <c r="N5" s="427"/>
+      <c r="M5" s="440"/>
+      <c r="N5" s="440"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="431"/>
-      <c r="B6" s="432"/>
-      <c r="C6" s="431"/>
+      <c r="A6" s="444"/>
+      <c r="B6" s="445"/>
+      <c r="C6" s="444"/>
       <c r="D6" s="291" t="s">
         <v>40</v>
       </c>
@@ -7554,7 +7633,7 @@
       <c r="J6" s="295" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="435"/>
+      <c r="K6" s="448"/>
       <c r="L6" s="296" t="s">
         <v>52</v>
       </c>
@@ -7605,19 +7684,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="436">
+      <c r="A8" s="433">
         <v>811</v>
       </c>
-      <c r="B8" s="438">
+      <c r="B8" s="436">
         <v>44107</v>
       </c>
-      <c r="C8" s="436" t="s">
+      <c r="C8" s="433" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="436" t="s">
+      <c r="D8" s="433" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="436"/>
+      <c r="E8" s="433"/>
       <c r="F8" s="297" t="s">
         <v>123</v>
       </c>
@@ -7646,11 +7725,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="437"/>
-      <c r="B9" s="439"/>
-      <c r="C9" s="437"/>
-      <c r="D9" s="437"/>
-      <c r="E9" s="437"/>
+      <c r="A9" s="435"/>
+      <c r="B9" s="438"/>
+      <c r="C9" s="435"/>
+      <c r="D9" s="435"/>
+      <c r="E9" s="435"/>
       <c r="F9" s="307" t="s">
         <v>124</v>
       </c>
@@ -7679,17 +7758,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="436">
+      <c r="A10" s="433">
         <v>817</v>
       </c>
-      <c r="B10" s="438">
+      <c r="B10" s="436">
         <v>44107</v>
       </c>
-      <c r="C10" s="436"/>
-      <c r="D10" s="436" t="s">
+      <c r="C10" s="433"/>
+      <c r="D10" s="433" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="436"/>
+      <c r="E10" s="433"/>
       <c r="F10" s="297" t="s">
         <v>123</v>
       </c>
@@ -7718,11 +7797,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="440"/>
-      <c r="B11" s="441"/>
-      <c r="C11" s="440"/>
-      <c r="D11" s="440"/>
-      <c r="E11" s="440"/>
+      <c r="A11" s="434"/>
+      <c r="B11" s="437"/>
+      <c r="C11" s="434"/>
+      <c r="D11" s="434"/>
+      <c r="E11" s="434"/>
       <c r="F11" s="302" t="s">
         <v>124</v>
       </c>
@@ -7751,11 +7830,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="437"/>
-      <c r="B12" s="439"/>
-      <c r="C12" s="437"/>
-      <c r="D12" s="437"/>
-      <c r="E12" s="437"/>
+      <c r="A12" s="435"/>
+      <c r="B12" s="438"/>
+      <c r="C12" s="435"/>
+      <c r="D12" s="435"/>
+      <c r="E12" s="435"/>
       <c r="F12" s="307" t="s">
         <v>125</v>
       </c>
@@ -7901,17 +7980,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="436">
+      <c r="A16" s="433">
         <v>815</v>
       </c>
-      <c r="B16" s="438">
+      <c r="B16" s="436">
         <v>44112</v>
       </c>
-      <c r="C16" s="436"/>
-      <c r="D16" s="436" t="s">
+      <c r="C16" s="433"/>
+      <c r="D16" s="433" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="436"/>
+      <c r="E16" s="433"/>
       <c r="F16" s="297" t="s">
         <v>123</v>
       </c>
@@ -7940,11 +8019,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="437"/>
-      <c r="B17" s="439"/>
-      <c r="C17" s="437"/>
-      <c r="D17" s="437"/>
-      <c r="E17" s="437"/>
+      <c r="A17" s="435"/>
+      <c r="B17" s="438"/>
+      <c r="C17" s="435"/>
+      <c r="D17" s="435"/>
+      <c r="E17" s="435"/>
       <c r="F17" s="307" t="s">
         <v>124</v>
       </c>
@@ -7973,17 +8052,17 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="436">
+      <c r="A18" s="433">
         <v>820</v>
       </c>
-      <c r="B18" s="438">
+      <c r="B18" s="436">
         <v>44113</v>
       </c>
-      <c r="C18" s="436"/>
-      <c r="D18" s="436" t="s">
+      <c r="C18" s="433"/>
+      <c r="D18" s="433" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="436"/>
+      <c r="E18" s="433"/>
       <c r="F18" s="297" t="s">
         <v>123</v>
       </c>
@@ -8012,11 +8091,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="437"/>
-      <c r="B19" s="439"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="437"/>
+      <c r="A19" s="435"/>
+      <c r="B19" s="438"/>
+      <c r="C19" s="435"/>
+      <c r="D19" s="435"/>
+      <c r="E19" s="435"/>
       <c r="F19" s="307" t="s">
         <v>124</v>
       </c>
@@ -8205,19 +8284,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="436">
+      <c r="A24" s="433">
         <v>845</v>
       </c>
-      <c r="B24" s="438">
+      <c r="B24" s="436">
         <v>44127</v>
       </c>
-      <c r="C24" s="436" t="s">
+      <c r="C24" s="433" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="436" t="s">
+      <c r="D24" s="433" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="436"/>
+      <c r="E24" s="433"/>
       <c r="F24" s="297" t="s">
         <v>124</v>
       </c>
@@ -8246,11 +8325,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="440"/>
-      <c r="B25" s="441"/>
-      <c r="C25" s="440"/>
-      <c r="D25" s="440"/>
-      <c r="E25" s="440"/>
+      <c r="A25" s="434"/>
+      <c r="B25" s="437"/>
+      <c r="C25" s="434"/>
+      <c r="D25" s="434"/>
+      <c r="E25" s="434"/>
       <c r="F25" s="302" t="s">
         <v>195</v>
       </c>
@@ -8279,11 +8358,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="440"/>
-      <c r="B26" s="441"/>
-      <c r="C26" s="440"/>
-      <c r="D26" s="440"/>
-      <c r="E26" s="440"/>
+      <c r="A26" s="434"/>
+      <c r="B26" s="437"/>
+      <c r="C26" s="434"/>
+      <c r="D26" s="434"/>
+      <c r="E26" s="434"/>
       <c r="F26" s="302" t="s">
         <v>196</v>
       </c>
@@ -8312,11 +8391,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="440"/>
-      <c r="B27" s="441"/>
-      <c r="C27" s="440"/>
-      <c r="D27" s="440"/>
-      <c r="E27" s="440"/>
+      <c r="A27" s="434"/>
+      <c r="B27" s="437"/>
+      <c r="C27" s="434"/>
+      <c r="D27" s="434"/>
+      <c r="E27" s="434"/>
       <c r="F27" s="302" t="s">
         <v>125</v>
       </c>
@@ -8345,11 +8424,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="440"/>
-      <c r="B28" s="441"/>
-      <c r="C28" s="440"/>
-      <c r="D28" s="440"/>
-      <c r="E28" s="440"/>
+      <c r="A28" s="434"/>
+      <c r="B28" s="437"/>
+      <c r="C28" s="434"/>
+      <c r="D28" s="434"/>
+      <c r="E28" s="434"/>
       <c r="F28" s="302" t="s">
         <v>194</v>
       </c>
@@ -8378,11 +8457,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="440"/>
-      <c r="B29" s="441"/>
-      <c r="C29" s="440"/>
-      <c r="D29" s="440"/>
-      <c r="E29" s="440"/>
+      <c r="A29" s="434"/>
+      <c r="B29" s="437"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
       <c r="F29" s="302" t="s">
         <v>120</v>
       </c>
@@ -8411,11 +8490,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="437"/>
-      <c r="B30" s="439"/>
-      <c r="C30" s="437"/>
-      <c r="D30" s="437"/>
-      <c r="E30" s="437"/>
+      <c r="A30" s="435"/>
+      <c r="B30" s="438"/>
+      <c r="C30" s="435"/>
+      <c r="D30" s="435"/>
+      <c r="E30" s="435"/>
       <c r="F30" s="307" t="s">
         <v>132</v>
       </c>
@@ -8444,56 +8523,56 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="517">
+      <c r="A31" s="384">
         <v>1226</v>
       </c>
-      <c r="B31" s="518">
+      <c r="B31" s="385">
         <v>44128</v>
       </c>
-      <c r="C31" s="517"/>
-      <c r="D31" s="517" t="s">
-        <v>283</v>
-      </c>
-      <c r="E31" s="517"/>
-      <c r="F31" s="519" t="s">
+      <c r="C31" s="384"/>
+      <c r="D31" s="384" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="384"/>
+      <c r="F31" s="386" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="519">
+      <c r="G31" s="386">
         <v>2</v>
       </c>
-      <c r="H31" s="520">
+      <c r="H31" s="387">
         <v>485000</v>
       </c>
-      <c r="I31" s="520">
+      <c r="I31" s="387">
         <f t="shared" si="0"/>
         <v>970000</v>
       </c>
-      <c r="J31" s="521">
+      <c r="J31" s="388">
         <v>0.5</v>
       </c>
-      <c r="K31" s="520">
+      <c r="K31" s="387">
         <f t="shared" si="1"/>
         <v>485000</v>
       </c>
-      <c r="L31" s="522"/>
-      <c r="M31" s="522"/>
-      <c r="N31" s="523">
+      <c r="L31" s="389"/>
+      <c r="M31" s="389"/>
+      <c r="N31" s="390">
         <f t="shared" si="2"/>
         <v>485000</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="436">
+      <c r="A32" s="433">
         <v>1203</v>
       </c>
-      <c r="B32" s="438">
+      <c r="B32" s="436">
         <v>44130</v>
       </c>
-      <c r="C32" s="436"/>
-      <c r="D32" s="436" t="s">
+      <c r="C32" s="433"/>
+      <c r="D32" s="433" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="436"/>
+      <c r="E32" s="433"/>
       <c r="F32" s="297" t="s">
         <v>199</v>
       </c>
@@ -8522,11 +8601,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="440"/>
-      <c r="B33" s="441"/>
-      <c r="C33" s="440"/>
-      <c r="D33" s="440"/>
-      <c r="E33" s="440"/>
+      <c r="A33" s="434"/>
+      <c r="B33" s="437"/>
+      <c r="C33" s="434"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="434"/>
       <c r="F33" s="302" t="s">
         <v>195</v>
       </c>
@@ -8555,11 +8634,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="440"/>
-      <c r="B34" s="441"/>
-      <c r="C34" s="440"/>
-      <c r="D34" s="440"/>
-      <c r="E34" s="440"/>
+      <c r="A34" s="434"/>
+      <c r="B34" s="437"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
       <c r="F34" s="302" t="s">
         <v>138</v>
       </c>
@@ -8588,11 +8667,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="437"/>
-      <c r="B35" s="439"/>
-      <c r="C35" s="437"/>
-      <c r="D35" s="437"/>
-      <c r="E35" s="437"/>
+      <c r="A35" s="435"/>
+      <c r="B35" s="438"/>
+      <c r="C35" s="435"/>
+      <c r="D35" s="435"/>
+      <c r="E35" s="435"/>
       <c r="F35" s="307" t="s">
         <v>120</v>
       </c>
@@ -8626,7 +8705,7 @@
         <v>44130</v>
       </c>
       <c r="C36" s="337" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36" s="337" t="s">
         <v>229</v>
@@ -8699,13 +8778,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="318" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="426" t="s">
+      <c r="A38" s="439" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="426"/>
-      <c r="C38" s="426"/>
-      <c r="D38" s="426"/>
-      <c r="E38" s="426"/>
+      <c r="B38" s="439"/>
+      <c r="C38" s="439"/>
+      <c r="D38" s="439"/>
+      <c r="E38" s="439"/>
       <c r="F38" s="312"/>
       <c r="G38" s="312">
         <f>SUM(G7:G37)</f>
@@ -8793,30 +8872,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -8833,6 +8888,30 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8893,24 +8972,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="449" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="442"/>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
+      <c r="B4" s="449"/>
+      <c r="C4" s="449"/>
+      <c r="D4" s="449"/>
+      <c r="E4" s="449"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="443" t="s">
+      <c r="A5" s="450" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="443"/>
-      <c r="C5" s="443"/>
-      <c r="D5" s="443"/>
-      <c r="E5" s="443"/>
+      <c r="B5" s="450"/>
+      <c r="C5" s="450"/>
+      <c r="D5" s="450"/>
+      <c r="E5" s="450"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -8951,11 +9030,11 @@
       </c>
       <c r="C8" s="60">
         <f>'DOANH THU'!G84</f>
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D8" s="70">
         <f>'DOANH THU'!I83</f>
-        <v>504855000</v>
+        <v>505340000</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="61"/>
@@ -8971,7 +9050,7 @@
       <c r="C9" s="190"/>
       <c r="D9" s="191">
         <f>'DOANH THU'!L83</f>
-        <v>291974350</v>
+        <v>292459350</v>
       </c>
       <c r="E9" s="192"/>
       <c r="F9" s="61"/>
@@ -8987,11 +9066,11 @@
       <c r="C10" s="72"/>
       <c r="D10" s="73">
         <f>'DOANH THU'!L85</f>
-        <v>7544900.0000000009</v>
-      </c>
-      <c r="E10" s="444">
+        <v>8029900.0000000009</v>
+      </c>
+      <c r="E10" s="451">
         <f>D10+D11+D12</f>
-        <v>107473300</v>
+        <v>107958300</v>
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
@@ -9008,7 +9087,7 @@
         <f>'DOANH THU'!L86</f>
         <v>99928400</v>
       </c>
-      <c r="E11" s="445"/>
+      <c r="E11" s="452"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -9019,7 +9098,7 @@
       <c r="B12" s="117"/>
       <c r="C12" s="117"/>
       <c r="D12" s="140"/>
-      <c r="E12" s="446"/>
+      <c r="E12" s="453"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -9296,13 +9375,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="474" t="s">
+      <c r="A1" s="456" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="474"/>
-      <c r="C1" s="474"/>
-      <c r="D1" s="474"/>
-      <c r="E1" s="474"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9322,172 +9401,172 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="475" t="s">
+      <c r="A4" s="457" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="475"/>
-      <c r="F4" s="475"/>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
+      <c r="B4" s="457"/>
+      <c r="C4" s="457"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="457"/>
+      <c r="F4" s="457"/>
+      <c r="G4" s="457"/>
+      <c r="H4" s="457"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="476" t="s">
+      <c r="A6" s="458" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="476"/>
-      <c r="C6" s="476"/>
-      <c r="D6" s="476"/>
-      <c r="E6" s="476"/>
-      <c r="F6" s="476"/>
-      <c r="G6" s="477" t="s">
+      <c r="B6" s="458"/>
+      <c r="C6" s="458"/>
+      <c r="D6" s="458"/>
+      <c r="E6" s="458"/>
+      <c r="F6" s="458"/>
+      <c r="G6" s="459" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="477"/>
+      <c r="H6" s="459"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="468" t="s">
+      <c r="A7" s="472" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="469"/>
+      <c r="B7" s="473"/>
       <c r="C7" s="265"/>
       <c r="D7" s="266"/>
       <c r="E7" s="65" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="466">
+      <c r="G7" s="470">
         <v>4744538</v>
       </c>
-      <c r="H7" s="467"/>
-      <c r="I7" s="472" t="s">
+      <c r="H7" s="471"/>
+      <c r="I7" s="454" t="s">
         <v>244</v>
       </c>
-      <c r="J7" s="473"/>
+      <c r="J7" s="455"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="470"/>
-      <c r="B8" s="471"/>
+      <c r="A8" s="474"/>
+      <c r="B8" s="475"/>
       <c r="C8" s="265"/>
       <c r="D8" s="266"/>
       <c r="E8" s="65" t="s">
         <v>180</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="466">
+      <c r="G8" s="470">
         <v>6713000</v>
       </c>
-      <c r="H8" s="467"/>
-      <c r="I8" s="472"/>
-      <c r="J8" s="473"/>
+      <c r="H8" s="471"/>
+      <c r="I8" s="454"/>
+      <c r="J8" s="455"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="456" t="s">
+      <c r="A9" s="460" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="457"/>
-      <c r="C9" s="457"/>
-      <c r="D9" s="458"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
+      <c r="D9" s="462"/>
       <c r="E9" s="257" t="s">
         <v>183</v>
       </c>
       <c r="F9" s="258">
         <v>382000</v>
       </c>
-      <c r="G9" s="462">
+      <c r="G9" s="466">
         <f>SUM(F9:F13)</f>
         <v>3625000</v>
       </c>
-      <c r="H9" s="463"/>
+      <c r="H9" s="467"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="459"/>
-      <c r="B10" s="460"/>
-      <c r="C10" s="460"/>
-      <c r="D10" s="461"/>
+      <c r="A10" s="463"/>
+      <c r="B10" s="464"/>
+      <c r="C10" s="464"/>
+      <c r="D10" s="465"/>
       <c r="E10" s="257" t="s">
         <v>184</v>
       </c>
       <c r="F10" s="258">
         <v>997000</v>
       </c>
-      <c r="G10" s="464"/>
-      <c r="H10" s="465"/>
+      <c r="G10" s="468"/>
+      <c r="H10" s="469"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="459"/>
-      <c r="B11" s="460"/>
-      <c r="C11" s="460"/>
-      <c r="D11" s="461"/>
+      <c r="A11" s="463"/>
+      <c r="B11" s="464"/>
+      <c r="C11" s="464"/>
+      <c r="D11" s="465"/>
       <c r="E11" s="257" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="258">
         <v>417000</v>
       </c>
-      <c r="G11" s="464"/>
-      <c r="H11" s="465"/>
+      <c r="G11" s="468"/>
+      <c r="H11" s="469"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="459"/>
-      <c r="B12" s="460"/>
-      <c r="C12" s="460"/>
-      <c r="D12" s="461"/>
+      <c r="A12" s="463"/>
+      <c r="B12" s="464"/>
+      <c r="C12" s="464"/>
+      <c r="D12" s="465"/>
       <c r="E12" s="257" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="258">
         <v>914000</v>
       </c>
-      <c r="G12" s="464"/>
-      <c r="H12" s="465"/>
+      <c r="G12" s="468"/>
+      <c r="H12" s="469"/>
     </row>
     <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="459"/>
-      <c r="B13" s="460"/>
-      <c r="C13" s="460"/>
-      <c r="D13" s="461"/>
+      <c r="A13" s="463"/>
+      <c r="B13" s="464"/>
+      <c r="C13" s="464"/>
+      <c r="D13" s="465"/>
       <c r="E13" s="267" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="258">
         <v>915000</v>
       </c>
-      <c r="G13" s="464"/>
-      <c r="H13" s="465"/>
+      <c r="G13" s="468"/>
+      <c r="H13" s="469"/>
       <c r="O13" s="274"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="450" t="s">
+      <c r="A14" s="479" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="450"/>
-      <c r="C14" s="450"/>
-      <c r="D14" s="450"/>
-      <c r="E14" s="450"/>
-      <c r="F14" s="450"/>
-      <c r="G14" s="451">
+      <c r="B14" s="479"/>
+      <c r="C14" s="479"/>
+      <c r="D14" s="479"/>
+      <c r="E14" s="479"/>
+      <c r="F14" s="479"/>
+      <c r="G14" s="480">
         <f>'Bảng lương'!F12</f>
         <v>6576923.076923077</v>
       </c>
-      <c r="H14" s="451"/>
+      <c r="H14" s="480"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="452" t="s">
+      <c r="A15" s="481" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="452"/>
-      <c r="C15" s="452"/>
-      <c r="D15" s="452"/>
-      <c r="E15" s="452"/>
-      <c r="F15" s="452"/>
-      <c r="G15" s="453">
+      <c r="B15" s="481"/>
+      <c r="C15" s="481"/>
+      <c r="D15" s="481"/>
+      <c r="E15" s="481"/>
+      <c r="F15" s="481"/>
+      <c r="G15" s="482">
         <f>G7+G8+G9+G14</f>
         <v>21659461.076923076</v>
       </c>
-      <c r="H15" s="453"/>
+      <c r="H15" s="482"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="275" t="s">
@@ -9500,10 +9579,10 @@
       <c r="K17" s="274"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="454">
+      <c r="A18" s="483">
         <v>44106</v>
       </c>
-      <c r="B18" s="454"/>
+      <c r="B18" s="483"/>
       <c r="C18" s="269"/>
       <c r="D18" s="269"/>
       <c r="E18" s="269" t="s">
@@ -9516,10 +9595,10 @@
       <c r="P18" s="274"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="454">
+      <c r="A19" s="483">
         <v>44116</v>
       </c>
-      <c r="B19" s="454"/>
+      <c r="B19" s="483"/>
       <c r="C19" s="269"/>
       <c r="D19" s="269"/>
       <c r="E19" s="269" t="s">
@@ -9531,10 +9610,10 @@
       <c r="K19" s="274"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="454">
+      <c r="A20" s="483">
         <v>44120</v>
       </c>
-      <c r="B20" s="454"/>
+      <c r="B20" s="483"/>
       <c r="C20" s="269"/>
       <c r="D20" s="269"/>
       <c r="E20" s="269" t="s">
@@ -9545,10 +9624,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="455">
+      <c r="A21" s="484">
         <v>44128</v>
       </c>
-      <c r="B21" s="455"/>
+      <c r="B21" s="484"/>
       <c r="C21" s="269"/>
       <c r="D21" s="269"/>
       <c r="E21" s="350" t="s">
@@ -9562,10 +9641,10 @@
       <c r="M21" s="274"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="454">
+      <c r="A22" s="483">
         <v>44131</v>
       </c>
-      <c r="B22" s="454"/>
+      <c r="B22" s="483"/>
       <c r="C22" s="269"/>
       <c r="D22" s="269"/>
       <c r="E22" s="282" t="s">
@@ -9577,13 +9656,13 @@
       <c r="M22" s="274"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="447" t="s">
+      <c r="A23" s="476" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="448"/>
-      <c r="C23" s="448"/>
-      <c r="D23" s="448"/>
-      <c r="E23" s="449"/>
+      <c r="B23" s="477"/>
+      <c r="C23" s="477"/>
+      <c r="D23" s="477"/>
+      <c r="E23" s="478"/>
       <c r="F23" s="276">
         <f>SUM(F18:F22)</f>
         <v>7558900</v>
@@ -9643,16 +9722,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -9663,6 +9732,16 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10203,16 +10282,16 @@
       <c r="C1" s="214"/>
       <c r="D1" s="214"/>
       <c r="E1" s="214"/>
-      <c r="Z1" s="483" t="s">
+      <c r="Z1" s="503" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="484"/>
-      <c r="AB1" s="484"/>
-      <c r="AC1" s="484"/>
-      <c r="AD1" s="484"/>
-      <c r="AE1" s="484"/>
-      <c r="AF1" s="484"/>
-      <c r="AG1" s="485"/>
+      <c r="AA1" s="504"/>
+      <c r="AB1" s="504"/>
+      <c r="AC1" s="504"/>
+      <c r="AD1" s="504"/>
+      <c r="AE1" s="504"/>
+      <c r="AF1" s="504"/>
+      <c r="AG1" s="505"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
@@ -10222,18 +10301,18 @@
       <c r="C2" s="218"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
-      <c r="Z2" s="478" t="s">
+      <c r="Z2" s="486" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" s="479"/>
-      <c r="AB2" s="479"/>
-      <c r="AC2" s="479"/>
-      <c r="AD2" s="479"/>
-      <c r="AE2" s="480"/>
-      <c r="AF2" s="481" t="s">
+      <c r="AA2" s="487"/>
+      <c r="AB2" s="487"/>
+      <c r="AC2" s="487"/>
+      <c r="AD2" s="487"/>
+      <c r="AE2" s="488"/>
+      <c r="AF2" s="489" t="s">
         <v>149</v>
       </c>
-      <c r="AG2" s="482"/>
+      <c r="AG2" s="490"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="217" t="s">
@@ -10243,18 +10322,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="478" t="s">
+      <c r="Z3" s="486" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" s="479"/>
-      <c r="AB3" s="479"/>
-      <c r="AC3" s="479"/>
-      <c r="AD3" s="479"/>
-      <c r="AE3" s="480"/>
-      <c r="AF3" s="481" t="s">
+      <c r="AA3" s="487"/>
+      <c r="AB3" s="487"/>
+      <c r="AC3" s="487"/>
+      <c r="AD3" s="487"/>
+      <c r="AE3" s="488"/>
+      <c r="AF3" s="489" t="s">
         <v>152</v>
       </c>
-      <c r="AG3" s="482"/>
+      <c r="AG3" s="490"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="217" t="s">
@@ -10267,18 +10346,18 @@
       <c r="T4" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="478" t="s">
+      <c r="Z4" s="486" t="s">
         <v>154</v>
       </c>
-      <c r="AA4" s="479"/>
-      <c r="AB4" s="479"/>
-      <c r="AC4" s="479"/>
-      <c r="AD4" s="479"/>
-      <c r="AE4" s="480"/>
-      <c r="AF4" s="481" t="s">
+      <c r="AA4" s="487"/>
+      <c r="AB4" s="487"/>
+      <c r="AC4" s="487"/>
+      <c r="AD4" s="487"/>
+      <c r="AE4" s="488"/>
+      <c r="AF4" s="489" t="s">
         <v>155</v>
       </c>
-      <c r="AG4" s="482"/>
+      <c r="AG4" s="490"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="217" t="s">
@@ -10288,18 +10367,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="478" t="s">
+      <c r="Z5" s="486" t="s">
         <v>157</v>
       </c>
-      <c r="AA5" s="479"/>
-      <c r="AB5" s="479"/>
-      <c r="AC5" s="479"/>
-      <c r="AD5" s="479"/>
-      <c r="AE5" s="480"/>
-      <c r="AF5" s="481" t="s">
+      <c r="AA5" s="487"/>
+      <c r="AB5" s="487"/>
+      <c r="AC5" s="487"/>
+      <c r="AD5" s="487"/>
+      <c r="AE5" s="488"/>
+      <c r="AF5" s="489" t="s">
         <v>158</v>
       </c>
-      <c r="AG5" s="482"/>
+      <c r="AG5" s="490"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="219"/>
@@ -10309,93 +10388,93 @@
       <c r="E6" s="219"/>
     </row>
     <row r="7" spans="1:40" s="222" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="491" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="487"/>
-      <c r="C7" s="487"/>
-      <c r="D7" s="487"/>
-      <c r="E7" s="487"/>
-      <c r="F7" s="487"/>
-      <c r="G7" s="487"/>
-      <c r="H7" s="487"/>
-      <c r="I7" s="487"/>
-      <c r="J7" s="487"/>
-      <c r="K7" s="487"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="487"/>
-      <c r="N7" s="487"/>
-      <c r="O7" s="487"/>
-      <c r="P7" s="487"/>
-      <c r="Q7" s="487"/>
-      <c r="R7" s="487"/>
-      <c r="S7" s="487"/>
-      <c r="T7" s="487"/>
-      <c r="U7" s="487"/>
-      <c r="V7" s="487"/>
-      <c r="W7" s="487"/>
-      <c r="X7" s="487"/>
-      <c r="Y7" s="487"/>
-      <c r="Z7" s="487"/>
-      <c r="AA7" s="487"/>
-      <c r="AB7" s="487"/>
-      <c r="AC7" s="487"/>
-      <c r="AD7" s="487"/>
-      <c r="AE7" s="487"/>
-      <c r="AF7" s="487"/>
-      <c r="AG7" s="487"/>
-      <c r="AH7" s="487"/>
-      <c r="AI7" s="487"/>
-      <c r="AJ7" s="487"/>
-      <c r="AK7" s="487"/>
-      <c r="AL7" s="487"/>
-      <c r="AM7" s="487"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
+      <c r="F7" s="491"/>
+      <c r="G7" s="491"/>
+      <c r="H7" s="491"/>
+      <c r="I7" s="491"/>
+      <c r="J7" s="491"/>
+      <c r="K7" s="491"/>
+      <c r="L7" s="491"/>
+      <c r="M7" s="491"/>
+      <c r="N7" s="491"/>
+      <c r="O7" s="491"/>
+      <c r="P7" s="491"/>
+      <c r="Q7" s="491"/>
+      <c r="R7" s="491"/>
+      <c r="S7" s="491"/>
+      <c r="T7" s="491"/>
+      <c r="U7" s="491"/>
+      <c r="V7" s="491"/>
+      <c r="W7" s="491"/>
+      <c r="X7" s="491"/>
+      <c r="Y7" s="491"/>
+      <c r="Z7" s="491"/>
+      <c r="AA7" s="491"/>
+      <c r="AB7" s="491"/>
+      <c r="AC7" s="491"/>
+      <c r="AD7" s="491"/>
+      <c r="AE7" s="491"/>
+      <c r="AF7" s="491"/>
+      <c r="AG7" s="491"/>
+      <c r="AH7" s="491"/>
+      <c r="AI7" s="491"/>
+      <c r="AJ7" s="491"/>
+      <c r="AK7" s="491"/>
+      <c r="AL7" s="491"/>
+      <c r="AM7" s="491"/>
       <c r="AN7" s="221"/>
     </row>
     <row r="9" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="488" t="s">
+      <c r="A9" s="492" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="488" t="s">
+      <c r="B9" s="492" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="488" t="s">
+      <c r="C9" s="492" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="491" t="s">
+      <c r="D9" s="495" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="492"/>
-      <c r="F9" s="492"/>
-      <c r="G9" s="492"/>
-      <c r="H9" s="492"/>
-      <c r="I9" s="492"/>
-      <c r="J9" s="492"/>
-      <c r="K9" s="492"/>
-      <c r="L9" s="492"/>
-      <c r="M9" s="492"/>
-      <c r="N9" s="492"/>
-      <c r="O9" s="492"/>
-      <c r="P9" s="492"/>
-      <c r="Q9" s="492"/>
-      <c r="R9" s="492"/>
-      <c r="S9" s="492"/>
-      <c r="T9" s="492"/>
-      <c r="U9" s="492"/>
-      <c r="V9" s="492"/>
-      <c r="W9" s="492"/>
-      <c r="X9" s="492"/>
-      <c r="Y9" s="492"/>
-      <c r="Z9" s="492"/>
-      <c r="AA9" s="492"/>
-      <c r="AB9" s="492"/>
-      <c r="AC9" s="492"/>
-      <c r="AD9" s="492"/>
-      <c r="AE9" s="492"/>
-      <c r="AF9" s="492"/>
-      <c r="AG9" s="492"/>
-      <c r="AH9" s="493"/>
-      <c r="AI9" s="494" t="s">
+      <c r="E9" s="496"/>
+      <c r="F9" s="496"/>
+      <c r="G9" s="496"/>
+      <c r="H9" s="496"/>
+      <c r="I9" s="496"/>
+      <c r="J9" s="496"/>
+      <c r="K9" s="496"/>
+      <c r="L9" s="496"/>
+      <c r="M9" s="496"/>
+      <c r="N9" s="496"/>
+      <c r="O9" s="496"/>
+      <c r="P9" s="496"/>
+      <c r="Q9" s="496"/>
+      <c r="R9" s="496"/>
+      <c r="S9" s="496"/>
+      <c r="T9" s="496"/>
+      <c r="U9" s="496"/>
+      <c r="V9" s="496"/>
+      <c r="W9" s="496"/>
+      <c r="X9" s="496"/>
+      <c r="Y9" s="496"/>
+      <c r="Z9" s="496"/>
+      <c r="AA9" s="496"/>
+      <c r="AB9" s="496"/>
+      <c r="AC9" s="496"/>
+      <c r="AD9" s="496"/>
+      <c r="AE9" s="496"/>
+      <c r="AF9" s="496"/>
+      <c r="AG9" s="496"/>
+      <c r="AH9" s="497"/>
+      <c r="AI9" s="498" t="s">
         <v>163</v>
       </c>
       <c r="AJ9" s="223"/>
@@ -10405,9 +10484,9 @@
       <c r="AN9" s="226"/>
     </row>
     <row r="10" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="489"/>
-      <c r="B10" s="489"/>
-      <c r="C10" s="489"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="493"/>
+      <c r="C10" s="493"/>
       <c r="D10" s="228">
         <v>1</v>
       </c>
@@ -10501,7 +10580,7 @@
       <c r="AH10" s="228">
         <v>31</v>
       </c>
-      <c r="AI10" s="494"/>
+      <c r="AI10" s="498"/>
       <c r="AJ10" s="229"/>
       <c r="AK10" s="225"/>
       <c r="AL10" s="225"/>
@@ -10509,9 +10588,9 @@
       <c r="AN10" s="226"/>
     </row>
     <row r="11" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="490"/>
-      <c r="B11" s="490"/>
-      <c r="C11" s="490"/>
+      <c r="A11" s="494"/>
+      <c r="B11" s="494"/>
+      <c r="C11" s="494"/>
       <c r="D11" s="228" t="s">
         <v>165</v>
       </c>
@@ -10605,7 +10684,7 @@
       <c r="AH11" s="230" t="s">
         <v>167</v>
       </c>
-      <c r="AI11" s="494"/>
+      <c r="AI11" s="498"/>
       <c r="AJ11" s="232"/>
       <c r="AN11" s="234"/>
     </row>
@@ -10990,10 +11069,10 @@
       <c r="AN15" s="234"/>
     </row>
     <row r="16" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="495" t="s">
+      <c r="A16" s="499" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="496"/>
+      <c r="B16" s="500"/>
       <c r="C16" s="240"/>
       <c r="D16" s="240"/>
       <c r="E16" s="241"/>
@@ -11036,49 +11115,49 @@
       <c r="AN16" s="234"/>
     </row>
     <row r="18" spans="1:40" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="497" t="s">
+      <c r="A18" s="501" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="497"/>
-      <c r="C18" s="497"/>
-      <c r="D18" s="497"/>
-      <c r="E18" s="497"/>
-      <c r="F18" s="497"/>
-      <c r="G18" s="497"/>
+      <c r="B18" s="501"/>
+      <c r="C18" s="501"/>
+      <c r="D18" s="501"/>
+      <c r="E18" s="501"/>
+      <c r="F18" s="501"/>
+      <c r="G18" s="501"/>
       <c r="H18" s="245"/>
-      <c r="I18" s="498"/>
-      <c r="J18" s="498"/>
-      <c r="K18" s="498"/>
-      <c r="L18" s="498"/>
-      <c r="M18" s="498"/>
+      <c r="I18" s="502"/>
+      <c r="J18" s="502"/>
+      <c r="K18" s="502"/>
+      <c r="L18" s="502"/>
+      <c r="M18" s="502"/>
       <c r="N18" s="246"/>
-      <c r="O18" s="498" t="s">
+      <c r="O18" s="502" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="498"/>
-      <c r="Q18" s="498"/>
-      <c r="R18" s="498"/>
-      <c r="S18" s="498"/>
-      <c r="T18" s="498"/>
-      <c r="U18" s="498"/>
-      <c r="V18" s="498"/>
-      <c r="W18" s="498"/>
-      <c r="X18" s="498"/>
-      <c r="Y18" s="498"/>
+      <c r="P18" s="502"/>
+      <c r="Q18" s="502"/>
+      <c r="R18" s="502"/>
+      <c r="S18" s="502"/>
+      <c r="T18" s="502"/>
+      <c r="U18" s="502"/>
+      <c r="V18" s="502"/>
+      <c r="W18" s="502"/>
+      <c r="X18" s="502"/>
+      <c r="Y18" s="502"/>
       <c r="Z18" s="247"/>
       <c r="AA18" s="247"/>
       <c r="AB18" s="248"/>
-      <c r="AC18" s="498"/>
-      <c r="AD18" s="498"/>
-      <c r="AE18" s="498"/>
-      <c r="AF18" s="498"/>
-      <c r="AG18" s="498"/>
-      <c r="AH18" s="498"/>
-      <c r="AI18" s="498"/>
-      <c r="AJ18" s="498"/>
-      <c r="AK18" s="498"/>
-      <c r="AL18" s="498"/>
-      <c r="AM18" s="498"/>
+      <c r="AC18" s="502"/>
+      <c r="AD18" s="502"/>
+      <c r="AE18" s="502"/>
+      <c r="AF18" s="502"/>
+      <c r="AG18" s="502"/>
+      <c r="AH18" s="502"/>
+      <c r="AI18" s="502"/>
+      <c r="AJ18" s="502"/>
+      <c r="AK18" s="502"/>
+      <c r="AL18" s="502"/>
+      <c r="AM18" s="502"/>
       <c r="AN18" s="249"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -11112,131 +11191,131 @@
       <c r="AN33" s="254"/>
     </row>
     <row r="34" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="486"/>
-      <c r="H34" s="486"/>
-      <c r="I34" s="486"/>
-      <c r="J34" s="486"/>
-      <c r="K34" s="486"/>
-      <c r="L34" s="486"/>
-      <c r="M34" s="486"/>
-      <c r="N34" s="486"/>
-      <c r="O34" s="486"/>
-      <c r="P34" s="486"/>
-      <c r="Q34" s="486"/>
-      <c r="R34" s="486"/>
-      <c r="S34" s="486"/>
-      <c r="T34" s="486"/>
-      <c r="U34" s="486"/>
-      <c r="V34" s="486"/>
-      <c r="W34" s="486"/>
-      <c r="X34" s="486"/>
+      <c r="G34" s="485"/>
+      <c r="H34" s="485"/>
+      <c r="I34" s="485"/>
+      <c r="J34" s="485"/>
+      <c r="K34" s="485"/>
+      <c r="L34" s="485"/>
+      <c r="M34" s="485"/>
+      <c r="N34" s="485"/>
+      <c r="O34" s="485"/>
+      <c r="P34" s="485"/>
+      <c r="Q34" s="485"/>
+      <c r="R34" s="485"/>
+      <c r="S34" s="485"/>
+      <c r="T34" s="485"/>
+      <c r="U34" s="485"/>
+      <c r="V34" s="485"/>
+      <c r="W34" s="485"/>
+      <c r="X34" s="485"/>
       <c r="AN34" s="254"/>
     </row>
     <row r="35" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="486"/>
-      <c r="H35" s="486"/>
-      <c r="I35" s="486"/>
-      <c r="J35" s="486"/>
-      <c r="K35" s="486"/>
-      <c r="L35" s="486"/>
-      <c r="M35" s="486"/>
-      <c r="N35" s="486"/>
-      <c r="O35" s="486"/>
-      <c r="P35" s="486"/>
-      <c r="Q35" s="486"/>
-      <c r="R35" s="486"/>
-      <c r="S35" s="486"/>
-      <c r="T35" s="486"/>
-      <c r="U35" s="486"/>
-      <c r="V35" s="486"/>
-      <c r="W35" s="486"/>
-      <c r="X35" s="486"/>
+      <c r="G35" s="485"/>
+      <c r="H35" s="485"/>
+      <c r="I35" s="485"/>
+      <c r="J35" s="485"/>
+      <c r="K35" s="485"/>
+      <c r="L35" s="485"/>
+      <c r="M35" s="485"/>
+      <c r="N35" s="485"/>
+      <c r="O35" s="485"/>
+      <c r="P35" s="485"/>
+      <c r="Q35" s="485"/>
+      <c r="R35" s="485"/>
+      <c r="S35" s="485"/>
+      <c r="T35" s="485"/>
+      <c r="U35" s="485"/>
+      <c r="V35" s="485"/>
+      <c r="W35" s="485"/>
+      <c r="X35" s="485"/>
       <c r="AN35" s="254"/>
     </row>
     <row r="36" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="486"/>
-      <c r="H36" s="486"/>
-      <c r="I36" s="486"/>
-      <c r="J36" s="486"/>
-      <c r="K36" s="486"/>
-      <c r="L36" s="486"/>
-      <c r="M36" s="486"/>
-      <c r="N36" s="486"/>
-      <c r="O36" s="486"/>
-      <c r="P36" s="486"/>
-      <c r="Q36" s="486"/>
-      <c r="R36" s="486"/>
-      <c r="S36" s="486"/>
-      <c r="T36" s="486"/>
-      <c r="U36" s="486"/>
-      <c r="V36" s="486"/>
-      <c r="W36" s="486"/>
-      <c r="X36" s="486"/>
+      <c r="G36" s="485"/>
+      <c r="H36" s="485"/>
+      <c r="I36" s="485"/>
+      <c r="J36" s="485"/>
+      <c r="K36" s="485"/>
+      <c r="L36" s="485"/>
+      <c r="M36" s="485"/>
+      <c r="N36" s="485"/>
+      <c r="O36" s="485"/>
+      <c r="P36" s="485"/>
+      <c r="Q36" s="485"/>
+      <c r="R36" s="485"/>
+      <c r="S36" s="485"/>
+      <c r="T36" s="485"/>
+      <c r="U36" s="485"/>
+      <c r="V36" s="485"/>
+      <c r="W36" s="485"/>
+      <c r="X36" s="485"/>
       <c r="AN36" s="254"/>
     </row>
     <row r="37" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="486"/>
-      <c r="H37" s="486"/>
-      <c r="I37" s="486"/>
-      <c r="J37" s="486"/>
-      <c r="K37" s="486"/>
-      <c r="L37" s="486"/>
-      <c r="M37" s="486"/>
-      <c r="N37" s="486"/>
-      <c r="O37" s="486"/>
-      <c r="P37" s="486"/>
-      <c r="Q37" s="486"/>
-      <c r="R37" s="486"/>
-      <c r="S37" s="486"/>
-      <c r="T37" s="486"/>
-      <c r="U37" s="486"/>
-      <c r="V37" s="486"/>
-      <c r="W37" s="486"/>
-      <c r="X37" s="486"/>
+      <c r="G37" s="485"/>
+      <c r="H37" s="485"/>
+      <c r="I37" s="485"/>
+      <c r="J37" s="485"/>
+      <c r="K37" s="485"/>
+      <c r="L37" s="485"/>
+      <c r="M37" s="485"/>
+      <c r="N37" s="485"/>
+      <c r="O37" s="485"/>
+      <c r="P37" s="485"/>
+      <c r="Q37" s="485"/>
+      <c r="R37" s="485"/>
+      <c r="S37" s="485"/>
+      <c r="T37" s="485"/>
+      <c r="U37" s="485"/>
+      <c r="V37" s="485"/>
+      <c r="W37" s="485"/>
+      <c r="X37" s="485"/>
       <c r="AN37" s="254"/>
     </row>
     <row r="38" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="486"/>
-      <c r="H38" s="486"/>
-      <c r="I38" s="486"/>
-      <c r="J38" s="486"/>
-      <c r="K38" s="486"/>
-      <c r="L38" s="486"/>
-      <c r="M38" s="486"/>
-      <c r="N38" s="486"/>
-      <c r="O38" s="486"/>
-      <c r="P38" s="486"/>
-      <c r="Q38" s="486"/>
-      <c r="R38" s="486"/>
-      <c r="S38" s="486"/>
-      <c r="T38" s="486"/>
-      <c r="U38" s="486"/>
-      <c r="V38" s="486"/>
-      <c r="W38" s="486"/>
-      <c r="X38" s="486"/>
+      <c r="G38" s="485"/>
+      <c r="H38" s="485"/>
+      <c r="I38" s="485"/>
+      <c r="J38" s="485"/>
+      <c r="K38" s="485"/>
+      <c r="L38" s="485"/>
+      <c r="M38" s="485"/>
+      <c r="N38" s="485"/>
+      <c r="O38" s="485"/>
+      <c r="P38" s="485"/>
+      <c r="Q38" s="485"/>
+      <c r="R38" s="485"/>
+      <c r="S38" s="485"/>
+      <c r="T38" s="485"/>
+      <c r="U38" s="485"/>
+      <c r="V38" s="485"/>
+      <c r="W38" s="485"/>
+      <c r="X38" s="485"/>
       <c r="AN38" s="254"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="215"/>
       <c r="D39" s="215"/>
-      <c r="G39" s="486"/>
-      <c r="H39" s="486"/>
-      <c r="I39" s="486"/>
-      <c r="J39" s="486"/>
-      <c r="K39" s="486"/>
-      <c r="L39" s="486"/>
-      <c r="M39" s="486"/>
-      <c r="N39" s="486"/>
-      <c r="O39" s="486"/>
-      <c r="P39" s="486"/>
-      <c r="Q39" s="486"/>
-      <c r="R39" s="486"/>
-      <c r="S39" s="486"/>
-      <c r="T39" s="486"/>
-      <c r="U39" s="486"/>
-      <c r="V39" s="486"/>
-      <c r="W39" s="486"/>
-      <c r="X39" s="486"/>
+      <c r="G39" s="485"/>
+      <c r="H39" s="485"/>
+      <c r="I39" s="485"/>
+      <c r="J39" s="485"/>
+      <c r="K39" s="485"/>
+      <c r="L39" s="485"/>
+      <c r="M39" s="485"/>
+      <c r="N39" s="485"/>
+      <c r="O39" s="485"/>
+      <c r="P39" s="485"/>
+      <c r="Q39" s="485"/>
+      <c r="R39" s="485"/>
+      <c r="S39" s="485"/>
+      <c r="T39" s="485"/>
+      <c r="U39" s="485"/>
+      <c r="V39" s="485"/>
+      <c r="W39" s="485"/>
+      <c r="X39" s="485"/>
       <c r="AN39" s="215"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -11246,6 +11325,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11260,13 +11346,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12116,38 +12195,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="514" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
+      <c r="B1" s="514"/>
+      <c r="C1" s="514"/>
+      <c r="D1" s="514"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="508" t="s">
+      <c r="F1" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="508"/>
-      <c r="H1" s="508"/>
-      <c r="I1" s="508"/>
-      <c r="J1" s="508"/>
-      <c r="K1" s="508"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="516" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="510" t="s">
+      <c r="F2" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="510"/>
-      <c r="H2" s="510"/>
-      <c r="I2" s="510"/>
-      <c r="J2" s="510"/>
-      <c r="K2" s="510"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -12160,43 +12239,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="511" t="s">
+      <c r="A4" s="518" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
-      <c r="H4" s="511"/>
-      <c r="I4" s="511"/>
-      <c r="J4" s="511"/>
-      <c r="K4" s="511"/>
-      <c r="L4" s="511"/>
+      <c r="B4" s="518"/>
+      <c r="C4" s="518"/>
+      <c r="D4" s="518"/>
+      <c r="E4" s="518"/>
+      <c r="F4" s="518"/>
+      <c r="G4" s="518"/>
+      <c r="H4" s="518"/>
+      <c r="I4" s="518"/>
+      <c r="J4" s="518"/>
+      <c r="K4" s="518"/>
+      <c r="L4" s="518"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="512" t="s">
+      <c r="A5" s="519" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="512"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="512"/>
+      <c r="B5" s="519"/>
+      <c r="C5" s="519"/>
+      <c r="D5" s="519"/>
+      <c r="E5" s="519"/>
+      <c r="F5" s="519"/>
+      <c r="G5" s="519"/>
+      <c r="H5" s="519"/>
+      <c r="I5" s="519"/>
+      <c r="J5" s="519"/>
+      <c r="K5" s="519"/>
+      <c r="L5" s="519"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="513" t="s">
+      <c r="J6" s="520" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="513"/>
-      <c r="L6" s="513"/>
+      <c r="K6" s="520"/>
+      <c r="L6" s="520"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="145" t="s">
@@ -12218,7 +12297,7 @@
         <v>63</v>
       </c>
       <c r="G7" s="145" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="145" t="s">
         <v>116</v>
@@ -12263,12 +12342,12 @@
       <c r="L8" s="145"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="504" t="s">
+      <c r="A9" s="511" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="505"/>
-      <c r="C9" s="505"/>
-      <c r="D9" s="506"/>
+      <c r="B9" s="512"/>
+      <c r="C9" s="512"/>
+      <c r="D9" s="513"/>
       <c r="E9" s="147"/>
       <c r="F9" s="151">
         <f>SUM(F10:F12)</f>
@@ -12393,12 +12472,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="501" t="s">
+      <c r="A13" s="508" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="502"/>
-      <c r="C13" s="502"/>
-      <c r="D13" s="503"/>
+      <c r="B13" s="509"/>
+      <c r="C13" s="509"/>
+      <c r="D13" s="510"/>
       <c r="E13" s="89"/>
       <c r="F13" s="151">
         <f>SUM(F14:F14)</f>
@@ -12457,11 +12536,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="514" t="s">
+      <c r="A15" s="521" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="515"/>
-      <c r="C15" s="516"/>
+      <c r="B15" s="522"/>
+      <c r="C15" s="523"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -12488,14 +12567,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="499"/>
-      <c r="C17" s="499"/>
-      <c r="D17" s="499"/>
+      <c r="B17" s="506"/>
+      <c r="C17" s="506"/>
+      <c r="D17" s="506"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="499"/>
-      <c r="I17" s="499"/>
-      <c r="J17" s="499"/>
-      <c r="K17" s="499"/>
+      <c r="H17" s="506"/>
+      <c r="I17" s="506"/>
+      <c r="J17" s="506"/>
+      <c r="K17" s="506"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="142" t="s">
@@ -12507,12 +12586,12 @@
         <v>85</v>
       </c>
       <c r="G18" s="142"/>
-      <c r="H18" s="499" t="s">
+      <c r="H18" s="506" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="499"/>
-      <c r="J18" s="499"/>
-      <c r="K18" s="499"/>
+      <c r="I18" s="506"/>
+      <c r="J18" s="506"/>
+      <c r="K18" s="506"/>
     </row>
     <row r="19" spans="2:11" s="143" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="144" t="s">
@@ -12524,12 +12603,12 @@
         <v>92</v>
       </c>
       <c r="G19" s="144"/>
-      <c r="H19" s="500" t="s">
+      <c r="H19" s="507" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="500"/>
-      <c r="J19" s="500"/>
-      <c r="K19" s="500"/>
+      <c r="I19" s="507"/>
+      <c r="J19" s="507"/>
+      <c r="K19" s="507"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2483,6 +2484,7 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2531,6 +2533,27 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2549,16 +2572,16 @@
     <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2576,55 +2599,16 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2657,6 +2641,24 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2672,6 +2674,81 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2690,99 +2767,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2819,15 +2830,6 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2882,7 +2884,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3195,7 +3196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
@@ -3263,16 +3264,16 @@
       <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="397" t="s">
+      <c r="A3" s="398" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="397"/>
-      <c r="C3" s="397"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="397"/>
-      <c r="F3" s="397"/>
-      <c r="G3" s="397"/>
-      <c r="H3" s="397"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
       <c r="I3" s="107"/>
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
@@ -3284,32 +3285,32 @@
       <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="398" t="s">
+      <c r="B4" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="399" t="s">
+      <c r="D4" s="400" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="400" t="s">
+      <c r="E4" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="400"/>
-      <c r="G4" s="400" t="s">
+      <c r="F4" s="401"/>
+      <c r="G4" s="401" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="400"/>
+      <c r="H4" s="401"/>
     </row>
     <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="398"/>
-      <c r="B5" s="398"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="399"/>
+      <c r="A5" s="399"/>
+      <c r="B5" s="399"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="400"/>
       <c r="E5" s="204" t="s">
         <v>81</v>
       </c>
@@ -3443,11 +3444,11 @@
       <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="404">
+      <c r="A12" s="405">
         <v>44111</v>
       </c>
-      <c r="B12" s="404"/>
-      <c r="C12" s="401" t="s">
+      <c r="B12" s="405"/>
+      <c r="C12" s="402" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="94" t="s">
@@ -3459,9 +3460,9 @@
       <c r="H12" s="108"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="405"/>
-      <c r="C13" s="402"/>
+      <c r="A13" s="406"/>
+      <c r="B13" s="406"/>
+      <c r="C13" s="403"/>
       <c r="D13" s="210" t="s">
         <v>100</v>
       </c>
@@ -3473,9 +3474,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
-      <c r="B14" s="405"/>
-      <c r="C14" s="402"/>
+      <c r="A14" s="406"/>
+      <c r="B14" s="406"/>
+      <c r="C14" s="403"/>
       <c r="D14" s="210" t="s">
         <v>101</v>
       </c>
@@ -3487,9 +3488,9 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
-      <c r="B15" s="405"/>
-      <c r="C15" s="402"/>
+      <c r="A15" s="406"/>
+      <c r="B15" s="406"/>
+      <c r="C15" s="403"/>
       <c r="D15" s="210" t="s">
         <v>102</v>
       </c>
@@ -3501,9 +3502,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
-      <c r="B16" s="405"/>
-      <c r="C16" s="402"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="406"/>
+      <c r="C16" s="403"/>
       <c r="D16" s="211" t="s">
         <v>103</v>
       </c>
@@ -3515,9 +3516,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
-      <c r="B17" s="405"/>
-      <c r="C17" s="402"/>
+      <c r="A17" s="406"/>
+      <c r="B17" s="406"/>
+      <c r="C17" s="403"/>
       <c r="D17" s="210" t="s">
         <v>104</v>
       </c>
@@ -3529,9 +3530,9 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="406"/>
-      <c r="B18" s="406"/>
-      <c r="C18" s="403"/>
+      <c r="A18" s="407"/>
+      <c r="B18" s="407"/>
+      <c r="C18" s="404"/>
       <c r="D18" s="210" t="s">
         <v>105</v>
       </c>
@@ -3627,8 +3628,8 @@
       <c r="H22" s="110">
         <v>700000</v>
       </c>
-      <c r="K22" s="391"/>
-      <c r="L22" s="392"/>
+      <c r="K22" s="392"/>
+      <c r="L22" s="393"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="92">
@@ -4061,7 +4062,7 @@
       <c r="D43" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="E43" s="524"/>
+      <c r="E43" s="391"/>
       <c r="F43" s="108">
         <v>649000</v>
       </c>
@@ -4081,7 +4082,7 @@
       <c r="D44" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="524"/>
+      <c r="E44" s="391"/>
       <c r="F44" s="108">
         <v>805350</v>
       </c>
@@ -4170,26 +4171,26 @@
       <c r="K48" s="212"/>
     </row>
     <row r="49" spans="1:10" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="394" t="s">
+      <c r="A49" s="395" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="395"/>
-      <c r="C49" s="395"/>
-      <c r="D49" s="396"/>
+      <c r="B49" s="396"/>
+      <c r="C49" s="396"/>
+      <c r="D49" s="397"/>
       <c r="E49" s="111">
         <f>SUM(E7:E48)</f>
         <v>133403000</v>
       </c>
       <c r="F49" s="111">
-        <f t="shared" ref="F49:H49" si="0">SUM(F7:F48)</f>
+        <f>SUM(F7:F48)</f>
         <v>8029900</v>
       </c>
       <c r="G49" s="111">
-        <f t="shared" si="0"/>
+        <f>SUM(G7:G48)</f>
         <v>30009900</v>
       </c>
       <c r="H49" s="111">
-        <f t="shared" si="0"/>
+        <f>SUM(H7:H48)</f>
         <v>156300900</v>
       </c>
       <c r="J49" s="113"/>
@@ -4206,11 +4207,11 @@
       <c r="J50" s="113"/>
     </row>
     <row r="51" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="393" t="s">
+      <c r="A51" s="394" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="393"/>
-      <c r="C51" s="393"/>
+      <c r="B51" s="394"/>
+      <c r="C51" s="394"/>
       <c r="D51" s="114"/>
       <c r="E51" s="115"/>
       <c r="F51" s="115"/>
@@ -4300,13 +4301,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="422" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="424"/>
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
       <c r="J1" s="123"/>
@@ -4336,149 +4337,149 @@
       <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="425" t="s">
+      <c r="A3" s="423" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="425"/>
-      <c r="F3" s="425"/>
-      <c r="G3" s="425"/>
-      <c r="H3" s="425"/>
-      <c r="I3" s="425"/>
-      <c r="J3" s="425"/>
-      <c r="K3" s="425"/>
-      <c r="L3" s="425"/>
-      <c r="M3" s="425"/>
-      <c r="N3" s="425"/>
-      <c r="O3" s="425"/>
-      <c r="P3" s="425"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="423"/>
+      <c r="M3" s="423"/>
+      <c r="N3" s="423"/>
+      <c r="O3" s="423"/>
+      <c r="P3" s="423"/>
     </row>
     <row r="4" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="423" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="425"/>
-      <c r="K4" s="425"/>
-      <c r="L4" s="425"/>
-      <c r="M4" s="425"/>
-      <c r="N4" s="425"/>
-      <c r="O4" s="425"/>
-      <c r="P4" s="425"/>
+      <c r="B4" s="423"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="423"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="423"/>
+      <c r="G4" s="423"/>
+      <c r="H4" s="423"/>
+      <c r="I4" s="423"/>
+      <c r="J4" s="423"/>
+      <c r="K4" s="423"/>
+      <c r="L4" s="423"/>
+      <c r="M4" s="423"/>
+      <c r="N4" s="423"/>
+      <c r="O4" s="423"/>
+      <c r="P4" s="423"/>
     </row>
     <row r="5" spans="1:16" s="122" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="430" t="s">
+      <c r="A5" s="410" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="431" t="s">
+      <c r="B5" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="430" t="s">
+      <c r="C5" s="410" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="430" t="s">
+      <c r="D5" s="410" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="430"/>
-      <c r="F5" s="427" t="s">
+      <c r="E5" s="410"/>
+      <c r="F5" s="412" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="427"/>
-      <c r="H5" s="427"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="427"/>
-      <c r="K5" s="427"/>
-      <c r="L5" s="427"/>
-      <c r="M5" s="426"/>
-      <c r="N5" s="426"/>
-      <c r="O5" s="426"/>
-      <c r="P5" s="427" t="s">
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="412"/>
+      <c r="M5" s="424"/>
+      <c r="N5" s="424"/>
+      <c r="O5" s="424"/>
+      <c r="P5" s="412" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="430"/>
-      <c r="B6" s="431"/>
-      <c r="C6" s="430"/>
-      <c r="D6" s="430" t="s">
+      <c r="A6" s="410"/>
+      <c r="B6" s="411"/>
+      <c r="C6" s="410"/>
+      <c r="D6" s="410" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="430" t="s">
+      <c r="E6" s="410" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="430" t="s">
+      <c r="F6" s="410" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="430" t="s">
+      <c r="G6" s="410" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="428" t="s">
+      <c r="H6" s="413" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="428" t="s">
+      <c r="I6" s="413" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="432" t="s">
+      <c r="J6" s="414" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="432"/>
-      <c r="L6" s="428" t="s">
+      <c r="K6" s="414"/>
+      <c r="L6" s="413" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="428" t="s">
+      <c r="M6" s="413" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="428" t="s">
+      <c r="N6" s="413" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="428" t="s">
+      <c r="O6" s="413" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="427"/>
+      <c r="P6" s="412"/>
     </row>
     <row r="7" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="430"/>
-      <c r="B7" s="431"/>
-      <c r="C7" s="430"/>
-      <c r="D7" s="430"/>
-      <c r="E7" s="430"/>
-      <c r="F7" s="430"/>
-      <c r="G7" s="430"/>
-      <c r="H7" s="428"/>
-      <c r="I7" s="428"/>
+      <c r="A7" s="410"/>
+      <c r="B7" s="411"/>
+      <c r="C7" s="410"/>
+      <c r="D7" s="410"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="410"/>
+      <c r="G7" s="410"/>
+      <c r="H7" s="413"/>
+      <c r="I7" s="413"/>
       <c r="J7" s="205" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="428"/>
-      <c r="M7" s="428"/>
-      <c r="N7" s="428"/>
-      <c r="O7" s="428"/>
-      <c r="P7" s="427"/>
+      <c r="L7" s="413"/>
+      <c r="M7" s="413"/>
+      <c r="N7" s="413"/>
+      <c r="O7" s="413"/>
+      <c r="P7" s="412"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="407">
+      <c r="A8" s="415">
         <v>808</v>
       </c>
-      <c r="B8" s="410">
+      <c r="B8" s="418">
         <v>44107</v>
       </c>
-      <c r="C8" s="407"/>
-      <c r="D8" s="407" t="s">
+      <c r="C8" s="415"/>
+      <c r="D8" s="415" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="407" t="s">
+      <c r="E8" s="415" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="161" t="s">
@@ -4513,11 +4514,11 @@
       <c r="P8" s="161"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="408"/>
-      <c r="B9" s="411"/>
-      <c r="C9" s="408"/>
-      <c r="D9" s="408"/>
-      <c r="E9" s="408"/>
+      <c r="A9" s="416"/>
+      <c r="B9" s="419"/>
+      <c r="C9" s="416"/>
+      <c r="D9" s="416"/>
+      <c r="E9" s="416"/>
       <c r="F9" s="174" t="s">
         <v>124</v>
       </c>
@@ -4548,11 +4549,11 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="409"/>
-      <c r="B10" s="412"/>
-      <c r="C10" s="409"/>
-      <c r="D10" s="409"/>
-      <c r="E10" s="409"/>
+      <c r="A10" s="417"/>
+      <c r="B10" s="420"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="417"/>
       <c r="F10" s="165" t="s">
         <v>125</v>
       </c>
@@ -4671,17 +4672,17 @@
       <c r="P12" s="160"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="407">
+      <c r="A13" s="415">
         <v>816</v>
       </c>
-      <c r="B13" s="410">
+      <c r="B13" s="418">
         <v>44112</v>
       </c>
-      <c r="C13" s="407"/>
-      <c r="D13" s="407" t="s">
+      <c r="C13" s="415"/>
+      <c r="D13" s="415" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="407"/>
+      <c r="E13" s="415"/>
       <c r="F13" s="161" t="s">
         <v>123</v>
       </c>
@@ -4712,11 +4713,11 @@
       <c r="P13" s="164"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="409"/>
-      <c r="B14" s="412"/>
-      <c r="C14" s="409"/>
-      <c r="D14" s="409"/>
-      <c r="E14" s="409"/>
+      <c r="A14" s="417"/>
+      <c r="B14" s="420"/>
+      <c r="C14" s="417"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="417"/>
       <c r="F14" s="165" t="s">
         <v>124</v>
       </c>
@@ -4871,17 +4872,17 @@
       <c r="P17" s="341"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="407">
+      <c r="A18" s="415">
         <v>822</v>
       </c>
-      <c r="B18" s="410">
+      <c r="B18" s="418">
         <v>44113</v>
       </c>
-      <c r="C18" s="407"/>
-      <c r="D18" s="407" t="s">
+      <c r="C18" s="415"/>
+      <c r="D18" s="415" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="407"/>
+      <c r="E18" s="415"/>
       <c r="F18" s="161" t="s">
         <v>123</v>
       </c>
@@ -4912,11 +4913,11 @@
       <c r="P18" s="161"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="409"/>
-      <c r="B19" s="412"/>
-      <c r="C19" s="409"/>
-      <c r="D19" s="409"/>
-      <c r="E19" s="409"/>
+      <c r="A19" s="417"/>
+      <c r="B19" s="420"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="417"/>
+      <c r="E19" s="417"/>
       <c r="F19" s="165" t="s">
         <v>124</v>
       </c>
@@ -4947,17 +4948,17 @@
       <c r="P19" s="165"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="407">
+      <c r="A20" s="415">
         <v>1211</v>
       </c>
-      <c r="B20" s="413">
+      <c r="B20" s="430">
         <v>44113</v>
       </c>
-      <c r="C20" s="415" t="s">
+      <c r="C20" s="432" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="415"/>
-      <c r="E20" s="415"/>
+      <c r="D20" s="432"/>
+      <c r="E20" s="432"/>
       <c r="F20" s="161" t="s">
         <v>125</v>
       </c>
@@ -4988,11 +4989,11 @@
       <c r="P20" s="161"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="409"/>
-      <c r="B21" s="414"/>
-      <c r="C21" s="416"/>
-      <c r="D21" s="416"/>
-      <c r="E21" s="416"/>
+      <c r="A21" s="417"/>
+      <c r="B21" s="431"/>
+      <c r="C21" s="433"/>
+      <c r="D21" s="433"/>
+      <c r="E21" s="433"/>
       <c r="F21" s="165" t="s">
         <v>138</v>
       </c>
@@ -5070,19 +5071,19 @@
       <c r="P22" s="361"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="407">
+      <c r="A23" s="415">
         <v>825</v>
       </c>
-      <c r="B23" s="410">
+      <c r="B23" s="418">
         <v>44123</v>
       </c>
-      <c r="C23" s="407" t="s">
+      <c r="C23" s="415" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="407" t="s">
+      <c r="D23" s="415" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="407" t="s">
+      <c r="E23" s="415" t="s">
         <v>206</v>
       </c>
       <c r="F23" s="161" t="s">
@@ -5115,11 +5116,11 @@
       <c r="P23" s="161"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="408"/>
-      <c r="B24" s="411"/>
-      <c r="C24" s="408"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="408"/>
+      <c r="A24" s="416"/>
+      <c r="B24" s="419"/>
+      <c r="C24" s="416"/>
+      <c r="D24" s="416"/>
+      <c r="E24" s="416"/>
       <c r="F24" s="170" t="s">
         <v>196</v>
       </c>
@@ -5150,11 +5151,11 @@
       <c r="P24" s="170"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="409"/>
-      <c r="B25" s="412"/>
-      <c r="C25" s="409"/>
-      <c r="D25" s="409"/>
-      <c r="E25" s="409"/>
+      <c r="A25" s="417"/>
+      <c r="B25" s="420"/>
+      <c r="C25" s="417"/>
+      <c r="D25" s="417"/>
+      <c r="E25" s="417"/>
       <c r="F25" s="173" t="s">
         <v>194</v>
       </c>
@@ -5185,17 +5186,17 @@
       <c r="P25" s="173"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="407">
+      <c r="A26" s="415">
         <v>830</v>
       </c>
-      <c r="B26" s="410">
+      <c r="B26" s="418">
         <v>44124</v>
       </c>
-      <c r="C26" s="407"/>
-      <c r="D26" s="417" t="s">
+      <c r="C26" s="415"/>
+      <c r="D26" s="425" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="407" t="s">
+      <c r="E26" s="415" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="368" t="s">
@@ -5230,11 +5231,11 @@
       <c r="P26" s="368"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="408"/>
-      <c r="B27" s="411"/>
-      <c r="C27" s="408"/>
-      <c r="D27" s="418"/>
-      <c r="E27" s="408"/>
+      <c r="A27" s="416"/>
+      <c r="B27" s="419"/>
+      <c r="C27" s="416"/>
+      <c r="D27" s="426"/>
+      <c r="E27" s="416"/>
       <c r="F27" s="170" t="s">
         <v>195</v>
       </c>
@@ -5265,11 +5266,11 @@
       <c r="P27" s="170"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="408"/>
-      <c r="B28" s="411"/>
-      <c r="C28" s="408"/>
-      <c r="D28" s="418"/>
-      <c r="E28" s="408"/>
+      <c r="A28" s="416"/>
+      <c r="B28" s="419"/>
+      <c r="C28" s="416"/>
+      <c r="D28" s="426"/>
+      <c r="E28" s="416"/>
       <c r="F28" s="170" t="s">
         <v>125</v>
       </c>
@@ -5300,11 +5301,11 @@
       <c r="P28" s="170"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="409"/>
-      <c r="B29" s="412"/>
-      <c r="C29" s="409"/>
-      <c r="D29" s="419"/>
-      <c r="E29" s="409"/>
+      <c r="A29" s="417"/>
+      <c r="B29" s="420"/>
+      <c r="C29" s="417"/>
+      <c r="D29" s="427"/>
+      <c r="E29" s="417"/>
       <c r="F29" s="173" t="s">
         <v>194</v>
       </c>
@@ -5376,19 +5377,19 @@
       <c r="P30" s="371"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="420">
+      <c r="A31" s="428">
         <v>832</v>
       </c>
-      <c r="B31" s="410">
+      <c r="B31" s="418">
         <v>44125</v>
       </c>
-      <c r="C31" s="407" t="s">
+      <c r="C31" s="415" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="407" t="s">
+      <c r="D31" s="415" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="407" t="s">
+      <c r="E31" s="415" t="s">
         <v>210</v>
       </c>
       <c r="F31" s="161" t="s">
@@ -5421,11 +5422,11 @@
       <c r="P31" s="161"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="421"/>
-      <c r="B32" s="412"/>
-      <c r="C32" s="409"/>
-      <c r="D32" s="409"/>
-      <c r="E32" s="409"/>
+      <c r="A32" s="429"/>
+      <c r="B32" s="420"/>
+      <c r="C32" s="417"/>
+      <c r="D32" s="417"/>
+      <c r="E32" s="417"/>
       <c r="F32" s="165" t="s">
         <v>195</v>
       </c>
@@ -5456,17 +5457,17 @@
       <c r="P32" s="165"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="407">
+      <c r="A33" s="415">
         <v>834</v>
       </c>
-      <c r="B33" s="410">
+      <c r="B33" s="418">
         <v>44125</v>
       </c>
-      <c r="C33" s="407"/>
-      <c r="D33" s="407" t="s">
+      <c r="C33" s="415"/>
+      <c r="D33" s="415" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="407"/>
+      <c r="E33" s="415"/>
       <c r="F33" s="161" t="s">
         <v>123</v>
       </c>
@@ -5497,11 +5498,11 @@
       <c r="P33" s="161"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="409"/>
-      <c r="B34" s="412"/>
-      <c r="C34" s="409"/>
-      <c r="D34" s="409"/>
-      <c r="E34" s="409"/>
+      <c r="A34" s="417"/>
+      <c r="B34" s="420"/>
+      <c r="C34" s="417"/>
+      <c r="D34" s="417"/>
+      <c r="E34" s="417"/>
       <c r="F34" s="165" t="s">
         <v>124</v>
       </c>
@@ -5532,17 +5533,17 @@
       <c r="P34" s="165"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="407">
+      <c r="A35" s="415">
         <v>837</v>
       </c>
-      <c r="B35" s="410">
+      <c r="B35" s="418">
         <v>44125</v>
       </c>
-      <c r="C35" s="407"/>
-      <c r="D35" s="417" t="s">
+      <c r="C35" s="415"/>
+      <c r="D35" s="425" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="417" t="s">
+      <c r="E35" s="425" t="s">
         <v>212</v>
       </c>
       <c r="F35" s="161" t="s">
@@ -5575,11 +5576,11 @@
       <c r="P35" s="161"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="408"/>
-      <c r="B36" s="411"/>
-      <c r="C36" s="408"/>
-      <c r="D36" s="418"/>
-      <c r="E36" s="418"/>
+      <c r="A36" s="416"/>
+      <c r="B36" s="419"/>
+      <c r="C36" s="416"/>
+      <c r="D36" s="426"/>
+      <c r="E36" s="426"/>
       <c r="F36" s="174" t="s">
         <v>124</v>
       </c>
@@ -5610,11 +5611,11 @@
       <c r="P36" s="174"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="408"/>
-      <c r="B37" s="411"/>
-      <c r="C37" s="408"/>
-      <c r="D37" s="418"/>
-      <c r="E37" s="418"/>
+      <c r="A37" s="416"/>
+      <c r="B37" s="419"/>
+      <c r="C37" s="416"/>
+      <c r="D37" s="426"/>
+      <c r="E37" s="426"/>
       <c r="F37" s="174" t="s">
         <v>195</v>
       </c>
@@ -5645,11 +5646,11 @@
       <c r="P37" s="174"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="408"/>
-      <c r="B38" s="411"/>
-      <c r="C38" s="408"/>
-      <c r="D38" s="418"/>
-      <c r="E38" s="418"/>
+      <c r="A38" s="416"/>
+      <c r="B38" s="419"/>
+      <c r="C38" s="416"/>
+      <c r="D38" s="426"/>
+      <c r="E38" s="426"/>
       <c r="F38" s="174" t="s">
         <v>196</v>
       </c>
@@ -5680,11 +5681,11 @@
       <c r="P38" s="174"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="408"/>
-      <c r="B39" s="411"/>
-      <c r="C39" s="408"/>
-      <c r="D39" s="418"/>
-      <c r="E39" s="418"/>
+      <c r="A39" s="416"/>
+      <c r="B39" s="419"/>
+      <c r="C39" s="416"/>
+      <c r="D39" s="426"/>
+      <c r="E39" s="426"/>
       <c r="F39" s="174" t="s">
         <v>125</v>
       </c>
@@ -5715,11 +5716,11 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="408"/>
-      <c r="B40" s="411"/>
-      <c r="C40" s="408"/>
-      <c r="D40" s="418"/>
-      <c r="E40" s="418"/>
+      <c r="A40" s="416"/>
+      <c r="B40" s="419"/>
+      <c r="C40" s="416"/>
+      <c r="D40" s="426"/>
+      <c r="E40" s="426"/>
       <c r="F40" s="174" t="s">
         <v>138</v>
       </c>
@@ -5750,11 +5751,11 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="408"/>
-      <c r="B41" s="411"/>
-      <c r="C41" s="408"/>
-      <c r="D41" s="418"/>
-      <c r="E41" s="418"/>
+      <c r="A41" s="416"/>
+      <c r="B41" s="419"/>
+      <c r="C41" s="416"/>
+      <c r="D41" s="426"/>
+      <c r="E41" s="426"/>
       <c r="F41" s="174" t="s">
         <v>120</v>
       </c>
@@ -5785,11 +5786,11 @@
       <c r="P41" s="174"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="409"/>
-      <c r="B42" s="412"/>
-      <c r="C42" s="409"/>
-      <c r="D42" s="419"/>
-      <c r="E42" s="419"/>
+      <c r="A42" s="417"/>
+      <c r="B42" s="420"/>
+      <c r="C42" s="417"/>
+      <c r="D42" s="427"/>
+      <c r="E42" s="427"/>
       <c r="F42" s="165" t="s">
         <v>132</v>
       </c>
@@ -5905,19 +5906,19 @@
       <c r="P44" s="169"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="407">
+      <c r="A45" s="415">
         <v>835</v>
       </c>
-      <c r="B45" s="410">
+      <c r="B45" s="418">
         <v>44126</v>
       </c>
-      <c r="C45" s="407" t="s">
+      <c r="C45" s="415" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="407" t="s">
+      <c r="D45" s="415" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="407" t="s">
+      <c r="E45" s="415" t="s">
         <v>222</v>
       </c>
       <c r="F45" s="161" t="s">
@@ -5950,11 +5951,11 @@
       <c r="P45" s="378"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="409"/>
-      <c r="B46" s="412"/>
-      <c r="C46" s="409"/>
-      <c r="D46" s="409"/>
-      <c r="E46" s="409"/>
+      <c r="A46" s="417"/>
+      <c r="B46" s="420"/>
+      <c r="C46" s="417"/>
+      <c r="D46" s="417"/>
+      <c r="E46" s="417"/>
       <c r="F46" s="165" t="s">
         <v>120</v>
       </c>
@@ -5985,17 +5986,17 @@
       <c r="P46" s="379"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="407">
+      <c r="A47" s="415">
         <v>840</v>
       </c>
-      <c r="B47" s="410">
+      <c r="B47" s="418">
         <v>44128</v>
       </c>
-      <c r="C47" s="407" t="s">
+      <c r="C47" s="415" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="407"/>
-      <c r="E47" s="407"/>
+      <c r="D47" s="415"/>
+      <c r="E47" s="415"/>
       <c r="F47" s="161" t="s">
         <v>124</v>
       </c>
@@ -6026,11 +6027,11 @@
       <c r="P47" s="378"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="409"/>
-      <c r="B48" s="412"/>
-      <c r="C48" s="409"/>
-      <c r="D48" s="409"/>
-      <c r="E48" s="409"/>
+      <c r="A48" s="417"/>
+      <c r="B48" s="420"/>
+      <c r="C48" s="417"/>
+      <c r="D48" s="417"/>
+      <c r="E48" s="417"/>
       <c r="F48" s="165" t="s">
         <v>224</v>
       </c>
@@ -6149,19 +6150,19 @@
       <c r="P50" s="169"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="407">
+      <c r="A51" s="415">
         <v>847</v>
       </c>
-      <c r="B51" s="410">
+      <c r="B51" s="418">
         <v>44128</v>
       </c>
-      <c r="C51" s="407" t="s">
+      <c r="C51" s="415" t="s">
         <v>231</v>
       </c>
-      <c r="D51" s="407" t="s">
+      <c r="D51" s="415" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="417" t="s">
+      <c r="E51" s="425" t="s">
         <v>230</v>
       </c>
       <c r="F51" s="161" t="s">
@@ -6194,11 +6195,11 @@
       <c r="P51" s="161"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="408"/>
-      <c r="B52" s="411"/>
-      <c r="C52" s="408"/>
-      <c r="D52" s="408"/>
-      <c r="E52" s="418"/>
+      <c r="A52" s="416"/>
+      <c r="B52" s="419"/>
+      <c r="C52" s="416"/>
+      <c r="D52" s="416"/>
+      <c r="E52" s="426"/>
       <c r="F52" s="174" t="s">
         <v>195</v>
       </c>
@@ -6229,11 +6230,11 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="408"/>
-      <c r="B53" s="411"/>
-      <c r="C53" s="408"/>
-      <c r="D53" s="408"/>
-      <c r="E53" s="418"/>
+      <c r="A53" s="416"/>
+      <c r="B53" s="419"/>
+      <c r="C53" s="416"/>
+      <c r="D53" s="416"/>
+      <c r="E53" s="426"/>
       <c r="F53" s="174" t="s">
         <v>196</v>
       </c>
@@ -6264,11 +6265,11 @@
       <c r="P53" s="199"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="408"/>
-      <c r="B54" s="411"/>
-      <c r="C54" s="408"/>
-      <c r="D54" s="408"/>
-      <c r="E54" s="418"/>
+      <c r="A54" s="416"/>
+      <c r="B54" s="419"/>
+      <c r="C54" s="416"/>
+      <c r="D54" s="416"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="174" t="s">
         <v>194</v>
       </c>
@@ -6299,11 +6300,11 @@
       <c r="P54" s="199"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="409"/>
-      <c r="B55" s="412"/>
-      <c r="C55" s="409"/>
-      <c r="D55" s="409"/>
-      <c r="E55" s="419"/>
+      <c r="A55" s="417"/>
+      <c r="B55" s="420"/>
+      <c r="C55" s="417"/>
+      <c r="D55" s="417"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="165" t="s">
         <v>138</v>
       </c>
@@ -6334,19 +6335,19 @@
       <c r="P55" s="379"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="407">
+      <c r="A56" s="415">
         <v>843</v>
       </c>
-      <c r="B56" s="410">
+      <c r="B56" s="418">
         <v>44129</v>
       </c>
-      <c r="C56" s="407" t="s">
+      <c r="C56" s="415" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="407" t="s">
+      <c r="D56" s="415" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="407"/>
+      <c r="E56" s="415"/>
       <c r="F56" s="161" t="s">
         <v>123</v>
       </c>
@@ -6377,11 +6378,11 @@
       <c r="P56" s="161"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="409"/>
-      <c r="B57" s="412"/>
-      <c r="C57" s="409"/>
-      <c r="D57" s="409"/>
-      <c r="E57" s="409"/>
+      <c r="A57" s="417"/>
+      <c r="B57" s="420"/>
+      <c r="C57" s="417"/>
+      <c r="D57" s="417"/>
+      <c r="E57" s="417"/>
       <c r="F57" s="165" t="s">
         <v>124</v>
       </c>
@@ -6412,17 +6413,17 @@
       <c r="P57" s="165"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="407">
+      <c r="A58" s="415">
         <v>850</v>
       </c>
-      <c r="B58" s="410">
+      <c r="B58" s="418">
         <v>44130</v>
       </c>
-      <c r="C58" s="407"/>
-      <c r="D58" s="407" t="s">
+      <c r="C58" s="415"/>
+      <c r="D58" s="415" t="s">
         <v>211</v>
       </c>
-      <c r="E58" s="407" t="s">
+      <c r="E58" s="415" t="s">
         <v>212</v>
       </c>
       <c r="F58" s="161" t="s">
@@ -6455,11 +6456,11 @@
       <c r="P58" s="161"/>
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="408"/>
-      <c r="B59" s="411"/>
-      <c r="C59" s="408"/>
-      <c r="D59" s="408"/>
-      <c r="E59" s="408"/>
+      <c r="A59" s="416"/>
+      <c r="B59" s="419"/>
+      <c r="C59" s="416"/>
+      <c r="D59" s="416"/>
+      <c r="E59" s="416"/>
       <c r="F59" s="174" t="s">
         <v>124</v>
       </c>
@@ -6490,11 +6491,11 @@
       <c r="P59" s="174"/>
     </row>
     <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="408"/>
-      <c r="B60" s="411"/>
-      <c r="C60" s="408"/>
-      <c r="D60" s="408"/>
-      <c r="E60" s="408"/>
+      <c r="A60" s="416"/>
+      <c r="B60" s="419"/>
+      <c r="C60" s="416"/>
+      <c r="D60" s="416"/>
+      <c r="E60" s="416"/>
       <c r="F60" s="174" t="s">
         <v>195</v>
       </c>
@@ -6525,11 +6526,11 @@
       <c r="P60" s="174"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="408"/>
-      <c r="B61" s="411"/>
-      <c r="C61" s="408"/>
-      <c r="D61" s="408"/>
-      <c r="E61" s="408"/>
+      <c r="A61" s="416"/>
+      <c r="B61" s="419"/>
+      <c r="C61" s="416"/>
+      <c r="D61" s="416"/>
+      <c r="E61" s="416"/>
       <c r="F61" s="174" t="s">
         <v>125</v>
       </c>
@@ -6560,11 +6561,11 @@
       <c r="P61" s="174"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="408"/>
-      <c r="B62" s="411"/>
-      <c r="C62" s="408"/>
-      <c r="D62" s="408"/>
-      <c r="E62" s="408"/>
+      <c r="A62" s="416"/>
+      <c r="B62" s="419"/>
+      <c r="C62" s="416"/>
+      <c r="D62" s="416"/>
+      <c r="E62" s="416"/>
       <c r="F62" s="174" t="s">
         <v>138</v>
       </c>
@@ -6595,11 +6596,11 @@
       <c r="P62" s="174"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="408"/>
-      <c r="B63" s="411"/>
-      <c r="C63" s="408"/>
-      <c r="D63" s="408"/>
-      <c r="E63" s="408"/>
+      <c r="A63" s="416"/>
+      <c r="B63" s="419"/>
+      <c r="C63" s="416"/>
+      <c r="D63" s="416"/>
+      <c r="E63" s="416"/>
       <c r="F63" s="174" t="s">
         <v>120</v>
       </c>
@@ -6630,11 +6631,11 @@
       <c r="P63" s="174"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="409"/>
-      <c r="B64" s="412"/>
-      <c r="C64" s="409"/>
-      <c r="D64" s="409"/>
-      <c r="E64" s="409"/>
+      <c r="A64" s="417"/>
+      <c r="B64" s="420"/>
+      <c r="C64" s="417"/>
+      <c r="D64" s="417"/>
+      <c r="E64" s="417"/>
       <c r="F64" s="165" t="s">
         <v>132</v>
       </c>
@@ -6665,17 +6666,17 @@
       <c r="P64" s="165"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="407">
+      <c r="A65" s="415">
         <v>1204</v>
       </c>
-      <c r="B65" s="410">
+      <c r="B65" s="418">
         <v>44130</v>
       </c>
-      <c r="C65" s="407"/>
-      <c r="D65" s="407" t="s">
+      <c r="C65" s="415"/>
+      <c r="D65" s="415" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="407" t="s">
+      <c r="E65" s="415" t="s">
         <v>232</v>
       </c>
       <c r="F65" s="161" t="s">
@@ -6708,11 +6709,11 @@
       <c r="P65" s="161"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="408"/>
-      <c r="B66" s="411"/>
-      <c r="C66" s="408"/>
-      <c r="D66" s="408"/>
-      <c r="E66" s="408"/>
+      <c r="A66" s="416"/>
+      <c r="B66" s="419"/>
+      <c r="C66" s="416"/>
+      <c r="D66" s="416"/>
+      <c r="E66" s="416"/>
       <c r="F66" s="174" t="s">
         <v>125</v>
       </c>
@@ -6743,11 +6744,11 @@
       <c r="P66" s="174"/>
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="409"/>
-      <c r="B67" s="412"/>
-      <c r="C67" s="409"/>
-      <c r="D67" s="409"/>
-      <c r="E67" s="409"/>
+      <c r="A67" s="417"/>
+      <c r="B67" s="420"/>
+      <c r="C67" s="417"/>
+      <c r="D67" s="417"/>
+      <c r="E67" s="417"/>
       <c r="F67" s="165" t="s">
         <v>120</v>
       </c>
@@ -6946,17 +6947,17 @@
       <c r="P71" s="155"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="407">
+      <c r="A72" s="415">
         <v>1209</v>
       </c>
-      <c r="B72" s="410">
+      <c r="B72" s="418">
         <v>44135</v>
       </c>
-      <c r="C72" s="407"/>
-      <c r="D72" s="407" t="s">
+      <c r="C72" s="415"/>
+      <c r="D72" s="415" t="s">
         <v>211</v>
       </c>
-      <c r="E72" s="407" t="s">
+      <c r="E72" s="415" t="s">
         <v>236</v>
       </c>
       <c r="F72" s="161" t="s">
@@ -6989,11 +6990,11 @@
       <c r="P72" s="161"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="409"/>
-      <c r="B73" s="412"/>
-      <c r="C73" s="409"/>
-      <c r="D73" s="409"/>
-      <c r="E73" s="409"/>
+      <c r="A73" s="417"/>
+      <c r="B73" s="420"/>
+      <c r="C73" s="417"/>
+      <c r="D73" s="417"/>
+      <c r="E73" s="417"/>
       <c r="F73" s="165" t="s">
         <v>224</v>
       </c>
@@ -7209,14 +7210,14 @@
       <c r="P82" s="165"/>
     </row>
     <row r="83" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="429" t="s">
+      <c r="A83" s="409" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="429"/>
-      <c r="C83" s="429"/>
-      <c r="D83" s="429"/>
-      <c r="E83" s="429"/>
-      <c r="F83" s="429"/>
+      <c r="B83" s="409"/>
+      <c r="C83" s="409"/>
+      <c r="D83" s="409"/>
+      <c r="E83" s="409"/>
+      <c r="F83" s="409"/>
       <c r="G83" s="130">
         <f>SUM(G8:G82)</f>
         <v>1291</v>
@@ -7236,17 +7237,17 @@
       <c r="N83" s="131"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
-      <c r="Q83" s="422"/>
+      <c r="Q83" s="421"/>
     </row>
     <row r="84" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="423" t="s">
+      <c r="A84" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="423"/>
-      <c r="C84" s="423"/>
-      <c r="D84" s="423"/>
-      <c r="E84" s="423"/>
-      <c r="F84" s="423"/>
+      <c r="B84" s="408"/>
+      <c r="C84" s="408"/>
+      <c r="D84" s="408"/>
+      <c r="E84" s="408"/>
+      <c r="F84" s="408"/>
       <c r="G84" s="130">
         <f>G83</f>
         <v>1291</v>
@@ -7263,17 +7264,17 @@
       <c r="N84" s="135"/>
       <c r="O84" s="135"/>
       <c r="P84" s="135"/>
-      <c r="Q84" s="422"/>
+      <c r="Q84" s="421"/>
     </row>
     <row r="85" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="423" t="s">
+      <c r="A85" s="408" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="423"/>
-      <c r="C85" s="423"/>
-      <c r="D85" s="423"/>
-      <c r="E85" s="423"/>
-      <c r="F85" s="423"/>
+      <c r="B85" s="408"/>
+      <c r="C85" s="408"/>
+      <c r="D85" s="408"/>
+      <c r="E85" s="408"/>
+      <c r="F85" s="408"/>
       <c r="G85" s="136" t="s">
         <v>45</v>
       </c>
@@ -7291,14 +7292,14 @@
       <c r="P85" s="137"/>
     </row>
     <row r="86" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="423" t="s">
+      <c r="A86" s="408" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="423"/>
-      <c r="C86" s="423"/>
-      <c r="D86" s="423"/>
-      <c r="E86" s="423"/>
-      <c r="F86" s="423"/>
+      <c r="B86" s="408"/>
+      <c r="C86" s="408"/>
+      <c r="D86" s="408"/>
+      <c r="E86" s="408"/>
+      <c r="F86" s="408"/>
       <c r="G86" s="135"/>
       <c r="H86" s="135"/>
       <c r="I86" s="131"/>
@@ -7314,14 +7315,14 @@
       <c r="P86" s="137"/>
     </row>
     <row r="87" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="423" t="s">
+      <c r="A87" s="408" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="423"/>
-      <c r="C87" s="423"/>
-      <c r="D87" s="423"/>
-      <c r="E87" s="423"/>
-      <c r="F87" s="423"/>
+      <c r="B87" s="408"/>
+      <c r="C87" s="408"/>
+      <c r="D87" s="408"/>
+      <c r="E87" s="408"/>
+      <c r="F87" s="408"/>
       <c r="G87" s="135"/>
       <c r="H87" s="135"/>
       <c r="I87" s="131"/>
@@ -7392,6 +7393,89 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="107">
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A86:F86"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A83:F83"/>
@@ -7416,89 +7500,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7543,75 +7544,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="441" t="s">
+      <c r="A3" s="436" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="441"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="441"/>
-      <c r="F3" s="441"/>
-      <c r="G3" s="441"/>
-      <c r="H3" s="441"/>
-      <c r="I3" s="441"/>
-      <c r="J3" s="441"/>
-      <c r="K3" s="441"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
       <c r="L3" s="289"/>
       <c r="M3" s="289"/>
       <c r="N3" s="289"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="437" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="442"/>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
-      <c r="I4" s="442"/>
-      <c r="J4" s="443"/>
-      <c r="K4" s="442"/>
+      <c r="B4" s="437"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="437"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="437"/>
+      <c r="H4" s="437"/>
+      <c r="I4" s="437"/>
+      <c r="J4" s="438"/>
+      <c r="K4" s="437"/>
       <c r="L4" s="290"/>
       <c r="M4" s="290"/>
       <c r="N4" s="290"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="444" t="s">
+      <c r="A5" s="439" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="440" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="444" t="s">
+      <c r="C5" s="439" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="444" t="s">
+      <c r="D5" s="439" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="444"/>
-      <c r="F5" s="446" t="s">
+      <c r="E5" s="439"/>
+      <c r="F5" s="441" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="446"/>
-      <c r="H5" s="446"/>
-      <c r="I5" s="446"/>
-      <c r="J5" s="447"/>
-      <c r="K5" s="448" t="s">
+      <c r="G5" s="441"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="441"/>
+      <c r="J5" s="442"/>
+      <c r="K5" s="443" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="440" t="s">
+      <c r="L5" s="435" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="440"/>
-      <c r="N5" s="440"/>
+      <c r="M5" s="435"/>
+      <c r="N5" s="435"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="444"/>
-      <c r="B6" s="445"/>
-      <c r="C6" s="444"/>
+      <c r="A6" s="439"/>
+      <c r="B6" s="440"/>
+      <c r="C6" s="439"/>
       <c r="D6" s="291" t="s">
         <v>40</v>
       </c>
@@ -7633,7 +7634,7 @@
       <c r="J6" s="295" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="448"/>
+      <c r="K6" s="443"/>
       <c r="L6" s="296" t="s">
         <v>52</v>
       </c>
@@ -7684,19 +7685,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="433">
+      <c r="A8" s="444">
         <v>811</v>
       </c>
-      <c r="B8" s="436">
+      <c r="B8" s="446">
         <v>44107</v>
       </c>
-      <c r="C8" s="433" t="s">
+      <c r="C8" s="444" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="433" t="s">
+      <c r="D8" s="444" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="433"/>
+      <c r="E8" s="444"/>
       <c r="F8" s="297" t="s">
         <v>123</v>
       </c>
@@ -7725,11 +7726,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="435"/>
-      <c r="B9" s="438"/>
-      <c r="C9" s="435"/>
-      <c r="D9" s="435"/>
-      <c r="E9" s="435"/>
+      <c r="A9" s="445"/>
+      <c r="B9" s="447"/>
+      <c r="C9" s="445"/>
+      <c r="D9" s="445"/>
+      <c r="E9" s="445"/>
       <c r="F9" s="307" t="s">
         <v>124</v>
       </c>
@@ -7758,17 +7759,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="433">
+      <c r="A10" s="444">
         <v>817</v>
       </c>
-      <c r="B10" s="436">
+      <c r="B10" s="446">
         <v>44107</v>
       </c>
-      <c r="C10" s="433"/>
-      <c r="D10" s="433" t="s">
+      <c r="C10" s="444"/>
+      <c r="D10" s="444" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="433"/>
+      <c r="E10" s="444"/>
       <c r="F10" s="297" t="s">
         <v>123</v>
       </c>
@@ -7797,11 +7798,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="434"/>
-      <c r="B11" s="437"/>
-      <c r="C11" s="434"/>
-      <c r="D11" s="434"/>
-      <c r="E11" s="434"/>
+      <c r="A11" s="448"/>
+      <c r="B11" s="449"/>
+      <c r="C11" s="448"/>
+      <c r="D11" s="448"/>
+      <c r="E11" s="448"/>
       <c r="F11" s="302" t="s">
         <v>124</v>
       </c>
@@ -7830,11 +7831,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="435"/>
-      <c r="B12" s="438"/>
-      <c r="C12" s="435"/>
-      <c r="D12" s="435"/>
-      <c r="E12" s="435"/>
+      <c r="A12" s="445"/>
+      <c r="B12" s="447"/>
+      <c r="C12" s="445"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="445"/>
       <c r="F12" s="307" t="s">
         <v>125</v>
       </c>
@@ -7980,17 +7981,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="433">
+      <c r="A16" s="444">
         <v>815</v>
       </c>
-      <c r="B16" s="436">
+      <c r="B16" s="446">
         <v>44112</v>
       </c>
-      <c r="C16" s="433"/>
-      <c r="D16" s="433" t="s">
+      <c r="C16" s="444"/>
+      <c r="D16" s="444" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="433"/>
+      <c r="E16" s="444"/>
       <c r="F16" s="297" t="s">
         <v>123</v>
       </c>
@@ -8019,11 +8020,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="435"/>
-      <c r="B17" s="438"/>
-      <c r="C17" s="435"/>
-      <c r="D17" s="435"/>
-      <c r="E17" s="435"/>
+      <c r="A17" s="445"/>
+      <c r="B17" s="447"/>
+      <c r="C17" s="445"/>
+      <c r="D17" s="445"/>
+      <c r="E17" s="445"/>
       <c r="F17" s="307" t="s">
         <v>124</v>
       </c>
@@ -8052,17 +8053,17 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="433">
+      <c r="A18" s="444">
         <v>820</v>
       </c>
-      <c r="B18" s="436">
+      <c r="B18" s="446">
         <v>44113</v>
       </c>
-      <c r="C18" s="433"/>
-      <c r="D18" s="433" t="s">
+      <c r="C18" s="444"/>
+      <c r="D18" s="444" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="433"/>
+      <c r="E18" s="444"/>
       <c r="F18" s="297" t="s">
         <v>123</v>
       </c>
@@ -8091,11 +8092,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="435"/>
-      <c r="B19" s="438"/>
-      <c r="C19" s="435"/>
-      <c r="D19" s="435"/>
-      <c r="E19" s="435"/>
+      <c r="A19" s="445"/>
+      <c r="B19" s="447"/>
+      <c r="C19" s="445"/>
+      <c r="D19" s="445"/>
+      <c r="E19" s="445"/>
       <c r="F19" s="307" t="s">
         <v>124</v>
       </c>
@@ -8284,19 +8285,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="433">
+      <c r="A24" s="444">
         <v>845</v>
       </c>
-      <c r="B24" s="436">
+      <c r="B24" s="446">
         <v>44127</v>
       </c>
-      <c r="C24" s="433" t="s">
+      <c r="C24" s="444" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="433" t="s">
+      <c r="D24" s="444" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="433"/>
+      <c r="E24" s="444"/>
       <c r="F24" s="297" t="s">
         <v>124</v>
       </c>
@@ -8325,11 +8326,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="434"/>
-      <c r="B25" s="437"/>
-      <c r="C25" s="434"/>
-      <c r="D25" s="434"/>
-      <c r="E25" s="434"/>
+      <c r="A25" s="448"/>
+      <c r="B25" s="449"/>
+      <c r="C25" s="448"/>
+      <c r="D25" s="448"/>
+      <c r="E25" s="448"/>
       <c r="F25" s="302" t="s">
         <v>195</v>
       </c>
@@ -8358,11 +8359,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="434"/>
-      <c r="B26" s="437"/>
-      <c r="C26" s="434"/>
-      <c r="D26" s="434"/>
-      <c r="E26" s="434"/>
+      <c r="A26" s="448"/>
+      <c r="B26" s="449"/>
+      <c r="C26" s="448"/>
+      <c r="D26" s="448"/>
+      <c r="E26" s="448"/>
       <c r="F26" s="302" t="s">
         <v>196</v>
       </c>
@@ -8391,11 +8392,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="434"/>
-      <c r="B27" s="437"/>
-      <c r="C27" s="434"/>
-      <c r="D27" s="434"/>
-      <c r="E27" s="434"/>
+      <c r="A27" s="448"/>
+      <c r="B27" s="449"/>
+      <c r="C27" s="448"/>
+      <c r="D27" s="448"/>
+      <c r="E27" s="448"/>
       <c r="F27" s="302" t="s">
         <v>125</v>
       </c>
@@ -8424,11 +8425,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="434"/>
-      <c r="B28" s="437"/>
-      <c r="C28" s="434"/>
-      <c r="D28" s="434"/>
-      <c r="E28" s="434"/>
+      <c r="A28" s="448"/>
+      <c r="B28" s="449"/>
+      <c r="C28" s="448"/>
+      <c r="D28" s="448"/>
+      <c r="E28" s="448"/>
       <c r="F28" s="302" t="s">
         <v>194</v>
       </c>
@@ -8457,11 +8458,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="434"/>
-      <c r="B29" s="437"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
+      <c r="A29" s="448"/>
+      <c r="B29" s="449"/>
+      <c r="C29" s="448"/>
+      <c r="D29" s="448"/>
+      <c r="E29" s="448"/>
       <c r="F29" s="302" t="s">
         <v>120</v>
       </c>
@@ -8490,11 +8491,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="435"/>
-      <c r="B30" s="438"/>
-      <c r="C30" s="435"/>
-      <c r="D30" s="435"/>
-      <c r="E30" s="435"/>
+      <c r="A30" s="445"/>
+      <c r="B30" s="447"/>
+      <c r="C30" s="445"/>
+      <c r="D30" s="445"/>
+      <c r="E30" s="445"/>
       <c r="F30" s="307" t="s">
         <v>132</v>
       </c>
@@ -8562,17 +8563,17 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="433">
+      <c r="A32" s="444">
         <v>1203</v>
       </c>
-      <c r="B32" s="436">
+      <c r="B32" s="446">
         <v>44130</v>
       </c>
-      <c r="C32" s="433"/>
-      <c r="D32" s="433" t="s">
+      <c r="C32" s="444"/>
+      <c r="D32" s="444" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="433"/>
+      <c r="E32" s="444"/>
       <c r="F32" s="297" t="s">
         <v>199</v>
       </c>
@@ -8601,11 +8602,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="434"/>
-      <c r="B33" s="437"/>
-      <c r="C33" s="434"/>
-      <c r="D33" s="434"/>
-      <c r="E33" s="434"/>
+      <c r="A33" s="448"/>
+      <c r="B33" s="449"/>
+      <c r="C33" s="448"/>
+      <c r="D33" s="448"/>
+      <c r="E33" s="448"/>
       <c r="F33" s="302" t="s">
         <v>195</v>
       </c>
@@ -8634,11 +8635,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="434"/>
-      <c r="B34" s="437"/>
-      <c r="C34" s="434"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
+      <c r="A34" s="448"/>
+      <c r="B34" s="449"/>
+      <c r="C34" s="448"/>
+      <c r="D34" s="448"/>
+      <c r="E34" s="448"/>
       <c r="F34" s="302" t="s">
         <v>138</v>
       </c>
@@ -8667,11 +8668,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="435"/>
-      <c r="B35" s="438"/>
-      <c r="C35" s="435"/>
-      <c r="D35" s="435"/>
-      <c r="E35" s="435"/>
+      <c r="A35" s="445"/>
+      <c r="B35" s="447"/>
+      <c r="C35" s="445"/>
+      <c r="D35" s="445"/>
+      <c r="E35" s="445"/>
       <c r="F35" s="307" t="s">
         <v>120</v>
       </c>
@@ -8778,13 +8779,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="318" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="439" t="s">
+      <c r="A38" s="434" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="439"/>
-      <c r="C38" s="439"/>
-      <c r="D38" s="439"/>
-      <c r="E38" s="439"/>
+      <c r="B38" s="434"/>
+      <c r="C38" s="434"/>
+      <c r="D38" s="434"/>
+      <c r="E38" s="434"/>
       <c r="F38" s="312"/>
       <c r="G38" s="312">
         <f>SUM(G7:G37)</f>
@@ -8872,6 +8873,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -8888,30 +8913,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8972,24 +8973,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="450" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="449"/>
-      <c r="C4" s="449"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="449"/>
+      <c r="B4" s="450"/>
+      <c r="C4" s="450"/>
+      <c r="D4" s="450"/>
+      <c r="E4" s="450"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="450" t="s">
+      <c r="A5" s="451" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="450"/>
-      <c r="C5" s="450"/>
-      <c r="D5" s="450"/>
-      <c r="E5" s="450"/>
+      <c r="B5" s="451"/>
+      <c r="C5" s="451"/>
+      <c r="D5" s="451"/>
+      <c r="E5" s="451"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -9068,7 +9069,7 @@
         <f>'DOANH THU'!L85</f>
         <v>8029900.0000000009</v>
       </c>
-      <c r="E10" s="451">
+      <c r="E10" s="452">
         <f>D10+D11+D12</f>
         <v>107958300</v>
       </c>
@@ -9087,7 +9088,7 @@
         <f>'DOANH THU'!L86</f>
         <v>99928400</v>
       </c>
-      <c r="E11" s="452"/>
+      <c r="E11" s="453"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -9098,7 +9099,7 @@
       <c r="B12" s="117"/>
       <c r="C12" s="117"/>
       <c r="D12" s="140"/>
-      <c r="E12" s="453"/>
+      <c r="E12" s="454"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -9353,8 +9354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9375,13 +9376,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9401,172 +9402,172 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="457" t="s">
+      <c r="A4" s="483" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="457"/>
-      <c r="C4" s="457"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="457"/>
-      <c r="G4" s="457"/>
-      <c r="H4" s="457"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="483"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="458" t="s">
+      <c r="A6" s="484" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458"/>
-      <c r="D6" s="458"/>
-      <c r="E6" s="458"/>
-      <c r="F6" s="458"/>
-      <c r="G6" s="459" t="s">
+      <c r="B6" s="484"/>
+      <c r="C6" s="484"/>
+      <c r="D6" s="484"/>
+      <c r="E6" s="484"/>
+      <c r="F6" s="484"/>
+      <c r="G6" s="485" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="459"/>
+      <c r="H6" s="485"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="472" t="s">
+      <c r="A7" s="476" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="473"/>
+      <c r="B7" s="477"/>
       <c r="C7" s="265"/>
       <c r="D7" s="266"/>
       <c r="E7" s="65" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="470">
+      <c r="G7" s="474">
         <v>4744538</v>
       </c>
-      <c r="H7" s="471"/>
-      <c r="I7" s="454" t="s">
+      <c r="H7" s="475"/>
+      <c r="I7" s="480" t="s">
         <v>244</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="481"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="474"/>
-      <c r="B8" s="475"/>
+      <c r="A8" s="478"/>
+      <c r="B8" s="479"/>
       <c r="C8" s="265"/>
       <c r="D8" s="266"/>
       <c r="E8" s="65" t="s">
         <v>180</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="470">
+      <c r="G8" s="474">
         <v>6713000</v>
       </c>
-      <c r="H8" s="471"/>
-      <c r="I8" s="454"/>
-      <c r="J8" s="455"/>
+      <c r="H8" s="475"/>
+      <c r="I8" s="480"/>
+      <c r="J8" s="481"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="460" t="s">
+      <c r="A9" s="464" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
-      <c r="D9" s="462"/>
+      <c r="B9" s="465"/>
+      <c r="C9" s="465"/>
+      <c r="D9" s="466"/>
       <c r="E9" s="257" t="s">
         <v>183</v>
       </c>
       <c r="F9" s="258">
         <v>382000</v>
       </c>
-      <c r="G9" s="466">
+      <c r="G9" s="470">
         <f>SUM(F9:F13)</f>
         <v>3625000</v>
       </c>
-      <c r="H9" s="467"/>
+      <c r="H9" s="471"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="463"/>
-      <c r="B10" s="464"/>
-      <c r="C10" s="464"/>
-      <c r="D10" s="465"/>
+      <c r="A10" s="467"/>
+      <c r="B10" s="468"/>
+      <c r="C10" s="468"/>
+      <c r="D10" s="469"/>
       <c r="E10" s="257" t="s">
         <v>184</v>
       </c>
       <c r="F10" s="258">
         <v>997000</v>
       </c>
-      <c r="G10" s="468"/>
-      <c r="H10" s="469"/>
+      <c r="G10" s="472"/>
+      <c r="H10" s="473"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="463"/>
-      <c r="B11" s="464"/>
-      <c r="C11" s="464"/>
-      <c r="D11" s="465"/>
+      <c r="A11" s="467"/>
+      <c r="B11" s="468"/>
+      <c r="C11" s="468"/>
+      <c r="D11" s="469"/>
       <c r="E11" s="257" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="258">
         <v>417000</v>
       </c>
-      <c r="G11" s="468"/>
-      <c r="H11" s="469"/>
+      <c r="G11" s="472"/>
+      <c r="H11" s="473"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="463"/>
-      <c r="B12" s="464"/>
-      <c r="C12" s="464"/>
-      <c r="D12" s="465"/>
+      <c r="A12" s="467"/>
+      <c r="B12" s="468"/>
+      <c r="C12" s="468"/>
+      <c r="D12" s="469"/>
       <c r="E12" s="257" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="258">
         <v>914000</v>
       </c>
-      <c r="G12" s="468"/>
-      <c r="H12" s="469"/>
+      <c r="G12" s="472"/>
+      <c r="H12" s="473"/>
     </row>
     <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="463"/>
-      <c r="B13" s="464"/>
-      <c r="C13" s="464"/>
-      <c r="D13" s="465"/>
+      <c r="A13" s="467"/>
+      <c r="B13" s="468"/>
+      <c r="C13" s="468"/>
+      <c r="D13" s="469"/>
       <c r="E13" s="267" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="258">
         <v>915000</v>
       </c>
-      <c r="G13" s="468"/>
-      <c r="H13" s="469"/>
+      <c r="G13" s="472"/>
+      <c r="H13" s="473"/>
       <c r="O13" s="274"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="479" t="s">
+      <c r="A14" s="458" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="479"/>
-      <c r="C14" s="479"/>
-      <c r="D14" s="479"/>
-      <c r="E14" s="479"/>
-      <c r="F14" s="479"/>
-      <c r="G14" s="480">
+      <c r="B14" s="458"/>
+      <c r="C14" s="458"/>
+      <c r="D14" s="458"/>
+      <c r="E14" s="458"/>
+      <c r="F14" s="458"/>
+      <c r="G14" s="459">
         <f>'Bảng lương'!F12</f>
         <v>6576923.076923077</v>
       </c>
-      <c r="H14" s="480"/>
+      <c r="H14" s="459"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="481" t="s">
+      <c r="A15" s="460" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="481"/>
-      <c r="C15" s="481"/>
-      <c r="D15" s="481"/>
-      <c r="E15" s="481"/>
-      <c r="F15" s="481"/>
-      <c r="G15" s="482">
+      <c r="B15" s="460"/>
+      <c r="C15" s="460"/>
+      <c r="D15" s="460"/>
+      <c r="E15" s="460"/>
+      <c r="F15" s="460"/>
+      <c r="G15" s="461">
         <f>G7+G8+G9+G14</f>
         <v>21659461.076923076</v>
       </c>
-      <c r="H15" s="482"/>
+      <c r="H15" s="461"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="275" t="s">
@@ -9579,10 +9580,10 @@
       <c r="K17" s="274"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="483">
+      <c r="A18" s="462">
         <v>44106</v>
       </c>
-      <c r="B18" s="483"/>
+      <c r="B18" s="462"/>
       <c r="C18" s="269"/>
       <c r="D18" s="269"/>
       <c r="E18" s="269" t="s">
@@ -9595,10 +9596,10 @@
       <c r="P18" s="274"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="483">
+      <c r="A19" s="462">
         <v>44116</v>
       </c>
-      <c r="B19" s="483"/>
+      <c r="B19" s="462"/>
       <c r="C19" s="269"/>
       <c r="D19" s="269"/>
       <c r="E19" s="269" t="s">
@@ -9610,10 +9611,10 @@
       <c r="K19" s="274"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="483">
+      <c r="A20" s="462">
         <v>44120</v>
       </c>
-      <c r="B20" s="483"/>
+      <c r="B20" s="462"/>
       <c r="C20" s="269"/>
       <c r="D20" s="269"/>
       <c r="E20" s="269" t="s">
@@ -9624,10 +9625,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="484">
+      <c r="A21" s="463">
         <v>44128</v>
       </c>
-      <c r="B21" s="484"/>
+      <c r="B21" s="463"/>
       <c r="C21" s="269"/>
       <c r="D21" s="269"/>
       <c r="E21" s="350" t="s">
@@ -9641,10 +9642,10 @@
       <c r="M21" s="274"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="483">
+      <c r="A22" s="462">
         <v>44131</v>
       </c>
-      <c r="B22" s="483"/>
+      <c r="B22" s="462"/>
       <c r="C22" s="269"/>
       <c r="D22" s="269"/>
       <c r="E22" s="282" t="s">
@@ -9656,13 +9657,13 @@
       <c r="M22" s="274"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="476" t="s">
+      <c r="A23" s="455" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="477"/>
-      <c r="C23" s="477"/>
-      <c r="D23" s="477"/>
-      <c r="E23" s="478"/>
+      <c r="B23" s="456"/>
+      <c r="C23" s="456"/>
+      <c r="D23" s="456"/>
+      <c r="E23" s="457"/>
       <c r="F23" s="276">
         <f>SUM(F18:F22)</f>
         <v>7558900</v>
@@ -9722,6 +9723,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -9732,16 +9743,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10282,16 +10283,16 @@
       <c r="C1" s="214"/>
       <c r="D1" s="214"/>
       <c r="E1" s="214"/>
-      <c r="Z1" s="503" t="s">
+      <c r="Z1" s="491" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="504"/>
-      <c r="AB1" s="504"/>
-      <c r="AC1" s="504"/>
-      <c r="AD1" s="504"/>
-      <c r="AE1" s="504"/>
-      <c r="AF1" s="504"/>
-      <c r="AG1" s="505"/>
+      <c r="AA1" s="492"/>
+      <c r="AB1" s="492"/>
+      <c r="AC1" s="492"/>
+      <c r="AD1" s="492"/>
+      <c r="AE1" s="492"/>
+      <c r="AF1" s="492"/>
+      <c r="AG1" s="493"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
@@ -10388,93 +10389,93 @@
       <c r="E6" s="219"/>
     </row>
     <row r="7" spans="1:40" s="222" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="491" t="s">
+      <c r="A7" s="495" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="491"/>
-      <c r="G7" s="491"/>
-      <c r="H7" s="491"/>
-      <c r="I7" s="491"/>
-      <c r="J7" s="491"/>
-      <c r="K7" s="491"/>
-      <c r="L7" s="491"/>
-      <c r="M7" s="491"/>
-      <c r="N7" s="491"/>
-      <c r="O7" s="491"/>
-      <c r="P7" s="491"/>
-      <c r="Q7" s="491"/>
-      <c r="R7" s="491"/>
-      <c r="S7" s="491"/>
-      <c r="T7" s="491"/>
-      <c r="U7" s="491"/>
-      <c r="V7" s="491"/>
-      <c r="W7" s="491"/>
-      <c r="X7" s="491"/>
-      <c r="Y7" s="491"/>
-      <c r="Z7" s="491"/>
-      <c r="AA7" s="491"/>
-      <c r="AB7" s="491"/>
-      <c r="AC7" s="491"/>
-      <c r="AD7" s="491"/>
-      <c r="AE7" s="491"/>
-      <c r="AF7" s="491"/>
-      <c r="AG7" s="491"/>
-      <c r="AH7" s="491"/>
-      <c r="AI7" s="491"/>
-      <c r="AJ7" s="491"/>
-      <c r="AK7" s="491"/>
-      <c r="AL7" s="491"/>
-      <c r="AM7" s="491"/>
+      <c r="B7" s="495"/>
+      <c r="C7" s="495"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
+      <c r="F7" s="495"/>
+      <c r="G7" s="495"/>
+      <c r="H7" s="495"/>
+      <c r="I7" s="495"/>
+      <c r="J7" s="495"/>
+      <c r="K7" s="495"/>
+      <c r="L7" s="495"/>
+      <c r="M7" s="495"/>
+      <c r="N7" s="495"/>
+      <c r="O7" s="495"/>
+      <c r="P7" s="495"/>
+      <c r="Q7" s="495"/>
+      <c r="R7" s="495"/>
+      <c r="S7" s="495"/>
+      <c r="T7" s="495"/>
+      <c r="U7" s="495"/>
+      <c r="V7" s="495"/>
+      <c r="W7" s="495"/>
+      <c r="X7" s="495"/>
+      <c r="Y7" s="495"/>
+      <c r="Z7" s="495"/>
+      <c r="AA7" s="495"/>
+      <c r="AB7" s="495"/>
+      <c r="AC7" s="495"/>
+      <c r="AD7" s="495"/>
+      <c r="AE7" s="495"/>
+      <c r="AF7" s="495"/>
+      <c r="AG7" s="495"/>
+      <c r="AH7" s="495"/>
+      <c r="AI7" s="495"/>
+      <c r="AJ7" s="495"/>
+      <c r="AK7" s="495"/>
+      <c r="AL7" s="495"/>
+      <c r="AM7" s="495"/>
       <c r="AN7" s="221"/>
     </row>
     <row r="9" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="492" t="s">
+      <c r="A9" s="496" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="492" t="s">
+      <c r="B9" s="496" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="492" t="s">
+      <c r="C9" s="496" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="495" t="s">
+      <c r="D9" s="499" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="496"/>
-      <c r="F9" s="496"/>
-      <c r="G9" s="496"/>
-      <c r="H9" s="496"/>
-      <c r="I9" s="496"/>
-      <c r="J9" s="496"/>
-      <c r="K9" s="496"/>
-      <c r="L9" s="496"/>
-      <c r="M9" s="496"/>
-      <c r="N9" s="496"/>
-      <c r="O9" s="496"/>
-      <c r="P9" s="496"/>
-      <c r="Q9" s="496"/>
-      <c r="R9" s="496"/>
-      <c r="S9" s="496"/>
-      <c r="T9" s="496"/>
-      <c r="U9" s="496"/>
-      <c r="V9" s="496"/>
-      <c r="W9" s="496"/>
-      <c r="X9" s="496"/>
-      <c r="Y9" s="496"/>
-      <c r="Z9" s="496"/>
-      <c r="AA9" s="496"/>
-      <c r="AB9" s="496"/>
-      <c r="AC9" s="496"/>
-      <c r="AD9" s="496"/>
-      <c r="AE9" s="496"/>
-      <c r="AF9" s="496"/>
-      <c r="AG9" s="496"/>
-      <c r="AH9" s="497"/>
-      <c r="AI9" s="498" t="s">
+      <c r="E9" s="500"/>
+      <c r="F9" s="500"/>
+      <c r="G9" s="500"/>
+      <c r="H9" s="500"/>
+      <c r="I9" s="500"/>
+      <c r="J9" s="500"/>
+      <c r="K9" s="500"/>
+      <c r="L9" s="500"/>
+      <c r="M9" s="500"/>
+      <c r="N9" s="500"/>
+      <c r="O9" s="500"/>
+      <c r="P9" s="500"/>
+      <c r="Q9" s="500"/>
+      <c r="R9" s="500"/>
+      <c r="S9" s="500"/>
+      <c r="T9" s="500"/>
+      <c r="U9" s="500"/>
+      <c r="V9" s="500"/>
+      <c r="W9" s="500"/>
+      <c r="X9" s="500"/>
+      <c r="Y9" s="500"/>
+      <c r="Z9" s="500"/>
+      <c r="AA9" s="500"/>
+      <c r="AB9" s="500"/>
+      <c r="AC9" s="500"/>
+      <c r="AD9" s="500"/>
+      <c r="AE9" s="500"/>
+      <c r="AF9" s="500"/>
+      <c r="AG9" s="500"/>
+      <c r="AH9" s="501"/>
+      <c r="AI9" s="502" t="s">
         <v>163</v>
       </c>
       <c r="AJ9" s="223"/>
@@ -10484,9 +10485,9 @@
       <c r="AN9" s="226"/>
     </row>
     <row r="10" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="493"/>
-      <c r="B10" s="493"/>
-      <c r="C10" s="493"/>
+      <c r="A10" s="497"/>
+      <c r="B10" s="497"/>
+      <c r="C10" s="497"/>
       <c r="D10" s="228">
         <v>1</v>
       </c>
@@ -10580,7 +10581,7 @@
       <c r="AH10" s="228">
         <v>31</v>
       </c>
-      <c r="AI10" s="498"/>
+      <c r="AI10" s="502"/>
       <c r="AJ10" s="229"/>
       <c r="AK10" s="225"/>
       <c r="AL10" s="225"/>
@@ -10588,9 +10589,9 @@
       <c r="AN10" s="226"/>
     </row>
     <row r="11" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="494"/>
-      <c r="B11" s="494"/>
-      <c r="C11" s="494"/>
+      <c r="A11" s="498"/>
+      <c r="B11" s="498"/>
+      <c r="C11" s="498"/>
       <c r="D11" s="228" t="s">
         <v>165</v>
       </c>
@@ -10684,7 +10685,7 @@
       <c r="AH11" s="230" t="s">
         <v>167</v>
       </c>
-      <c r="AI11" s="498"/>
+      <c r="AI11" s="502"/>
       <c r="AJ11" s="232"/>
       <c r="AN11" s="234"/>
     </row>
@@ -10898,7 +10899,7 @@
         <v>149</v>
       </c>
       <c r="AI13" s="237">
-        <f t="shared" ref="AI13:AI15" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
+        <f>COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
         <v>28.5</v>
       </c>
       <c r="AJ13" s="232"/>
@@ -11002,7 +11003,7 @@
         <v>149</v>
       </c>
       <c r="AI14" s="237">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D14:AH14,"x")+ COUNTIF(D14:AH14,"x/2")/2+COUNTIF(D14:AH14,"CT")+COUNTIF(D14:AH14,"TT")</f>
         <v>27</v>
       </c>
       <c r="AJ14" s="232"/>
@@ -11062,17 +11063,17 @@
         <v>149</v>
       </c>
       <c r="AI15" s="237">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D15:AH15,"x")+ COUNTIF(D15:AH15,"x/2")/2+COUNTIF(D15:AH15,"CT")+COUNTIF(D15:AH15,"TT")</f>
         <v>6</v>
       </c>
       <c r="AJ15" s="232"/>
       <c r="AN15" s="234"/>
     </row>
     <row r="16" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="499" t="s">
+      <c r="A16" s="503" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="500"/>
+      <c r="B16" s="504"/>
       <c r="C16" s="240"/>
       <c r="D16" s="240"/>
       <c r="E16" s="241"/>
@@ -11115,49 +11116,49 @@
       <c r="AN16" s="234"/>
     </row>
     <row r="18" spans="1:40" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="501" t="s">
+      <c r="A18" s="505" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="501"/>
-      <c r="C18" s="501"/>
-      <c r="D18" s="501"/>
-      <c r="E18" s="501"/>
-      <c r="F18" s="501"/>
-      <c r="G18" s="501"/>
+      <c r="B18" s="505"/>
+      <c r="C18" s="505"/>
+      <c r="D18" s="505"/>
+      <c r="E18" s="505"/>
+      <c r="F18" s="505"/>
+      <c r="G18" s="505"/>
       <c r="H18" s="245"/>
-      <c r="I18" s="502"/>
-      <c r="J18" s="502"/>
-      <c r="K18" s="502"/>
-      <c r="L18" s="502"/>
-      <c r="M18" s="502"/>
+      <c r="I18" s="506"/>
+      <c r="J18" s="506"/>
+      <c r="K18" s="506"/>
+      <c r="L18" s="506"/>
+      <c r="M18" s="506"/>
       <c r="N18" s="246"/>
-      <c r="O18" s="502" t="s">
+      <c r="O18" s="506" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="502"/>
-      <c r="Q18" s="502"/>
-      <c r="R18" s="502"/>
-      <c r="S18" s="502"/>
-      <c r="T18" s="502"/>
-      <c r="U18" s="502"/>
-      <c r="V18" s="502"/>
-      <c r="W18" s="502"/>
-      <c r="X18" s="502"/>
-      <c r="Y18" s="502"/>
+      <c r="P18" s="506"/>
+      <c r="Q18" s="506"/>
+      <c r="R18" s="506"/>
+      <c r="S18" s="506"/>
+      <c r="T18" s="506"/>
+      <c r="U18" s="506"/>
+      <c r="V18" s="506"/>
+      <c r="W18" s="506"/>
+      <c r="X18" s="506"/>
+      <c r="Y18" s="506"/>
       <c r="Z18" s="247"/>
       <c r="AA18" s="247"/>
       <c r="AB18" s="248"/>
-      <c r="AC18" s="502"/>
-      <c r="AD18" s="502"/>
-      <c r="AE18" s="502"/>
-      <c r="AF18" s="502"/>
-      <c r="AG18" s="502"/>
-      <c r="AH18" s="502"/>
-      <c r="AI18" s="502"/>
-      <c r="AJ18" s="502"/>
-      <c r="AK18" s="502"/>
-      <c r="AL18" s="502"/>
-      <c r="AM18" s="502"/>
+      <c r="AC18" s="506"/>
+      <c r="AD18" s="506"/>
+      <c r="AE18" s="506"/>
+      <c r="AF18" s="506"/>
+      <c r="AG18" s="506"/>
+      <c r="AH18" s="506"/>
+      <c r="AI18" s="506"/>
+      <c r="AJ18" s="506"/>
+      <c r="AK18" s="506"/>
+      <c r="AL18" s="506"/>
+      <c r="AM18" s="506"/>
       <c r="AN18" s="249"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -11191,131 +11192,131 @@
       <c r="AN33" s="254"/>
     </row>
     <row r="34" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="485"/>
-      <c r="H34" s="485"/>
-      <c r="I34" s="485"/>
-      <c r="J34" s="485"/>
-      <c r="K34" s="485"/>
-      <c r="L34" s="485"/>
-      <c r="M34" s="485"/>
-      <c r="N34" s="485"/>
-      <c r="O34" s="485"/>
-      <c r="P34" s="485"/>
-      <c r="Q34" s="485"/>
-      <c r="R34" s="485"/>
-      <c r="S34" s="485"/>
-      <c r="T34" s="485"/>
-      <c r="U34" s="485"/>
-      <c r="V34" s="485"/>
-      <c r="W34" s="485"/>
-      <c r="X34" s="485"/>
+      <c r="G34" s="494"/>
+      <c r="H34" s="494"/>
+      <c r="I34" s="494"/>
+      <c r="J34" s="494"/>
+      <c r="K34" s="494"/>
+      <c r="L34" s="494"/>
+      <c r="M34" s="494"/>
+      <c r="N34" s="494"/>
+      <c r="O34" s="494"/>
+      <c r="P34" s="494"/>
+      <c r="Q34" s="494"/>
+      <c r="R34" s="494"/>
+      <c r="S34" s="494"/>
+      <c r="T34" s="494"/>
+      <c r="U34" s="494"/>
+      <c r="V34" s="494"/>
+      <c r="W34" s="494"/>
+      <c r="X34" s="494"/>
       <c r="AN34" s="254"/>
     </row>
     <row r="35" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="485"/>
-      <c r="H35" s="485"/>
-      <c r="I35" s="485"/>
-      <c r="J35" s="485"/>
-      <c r="K35" s="485"/>
-      <c r="L35" s="485"/>
-      <c r="M35" s="485"/>
-      <c r="N35" s="485"/>
-      <c r="O35" s="485"/>
-      <c r="P35" s="485"/>
-      <c r="Q35" s="485"/>
-      <c r="R35" s="485"/>
-      <c r="S35" s="485"/>
-      <c r="T35" s="485"/>
-      <c r="U35" s="485"/>
-      <c r="V35" s="485"/>
-      <c r="W35" s="485"/>
-      <c r="X35" s="485"/>
+      <c r="G35" s="494"/>
+      <c r="H35" s="494"/>
+      <c r="I35" s="494"/>
+      <c r="J35" s="494"/>
+      <c r="K35" s="494"/>
+      <c r="L35" s="494"/>
+      <c r="M35" s="494"/>
+      <c r="N35" s="494"/>
+      <c r="O35" s="494"/>
+      <c r="P35" s="494"/>
+      <c r="Q35" s="494"/>
+      <c r="R35" s="494"/>
+      <c r="S35" s="494"/>
+      <c r="T35" s="494"/>
+      <c r="U35" s="494"/>
+      <c r="V35" s="494"/>
+      <c r="W35" s="494"/>
+      <c r="X35" s="494"/>
       <c r="AN35" s="254"/>
     </row>
     <row r="36" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="485"/>
-      <c r="H36" s="485"/>
-      <c r="I36" s="485"/>
-      <c r="J36" s="485"/>
-      <c r="K36" s="485"/>
-      <c r="L36" s="485"/>
-      <c r="M36" s="485"/>
-      <c r="N36" s="485"/>
-      <c r="O36" s="485"/>
-      <c r="P36" s="485"/>
-      <c r="Q36" s="485"/>
-      <c r="R36" s="485"/>
-      <c r="S36" s="485"/>
-      <c r="T36" s="485"/>
-      <c r="U36" s="485"/>
-      <c r="V36" s="485"/>
-      <c r="W36" s="485"/>
-      <c r="X36" s="485"/>
+      <c r="G36" s="494"/>
+      <c r="H36" s="494"/>
+      <c r="I36" s="494"/>
+      <c r="J36" s="494"/>
+      <c r="K36" s="494"/>
+      <c r="L36" s="494"/>
+      <c r="M36" s="494"/>
+      <c r="N36" s="494"/>
+      <c r="O36" s="494"/>
+      <c r="P36" s="494"/>
+      <c r="Q36" s="494"/>
+      <c r="R36" s="494"/>
+      <c r="S36" s="494"/>
+      <c r="T36" s="494"/>
+      <c r="U36" s="494"/>
+      <c r="V36" s="494"/>
+      <c r="W36" s="494"/>
+      <c r="X36" s="494"/>
       <c r="AN36" s="254"/>
     </row>
     <row r="37" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="485"/>
-      <c r="H37" s="485"/>
-      <c r="I37" s="485"/>
-      <c r="J37" s="485"/>
-      <c r="K37" s="485"/>
-      <c r="L37" s="485"/>
-      <c r="M37" s="485"/>
-      <c r="N37" s="485"/>
-      <c r="O37" s="485"/>
-      <c r="P37" s="485"/>
-      <c r="Q37" s="485"/>
-      <c r="R37" s="485"/>
-      <c r="S37" s="485"/>
-      <c r="T37" s="485"/>
-      <c r="U37" s="485"/>
-      <c r="V37" s="485"/>
-      <c r="W37" s="485"/>
-      <c r="X37" s="485"/>
+      <c r="G37" s="494"/>
+      <c r="H37" s="494"/>
+      <c r="I37" s="494"/>
+      <c r="J37" s="494"/>
+      <c r="K37" s="494"/>
+      <c r="L37" s="494"/>
+      <c r="M37" s="494"/>
+      <c r="N37" s="494"/>
+      <c r="O37" s="494"/>
+      <c r="P37" s="494"/>
+      <c r="Q37" s="494"/>
+      <c r="R37" s="494"/>
+      <c r="S37" s="494"/>
+      <c r="T37" s="494"/>
+      <c r="U37" s="494"/>
+      <c r="V37" s="494"/>
+      <c r="W37" s="494"/>
+      <c r="X37" s="494"/>
       <c r="AN37" s="254"/>
     </row>
     <row r="38" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="485"/>
-      <c r="H38" s="485"/>
-      <c r="I38" s="485"/>
-      <c r="J38" s="485"/>
-      <c r="K38" s="485"/>
-      <c r="L38" s="485"/>
-      <c r="M38" s="485"/>
-      <c r="N38" s="485"/>
-      <c r="O38" s="485"/>
-      <c r="P38" s="485"/>
-      <c r="Q38" s="485"/>
-      <c r="R38" s="485"/>
-      <c r="S38" s="485"/>
-      <c r="T38" s="485"/>
-      <c r="U38" s="485"/>
-      <c r="V38" s="485"/>
-      <c r="W38" s="485"/>
-      <c r="X38" s="485"/>
+      <c r="G38" s="494"/>
+      <c r="H38" s="494"/>
+      <c r="I38" s="494"/>
+      <c r="J38" s="494"/>
+      <c r="K38" s="494"/>
+      <c r="L38" s="494"/>
+      <c r="M38" s="494"/>
+      <c r="N38" s="494"/>
+      <c r="O38" s="494"/>
+      <c r="P38" s="494"/>
+      <c r="Q38" s="494"/>
+      <c r="R38" s="494"/>
+      <c r="S38" s="494"/>
+      <c r="T38" s="494"/>
+      <c r="U38" s="494"/>
+      <c r="V38" s="494"/>
+      <c r="W38" s="494"/>
+      <c r="X38" s="494"/>
       <c r="AN38" s="254"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="215"/>
       <c r="D39" s="215"/>
-      <c r="G39" s="485"/>
-      <c r="H39" s="485"/>
-      <c r="I39" s="485"/>
-      <c r="J39" s="485"/>
-      <c r="K39" s="485"/>
-      <c r="L39" s="485"/>
-      <c r="M39" s="485"/>
-      <c r="N39" s="485"/>
-      <c r="O39" s="485"/>
-      <c r="P39" s="485"/>
-      <c r="Q39" s="485"/>
-      <c r="R39" s="485"/>
-      <c r="S39" s="485"/>
-      <c r="T39" s="485"/>
-      <c r="U39" s="485"/>
-      <c r="V39" s="485"/>
-      <c r="W39" s="485"/>
-      <c r="X39" s="485"/>
+      <c r="G39" s="494"/>
+      <c r="H39" s="494"/>
+      <c r="I39" s="494"/>
+      <c r="J39" s="494"/>
+      <c r="K39" s="494"/>
+      <c r="L39" s="494"/>
+      <c r="M39" s="494"/>
+      <c r="N39" s="494"/>
+      <c r="O39" s="494"/>
+      <c r="P39" s="494"/>
+      <c r="Q39" s="494"/>
+      <c r="R39" s="494"/>
+      <c r="S39" s="494"/>
+      <c r="T39" s="494"/>
+      <c r="U39" s="494"/>
+      <c r="V39" s="494"/>
+      <c r="W39" s="494"/>
+      <c r="X39" s="494"/>
       <c r="AN39" s="215"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -11325,13 +11326,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11346,8 +11340,16 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11355,8 +11357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12195,38 +12197,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="514" t="s">
+      <c r="A1" s="515" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="514"/>
-      <c r="C1" s="514"/>
-      <c r="D1" s="514"/>
+      <c r="B1" s="515"/>
+      <c r="C1" s="515"/>
+      <c r="D1" s="515"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="515" t="s">
+      <c r="F1" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="515"/>
-      <c r="H1" s="515"/>
-      <c r="I1" s="515"/>
-      <c r="J1" s="515"/>
-      <c r="K1" s="515"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
+      <c r="K1" s="516"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="516" t="s">
+      <c r="A2" s="517" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="516"/>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="517" t="s">
+      <c r="F2" s="518" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="517"/>
-      <c r="H2" s="517"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
-      <c r="K2" s="517"/>
+      <c r="G2" s="518"/>
+      <c r="H2" s="518"/>
+      <c r="I2" s="518"/>
+      <c r="J2" s="518"/>
+      <c r="K2" s="518"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -12239,43 +12241,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="518" t="s">
+      <c r="A4" s="519" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="518"/>
-      <c r="C4" s="518"/>
-      <c r="D4" s="518"/>
-      <c r="E4" s="518"/>
-      <c r="F4" s="518"/>
-      <c r="G4" s="518"/>
-      <c r="H4" s="518"/>
-      <c r="I4" s="518"/>
-      <c r="J4" s="518"/>
-      <c r="K4" s="518"/>
-      <c r="L4" s="518"/>
+      <c r="B4" s="519"/>
+      <c r="C4" s="519"/>
+      <c r="D4" s="519"/>
+      <c r="E4" s="519"/>
+      <c r="F4" s="519"/>
+      <c r="G4" s="519"/>
+      <c r="H4" s="519"/>
+      <c r="I4" s="519"/>
+      <c r="J4" s="519"/>
+      <c r="K4" s="519"/>
+      <c r="L4" s="519"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="519" t="s">
+      <c r="A5" s="520" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="519"/>
-      <c r="C5" s="519"/>
-      <c r="D5" s="519"/>
-      <c r="E5" s="519"/>
-      <c r="F5" s="519"/>
-      <c r="G5" s="519"/>
-      <c r="H5" s="519"/>
-      <c r="I5" s="519"/>
-      <c r="J5" s="519"/>
-      <c r="K5" s="519"/>
-      <c r="L5" s="519"/>
+      <c r="B5" s="520"/>
+      <c r="C5" s="520"/>
+      <c r="D5" s="520"/>
+      <c r="E5" s="520"/>
+      <c r="F5" s="520"/>
+      <c r="G5" s="520"/>
+      <c r="H5" s="520"/>
+      <c r="I5" s="520"/>
+      <c r="J5" s="520"/>
+      <c r="K5" s="520"/>
+      <c r="L5" s="520"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="520" t="s">
+      <c r="J6" s="521" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="520"/>
-      <c r="L6" s="520"/>
+      <c r="K6" s="521"/>
+      <c r="L6" s="521"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="145" t="s">
@@ -12342,12 +12344,12 @@
       <c r="L8" s="145"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="511" t="s">
+      <c r="A9" s="512" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="512"/>
-      <c r="C9" s="512"/>
-      <c r="D9" s="513"/>
+      <c r="B9" s="513"/>
+      <c r="C9" s="513"/>
+      <c r="D9" s="514"/>
       <c r="E9" s="147"/>
       <c r="F9" s="151">
         <f>SUM(F10:F12)</f>
@@ -12399,7 +12401,7 @@
         <v>93461538</v>
       </c>
       <c r="J10" s="83">
-        <f>F10-G10-H10+I10</f>
+        <f>F10+G10-H10+I10</f>
         <v>110192307.23076923</v>
       </c>
       <c r="K10" s="83"/>
@@ -12431,8 +12433,8 @@
       <c r="I11" s="48">
         <v>46350288</v>
       </c>
-      <c r="J11" s="48">
-        <f>F11-G11-H11+I11</f>
+      <c r="J11" s="83">
+        <f>F11+G11-H11+I11</f>
         <v>52581057.230769232</v>
       </c>
       <c r="K11" s="48"/>
@@ -12464,20 +12466,20 @@
       <c r="I12" s="53">
         <v>4744538</v>
       </c>
-      <c r="J12" s="53">
-        <f>F12-G12-H12+I12</f>
+      <c r="J12" s="83">
+        <f>F12+G12-H12+I12</f>
         <v>11321461.076923076</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="508" t="s">
+      <c r="A13" s="509" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="509"/>
-      <c r="C13" s="509"/>
-      <c r="D13" s="510"/>
+      <c r="B13" s="510"/>
+      <c r="C13" s="510"/>
+      <c r="D13" s="511"/>
       <c r="E13" s="89"/>
       <c r="F13" s="151">
         <f>SUM(F14:F14)</f>
@@ -12497,7 +12499,7 @@
       </c>
       <c r="J13" s="151">
         <f>SUM(J14:J14)</f>
-        <v>757692.30769230775</v>
+        <v>857692.30769230775</v>
       </c>
       <c r="K13" s="152"/>
       <c r="L13" s="146"/>
@@ -12529,18 +12531,18 @@
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57">
-        <f>F14-G14-H14+I14</f>
-        <v>757692.30769230775</v>
+        <f>F14+G14-H14+I14</f>
+        <v>857692.30769230775</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="521" t="s">
+      <c r="A15" s="522" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="522"/>
-      <c r="C15" s="523"/>
+      <c r="B15" s="523"/>
+      <c r="C15" s="524"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -12561,20 +12563,20 @@
       </c>
       <c r="J15" s="86">
         <f>J13+J9</f>
-        <v>174852517.84615386</v>
+        <v>174952517.84615386</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="506"/>
-      <c r="C17" s="506"/>
-      <c r="D17" s="506"/>
+      <c r="B17" s="507"/>
+      <c r="C17" s="507"/>
+      <c r="D17" s="507"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="506"/>
-      <c r="I17" s="506"/>
-      <c r="J17" s="506"/>
-      <c r="K17" s="506"/>
+      <c r="H17" s="507"/>
+      <c r="I17" s="507"/>
+      <c r="J17" s="507"/>
+      <c r="K17" s="507"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="142" t="s">
@@ -12586,12 +12588,12 @@
         <v>85</v>
       </c>
       <c r="G18" s="142"/>
-      <c r="H18" s="506" t="s">
+      <c r="H18" s="507" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="506"/>
-      <c r="J18" s="506"/>
-      <c r="K18" s="506"/>
+      <c r="I18" s="507"/>
+      <c r="J18" s="507"/>
+      <c r="K18" s="507"/>
     </row>
     <row r="19" spans="2:11" s="143" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="144" t="s">
@@ -12603,12 +12605,12 @@
         <v>92</v>
       </c>
       <c r="G19" s="144"/>
-      <c r="H19" s="507" t="s">
+      <c r="H19" s="508" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="507"/>
-      <c r="J19" s="507"/>
-      <c r="K19" s="507"/>
+      <c r="I19" s="508"/>
+      <c r="J19" s="508"/>
+      <c r="K19" s="508"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>
@@ -12635,6 +12637,6 @@
     <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="4"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$4:$H$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="288">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -463,9 +462,6 @@
   </si>
   <si>
     <t xml:space="preserve">          - Chi phí công tác Huế</t>
-  </si>
-  <si>
-    <t>hằng ứng lương</t>
   </si>
   <si>
     <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
@@ -2533,9 +2529,72 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2545,70 +2604,25 @@
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2641,24 +2655,6 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2674,6 +2670,72 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2701,99 +2763,24 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2829,6 +2816,15 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3194,11 +3190,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3303,7 @@
       </c>
       <c r="H4" s="401"/>
     </row>
-    <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="106" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="399"/>
       <c r="B5" s="399"/>
       <c r="C5" s="399"/>
@@ -3324,12 +3321,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="336">
         <v>44105</v>
       </c>
       <c r="B6" s="336" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="200" t="s">
         <v>142</v>
@@ -3344,18 +3341,18 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92">
         <v>44106</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="95"/>
       <c r="F7" s="108">
@@ -3370,7 +3367,7 @@
         <v>44106</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="93" t="s">
         <v>143</v>
@@ -3385,18 +3382,18 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <v>44107</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9" s="95">
         <v>13062600</v>
@@ -3405,18 +3402,18 @@
       <c r="G9" s="95"/>
       <c r="H9" s="108"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92">
         <v>44107</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="95"/>
       <c r="F10" s="108"/>
@@ -3425,7 +3422,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <v>44110</v>
       </c>
@@ -3443,7 +3440,7 @@
       </c>
       <c r="H11" s="108"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="405">
         <v>44111</v>
       </c>
@@ -3459,7 +3456,7 @@
       <c r="G12" s="95"/>
       <c r="H12" s="108"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="406"/>
       <c r="B13" s="406"/>
       <c r="C13" s="403"/>
@@ -3473,7 +3470,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="406"/>
       <c r="B14" s="406"/>
       <c r="C14" s="403"/>
@@ -3487,7 +3484,7 @@
         <v>902000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="406"/>
       <c r="B15" s="406"/>
       <c r="C15" s="403"/>
@@ -3501,7 +3498,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="406"/>
       <c r="B16" s="406"/>
       <c r="C16" s="403"/>
@@ -3515,7 +3512,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="406"/>
       <c r="B17" s="406"/>
       <c r="C17" s="403"/>
@@ -3529,7 +3526,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="407"/>
       <c r="B18" s="407"/>
       <c r="C18" s="404"/>
@@ -3545,18 +3542,18 @@
       <c r="K18" s="100"/>
       <c r="L18" s="100"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="336">
         <v>44111</v>
       </c>
       <c r="B19" s="336" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="201" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="95">
         <v>10301000</v>
@@ -3567,18 +3564,18 @@
       <c r="K19" s="100"/>
       <c r="L19" s="100"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="336">
         <v>44113</v>
       </c>
       <c r="B20" s="336" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="201" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" s="95"/>
       <c r="F20" s="108">
@@ -3589,18 +3586,18 @@
       <c r="K20" s="100"/>
       <c r="L20" s="100"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="336">
         <v>44113</v>
       </c>
       <c r="B21" s="336" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C21" s="201" t="s">
         <v>142</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" s="95"/>
       <c r="F21" s="108"/>
@@ -3611,7 +3608,7 @@
       <c r="K21" s="100"/>
       <c r="L21" s="100"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>44115</v>
       </c>
@@ -3636,7 +3633,7 @@
         <v>44116</v>
       </c>
       <c r="B23" s="356" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C23" s="93" t="s">
         <v>143</v>
@@ -3652,12 +3649,12 @@
       <c r="H23" s="110"/>
       <c r="N23" s="212"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92">
         <v>44116</v>
       </c>
       <c r="B24" s="356" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="93" t="s">
         <v>142</v>
@@ -3673,18 +3670,18 @@
       <c r="H24" s="110"/>
       <c r="K24" s="212"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92">
         <v>44117</v>
       </c>
       <c r="B25" s="356" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="93" t="s">
         <v>142</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="95"/>
       <c r="F25" s="108"/>
@@ -3693,18 +3690,18 @@
       </c>
       <c r="H25" s="110"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92">
         <v>44119</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="93" t="s">
         <v>142</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" s="95">
         <f>3500000-25000</f>
@@ -3719,7 +3716,7 @@
         <v>44120</v>
       </c>
       <c r="B27" s="356" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>143</v>
@@ -3735,18 +3732,18 @@
       <c r="H27" s="110"/>
       <c r="J27" s="212"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92">
         <v>44123</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E28" s="95"/>
       <c r="F28" s="108">
@@ -3756,18 +3753,18 @@
       <c r="H28" s="110"/>
       <c r="J28" s="212"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92">
         <v>44124</v>
       </c>
       <c r="B29" s="92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" s="95">
         <v>13168800</v>
@@ -3777,18 +3774,18 @@
       <c r="H29" s="110"/>
       <c r="J29" s="212"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92">
         <v>44124</v>
       </c>
       <c r="B30" s="356" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E30" s="95"/>
       <c r="F30" s="108"/>
@@ -3798,18 +3795,18 @@
       </c>
       <c r="J30" s="212"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92">
         <v>44124</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="93" t="s">
         <v>142</v>
       </c>
       <c r="D31" s="94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E31" s="95"/>
       <c r="F31" s="108"/>
@@ -3819,18 +3816,18 @@
       </c>
       <c r="J31" s="212"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
         <v>44125</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="95">
         <v>1085600</v>
@@ -3840,18 +3837,18 @@
       <c r="H32" s="110"/>
       <c r="J32" s="212"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92">
         <v>44125</v>
       </c>
       <c r="B33" s="92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C33" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E33" s="95">
         <v>59124000</v>
@@ -3861,18 +3858,18 @@
       <c r="H33" s="110"/>
       <c r="J33" s="212"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <v>44125</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="95">
         <v>3186000</v>
@@ -3882,18 +3879,18 @@
       <c r="H34" s="110"/>
       <c r="J34" s="212"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92">
         <v>44125</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E35" s="95"/>
       <c r="F35" s="108"/>
@@ -3903,18 +3900,18 @@
       </c>
       <c r="J35" s="212"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92">
         <v>44125</v>
       </c>
       <c r="B36" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C36" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E36" s="95"/>
       <c r="F36" s="108"/>
@@ -3925,18 +3922,18 @@
       </c>
       <c r="J36" s="212"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92">
         <v>44126</v>
       </c>
       <c r="B37" s="92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E37" s="95"/>
       <c r="F37" s="108">
@@ -3945,18 +3942,18 @@
       <c r="G37" s="95"/>
       <c r="H37" s="110"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92">
         <v>44128</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E38" s="95"/>
       <c r="F38" s="108">
@@ -3966,18 +3963,18 @@
       <c r="H38" s="110"/>
       <c r="K38" s="212"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92">
         <v>44128</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F39" s="95">
         <v>400000</v>
@@ -3985,18 +3982,18 @@
       <c r="G39" s="95"/>
       <c r="H39" s="110"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92">
         <v>44128</v>
       </c>
       <c r="B40" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="95"/>
       <c r="F40" s="108">
@@ -4012,7 +4009,7 @@
         <v>44128</v>
       </c>
       <c r="B41" s="92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C41" s="93" t="s">
         <v>143</v>
@@ -4029,18 +4026,18 @@
       </c>
       <c r="K41" s="100"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="92">
         <v>44132</v>
       </c>
       <c r="B42" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C42" s="93" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" s="95"/>
       <c r="F42" s="108"/>
@@ -4049,18 +4046,18 @@
       </c>
       <c r="H42" s="110"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="92">
         <v>44132</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" s="391"/>
       <c r="F43" s="108">
@@ -4069,18 +4066,18 @@
       <c r="G43" s="95"/>
       <c r="H43" s="110"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="92">
         <v>44132</v>
       </c>
       <c r="B44" s="92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C44" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E44" s="391"/>
       <c r="F44" s="108">
@@ -4089,18 +4086,18 @@
       <c r="G44" s="95"/>
       <c r="H44" s="110"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="92">
         <v>44133</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="95"/>
       <c r="G45" s="95">
@@ -4113,13 +4110,13 @@
         <v>44135</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C46" s="93" t="s">
         <v>143</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="E46" s="95"/>
       <c r="F46" s="108"/>
@@ -4129,18 +4126,18 @@
         <v>485000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="92">
         <v>44134</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C47" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E47" s="95">
         <v>30000000</v>
@@ -4149,18 +4146,18 @@
       <c r="G47" s="95"/>
       <c r="H47" s="110"/>
     </row>
-    <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="92">
         <v>44135</v>
       </c>
       <c r="B48" s="92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" s="95"/>
       <c r="F48" s="95">
@@ -4170,7 +4167,7 @@
       <c r="H48" s="110"/>
       <c r="K48" s="212"/>
     </row>
-    <row r="49" spans="1:10" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="112" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="395" t="s">
         <v>9</v>
       </c>
@@ -4248,6 +4245,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:H49">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Lương, thưởng"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -4301,13 +4303,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="422" t="s">
+      <c r="A1" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
       <c r="J1" s="123"/>
@@ -4337,149 +4339,149 @@
       <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="423" t="s">
+      <c r="A3" s="426" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="423"/>
-      <c r="C3" s="423"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="423"/>
-      <c r="F3" s="423"/>
-      <c r="G3" s="423"/>
-      <c r="H3" s="423"/>
-      <c r="I3" s="423"/>
-      <c r="J3" s="423"/>
-      <c r="K3" s="423"/>
-      <c r="L3" s="423"/>
-      <c r="M3" s="423"/>
-      <c r="N3" s="423"/>
-      <c r="O3" s="423"/>
-      <c r="P3" s="423"/>
+      <c r="B3" s="426"/>
+      <c r="C3" s="426"/>
+      <c r="D3" s="426"/>
+      <c r="E3" s="426"/>
+      <c r="F3" s="426"/>
+      <c r="G3" s="426"/>
+      <c r="H3" s="426"/>
+      <c r="I3" s="426"/>
+      <c r="J3" s="426"/>
+      <c r="K3" s="426"/>
+      <c r="L3" s="426"/>
+      <c r="M3" s="426"/>
+      <c r="N3" s="426"/>
+      <c r="O3" s="426"/>
+      <c r="P3" s="426"/>
     </row>
     <row r="4" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="423" t="s">
+      <c r="A4" s="426" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="423"/>
-      <c r="C4" s="423"/>
-      <c r="D4" s="423"/>
-      <c r="E4" s="423"/>
-      <c r="F4" s="423"/>
-      <c r="G4" s="423"/>
-      <c r="H4" s="423"/>
-      <c r="I4" s="423"/>
-      <c r="J4" s="423"/>
-      <c r="K4" s="423"/>
-      <c r="L4" s="423"/>
-      <c r="M4" s="423"/>
-      <c r="N4" s="423"/>
-      <c r="O4" s="423"/>
-      <c r="P4" s="423"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="426"/>
+      <c r="H4" s="426"/>
+      <c r="I4" s="426"/>
+      <c r="J4" s="426"/>
+      <c r="K4" s="426"/>
+      <c r="L4" s="426"/>
+      <c r="M4" s="426"/>
+      <c r="N4" s="426"/>
+      <c r="O4" s="426"/>
+      <c r="P4" s="426"/>
     </row>
     <row r="5" spans="1:16" s="122" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="410" t="s">
+      <c r="A5" s="431" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="432" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="410" t="s">
+      <c r="C5" s="431" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="410" t="s">
+      <c r="D5" s="431" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="410"/>
-      <c r="F5" s="412" t="s">
+      <c r="E5" s="431"/>
+      <c r="F5" s="428" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="412"/>
-      <c r="H5" s="412"/>
-      <c r="I5" s="412"/>
-      <c r="J5" s="412"/>
-      <c r="K5" s="412"/>
-      <c r="L5" s="412"/>
-      <c r="M5" s="424"/>
-      <c r="N5" s="424"/>
-      <c r="O5" s="424"/>
-      <c r="P5" s="412" t="s">
+      <c r="G5" s="428"/>
+      <c r="H5" s="428"/>
+      <c r="I5" s="428"/>
+      <c r="J5" s="428"/>
+      <c r="K5" s="428"/>
+      <c r="L5" s="428"/>
+      <c r="M5" s="427"/>
+      <c r="N5" s="427"/>
+      <c r="O5" s="427"/>
+      <c r="P5" s="428" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="410"/>
-      <c r="B6" s="411"/>
-      <c r="C6" s="410"/>
-      <c r="D6" s="410" t="s">
+      <c r="A6" s="431"/>
+      <c r="B6" s="432"/>
+      <c r="C6" s="431"/>
+      <c r="D6" s="431" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="410" t="s">
+      <c r="E6" s="431" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="410" t="s">
+      <c r="F6" s="431" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="410" t="s">
+      <c r="G6" s="431" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="413" t="s">
+      <c r="H6" s="429" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="413" t="s">
+      <c r="I6" s="429" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="414" t="s">
+      <c r="J6" s="433" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="414"/>
-      <c r="L6" s="413" t="s">
+      <c r="K6" s="433"/>
+      <c r="L6" s="429" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="413" t="s">
+      <c r="M6" s="429" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="413" t="s">
+      <c r="N6" s="429" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="413" t="s">
+      <c r="O6" s="429" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="412"/>
+      <c r="P6" s="428"/>
     </row>
     <row r="7" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="410"/>
-      <c r="B7" s="411"/>
-      <c r="C7" s="410"/>
-      <c r="D7" s="410"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="410"/>
-      <c r="G7" s="410"/>
-      <c r="H7" s="413"/>
-      <c r="I7" s="413"/>
+      <c r="A7" s="431"/>
+      <c r="B7" s="432"/>
+      <c r="C7" s="431"/>
+      <c r="D7" s="431"/>
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="429"/>
+      <c r="I7" s="429"/>
       <c r="J7" s="205" t="s">
         <v>84</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="413"/>
-      <c r="M7" s="413"/>
-      <c r="N7" s="413"/>
-      <c r="O7" s="413"/>
-      <c r="P7" s="412"/>
+      <c r="L7" s="429"/>
+      <c r="M7" s="429"/>
+      <c r="N7" s="429"/>
+      <c r="O7" s="429"/>
+      <c r="P7" s="428"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="415">
+      <c r="A8" s="408">
         <v>808</v>
       </c>
-      <c r="B8" s="418">
+      <c r="B8" s="411">
         <v>44107</v>
       </c>
-      <c r="C8" s="415"/>
-      <c r="D8" s="415" t="s">
+      <c r="C8" s="408"/>
+      <c r="D8" s="408" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="415" t="s">
+      <c r="E8" s="408" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="161" t="s">
@@ -4514,11 +4516,11 @@
       <c r="P8" s="161"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="416"/>
-      <c r="B9" s="419"/>
-      <c r="C9" s="416"/>
-      <c r="D9" s="416"/>
-      <c r="E9" s="416"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="409"/>
+      <c r="D9" s="409"/>
+      <c r="E9" s="409"/>
       <c r="F9" s="174" t="s">
         <v>124</v>
       </c>
@@ -4549,11 +4551,11 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="417"/>
-      <c r="B10" s="420"/>
-      <c r="C10" s="417"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="417"/>
+      <c r="A10" s="410"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="410"/>
+      <c r="D10" s="410"/>
+      <c r="E10" s="410"/>
       <c r="F10" s="165" t="s">
         <v>125</v>
       </c>
@@ -4672,17 +4674,17 @@
       <c r="P12" s="160"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="415">
+      <c r="A13" s="408">
         <v>816</v>
       </c>
-      <c r="B13" s="418">
+      <c r="B13" s="411">
         <v>44112</v>
       </c>
-      <c r="C13" s="415"/>
-      <c r="D13" s="415" t="s">
+      <c r="C13" s="408"/>
+      <c r="D13" s="408" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="415"/>
+      <c r="E13" s="408"/>
       <c r="F13" s="161" t="s">
         <v>123</v>
       </c>
@@ -4713,11 +4715,11 @@
       <c r="P13" s="164"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="417"/>
-      <c r="B14" s="420"/>
-      <c r="C14" s="417"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="417"/>
+      <c r="A14" s="410"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="410"/>
+      <c r="D14" s="410"/>
+      <c r="E14" s="410"/>
       <c r="F14" s="165" t="s">
         <v>124</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>129</v>
       </c>
       <c r="D17" s="339" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="339"/>
       <c r="F17" s="341" t="s">
@@ -4872,17 +4874,17 @@
       <c r="P17" s="341"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="415">
+      <c r="A18" s="408">
         <v>822</v>
       </c>
-      <c r="B18" s="418">
+      <c r="B18" s="411">
         <v>44113</v>
       </c>
-      <c r="C18" s="415"/>
-      <c r="D18" s="415" t="s">
+      <c r="C18" s="408"/>
+      <c r="D18" s="408" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="415"/>
+      <c r="E18" s="408"/>
       <c r="F18" s="161" t="s">
         <v>123</v>
       </c>
@@ -4913,11 +4915,11 @@
       <c r="P18" s="161"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="417"/>
-      <c r="B19" s="420"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="417"/>
-      <c r="E19" s="417"/>
+      <c r="A19" s="410"/>
+      <c r="B19" s="413"/>
+      <c r="C19" s="410"/>
+      <c r="D19" s="410"/>
+      <c r="E19" s="410"/>
       <c r="F19" s="165" t="s">
         <v>124</v>
       </c>
@@ -4948,17 +4950,17 @@
       <c r="P19" s="165"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="415">
+      <c r="A20" s="408">
         <v>1211</v>
       </c>
-      <c r="B20" s="430">
+      <c r="B20" s="414">
         <v>44113</v>
       </c>
-      <c r="C20" s="432" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="432"/>
-      <c r="E20" s="432"/>
+      <c r="C20" s="416" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="416"/>
+      <c r="E20" s="416"/>
       <c r="F20" s="161" t="s">
         <v>125</v>
       </c>
@@ -4989,11 +4991,11 @@
       <c r="P20" s="161"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="417"/>
-      <c r="B21" s="431"/>
-      <c r="C21" s="433"/>
-      <c r="D21" s="433"/>
-      <c r="E21" s="433"/>
+      <c r="A21" s="410"/>
+      <c r="B21" s="415"/>
+      <c r="C21" s="417"/>
+      <c r="D21" s="417"/>
+      <c r="E21" s="417"/>
       <c r="F21" s="165" t="s">
         <v>138</v>
       </c>
@@ -5034,10 +5036,10 @@
         <v>129</v>
       </c>
       <c r="D22" s="357" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="357" t="s">
         <v>202</v>
-      </c>
-      <c r="E22" s="357" t="s">
-        <v>203</v>
       </c>
       <c r="F22" s="361" t="s">
         <v>120</v>
@@ -5061,7 +5063,7 @@
         <v>805350.00000000012</v>
       </c>
       <c r="M22" s="362" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N22" s="362"/>
       <c r="O22" s="362">
@@ -5071,20 +5073,20 @@
       <c r="P22" s="361"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="415">
+      <c r="A23" s="408">
         <v>825</v>
       </c>
-      <c r="B23" s="418">
+      <c r="B23" s="411">
         <v>44123</v>
       </c>
-      <c r="C23" s="415" t="s">
+      <c r="C23" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="415" t="s">
+      <c r="D23" s="408" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="408" t="s">
         <v>205</v>
-      </c>
-      <c r="E23" s="415" t="s">
-        <v>206</v>
       </c>
       <c r="F23" s="161" t="s">
         <v>124</v>
@@ -5116,13 +5118,13 @@
       <c r="P23" s="161"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="416"/>
-      <c r="B24" s="419"/>
-      <c r="C24" s="416"/>
-      <c r="D24" s="416"/>
-      <c r="E24" s="416"/>
+      <c r="A24" s="409"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="409"/>
+      <c r="D24" s="409"/>
+      <c r="E24" s="409"/>
       <c r="F24" s="170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="170">
         <v>6</v>
@@ -5151,13 +5153,13 @@
       <c r="P24" s="170"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="417"/>
-      <c r="B25" s="420"/>
-      <c r="C25" s="417"/>
-      <c r="D25" s="417"/>
-      <c r="E25" s="417"/>
+      <c r="A25" s="410"/>
+      <c r="B25" s="413"/>
+      <c r="C25" s="410"/>
+      <c r="D25" s="410"/>
+      <c r="E25" s="410"/>
       <c r="F25" s="173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G25" s="173">
         <v>4</v>
@@ -5186,17 +5188,17 @@
       <c r="P25" s="173"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="415">
+      <c r="A26" s="408">
         <v>830</v>
       </c>
-      <c r="B26" s="418">
+      <c r="B26" s="411">
         <v>44124</v>
       </c>
-      <c r="C26" s="415"/>
-      <c r="D26" s="425" t="s">
+      <c r="C26" s="408"/>
+      <c r="D26" s="418" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="415" t="s">
+      <c r="E26" s="408" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="368" t="s">
@@ -5231,13 +5233,13 @@
       <c r="P26" s="368"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="416"/>
-      <c r="B27" s="419"/>
-      <c r="C27" s="416"/>
-      <c r="D27" s="426"/>
-      <c r="E27" s="416"/>
+      <c r="A27" s="409"/>
+      <c r="B27" s="412"/>
+      <c r="C27" s="409"/>
+      <c r="D27" s="419"/>
+      <c r="E27" s="409"/>
       <c r="F27" s="170" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G27" s="170">
         <v>12</v>
@@ -5266,11 +5268,11 @@
       <c r="P27" s="170"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="416"/>
-      <c r="B28" s="419"/>
-      <c r="C28" s="416"/>
-      <c r="D28" s="426"/>
-      <c r="E28" s="416"/>
+      <c r="A28" s="409"/>
+      <c r="B28" s="412"/>
+      <c r="C28" s="409"/>
+      <c r="D28" s="419"/>
+      <c r="E28" s="409"/>
       <c r="F28" s="170" t="s">
         <v>125</v>
       </c>
@@ -5301,13 +5303,13 @@
       <c r="P28" s="170"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="417"/>
-      <c r="B29" s="420"/>
-      <c r="C29" s="417"/>
-      <c r="D29" s="427"/>
-      <c r="E29" s="417"/>
+      <c r="A29" s="410"/>
+      <c r="B29" s="413"/>
+      <c r="C29" s="410"/>
+      <c r="D29" s="420"/>
+      <c r="E29" s="410"/>
       <c r="F29" s="173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G29" s="173">
         <v>6</v>
@@ -5348,7 +5350,7 @@
       </c>
       <c r="E30" s="371"/>
       <c r="F30" s="371" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G30" s="371">
         <v>4</v>
@@ -5377,20 +5379,20 @@
       <c r="P30" s="371"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="428">
+      <c r="A31" s="421">
         <v>832</v>
       </c>
-      <c r="B31" s="418">
+      <c r="B31" s="411">
         <v>44125</v>
       </c>
-      <c r="C31" s="415" t="s">
+      <c r="C31" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="415" t="s">
+      <c r="D31" s="408" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="408" t="s">
         <v>209</v>
-      </c>
-      <c r="E31" s="415" t="s">
-        <v>210</v>
       </c>
       <c r="F31" s="161" t="s">
         <v>124</v>
@@ -5422,13 +5424,13 @@
       <c r="P31" s="161"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="429"/>
-      <c r="B32" s="420"/>
-      <c r="C32" s="417"/>
-      <c r="D32" s="417"/>
-      <c r="E32" s="417"/>
+      <c r="A32" s="422"/>
+      <c r="B32" s="413"/>
+      <c r="C32" s="410"/>
+      <c r="D32" s="410"/>
+      <c r="E32" s="410"/>
       <c r="F32" s="165" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="165">
         <v>2</v>
@@ -5457,17 +5459,17 @@
       <c r="P32" s="165"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="415">
+      <c r="A33" s="408">
         <v>834</v>
       </c>
-      <c r="B33" s="418">
+      <c r="B33" s="411">
         <v>44125</v>
       </c>
-      <c r="C33" s="415"/>
-      <c r="D33" s="415" t="s">
+      <c r="C33" s="408"/>
+      <c r="D33" s="408" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="415"/>
+      <c r="E33" s="408"/>
       <c r="F33" s="161" t="s">
         <v>123</v>
       </c>
@@ -5498,11 +5500,11 @@
       <c r="P33" s="161"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="417"/>
-      <c r="B34" s="420"/>
-      <c r="C34" s="417"/>
-      <c r="D34" s="417"/>
-      <c r="E34" s="417"/>
+      <c r="A34" s="410"/>
+      <c r="B34" s="413"/>
+      <c r="C34" s="410"/>
+      <c r="D34" s="410"/>
+      <c r="E34" s="410"/>
       <c r="F34" s="165" t="s">
         <v>124</v>
       </c>
@@ -5533,18 +5535,18 @@
       <c r="P34" s="165"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="415">
+      <c r="A35" s="408">
         <v>837</v>
       </c>
-      <c r="B35" s="418">
+      <c r="B35" s="411">
         <v>44125</v>
       </c>
-      <c r="C35" s="415"/>
-      <c r="D35" s="425" t="s">
+      <c r="C35" s="408"/>
+      <c r="D35" s="418" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="418" t="s">
         <v>211</v>
-      </c>
-      <c r="E35" s="425" t="s">
-        <v>212</v>
       </c>
       <c r="F35" s="161" t="s">
         <v>123</v>
@@ -5576,11 +5578,11 @@
       <c r="P35" s="161"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="416"/>
-      <c r="B36" s="419"/>
-      <c r="C36" s="416"/>
-      <c r="D36" s="426"/>
-      <c r="E36" s="426"/>
+      <c r="A36" s="409"/>
+      <c r="B36" s="412"/>
+      <c r="C36" s="409"/>
+      <c r="D36" s="419"/>
+      <c r="E36" s="419"/>
       <c r="F36" s="174" t="s">
         <v>124</v>
       </c>
@@ -5611,13 +5613,13 @@
       <c r="P36" s="174"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="416"/>
-      <c r="B37" s="419"/>
-      <c r="C37" s="416"/>
-      <c r="D37" s="426"/>
-      <c r="E37" s="426"/>
+      <c r="A37" s="409"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="409"/>
+      <c r="D37" s="419"/>
+      <c r="E37" s="419"/>
       <c r="F37" s="174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G37" s="174">
         <v>24</v>
@@ -5646,13 +5648,13 @@
       <c r="P37" s="174"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="416"/>
-      <c r="B38" s="419"/>
-      <c r="C38" s="416"/>
-      <c r="D38" s="426"/>
-      <c r="E38" s="426"/>
+      <c r="A38" s="409"/>
+      <c r="B38" s="412"/>
+      <c r="C38" s="409"/>
+      <c r="D38" s="419"/>
+      <c r="E38" s="419"/>
       <c r="F38" s="174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="174">
         <v>24</v>
@@ -5681,11 +5683,11 @@
       <c r="P38" s="174"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="416"/>
-      <c r="B39" s="419"/>
-      <c r="C39" s="416"/>
-      <c r="D39" s="426"/>
-      <c r="E39" s="426"/>
+      <c r="A39" s="409"/>
+      <c r="B39" s="412"/>
+      <c r="C39" s="409"/>
+      <c r="D39" s="419"/>
+      <c r="E39" s="419"/>
       <c r="F39" s="174" t="s">
         <v>125</v>
       </c>
@@ -5716,11 +5718,11 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="416"/>
-      <c r="B40" s="419"/>
-      <c r="C40" s="416"/>
-      <c r="D40" s="426"/>
-      <c r="E40" s="426"/>
+      <c r="A40" s="409"/>
+      <c r="B40" s="412"/>
+      <c r="C40" s="409"/>
+      <c r="D40" s="419"/>
+      <c r="E40" s="419"/>
       <c r="F40" s="174" t="s">
         <v>138</v>
       </c>
@@ -5751,11 +5753,11 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="416"/>
-      <c r="B41" s="419"/>
-      <c r="C41" s="416"/>
-      <c r="D41" s="426"/>
-      <c r="E41" s="426"/>
+      <c r="A41" s="409"/>
+      <c r="B41" s="412"/>
+      <c r="C41" s="409"/>
+      <c r="D41" s="419"/>
+      <c r="E41" s="419"/>
       <c r="F41" s="174" t="s">
         <v>120</v>
       </c>
@@ -5786,11 +5788,11 @@
       <c r="P41" s="174"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="417"/>
-      <c r="B42" s="420"/>
-      <c r="C42" s="417"/>
-      <c r="D42" s="427"/>
-      <c r="E42" s="427"/>
+      <c r="A42" s="410"/>
+      <c r="B42" s="413"/>
+      <c r="C42" s="410"/>
+      <c r="D42" s="420"/>
+      <c r="E42" s="420"/>
       <c r="F42" s="165" t="s">
         <v>132</v>
       </c>
@@ -5906,23 +5908,23 @@
       <c r="P44" s="169"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="415">
+      <c r="A45" s="408">
         <v>835</v>
       </c>
-      <c r="B45" s="418">
+      <c r="B45" s="411">
         <v>44126</v>
       </c>
-      <c r="C45" s="415" t="s">
+      <c r="C45" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="415" t="s">
+      <c r="D45" s="408" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="408" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="415" t="s">
-        <v>222</v>
-      </c>
       <c r="F45" s="161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G45" s="161">
         <v>2</v>
@@ -5951,11 +5953,11 @@
       <c r="P45" s="378"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="417"/>
-      <c r="B46" s="420"/>
-      <c r="C46" s="417"/>
-      <c r="D46" s="417"/>
-      <c r="E46" s="417"/>
+      <c r="A46" s="410"/>
+      <c r="B46" s="413"/>
+      <c r="C46" s="410"/>
+      <c r="D46" s="410"/>
+      <c r="E46" s="410"/>
       <c r="F46" s="165" t="s">
         <v>120</v>
       </c>
@@ -5986,17 +5988,17 @@
       <c r="P46" s="379"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="415">
+      <c r="A47" s="408">
         <v>840</v>
       </c>
-      <c r="B47" s="418">
+      <c r="B47" s="411">
         <v>44128</v>
       </c>
-      <c r="C47" s="415" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="415"/>
-      <c r="E47" s="415"/>
+      <c r="C47" s="408" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="408"/>
+      <c r="E47" s="408"/>
       <c r="F47" s="161" t="s">
         <v>124</v>
       </c>
@@ -6027,13 +6029,13 @@
       <c r="P47" s="378"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="417"/>
-      <c r="B48" s="420"/>
-      <c r="C48" s="417"/>
-      <c r="D48" s="417"/>
-      <c r="E48" s="417"/>
+      <c r="A48" s="410"/>
+      <c r="B48" s="413"/>
+      <c r="C48" s="410"/>
+      <c r="D48" s="410"/>
+      <c r="E48" s="410"/>
       <c r="F48" s="165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G48" s="165">
         <v>1</v>
@@ -6069,14 +6071,14 @@
         <v>44128</v>
       </c>
       <c r="C49" s="376" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49" s="376" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E49" s="376"/>
       <c r="F49" s="155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G49" s="155">
         <v>1</v>
@@ -6150,20 +6152,20 @@
       <c r="P50" s="169"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="415">
+      <c r="A51" s="408">
         <v>847</v>
       </c>
-      <c r="B51" s="418">
+      <c r="B51" s="411">
         <v>44128</v>
       </c>
-      <c r="C51" s="415" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="415" t="s">
+      <c r="C51" s="408" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="408" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="418" t="s">
         <v>229</v>
-      </c>
-      <c r="E51" s="425" t="s">
-        <v>230</v>
       </c>
       <c r="F51" s="161" t="s">
         <v>124</v>
@@ -6195,13 +6197,13 @@
       <c r="P51" s="161"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="416"/>
-      <c r="B52" s="419"/>
-      <c r="C52" s="416"/>
-      <c r="D52" s="416"/>
-      <c r="E52" s="426"/>
+      <c r="A52" s="409"/>
+      <c r="B52" s="412"/>
+      <c r="C52" s="409"/>
+      <c r="D52" s="409"/>
+      <c r="E52" s="419"/>
       <c r="F52" s="174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G52" s="174">
         <v>4</v>
@@ -6230,13 +6232,13 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="416"/>
-      <c r="B53" s="419"/>
-      <c r="C53" s="416"/>
-      <c r="D53" s="416"/>
-      <c r="E53" s="426"/>
+      <c r="A53" s="409"/>
+      <c r="B53" s="412"/>
+      <c r="C53" s="409"/>
+      <c r="D53" s="409"/>
+      <c r="E53" s="419"/>
       <c r="F53" s="174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G53" s="174">
         <v>4</v>
@@ -6265,13 +6267,13 @@
       <c r="P53" s="199"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="416"/>
-      <c r="B54" s="419"/>
-      <c r="C54" s="416"/>
-      <c r="D54" s="416"/>
-      <c r="E54" s="426"/>
+      <c r="A54" s="409"/>
+      <c r="B54" s="412"/>
+      <c r="C54" s="409"/>
+      <c r="D54" s="409"/>
+      <c r="E54" s="419"/>
       <c r="F54" s="174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G54" s="174">
         <v>3</v>
@@ -6300,11 +6302,11 @@
       <c r="P54" s="199"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="417"/>
-      <c r="B55" s="420"/>
-      <c r="C55" s="417"/>
-      <c r="D55" s="417"/>
-      <c r="E55" s="427"/>
+      <c r="A55" s="410"/>
+      <c r="B55" s="413"/>
+      <c r="C55" s="410"/>
+      <c r="D55" s="410"/>
+      <c r="E55" s="420"/>
       <c r="F55" s="165" t="s">
         <v>138</v>
       </c>
@@ -6335,19 +6337,19 @@
       <c r="P55" s="379"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="415">
+      <c r="A56" s="408">
         <v>843</v>
       </c>
-      <c r="B56" s="418">
+      <c r="B56" s="411">
         <v>44129</v>
       </c>
-      <c r="C56" s="415" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="415" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" s="415"/>
+      <c r="C56" s="408" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="408" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="408"/>
       <c r="F56" s="161" t="s">
         <v>123</v>
       </c>
@@ -6378,11 +6380,11 @@
       <c r="P56" s="161"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="417"/>
-      <c r="B57" s="420"/>
-      <c r="C57" s="417"/>
-      <c r="D57" s="417"/>
-      <c r="E57" s="417"/>
+      <c r="A57" s="410"/>
+      <c r="B57" s="413"/>
+      <c r="C57" s="410"/>
+      <c r="D57" s="410"/>
+      <c r="E57" s="410"/>
       <c r="F57" s="165" t="s">
         <v>124</v>
       </c>
@@ -6413,18 +6415,18 @@
       <c r="P57" s="165"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="415">
+      <c r="A58" s="408">
         <v>850</v>
       </c>
-      <c r="B58" s="418">
+      <c r="B58" s="411">
         <v>44130</v>
       </c>
-      <c r="C58" s="415"/>
-      <c r="D58" s="415" t="s">
+      <c r="C58" s="408"/>
+      <c r="D58" s="408" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="408" t="s">
         <v>211</v>
-      </c>
-      <c r="E58" s="415" t="s">
-        <v>212</v>
       </c>
       <c r="F58" s="161" t="s">
         <v>123</v>
@@ -6456,11 +6458,11 @@
       <c r="P58" s="161"/>
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="416"/>
-      <c r="B59" s="419"/>
-      <c r="C59" s="416"/>
-      <c r="D59" s="416"/>
-      <c r="E59" s="416"/>
+      <c r="A59" s="409"/>
+      <c r="B59" s="412"/>
+      <c r="C59" s="409"/>
+      <c r="D59" s="409"/>
+      <c r="E59" s="409"/>
       <c r="F59" s="174" t="s">
         <v>124</v>
       </c>
@@ -6491,13 +6493,13 @@
       <c r="P59" s="174"/>
     </row>
     <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="416"/>
-      <c r="B60" s="419"/>
-      <c r="C60" s="416"/>
-      <c r="D60" s="416"/>
-      <c r="E60" s="416"/>
+      <c r="A60" s="409"/>
+      <c r="B60" s="412"/>
+      <c r="C60" s="409"/>
+      <c r="D60" s="409"/>
+      <c r="E60" s="409"/>
       <c r="F60" s="174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" s="174">
         <v>24</v>
@@ -6526,11 +6528,11 @@
       <c r="P60" s="174"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="416"/>
-      <c r="B61" s="419"/>
-      <c r="C61" s="416"/>
-      <c r="D61" s="416"/>
-      <c r="E61" s="416"/>
+      <c r="A61" s="409"/>
+      <c r="B61" s="412"/>
+      <c r="C61" s="409"/>
+      <c r="D61" s="409"/>
+      <c r="E61" s="409"/>
       <c r="F61" s="174" t="s">
         <v>125</v>
       </c>
@@ -6561,11 +6563,11 @@
       <c r="P61" s="174"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="416"/>
-      <c r="B62" s="419"/>
-      <c r="C62" s="416"/>
-      <c r="D62" s="416"/>
-      <c r="E62" s="416"/>
+      <c r="A62" s="409"/>
+      <c r="B62" s="412"/>
+      <c r="C62" s="409"/>
+      <c r="D62" s="409"/>
+      <c r="E62" s="409"/>
       <c r="F62" s="174" t="s">
         <v>138</v>
       </c>
@@ -6596,11 +6598,11 @@
       <c r="P62" s="174"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="416"/>
-      <c r="B63" s="419"/>
-      <c r="C63" s="416"/>
-      <c r="D63" s="416"/>
-      <c r="E63" s="416"/>
+      <c r="A63" s="409"/>
+      <c r="B63" s="412"/>
+      <c r="C63" s="409"/>
+      <c r="D63" s="409"/>
+      <c r="E63" s="409"/>
       <c r="F63" s="174" t="s">
         <v>120</v>
       </c>
@@ -6631,11 +6633,11 @@
       <c r="P63" s="174"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="417"/>
-      <c r="B64" s="420"/>
-      <c r="C64" s="417"/>
-      <c r="D64" s="417"/>
-      <c r="E64" s="417"/>
+      <c r="A64" s="410"/>
+      <c r="B64" s="413"/>
+      <c r="C64" s="410"/>
+      <c r="D64" s="410"/>
+      <c r="E64" s="410"/>
       <c r="F64" s="165" t="s">
         <v>132</v>
       </c>
@@ -6666,21 +6668,21 @@
       <c r="P64" s="165"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="415">
+      <c r="A65" s="408">
         <v>1204</v>
       </c>
-      <c r="B65" s="418">
+      <c r="B65" s="411">
         <v>44130</v>
       </c>
-      <c r="C65" s="415"/>
-      <c r="D65" s="415" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="415" t="s">
-        <v>232</v>
+      <c r="C65" s="408"/>
+      <c r="D65" s="408" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="408" t="s">
+        <v>231</v>
       </c>
       <c r="F65" s="161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G65" s="161">
         <v>12</v>
@@ -6709,11 +6711,11 @@
       <c r="P65" s="161"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="416"/>
-      <c r="B66" s="419"/>
-      <c r="C66" s="416"/>
-      <c r="D66" s="416"/>
-      <c r="E66" s="416"/>
+      <c r="A66" s="409"/>
+      <c r="B66" s="412"/>
+      <c r="C66" s="409"/>
+      <c r="D66" s="409"/>
+      <c r="E66" s="409"/>
       <c r="F66" s="174" t="s">
         <v>125</v>
       </c>
@@ -6744,11 +6746,11 @@
       <c r="P66" s="174"/>
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="417"/>
-      <c r="B67" s="420"/>
-      <c r="C67" s="417"/>
-      <c r="D67" s="417"/>
-      <c r="E67" s="417"/>
+      <c r="A67" s="410"/>
+      <c r="B67" s="413"/>
+      <c r="C67" s="410"/>
+      <c r="D67" s="410"/>
+      <c r="E67" s="410"/>
       <c r="F67" s="165" t="s">
         <v>120</v>
       </c>
@@ -6784,10 +6786,10 @@
         <v>44130</v>
       </c>
       <c r="C68" s="360" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D68" s="360" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" s="360"/>
       <c r="F68" s="380" t="s">
@@ -6830,7 +6832,7 @@
         <v>129</v>
       </c>
       <c r="D69" s="376" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E69" s="376"/>
       <c r="F69" s="155" t="s">
@@ -6875,7 +6877,7 @@
       </c>
       <c r="E70" s="376"/>
       <c r="F70" s="155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G70" s="155">
         <v>24</v>
@@ -6914,7 +6916,7 @@
         <v>129</v>
       </c>
       <c r="D71" s="376" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E71" s="376"/>
       <c r="F71" s="155" t="s">
@@ -6947,21 +6949,21 @@
       <c r="P71" s="155"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="415">
+      <c r="A72" s="408">
         <v>1209</v>
       </c>
-      <c r="B72" s="418">
+      <c r="B72" s="411">
         <v>44135</v>
       </c>
-      <c r="C72" s="415"/>
-      <c r="D72" s="415" t="s">
-        <v>211</v>
-      </c>
-      <c r="E72" s="415" t="s">
-        <v>236</v>
+      <c r="C72" s="408"/>
+      <c r="D72" s="408" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="408" t="s">
+        <v>235</v>
       </c>
       <c r="F72" s="161" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G72" s="161">
         <v>48</v>
@@ -6990,13 +6992,13 @@
       <c r="P72" s="161"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="417"/>
-      <c r="B73" s="420"/>
-      <c r="C73" s="417"/>
-      <c r="D73" s="417"/>
-      <c r="E73" s="417"/>
+      <c r="A73" s="410"/>
+      <c r="B73" s="413"/>
+      <c r="C73" s="410"/>
+      <c r="D73" s="410"/>
+      <c r="E73" s="410"/>
       <c r="F73" s="165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G73" s="165">
         <v>48</v>
@@ -7033,7 +7035,7 @@
       </c>
       <c r="C74" s="364"/>
       <c r="D74" s="364" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E74" s="364"/>
       <c r="F74" s="206" t="s">
@@ -7210,14 +7212,14 @@
       <c r="P82" s="165"/>
     </row>
     <row r="83" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="409" t="s">
+      <c r="A83" s="430" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="409"/>
-      <c r="C83" s="409"/>
-      <c r="D83" s="409"/>
-      <c r="E83" s="409"/>
-      <c r="F83" s="409"/>
+      <c r="B83" s="430"/>
+      <c r="C83" s="430"/>
+      <c r="D83" s="430"/>
+      <c r="E83" s="430"/>
+      <c r="F83" s="430"/>
       <c r="G83" s="130">
         <f>SUM(G8:G82)</f>
         <v>1291</v>
@@ -7237,17 +7239,17 @@
       <c r="N83" s="131"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
-      <c r="Q83" s="421"/>
+      <c r="Q83" s="423"/>
     </row>
     <row r="84" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="408" t="s">
+      <c r="A84" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="408"/>
-      <c r="C84" s="408"/>
-      <c r="D84" s="408"/>
-      <c r="E84" s="408"/>
-      <c r="F84" s="408"/>
+      <c r="B84" s="424"/>
+      <c r="C84" s="424"/>
+      <c r="D84" s="424"/>
+      <c r="E84" s="424"/>
+      <c r="F84" s="424"/>
       <c r="G84" s="130">
         <f>G83</f>
         <v>1291</v>
@@ -7264,17 +7266,17 @@
       <c r="N84" s="135"/>
       <c r="O84" s="135"/>
       <c r="P84" s="135"/>
-      <c r="Q84" s="421"/>
+      <c r="Q84" s="423"/>
     </row>
     <row r="85" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="408" t="s">
+      <c r="A85" s="424" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="408"/>
-      <c r="C85" s="408"/>
-      <c r="D85" s="408"/>
-      <c r="E85" s="408"/>
-      <c r="F85" s="408"/>
+      <c r="B85" s="424"/>
+      <c r="C85" s="424"/>
+      <c r="D85" s="424"/>
+      <c r="E85" s="424"/>
+      <c r="F85" s="424"/>
       <c r="G85" s="136" t="s">
         <v>45</v>
       </c>
@@ -7292,14 +7294,14 @@
       <c r="P85" s="137"/>
     </row>
     <row r="86" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="408" t="s">
+      <c r="A86" s="424" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="408"/>
-      <c r="C86" s="408"/>
-      <c r="D86" s="408"/>
-      <c r="E86" s="408"/>
-      <c r="F86" s="408"/>
+      <c r="B86" s="424"/>
+      <c r="C86" s="424"/>
+      <c r="D86" s="424"/>
+      <c r="E86" s="424"/>
+      <c r="F86" s="424"/>
       <c r="G86" s="135"/>
       <c r="H86" s="135"/>
       <c r="I86" s="131"/>
@@ -7315,14 +7317,14 @@
       <c r="P86" s="137"/>
     </row>
     <row r="87" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="408" t="s">
+      <c r="A87" s="424" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="408"/>
-      <c r="C87" s="408"/>
-      <c r="D87" s="408"/>
-      <c r="E87" s="408"/>
-      <c r="F87" s="408"/>
+      <c r="B87" s="424"/>
+      <c r="C87" s="424"/>
+      <c r="D87" s="424"/>
+      <c r="E87" s="424"/>
+      <c r="F87" s="424"/>
       <c r="G87" s="135"/>
       <c r="H87" s="135"/>
       <c r="I87" s="131"/>
@@ -7393,16 +7395,79 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="107">
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -7427,79 +7492,16 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7544,75 +7546,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="436" t="s">
+      <c r="A3" s="442" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="436"/>
-      <c r="C3" s="436"/>
-      <c r="D3" s="436"/>
-      <c r="E3" s="436"/>
-      <c r="F3" s="436"/>
-      <c r="G3" s="436"/>
-      <c r="H3" s="436"/>
-      <c r="I3" s="436"/>
-      <c r="J3" s="436"/>
-      <c r="K3" s="436"/>
+      <c r="B3" s="442"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="442"/>
+      <c r="G3" s="442"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="442"/>
+      <c r="J3" s="442"/>
+      <c r="K3" s="442"/>
       <c r="L3" s="289"/>
       <c r="M3" s="289"/>
       <c r="N3" s="289"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="437" t="s">
+      <c r="A4" s="443" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="437"/>
-      <c r="C4" s="437"/>
-      <c r="D4" s="437"/>
-      <c r="E4" s="437"/>
-      <c r="F4" s="437"/>
-      <c r="G4" s="437"/>
-      <c r="H4" s="437"/>
-      <c r="I4" s="437"/>
-      <c r="J4" s="438"/>
-      <c r="K4" s="437"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
+      <c r="J4" s="444"/>
+      <c r="K4" s="443"/>
       <c r="L4" s="290"/>
       <c r="M4" s="290"/>
       <c r="N4" s="290"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="439" t="s">
+      <c r="A5" s="445" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="439" t="s">
+      <c r="C5" s="445" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="439" t="s">
+      <c r="D5" s="445" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="439"/>
-      <c r="F5" s="441" t="s">
+      <c r="E5" s="445"/>
+      <c r="F5" s="447" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="441"/>
-      <c r="H5" s="441"/>
-      <c r="I5" s="441"/>
-      <c r="J5" s="442"/>
-      <c r="K5" s="443" t="s">
+      <c r="G5" s="447"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="449" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="435" t="s">
+      <c r="L5" s="441" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="435"/>
-      <c r="N5" s="435"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="439"/>
-      <c r="B6" s="440"/>
-      <c r="C6" s="439"/>
+      <c r="A6" s="445"/>
+      <c r="B6" s="446"/>
+      <c r="C6" s="445"/>
       <c r="D6" s="291" t="s">
         <v>40</v>
       </c>
@@ -7634,7 +7636,7 @@
       <c r="J6" s="295" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="443"/>
+      <c r="K6" s="449"/>
       <c r="L6" s="296" t="s">
         <v>52</v>
       </c>
@@ -7685,19 +7687,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="444">
+      <c r="A8" s="434">
         <v>811</v>
       </c>
-      <c r="B8" s="446">
+      <c r="B8" s="437">
         <v>44107</v>
       </c>
-      <c r="C8" s="444" t="s">
+      <c r="C8" s="434" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="444" t="s">
+      <c r="D8" s="434" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="444"/>
+      <c r="E8" s="434"/>
       <c r="F8" s="297" t="s">
         <v>123</v>
       </c>
@@ -7726,11 +7728,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="445"/>
-      <c r="B9" s="447"/>
-      <c r="C9" s="445"/>
-      <c r="D9" s="445"/>
-      <c r="E9" s="445"/>
+      <c r="A9" s="436"/>
+      <c r="B9" s="439"/>
+      <c r="C9" s="436"/>
+      <c r="D9" s="436"/>
+      <c r="E9" s="436"/>
       <c r="F9" s="307" t="s">
         <v>124</v>
       </c>
@@ -7759,17 +7761,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="444">
+      <c r="A10" s="434">
         <v>817</v>
       </c>
-      <c r="B10" s="446">
+      <c r="B10" s="437">
         <v>44107</v>
       </c>
-      <c r="C10" s="444"/>
-      <c r="D10" s="444" t="s">
+      <c r="C10" s="434"/>
+      <c r="D10" s="434" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="444"/>
+      <c r="E10" s="434"/>
       <c r="F10" s="297" t="s">
         <v>123</v>
       </c>
@@ -7798,11 +7800,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="448"/>
-      <c r="B11" s="449"/>
-      <c r="C11" s="448"/>
-      <c r="D11" s="448"/>
-      <c r="E11" s="448"/>
+      <c r="A11" s="435"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="435"/>
+      <c r="D11" s="435"/>
+      <c r="E11" s="435"/>
       <c r="F11" s="302" t="s">
         <v>124</v>
       </c>
@@ -7831,11 +7833,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="445"/>
-      <c r="B12" s="447"/>
-      <c r="C12" s="445"/>
-      <c r="D12" s="445"/>
-      <c r="E12" s="445"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="439"/>
+      <c r="C12" s="436"/>
+      <c r="D12" s="436"/>
+      <c r="E12" s="436"/>
       <c r="F12" s="307" t="s">
         <v>125</v>
       </c>
@@ -7981,17 +7983,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="444">
+      <c r="A16" s="434">
         <v>815</v>
       </c>
-      <c r="B16" s="446">
+      <c r="B16" s="437">
         <v>44112</v>
       </c>
-      <c r="C16" s="444"/>
-      <c r="D16" s="444" t="s">
+      <c r="C16" s="434"/>
+      <c r="D16" s="434" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="444"/>
+      <c r="E16" s="434"/>
       <c r="F16" s="297" t="s">
         <v>123</v>
       </c>
@@ -8020,11 +8022,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="445"/>
-      <c r="B17" s="447"/>
-      <c r="C17" s="445"/>
-      <c r="D17" s="445"/>
-      <c r="E17" s="445"/>
+      <c r="A17" s="436"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="436"/>
+      <c r="D17" s="436"/>
+      <c r="E17" s="436"/>
       <c r="F17" s="307" t="s">
         <v>124</v>
       </c>
@@ -8053,17 +8055,17 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="444">
+      <c r="A18" s="434">
         <v>820</v>
       </c>
-      <c r="B18" s="446">
+      <c r="B18" s="437">
         <v>44113</v>
       </c>
-      <c r="C18" s="444"/>
-      <c r="D18" s="444" t="s">
+      <c r="C18" s="434"/>
+      <c r="D18" s="434" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="444"/>
+      <c r="E18" s="434"/>
       <c r="F18" s="297" t="s">
         <v>123</v>
       </c>
@@ -8092,11 +8094,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="445"/>
-      <c r="B19" s="447"/>
-      <c r="C19" s="445"/>
-      <c r="D19" s="445"/>
-      <c r="E19" s="445"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="439"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
       <c r="F19" s="307" t="s">
         <v>124</v>
       </c>
@@ -8135,10 +8137,10 @@
         <v>127</v>
       </c>
       <c r="D20" s="328" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="328" t="s">
         <v>192</v>
-      </c>
-      <c r="E20" s="328" t="s">
-        <v>193</v>
       </c>
       <c r="F20" s="330" t="s">
         <v>120</v>
@@ -8258,7 +8260,7 @@
       </c>
       <c r="E23" s="328"/>
       <c r="F23" s="330" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G23" s="330">
         <v>12</v>
@@ -8285,19 +8287,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="444">
+      <c r="A24" s="434">
         <v>845</v>
       </c>
-      <c r="B24" s="446">
+      <c r="B24" s="437">
         <v>44127</v>
       </c>
-      <c r="C24" s="444" t="s">
+      <c r="C24" s="434" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="444" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="444"/>
+      <c r="D24" s="434" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="434"/>
       <c r="F24" s="297" t="s">
         <v>124</v>
       </c>
@@ -8326,13 +8328,13 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="448"/>
-      <c r="B25" s="449"/>
-      <c r="C25" s="448"/>
-      <c r="D25" s="448"/>
-      <c r="E25" s="448"/>
+      <c r="A25" s="435"/>
+      <c r="B25" s="438"/>
+      <c r="C25" s="435"/>
+      <c r="D25" s="435"/>
+      <c r="E25" s="435"/>
       <c r="F25" s="302" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G25" s="302">
         <v>1</v>
@@ -8359,13 +8361,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="448"/>
-      <c r="B26" s="449"/>
-      <c r="C26" s="448"/>
-      <c r="D26" s="448"/>
-      <c r="E26" s="448"/>
+      <c r="A26" s="435"/>
+      <c r="B26" s="438"/>
+      <c r="C26" s="435"/>
+      <c r="D26" s="435"/>
+      <c r="E26" s="435"/>
       <c r="F26" s="302" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="302">
         <v>1</v>
@@ -8392,11 +8394,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="448"/>
-      <c r="B27" s="449"/>
-      <c r="C27" s="448"/>
-      <c r="D27" s="448"/>
-      <c r="E27" s="448"/>
+      <c r="A27" s="435"/>
+      <c r="B27" s="438"/>
+      <c r="C27" s="435"/>
+      <c r="D27" s="435"/>
+      <c r="E27" s="435"/>
       <c r="F27" s="302" t="s">
         <v>125</v>
       </c>
@@ -8425,13 +8427,13 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="448"/>
-      <c r="B28" s="449"/>
-      <c r="C28" s="448"/>
-      <c r="D28" s="448"/>
-      <c r="E28" s="448"/>
+      <c r="A28" s="435"/>
+      <c r="B28" s="438"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="435"/>
       <c r="F28" s="302" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G28" s="302">
         <v>1</v>
@@ -8458,11 +8460,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="448"/>
-      <c r="B29" s="449"/>
-      <c r="C29" s="448"/>
-      <c r="D29" s="448"/>
-      <c r="E29" s="448"/>
+      <c r="A29" s="435"/>
+      <c r="B29" s="438"/>
+      <c r="C29" s="435"/>
+      <c r="D29" s="435"/>
+      <c r="E29" s="435"/>
       <c r="F29" s="302" t="s">
         <v>120</v>
       </c>
@@ -8491,11 +8493,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="445"/>
-      <c r="B30" s="447"/>
-      <c r="C30" s="445"/>
-      <c r="D30" s="445"/>
-      <c r="E30" s="445"/>
+      <c r="A30" s="436"/>
+      <c r="B30" s="439"/>
+      <c r="C30" s="436"/>
+      <c r="D30" s="436"/>
+      <c r="E30" s="436"/>
       <c r="F30" s="307" t="s">
         <v>132</v>
       </c>
@@ -8532,11 +8534,11 @@
       </c>
       <c r="C31" s="384"/>
       <c r="D31" s="384" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" s="384"/>
       <c r="F31" s="386" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="386">
         <v>2</v>
@@ -8563,19 +8565,19 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="444">
+      <c r="A32" s="434">
         <v>1203</v>
       </c>
-      <c r="B32" s="446">
+      <c r="B32" s="437">
         <v>44130</v>
       </c>
-      <c r="C32" s="444"/>
-      <c r="D32" s="444" t="s">
+      <c r="C32" s="434"/>
+      <c r="D32" s="434" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="434"/>
+      <c r="F32" s="297" t="s">
         <v>198</v>
-      </c>
-      <c r="E32" s="444"/>
-      <c r="F32" s="297" t="s">
-        <v>199</v>
       </c>
       <c r="G32" s="297">
         <v>60</v>
@@ -8602,13 +8604,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="448"/>
-      <c r="B33" s="449"/>
-      <c r="C33" s="448"/>
-      <c r="D33" s="448"/>
-      <c r="E33" s="448"/>
+      <c r="A33" s="435"/>
+      <c r="B33" s="438"/>
+      <c r="C33" s="435"/>
+      <c r="D33" s="435"/>
+      <c r="E33" s="435"/>
       <c r="F33" s="302" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="302">
         <v>11</v>
@@ -8635,11 +8637,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="448"/>
-      <c r="B34" s="449"/>
-      <c r="C34" s="448"/>
-      <c r="D34" s="448"/>
-      <c r="E34" s="448"/>
+      <c r="A34" s="435"/>
+      <c r="B34" s="438"/>
+      <c r="C34" s="435"/>
+      <c r="D34" s="435"/>
+      <c r="E34" s="435"/>
       <c r="F34" s="302" t="s">
         <v>138</v>
       </c>
@@ -8668,11 +8670,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="445"/>
-      <c r="B35" s="447"/>
-      <c r="C35" s="445"/>
-      <c r="D35" s="445"/>
-      <c r="E35" s="445"/>
+      <c r="A35" s="436"/>
+      <c r="B35" s="439"/>
+      <c r="C35" s="436"/>
+      <c r="D35" s="436"/>
+      <c r="E35" s="436"/>
       <c r="F35" s="307" t="s">
         <v>120</v>
       </c>
@@ -8706,10 +8708,10 @@
         <v>44130</v>
       </c>
       <c r="C36" s="337" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D36" s="337" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="337"/>
       <c r="F36" s="351" t="s">
@@ -8752,7 +8754,7 @@
       </c>
       <c r="E37" s="337"/>
       <c r="F37" s="351" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" s="351">
         <v>12</v>
@@ -8779,13 +8781,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="318" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="434" t="s">
+      <c r="A38" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="434"/>
-      <c r="C38" s="434"/>
-      <c r="D38" s="434"/>
-      <c r="E38" s="434"/>
+      <c r="B38" s="440"/>
+      <c r="C38" s="440"/>
+      <c r="D38" s="440"/>
+      <c r="E38" s="440"/>
       <c r="F38" s="312"/>
       <c r="G38" s="312">
         <f>SUM(G7:G37)</f>
@@ -8873,30 +8875,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -8913,6 +8891,30 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9354,7 +9356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -9376,13 +9378,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="482" t="s">
+      <c r="A1" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9390,7 +9392,7 @@
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="256" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="256"/>
       <c r="C2" s="256"/>
@@ -9402,176 +9404,176 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="483" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="D4" s="483"/>
-      <c r="E4" s="483"/>
-      <c r="F4" s="483"/>
-      <c r="G4" s="483"/>
-      <c r="H4" s="483"/>
+      <c r="A4" s="458" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="458"/>
+      <c r="C4" s="458"/>
+      <c r="D4" s="458"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458"/>
+      <c r="H4" s="458"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="484" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="484"/>
-      <c r="C6" s="484"/>
-      <c r="D6" s="484"/>
-      <c r="E6" s="484"/>
-      <c r="F6" s="484"/>
-      <c r="G6" s="485" t="s">
+      <c r="A6" s="459" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="459"/>
+      <c r="C6" s="459"/>
+      <c r="D6" s="459"/>
+      <c r="E6" s="459"/>
+      <c r="F6" s="459"/>
+      <c r="G6" s="460" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="485"/>
+      <c r="H6" s="460"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="476" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="477"/>
+      <c r="A7" s="473" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="474"/>
       <c r="C7" s="265"/>
       <c r="D7" s="266"/>
       <c r="E7" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="65"/>
-      <c r="G7" s="474">
+      <c r="G7" s="471">
         <v>4744538</v>
       </c>
-      <c r="H7" s="475"/>
-      <c r="I7" s="480" t="s">
-        <v>244</v>
-      </c>
-      <c r="J7" s="481"/>
+      <c r="H7" s="472"/>
+      <c r="I7" s="455" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="456"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="478"/>
-      <c r="B8" s="479"/>
+      <c r="A8" s="475"/>
+      <c r="B8" s="476"/>
       <c r="C8" s="265"/>
       <c r="D8" s="266"/>
       <c r="E8" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="474">
+      <c r="G8" s="471">
         <v>6713000</v>
       </c>
-      <c r="H8" s="475"/>
-      <c r="I8" s="480"/>
-      <c r="J8" s="481"/>
+      <c r="H8" s="472"/>
+      <c r="I8" s="455"/>
+      <c r="J8" s="456"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="464" t="s">
+      <c r="A9" s="461" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="462"/>
+      <c r="C9" s="462"/>
+      <c r="D9" s="463"/>
+      <c r="E9" s="257" t="s">
         <v>182</v>
-      </c>
-      <c r="B9" s="465"/>
-      <c r="C9" s="465"/>
-      <c r="D9" s="466"/>
-      <c r="E9" s="257" t="s">
-        <v>183</v>
       </c>
       <c r="F9" s="258">
         <v>382000</v>
       </c>
-      <c r="G9" s="470">
+      <c r="G9" s="467">
         <f>SUM(F9:F13)</f>
         <v>3625000</v>
       </c>
-      <c r="H9" s="471"/>
+      <c r="H9" s="468"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="467"/>
-      <c r="B10" s="468"/>
-      <c r="C10" s="468"/>
-      <c r="D10" s="469"/>
+      <c r="A10" s="464"/>
+      <c r="B10" s="465"/>
+      <c r="C10" s="465"/>
+      <c r="D10" s="466"/>
       <c r="E10" s="257" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="258">
         <v>997000</v>
       </c>
-      <c r="G10" s="472"/>
-      <c r="H10" s="473"/>
+      <c r="G10" s="469"/>
+      <c r="H10" s="470"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="467"/>
-      <c r="B11" s="468"/>
-      <c r="C11" s="468"/>
-      <c r="D11" s="469"/>
+      <c r="A11" s="464"/>
+      <c r="B11" s="465"/>
+      <c r="C11" s="465"/>
+      <c r="D11" s="466"/>
       <c r="E11" s="257" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="258">
         <v>417000</v>
       </c>
-      <c r="G11" s="472"/>
-      <c r="H11" s="473"/>
+      <c r="G11" s="469"/>
+      <c r="H11" s="470"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="467"/>
-      <c r="B12" s="468"/>
-      <c r="C12" s="468"/>
-      <c r="D12" s="469"/>
+      <c r="A12" s="464"/>
+      <c r="B12" s="465"/>
+      <c r="C12" s="465"/>
+      <c r="D12" s="466"/>
       <c r="E12" s="257" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="258">
         <v>914000</v>
       </c>
-      <c r="G12" s="472"/>
-      <c r="H12" s="473"/>
+      <c r="G12" s="469"/>
+      <c r="H12" s="470"/>
     </row>
     <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="467"/>
-      <c r="B13" s="468"/>
-      <c r="C13" s="468"/>
-      <c r="D13" s="469"/>
+      <c r="A13" s="464"/>
+      <c r="B13" s="465"/>
+      <c r="C13" s="465"/>
+      <c r="D13" s="466"/>
       <c r="E13" s="267" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="258">
         <v>915000</v>
       </c>
-      <c r="G13" s="472"/>
-      <c r="H13" s="473"/>
+      <c r="G13" s="469"/>
+      <c r="H13" s="470"/>
       <c r="O13" s="274"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="458" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="458"/>
-      <c r="C14" s="458"/>
-      <c r="D14" s="458"/>
-      <c r="E14" s="458"/>
-      <c r="F14" s="458"/>
-      <c r="G14" s="459">
+      <c r="A14" s="480" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="480"/>
+      <c r="C14" s="480"/>
+      <c r="D14" s="480"/>
+      <c r="E14" s="480"/>
+      <c r="F14" s="480"/>
+      <c r="G14" s="481">
         <f>'Bảng lương'!F12</f>
         <v>6576923.076923077</v>
       </c>
-      <c r="H14" s="459"/>
+      <c r="H14" s="481"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="460" t="s">
+      <c r="A15" s="482" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="460"/>
-      <c r="C15" s="460"/>
-      <c r="D15" s="460"/>
-      <c r="E15" s="460"/>
-      <c r="F15" s="460"/>
-      <c r="G15" s="461">
+      <c r="B15" s="482"/>
+      <c r="C15" s="482"/>
+      <c r="D15" s="482"/>
+      <c r="E15" s="482"/>
+      <c r="F15" s="482"/>
+      <c r="G15" s="483">
         <f>G7+G8+G9+G14</f>
         <v>21659461.076923076</v>
       </c>
-      <c r="H15" s="461"/>
+      <c r="H15" s="483"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="275" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="268"/>
       <c r="C17" s="268"/>
@@ -9580,14 +9582,14 @@
       <c r="K17" s="274"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="462">
+      <c r="A18" s="484">
         <v>44106</v>
       </c>
-      <c r="B18" s="462"/>
+      <c r="B18" s="484"/>
       <c r="C18" s="269"/>
       <c r="D18" s="269"/>
       <c r="E18" s="269" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="270">
         <v>455000</v>
@@ -9596,14 +9598,14 @@
       <c r="P18" s="274"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="462">
+      <c r="A19" s="484">
         <v>44116</v>
       </c>
-      <c r="B19" s="462"/>
+      <c r="B19" s="484"/>
       <c r="C19" s="269"/>
       <c r="D19" s="269"/>
       <c r="E19" s="269" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="270">
         <v>2000000</v>
@@ -9611,28 +9613,28 @@
       <c r="K19" s="274"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="462">
+      <c r="A20" s="484">
         <v>44120</v>
       </c>
-      <c r="B20" s="462"/>
+      <c r="B20" s="484"/>
       <c r="C20" s="269"/>
       <c r="D20" s="269"/>
       <c r="E20" s="269" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="270">
         <v>2000000</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="463">
+      <c r="A21" s="485">
         <v>44128</v>
       </c>
-      <c r="B21" s="463"/>
+      <c r="B21" s="485"/>
       <c r="C21" s="269"/>
       <c r="D21" s="269"/>
       <c r="E21" s="350" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F21" s="270">
         <f>'THU CHI'!H41</f>
@@ -9642,14 +9644,14 @@
       <c r="M21" s="274"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="462">
+      <c r="A22" s="484">
         <v>44131</v>
       </c>
-      <c r="B22" s="462"/>
+      <c r="B22" s="484"/>
       <c r="C22" s="269"/>
       <c r="D22" s="269"/>
       <c r="E22" s="282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F22" s="270">
         <v>485000</v>
@@ -9657,13 +9659,13 @@
       <c r="M22" s="274"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="455" t="s">
+      <c r="A23" s="477" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="456"/>
-      <c r="C23" s="456"/>
-      <c r="D23" s="456"/>
-      <c r="E23" s="457"/>
+      <c r="B23" s="478"/>
+      <c r="C23" s="478"/>
+      <c r="D23" s="478"/>
+      <c r="E23" s="479"/>
       <c r="F23" s="276">
         <f>SUM(F18:F22)</f>
         <v>7558900</v>
@@ -9678,7 +9680,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="278" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="279"/>
       <c r="C25" s="280"/>
@@ -9723,16 +9725,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -9743,6 +9735,16 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10283,62 +10285,62 @@
       <c r="C1" s="214"/>
       <c r="D1" s="214"/>
       <c r="E1" s="214"/>
-      <c r="Z1" s="491" t="s">
+      <c r="Z1" s="504" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="492"/>
-      <c r="AB1" s="492"/>
-      <c r="AC1" s="492"/>
-      <c r="AD1" s="492"/>
-      <c r="AE1" s="492"/>
-      <c r="AF1" s="492"/>
-      <c r="AG1" s="493"/>
+      <c r="AA1" s="505"/>
+      <c r="AB1" s="505"/>
+      <c r="AC1" s="505"/>
+      <c r="AD1" s="505"/>
+      <c r="AE1" s="505"/>
+      <c r="AF1" s="505"/>
+      <c r="AG1" s="506"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="217"/>
       <c r="C2" s="218"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
-      <c r="Z2" s="486" t="s">
+      <c r="Z2" s="487" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA2" s="488"/>
+      <c r="AB2" s="488"/>
+      <c r="AC2" s="488"/>
+      <c r="AD2" s="488"/>
+      <c r="AE2" s="489"/>
+      <c r="AF2" s="490" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" s="487"/>
-      <c r="AB2" s="487"/>
-      <c r="AC2" s="487"/>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="488"/>
-      <c r="AF2" s="489" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG2" s="490"/>
+      <c r="AG2" s="491"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="217" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="486" t="s">
+      <c r="Z3" s="487" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA3" s="488"/>
+      <c r="AB3" s="488"/>
+      <c r="AC3" s="488"/>
+      <c r="AD3" s="488"/>
+      <c r="AE3" s="489"/>
+      <c r="AF3" s="490" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" s="487"/>
-      <c r="AB3" s="487"/>
-      <c r="AC3" s="487"/>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="488"/>
-      <c r="AF3" s="489" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG3" s="490"/>
+      <c r="AG3" s="491"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="217" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -10347,39 +10349,39 @@
       <c r="T4" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="486" t="s">
+      <c r="Z4" s="487" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA4" s="488"/>
+      <c r="AB4" s="488"/>
+      <c r="AC4" s="488"/>
+      <c r="AD4" s="488"/>
+      <c r="AE4" s="489"/>
+      <c r="AF4" s="490" t="s">
         <v>154</v>
       </c>
-      <c r="AA4" s="487"/>
-      <c r="AB4" s="487"/>
-      <c r="AC4" s="487"/>
-      <c r="AD4" s="487"/>
-      <c r="AE4" s="488"/>
-      <c r="AF4" s="489" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG4" s="490"/>
+      <c r="AG4" s="491"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="217" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="486" t="s">
+      <c r="Z5" s="487" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA5" s="488"/>
+      <c r="AB5" s="488"/>
+      <c r="AC5" s="488"/>
+      <c r="AD5" s="488"/>
+      <c r="AE5" s="489"/>
+      <c r="AF5" s="490" t="s">
         <v>157</v>
       </c>
-      <c r="AA5" s="487"/>
-      <c r="AB5" s="487"/>
-      <c r="AC5" s="487"/>
-      <c r="AD5" s="487"/>
-      <c r="AE5" s="488"/>
-      <c r="AF5" s="489" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG5" s="490"/>
+      <c r="AG5" s="491"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="219"/>
@@ -10389,94 +10391,94 @@
       <c r="E6" s="219"/>
     </row>
     <row r="7" spans="1:40" s="222" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="495" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="495"/>
-      <c r="C7" s="495"/>
-      <c r="D7" s="495"/>
-      <c r="E7" s="495"/>
-      <c r="F7" s="495"/>
-      <c r="G7" s="495"/>
-      <c r="H7" s="495"/>
-      <c r="I7" s="495"/>
-      <c r="J7" s="495"/>
-      <c r="K7" s="495"/>
-      <c r="L7" s="495"/>
-      <c r="M7" s="495"/>
-      <c r="N7" s="495"/>
-      <c r="O7" s="495"/>
-      <c r="P7" s="495"/>
-      <c r="Q7" s="495"/>
-      <c r="R7" s="495"/>
-      <c r="S7" s="495"/>
-      <c r="T7" s="495"/>
-      <c r="U7" s="495"/>
-      <c r="V7" s="495"/>
-      <c r="W7" s="495"/>
-      <c r="X7" s="495"/>
-      <c r="Y7" s="495"/>
-      <c r="Z7" s="495"/>
-      <c r="AA7" s="495"/>
-      <c r="AB7" s="495"/>
-      <c r="AC7" s="495"/>
-      <c r="AD7" s="495"/>
-      <c r="AE7" s="495"/>
-      <c r="AF7" s="495"/>
-      <c r="AG7" s="495"/>
-      <c r="AH7" s="495"/>
-      <c r="AI7" s="495"/>
-      <c r="AJ7" s="495"/>
-      <c r="AK7" s="495"/>
-      <c r="AL7" s="495"/>
-      <c r="AM7" s="495"/>
+      <c r="A7" s="492" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="492"/>
+      <c r="C7" s="492"/>
+      <c r="D7" s="492"/>
+      <c r="E7" s="492"/>
+      <c r="F7" s="492"/>
+      <c r="G7" s="492"/>
+      <c r="H7" s="492"/>
+      <c r="I7" s="492"/>
+      <c r="J7" s="492"/>
+      <c r="K7" s="492"/>
+      <c r="L7" s="492"/>
+      <c r="M7" s="492"/>
+      <c r="N7" s="492"/>
+      <c r="O7" s="492"/>
+      <c r="P7" s="492"/>
+      <c r="Q7" s="492"/>
+      <c r="R7" s="492"/>
+      <c r="S7" s="492"/>
+      <c r="T7" s="492"/>
+      <c r="U7" s="492"/>
+      <c r="V7" s="492"/>
+      <c r="W7" s="492"/>
+      <c r="X7" s="492"/>
+      <c r="Y7" s="492"/>
+      <c r="Z7" s="492"/>
+      <c r="AA7" s="492"/>
+      <c r="AB7" s="492"/>
+      <c r="AC7" s="492"/>
+      <c r="AD7" s="492"/>
+      <c r="AE7" s="492"/>
+      <c r="AF7" s="492"/>
+      <c r="AG7" s="492"/>
+      <c r="AH7" s="492"/>
+      <c r="AI7" s="492"/>
+      <c r="AJ7" s="492"/>
+      <c r="AK7" s="492"/>
+      <c r="AL7" s="492"/>
+      <c r="AM7" s="492"/>
       <c r="AN7" s="221"/>
     </row>
     <row r="9" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="496" t="s">
+      <c r="A9" s="493" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="493" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="496" t="s">
+      <c r="C9" s="493" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="496" t="s">
+      <c r="D9" s="496" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="499" t="s">
+      <c r="E9" s="497"/>
+      <c r="F9" s="497"/>
+      <c r="G9" s="497"/>
+      <c r="H9" s="497"/>
+      <c r="I9" s="497"/>
+      <c r="J9" s="497"/>
+      <c r="K9" s="497"/>
+      <c r="L9" s="497"/>
+      <c r="M9" s="497"/>
+      <c r="N9" s="497"/>
+      <c r="O9" s="497"/>
+      <c r="P9" s="497"/>
+      <c r="Q9" s="497"/>
+      <c r="R9" s="497"/>
+      <c r="S9" s="497"/>
+      <c r="T9" s="497"/>
+      <c r="U9" s="497"/>
+      <c r="V9" s="497"/>
+      <c r="W9" s="497"/>
+      <c r="X9" s="497"/>
+      <c r="Y9" s="497"/>
+      <c r="Z9" s="497"/>
+      <c r="AA9" s="497"/>
+      <c r="AB9" s="497"/>
+      <c r="AC9" s="497"/>
+      <c r="AD9" s="497"/>
+      <c r="AE9" s="497"/>
+      <c r="AF9" s="497"/>
+      <c r="AG9" s="497"/>
+      <c r="AH9" s="498"/>
+      <c r="AI9" s="499" t="s">
         <v>162</v>
-      </c>
-      <c r="E9" s="500"/>
-      <c r="F9" s="500"/>
-      <c r="G9" s="500"/>
-      <c r="H9" s="500"/>
-      <c r="I9" s="500"/>
-      <c r="J9" s="500"/>
-      <c r="K9" s="500"/>
-      <c r="L9" s="500"/>
-      <c r="M9" s="500"/>
-      <c r="N9" s="500"/>
-      <c r="O9" s="500"/>
-      <c r="P9" s="500"/>
-      <c r="Q9" s="500"/>
-      <c r="R9" s="500"/>
-      <c r="S9" s="500"/>
-      <c r="T9" s="500"/>
-      <c r="U9" s="500"/>
-      <c r="V9" s="500"/>
-      <c r="W9" s="500"/>
-      <c r="X9" s="500"/>
-      <c r="Y9" s="500"/>
-      <c r="Z9" s="500"/>
-      <c r="AA9" s="500"/>
-      <c r="AB9" s="500"/>
-      <c r="AC9" s="500"/>
-      <c r="AD9" s="500"/>
-      <c r="AE9" s="500"/>
-      <c r="AF9" s="500"/>
-      <c r="AG9" s="500"/>
-      <c r="AH9" s="501"/>
-      <c r="AI9" s="502" t="s">
-        <v>163</v>
       </c>
       <c r="AJ9" s="223"/>
       <c r="AK9" s="224"/>
@@ -10485,9 +10487,9 @@
       <c r="AN9" s="226"/>
     </row>
     <row r="10" spans="1:40" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="497"/>
-      <c r="B10" s="497"/>
-      <c r="C10" s="497"/>
+      <c r="A10" s="494"/>
+      <c r="B10" s="494"/>
+      <c r="C10" s="494"/>
       <c r="D10" s="228">
         <v>1</v>
       </c>
@@ -10581,7 +10583,7 @@
       <c r="AH10" s="228">
         <v>31</v>
       </c>
-      <c r="AI10" s="502"/>
+      <c r="AI10" s="499"/>
       <c r="AJ10" s="229"/>
       <c r="AK10" s="225"/>
       <c r="AL10" s="225"/>
@@ -10589,103 +10591,103 @@
       <c r="AN10" s="226"/>
     </row>
     <row r="11" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="498"/>
-      <c r="B11" s="498"/>
-      <c r="C11" s="498"/>
+      <c r="A11" s="495"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="495"/>
       <c r="D11" s="228" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="228" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="228" t="s">
+      <c r="F11" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="230" t="s">
+      <c r="G11" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="231" t="s">
+      <c r="H11" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="230" t="s">
+      <c r="I11" s="230" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="230" t="s">
-        <v>170</v>
-      </c>
       <c r="J11" s="228" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="230" t="s">
+      <c r="L11" s="228" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="228" t="s">
+      <c r="M11" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="230" t="s">
+      <c r="N11" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="N11" s="231" t="s">
+      <c r="O11" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="O11" s="230" t="s">
+      <c r="P11" s="230" t="s">
         <v>169</v>
       </c>
-      <c r="P11" s="230" t="s">
-        <v>170</v>
-      </c>
       <c r="Q11" s="228" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="R11" s="230" t="s">
+      <c r="S11" s="228" t="s">
         <v>165</v>
       </c>
-      <c r="S11" s="228" t="s">
+      <c r="T11" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="T11" s="230" t="s">
+      <c r="U11" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="U11" s="231" t="s">
+      <c r="V11" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="V11" s="230" t="s">
+      <c r="W11" s="228" t="s">
         <v>169</v>
       </c>
-      <c r="W11" s="228" t="s">
-        <v>170</v>
-      </c>
       <c r="X11" s="230" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y11" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="Y11" s="230" t="s">
+      <c r="Z11" s="230" t="s">
         <v>165</v>
       </c>
-      <c r="Z11" s="230" t="s">
+      <c r="AA11" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="AA11" s="230" t="s">
+      <c r="AB11" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="AB11" s="231" t="s">
+      <c r="AC11" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="AC11" s="230" t="s">
+      <c r="AD11" s="228" t="s">
         <v>169</v>
       </c>
-      <c r="AD11" s="228" t="s">
-        <v>170</v>
-      </c>
       <c r="AE11" s="230" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF11" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="AF11" s="230" t="s">
+      <c r="AG11" s="230" t="s">
         <v>165</v>
       </c>
-      <c r="AG11" s="230" t="s">
+      <c r="AH11" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="AH11" s="230" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI11" s="502"/>
+      <c r="AI11" s="499"/>
       <c r="AJ11" s="232"/>
       <c r="AN11" s="234"/>
     </row>
@@ -10700,95 +10702,95 @@
         <v>13</v>
       </c>
       <c r="D12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M12" s="230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N12" s="236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U12" s="236"/>
       <c r="V12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB12" s="236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH12" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI12" s="237">
         <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
@@ -10808,95 +10810,95 @@
         <v>85</v>
       </c>
       <c r="D13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M13" s="230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N13" s="236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U13" s="236" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB13" s="236"/>
       <c r="AC13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH13" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI13" s="237">
         <f>COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
@@ -10916,91 +10918,91 @@
         <v>85</v>
       </c>
       <c r="D14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="236"/>
       <c r="H14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M14" s="230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N14" s="236"/>
       <c r="O14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U14" s="236"/>
       <c r="V14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB14" s="236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH14" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI14" s="237">
         <f>COUNTIF(D14:AH14,"x")+ COUNTIF(D14:AH14,"x/2")/2+COUNTIF(D14:AH14,"CT")+COUNTIF(D14:AH14,"TT")</f>
@@ -11014,10 +11016,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="235" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="239" t="s">
         <v>173</v>
-      </c>
-      <c r="C15" s="239" t="s">
-        <v>174</v>
       </c>
       <c r="D15" s="255"/>
       <c r="E15" s="230"/>
@@ -11045,22 +11047,22 @@
       <c r="AA15" s="230"/>
       <c r="AB15" s="236"/>
       <c r="AC15" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD15" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE15" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF15" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG15" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH15" s="230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI15" s="237">
         <f>COUNTIF(D15:AH15,"x")+ COUNTIF(D15:AH15,"x/2")/2+COUNTIF(D15:AH15,"CT")+COUNTIF(D15:AH15,"TT")</f>
@@ -11070,10 +11072,10 @@
       <c r="AN15" s="234"/>
     </row>
     <row r="16" spans="1:40" s="233" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="503" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="504"/>
+      <c r="A16" s="500" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="501"/>
       <c r="C16" s="240"/>
       <c r="D16" s="240"/>
       <c r="E16" s="241"/>
@@ -11116,49 +11118,49 @@
       <c r="AN16" s="234"/>
     </row>
     <row r="18" spans="1:40" s="250" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="505" t="s">
+      <c r="A18" s="502" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="505"/>
-      <c r="C18" s="505"/>
-      <c r="D18" s="505"/>
-      <c r="E18" s="505"/>
-      <c r="F18" s="505"/>
-      <c r="G18" s="505"/>
+      <c r="B18" s="502"/>
+      <c r="C18" s="502"/>
+      <c r="D18" s="502"/>
+      <c r="E18" s="502"/>
+      <c r="F18" s="502"/>
+      <c r="G18" s="502"/>
       <c r="H18" s="245"/>
-      <c r="I18" s="506"/>
-      <c r="J18" s="506"/>
-      <c r="K18" s="506"/>
-      <c r="L18" s="506"/>
-      <c r="M18" s="506"/>
+      <c r="I18" s="503"/>
+      <c r="J18" s="503"/>
+      <c r="K18" s="503"/>
+      <c r="L18" s="503"/>
+      <c r="M18" s="503"/>
       <c r="N18" s="246"/>
-      <c r="O18" s="506" t="s">
-        <v>172</v>
-      </c>
-      <c r="P18" s="506"/>
-      <c r="Q18" s="506"/>
-      <c r="R18" s="506"/>
-      <c r="S18" s="506"/>
-      <c r="T18" s="506"/>
-      <c r="U18" s="506"/>
-      <c r="V18" s="506"/>
-      <c r="W18" s="506"/>
-      <c r="X18" s="506"/>
-      <c r="Y18" s="506"/>
+      <c r="O18" s="503" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="503"/>
+      <c r="Q18" s="503"/>
+      <c r="R18" s="503"/>
+      <c r="S18" s="503"/>
+      <c r="T18" s="503"/>
+      <c r="U18" s="503"/>
+      <c r="V18" s="503"/>
+      <c r="W18" s="503"/>
+      <c r="X18" s="503"/>
+      <c r="Y18" s="503"/>
       <c r="Z18" s="247"/>
       <c r="AA18" s="247"/>
       <c r="AB18" s="248"/>
-      <c r="AC18" s="506"/>
-      <c r="AD18" s="506"/>
-      <c r="AE18" s="506"/>
-      <c r="AF18" s="506"/>
-      <c r="AG18" s="506"/>
-      <c r="AH18" s="506"/>
-      <c r="AI18" s="506"/>
-      <c r="AJ18" s="506"/>
-      <c r="AK18" s="506"/>
-      <c r="AL18" s="506"/>
-      <c r="AM18" s="506"/>
+      <c r="AC18" s="503"/>
+      <c r="AD18" s="503"/>
+      <c r="AE18" s="503"/>
+      <c r="AF18" s="503"/>
+      <c r="AG18" s="503"/>
+      <c r="AH18" s="503"/>
+      <c r="AI18" s="503"/>
+      <c r="AJ18" s="503"/>
+      <c r="AK18" s="503"/>
+      <c r="AL18" s="503"/>
+      <c r="AM18" s="503"/>
       <c r="AN18" s="249"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -11192,131 +11194,131 @@
       <c r="AN33" s="254"/>
     </row>
     <row r="34" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="494"/>
-      <c r="H34" s="494"/>
-      <c r="I34" s="494"/>
-      <c r="J34" s="494"/>
-      <c r="K34" s="494"/>
-      <c r="L34" s="494"/>
-      <c r="M34" s="494"/>
-      <c r="N34" s="494"/>
-      <c r="O34" s="494"/>
-      <c r="P34" s="494"/>
-      <c r="Q34" s="494"/>
-      <c r="R34" s="494"/>
-      <c r="S34" s="494"/>
-      <c r="T34" s="494"/>
-      <c r="U34" s="494"/>
-      <c r="V34" s="494"/>
-      <c r="W34" s="494"/>
-      <c r="X34" s="494"/>
+      <c r="G34" s="486"/>
+      <c r="H34" s="486"/>
+      <c r="I34" s="486"/>
+      <c r="J34" s="486"/>
+      <c r="K34" s="486"/>
+      <c r="L34" s="486"/>
+      <c r="M34" s="486"/>
+      <c r="N34" s="486"/>
+      <c r="O34" s="486"/>
+      <c r="P34" s="486"/>
+      <c r="Q34" s="486"/>
+      <c r="R34" s="486"/>
+      <c r="S34" s="486"/>
+      <c r="T34" s="486"/>
+      <c r="U34" s="486"/>
+      <c r="V34" s="486"/>
+      <c r="W34" s="486"/>
+      <c r="X34" s="486"/>
       <c r="AN34" s="254"/>
     </row>
     <row r="35" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="494"/>
-      <c r="H35" s="494"/>
-      <c r="I35" s="494"/>
-      <c r="J35" s="494"/>
-      <c r="K35" s="494"/>
-      <c r="L35" s="494"/>
-      <c r="M35" s="494"/>
-      <c r="N35" s="494"/>
-      <c r="O35" s="494"/>
-      <c r="P35" s="494"/>
-      <c r="Q35" s="494"/>
-      <c r="R35" s="494"/>
-      <c r="S35" s="494"/>
-      <c r="T35" s="494"/>
-      <c r="U35" s="494"/>
-      <c r="V35" s="494"/>
-      <c r="W35" s="494"/>
-      <c r="X35" s="494"/>
+      <c r="G35" s="486"/>
+      <c r="H35" s="486"/>
+      <c r="I35" s="486"/>
+      <c r="J35" s="486"/>
+      <c r="K35" s="486"/>
+      <c r="L35" s="486"/>
+      <c r="M35" s="486"/>
+      <c r="N35" s="486"/>
+      <c r="O35" s="486"/>
+      <c r="P35" s="486"/>
+      <c r="Q35" s="486"/>
+      <c r="R35" s="486"/>
+      <c r="S35" s="486"/>
+      <c r="T35" s="486"/>
+      <c r="U35" s="486"/>
+      <c r="V35" s="486"/>
+      <c r="W35" s="486"/>
+      <c r="X35" s="486"/>
       <c r="AN35" s="254"/>
     </row>
     <row r="36" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="494"/>
-      <c r="H36" s="494"/>
-      <c r="I36" s="494"/>
-      <c r="J36" s="494"/>
-      <c r="K36" s="494"/>
-      <c r="L36" s="494"/>
-      <c r="M36" s="494"/>
-      <c r="N36" s="494"/>
-      <c r="O36" s="494"/>
-      <c r="P36" s="494"/>
-      <c r="Q36" s="494"/>
-      <c r="R36" s="494"/>
-      <c r="S36" s="494"/>
-      <c r="T36" s="494"/>
-      <c r="U36" s="494"/>
-      <c r="V36" s="494"/>
-      <c r="W36" s="494"/>
-      <c r="X36" s="494"/>
+      <c r="G36" s="486"/>
+      <c r="H36" s="486"/>
+      <c r="I36" s="486"/>
+      <c r="J36" s="486"/>
+      <c r="K36" s="486"/>
+      <c r="L36" s="486"/>
+      <c r="M36" s="486"/>
+      <c r="N36" s="486"/>
+      <c r="O36" s="486"/>
+      <c r="P36" s="486"/>
+      <c r="Q36" s="486"/>
+      <c r="R36" s="486"/>
+      <c r="S36" s="486"/>
+      <c r="T36" s="486"/>
+      <c r="U36" s="486"/>
+      <c r="V36" s="486"/>
+      <c r="W36" s="486"/>
+      <c r="X36" s="486"/>
       <c r="AN36" s="254"/>
     </row>
     <row r="37" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="494"/>
-      <c r="H37" s="494"/>
-      <c r="I37" s="494"/>
-      <c r="J37" s="494"/>
-      <c r="K37" s="494"/>
-      <c r="L37" s="494"/>
-      <c r="M37" s="494"/>
-      <c r="N37" s="494"/>
-      <c r="O37" s="494"/>
-      <c r="P37" s="494"/>
-      <c r="Q37" s="494"/>
-      <c r="R37" s="494"/>
-      <c r="S37" s="494"/>
-      <c r="T37" s="494"/>
-      <c r="U37" s="494"/>
-      <c r="V37" s="494"/>
-      <c r="W37" s="494"/>
-      <c r="X37" s="494"/>
+      <c r="G37" s="486"/>
+      <c r="H37" s="486"/>
+      <c r="I37" s="486"/>
+      <c r="J37" s="486"/>
+      <c r="K37" s="486"/>
+      <c r="L37" s="486"/>
+      <c r="M37" s="486"/>
+      <c r="N37" s="486"/>
+      <c r="O37" s="486"/>
+      <c r="P37" s="486"/>
+      <c r="Q37" s="486"/>
+      <c r="R37" s="486"/>
+      <c r="S37" s="486"/>
+      <c r="T37" s="486"/>
+      <c r="U37" s="486"/>
+      <c r="V37" s="486"/>
+      <c r="W37" s="486"/>
+      <c r="X37" s="486"/>
       <c r="AN37" s="254"/>
     </row>
     <row r="38" spans="3:40" s="253" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="494"/>
-      <c r="H38" s="494"/>
-      <c r="I38" s="494"/>
-      <c r="J38" s="494"/>
-      <c r="K38" s="494"/>
-      <c r="L38" s="494"/>
-      <c r="M38" s="494"/>
-      <c r="N38" s="494"/>
-      <c r="O38" s="494"/>
-      <c r="P38" s="494"/>
-      <c r="Q38" s="494"/>
-      <c r="R38" s="494"/>
-      <c r="S38" s="494"/>
-      <c r="T38" s="494"/>
-      <c r="U38" s="494"/>
-      <c r="V38" s="494"/>
-      <c r="W38" s="494"/>
-      <c r="X38" s="494"/>
+      <c r="G38" s="486"/>
+      <c r="H38" s="486"/>
+      <c r="I38" s="486"/>
+      <c r="J38" s="486"/>
+      <c r="K38" s="486"/>
+      <c r="L38" s="486"/>
+      <c r="M38" s="486"/>
+      <c r="N38" s="486"/>
+      <c r="O38" s="486"/>
+      <c r="P38" s="486"/>
+      <c r="Q38" s="486"/>
+      <c r="R38" s="486"/>
+      <c r="S38" s="486"/>
+      <c r="T38" s="486"/>
+      <c r="U38" s="486"/>
+      <c r="V38" s="486"/>
+      <c r="W38" s="486"/>
+      <c r="X38" s="486"/>
       <c r="AN38" s="254"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="215"/>
       <c r="D39" s="215"/>
-      <c r="G39" s="494"/>
-      <c r="H39" s="494"/>
-      <c r="I39" s="494"/>
-      <c r="J39" s="494"/>
-      <c r="K39" s="494"/>
-      <c r="L39" s="494"/>
-      <c r="M39" s="494"/>
-      <c r="N39" s="494"/>
-      <c r="O39" s="494"/>
-      <c r="P39" s="494"/>
-      <c r="Q39" s="494"/>
-      <c r="R39" s="494"/>
-      <c r="S39" s="494"/>
-      <c r="T39" s="494"/>
-      <c r="U39" s="494"/>
-      <c r="V39" s="494"/>
-      <c r="W39" s="494"/>
-      <c r="X39" s="494"/>
+      <c r="G39" s="486"/>
+      <c r="H39" s="486"/>
+      <c r="I39" s="486"/>
+      <c r="J39" s="486"/>
+      <c r="K39" s="486"/>
+      <c r="L39" s="486"/>
+      <c r="M39" s="486"/>
+      <c r="N39" s="486"/>
+      <c r="O39" s="486"/>
+      <c r="P39" s="486"/>
+      <c r="Q39" s="486"/>
+      <c r="R39" s="486"/>
+      <c r="S39" s="486"/>
+      <c r="T39" s="486"/>
+      <c r="U39" s="486"/>
+      <c r="V39" s="486"/>
+      <c r="W39" s="486"/>
+      <c r="X39" s="486"/>
       <c r="AN39" s="215"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -11326,6 +11328,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11340,13 +11349,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12299,7 +12301,7 @@
         <v>63</v>
       </c>
       <c r="G7" s="145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H7" s="145" t="s">
         <v>116</v>
@@ -12509,10 +12511,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>174</v>
       </c>
       <c r="D14" s="56">
         <v>3500000</v>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 10_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2525,9 +2525,81 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2537,70 +2609,25 @@
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2633,24 +2660,6 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2663,6 +2672,72 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2690,99 +2765,24 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2819,6 +2819,15 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2872,15 +2881,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3194,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3207,7 +3207,7 @@
     <col min="5" max="5" width="15.7109375" style="100" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="100" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="100" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="96"/>
     <col min="10" max="10" width="14" style="96" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="96" bestFit="1" customWidth="1"/>
@@ -4273,7 +4273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
@@ -4299,13 +4299,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="423" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
       <c r="J1" s="123"/>
@@ -4335,136 +4335,136 @@
       <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="418" t="s">
+      <c r="A3" s="424" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="418"/>
-      <c r="C3" s="418"/>
-      <c r="D3" s="418"/>
-      <c r="E3" s="418"/>
-      <c r="F3" s="418"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="418"/>
-      <c r="I3" s="418"/>
-      <c r="J3" s="418"/>
-      <c r="K3" s="418"/>
-      <c r="L3" s="418"/>
-      <c r="M3" s="418"/>
-      <c r="N3" s="418"/>
-      <c r="O3" s="418"/>
-      <c r="P3" s="418"/>
+      <c r="B3" s="424"/>
+      <c r="C3" s="424"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="424"/>
+      <c r="F3" s="424"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="424"/>
+      <c r="L3" s="424"/>
+      <c r="M3" s="424"/>
+      <c r="N3" s="424"/>
+      <c r="O3" s="424"/>
+      <c r="P3" s="424"/>
     </row>
     <row r="4" spans="1:16" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="418" t="s">
+      <c r="A4" s="424" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="418"/>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="418"/>
-      <c r="F4" s="418"/>
-      <c r="G4" s="418"/>
-      <c r="H4" s="418"/>
-      <c r="I4" s="418"/>
-      <c r="J4" s="418"/>
-      <c r="K4" s="418"/>
-      <c r="L4" s="418"/>
-      <c r="M4" s="418"/>
-      <c r="N4" s="418"/>
-      <c r="O4" s="418"/>
-      <c r="P4" s="418"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="424"/>
+      <c r="L4" s="424"/>
+      <c r="M4" s="424"/>
+      <c r="N4" s="424"/>
+      <c r="O4" s="424"/>
+      <c r="P4" s="424"/>
     </row>
     <row r="5" spans="1:16" s="122" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="405" t="s">
+      <c r="A5" s="429" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="406" t="s">
+      <c r="B5" s="430" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="405" t="s">
+      <c r="C5" s="429" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="405" t="s">
+      <c r="D5" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="407" t="s">
+      <c r="E5" s="429"/>
+      <c r="F5" s="426" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="407"/>
-      <c r="H5" s="407"/>
-      <c r="I5" s="407"/>
-      <c r="J5" s="407"/>
-      <c r="K5" s="407"/>
-      <c r="L5" s="407"/>
-      <c r="M5" s="419"/>
-      <c r="N5" s="419"/>
-      <c r="O5" s="419"/>
-      <c r="P5" s="407" t="s">
+      <c r="G5" s="426"/>
+      <c r="H5" s="426"/>
+      <c r="I5" s="426"/>
+      <c r="J5" s="426"/>
+      <c r="K5" s="426"/>
+      <c r="L5" s="426"/>
+      <c r="M5" s="425"/>
+      <c r="N5" s="425"/>
+      <c r="O5" s="425"/>
+      <c r="P5" s="426" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="405"/>
-      <c r="B6" s="406"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="405" t="s">
+      <c r="A6" s="429"/>
+      <c r="B6" s="430"/>
+      <c r="C6" s="429"/>
+      <c r="D6" s="429" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="405" t="s">
+      <c r="E6" s="429" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="405" t="s">
+      <c r="F6" s="429" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="405" t="s">
+      <c r="G6" s="429" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="408" t="s">
+      <c r="H6" s="427" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="408" t="s">
+      <c r="I6" s="427" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="409" t="s">
+      <c r="J6" s="431" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="409"/>
-      <c r="L6" s="408" t="s">
+      <c r="K6" s="431"/>
+      <c r="L6" s="427" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="408" t="s">
+      <c r="M6" s="427" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="408" t="s">
+      <c r="N6" s="427" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="408" t="s">
+      <c r="O6" s="427" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="407"/>
+      <c r="P6" s="426"/>
     </row>
     <row r="7" spans="1:16" s="122" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="405"/>
-      <c r="B7" s="406"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="405"/>
-      <c r="E7" s="405"/>
-      <c r="F7" s="405"/>
-      <c r="G7" s="405"/>
-      <c r="H7" s="408"/>
-      <c r="I7" s="408"/>
+      <c r="A7" s="429"/>
+      <c r="B7" s="430"/>
+      <c r="C7" s="429"/>
+      <c r="D7" s="429"/>
+      <c r="E7" s="429"/>
+      <c r="F7" s="429"/>
+      <c r="G7" s="429"/>
+      <c r="H7" s="427"/>
+      <c r="I7" s="427"/>
       <c r="J7" s="200" t="s">
         <v>198</v>
       </c>
       <c r="K7" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="408"/>
-      <c r="M7" s="408"/>
-      <c r="N7" s="408"/>
-      <c r="O7" s="408"/>
-      <c r="P7" s="407"/>
+      <c r="L7" s="427"/>
+      <c r="M7" s="427"/>
+      <c r="N7" s="427"/>
+      <c r="O7" s="427"/>
+      <c r="P7" s="426"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="192">
@@ -4512,17 +4512,17 @@
       <c r="P8" s="154"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="410">
+      <c r="A9" s="403">
         <v>808</v>
       </c>
-      <c r="B9" s="413">
+      <c r="B9" s="406">
         <v>44107</v>
       </c>
-      <c r="C9" s="410"/>
-      <c r="D9" s="410" t="s">
+      <c r="C9" s="403"/>
+      <c r="D9" s="403" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="410" t="s">
+      <c r="E9" s="403" t="s">
         <v>120</v>
       </c>
       <c r="F9" s="160" t="s">
@@ -4557,11 +4557,11 @@
       <c r="P9" s="160"/>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="411"/>
-      <c r="B10" s="414"/>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
+      <c r="A10" s="404"/>
+      <c r="B10" s="407"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="404"/>
+      <c r="E10" s="404"/>
       <c r="F10" s="173" t="s">
         <v>122</v>
       </c>
@@ -4592,11 +4592,11 @@
       <c r="P10" s="173"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="412"/>
-      <c r="B11" s="415"/>
-      <c r="C11" s="412"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="412"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="408"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="405"/>
+      <c r="E11" s="405"/>
       <c r="F11" s="164" t="s">
         <v>123</v>
       </c>
@@ -4670,17 +4670,17 @@
       <c r="P12" s="159"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="410">
+      <c r="A13" s="403">
         <v>816</v>
       </c>
-      <c r="B13" s="413">
+      <c r="B13" s="406">
         <v>44112</v>
       </c>
-      <c r="C13" s="410"/>
-      <c r="D13" s="410" t="s">
+      <c r="C13" s="403"/>
+      <c r="D13" s="403" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="410"/>
+      <c r="E13" s="403"/>
       <c r="F13" s="160" t="s">
         <v>121</v>
       </c>
@@ -4711,11 +4711,11 @@
       <c r="P13" s="163"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="412"/>
-      <c r="B14" s="415"/>
-      <c r="C14" s="412"/>
-      <c r="D14" s="412"/>
-      <c r="E14" s="412"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="405"/>
+      <c r="E14" s="405"/>
       <c r="F14" s="164" t="s">
         <v>122</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>455000</v>
       </c>
       <c r="I15" s="161">
-        <f>G15*H15</f>
+        <f t="shared" ref="I15:I20" si="2">G15*H15</f>
         <v>21840000</v>
       </c>
       <c r="J15" s="155"/>
@@ -4775,7 +4775,7 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="161">
-        <f>I15*(1-K15)</f>
+        <f t="shared" ref="L15:L20" si="3">I15*(1-K15)</f>
         <v>10920000</v>
       </c>
       <c r="M15" s="155"/>
@@ -4810,7 +4810,7 @@
         <v>485000</v>
       </c>
       <c r="I16" s="161">
-        <f>G16*H16</f>
+        <f t="shared" si="2"/>
         <v>485000</v>
       </c>
       <c r="J16" s="333"/>
@@ -4818,7 +4818,7 @@
         <v>0.41</v>
       </c>
       <c r="L16" s="161">
-        <f>I16*(1-K16)</f>
+        <f t="shared" si="3"/>
         <v>286150.00000000006</v>
       </c>
       <c r="M16" s="333">
@@ -4830,17 +4830,17 @@
       <c r="P16" s="332"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="410">
+      <c r="A17" s="403">
         <v>1211</v>
       </c>
-      <c r="B17" s="425">
+      <c r="B17" s="409">
         <v>44113</v>
       </c>
-      <c r="C17" s="427" t="s">
+      <c r="C17" s="411" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="427"/>
-      <c r="E17" s="427"/>
+      <c r="D17" s="411"/>
+      <c r="E17" s="411"/>
       <c r="F17" s="160" t="s">
         <v>123</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>485000</v>
       </c>
       <c r="I17" s="161">
-        <f>G17*H17</f>
+        <f t="shared" si="2"/>
         <v>485000</v>
       </c>
       <c r="J17" s="161"/>
@@ -4859,7 +4859,7 @@
         <v>0.5</v>
       </c>
       <c r="L17" s="161">
-        <f>I17*(1-K17)</f>
+        <f t="shared" si="3"/>
         <v>242500</v>
       </c>
       <c r="M17" s="161"/>
@@ -4871,11 +4871,11 @@
       <c r="P17" s="160"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="412"/>
-      <c r="B18" s="426"/>
-      <c r="C18" s="428"/>
-      <c r="D18" s="428"/>
-      <c r="E18" s="428"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="410"/>
+      <c r="C18" s="412"/>
+      <c r="D18" s="412"/>
+      <c r="E18" s="412"/>
       <c r="F18" s="164" t="s">
         <v>136</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>550000</v>
       </c>
       <c r="I18" s="165">
-        <f>G18*H18</f>
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
       <c r="J18" s="165"/>
@@ -4894,7 +4894,7 @@
         <v>0.5</v>
       </c>
       <c r="L18" s="165">
-        <f>I18*(1-K18)</f>
+        <f t="shared" si="3"/>
         <v>275000</v>
       </c>
       <c r="M18" s="165"/>
@@ -4906,17 +4906,17 @@
       <c r="P18" s="164"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="410">
+      <c r="A19" s="403">
         <v>822</v>
       </c>
-      <c r="B19" s="413">
+      <c r="B19" s="406">
         <v>44113</v>
       </c>
-      <c r="C19" s="410"/>
-      <c r="D19" s="410" t="s">
+      <c r="C19" s="403"/>
+      <c r="D19" s="403" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="410"/>
+      <c r="E19" s="403"/>
       <c r="F19" s="160" t="s">
         <v>121</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>225000</v>
       </c>
       <c r="I19" s="161">
-        <f>G19*H19</f>
+        <f t="shared" si="2"/>
         <v>2700000</v>
       </c>
       <c r="J19" s="161"/>
@@ -4935,7 +4935,7 @@
         <v>0.5</v>
       </c>
       <c r="L19" s="161">
-        <f>I19*(1-K19)</f>
+        <f t="shared" si="3"/>
         <v>1350000</v>
       </c>
       <c r="M19" s="161"/>
@@ -4947,11 +4947,11 @@
       <c r="P19" s="160"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="412"/>
-      <c r="B20" s="415"/>
-      <c r="C20" s="412"/>
-      <c r="D20" s="412"/>
-      <c r="E20" s="412"/>
+      <c r="A20" s="405"/>
+      <c r="B20" s="408"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="405"/>
+      <c r="E20" s="405"/>
       <c r="F20" s="164" t="s">
         <v>122</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>455000</v>
       </c>
       <c r="I20" s="165">
-        <f>G20*H20</f>
+        <f t="shared" si="2"/>
         <v>5460000</v>
       </c>
       <c r="J20" s="165"/>
@@ -4970,7 +4970,7 @@
         <v>0.5</v>
       </c>
       <c r="L20" s="165">
-        <f>I20*(1-K20)</f>
+        <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
       <c r="M20" s="165"/>
@@ -5069,19 +5069,19 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="410">
+      <c r="A23" s="403">
         <v>825</v>
       </c>
-      <c r="B23" s="413">
+      <c r="B23" s="406">
         <v>44123</v>
       </c>
-      <c r="C23" s="410" t="s">
+      <c r="C23" s="403" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="410" t="s">
+      <c r="D23" s="403" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="410" t="s">
+      <c r="E23" s="403" t="s">
         <v>203</v>
       </c>
       <c r="F23" s="160" t="s">
@@ -5114,11 +5114,11 @@
       <c r="P23" s="160"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="411"/>
-      <c r="B24" s="414"/>
-      <c r="C24" s="411"/>
-      <c r="D24" s="411"/>
-      <c r="E24" s="411"/>
+      <c r="A24" s="404"/>
+      <c r="B24" s="407"/>
+      <c r="C24" s="404"/>
+      <c r="D24" s="404"/>
+      <c r="E24" s="404"/>
       <c r="F24" s="169" t="s">
         <v>193</v>
       </c>
@@ -5149,11 +5149,11 @@
       <c r="P24" s="169"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="412"/>
-      <c r="B25" s="415"/>
-      <c r="C25" s="412"/>
-      <c r="D25" s="412"/>
-      <c r="E25" s="412"/>
+      <c r="A25" s="405"/>
+      <c r="B25" s="408"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="405"/>
+      <c r="E25" s="405"/>
       <c r="F25" s="172" t="s">
         <v>191</v>
       </c>
@@ -5184,17 +5184,17 @@
       <c r="P25" s="172"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="410">
+      <c r="A26" s="403">
         <v>830</v>
       </c>
-      <c r="B26" s="413">
+      <c r="B26" s="406">
         <v>44124</v>
       </c>
-      <c r="C26" s="410"/>
-      <c r="D26" s="420" t="s">
+      <c r="C26" s="403"/>
+      <c r="D26" s="413" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="410" t="s">
+      <c r="E26" s="403" t="s">
         <v>120</v>
       </c>
       <c r="F26" s="359" t="s">
@@ -5222,18 +5222,18 @@
       </c>
       <c r="M26" s="360"/>
       <c r="N26" s="360">
-        <f>L26</f>
+        <f t="shared" ref="N26:N37" si="4">L26</f>
         <v>6442800.0000000009</v>
       </c>
       <c r="O26" s="360"/>
       <c r="P26" s="359"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="411"/>
-      <c r="B27" s="414"/>
-      <c r="C27" s="411"/>
-      <c r="D27" s="421"/>
-      <c r="E27" s="411"/>
+      <c r="A27" s="404"/>
+      <c r="B27" s="407"/>
+      <c r="C27" s="404"/>
+      <c r="D27" s="415"/>
+      <c r="E27" s="404"/>
       <c r="F27" s="169" t="s">
         <v>192</v>
       </c>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="M27" s="170"/>
       <c r="N27" s="170">
-        <f>L27</f>
+        <f t="shared" si="4"/>
         <v>3292200.0000000005</v>
       </c>
       <c r="O27" s="170"/>
       <c r="P27" s="169"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="411"/>
-      <c r="B28" s="414"/>
-      <c r="C28" s="411"/>
-      <c r="D28" s="421"/>
-      <c r="E28" s="411"/>
+      <c r="A28" s="404"/>
+      <c r="B28" s="407"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="415"/>
+      <c r="E28" s="404"/>
       <c r="F28" s="169" t="s">
         <v>123</v>
       </c>
@@ -5292,18 +5292,18 @@
       </c>
       <c r="M28" s="170"/>
       <c r="N28" s="170">
-        <f>L28</f>
+        <f t="shared" si="4"/>
         <v>1716900.0000000002</v>
       </c>
       <c r="O28" s="170"/>
       <c r="P28" s="169"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="412"/>
-      <c r="B29" s="415"/>
-      <c r="C29" s="412"/>
-      <c r="D29" s="422"/>
-      <c r="E29" s="412"/>
+      <c r="A29" s="405"/>
+      <c r="B29" s="408"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="416"/>
+      <c r="E29" s="405"/>
       <c r="F29" s="172" t="s">
         <v>191</v>
       </c>
@@ -5327,24 +5327,24 @@
       </c>
       <c r="M29" s="356"/>
       <c r="N29" s="356">
-        <f>L29</f>
+        <f t="shared" si="4"/>
         <v>1716900.0000000002</v>
       </c>
       <c r="O29" s="356"/>
       <c r="P29" s="172"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="410">
+      <c r="A30" s="403">
         <v>1293</v>
       </c>
-      <c r="B30" s="413">
+      <c r="B30" s="406">
         <v>44125</v>
       </c>
-      <c r="C30" s="410"/>
-      <c r="D30" s="420" t="s">
+      <c r="C30" s="403"/>
+      <c r="D30" s="413" t="s">
         <v>289</v>
       </c>
-      <c r="E30" s="410" t="s">
+      <c r="E30" s="403" t="s">
         <v>290</v>
       </c>
       <c r="F30" s="359" t="s">
@@ -5370,18 +5370,18 @@
       </c>
       <c r="M30" s="360"/>
       <c r="N30" s="360">
-        <f>L30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O30" s="360"/>
       <c r="P30" s="359"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="411"/>
-      <c r="B31" s="414"/>
-      <c r="C31" s="411"/>
-      <c r="D31" s="421"/>
-      <c r="E31" s="411"/>
+      <c r="A31" s="404"/>
+      <c r="B31" s="407"/>
+      <c r="C31" s="404"/>
+      <c r="D31" s="415"/>
+      <c r="E31" s="404"/>
       <c r="F31" s="169" t="s">
         <v>193</v>
       </c>
@@ -5405,18 +5405,18 @@
       </c>
       <c r="M31" s="170"/>
       <c r="N31" s="170">
-        <f>L31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31" s="170"/>
       <c r="P31" s="169"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="411"/>
-      <c r="B32" s="414"/>
-      <c r="C32" s="411"/>
-      <c r="D32" s="421"/>
-      <c r="E32" s="411"/>
+      <c r="A32" s="404"/>
+      <c r="B32" s="407"/>
+      <c r="C32" s="404"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="404"/>
       <c r="F32" s="169" t="s">
         <v>221</v>
       </c>
@@ -5440,18 +5440,18 @@
       </c>
       <c r="M32" s="170"/>
       <c r="N32" s="170">
-        <f>L32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O32" s="170"/>
       <c r="P32" s="169"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="411"/>
-      <c r="B33" s="414"/>
-      <c r="C33" s="411"/>
-      <c r="D33" s="421"/>
-      <c r="E33" s="411"/>
+      <c r="A33" s="404"/>
+      <c r="B33" s="407"/>
+      <c r="C33" s="404"/>
+      <c r="D33" s="415"/>
+      <c r="E33" s="404"/>
       <c r="F33" s="169" t="s">
         <v>123</v>
       </c>
@@ -5475,18 +5475,18 @@
       </c>
       <c r="M33" s="170"/>
       <c r="N33" s="170">
-        <f>L33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O33" s="170"/>
       <c r="P33" s="169"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="411"/>
-      <c r="B34" s="414"/>
-      <c r="C34" s="411"/>
-      <c r="D34" s="421"/>
-      <c r="E34" s="411"/>
+      <c r="A34" s="404"/>
+      <c r="B34" s="407"/>
+      <c r="C34" s="404"/>
+      <c r="D34" s="415"/>
+      <c r="E34" s="404"/>
       <c r="F34" s="169" t="s">
         <v>191</v>
       </c>
@@ -5510,18 +5510,18 @@
       </c>
       <c r="M34" s="170"/>
       <c r="N34" s="170">
-        <f>L34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O34" s="170"/>
       <c r="P34" s="169"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="411"/>
-      <c r="B35" s="414"/>
-      <c r="C35" s="411"/>
-      <c r="D35" s="421"/>
-      <c r="E35" s="411"/>
+      <c r="A35" s="404"/>
+      <c r="B35" s="407"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="415"/>
+      <c r="E35" s="404"/>
       <c r="F35" s="169" t="s">
         <v>136</v>
       </c>
@@ -5545,18 +5545,18 @@
       </c>
       <c r="M35" s="170"/>
       <c r="N35" s="170">
-        <f>L35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O35" s="170"/>
       <c r="P35" s="169"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="411"/>
-      <c r="B36" s="414"/>
-      <c r="C36" s="411"/>
-      <c r="D36" s="421"/>
-      <c r="E36" s="411"/>
+      <c r="A36" s="404"/>
+      <c r="B36" s="407"/>
+      <c r="C36" s="404"/>
+      <c r="D36" s="415"/>
+      <c r="E36" s="404"/>
       <c r="F36" s="169" t="s">
         <v>118</v>
       </c>
@@ -5580,18 +5580,18 @@
       </c>
       <c r="M36" s="170"/>
       <c r="N36" s="170">
-        <f>L36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O36" s="170"/>
       <c r="P36" s="169"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="412"/>
-      <c r="B37" s="415"/>
-      <c r="C37" s="412"/>
-      <c r="D37" s="422"/>
-      <c r="E37" s="412"/>
+      <c r="A37" s="405"/>
+      <c r="B37" s="408"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="416"/>
+      <c r="E37" s="405"/>
       <c r="F37" s="172" t="s">
         <v>130</v>
       </c>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="M37" s="356"/>
       <c r="N37" s="356">
-        <f>L37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O37" s="356"/>
@@ -5663,19 +5663,19 @@
       <c r="P38" s="362"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="423">
+      <c r="A39" s="419">
         <v>832</v>
       </c>
-      <c r="B39" s="413">
+      <c r="B39" s="406">
         <v>44125</v>
       </c>
-      <c r="C39" s="410" t="s">
+      <c r="C39" s="403" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="410" t="s">
+      <c r="D39" s="403" t="s">
         <v>206</v>
       </c>
-      <c r="E39" s="410" t="s">
+      <c r="E39" s="403" t="s">
         <v>207</v>
       </c>
       <c r="F39" s="160" t="s">
@@ -5708,11 +5708,11 @@
       <c r="P39" s="160"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="424"/>
-      <c r="B40" s="415"/>
-      <c r="C40" s="412"/>
-      <c r="D40" s="412"/>
-      <c r="E40" s="412"/>
+      <c r="A40" s="420"/>
+      <c r="B40" s="408"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="405"/>
+      <c r="E40" s="405"/>
       <c r="F40" s="164" t="s">
         <v>192</v>
       </c>
@@ -5743,17 +5743,17 @@
       <c r="P40" s="164"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="410">
+      <c r="A41" s="403">
         <v>834</v>
       </c>
-      <c r="B41" s="413">
+      <c r="B41" s="406">
         <v>44125</v>
       </c>
-      <c r="C41" s="410"/>
-      <c r="D41" s="410" t="s">
+      <c r="C41" s="403"/>
+      <c r="D41" s="403" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="410"/>
+      <c r="E41" s="403"/>
       <c r="F41" s="160" t="s">
         <v>121</v>
       </c>
@@ -5784,11 +5784,11 @@
       <c r="P41" s="160"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="412"/>
-      <c r="B42" s="415"/>
-      <c r="C42" s="412"/>
-      <c r="D42" s="412"/>
-      <c r="E42" s="412"/>
+      <c r="A42" s="405"/>
+      <c r="B42" s="408"/>
+      <c r="C42" s="405"/>
+      <c r="D42" s="405"/>
+      <c r="E42" s="405"/>
       <c r="F42" s="164" t="s">
         <v>122</v>
       </c>
@@ -5819,17 +5819,17 @@
       <c r="P42" s="164"/>
     </row>
     <row r="43" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="410">
+      <c r="A43" s="403">
         <v>837</v>
       </c>
-      <c r="B43" s="413">
+      <c r="B43" s="406">
         <v>44125</v>
       </c>
-      <c r="C43" s="410"/>
-      <c r="D43" s="420" t="s">
+      <c r="C43" s="403"/>
+      <c r="D43" s="413" t="s">
         <v>208</v>
       </c>
-      <c r="E43" s="420" t="s">
+      <c r="E43" s="413" t="s">
         <v>209</v>
       </c>
       <c r="F43" s="160" t="s">
@@ -5862,11 +5862,11 @@
       <c r="P43" s="160"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="411"/>
-      <c r="B44" s="414"/>
-      <c r="C44" s="411"/>
-      <c r="D44" s="421"/>
-      <c r="E44" s="421"/>
+      <c r="A44" s="404"/>
+      <c r="B44" s="407"/>
+      <c r="C44" s="404"/>
+      <c r="D44" s="415"/>
+      <c r="E44" s="415"/>
       <c r="F44" s="173" t="s">
         <v>122</v>
       </c>
@@ -5890,18 +5890,18 @@
       </c>
       <c r="M44" s="174"/>
       <c r="N44" s="174">
-        <f t="shared" ref="N44:N50" si="2">L44</f>
+        <f t="shared" ref="N44:N50" si="5">L44</f>
         <v>6442800.0000000009</v>
       </c>
       <c r="O44" s="174"/>
       <c r="P44" s="173"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="411"/>
-      <c r="B45" s="414"/>
-      <c r="C45" s="411"/>
-      <c r="D45" s="421"/>
-      <c r="E45" s="421"/>
+      <c r="A45" s="404"/>
+      <c r="B45" s="407"/>
+      <c r="C45" s="404"/>
+      <c r="D45" s="415"/>
+      <c r="E45" s="415"/>
       <c r="F45" s="173" t="s">
         <v>192</v>
       </c>
@@ -5925,18 +5925,18 @@
       </c>
       <c r="M45" s="174"/>
       <c r="N45" s="174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6584400.0000000009</v>
       </c>
       <c r="O45" s="174"/>
       <c r="P45" s="173"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="411"/>
-      <c r="B46" s="414"/>
-      <c r="C46" s="411"/>
-      <c r="D46" s="421"/>
-      <c r="E46" s="421"/>
+      <c r="A46" s="404"/>
+      <c r="B46" s="407"/>
+      <c r="C46" s="404"/>
+      <c r="D46" s="415"/>
+      <c r="E46" s="415"/>
       <c r="F46" s="173" t="s">
         <v>193</v>
       </c>
@@ -5955,23 +5955,23 @@
         <v>0.41</v>
       </c>
       <c r="L46" s="174">
-        <f t="shared" ref="L46:L56" si="3">I46*(1-K46)</f>
+        <f t="shared" ref="L46:L56" si="6">I46*(1-K46)</f>
         <v>6726000.0000000009</v>
       </c>
       <c r="M46" s="174"/>
       <c r="N46" s="174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6726000.0000000009</v>
       </c>
       <c r="O46" s="174"/>
       <c r="P46" s="173"/>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="411"/>
-      <c r="B47" s="414"/>
-      <c r="C47" s="411"/>
-      <c r="D47" s="421"/>
-      <c r="E47" s="421"/>
+      <c r="A47" s="404"/>
+      <c r="B47" s="407"/>
+      <c r="C47" s="404"/>
+      <c r="D47" s="415"/>
+      <c r="E47" s="415"/>
       <c r="F47" s="173" t="s">
         <v>123</v>
       </c>
@@ -5990,23 +5990,23 @@
         <v>0.41</v>
       </c>
       <c r="L47" s="174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6867600.0000000009</v>
       </c>
       <c r="M47" s="174"/>
       <c r="N47" s="174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6867600.0000000009</v>
       </c>
       <c r="O47" s="174"/>
       <c r="P47" s="173"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="411"/>
-      <c r="B48" s="414"/>
-      <c r="C48" s="411"/>
-      <c r="D48" s="421"/>
-      <c r="E48" s="421"/>
+      <c r="A48" s="404"/>
+      <c r="B48" s="407"/>
+      <c r="C48" s="404"/>
+      <c r="D48" s="415"/>
+      <c r="E48" s="415"/>
       <c r="F48" s="173" t="s">
         <v>136</v>
       </c>
@@ -6025,23 +6025,23 @@
         <v>0.41</v>
       </c>
       <c r="L48" s="174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7788000.0000000009</v>
       </c>
       <c r="M48" s="174"/>
       <c r="N48" s="174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7788000.0000000009</v>
       </c>
       <c r="O48" s="174"/>
       <c r="P48" s="173"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="411"/>
-      <c r="B49" s="414"/>
-      <c r="C49" s="411"/>
-      <c r="D49" s="421"/>
-      <c r="E49" s="421"/>
+      <c r="A49" s="404"/>
+      <c r="B49" s="407"/>
+      <c r="C49" s="404"/>
+      <c r="D49" s="415"/>
+      <c r="E49" s="415"/>
       <c r="F49" s="173" t="s">
         <v>118</v>
       </c>
@@ -6060,23 +6060,23 @@
         <v>0.41</v>
       </c>
       <c r="L49" s="174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="M49" s="174"/>
       <c r="N49" s="174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="O49" s="174"/>
       <c r="P49" s="173"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="412"/>
-      <c r="B50" s="415"/>
-      <c r="C50" s="412"/>
-      <c r="D50" s="422"/>
-      <c r="E50" s="422"/>
+      <c r="A50" s="405"/>
+      <c r="B50" s="408"/>
+      <c r="C50" s="405"/>
+      <c r="D50" s="416"/>
+      <c r="E50" s="416"/>
       <c r="F50" s="164" t="s">
         <v>130</v>
       </c>
@@ -6095,12 +6095,12 @@
         <v>0.41</v>
       </c>
       <c r="L50" s="165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="M50" s="165"/>
       <c r="N50" s="165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="O50" s="165"/>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M51" s="155"/>
@@ -6180,7 +6180,7 @@
         <v>0.41</v>
       </c>
       <c r="L52" s="155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3186000.0000000005</v>
       </c>
       <c r="M52" s="155"/>
@@ -6192,19 +6192,19 @@
       <c r="P52" s="168"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="410">
+      <c r="A53" s="403">
         <v>835</v>
       </c>
-      <c r="B53" s="413">
+      <c r="B53" s="406">
         <v>44126</v>
       </c>
-      <c r="C53" s="410" t="s">
+      <c r="C53" s="403" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="410" t="s">
+      <c r="D53" s="403" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="410" t="s">
+      <c r="E53" s="403" t="s">
         <v>219</v>
       </c>
       <c r="F53" s="160" t="s">
@@ -6225,11 +6225,11 @@
         <v>0.41</v>
       </c>
       <c r="L53" s="161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>548700.00000000012</v>
       </c>
       <c r="M53" s="161">
-        <f t="shared" ref="M53:M58" si="4">L53</f>
+        <f t="shared" ref="M53:M58" si="7">L53</f>
         <v>548700.00000000012</v>
       </c>
       <c r="N53" s="161"/>
@@ -6237,11 +6237,11 @@
       <c r="P53" s="369"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="412"/>
-      <c r="B54" s="415"/>
-      <c r="C54" s="412"/>
-      <c r="D54" s="412"/>
-      <c r="E54" s="412"/>
+      <c r="A54" s="405"/>
+      <c r="B54" s="408"/>
+      <c r="C54" s="405"/>
+      <c r="D54" s="405"/>
+      <c r="E54" s="405"/>
       <c r="F54" s="164" t="s">
         <v>118</v>
       </c>
@@ -6260,11 +6260,11 @@
         <v>0.41</v>
       </c>
       <c r="L54" s="165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>268450.00000000006</v>
       </c>
       <c r="M54" s="165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>268450.00000000006</v>
       </c>
       <c r="N54" s="165"/>
@@ -6272,17 +6272,17 @@
       <c r="P54" s="370"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="410">
+      <c r="A55" s="403">
         <v>840</v>
       </c>
-      <c r="B55" s="413">
+      <c r="B55" s="406">
         <v>44128</v>
       </c>
-      <c r="C55" s="410" t="s">
+      <c r="C55" s="403" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="410"/>
-      <c r="E55" s="410"/>
+      <c r="D55" s="403"/>
+      <c r="E55" s="403"/>
       <c r="F55" s="160" t="s">
         <v>122</v>
       </c>
@@ -6301,11 +6301,11 @@
         <v>0.41</v>
       </c>
       <c r="L55" s="161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>268450.00000000006</v>
       </c>
       <c r="M55" s="161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>268450.00000000006</v>
       </c>
       <c r="N55" s="161"/>
@@ -6313,11 +6313,11 @@
       <c r="P55" s="369"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="412"/>
-      <c r="B56" s="415"/>
-      <c r="C56" s="412"/>
-      <c r="D56" s="412"/>
-      <c r="E56" s="412"/>
+      <c r="A56" s="405"/>
+      <c r="B56" s="408"/>
+      <c r="C56" s="405"/>
+      <c r="D56" s="405"/>
+      <c r="E56" s="405"/>
       <c r="F56" s="164" t="s">
         <v>221</v>
       </c>
@@ -6336,11 +6336,11 @@
         <v>0.41</v>
       </c>
       <c r="L56" s="165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150450.00000000003</v>
       </c>
       <c r="M56" s="165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150450.00000000003</v>
       </c>
       <c r="N56" s="165"/>
@@ -6383,7 +6383,7 @@
         <v>400000</v>
       </c>
       <c r="M57" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
       <c r="N57" s="155"/>
@@ -6424,11 +6424,11 @@
         <v>0.41</v>
       </c>
       <c r="L58" s="155">
-        <f t="shared" ref="L58:L83" si="5">I58*(1-K58)</f>
+        <f t="shared" ref="L58:L83" si="8">I58*(1-K58)</f>
         <v>536900.00000000012</v>
       </c>
       <c r="M58" s="155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>536900.00000000012</v>
       </c>
       <c r="N58" s="155"/>
@@ -6436,19 +6436,19 @@
       <c r="P58" s="168"/>
     </row>
     <row r="59" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="410">
+      <c r="A59" s="403">
         <v>847</v>
       </c>
-      <c r="B59" s="413">
+      <c r="B59" s="406">
         <v>44128</v>
       </c>
-      <c r="C59" s="410" t="s">
+      <c r="C59" s="403" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="410" t="s">
+      <c r="D59" s="403" t="s">
         <v>226</v>
       </c>
-      <c r="E59" s="420" t="s">
+      <c r="E59" s="413" t="s">
         <v>227</v>
       </c>
       <c r="F59" s="160" t="s">
@@ -6469,23 +6469,23 @@
         <v>0.5</v>
       </c>
       <c r="L59" s="161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1592500</v>
       </c>
       <c r="M59" s="161"/>
       <c r="N59" s="161"/>
       <c r="O59" s="161">
-        <f t="shared" ref="O59:O77" si="6">L59</f>
+        <f t="shared" ref="O59:O77" si="9">L59</f>
         <v>1592500</v>
       </c>
       <c r="P59" s="160"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="519"/>
-      <c r="B60" s="520"/>
-      <c r="C60" s="519"/>
-      <c r="D60" s="519"/>
-      <c r="E60" s="521"/>
+      <c r="A60" s="417"/>
+      <c r="B60" s="418"/>
+      <c r="C60" s="417"/>
+      <c r="D60" s="417"/>
+      <c r="E60" s="414"/>
       <c r="F60" s="201" t="s">
         <v>122</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M60" s="202"/>
@@ -6513,11 +6513,11 @@
       <c r="P60" s="201"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="411"/>
-      <c r="B61" s="414"/>
-      <c r="C61" s="411"/>
-      <c r="D61" s="411"/>
-      <c r="E61" s="421"/>
+      <c r="A61" s="404"/>
+      <c r="B61" s="407"/>
+      <c r="C61" s="404"/>
+      <c r="D61" s="404"/>
+      <c r="E61" s="415"/>
       <c r="F61" s="173" t="s">
         <v>192</v>
       </c>
@@ -6536,23 +6536,23 @@
         <v>1</v>
       </c>
       <c r="L61" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M61" s="174"/>
       <c r="N61" s="174"/>
       <c r="O61" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P61" s="194"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="411"/>
-      <c r="B62" s="414"/>
-      <c r="C62" s="411"/>
-      <c r="D62" s="411"/>
-      <c r="E62" s="421"/>
+      <c r="A62" s="404"/>
+      <c r="B62" s="407"/>
+      <c r="C62" s="404"/>
+      <c r="D62" s="404"/>
+      <c r="E62" s="415"/>
       <c r="F62" s="173" t="s">
         <v>193</v>
       </c>
@@ -6571,23 +6571,23 @@
         <v>1</v>
       </c>
       <c r="L62" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M62" s="174"/>
       <c r="N62" s="174"/>
       <c r="O62" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P62" s="194"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="411"/>
-      <c r="B63" s="414"/>
-      <c r="C63" s="411"/>
-      <c r="D63" s="411"/>
-      <c r="E63" s="421"/>
+      <c r="A63" s="404"/>
+      <c r="B63" s="407"/>
+      <c r="C63" s="404"/>
+      <c r="D63" s="404"/>
+      <c r="E63" s="415"/>
       <c r="F63" s="173" t="s">
         <v>191</v>
       </c>
@@ -6606,23 +6606,23 @@
         <v>1</v>
       </c>
       <c r="L63" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M63" s="174"/>
       <c r="N63" s="174"/>
       <c r="O63" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P63" s="194"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="412"/>
-      <c r="B64" s="415"/>
-      <c r="C64" s="412"/>
-      <c r="D64" s="412"/>
-      <c r="E64" s="422"/>
+      <c r="A64" s="405"/>
+      <c r="B64" s="408"/>
+      <c r="C64" s="405"/>
+      <c r="D64" s="405"/>
+      <c r="E64" s="416"/>
       <c r="F64" s="164" t="s">
         <v>136</v>
       </c>
@@ -6641,31 +6641,31 @@
         <v>1</v>
       </c>
       <c r="L64" s="165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M64" s="165"/>
       <c r="N64" s="165"/>
       <c r="O64" s="165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P64" s="370"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="410">
+      <c r="A65" s="403">
         <v>843</v>
       </c>
-      <c r="B65" s="413">
+      <c r="B65" s="406">
         <v>44129</v>
       </c>
-      <c r="C65" s="410" t="s">
+      <c r="C65" s="403" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="410" t="s">
+      <c r="D65" s="403" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="410"/>
+      <c r="E65" s="403"/>
       <c r="F65" s="160" t="s">
         <v>121</v>
       </c>
@@ -6684,23 +6684,23 @@
         <v>0.5</v>
       </c>
       <c r="L65" s="161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1350000</v>
       </c>
       <c r="M65" s="161"/>
       <c r="N65" s="161"/>
       <c r="O65" s="161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1350000</v>
       </c>
       <c r="P65" s="160"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="412"/>
-      <c r="B66" s="415"/>
-      <c r="C66" s="412"/>
-      <c r="D66" s="412"/>
-      <c r="E66" s="412"/>
+      <c r="A66" s="405"/>
+      <c r="B66" s="408"/>
+      <c r="C66" s="405"/>
+      <c r="D66" s="405"/>
+      <c r="E66" s="405"/>
       <c r="F66" s="164" t="s">
         <v>122</v>
       </c>
@@ -6719,13 +6719,13 @@
         <v>0.5</v>
       </c>
       <c r="L66" s="165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19110000</v>
       </c>
       <c r="M66" s="165"/>
       <c r="N66" s="165"/>
       <c r="O66" s="165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19110000</v>
       </c>
       <c r="P66" s="164"/>
@@ -6774,17 +6774,17 @@
       <c r="P67" s="371"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="410">
+      <c r="A68" s="403">
         <v>850</v>
       </c>
-      <c r="B68" s="413">
+      <c r="B68" s="406">
         <v>44130</v>
       </c>
-      <c r="C68" s="410"/>
-      <c r="D68" s="410" t="s">
+      <c r="C68" s="403"/>
+      <c r="D68" s="403" t="s">
         <v>208</v>
       </c>
-      <c r="E68" s="410" t="s">
+      <c r="E68" s="403" t="s">
         <v>209</v>
       </c>
       <c r="F68" s="160" t="s">
@@ -6805,23 +6805,23 @@
         <v>0.41</v>
       </c>
       <c r="L68" s="161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6372000.0000000009</v>
       </c>
       <c r="M68" s="161"/>
       <c r="N68" s="161"/>
       <c r="O68" s="161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6372000.0000000009</v>
       </c>
       <c r="P68" s="160"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="411"/>
-      <c r="B69" s="414"/>
-      <c r="C69" s="411"/>
-      <c r="D69" s="411"/>
-      <c r="E69" s="411"/>
+      <c r="A69" s="404"/>
+      <c r="B69" s="407"/>
+      <c r="C69" s="404"/>
+      <c r="D69" s="404"/>
+      <c r="E69" s="404"/>
       <c r="F69" s="173" t="s">
         <v>122</v>
       </c>
@@ -6840,23 +6840,23 @@
         <v>0.41</v>
       </c>
       <c r="L69" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12885600.000000002</v>
       </c>
       <c r="M69" s="174"/>
       <c r="N69" s="174"/>
       <c r="O69" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12885600.000000002</v>
       </c>
       <c r="P69" s="173"/>
     </row>
     <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="411"/>
-      <c r="B70" s="414"/>
-      <c r="C70" s="411"/>
-      <c r="D70" s="411"/>
-      <c r="E70" s="411"/>
+      <c r="A70" s="404"/>
+      <c r="B70" s="407"/>
+      <c r="C70" s="404"/>
+      <c r="D70" s="404"/>
+      <c r="E70" s="404"/>
       <c r="F70" s="173" t="s">
         <v>192</v>
       </c>
@@ -6875,23 +6875,23 @@
         <v>0.41</v>
       </c>
       <c r="L70" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6584400.0000000009</v>
       </c>
       <c r="M70" s="174"/>
       <c r="N70" s="174"/>
       <c r="O70" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6584400.0000000009</v>
       </c>
       <c r="P70" s="173"/>
     </row>
     <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="411"/>
-      <c r="B71" s="414"/>
-      <c r="C71" s="411"/>
-      <c r="D71" s="411"/>
-      <c r="E71" s="411"/>
+      <c r="A71" s="404"/>
+      <c r="B71" s="407"/>
+      <c r="C71" s="404"/>
+      <c r="D71" s="404"/>
+      <c r="E71" s="404"/>
       <c r="F71" s="173" t="s">
         <v>123</v>
       </c>
@@ -6910,23 +6910,23 @@
         <v>0.41</v>
       </c>
       <c r="L71" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6867600.0000000009</v>
       </c>
       <c r="M71" s="174"/>
       <c r="N71" s="174"/>
       <c r="O71" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6867600.0000000009</v>
       </c>
       <c r="P71" s="173"/>
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="411"/>
-      <c r="B72" s="414"/>
-      <c r="C72" s="411"/>
-      <c r="D72" s="411"/>
-      <c r="E72" s="411"/>
+      <c r="A72" s="404"/>
+      <c r="B72" s="407"/>
+      <c r="C72" s="404"/>
+      <c r="D72" s="404"/>
+      <c r="E72" s="404"/>
       <c r="F72" s="173" t="s">
         <v>136</v>
       </c>
@@ -6945,23 +6945,23 @@
         <v>0.41</v>
       </c>
       <c r="L72" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7788000.0000000009</v>
       </c>
       <c r="M72" s="174"/>
       <c r="N72" s="174"/>
       <c r="O72" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7788000.0000000009</v>
       </c>
       <c r="P72" s="173"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="411"/>
-      <c r="B73" s="414"/>
-      <c r="C73" s="411"/>
-      <c r="D73" s="411"/>
-      <c r="E73" s="411"/>
+      <c r="A73" s="404"/>
+      <c r="B73" s="407"/>
+      <c r="C73" s="404"/>
+      <c r="D73" s="404"/>
+      <c r="E73" s="404"/>
       <c r="F73" s="173" t="s">
         <v>118</v>
       </c>
@@ -6980,23 +6980,23 @@
         <v>0.41</v>
       </c>
       <c r="L73" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="M73" s="174"/>
       <c r="N73" s="174"/>
       <c r="O73" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="P73" s="173"/>
     </row>
     <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="412"/>
-      <c r="B74" s="415"/>
-      <c r="C74" s="412"/>
-      <c r="D74" s="412"/>
-      <c r="E74" s="412"/>
+      <c r="A74" s="405"/>
+      <c r="B74" s="408"/>
+      <c r="C74" s="405"/>
+      <c r="D74" s="405"/>
+      <c r="E74" s="405"/>
       <c r="F74" s="164" t="s">
         <v>130</v>
       </c>
@@ -7015,29 +7015,29 @@
         <v>0.41</v>
       </c>
       <c r="L74" s="165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="M74" s="165"/>
       <c r="N74" s="165"/>
       <c r="O74" s="165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6442800.0000000009</v>
       </c>
       <c r="P74" s="164"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="410">
+      <c r="A75" s="403">
         <v>1204</v>
       </c>
-      <c r="B75" s="413">
+      <c r="B75" s="406">
         <v>44130</v>
       </c>
-      <c r="C75" s="410"/>
-      <c r="D75" s="410" t="s">
+      <c r="C75" s="403"/>
+      <c r="D75" s="403" t="s">
         <v>195</v>
       </c>
-      <c r="E75" s="410" t="s">
+      <c r="E75" s="403" t="s">
         <v>229</v>
       </c>
       <c r="F75" s="160" t="s">
@@ -7058,23 +7058,23 @@
         <v>0.38</v>
       </c>
       <c r="L75" s="161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3459600</v>
       </c>
       <c r="M75" s="161"/>
       <c r="N75" s="161"/>
       <c r="O75" s="161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3459600</v>
       </c>
       <c r="P75" s="160"/>
     </row>
     <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="411"/>
-      <c r="B76" s="414"/>
-      <c r="C76" s="411"/>
-      <c r="D76" s="411"/>
-      <c r="E76" s="411"/>
+      <c r="A76" s="404"/>
+      <c r="B76" s="407"/>
+      <c r="C76" s="404"/>
+      <c r="D76" s="404"/>
+      <c r="E76" s="404"/>
       <c r="F76" s="173" t="s">
         <v>123</v>
       </c>
@@ -7093,23 +7093,23 @@
         <v>0.38</v>
       </c>
       <c r="L76" s="174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3608400</v>
       </c>
       <c r="M76" s="174"/>
       <c r="N76" s="174"/>
       <c r="O76" s="174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3608400</v>
       </c>
       <c r="P76" s="173"/>
     </row>
     <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="412"/>
-      <c r="B77" s="415"/>
-      <c r="C77" s="412"/>
-      <c r="D77" s="412"/>
-      <c r="E77" s="412"/>
+      <c r="A77" s="405"/>
+      <c r="B77" s="408"/>
+      <c r="C77" s="405"/>
+      <c r="D77" s="405"/>
+      <c r="E77" s="405"/>
       <c r="F77" s="164" t="s">
         <v>118</v>
       </c>
@@ -7128,13 +7128,13 @@
         <v>0.38</v>
       </c>
       <c r="L77" s="165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3385200</v>
       </c>
       <c r="M77" s="165"/>
       <c r="N77" s="165"/>
       <c r="O77" s="165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3385200</v>
       </c>
       <c r="P77" s="164"/>
@@ -7171,7 +7171,7 @@
         <v>0.41</v>
       </c>
       <c r="L78" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>649000.00000000012</v>
       </c>
       <c r="M78" s="155">
@@ -7255,7 +7255,7 @@
         <v>0.5</v>
       </c>
       <c r="L80" s="155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2820000</v>
       </c>
       <c r="M80" s="155"/>
@@ -7267,17 +7267,17 @@
       <c r="P80" s="154"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="410">
+      <c r="A81" s="403">
         <v>1209</v>
       </c>
-      <c r="B81" s="413">
+      <c r="B81" s="406">
         <v>44135</v>
       </c>
-      <c r="C81" s="410"/>
-      <c r="D81" s="410" t="s">
+      <c r="C81" s="403"/>
+      <c r="D81" s="403" t="s">
         <v>208</v>
       </c>
-      <c r="E81" s="410" t="s">
+      <c r="E81" s="403" t="s">
         <v>233</v>
       </c>
       <c r="F81" s="160" t="s">
@@ -7298,7 +7298,7 @@
         <v>0.41</v>
       </c>
       <c r="L81" s="161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6655200.0000000009</v>
       </c>
       <c r="M81" s="161"/>
@@ -7310,11 +7310,11 @@
       <c r="P81" s="160"/>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="412"/>
-      <c r="B82" s="415"/>
-      <c r="C82" s="412"/>
-      <c r="D82" s="412"/>
-      <c r="E82" s="412"/>
+      <c r="A82" s="405"/>
+      <c r="B82" s="408"/>
+      <c r="C82" s="405"/>
+      <c r="D82" s="405"/>
+      <c r="E82" s="405"/>
       <c r="F82" s="164" t="s">
         <v>221</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.41</v>
       </c>
       <c r="L82" s="165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7221600.0000000009</v>
       </c>
       <c r="M82" s="165"/>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>485000</v>
       </c>
       <c r="M83" s="202">
@@ -7386,14 +7386,14 @@
       <c r="P83" s="201"/>
     </row>
     <row r="84" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="404" t="s">
+      <c r="A84" s="428" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="404"/>
-      <c r="C84" s="404"/>
-      <c r="D84" s="404"/>
-      <c r="E84" s="404"/>
-      <c r="F84" s="404"/>
+      <c r="B84" s="428"/>
+      <c r="C84" s="428"/>
+      <c r="D84" s="428"/>
+      <c r="E84" s="428"/>
+      <c r="F84" s="428"/>
       <c r="G84" s="130">
         <f>SUM(G8:G83)</f>
         <v>1365</v>
@@ -7413,17 +7413,17 @@
       <c r="N84" s="131"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
-      <c r="Q84" s="416"/>
+      <c r="Q84" s="421"/>
     </row>
     <row r="85" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="403" t="s">
+      <c r="A85" s="422" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="403"/>
-      <c r="C85" s="403"/>
-      <c r="D85" s="403"/>
-      <c r="E85" s="403"/>
-      <c r="F85" s="403"/>
+      <c r="B85" s="422"/>
+      <c r="C85" s="422"/>
+      <c r="D85" s="422"/>
+      <c r="E85" s="422"/>
+      <c r="F85" s="422"/>
       <c r="G85" s="130">
         <f>G84</f>
         <v>1365</v>
@@ -7440,17 +7440,17 @@
       <c r="N85" s="135"/>
       <c r="O85" s="135"/>
       <c r="P85" s="135"/>
-      <c r="Q85" s="416"/>
+      <c r="Q85" s="421"/>
     </row>
     <row r="86" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="403" t="s">
+      <c r="A86" s="422" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="403"/>
-      <c r="C86" s="403"/>
-      <c r="D86" s="403"/>
-      <c r="E86" s="403"/>
-      <c r="F86" s="403"/>
+      <c r="B86" s="422"/>
+      <c r="C86" s="422"/>
+      <c r="D86" s="422"/>
+      <c r="E86" s="422"/>
+      <c r="F86" s="422"/>
       <c r="G86" s="136" t="s">
         <v>45</v>
       </c>
@@ -7468,14 +7468,14 @@
       <c r="P86" s="137"/>
     </row>
     <row r="87" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="403" t="s">
+      <c r="A87" s="422" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="403"/>
-      <c r="C87" s="403"/>
-      <c r="D87" s="403"/>
-      <c r="E87" s="403"/>
-      <c r="F87" s="403"/>
+      <c r="B87" s="422"/>
+      <c r="C87" s="422"/>
+      <c r="D87" s="422"/>
+      <c r="E87" s="422"/>
+      <c r="F87" s="422"/>
       <c r="G87" s="135"/>
       <c r="H87" s="135"/>
       <c r="I87" s="131"/>
@@ -7491,14 +7491,14 @@
       <c r="P87" s="137"/>
     </row>
     <row r="88" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="403" t="s">
+      <c r="A88" s="422" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="403"/>
-      <c r="C88" s="403"/>
-      <c r="D88" s="403"/>
-      <c r="E88" s="403"/>
-      <c r="F88" s="403"/>
+      <c r="B88" s="422"/>
+      <c r="C88" s="422"/>
+      <c r="D88" s="422"/>
+      <c r="E88" s="422"/>
+      <c r="F88" s="422"/>
       <c r="G88" s="135"/>
       <c r="H88" s="135"/>
       <c r="I88" s="131"/>
@@ -7569,16 +7569,84 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="112">
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="A43:A50"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -7603,84 +7671,16 @@
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7725,75 +7725,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="431" t="s">
+      <c r="A3" s="440" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="431"/>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="431"/>
-      <c r="J3" s="431"/>
-      <c r="K3" s="431"/>
+      <c r="B3" s="440"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
+      <c r="I3" s="440"/>
+      <c r="J3" s="440"/>
+      <c r="K3" s="440"/>
       <c r="L3" s="384"/>
       <c r="M3" s="384"/>
       <c r="N3" s="384"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="432" t="s">
+      <c r="A4" s="441" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="432"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="432"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
-      <c r="H4" s="432"/>
-      <c r="I4" s="432"/>
-      <c r="J4" s="433"/>
-      <c r="K4" s="432"/>
+      <c r="B4" s="441"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="441"/>
+      <c r="F4" s="441"/>
+      <c r="G4" s="441"/>
+      <c r="H4" s="441"/>
+      <c r="I4" s="441"/>
+      <c r="J4" s="442"/>
+      <c r="K4" s="441"/>
       <c r="L4" s="385"/>
       <c r="M4" s="385"/>
       <c r="N4" s="385"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="434" t="s">
+      <c r="A5" s="443" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="444" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="434" t="s">
+      <c r="C5" s="443" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="434" t="s">
+      <c r="D5" s="443" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="434"/>
-      <c r="F5" s="436" t="s">
+      <c r="E5" s="443"/>
+      <c r="F5" s="445" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="436"/>
-      <c r="H5" s="436"/>
-      <c r="I5" s="436"/>
-      <c r="J5" s="437"/>
-      <c r="K5" s="438" t="s">
+      <c r="G5" s="445"/>
+      <c r="H5" s="445"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="446"/>
+      <c r="K5" s="447" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="430" t="s">
+      <c r="L5" s="439" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="430"/>
-      <c r="N5" s="430"/>
+      <c r="M5" s="439"/>
+      <c r="N5" s="439"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="434"/>
-      <c r="B6" s="435"/>
-      <c r="C6" s="434"/>
+      <c r="A6" s="443"/>
+      <c r="B6" s="444"/>
+      <c r="C6" s="443"/>
       <c r="D6" s="284" t="s">
         <v>40</v>
       </c>
@@ -7815,7 +7815,7 @@
       <c r="J6" s="286" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="438"/>
+      <c r="K6" s="447"/>
       <c r="L6" s="287" t="s">
         <v>52</v>
       </c>
@@ -7866,19 +7866,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="439">
+      <c r="A8" s="432">
         <v>811</v>
       </c>
-      <c r="B8" s="441">
+      <c r="B8" s="435">
         <v>44107</v>
       </c>
-      <c r="C8" s="439" t="s">
+      <c r="C8" s="432" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="439" t="s">
+      <c r="D8" s="432" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="439"/>
+      <c r="E8" s="432"/>
       <c r="F8" s="288" t="s">
         <v>121</v>
       </c>
@@ -7907,11 +7907,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="440"/>
-      <c r="B9" s="442"/>
-      <c r="C9" s="440"/>
-      <c r="D9" s="440"/>
-      <c r="E9" s="440"/>
+      <c r="A9" s="434"/>
+      <c r="B9" s="437"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="434"/>
+      <c r="E9" s="434"/>
       <c r="F9" s="298" t="s">
         <v>122</v>
       </c>
@@ -7940,17 +7940,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="439">
+      <c r="A10" s="432">
         <v>817</v>
       </c>
-      <c r="B10" s="441">
+      <c r="B10" s="435">
         <v>44107</v>
       </c>
-      <c r="C10" s="439"/>
-      <c r="D10" s="439" t="s">
+      <c r="C10" s="432"/>
+      <c r="D10" s="432" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="439"/>
+      <c r="E10" s="432"/>
       <c r="F10" s="288" t="s">
         <v>121</v>
       </c>
@@ -7979,11 +7979,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="443"/>
-      <c r="B11" s="444"/>
-      <c r="C11" s="443"/>
-      <c r="D11" s="443"/>
-      <c r="E11" s="443"/>
+      <c r="A11" s="433"/>
+      <c r="B11" s="436"/>
+      <c r="C11" s="433"/>
+      <c r="D11" s="433"/>
+      <c r="E11" s="433"/>
       <c r="F11" s="293" t="s">
         <v>122</v>
       </c>
@@ -8012,11 +8012,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="440"/>
-      <c r="B12" s="442"/>
-      <c r="C12" s="440"/>
-      <c r="D12" s="440"/>
-      <c r="E12" s="440"/>
+      <c r="A12" s="434"/>
+      <c r="B12" s="437"/>
+      <c r="C12" s="434"/>
+      <c r="D12" s="434"/>
+      <c r="E12" s="434"/>
       <c r="F12" s="298" t="s">
         <v>123</v>
       </c>
@@ -8162,19 +8162,19 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="439">
+      <c r="A16" s="432">
         <v>815</v>
       </c>
-      <c r="B16" s="441">
+      <c r="B16" s="435">
         <v>44112</v>
       </c>
-      <c r="C16" s="439" t="s">
+      <c r="C16" s="432" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="439" t="s">
+      <c r="D16" s="432" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="439"/>
+      <c r="E16" s="432"/>
       <c r="F16" s="288" t="s">
         <v>121</v>
       </c>
@@ -8203,11 +8203,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="440"/>
-      <c r="B17" s="442"/>
-      <c r="C17" s="440"/>
-      <c r="D17" s="440"/>
-      <c r="E17" s="440"/>
+      <c r="A17" s="434"/>
+      <c r="B17" s="437"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
+      <c r="E17" s="434"/>
       <c r="F17" s="298" t="s">
         <v>122</v>
       </c>
@@ -8236,19 +8236,19 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="439">
+      <c r="A18" s="432">
         <v>820</v>
       </c>
-      <c r="B18" s="441">
+      <c r="B18" s="435">
         <v>44113</v>
       </c>
-      <c r="C18" s="439" t="s">
+      <c r="C18" s="432" t="s">
         <v>260</v>
       </c>
-      <c r="D18" s="439" t="s">
+      <c r="D18" s="432" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="439"/>
+      <c r="E18" s="432"/>
       <c r="F18" s="288" t="s">
         <v>121</v>
       </c>
@@ -8277,11 +8277,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="440"/>
-      <c r="B19" s="442"/>
-      <c r="C19" s="440"/>
-      <c r="D19" s="440"/>
-      <c r="E19" s="440"/>
+      <c r="A19" s="434"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="434"/>
+      <c r="E19" s="434"/>
       <c r="F19" s="298" t="s">
         <v>122</v>
       </c>
@@ -8472,19 +8472,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="439">
+      <c r="A24" s="432">
         <v>845</v>
       </c>
-      <c r="B24" s="441">
+      <c r="B24" s="435">
         <v>44127</v>
       </c>
-      <c r="C24" s="439" t="s">
+      <c r="C24" s="432" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="439" t="s">
+      <c r="D24" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="439"/>
+      <c r="E24" s="432"/>
       <c r="F24" s="288" t="s">
         <v>122</v>
       </c>
@@ -8513,11 +8513,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="443"/>
-      <c r="B25" s="444"/>
-      <c r="C25" s="443"/>
-      <c r="D25" s="443"/>
-      <c r="E25" s="443"/>
+      <c r="A25" s="433"/>
+      <c r="B25" s="436"/>
+      <c r="C25" s="433"/>
+      <c r="D25" s="433"/>
+      <c r="E25" s="433"/>
       <c r="F25" s="293" t="s">
         <v>192</v>
       </c>
@@ -8546,11 +8546,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="443"/>
-      <c r="B26" s="444"/>
-      <c r="C26" s="443"/>
-      <c r="D26" s="443"/>
-      <c r="E26" s="443"/>
+      <c r="A26" s="433"/>
+      <c r="B26" s="436"/>
+      <c r="C26" s="433"/>
+      <c r="D26" s="433"/>
+      <c r="E26" s="433"/>
       <c r="F26" s="293" t="s">
         <v>193</v>
       </c>
@@ -8579,11 +8579,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="443"/>
-      <c r="B27" s="444"/>
-      <c r="C27" s="443"/>
-      <c r="D27" s="443"/>
-      <c r="E27" s="443"/>
+      <c r="A27" s="433"/>
+      <c r="B27" s="436"/>
+      <c r="C27" s="433"/>
+      <c r="D27" s="433"/>
+      <c r="E27" s="433"/>
       <c r="F27" s="293" t="s">
         <v>123</v>
       </c>
@@ -8612,11 +8612,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="443"/>
-      <c r="B28" s="444"/>
-      <c r="C28" s="443"/>
-      <c r="D28" s="443"/>
-      <c r="E28" s="443"/>
+      <c r="A28" s="433"/>
+      <c r="B28" s="436"/>
+      <c r="C28" s="433"/>
+      <c r="D28" s="433"/>
+      <c r="E28" s="433"/>
       <c r="F28" s="293" t="s">
         <v>191</v>
       </c>
@@ -8645,11 +8645,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="443"/>
-      <c r="B29" s="444"/>
-      <c r="C29" s="443"/>
-      <c r="D29" s="443"/>
-      <c r="E29" s="443"/>
+      <c r="A29" s="433"/>
+      <c r="B29" s="436"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
       <c r="F29" s="293" t="s">
         <v>118</v>
       </c>
@@ -8678,11 +8678,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="440"/>
-      <c r="B30" s="442"/>
-      <c r="C30" s="440"/>
-      <c r="D30" s="440"/>
-      <c r="E30" s="440"/>
+      <c r="A30" s="434"/>
+      <c r="B30" s="437"/>
+      <c r="C30" s="434"/>
+      <c r="D30" s="434"/>
+      <c r="E30" s="434"/>
       <c r="F30" s="298" t="s">
         <v>130</v>
       </c>
@@ -8791,17 +8791,17 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="439">
+      <c r="A33" s="432">
         <v>1203</v>
       </c>
-      <c r="B33" s="441">
+      <c r="B33" s="435">
         <v>44130</v>
       </c>
-      <c r="C33" s="439"/>
-      <c r="D33" s="439" t="s">
+      <c r="C33" s="432"/>
+      <c r="D33" s="432" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="439"/>
+      <c r="E33" s="432"/>
       <c r="F33" s="288" t="s">
         <v>196</v>
       </c>
@@ -8830,11 +8830,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="443"/>
-      <c r="B34" s="444"/>
-      <c r="C34" s="443"/>
-      <c r="D34" s="443"/>
-      <c r="E34" s="443"/>
+      <c r="A34" s="433"/>
+      <c r="B34" s="436"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
       <c r="F34" s="293" t="s">
         <v>192</v>
       </c>
@@ -8863,11 +8863,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="443"/>
-      <c r="B35" s="444"/>
-      <c r="C35" s="443"/>
-      <c r="D35" s="443"/>
-      <c r="E35" s="443"/>
+      <c r="A35" s="433"/>
+      <c r="B35" s="436"/>
+      <c r="C35" s="433"/>
+      <c r="D35" s="433"/>
+      <c r="E35" s="433"/>
       <c r="F35" s="293" t="s">
         <v>136</v>
       </c>
@@ -8896,11 +8896,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="440"/>
-      <c r="B36" s="442"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="440"/>
+      <c r="A36" s="434"/>
+      <c r="B36" s="437"/>
+      <c r="C36" s="434"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="434"/>
       <c r="F36" s="298" t="s">
         <v>118</v>
       </c>
@@ -8968,13 +8968,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="309" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="429" t="s">
+      <c r="A38" s="438" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="429"/>
-      <c r="C38" s="429"/>
-      <c r="D38" s="429"/>
-      <c r="E38" s="429"/>
+      <c r="B38" s="438"/>
+      <c r="C38" s="438"/>
+      <c r="D38" s="438"/>
+      <c r="E38" s="438"/>
       <c r="F38" s="303"/>
       <c r="G38" s="303">
         <f>SUM(G7:G37)</f>
@@ -9062,30 +9062,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -9102,6 +9078,30 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A33:A36"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9162,24 +9162,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="445" t="s">
+      <c r="A4" s="448" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="445"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="445"/>
+      <c r="B4" s="448"/>
+      <c r="C4" s="448"/>
+      <c r="D4" s="448"/>
+      <c r="E4" s="448"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="446" t="s">
+      <c r="A5" s="449" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="446"/>
-      <c r="C5" s="446"/>
-      <c r="D5" s="446"/>
-      <c r="E5" s="446"/>
+      <c r="B5" s="449"/>
+      <c r="C5" s="449"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -9258,7 +9258,7 @@
         <f>'DOANH THU'!L86</f>
         <v>7761450.0000000009</v>
       </c>
-      <c r="E10" s="447">
+      <c r="E10" s="450">
         <f>D10+D11</f>
         <v>102232250.00000001</v>
       </c>
@@ -9277,7 +9277,7 @@
         <f>'DOANH THU'!L87</f>
         <v>94470800.000000015</v>
       </c>
-      <c r="E11" s="448"/>
+      <c r="E11" s="451"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -9554,13 +9554,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="476" t="s">
+      <c r="A1" s="454" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="476"/>
-      <c r="C1" s="476"/>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
+      <c r="B1" s="454"/>
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9580,30 +9580,30 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="477" t="s">
+      <c r="A4" s="455" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="477"/>
-      <c r="C4" s="477"/>
-      <c r="D4" s="477"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="477"/>
-      <c r="H4" s="477"/>
+      <c r="B4" s="455"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="455"/>
+      <c r="H4" s="455"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="478" t="s">
+      <c r="A6" s="456" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="478"/>
-      <c r="C6" s="478"/>
-      <c r="D6" s="478"/>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="479" t="s">
+      <c r="B6" s="456"/>
+      <c r="C6" s="456"/>
+      <c r="D6" s="456"/>
+      <c r="E6" s="456"/>
+      <c r="F6" s="456"/>
+      <c r="G6" s="457" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="479"/>
+      <c r="H6" s="457"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="470" t="s">
@@ -9620,10 +9620,10 @@
         <v>4744538</v>
       </c>
       <c r="H7" s="469"/>
-      <c r="I7" s="474" t="s">
+      <c r="I7" s="452" t="s">
         <v>241</v>
       </c>
-      <c r="J7" s="475"/>
+      <c r="J7" s="453"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="472"/>
@@ -9638,8 +9638,8 @@
         <v>6713000</v>
       </c>
       <c r="H8" s="469"/>
-      <c r="I8" s="474"/>
-      <c r="J8" s="475"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="458" t="s">
@@ -9718,34 +9718,34 @@
       <c r="O13" s="269"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="452" t="s">
+      <c r="A14" s="477" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="452"/>
-      <c r="C14" s="452"/>
-      <c r="D14" s="452"/>
-      <c r="E14" s="452"/>
-      <c r="F14" s="452"/>
-      <c r="G14" s="453">
+      <c r="B14" s="477"/>
+      <c r="C14" s="477"/>
+      <c r="D14" s="477"/>
+      <c r="E14" s="477"/>
+      <c r="F14" s="477"/>
+      <c r="G14" s="478">
         <f>'Bảng lương'!F12</f>
         <v>6576923.076923077</v>
       </c>
-      <c r="H14" s="453"/>
+      <c r="H14" s="478"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="454" t="s">
+      <c r="A15" s="479" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="454"/>
-      <c r="C15" s="454"/>
-      <c r="D15" s="454"/>
-      <c r="E15" s="454"/>
-      <c r="F15" s="454"/>
-      <c r="G15" s="455">
+      <c r="B15" s="479"/>
+      <c r="C15" s="479"/>
+      <c r="D15" s="479"/>
+      <c r="E15" s="479"/>
+      <c r="F15" s="479"/>
+      <c r="G15" s="480">
         <f>G7+G8+G9+G14</f>
         <v>21659461.076923076</v>
       </c>
-      <c r="H15" s="455"/>
+      <c r="H15" s="480"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="270" t="s">
@@ -9758,10 +9758,10 @@
       <c r="K17" s="269"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="456">
+      <c r="A18" s="481">
         <v>44106</v>
       </c>
-      <c r="B18" s="456"/>
+      <c r="B18" s="481"/>
       <c r="C18" s="264"/>
       <c r="D18" s="264"/>
       <c r="E18" s="264" t="s">
@@ -9774,10 +9774,10 @@
       <c r="P18" s="269"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="456">
+      <c r="A19" s="481">
         <v>44116</v>
       </c>
-      <c r="B19" s="456"/>
+      <c r="B19" s="481"/>
       <c r="C19" s="264"/>
       <c r="D19" s="264"/>
       <c r="E19" s="264" t="s">
@@ -9789,10 +9789,10 @@
       <c r="K19" s="269"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="456">
+      <c r="A20" s="481">
         <v>44120</v>
       </c>
-      <c r="B20" s="456"/>
+      <c r="B20" s="481"/>
       <c r="C20" s="264"/>
       <c r="D20" s="264"/>
       <c r="E20" s="264" t="s">
@@ -9803,10 +9803,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="457">
+      <c r="A21" s="482">
         <v>44128</v>
       </c>
-      <c r="B21" s="457"/>
+      <c r="B21" s="482"/>
       <c r="C21" s="264"/>
       <c r="D21" s="264"/>
       <c r="E21" s="341" t="s">
@@ -9820,10 +9820,10 @@
       <c r="M21" s="269"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="456">
+      <c r="A22" s="481">
         <v>44131</v>
       </c>
-      <c r="B22" s="456"/>
+      <c r="B22" s="481"/>
       <c r="C22" s="264"/>
       <c r="D22" s="264"/>
       <c r="E22" s="277" t="s">
@@ -9835,13 +9835,13 @@
       <c r="M22" s="269"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="449" t="s">
+      <c r="A23" s="474" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="450"/>
-      <c r="C23" s="450"/>
-      <c r="D23" s="450"/>
-      <c r="E23" s="451"/>
+      <c r="B23" s="475"/>
+      <c r="C23" s="475"/>
+      <c r="D23" s="475"/>
+      <c r="E23" s="476"/>
       <c r="F23" s="271">
         <f>SUM(F18:F22)</f>
         <v>7558900</v>
@@ -9901,16 +9901,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="G9:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -9921,6 +9911,16 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A9:D13"/>
+    <mergeCell ref="G9:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10461,16 +10461,16 @@
       <c r="C1" s="209"/>
       <c r="D1" s="209"/>
       <c r="E1" s="209"/>
-      <c r="Z1" s="485" t="s">
+      <c r="Z1" s="501" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="486"/>
-      <c r="AB1" s="486"/>
-      <c r="AC1" s="486"/>
-      <c r="AD1" s="486"/>
-      <c r="AE1" s="486"/>
-      <c r="AF1" s="486"/>
-      <c r="AG1" s="487"/>
+      <c r="AA1" s="502"/>
+      <c r="AB1" s="502"/>
+      <c r="AC1" s="502"/>
+      <c r="AD1" s="502"/>
+      <c r="AE1" s="502"/>
+      <c r="AF1" s="502"/>
+      <c r="AG1" s="503"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="212" t="s">
@@ -10480,18 +10480,18 @@
       <c r="C2" s="213"/>
       <c r="D2" s="213"/>
       <c r="E2" s="213"/>
-      <c r="Z2" s="480" t="s">
+      <c r="Z2" s="484" t="s">
         <v>145</v>
       </c>
-      <c r="AA2" s="481"/>
-      <c r="AB2" s="481"/>
-      <c r="AC2" s="481"/>
-      <c r="AD2" s="481"/>
-      <c r="AE2" s="482"/>
-      <c r="AF2" s="483" t="s">
+      <c r="AA2" s="485"/>
+      <c r="AB2" s="485"/>
+      <c r="AC2" s="485"/>
+      <c r="AD2" s="485"/>
+      <c r="AE2" s="486"/>
+      <c r="AF2" s="487" t="s">
         <v>146</v>
       </c>
-      <c r="AG2" s="484"/>
+      <c r="AG2" s="488"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="212" t="s">
@@ -10501,18 +10501,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="480" t="s">
+      <c r="Z3" s="484" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="481"/>
-      <c r="AB3" s="481"/>
-      <c r="AC3" s="481"/>
-      <c r="AD3" s="481"/>
-      <c r="AE3" s="482"/>
-      <c r="AF3" s="483" t="s">
+      <c r="AA3" s="485"/>
+      <c r="AB3" s="485"/>
+      <c r="AC3" s="485"/>
+      <c r="AD3" s="485"/>
+      <c r="AE3" s="486"/>
+      <c r="AF3" s="487" t="s">
         <v>149</v>
       </c>
-      <c r="AG3" s="484"/>
+      <c r="AG3" s="488"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="212" t="s">
@@ -10525,18 +10525,18 @@
       <c r="T4" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="480" t="s">
+      <c r="Z4" s="484" t="s">
         <v>151</v>
       </c>
-      <c r="AA4" s="481"/>
-      <c r="AB4" s="481"/>
-      <c r="AC4" s="481"/>
-      <c r="AD4" s="481"/>
-      <c r="AE4" s="482"/>
-      <c r="AF4" s="483" t="s">
+      <c r="AA4" s="485"/>
+      <c r="AB4" s="485"/>
+      <c r="AC4" s="485"/>
+      <c r="AD4" s="485"/>
+      <c r="AE4" s="486"/>
+      <c r="AF4" s="487" t="s">
         <v>152</v>
       </c>
-      <c r="AG4" s="484"/>
+      <c r="AG4" s="488"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="212" t="s">
@@ -10546,18 +10546,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="480" t="s">
+      <c r="Z5" s="484" t="s">
         <v>154</v>
       </c>
-      <c r="AA5" s="481"/>
-      <c r="AB5" s="481"/>
-      <c r="AC5" s="481"/>
-      <c r="AD5" s="481"/>
-      <c r="AE5" s="482"/>
-      <c r="AF5" s="483" t="s">
+      <c r="AA5" s="485"/>
+      <c r="AB5" s="485"/>
+      <c r="AC5" s="485"/>
+      <c r="AD5" s="485"/>
+      <c r="AE5" s="486"/>
+      <c r="AF5" s="487" t="s">
         <v>155</v>
       </c>
-      <c r="AG5" s="484"/>
+      <c r="AG5" s="488"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="214"/>
@@ -11370,131 +11370,131 @@
       <c r="AN33" s="249"/>
     </row>
     <row r="34" spans="3:40" s="248" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="488"/>
-      <c r="H34" s="488"/>
-      <c r="I34" s="488"/>
-      <c r="J34" s="488"/>
-      <c r="K34" s="488"/>
-      <c r="L34" s="488"/>
-      <c r="M34" s="488"/>
-      <c r="N34" s="488"/>
-      <c r="O34" s="488"/>
-      <c r="P34" s="488"/>
-      <c r="Q34" s="488"/>
-      <c r="R34" s="488"/>
-      <c r="S34" s="488"/>
-      <c r="T34" s="488"/>
-      <c r="U34" s="488"/>
-      <c r="V34" s="488"/>
-      <c r="W34" s="488"/>
-      <c r="X34" s="488"/>
+      <c r="G34" s="483"/>
+      <c r="H34" s="483"/>
+      <c r="I34" s="483"/>
+      <c r="J34" s="483"/>
+      <c r="K34" s="483"/>
+      <c r="L34" s="483"/>
+      <c r="M34" s="483"/>
+      <c r="N34" s="483"/>
+      <c r="O34" s="483"/>
+      <c r="P34" s="483"/>
+      <c r="Q34" s="483"/>
+      <c r="R34" s="483"/>
+      <c r="S34" s="483"/>
+      <c r="T34" s="483"/>
+      <c r="U34" s="483"/>
+      <c r="V34" s="483"/>
+      <c r="W34" s="483"/>
+      <c r="X34" s="483"/>
       <c r="AN34" s="249"/>
     </row>
     <row r="35" spans="3:40" s="248" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="488"/>
-      <c r="H35" s="488"/>
-      <c r="I35" s="488"/>
-      <c r="J35" s="488"/>
-      <c r="K35" s="488"/>
-      <c r="L35" s="488"/>
-      <c r="M35" s="488"/>
-      <c r="N35" s="488"/>
-      <c r="O35" s="488"/>
-      <c r="P35" s="488"/>
-      <c r="Q35" s="488"/>
-      <c r="R35" s="488"/>
-      <c r="S35" s="488"/>
-      <c r="T35" s="488"/>
-      <c r="U35" s="488"/>
-      <c r="V35" s="488"/>
-      <c r="W35" s="488"/>
-      <c r="X35" s="488"/>
+      <c r="G35" s="483"/>
+      <c r="H35" s="483"/>
+      <c r="I35" s="483"/>
+      <c r="J35" s="483"/>
+      <c r="K35" s="483"/>
+      <c r="L35" s="483"/>
+      <c r="M35" s="483"/>
+      <c r="N35" s="483"/>
+      <c r="O35" s="483"/>
+      <c r="P35" s="483"/>
+      <c r="Q35" s="483"/>
+      <c r="R35" s="483"/>
+      <c r="S35" s="483"/>
+      <c r="T35" s="483"/>
+      <c r="U35" s="483"/>
+      <c r="V35" s="483"/>
+      <c r="W35" s="483"/>
+      <c r="X35" s="483"/>
       <c r="AN35" s="249"/>
     </row>
     <row r="36" spans="3:40" s="248" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="488"/>
-      <c r="H36" s="488"/>
-      <c r="I36" s="488"/>
-      <c r="J36" s="488"/>
-      <c r="K36" s="488"/>
-      <c r="L36" s="488"/>
-      <c r="M36" s="488"/>
-      <c r="N36" s="488"/>
-      <c r="O36" s="488"/>
-      <c r="P36" s="488"/>
-      <c r="Q36" s="488"/>
-      <c r="R36" s="488"/>
-      <c r="S36" s="488"/>
-      <c r="T36" s="488"/>
-      <c r="U36" s="488"/>
-      <c r="V36" s="488"/>
-      <c r="W36" s="488"/>
-      <c r="X36" s="488"/>
+      <c r="G36" s="483"/>
+      <c r="H36" s="483"/>
+      <c r="I36" s="483"/>
+      <c r="J36" s="483"/>
+      <c r="K36" s="483"/>
+      <c r="L36" s="483"/>
+      <c r="M36" s="483"/>
+      <c r="N36" s="483"/>
+      <c r="O36" s="483"/>
+      <c r="P36" s="483"/>
+      <c r="Q36" s="483"/>
+      <c r="R36" s="483"/>
+      <c r="S36" s="483"/>
+      <c r="T36" s="483"/>
+      <c r="U36" s="483"/>
+      <c r="V36" s="483"/>
+      <c r="W36" s="483"/>
+      <c r="X36" s="483"/>
       <c r="AN36" s="249"/>
     </row>
     <row r="37" spans="3:40" s="248" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="488"/>
-      <c r="H37" s="488"/>
-      <c r="I37" s="488"/>
-      <c r="J37" s="488"/>
-      <c r="K37" s="488"/>
-      <c r="L37" s="488"/>
-      <c r="M37" s="488"/>
-      <c r="N37" s="488"/>
-      <c r="O37" s="488"/>
-      <c r="P37" s="488"/>
-      <c r="Q37" s="488"/>
-      <c r="R37" s="488"/>
-      <c r="S37" s="488"/>
-      <c r="T37" s="488"/>
-      <c r="U37" s="488"/>
-      <c r="V37" s="488"/>
-      <c r="W37" s="488"/>
-      <c r="X37" s="488"/>
+      <c r="G37" s="483"/>
+      <c r="H37" s="483"/>
+      <c r="I37" s="483"/>
+      <c r="J37" s="483"/>
+      <c r="K37" s="483"/>
+      <c r="L37" s="483"/>
+      <c r="M37" s="483"/>
+      <c r="N37" s="483"/>
+      <c r="O37" s="483"/>
+      <c r="P37" s="483"/>
+      <c r="Q37" s="483"/>
+      <c r="R37" s="483"/>
+      <c r="S37" s="483"/>
+      <c r="T37" s="483"/>
+      <c r="U37" s="483"/>
+      <c r="V37" s="483"/>
+      <c r="W37" s="483"/>
+      <c r="X37" s="483"/>
       <c r="AN37" s="249"/>
     </row>
     <row r="38" spans="3:40" s="248" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="488"/>
-      <c r="H38" s="488"/>
-      <c r="I38" s="488"/>
-      <c r="J38" s="488"/>
-      <c r="K38" s="488"/>
-      <c r="L38" s="488"/>
-      <c r="M38" s="488"/>
-      <c r="N38" s="488"/>
-      <c r="O38" s="488"/>
-      <c r="P38" s="488"/>
-      <c r="Q38" s="488"/>
-      <c r="R38" s="488"/>
-      <c r="S38" s="488"/>
-      <c r="T38" s="488"/>
-      <c r="U38" s="488"/>
-      <c r="V38" s="488"/>
-      <c r="W38" s="488"/>
-      <c r="X38" s="488"/>
+      <c r="G38" s="483"/>
+      <c r="H38" s="483"/>
+      <c r="I38" s="483"/>
+      <c r="J38" s="483"/>
+      <c r="K38" s="483"/>
+      <c r="L38" s="483"/>
+      <c r="M38" s="483"/>
+      <c r="N38" s="483"/>
+      <c r="O38" s="483"/>
+      <c r="P38" s="483"/>
+      <c r="Q38" s="483"/>
+      <c r="R38" s="483"/>
+      <c r="S38" s="483"/>
+      <c r="T38" s="483"/>
+      <c r="U38" s="483"/>
+      <c r="V38" s="483"/>
+      <c r="W38" s="483"/>
+      <c r="X38" s="483"/>
       <c r="AN38" s="249"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="210"/>
       <c r="D39" s="210"/>
-      <c r="G39" s="488"/>
-      <c r="H39" s="488"/>
-      <c r="I39" s="488"/>
-      <c r="J39" s="488"/>
-      <c r="K39" s="488"/>
-      <c r="L39" s="488"/>
-      <c r="M39" s="488"/>
-      <c r="N39" s="488"/>
-      <c r="O39" s="488"/>
-      <c r="P39" s="488"/>
-      <c r="Q39" s="488"/>
-      <c r="R39" s="488"/>
-      <c r="S39" s="488"/>
-      <c r="T39" s="488"/>
-      <c r="U39" s="488"/>
-      <c r="V39" s="488"/>
-      <c r="W39" s="488"/>
-      <c r="X39" s="488"/>
+      <c r="G39" s="483"/>
+      <c r="H39" s="483"/>
+      <c r="I39" s="483"/>
+      <c r="J39" s="483"/>
+      <c r="K39" s="483"/>
+      <c r="L39" s="483"/>
+      <c r="M39" s="483"/>
+      <c r="N39" s="483"/>
+      <c r="O39" s="483"/>
+      <c r="P39" s="483"/>
+      <c r="Q39" s="483"/>
+      <c r="R39" s="483"/>
+      <c r="S39" s="483"/>
+      <c r="T39" s="483"/>
+      <c r="U39" s="483"/>
+      <c r="V39" s="483"/>
+      <c r="W39" s="483"/>
+      <c r="X39" s="483"/>
       <c r="AN39" s="210"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -11504,6 +11504,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -11518,13 +11525,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="O18:Y18"/>
     <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12375,38 +12375,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="512" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="510" t="s">
+      <c r="F1" s="513" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="510"/>
-      <c r="H1" s="510"/>
-      <c r="I1" s="510"/>
-      <c r="J1" s="510"/>
-      <c r="K1" s="510"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="514" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
+      <c r="B2" s="514"/>
+      <c r="C2" s="514"/>
+      <c r="D2" s="514"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="512" t="s">
+      <c r="F2" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
-      <c r="K2" s="512"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
+      <c r="K2" s="515"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -12419,43 +12419,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="513" t="s">
+      <c r="A4" s="516" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="513"/>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513"/>
-      <c r="F4" s="513"/>
-      <c r="G4" s="513"/>
-      <c r="H4" s="513"/>
-      <c r="I4" s="513"/>
-      <c r="J4" s="513"/>
-      <c r="K4" s="513"/>
-      <c r="L4" s="513"/>
+      <c r="B4" s="516"/>
+      <c r="C4" s="516"/>
+      <c r="D4" s="516"/>
+      <c r="E4" s="516"/>
+      <c r="F4" s="516"/>
+      <c r="G4" s="516"/>
+      <c r="H4" s="516"/>
+      <c r="I4" s="516"/>
+      <c r="J4" s="516"/>
+      <c r="K4" s="516"/>
+      <c r="L4" s="516"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="514" t="s">
+      <c r="A5" s="517" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="514"/>
-      <c r="C5" s="514"/>
-      <c r="D5" s="514"/>
-      <c r="E5" s="514"/>
-      <c r="F5" s="514"/>
-      <c r="G5" s="514"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="514"/>
-      <c r="J5" s="514"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="514"/>
+      <c r="B5" s="517"/>
+      <c r="C5" s="517"/>
+      <c r="D5" s="517"/>
+      <c r="E5" s="517"/>
+      <c r="F5" s="517"/>
+      <c r="G5" s="517"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="517"/>
+      <c r="J5" s="517"/>
+      <c r="K5" s="517"/>
+      <c r="L5" s="517"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="515" t="s">
+      <c r="J6" s="518" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="515"/>
-      <c r="L6" s="515"/>
+      <c r="K6" s="518"/>
+      <c r="L6" s="518"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="144" t="s">
@@ -12522,12 +12522,12 @@
       <c r="L8" s="144"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="506" t="s">
+      <c r="A9" s="509" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="507"/>
-      <c r="C9" s="507"/>
-      <c r="D9" s="508"/>
+      <c r="B9" s="510"/>
+      <c r="C9" s="510"/>
+      <c r="D9" s="511"/>
       <c r="E9" s="146"/>
       <c r="F9" s="150">
         <f>SUM(F10:F12)</f>
@@ -12652,12 +12652,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="503" t="s">
+      <c r="A13" s="506" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="504"/>
-      <c r="C13" s="504"/>
-      <c r="D13" s="505"/>
+      <c r="B13" s="507"/>
+      <c r="C13" s="507"/>
+      <c r="D13" s="508"/>
       <c r="E13" s="89"/>
       <c r="F13" s="150">
         <f>SUM(F14:F14)</f>
@@ -12716,11 +12716,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="516" t="s">
+      <c r="A15" s="519" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="517"/>
-      <c r="C15" s="518"/>
+      <c r="B15" s="520"/>
+      <c r="C15" s="521"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -12747,14 +12747,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="501"/>
-      <c r="C17" s="501"/>
-      <c r="D17" s="501"/>
+      <c r="B17" s="504"/>
+      <c r="C17" s="504"/>
+      <c r="D17" s="504"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="501"/>
-      <c r="I17" s="501"/>
-      <c r="J17" s="501"/>
-      <c r="K17" s="501"/>
+      <c r="H17" s="504"/>
+      <c r="I17" s="504"/>
+      <c r="J17" s="504"/>
+      <c r="K17" s="504"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="141" t="s">
@@ -12766,12 +12766,12 @@
         <v>84</v>
       </c>
       <c r="G18" s="141"/>
-      <c r="H18" s="501" t="s">
+      <c r="H18" s="504" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="501"/>
-      <c r="J18" s="501"/>
-      <c r="K18" s="501"/>
+      <c r="I18" s="504"/>
+      <c r="J18" s="504"/>
+      <c r="K18" s="504"/>
     </row>
     <row r="19" spans="2:11" s="142" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="143" t="s">
@@ -12783,12 +12783,12 @@
         <v>91</v>
       </c>
       <c r="G19" s="143"/>
-      <c r="H19" s="502" t="s">
+      <c r="H19" s="505" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="502"/>
-      <c r="J19" s="502"/>
-      <c r="K19" s="502"/>
+      <c r="I19" s="505"/>
+      <c r="J19" s="505"/>
+      <c r="K19" s="505"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>
